--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -5367,7 +5367,11 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K89" s="19" t="n"/>
+      <c r="K89" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L89" s="19" t="inlineStr">
         <is>
           <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -17093,7 +17093,11 @@
         </is>
       </c>
       <c r="J311" s="13" t="n"/>
-      <c r="K311" s="19" t="n"/>
+      <c r="K311" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+        </is>
+      </c>
       <c r="L311" s="19" t="inlineStr">
         <is>
           <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
@@ -17877,28 +17881,28 @@
     <row r="327">
       <c r="A327" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B327" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C327" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D327" s="18" t="inlineStr">
         <is>
-          <t>Se necessário para cargas de trabalho do AKS Windows, os contêineres HostProcess podem ser usados</t>
+          <t>Certifique-se de que suas origens recebam apenas o tráfego de sua instância do Azure Front Door.</t>
         </is>
       </c>
       <c r="E327" s="18" t="n"/>
       <c r="F327" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -17916,7 +17920,7 @@
       <c r="K327" s="19" t="n"/>
       <c r="L327" s="19" t="inlineStr">
         <is>
-          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M327" s="20" t="n"/>
@@ -17928,28 +17932,28 @@
     <row r="328">
       <c r="A328" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B328" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C328" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D328" s="18" t="inlineStr">
         <is>
-          <t>Usar o KEDA se estiver executando cargas de trabalho orientadas a eventos</t>
+          <t>Você deve criptografar o tráfego para os servidores de back-end.</t>
         </is>
       </c>
       <c r="E328" s="18" t="n"/>
       <c r="F328" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -17967,7 +17971,7 @@
       <c r="K328" s="19" t="n"/>
       <c r="L328" s="19" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M328" s="20" t="n"/>
@@ -17979,28 +17983,28 @@
     <row r="329">
       <c r="A329" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B329" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C329" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D329" s="18" t="inlineStr">
         <is>
-          <t>Use o Dapr para facilitar o desenvolvimento de microsserviços</t>
+          <t>Você deve usar um Web Application Firewall.</t>
         </is>
       </c>
       <c r="E329" s="18" t="n"/>
       <c r="F329" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -18018,7 +18022,7 @@
       <c r="K329" s="19" t="n"/>
       <c r="L329" s="19" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M329" s="20" t="n"/>
@@ -18030,28 +18034,28 @@
     <row r="330">
       <c r="A330" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B330" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C330" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D330" s="18" t="inlineStr">
         <is>
-          <t>Use a oferta AKS apoiada por SLA</t>
+          <t>Redirecionar HTTP para HTTPS</t>
         </is>
       </c>
       <c r="E330" s="18" t="n"/>
       <c r="F330" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -18066,14 +18070,10 @@
         </is>
       </c>
       <c r="J330" s="13" t="n"/>
-      <c r="K330" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K330" s="19" t="n"/>
       <c r="L330" s="19" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M330" s="20" t="n"/>
@@ -18100,7 +18100,7 @@
       </c>
       <c r="D331" s="18" t="inlineStr">
         <is>
-          <t>Usar orçamentos de interrupção em seu pod e definições de implantação</t>
+          <t>Se necessário para cargas de trabalho do AKS Windows, os contêineres HostProcess podem ser usados</t>
         </is>
       </c>
       <c r="E331" s="18" t="n"/>
@@ -18124,7 +18124,7 @@
       <c r="K331" s="19" t="n"/>
       <c r="L331" s="19" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M331" s="20" t="n"/>
@@ -18141,23 +18141,23 @@
       </c>
       <c r="B332" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C332" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D332" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando um registro privado, configure a replicação de região para armazenar imagens em várias regiões</t>
+          <t>Usar o KEDA se estiver executando cargas de trabalho orientadas a eventos</t>
         </is>
       </c>
       <c r="E332" s="18" t="n"/>
       <c r="F332" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -18175,7 +18175,7 @@
       <c r="K332" s="19" t="n"/>
       <c r="L332" s="19" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M332" s="20" t="n"/>
@@ -18192,7 +18192,7 @@
       </c>
       <c r="B333" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C333" s="18" t="inlineStr">
@@ -18202,7 +18202,7 @@
       </c>
       <c r="D333" s="18" t="inlineStr">
         <is>
-          <t>Use um aplicativo externo, como kubecost, para alocar custos para diferentes usuários</t>
+          <t>Use o Dapr para facilitar o desenvolvimento de microsserviços</t>
         </is>
       </c>
       <c r="E333" s="18" t="n"/>
@@ -18226,7 +18226,7 @@
       <c r="K333" s="19" t="n"/>
       <c r="L333" s="19" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M333" s="20" t="n"/>
@@ -18243,7 +18243,7 @@
       </c>
       <c r="B334" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C334" s="18" t="inlineStr">
@@ -18253,13 +18253,13 @@
       </c>
       <c r="D334" s="18" t="inlineStr">
         <is>
-          <t>Usar o modo de redução para excluir/desalocar nós</t>
+          <t>Use a oferta AKS apoiada por SLA</t>
         </is>
       </c>
       <c r="E334" s="18" t="n"/>
       <c r="F334" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -18274,10 +18274,14 @@
         </is>
       </c>
       <c r="J334" s="13" t="n"/>
-      <c r="K334" s="19" t="n"/>
+      <c r="K334" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L334" s="19" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M334" s="20" t="n"/>
@@ -18294,7 +18298,7 @@
       </c>
       <c r="B335" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C335" s="18" t="inlineStr">
@@ -18304,13 +18308,13 @@
       </c>
       <c r="D335" s="18" t="inlineStr">
         <is>
-          <t>Quando necessário, use a GPU de partioning de várias instâncias em clusters AKS</t>
+          <t>Usar orçamentos de interrupção em seu pod e definições de implantação</t>
         </is>
       </c>
       <c r="E335" s="18" t="n"/>
       <c r="F335" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -18328,7 +18332,7 @@
       <c r="K335" s="19" t="n"/>
       <c r="L335" s="19" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M335" s="20" t="n"/>
@@ -18345,23 +18349,23 @@
       </c>
       <c r="B336" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C336" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D336" s="18" t="inlineStr">
         <is>
-          <t>Se estiver executando um cluster de desenvolvimento/teste, use NodePool Start/Stop</t>
+          <t>Se estiver usando um registro privado, configure a replicação de região para armazenar imagens em várias regiões</t>
         </is>
       </c>
       <c r="E336" s="18" t="n"/>
       <c r="F336" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -18379,7 +18383,7 @@
       <c r="K336" s="19" t="n"/>
       <c r="L336" s="19" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M336" s="20" t="n"/>
@@ -18396,7 +18400,7 @@
       </c>
       <c r="B337" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C337" s="18" t="inlineStr">
@@ -18406,13 +18410,13 @@
       </c>
       <c r="D337" s="18" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para Kubernetes para garantir a conformidade do cluster</t>
+          <t>Use um aplicativo externo, como kubecost, para alocar custos para diferentes usuários</t>
         </is>
       </c>
       <c r="E337" s="18" t="n"/>
       <c r="F337" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -18427,14 +18431,10 @@
         </is>
       </c>
       <c r="J337" s="13" t="n"/>
-      <c r="K337" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K337" s="19" t="n"/>
       <c r="L337" s="19" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M337" s="20" t="n"/>
@@ -18451,7 +18451,7 @@
       </c>
       <c r="B338" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C338" s="18" t="inlineStr">
@@ -18461,13 +18461,13 @@
       </c>
       <c r="D338" s="18" t="inlineStr">
         <is>
-          <t>Separe os aplicativos do plano de controle com pools de nós de usuário/sistema</t>
+          <t>Usar o modo de redução para excluir/desalocar nós</t>
         </is>
       </c>
       <c r="E338" s="18" t="n"/>
       <c r="F338" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -18482,14 +18482,10 @@
         </is>
       </c>
       <c r="J338" s="13" t="n"/>
-      <c r="K338" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
-        </is>
-      </c>
+      <c r="K338" s="19" t="n"/>
       <c r="L338" s="19" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M338" s="20" t="n"/>
@@ -18506,7 +18502,7 @@
       </c>
       <c r="B339" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C339" s="18" t="inlineStr">
@@ -18516,13 +18512,13 @@
       </c>
       <c r="D339" s="18" t="inlineStr">
         <is>
-          <t>Adicione mancha ao seu nodepool do sistema para torná-lo dedicado</t>
+          <t>Quando necessário, use a GPU de partioning de várias instâncias em clusters AKS</t>
         </is>
       </c>
       <c r="E339" s="18" t="n"/>
       <c r="F339" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -18540,7 +18536,7 @@
       <c r="K339" s="19" t="n"/>
       <c r="L339" s="19" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M339" s="20" t="n"/>
@@ -18557,7 +18553,7 @@
       </c>
       <c r="B340" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C340" s="18" t="inlineStr">
@@ -18567,13 +18563,13 @@
       </c>
       <c r="D340" s="18" t="inlineStr">
         <is>
-          <t>Usar um registro privado para suas imagens, como o ACR</t>
+          <t>Se estiver executando um cluster de desenvolvimento/teste, use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="E340" s="18" t="n"/>
       <c r="F340" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -18591,7 +18587,7 @@
       <c r="K340" s="19" t="n"/>
       <c r="L340" s="19" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M340" s="20" t="n"/>
@@ -18613,12 +18609,12 @@
       </c>
       <c r="C341" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D341" s="18" t="inlineStr">
         <is>
-          <t>Analise suas imagens em busca de vulnerabilidades</t>
+          <t>Usar a Política do Azure para Kubernetes para garantir a conformidade do cluster</t>
         </is>
       </c>
       <c r="E341" s="18" t="n"/>
@@ -18639,10 +18635,14 @@
         </is>
       </c>
       <c r="J341" s="13" t="n"/>
-      <c r="K341" s="19" t="n"/>
+      <c r="K341" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L341" s="19" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M341" s="20" t="n"/>
@@ -18669,13 +18669,13 @@
       </c>
       <c r="D342" s="18" t="inlineStr">
         <is>
-          <t>Definir requisitos de separação de aplicativos (namespace/nodepool/cluster)</t>
+          <t>Separe os aplicativos do plano de controle com pools de nós de usuário/sistema</t>
         </is>
       </c>
       <c r="E342" s="18" t="n"/>
       <c r="F342" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -18690,10 +18690,14 @@
         </is>
       </c>
       <c r="J342" s="13" t="n"/>
-      <c r="K342" s="19" t="n"/>
+      <c r="K342" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
+        </is>
+      </c>
       <c r="L342" s="19" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M342" s="20" t="n"/>
@@ -18720,13 +18724,13 @@
       </c>
       <c r="D343" s="18" t="inlineStr">
         <is>
-          <t>Armazene seus segredos no Cofre de Chaves do Azure com o driver do CSI Secrets Store</t>
+          <t>Adicione mancha ao seu nodepool do sistema para torná-lo dedicado</t>
         </is>
       </c>
       <c r="E343" s="18" t="n"/>
       <c r="F343" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -18744,7 +18748,7 @@
       <c r="K343" s="19" t="n"/>
       <c r="L343" s="19" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M343" s="20" t="n"/>
@@ -18771,13 +18775,13 @@
       </c>
       <c r="D344" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando entidades de serviço para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
+          <t>Usar um registro privado para suas imagens, como o ACR</t>
         </is>
       </c>
       <c r="E344" s="18" t="n"/>
       <c r="F344" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -18795,7 +18799,7 @@
       <c r="K344" s="19" t="n"/>
       <c r="L344" s="19" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M344" s="20" t="n"/>
@@ -18817,12 +18821,12 @@
       </c>
       <c r="C345" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D345" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, adicione criptografia etcd do Serviço de Gerenciamento de Chaves</t>
+          <t>Analise suas imagens em busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="E345" s="18" t="n"/>
@@ -18846,7 +18850,7 @@
       <c r="K345" s="19" t="n"/>
       <c r="L345" s="19" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M345" s="20" t="n"/>
@@ -18873,13 +18877,13 @@
       </c>
       <c r="D346" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, considere o uso de computação confidencial para AKS</t>
+          <t>Definir requisitos de separação de aplicativos (namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="E346" s="18" t="n"/>
       <c r="F346" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -18897,7 +18901,7 @@
       <c r="K346" s="19" t="n"/>
       <c r="L346" s="19" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M346" s="20" t="n"/>
@@ -18924,7 +18928,7 @@
       </c>
       <c r="D347" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso do Defender for Containers</t>
+          <t>Armazene seus segredos no Cofre de Chaves do Azure com o driver do CSI Secrets Store</t>
         </is>
       </c>
       <c r="E347" s="18" t="n"/>
@@ -18948,7 +18952,7 @@
       <c r="K347" s="19" t="n"/>
       <c r="L347" s="19" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M347" s="20" t="n"/>
@@ -18975,7 +18979,7 @@
       </c>
       <c r="D348" s="18" t="inlineStr">
         <is>
-          <t>Usar identidades gerenciadas em vez de entidades de serviço</t>
+          <t>Se estiver usando entidades de serviço para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
         </is>
       </c>
       <c r="E348" s="18" t="n"/>
@@ -18996,14 +19000,10 @@
         </is>
       </c>
       <c r="J348" s="13" t="n"/>
-      <c r="K348" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K348" s="19" t="n"/>
       <c r="L348" s="19" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M348" s="20" t="n"/>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="D349" s="18" t="inlineStr">
         <is>
-          <t>Integrar autenticação com AAD (usando a integração gerenciada)</t>
+          <t>Se necessário, adicione criptografia etcd do Serviço de Gerenciamento de Chaves</t>
         </is>
       </c>
       <c r="E349" s="18" t="n"/>
@@ -19051,14 +19051,10 @@
         </is>
       </c>
       <c r="J349" s="13" t="n"/>
-      <c r="K349" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K349" s="19" t="n"/>
       <c r="L349" s="19" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M349" s="20" t="n"/>
@@ -19085,13 +19081,13 @@
       </c>
       <c r="D350" s="18" t="inlineStr">
         <is>
-          <t>Limitar o acesso ao admin kubeconfig (get-credentials --admin)</t>
+          <t>Se necessário, considere o uso de computação confidencial para AKS</t>
         </is>
       </c>
       <c r="E350" s="18" t="n"/>
       <c r="F350" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
@@ -19109,7 +19105,7 @@
       <c r="K350" s="19" t="n"/>
       <c r="L350" s="19" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M350" s="20" t="n"/>
@@ -19136,7 +19132,7 @@
       </c>
       <c r="D351" s="18" t="inlineStr">
         <is>
-          <t>Integrar autorização com AAD RBAC</t>
+          <t>Considere o uso do Defender for Containers</t>
         </is>
       </c>
       <c r="E351" s="18" t="n"/>
@@ -19160,7 +19156,7 @@
       <c r="K351" s="19" t="n"/>
       <c r="L351" s="19" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M351" s="20" t="n"/>
@@ -19187,7 +19183,7 @@
       </c>
       <c r="D352" s="18" t="inlineStr">
         <is>
-          <t>Usar namespaces para restringir o privilégio RBAC no Kubernetes</t>
+          <t>Usar identidades gerenciadas em vez de entidades de serviço</t>
         </is>
       </c>
       <c r="E352" s="18" t="n"/>
@@ -19208,10 +19204,14 @@
         </is>
       </c>
       <c r="J352" s="13" t="n"/>
-      <c r="K352" s="19" t="n"/>
+      <c r="K352" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L352" s="19" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M352" s="20" t="n"/>
@@ -19238,7 +19238,7 @@
       </c>
       <c r="D353" s="18" t="inlineStr">
         <is>
-          <t>Para o Gerenciamento de Acesso à Identidade de Pod, use a Identidade de Carga de Trabalho do Azure AD (visualização)</t>
+          <t>Integrar autenticação com AAD (usando a integração gerenciada)</t>
         </is>
       </c>
       <c r="E353" s="18" t="n"/>
@@ -19259,10 +19259,14 @@
         </is>
       </c>
       <c r="J353" s="13" t="n"/>
-      <c r="K353" s="19" t="n"/>
+      <c r="K353" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L353" s="19" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M353" s="20" t="n"/>
@@ -19289,7 +19293,7 @@
       </c>
       <c r="D354" s="18" t="inlineStr">
         <is>
-          <t>Para logins não interativos do AKS, use kubelogin (visualização)</t>
+          <t>Limitar o acesso ao admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="E354" s="18" t="n"/>
@@ -19313,7 +19317,7 @@
       <c r="K354" s="19" t="n"/>
       <c r="L354" s="19" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M354" s="20" t="n"/>
@@ -19340,7 +19344,7 @@
       </c>
       <c r="D355" s="18" t="inlineStr">
         <is>
-          <t>Desativar contas locais do AKS</t>
+          <t>Integrar autorização com AAD RBAC</t>
         </is>
       </c>
       <c r="E355" s="18" t="n"/>
@@ -19361,14 +19365,10 @@
         </is>
       </c>
       <c r="J355" s="13" t="n"/>
-      <c r="K355" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K355" s="19" t="n"/>
       <c r="L355" s="19" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M355" s="20" t="n"/>
@@ -19395,13 +19395,13 @@
       </c>
       <c r="D356" s="18" t="inlineStr">
         <is>
-          <t>Configurar, se necessário, o acesso ao cluster just-in-time</t>
+          <t>Usar namespaces para restringir o privilégio RBAC no Kubernetes</t>
         </is>
       </c>
       <c r="E356" s="18" t="n"/>
       <c r="F356" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -19419,7 +19419,7 @@
       <c r="K356" s="19" t="n"/>
       <c r="L356" s="19" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M356" s="20" t="n"/>
@@ -19446,13 +19446,13 @@
       </c>
       <c r="D357" s="18" t="inlineStr">
         <is>
-          <t>Configurar, se necessário, o acesso condicional do AAD para AKS</t>
+          <t>Para o Gerenciamento de Acesso à Identidade de Pod, use a Identidade de Carga de Trabalho do Azure AD (visualização)</t>
         </is>
       </c>
       <c r="E357" s="18" t="n"/>
       <c r="F357" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -19470,7 +19470,7 @@
       <c r="K357" s="19" t="n"/>
       <c r="L357" s="19" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M357" s="20" t="n"/>
@@ -19497,13 +19497,13 @@
       </c>
       <c r="D358" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se necessário para cargas de trabalho do Windows AKS, configure o gMSA </t>
+          <t>Para logins não interativos do AKS, use kubelogin (visualização)</t>
         </is>
       </c>
       <c r="E358" s="18" t="n"/>
       <c r="F358" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -19521,7 +19521,7 @@
       <c r="K358" s="19" t="n"/>
       <c r="L358" s="19" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M358" s="20" t="n"/>
@@ -19548,7 +19548,7 @@
       </c>
       <c r="D359" s="18" t="inlineStr">
         <is>
-          <t>Para um controle mais fino, considere usar uma Identidade Kubelet gerenciada</t>
+          <t>Desativar contas locais do AKS</t>
         </is>
       </c>
       <c r="E359" s="18" t="n"/>
@@ -19569,10 +19569,14 @@
         </is>
       </c>
       <c r="J359" s="13" t="n"/>
-      <c r="K359" s="19" t="n"/>
+      <c r="K359" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L359" s="19" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M359" s="20" t="n"/>
@@ -19589,7 +19593,7 @@
       </c>
       <c r="B360" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C360" s="18" t="inlineStr">
@@ -19599,13 +19603,13 @@
       </c>
       <c r="D360" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando AGIC, não compartilhe um AppGW entre clusters</t>
+          <t>Configurar, se necessário, o acesso ao cluster just-in-time</t>
         </is>
       </c>
       <c r="E360" s="18" t="n"/>
       <c r="F360" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -19623,7 +19627,7 @@
       <c r="K360" s="19" t="n"/>
       <c r="L360" s="19" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M360" s="20" t="n"/>
@@ -19640,7 +19644,7 @@
       </c>
       <c r="B361" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C361" s="18" t="inlineStr">
@@ -19650,13 +19654,13 @@
       </c>
       <c r="D361" s="18" t="inlineStr">
         <is>
-          <t>Não use AKS HTTP Routing Add-On, use em vez disso a entrada NGINX gerenciada com o complemento de roteamento de aplicativo.</t>
+          <t>Configurar, se necessário, o acesso condicional do AAD para AKS</t>
         </is>
       </c>
       <c r="E361" s="18" t="n"/>
       <c r="F361" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
@@ -19671,14 +19675,10 @@
         </is>
       </c>
       <c r="J361" s="13" t="n"/>
-      <c r="K361" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K361" s="19" t="n"/>
       <c r="L361" s="19" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M361" s="20" t="n"/>
@@ -19695,7 +19695,7 @@
       </c>
       <c r="B362" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C362" s="18" t="inlineStr">
@@ -19705,13 +19705,13 @@
       </c>
       <c r="D362" s="18" t="inlineStr">
         <is>
-          <t>Para cargas de trabalho do Windows, use a Rede Acelerada</t>
+          <t xml:space="preserve">Se necessário para cargas de trabalho do Windows AKS, configure o gMSA </t>
         </is>
       </c>
       <c r="E362" s="18" t="n"/>
       <c r="F362" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
@@ -19729,7 +19729,7 @@
       <c r="K362" s="19" t="n"/>
       <c r="L362" s="19" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M362" s="20" t="n"/>
@@ -19746,7 +19746,7 @@
       </c>
       <c r="B363" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C363" s="18" t="inlineStr">
@@ -19756,13 +19756,13 @@
       </c>
       <c r="D363" s="18" t="inlineStr">
         <is>
-          <t>Use o ALB padrão (em oposição ao básico)</t>
+          <t>Para um controle mais fino, considere usar uma Identidade Kubelet gerenciada</t>
         </is>
       </c>
       <c r="E363" s="18" t="n"/>
       <c r="F363" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G363" t="inlineStr">
@@ -19777,14 +19777,10 @@
         </is>
       </c>
       <c r="J363" s="13" t="n"/>
-      <c r="K363" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K363" s="19" t="n"/>
       <c r="L363" s="19" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M363" s="20" t="n"/>
@@ -19801,7 +19797,7 @@
       </c>
       <c r="B364" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C364" s="18" t="inlineStr">
@@ -19811,7 +19807,7 @@
       </c>
       <c r="D364" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o CNI do Azure, considere usar sub-redes diferentes para NodePools</t>
+          <t>Se estiver usando AGIC, não compartilhe um AppGW entre clusters</t>
         </is>
       </c>
       <c r="E364" s="18" t="n"/>
@@ -19835,7 +19831,7 @@
       <c r="K364" s="19" t="n"/>
       <c r="L364" s="19" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M364" s="20" t="n"/>
@@ -19852,7 +19848,7 @@
       </c>
       <c r="B365" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C365" s="18" t="inlineStr">
@@ -19862,13 +19858,13 @@
       </c>
       <c r="D365" s="18" t="inlineStr">
         <is>
-          <t>Usar Pontos de Extremidade Privados (preferencial) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS do cluster</t>
+          <t>Não use AKS HTTP Routing Add-On, use em vez disso a entrada NGINX gerenciada com o complemento de roteamento de aplicativo.</t>
         </is>
       </c>
       <c r="E365" s="18" t="n"/>
       <c r="F365" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -19883,10 +19879,14 @@
         </is>
       </c>
       <c r="J365" s="13" t="n"/>
-      <c r="K365" s="19" t="n"/>
+      <c r="K365" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L365" s="19" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M365" s="20" t="n"/>
@@ -19903,7 +19903,7 @@
       </c>
       <c r="B366" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C366" s="18" t="inlineStr">
@@ -19913,13 +19913,13 @@
       </c>
       <c r="D366" s="18" t="inlineStr">
         <is>
-          <t>Escolha o melhor plug-in de rede CNI para seus requisitos (Azure CNI recomendado)</t>
+          <t>Para cargas de trabalho do Windows, use a Rede Acelerada</t>
         </is>
       </c>
       <c r="E366" s="18" t="n"/>
       <c r="F366" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G366" t="inlineStr">
@@ -19934,14 +19934,10 @@
         </is>
       </c>
       <c r="J366" s="13" t="n"/>
-      <c r="K366" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K366" s="19" t="n"/>
       <c r="L366" s="19" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M366" s="20" t="n"/>
@@ -19958,7 +19954,7 @@
       </c>
       <c r="B367" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C367" s="18" t="inlineStr">
@@ -19968,7 +19964,7 @@
       </c>
       <c r="D367" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o Azure CNI, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
+          <t>Use o ALB padrão (em oposição ao básico)</t>
         </is>
       </c>
       <c r="E367" s="18" t="n"/>
@@ -19989,10 +19985,14 @@
         </is>
       </c>
       <c r="J367" s="13" t="n"/>
-      <c r="K367" s="19" t="n"/>
+      <c r="K367" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L367" s="19" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M367" s="20" t="n"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B368" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C368" s="18" t="inlineStr">
@@ -20019,13 +20019,13 @@
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o Azure CNI, verifique o máximo de pods/nó (padrão 30)</t>
+          <t>Se estiver usando o CNI do Azure, considere usar sub-redes diferentes para NodePools</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
       <c r="F368" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -20043,7 +20043,7 @@
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -20070,17 +20070,13 @@
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando serviços LoadBalancer de IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
-        </is>
-      </c>
-      <c r="E369" s="18" t="inlineStr">
-        <is>
-          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso abre o acesso de rede para os nós também e, potencialmente, para os pods também (se estiver usando o Azure CNI). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS são um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
-        </is>
-      </c>
+          <t>Usar Pontos de Extremidade Privados (preferencial) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS do cluster</t>
+        </is>
+      </c>
+      <c r="E369" s="18" t="n"/>
       <c r="F369" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -20098,7 +20094,7 @@
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -20125,7 +20121,7 @@
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>Dimensione o intervalo de endereços IP do serviço de acordo (isso limitará a escalabilidade do cluster)</t>
+          <t>Escolha o melhor plug-in de rede CNI para seus requisitos (Azure CNI recomendado)</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
@@ -20146,10 +20142,14 @@
         </is>
       </c>
       <c r="J370" s="13" t="n"/>
-      <c r="K370" s="19" t="n"/>
+      <c r="K370" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="B371" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C371" s="18" t="inlineStr">
@@ -20176,13 +20176,13 @@
       </c>
       <c r="D371" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, adicione seu próprio plugin CNI</t>
+          <t>Se estiver usando o Azure CNI, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
         </is>
       </c>
       <c r="E371" s="18" t="n"/>
       <c r="F371" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
@@ -20200,7 +20200,7 @@
       <c r="K371" s="19" t="n"/>
       <c r="L371" s="19" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M371" s="20" t="n"/>
@@ -20227,13 +20227,13 @@
       </c>
       <c r="D372" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, configure o IP público por nó no AKS</t>
+          <t>Se estiver usando o Azure CNI, verifique o máximo de pods/nó (padrão 30)</t>
         </is>
       </c>
       <c r="E372" s="18" t="n"/>
       <c r="F372" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
@@ -20251,7 +20251,7 @@
       <c r="K372" s="19" t="n"/>
       <c r="L372" s="19" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M372" s="20" t="n"/>
@@ -20268,7 +20268,7 @@
       </c>
       <c r="B373" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C373" s="18" t="inlineStr">
@@ -20278,13 +20278,17 @@
       </c>
       <c r="D373" s="18" t="inlineStr">
         <is>
-          <t>Usar um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
-        </is>
-      </c>
-      <c r="E373" s="18" t="n"/>
+          <t>Se estiver usando serviços LoadBalancer de IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
+        </is>
+      </c>
+      <c r="E373" s="18" t="inlineStr">
+        <is>
+          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso abre o acesso de rede para os nós também e, potencialmente, para os pods também (se estiver usando o Azure CNI). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS são um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
+        </is>
+      </c>
       <c r="F373" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
@@ -20302,7 +20306,7 @@
       <c r="K373" s="19" t="n"/>
       <c r="L373" s="19" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M373" s="20" t="n"/>
@@ -20329,13 +20333,13 @@
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure como outboundType para dimensionar o tráfego de saída</t>
+          <t>Dimensione o intervalo de endereços IP do serviço de acordo (isso limitará a escalabilidade do cluster)</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
       <c r="F374" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -20353,7 +20357,7 @@
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -20370,7 +20374,7 @@
       </c>
       <c r="B375" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C375" s="18" t="inlineStr">
@@ -20380,13 +20384,13 @@
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento de IP do CNI do Azure</t>
+          <t>Se necessário, adicione seu próprio plugin CNI</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
       <c r="F375" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -20404,7 +20408,7 @@
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -20421,7 +20425,7 @@
       </c>
       <c r="B376" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C376" s="18" t="inlineStr">
@@ -20431,13 +20435,13 @@
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída com AzFW/NVA se seus requisitos de segurança exigirem</t>
+          <t>Se necessário, configure o IP público por nó no AKS</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
       <c r="F376" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -20452,14 +20456,10 @@
         </is>
       </c>
       <c r="J376" s="13" t="n"/>
-      <c r="K376" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B377" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C377" s="18" t="inlineStr">
@@ -20486,7 +20486,7 @@
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando um ponto de extremidade de API público, restrinja os endereços IP que podem acessá-lo</t>
+          <t>Usar um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
@@ -20507,14 +20507,10 @@
         </is>
       </c>
       <c r="J377" s="13" t="n"/>
-      <c r="K377" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -20531,7 +20527,7 @@
       </c>
       <c r="B378" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C378" s="18" t="inlineStr">
@@ -20541,13 +20537,13 @@
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>Use clusters privados se seus requisitos exigirem</t>
+          <t>Usar o Gateway NAT do Azure como outboundType para dimensionar o tráfego de saída</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
       <c r="F378" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -20562,14 +20558,10 @@
         </is>
       </c>
       <c r="J378" s="13" t="n"/>
-      <c r="K378" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -20586,7 +20578,7 @@
       </c>
       <c r="B379" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C379" s="18" t="inlineStr">
@@ -20596,7 +20588,7 @@
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para os nós AKS do Windows 2019 e 2022, as Diretivas de Rede Calico podem ser usadas </t>
+          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento de IP do CNI do Azure</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
@@ -20617,14 +20609,10 @@
         </is>
       </c>
       <c r="J379" s="13" t="n"/>
-      <c r="K379" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -20651,7 +20639,7 @@
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>Habilitar uma opção de Política de Rede do Kubernetes (Calico/Azure)</t>
+          <t>Filtre o tráfego de saída com AzFW/NVA se seus requisitos de segurança exigirem</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
@@ -20674,12 +20662,12 @@
       <c r="J380" s="13" t="n"/>
       <c r="K380" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20706,13 +20694,13 @@
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>Usar diretivas de rede do Kubernetes para aumentar a segurança intra-cluster</t>
+          <t>Se estiver usando um ponto de extremidade de API público, restrinja os endereços IP que podem acessá-lo</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
       <c r="F381" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -20727,10 +20715,14 @@
         </is>
       </c>
       <c r="J381" s="13" t="n"/>
-      <c r="K381" s="19" t="n"/>
+      <c r="K381" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20757,7 +20749,7 @@
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>Usar um WAF para cargas de trabalho da Web (UIs ou APIs)</t>
+          <t>Use clusters privados se seus requisitos exigirem</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
@@ -20778,10 +20770,14 @@
         </is>
       </c>
       <c r="J382" s="13" t="n"/>
-      <c r="K382" s="19" t="n"/>
+      <c r="K382" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20808,7 +20804,7 @@
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>Usar DDoS Standard na Rede Virtual AKS</t>
+          <t xml:space="preserve">Para os nós AKS do Windows 2019 e 2022, as Diretivas de Rede Calico podem ser usadas </t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
@@ -20831,12 +20827,12 @@
       <c r="J383" s="13" t="n"/>
       <c r="K383" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
         </is>
       </c>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20863,13 +20859,13 @@
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, adicione o proxy HTTP da empresa</t>
+          <t>Habilitar uma opção de Política de Rede do Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
       <c r="F384" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -20886,12 +20882,12 @@
       <c r="J384" s="13" t="n"/>
       <c r="K384" s="19" t="inlineStr">
         <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20918,13 +20914,13 @@
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso de uma malha de serviço para gerenciamento avançado de comunicação de microsserviços</t>
+          <t>Usar diretivas de rede do Kubernetes para aumentar a segurança intra-cluster</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
       <c r="F385" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -20942,7 +20938,7 @@
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20959,7 +20955,7 @@
       </c>
       <c r="B386" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C386" s="18" t="inlineStr">
@@ -20969,7 +20965,7 @@
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>Configurar alertas nas métricas mais críticas (consulte Insights de contêiner para obter recomendações)</t>
+          <t>Usar um WAF para cargas de trabalho da Web (UIs ou APIs)</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
@@ -20993,7 +20989,7 @@
       <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -21010,7 +21006,7 @@
       </c>
       <c r="B387" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C387" s="18" t="inlineStr">
@@ -21020,13 +21016,13 @@
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>Verifique regularmente o Azure Advisor para obter recomendações sobre o seu cluster</t>
+          <t>Usar DDoS Standard na Rede Virtual AKS</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
       <c r="F387" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -21041,10 +21037,14 @@
         </is>
       </c>
       <c r="J387" s="13" t="n"/>
-      <c r="K387" s="19" t="n"/>
+      <c r="K387" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -21061,7 +21061,7 @@
       </c>
       <c r="B388" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C388" s="18" t="inlineStr">
@@ -21071,7 +21071,7 @@
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>Habilitar a rotação automática do certificado AKS</t>
+          <t>Se necessário, adicione o proxy HTTP da empresa</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
@@ -21092,10 +21092,14 @@
         </is>
       </c>
       <c r="J388" s="13" t="n"/>
-      <c r="K388" s="19" t="n"/>
+      <c r="K388" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -21112,7 +21116,7 @@
       </c>
       <c r="B389" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C389" s="18" t="inlineStr">
@@ -21122,13 +21126,13 @@
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo), ou use o recurso de atualização automática do AKS</t>
+          <t>Considere o uso de uma malha de serviço para gerenciamento avançado de comunicação de microsserviços</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
       <c r="F389" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -21146,7 +21150,7 @@
       <c r="K389" s="19" t="n"/>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -21173,7 +21177,7 @@
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>Use kured para atualizações de nó do Linux caso você não esteja usando a atualização de imagem de nó</t>
+          <t>Configurar alertas nas métricas mais críticas (consulte Insights de contêiner para obter recomendações)</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
@@ -21197,7 +21201,7 @@
       <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -21224,13 +21228,13 @@
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar as imagens do nó do cluster periodicamente (semanalmente, por exemplo)</t>
+          <t>Verifique regularmente o Azure Advisor para obter recomendações sobre o seu cluster</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
       <c r="F391" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -21248,7 +21252,7 @@
       <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -21275,7 +21279,7 @@
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
+          <t>Habilitar a rotação automática do certificado AKS</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
@@ -21299,7 +21303,7 @@
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -21326,13 +21330,13 @@
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso do comando AKS invoke em clusters privados</t>
+          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo), ou use o recurso de atualização automática do AKS</t>
         </is>
       </c>
       <c r="E393" s="18" t="n"/>
       <c r="F393" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -21350,7 +21354,7 @@
       <c r="K393" s="19" t="n"/>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -21377,13 +21381,13 @@
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>Para eventos planejados, considere o uso do Dreno Automático de Nó</t>
+          <t>Use kured para atualizações de nó do Linux caso você não esteja usando a atualização de imagem de nó</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
       <c r="F394" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -21401,7 +21405,7 @@
       <c r="K394" s="19" t="n"/>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -21428,7 +21432,7 @@
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>Desenvolver práticas próprias de governança para garantir que nenhuma alteração seja realizada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
+          <t>Tenha um processo regular para atualizar as imagens do nó do cluster periodicamente (semanalmente, por exemplo)</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
@@ -21452,7 +21456,7 @@
       <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -21479,7 +21483,7 @@
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>Use o nome personalizado do Node RG (também conhecido como 'Infra RG')</t>
+          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
@@ -21500,14 +21504,10 @@
         </is>
       </c>
       <c r="J396" s="13" t="n"/>
-      <c r="K396" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -21534,13 +21534,13 @@
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>Não use APIs do Kubernetes preteridas em seus manifestos do YAML</t>
+          <t>Considere o uso do comando AKS invoke em clusters privados</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
       <c r="F397" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -21558,7 +21558,7 @@
       <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -21585,7 +21585,7 @@
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>Manchar os nós do Windows</t>
+          <t>Para eventos planejados, considere o uso do Dreno Automático de Nó</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
@@ -21609,7 +21609,7 @@
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -21636,13 +21636,13 @@
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>Mantenha o nível de patch dos contêineres do Windows sincronizado com o nível do patch do host</t>
+          <t>Desenvolver práticas próprias de governança para garantir que nenhuma alteração seja realizada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
       <c r="F399" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -21660,7 +21660,7 @@
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21687,14 +21687,10 @@
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>Envie logs mestre (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
-        </is>
-      </c>
-      <c r="E400" s="18" t="inlineStr">
-        <is>
-          <t>Por meio de Configurações de Diagnóstico no nível do cluster</t>
-        </is>
-      </c>
+          <t>Use o nome personalizado do Node RG (também conhecido como 'Infra RG')</t>
+        </is>
+      </c>
+      <c r="E400" s="18" t="n"/>
       <c r="F400" s="18" t="inlineStr">
         <is>
           <t>Baixo</t>
@@ -21712,10 +21708,14 @@
         </is>
       </c>
       <c r="J400" s="13" t="n"/>
-      <c r="K400" s="19" t="n"/>
+      <c r="K400" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21732,7 +21732,7 @@
       </c>
       <c r="B401" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C401" s="18" t="inlineStr">
@@ -21742,13 +21742,13 @@
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, use instantâneos do nodePool</t>
+          <t>Não use APIs do Kubernetes preteridas em seus manifestos do YAML</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
       <c r="F401" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -21766,7 +21766,7 @@
       <c r="K401" s="19" t="n"/>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>Considere pools de nós spot para cargas de trabalho não sensíveis ao tempo</t>
+          <t>Manchar os nós do Windows</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
@@ -21817,7 +21817,7 @@
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21844,7 +21844,7 @@
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>Considere o nó virtual AKS para intermitência rápida</t>
+          <t>Mantenha o nível de patch dos contêineres do Windows sincronizado com o nível do patch do host</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
@@ -21865,14 +21865,10 @@
         </is>
       </c>
       <c r="J403" s="13" t="n"/>
-      <c r="K403" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21899,13 +21895,17 @@
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas como o Prometheus)</t>
-        </is>
-      </c>
-      <c r="E404" s="18" t="n"/>
+          <t>Envie logs mestre (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
+        </is>
+      </c>
+      <c r="E404" s="18" t="inlineStr">
+        <is>
+          <t>Por meio de Configurações de Diagnóstico no nível do cluster</t>
+        </is>
+      </c>
       <c r="F404" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -21923,7 +21923,7 @@
       <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="B405" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C405" s="18" t="inlineStr">
@@ -21950,13 +21950,13 @@
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas como Telegraf/ElasticSearch)</t>
+          <t>Se necessário, use instantâneos do nodePool</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
       <c r="F405" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -21971,14 +21971,10 @@
         </is>
       </c>
       <c r="J405" s="13" t="n"/>
-      <c r="K405" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -22005,13 +22001,13 @@
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>Monitorar a utilização da CPU e da memória dos nós</t>
+          <t>Considere pools de nós spot para cargas de trabalho não sensíveis ao tempo</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
       <c r="F406" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -22029,7 +22025,7 @@
       <c r="K406" s="19" t="n"/>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -22056,13 +22052,13 @@
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o Azure CNI, monitore a % de IPs de pod consumidos por nó</t>
+          <t>Considere o nó virtual AKS para intermitência rápida</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
       <c r="F407" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -22077,10 +22073,14 @@
         </is>
       </c>
       <c r="J407" s="13" t="n"/>
-      <c r="K407" s="19" t="n"/>
+      <c r="K407" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -22107,17 +22107,13 @@
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>Monitorar a profundidade da fila de disco do sistema operacional nos nós</t>
-        </is>
-      </c>
-      <c r="E408" s="18" t="inlineStr">
-        <is>
-          <t>A E/S no disco do sistema operacional é um recurso crítico. Se o sistema operacional nos nós for limitado na E/S, isso pode levar a um comportamento imprevisível, geralmente terminando no nó sendo declarado NotReady</t>
-        </is>
-      </c>
+          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas como o Prometheus)</t>
+        </is>
+      </c>
+      <c r="E408" s="18" t="n"/>
       <c r="F408" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -22135,7 +22131,7 @@
       <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -22162,13 +22158,13 @@
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>Se não estiver usando filtragem de saída com AzFW/NVA, monitore as portas SNAT ALB alocadas padrão</t>
+          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="E409" s="18" t="n"/>
       <c r="F409" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -22183,10 +22179,14 @@
         </is>
       </c>
       <c r="J409" s="13" t="n"/>
-      <c r="K409" s="19" t="n"/>
+      <c r="K409" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -22213,7 +22213,7 @@
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>Assine as notificações de integridade de recursos para seu cluster AKS</t>
+          <t>Monitorar a utilização da CPU e da memória dos nós</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
@@ -22237,7 +22237,7 @@
       <c r="K410" s="19" t="n"/>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -22264,13 +22264,13 @@
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>Configurar solicitações e limites nas especificações do pod</t>
+          <t>Se estiver usando o Azure CNI, monitore a % de IPs de pod consumidos por nó</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
       <c r="F411" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -22288,7 +22288,7 @@
       <c r="K411" s="19" t="n"/>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -22315,10 +22315,14 @@
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>Impor cotas de recursos para namespaces</t>
-        </is>
-      </c>
-      <c r="E412" s="18" t="n"/>
+          <t>Monitorar a profundidade da fila de disco do sistema operacional nos nós</t>
+        </is>
+      </c>
+      <c r="E412" s="18" t="inlineStr">
+        <is>
+          <t>A E/S no disco do sistema operacional é um recurso crítico. Se o sistema operacional nos nós for limitado na E/S, isso pode levar a um comportamento imprevisível, geralmente terminando no nó sendo declarado NotReady</t>
+        </is>
+      </c>
       <c r="F412" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -22339,7 +22343,7 @@
       <c r="K412" s="19" t="n"/>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -22366,13 +22370,13 @@
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>Verifique se sua assinatura tem cota suficiente para expandir seus nodepools</t>
+          <t>Se não estiver usando filtragem de saída com AzFW/NVA, monitore as portas SNAT ALB alocadas padrão</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
       <c r="F413" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -22390,7 +22394,7 @@
       <c r="K413" s="19" t="n"/>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -22407,7 +22411,7 @@
       </c>
       <c r="B414" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C414" s="18" t="inlineStr">
@@ -22417,7 +22421,7 @@
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>Usar o Autoscaler de Cluster</t>
+          <t>Assine as notificações de integridade de recursos para seu cluster AKS</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -22438,14 +22442,10 @@
         </is>
       </c>
       <c r="J414" s="13" t="n"/>
-      <c r="K414" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -22462,7 +22462,7 @@
       </c>
       <c r="B415" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C415" s="18" t="inlineStr">
@@ -22472,13 +22472,13 @@
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>Personalizar a configuração do nó para pools de nós AKS</t>
+          <t>Configurar solicitações e limites nas especificações do pod</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
       <c r="F415" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -22493,14 +22493,10 @@
         </is>
       </c>
       <c r="J415" s="13" t="n"/>
-      <c r="K415" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -22517,7 +22513,7 @@
       </c>
       <c r="B416" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C416" s="18" t="inlineStr">
@@ -22527,7 +22523,7 @@
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>Use o Autoscaler do Pod Horizontal quando necessário</t>
+          <t>Impor cotas de recursos para namespaces</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
@@ -22551,7 +22547,7 @@
       <c r="K416" s="19" t="n"/>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -22568,7 +22564,7 @@
       </c>
       <c r="B417" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C417" s="18" t="inlineStr">
@@ -22578,14 +22574,10 @@
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
-        </is>
-      </c>
-      <c r="E417" s="18" t="inlineStr">
-        <is>
-          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
-        </is>
-      </c>
+          <t>Verifique se sua assinatura tem cota suficiente para expandir seus nodepools</t>
+        </is>
+      </c>
+      <c r="E417" s="18" t="n"/>
       <c r="F417" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -22606,7 +22598,7 @@
       <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22633,13 +22625,13 @@
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>Se mais de 5000 nós forem necessários para escalabilidade, considere o uso de um cluster AKS adicional</t>
+          <t>Usar o Autoscaler de Cluster</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
       <c r="F418" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -22654,10 +22646,14 @@
         </is>
       </c>
       <c r="J418" s="13" t="n"/>
-      <c r="K418" s="19" t="n"/>
+      <c r="K418" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22684,7 +22680,7 @@
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>Considere assinar o EventGrid Events para automação AKS</t>
+          <t>Personalizar a configuração do nó para pools de nós AKS</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
@@ -22705,10 +22701,14 @@
         </is>
       </c>
       <c r="J419" s="13" t="n"/>
-      <c r="K419" s="19" t="n"/>
+      <c r="K419" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22735,13 +22735,13 @@
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>Para operações de longa duração em um cluster AKS, considere o encerramento do evento</t>
+          <t>Use o Autoscaler do Pod Horizontal quando necessário</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
       <c r="F420" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
@@ -22759,7 +22759,7 @@
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22786,13 +22786,17 @@
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, considere usar hosts dedicados do Azure para nós AKS</t>
-        </is>
-      </c>
-      <c r="E421" s="18" t="n"/>
+          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
+        </is>
+      </c>
+      <c r="E421" s="18" t="inlineStr">
+        <is>
+          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
+        </is>
+      </c>
       <c r="F421" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -22810,7 +22814,7 @@
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22837,13 +22841,13 @@
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>Usar discos efêmeros do sistema operacional</t>
+          <t>Se mais de 5000 nós forem necessários para escalabilidade, considere o uso de um cluster AKS adicional</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
       <c r="F422" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -22858,14 +22862,10 @@
         </is>
       </c>
       <c r="J422" s="13" t="n"/>
-      <c r="K422" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="K422" s="19" t="n"/>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22892,13 +22892,13 @@
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>Para discos não efêmeros, use IOPS altos e discos maiores do sistema operacional para os nós ao executar muitos pods/nó, pois requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
+          <t>Considere assinar o EventGrid Events para automação AKS</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
       <c r="F423" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
@@ -22916,7 +22916,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22943,7 +22943,7 @@
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>Para a opção de armazenamento de hiperdesempenho, use Ultra Disks no AKS</t>
+          <t>Para operações de longa duração em um cluster AKS, considere o encerramento do evento</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
@@ -22967,7 +22967,7 @@
       <c r="K424" s="19" t="n"/>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22994,13 +22994,13 @@
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc)</t>
+          <t>Se necessário, considere usar hosts dedicados do Azure para nós AKS</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
       <c r="F425" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -23018,7 +23018,7 @@
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -23045,13 +23045,13 @@
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o AzFiles Standard, considere o AzFiles Premium e/ou ANF por motivos de desempenho</t>
+          <t>Usar discos efêmeros do sistema operacional</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
       <c r="F426" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -23066,10 +23066,14 @@
         </is>
       </c>
       <c r="J426" s="13" t="n"/>
-      <c r="K426" s="19" t="n"/>
+      <c r="K426" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -23096,13 +23100,13 @@
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando Discos e AZs do Azure, considere ter nodepools dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para nodepools abrangendo várias zonas</t>
+          <t>Para discos não efêmeros, use IOPS altos e discos maiores do sistema operacional para os nós ao executar muitos pods/nó, pois requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
       <c r="F427" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -23120,7 +23124,7 @@
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -23132,28 +23136,28 @@
     <row r="428">
       <c r="A428" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B428" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C428" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Verifique se os controladores de domínio ADDS estão implantados na assinatura de identidade no Azure nativo</t>
+          <t>Para a opção de armazenamento de hiperdesempenho, use Ultra Disks no AKS</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
       <c r="F428" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
@@ -23162,12 +23166,16 @@
         </is>
       </c>
       <c r="H428" s="18" t="n"/>
-      <c r="I428" s="13" t="n"/>
+      <c r="I428" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J428" s="13" t="n"/>
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -23179,22 +23187,22 @@
     <row r="429">
       <c r="A429" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B429" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C429" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>Verifique se os sites e serviços do ADDS estão configurados para manter as solicitações de autenticação de recursos baseados no Azure (incluindo a Solução VMware do Azure) locais para o Azure</t>
+          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc)</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
@@ -23209,12 +23217,16 @@
         </is>
       </c>
       <c r="H429" s="18" t="n"/>
-      <c r="I429" s="13" t="n"/>
+      <c r="I429" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J429" s="13" t="n"/>
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>75089c20-990d-4927-b105-885576f76fc2</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -23226,28 +23238,28 @@
     <row r="430">
       <c r="A430" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B430" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C430" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>Verifique se o vCenter está conectado ao ADDS para habilitar a autenticação com base em 'contas de usuário nomeadas'</t>
+          <t>Se estiver usando o AzFiles Standard, considere o AzFiles Premium e/ou ANF por motivos de desempenho</t>
         </is>
       </c>
       <c r="E430" s="18" t="n"/>
       <c r="F430" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -23256,12 +23268,16 @@
         </is>
       </c>
       <c r="H430" s="18" t="n"/>
-      <c r="I430" s="13" t="n"/>
+      <c r="I430" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J430" s="13" t="n"/>
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -23273,22 +23289,22 @@
     <row r="431">
       <c r="A431" s="18" t="inlineStr">
         <is>
-          <t>Azure VMware Solution Design Review</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B431" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C431" s="18" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D431" s="18" t="inlineStr">
         <is>
-          <t>Verifique se a conexão do vCenter com o ADDS está usando um protocolo seguro (LDAPS)</t>
+          <t>Se estiver usando Discos e AZs do Azure, considere ter nodepools dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para nodepools abrangendo várias zonas</t>
         </is>
       </c>
       <c r="E431" s="18" t="n"/>
@@ -23303,12 +23319,16 @@
         </is>
       </c>
       <c r="H431" s="18" t="n"/>
-      <c r="I431" s="13" t="n"/>
+      <c r="I431" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J431" s="13" t="n"/>
       <c r="K431" s="19" t="n"/>
       <c r="L431" s="19" t="inlineStr">
         <is>
-          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M431" s="20" t="n"/>
@@ -23335,13 +23355,13 @@
       </c>
       <c r="D432" s="18" t="inlineStr">
         <is>
-          <t>A conta do CloudAdmin no vCenter IdP é usada apenas como uma conta de emergência (break-glass)</t>
+          <t>Verifique se os controladores de domínio ADDS estão implantados na assinatura de identidade no Azure nativo</t>
         </is>
       </c>
       <c r="E432" s="18" t="n"/>
       <c r="F432" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
@@ -23355,7 +23375,7 @@
       <c r="K432" s="19" t="n"/>
       <c r="L432" s="19" t="inlineStr">
         <is>
-          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
+          <t>32e42e36-11c8-418b-8a0b-c510e43a18a9</t>
         </is>
       </c>
       <c r="M432" s="20" t="n"/>
@@ -23382,13 +23402,13 @@
       </c>
       <c r="D433" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que o NSX-Manager esteja integrado a um provedor de identidade externo (LDAPS)</t>
+          <t>Verifique se os sites e serviços do ADDS estão configurados para manter as solicitações de autenticação de recursos baseados no Azure (incluindo a Solução VMware do Azure) locais para o Azure</t>
         </is>
       </c>
       <c r="E433" s="18" t="n"/>
       <c r="F433" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -23402,7 +23422,7 @@
       <c r="K433" s="19" t="n"/>
       <c r="L433" s="19" t="inlineStr">
         <is>
-          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
+          <t>75089c20-990d-4927-b105-885576f76fc2</t>
         </is>
       </c>
       <c r="M433" s="20" t="n"/>
@@ -23429,13 +23449,13 @@
       </c>
       <c r="D434" s="18" t="inlineStr">
         <is>
-          <t>Foi criado um modelo RBAC para uso no VMware vSphere</t>
+          <t>Verifique se o vCenter está conectado ao ADDS para habilitar a autenticação com base em 'contas de usuário nomeadas'</t>
         </is>
       </c>
       <c r="E434" s="18" t="n"/>
       <c r="F434" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
@@ -23449,7 +23469,7 @@
       <c r="K434" s="19" t="n"/>
       <c r="L434" s="19" t="inlineStr">
         <is>
-          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
+          <t>de3aad1e-7c28-4ec9-9666-b7570449aa80</t>
         </is>
       </c>
       <c r="M434" s="20" t="n"/>
@@ -23476,7 +23496,7 @@
       </c>
       <c r="D435" s="18" t="inlineStr">
         <is>
-          <t>As permissões RBAC devem ser concedidas em grupos ADDS e não em usuários específicos</t>
+          <t>Verifique se a conexão do vCenter com o ADDS está usando um protocolo seguro (LDAPS)</t>
         </is>
       </c>
       <c r="E435" s="18" t="n"/>
@@ -23496,7 +23516,7 @@
       <c r="K435" s="19" t="n"/>
       <c r="L435" s="19" t="inlineStr">
         <is>
-          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
+          <t>cd289ced-6b17-4db8-8554-61e2aee3553a</t>
         </is>
       </c>
       <c r="M435" s="20" t="n"/>
@@ -23523,13 +23543,13 @@
       </c>
       <c r="D436" s="18" t="inlineStr">
         <is>
-          <t>As permissões RBAC no recurso Solução VMware do Azure no Azure são 'bloqueadas' apenas para um conjunto limitado de proprietários</t>
+          <t>A conta do CloudAdmin no vCenter IdP é usada apenas como uma conta de emergência (break-glass)</t>
         </is>
       </c>
       <c r="E436" s="18" t="n"/>
       <c r="F436" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
@@ -23543,7 +23563,7 @@
       <c r="K436" s="19" t="n"/>
       <c r="L436" s="19" t="inlineStr">
         <is>
-          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
+          <t>b9d37dac-43bc-46cd-8d79-a9b24604489a</t>
         </is>
       </c>
       <c r="M436" s="20" t="n"/>
@@ -23570,7 +23590,7 @@
       </c>
       <c r="D437" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que todas as funções personalizadas tenham escopo com autorizações permitidas do CloudAdmin</t>
+          <t>Certifique-se de que o NSX-Manager esteja integrado a um provedor de identidade externo (LDAPS)</t>
         </is>
       </c>
       <c r="E437" s="18" t="n"/>
@@ -23590,7 +23610,7 @@
       <c r="K437" s="19" t="n"/>
       <c r="L437" s="19" t="inlineStr">
         <is>
-          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
+          <t>53d88e89-d17b-473b-82a5-a67e7a9ed5b3</t>
         </is>
       </c>
       <c r="M437" s="20" t="n"/>
@@ -23607,7 +23627,7 @@
       </c>
       <c r="B438" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C438" s="18" t="inlineStr">
@@ -23617,13 +23637,13 @@
       </c>
       <c r="D438" s="18" t="inlineStr">
         <is>
-          <t>O modelo de conectividade correto da Solução VMware do Azure está selecionado para o caso de uso do cliente em mãos?</t>
+          <t>Foi criado um modelo RBAC para uso no VMware vSphere</t>
         </is>
       </c>
       <c r="E438" s="18" t="n"/>
       <c r="F438" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
@@ -23632,16 +23652,12 @@
         </is>
       </c>
       <c r="H438" s="18" t="n"/>
-      <c r="I438" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I438" s="13" t="n"/>
       <c r="J438" s="13" t="n"/>
       <c r="K438" s="19" t="n"/>
       <c r="L438" s="19" t="inlineStr">
         <is>
-          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
+          <t>ae0e37ce-e297-411b-b352-caaab79b198d</t>
         </is>
       </c>
       <c r="M438" s="20" t="n"/>
@@ -23658,7 +23674,7 @@
       </c>
       <c r="B439" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C439" s="18" t="inlineStr">
@@ -23668,13 +23684,13 @@
       </c>
       <c r="D439" s="18" t="inlineStr">
         <is>
-          <t>Garantir que as conexões de Rota Expressa ou VPN do local para o Azure sejam monitoradas usando o 'monitor de conexão'</t>
+          <t>As permissões RBAC devem ser concedidas em grupos ADDS e não em usuários específicos</t>
         </is>
       </c>
       <c r="E439" s="18" t="n"/>
       <c r="F439" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
@@ -23688,7 +23704,7 @@
       <c r="K439" s="19" t="n"/>
       <c r="L439" s="19" t="inlineStr">
         <is>
-          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
+          <t>ab81932c-9fc9-4d1b-a780-36f5e6bfbb9e</t>
         </is>
       </c>
       <c r="M439" s="20" t="n"/>
@@ -23705,7 +23721,7 @@
       </c>
       <c r="B440" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C440" s="18" t="inlineStr">
@@ -23715,13 +23731,13 @@
       </c>
       <c r="D440" s="18" t="inlineStr">
         <is>
-          <t>Verifique se um monitor de conexão foi criado a partir de um recurso nativo do Azure para uma máquina virtual da Solução VMware do Azure para monitorar a conexão de Rota Expressa de back-end da Solução VMware do Azure</t>
+          <t>As permissões RBAC no recurso Solução VMware do Azure no Azure são 'bloqueadas' apenas para um conjunto limitado de proprietários</t>
         </is>
       </c>
       <c r="E440" s="18" t="n"/>
       <c r="F440" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
@@ -23735,7 +23751,7 @@
       <c r="K440" s="19" t="n"/>
       <c r="L440" s="19" t="inlineStr">
         <is>
-          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
+          <t>d503547c-c447-4e82-9128-a71f0f1cac6d</t>
         </is>
       </c>
       <c r="M440" s="20" t="n"/>
@@ -23752,7 +23768,7 @@
       </c>
       <c r="B441" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C441" s="18" t="inlineStr">
@@ -23762,13 +23778,13 @@
       </c>
       <c r="D441" s="18" t="inlineStr">
         <is>
-          <t>Verifique se um monitor de conexão é criado a partir de um recurso local para uma máquina virtual da Solução VMware do Azure para monitorar a conectividade de ponta 2</t>
+          <t>Certifique-se de que todas as funções personalizadas tenham escopo com autorizações permitidas do CloudAdmin</t>
         </is>
       </c>
       <c r="E441" s="18" t="n"/>
       <c r="F441" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
@@ -23782,7 +23798,7 @@
       <c r="K441" s="19" t="n"/>
       <c r="L441" s="19" t="inlineStr">
         <is>
-          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
+          <t>fd9f0df4-68dc-4976-b9a9-e6a79f7682c5</t>
         </is>
       </c>
       <c r="M441" s="20" t="n"/>
@@ -23799,7 +23815,7 @@
       </c>
       <c r="B442" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C442" s="18" t="inlineStr">
@@ -23809,7 +23825,7 @@
       </c>
       <c r="D442" s="18" t="inlineStr">
         <is>
-          <t>Quando o servidor de rotas for usado, certifique-se de que não mais de 1000 rotas sejam propagadas do servidor de rotas para o gateway ExR para o local (limite ARS).</t>
+          <t>O modelo de conectividade correto da Solução VMware do Azure está selecionado para o caso de uso do cliente em mãos?</t>
         </is>
       </c>
       <c r="E442" s="18" t="n"/>
@@ -23824,12 +23840,16 @@
         </is>
       </c>
       <c r="H442" s="18" t="n"/>
-      <c r="I442" s="13" t="n"/>
+      <c r="I442" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J442" s="13" t="n"/>
       <c r="K442" s="19" t="n"/>
       <c r="L442" s="19" t="inlineStr">
         <is>
-          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
+          <t>9ef1d5e8-32e4-42e3-911c-818b0a0bc510</t>
         </is>
       </c>
       <c r="M442" s="20" t="n"/>
@@ -23846,7 +23866,7 @@
       </c>
       <c r="B443" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C443" s="18" t="inlineStr">
@@ -23856,7 +23876,7 @@
       </c>
       <c r="D443" s="18" t="inlineStr">
         <is>
-          <t>O Gerenciamento de Identidades Privilegiadas é implementado para funções que gerenciam o recurso da Solução VMware do Azure no Portal do Azure (não são permitidas permissões permanentes)</t>
+          <t>Garantir que as conexões de Rota Expressa ou VPN do local para o Azure sejam monitoradas usando o 'monitor de conexão'</t>
         </is>
       </c>
       <c r="E443" s="18" t="n"/>
@@ -23876,7 +23896,7 @@
       <c r="K443" s="19" t="n"/>
       <c r="L443" s="19" t="inlineStr">
         <is>
-          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
+          <t>eb710a37-cbc1-4055-8dd5-a936a8bb7cf5</t>
         </is>
       </c>
       <c r="M443" s="20" t="n"/>
@@ -23893,7 +23913,7 @@
       </c>
       <c r="B444" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C444" s="18" t="inlineStr">
@@ -23903,13 +23923,13 @@
       </c>
       <c r="D444" s="18" t="inlineStr">
         <is>
-          <t>Os relatórios de auditoria do Gerenciamento de Identidades Privilegiadas devem ser implementados para as funções PIM da Solução VMware do Azure</t>
+          <t>Verifique se um monitor de conexão foi criado a partir de um recurso nativo do Azure para uma máquina virtual da Solução VMware do Azure para monitorar a conexão de Rota Expressa de back-end da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E444" s="18" t="n"/>
       <c r="F444" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
@@ -23923,7 +23943,7 @@
       <c r="K444" s="19" t="n"/>
       <c r="L444" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
+          <t>976e24f2-a7f8-426c-9253-2a92a2a7ed99</t>
         </is>
       </c>
       <c r="M444" s="20" t="n"/>
@@ -23940,7 +23960,7 @@
       </c>
       <c r="B445" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C445" s="18" t="inlineStr">
@@ -23950,7 +23970,7 @@
       </c>
       <c r="D445" s="18" t="inlineStr">
         <is>
-          <t>Se o uso do Gerenciamento de Identidades Privilegiadas estiver sendo usado, certifique-se de que uma conta válida habilitada para ID do Entra seja criada com um registro SMTP válido para notificações de substituição automática do Host da Solução VMware do Azure. (permissões permanentes necessárias)</t>
+          <t>Verifique se um monitor de conexão é criado a partir de um recurso local para uma máquina virtual da Solução VMware do Azure para monitorar a conectividade de ponta 2</t>
         </is>
       </c>
       <c r="E445" s="18" t="n"/>
@@ -23970,7 +23990,7 @@
       <c r="K445" s="19" t="n"/>
       <c r="L445" s="19" t="inlineStr">
         <is>
-          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
+          <t>f41ce6a0-64f3-4805-bc65-3ab50df01265</t>
         </is>
       </c>
       <c r="M445" s="20" t="n"/>
@@ -23987,7 +24007,7 @@
       </c>
       <c r="B446" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C446" s="18" t="inlineStr">
@@ -23997,7 +24017,7 @@
       </c>
       <c r="D446" s="18" t="inlineStr">
         <is>
-          <t>Limitar o uso da conta do CloudAdmin apenas ao acesso de emergência</t>
+          <t>Quando o servidor de rotas for usado, certifique-se de que não mais de 1000 rotas sejam propagadas do servidor de rotas para o gateway ExR para o local (limite ARS).</t>
         </is>
       </c>
       <c r="E446" s="18" t="n"/>
@@ -24017,7 +24037,7 @@
       <c r="K446" s="19" t="n"/>
       <c r="L446" s="19" t="inlineStr">
         <is>
-          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
+          <t>563b4dc7-4a74-48b6-933a-d1a0916a6649</t>
         </is>
       </c>
       <c r="M446" s="20" t="n"/>
@@ -24044,13 +24064,13 @@
       </c>
       <c r="D447" s="18" t="inlineStr">
         <is>
-          <t>Criar funções RBAC personalizadas no vCenter para implementar um modelo de privilégios mínimos dentro do vCenter</t>
+          <t>O Gerenciamento de Identidades Privilegiadas é implementado para funções que gerenciam o recurso da Solução VMware do Azure no Portal do Azure (não são permitidas permissões permanentes)</t>
         </is>
       </c>
       <c r="E447" s="18" t="n"/>
       <c r="F447" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -24064,7 +24084,7 @@
       <c r="K447" s="19" t="n"/>
       <c r="L447" s="19" t="inlineStr">
         <is>
-          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
+          <t>6128a71f-0f1c-4ac6-b9ef-1d5e832e42e3</t>
         </is>
       </c>
       <c r="M447" s="20" t="n"/>
@@ -24091,13 +24111,13 @@
       </c>
       <c r="D448" s="18" t="inlineStr">
         <is>
-          <t>É um processo definido para alternar regularmente as credenciais cloudadmin (vCenter) e admin (NSX)</t>
+          <t>Os relatórios de auditoria do Gerenciamento de Identidades Privilegiadas devem ser implementados para as funções PIM da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E448" s="18" t="n"/>
       <c r="F448" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
@@ -24111,7 +24131,7 @@
       <c r="K448" s="19" t="n"/>
       <c r="L448" s="19" t="inlineStr">
         <is>
-          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
+          <t>c4e2436b-b336-4d71-9f17-960eee0b9b5c</t>
         </is>
       </c>
       <c r="M448" s="20" t="n"/>
@@ -24138,13 +24158,13 @@
       </c>
       <c r="D449" s="18" t="inlineStr">
         <is>
-          <t>Usar um provedor de identidade centralizado a ser usado para cargas de trabalho (VMs) em execução na Solução VMware do Azure</t>
+          <t>Se o uso do Gerenciamento de Identidades Privilegiadas estiver sendo usado, certifique-se de que uma conta válida habilitada para ID do Entra seja criada com um registro SMTP válido para notificações de substituição automática do Host da Solução VMware do Azure. (permissões permanentes necessárias)</t>
         </is>
       </c>
       <c r="E449" s="18" t="n"/>
       <c r="F449" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
@@ -24158,7 +24178,7 @@
       <c r="K449" s="19" t="n"/>
       <c r="L449" s="19" t="inlineStr">
         <is>
-          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
+          <t>78c447a8-26b2-4863-af0f-1cac599ef1d5</t>
         </is>
       </c>
       <c r="M449" s="20" t="n"/>
@@ -24185,13 +24205,13 @@
       </c>
       <c r="D450" s="18" t="inlineStr">
         <is>
-          <t>A filtragem de tráfego Leste-Oeste é implementada no NSX-T</t>
+          <t>Limitar o uso da conta do CloudAdmin apenas ao acesso de emergência</t>
         </is>
       </c>
       <c r="E450" s="18" t="n"/>
       <c r="F450" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
@@ -24205,7 +24225,7 @@
       <c r="K450" s="19" t="n"/>
       <c r="L450" s="19" t="inlineStr">
         <is>
-          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
+          <t>8defc4d7-21d3-41d2-90fb-707ae9eab40e</t>
         </is>
       </c>
       <c r="M450" s="20" t="n"/>
@@ -24232,13 +24252,13 @@
       </c>
       <c r="D451" s="18" t="inlineStr">
         <is>
-          <t>As cargas de trabalho na Solução VMware do Azure não são diretamente expostas à Internet. O tráfego é filtrado e inspecionado pelo Gateway de Aplicativo do Azure, pelo Firewall do Azure ou por soluções de terceiros</t>
+          <t>Criar funções RBAC personalizadas no vCenter para implementar um modelo de privilégios mínimos dentro do vCenter</t>
         </is>
       </c>
       <c r="E451" s="18" t="n"/>
       <c r="F451" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
@@ -24252,7 +24272,7 @@
       <c r="K451" s="19" t="n"/>
       <c r="L451" s="19" t="inlineStr">
         <is>
-          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
+          <t>d329f798-bc17-48bd-a5a0-6ca7144351d1</t>
         </is>
       </c>
       <c r="M451" s="20" t="n"/>
@@ -24279,13 +24299,13 @@
       </c>
       <c r="D452" s="18" t="inlineStr">
         <is>
-          <t>A auditoria e o registro em log são implementados para solicitações de entrada da Internet para cargas de trabalho baseadas na Solução VMware do Azure e na Solução VMware do Azure</t>
+          <t>É um processo definido para alternar regularmente as credenciais cloudadmin (vCenter) e admin (NSX)</t>
         </is>
       </c>
       <c r="E452" s="18" t="n"/>
       <c r="F452" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
@@ -24299,7 +24319,7 @@
       <c r="K452" s="19" t="n"/>
       <c r="L452" s="19" t="inlineStr">
         <is>
-          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
+          <t>9dd24429-eb72-4281-97a1-51c5bb4e4f18</t>
         </is>
       </c>
       <c r="M452" s="20" t="n"/>
@@ -24326,13 +24346,13 @@
       </c>
       <c r="D453" s="18" t="inlineStr">
         <is>
-          <t>O monitoramento de sessão é implementado para conexões de saída da Internet a partir da Solução VMware do Azure ou cargas de trabalho baseadas na Solução VMware do Azure para identificar atividades suspeitas/mal-intencionadas</t>
+          <t>Usar um provedor de identidade centralizado a ser usado para cargas de trabalho (VMs) em execução na Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E453" s="18" t="n"/>
       <c r="F453" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
@@ -24346,7 +24366,7 @@
       <c r="K453" s="19" t="n"/>
       <c r="L453" s="19" t="inlineStr">
         <is>
-          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
+          <t>586cb291-ec16-4a1d-876e-f9f141acdce5</t>
         </is>
       </c>
       <c r="M453" s="20" t="n"/>
@@ -24373,7 +24393,7 @@
       </c>
       <c r="D454" s="18" t="inlineStr">
         <is>
-          <t>A proteção padrão contra DDoS está habilitada na sub-rede do Gateway ExR/VPN no Azure</t>
+          <t>A filtragem de tráfego Leste-Oeste é implementada no NSX-T</t>
         </is>
       </c>
       <c r="E454" s="18" t="n"/>
@@ -24393,7 +24413,7 @@
       <c r="K454" s="19" t="n"/>
       <c r="L454" s="19" t="inlineStr">
         <is>
-          <t>334fdf91-c234-4182-a652-75269440b4be</t>
+          <t>79377bcd-b375-41ab-8ab0-ead66e15d3d4</t>
         </is>
       </c>
       <c r="M454" s="20" t="n"/>
@@ -24420,13 +24440,13 @@
       </c>
       <c r="D455" s="18" t="inlineStr">
         <is>
-          <t>Usar uma estação de trabalho de acesso privilegiado (PAW) dedicada para gerenciar a Solução VMware do Azure, o vCenter, o gerenciador NSX e o gerenciador HCX</t>
+          <t>As cargas de trabalho na Solução VMware do Azure não são diretamente expostas à Internet. O tráfego é filtrado e inspecionado pelo Gateway de Aplicativo do Azure, pelo Firewall do Azure ou por soluções de terceiros</t>
         </is>
       </c>
       <c r="E455" s="18" t="n"/>
       <c r="F455" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -24440,7 +24460,7 @@
       <c r="K455" s="19" t="n"/>
       <c r="L455" s="19" t="inlineStr">
         <is>
-          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
+          <t>a2adb1c3-d232-46af-825c-a44e1695fddd</t>
         </is>
       </c>
       <c r="M455" s="20" t="n"/>
@@ -24467,13 +24487,13 @@
       </c>
       <c r="D456" s="18" t="inlineStr">
         <is>
-          <t>Habilitar a Detecção Avançada de Ameaças (Microsoft Defender for Cloud, também conhecido como ASC) para cargas de trabalho em execução na Solução VMware do Azure</t>
+          <t>A auditoria e o registro em log são implementados para solicitações de entrada da Internet para cargas de trabalho baseadas na Solução VMware do Azure e na Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E456" s="18" t="n"/>
       <c r="F456" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -24487,7 +24507,7 @@
       <c r="K456" s="19" t="n"/>
       <c r="L456" s="19" t="inlineStr">
         <is>
-          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
+          <t>eace4cb1-deb4-4c65-8c3f-c14eeab36938</t>
         </is>
       </c>
       <c r="M456" s="20" t="n"/>
@@ -24514,7 +24534,7 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>Usar o Azure ARC for Servers para controlar corretamente as cargas de trabalho em execução na Solução VMware do Azure usando tecnologias nativas do Azure (o Azure ARC for Azure VMware Solution ainda não está disponível)</t>
+          <t>O monitoramento de sessão é implementado para conexões de saída da Internet a partir da Solução VMware do Azure ou cargas de trabalho baseadas na Solução VMware do Azure para identificar atividades suspeitas/mal-intencionadas</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
@@ -24534,7 +24554,7 @@
       <c r="K457" s="19" t="n"/>
       <c r="L457" s="19" t="inlineStr">
         <is>
-          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
+          <t>29e3eec2-1836-487a-8077-a2b5945bda43</t>
         </is>
       </c>
       <c r="M457" s="20" t="n"/>
@@ -24561,13 +24581,13 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>Garanta que as cargas de trabalho na Solução VMware do Azure usem criptografia de dados suficiente durante o tempo de execução (como criptografia de disco convidado e SQL TDE). (a criptografia vSAN em repouso é padrão)</t>
+          <t>A proteção padrão contra DDoS está habilitada na sub-rede do Gateway ExR/VPN no Azure</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
       <c r="F458" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -24581,7 +24601,7 @@
       <c r="K458" s="19" t="n"/>
       <c r="L458" s="19" t="inlineStr">
         <is>
-          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
+          <t>334fdf91-c234-4182-a652-75269440b4be</t>
         </is>
       </c>
       <c r="M458" s="20" t="n"/>
@@ -24608,13 +24628,13 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>Quando a criptografia no convidado é usada, armazene chaves de criptografia no cofre de chaves do Azure quando possível</t>
+          <t>Usar uma estação de trabalho de acesso privilegiado (PAW) dedicada para gerenciar a Solução VMware do Azure, o vCenter, o gerenciador NSX e o gerenciador HCX</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
       <c r="F459" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -24628,7 +24648,7 @@
       <c r="K459" s="19" t="n"/>
       <c r="L459" s="19" t="inlineStr">
         <is>
-          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
+          <t>3d3e0843-276d-44bd-a015-bcf219e4a1eb</t>
         </is>
       </c>
       <c r="M459" s="20" t="n"/>
@@ -24655,7 +24675,7 @@
       </c>
       <c r="D460" s="18" t="inlineStr">
         <is>
-          <t>Considere usar o suporte estendido de atualização de segurança para cargas de trabalho em execução na Solução VMware do Azure (a Solução VMware do Azure é qualificada para ESU)</t>
+          <t>Habilitar a Detecção Avançada de Ameaças (Microsoft Defender for Cloud, também conhecido como ASC) para cargas de trabalho em execução na Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E460" s="18" t="n"/>
@@ -24675,7 +24695,7 @@
       <c r="K460" s="19" t="n"/>
       <c r="L460" s="19" t="inlineStr">
         <is>
-          <t>5ac94222-3e13-4810-9230-81a941741583</t>
+          <t>9ccbd869-266a-4cca-874f-aa19bf39d95d</t>
         </is>
       </c>
       <c r="M460" s="20" t="n"/>
@@ -24692,7 +24712,7 @@
       </c>
       <c r="B461" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C461" s="18" t="inlineStr">
@@ -24702,13 +24722,13 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que o método de redundância de dados vSAN apropriado seja usado (especificação RAID)</t>
+          <t>Usar o Azure ARC for Servers para controlar corretamente as cargas de trabalho em execução na Solução VMware do Azure usando tecnologias nativas do Azure (o Azure ARC for Azure VMware Solution ainda não está disponível)</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
       <c r="F461" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -24722,7 +24742,7 @@
       <c r="K461" s="19" t="n"/>
       <c r="L461" s="19" t="inlineStr">
         <is>
-          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
+          <t>44c7c891-9ca1-4f6d-9315-ae524ba34d45</t>
         </is>
       </c>
       <c r="M461" s="20" t="n"/>
@@ -24739,7 +24759,7 @@
       </c>
       <c r="B462" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C462" s="18" t="inlineStr">
@@ -24749,13 +24769,13 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que a política de falha na tolerância esteja em vigor para atender às suas necessidades de armazenamento vSAN</t>
+          <t>Garanta que as cargas de trabalho na Solução VMware do Azure usem criptografia de dados suficiente durante o tempo de execução (como criptografia de disco convidado e SQL TDE). (a criptografia vSAN em repouso é padrão)</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
       <c r="F462" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -24769,7 +24789,7 @@
       <c r="K462" s="19" t="n"/>
       <c r="L462" s="19" t="inlineStr">
         <is>
-          <t>d88408f3-7273-44c8-96ba-280214590146</t>
+          <t>85e12139-bd7b-4b01-8f7b-95ef6e043e2a</t>
         </is>
       </c>
       <c r="M462" s="20" t="n"/>
@@ -24786,7 +24806,7 @@
       </c>
       <c r="B463" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C463" s="18" t="inlineStr">
@@ -24796,13 +24816,13 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de ter solicitado cota suficiente, garantindo que você tenha considerado o crescimento e o requisito de recuperação de desastres</t>
+          <t>Quando a criptografia no convidado é usada, armazene chaves de criptografia no cofre de chaves do Azure quando possível</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
       <c r="F463" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
@@ -24816,7 +24836,7 @@
       <c r="K463" s="19" t="n"/>
       <c r="L463" s="19" t="inlineStr">
         <is>
-          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
+          <t>a3592718-e6e2-4051-9267-6ae46691e883</t>
         </is>
       </c>
       <c r="M463" s="20" t="n"/>
@@ -24833,7 +24853,7 @@
       </c>
       <c r="B464" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C464" s="18" t="inlineStr">
@@ -24843,7 +24863,7 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que as restrições de acesso ao ESXi sejam compreendidas, há limites de acesso que podem afetar as soluções de terceiros 3rd.</t>
+          <t>Considere usar o suporte estendido de atualização de segurança para cargas de trabalho em execução na Solução VMware do Azure (a Solução VMware do Azure é qualificada para ESU)</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
@@ -24863,7 +24883,7 @@
       <c r="K464" s="19" t="n"/>
       <c r="L464" s="19" t="inlineStr">
         <is>
-          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
+          <t>5ac94222-3e13-4810-9230-81a941741583</t>
         </is>
       </c>
       <c r="M464" s="20" t="n"/>
@@ -24880,7 +24900,7 @@
       </c>
       <c r="B465" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C465" s="18" t="inlineStr">
@@ -24890,13 +24910,13 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de ter uma política em torno da densidade e eficiência do host ESXi, tendo em mente o prazo de espera para solicitar novos nós</t>
+          <t>Certifique-se de que o método de redundância de dados vSAN apropriado seja usado (especificação RAID)</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
       <c r="F465" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
@@ -24910,7 +24930,7 @@
       <c r="K465" s="19" t="n"/>
       <c r="L465" s="19" t="inlineStr">
         <is>
-          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
+          <t>3ef7ad7c-6d37-4331-95c7-acbe44bbe609</t>
         </is>
       </c>
       <c r="M465" s="20" t="n"/>
@@ -24927,7 +24947,7 @@
       </c>
       <c r="B466" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C466" s="18" t="inlineStr">
@@ -24937,13 +24957,13 @@
       </c>
       <c r="D466" s="18" t="inlineStr">
         <is>
-          <t>Garantir que um bom processo de gerenciamento de custos esteja em vigor para a Solução VMware do Azure - o Gerenciamento de Custos do Azure pode ser usado</t>
+          <t>Certifique-se de que a política de falha na tolerância esteja em vigor para atender às suas necessidades de armazenamento vSAN</t>
         </is>
       </c>
       <c r="E466" s="18" t="n"/>
       <c r="F466" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
@@ -24957,7 +24977,7 @@
       <c r="K466" s="19" t="n"/>
       <c r="L466" s="19" t="inlineStr">
         <is>
-          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
+          <t>d88408f3-7273-44c8-96ba-280214590146</t>
         </is>
       </c>
       <c r="M466" s="20" t="n"/>
@@ -24974,7 +24994,7 @@
       </c>
       <c r="B467" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C467" s="18" t="inlineStr">
@@ -24984,13 +25004,13 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>As instâncias reservadas do Azure são usadas para otimizar o custo de uso da Solução VMware do Azure</t>
+          <t>Certifique-se de ter solicitado cota suficiente, garantindo que você tenha considerado o crescimento e o requisito de recuperação de desastres</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
       <c r="F467" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
@@ -25004,7 +25024,7 @@
       <c r="K467" s="19" t="n"/>
       <c r="L467" s="19" t="inlineStr">
         <is>
-          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
+          <t>d89f2e87-7784-424d-9167-85c6fa95b96a</t>
         </is>
       </c>
       <c r="M467" s="20" t="n"/>
@@ -25021,7 +25041,7 @@
       </c>
       <c r="B468" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C468" s="18" t="inlineStr">
@@ -25031,7 +25051,7 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso do Azure Private-Link ao usar outros Serviços Nativos do Azure</t>
+          <t>Certifique-se de que as restrições de acesso ao ESXi sejam compreendidas, há limites de acesso que podem afetar as soluções de terceiros 3rd.</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
@@ -25051,7 +25071,7 @@
       <c r="K468" s="19" t="n"/>
       <c r="L468" s="19" t="inlineStr">
         <is>
-          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
+          <t>5d38e53f-9ccb-4d86-a266-acca274faa19</t>
         </is>
       </c>
       <c r="M468" s="20" t="n"/>
@@ -25068,7 +25088,7 @@
       </c>
       <c r="B469" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C469" s="18" t="inlineStr">
@@ -25078,13 +25098,13 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Verifique se todos os recursos necessários residem na(s) mesma(s) zona(s) de disponibilidade do Azure</t>
+          <t>Certifique-se de ter uma política em torno da densidade e eficiência do host ESXi, tendo em mente o prazo de espera para solicitar novos nós</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
       <c r="F469" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -25098,7 +25118,7 @@
       <c r="K469" s="19" t="n"/>
       <c r="L469" s="19" t="inlineStr">
         <is>
-          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
+          <t>bf39d95d-44c7-4c89-89ca-1f6d5315ae52</t>
         </is>
       </c>
       <c r="M469" s="20" t="n"/>
@@ -25115,7 +25135,7 @@
       </c>
       <c r="B470" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C470" s="18" t="inlineStr">
@@ -25125,7 +25145,7 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>Habilitar cargas de trabalho de VM convidada do Microsoft Defender for Cloud for Azure VMware Solution</t>
+          <t>Garantir que um bom processo de gerenciamento de custos esteja em vigor para a Solução VMware do Azure - o Gerenciamento de Custos do Azure pode ser usado</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
@@ -25145,7 +25165,7 @@
       <c r="K470" s="19" t="n"/>
       <c r="L470" s="19" t="inlineStr">
         <is>
-          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
+          <t>4ba34d45-85e1-4213-abd7-bb012f7b95ef</t>
         </is>
       </c>
       <c r="M470" s="20" t="n"/>
@@ -25162,7 +25182,7 @@
       </c>
       <c r="B471" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C471" s="18" t="inlineStr">
@@ -25172,13 +25192,13 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>Usar servidores habilitados para Arc do Azure para gerenciar suas cargas de trabalho de VM convidada da Solução VMware do Azure</t>
+          <t>As instâncias reservadas do Azure são usadas para otimizar o custo de uso da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
       <c r="F471" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -25192,7 +25212,7 @@
       <c r="K471" s="19" t="n"/>
       <c r="L471" s="19" t="inlineStr">
         <is>
-          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
+          <t>6e043e2a-a359-4271-ae6e-205172676ae4</t>
         </is>
       </c>
       <c r="M471" s="20" t="n"/>
@@ -25209,7 +25229,7 @@
       </c>
       <c r="B472" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C472" s="18" t="inlineStr">
@@ -25219,13 +25239,13 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o log de diagnóstico e de métrica na solução VMware do Azure</t>
+          <t>Considere o uso do Azure Private-Link ao usar outros Serviços Nativos do Azure</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
       <c r="F472" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -25239,7 +25259,7 @@
       <c r="K472" s="19" t="n"/>
       <c r="L472" s="19" t="inlineStr">
         <is>
-          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
+          <t>6691e883-5ac9-4422-83e1-3810523081a9</t>
         </is>
       </c>
       <c r="M472" s="20" t="n"/>
@@ -25256,7 +25276,7 @@
       </c>
       <c r="B473" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C473" s="18" t="inlineStr">
@@ -25266,13 +25286,13 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>Implantar os agentes do Log Analytics nas cargas de trabalho da VM convidada da Solução VMware do Azure</t>
+          <t>Verifique se todos os recursos necessários residem na(s) mesma(s) zona(s) de disponibilidade do Azure</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
       <c r="F473" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -25286,7 +25306,7 @@
       <c r="K473" s="19" t="n"/>
       <c r="L473" s="19" t="inlineStr">
         <is>
-          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
+          <t>db611712-6904-40b4-aa3d-3e0803276d4b</t>
         </is>
       </c>
       <c r="M473" s="20" t="n"/>
@@ -25303,7 +25323,7 @@
       </c>
       <c r="B474" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C474" s="18" t="inlineStr">
@@ -25313,7 +25333,7 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>Verifique se você tem uma política e uma solução de backup documentadas e implementadas para cargas de trabalho de VM da Solução VMware do Azure</t>
+          <t>Habilitar cargas de trabalho de VM convidada do Microsoft Defender for Cloud for Azure VMware Solution</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
@@ -25333,7 +25353,7 @@
       <c r="K474" s="19" t="n"/>
       <c r="L474" s="19" t="inlineStr">
         <is>
-          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
+          <t>48b262d6-cc5f-4512-a253-98e6db9d37da</t>
         </is>
       </c>
       <c r="M474" s="20" t="n"/>
@@ -25360,7 +25380,7 @@
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>Usar o Microsoft Defender for Cloud para monitoramento de conformidade de cargas de trabalho em execução no Azure VMware Solution</t>
+          <t>Usar servidores habilitados para Arc do Azure para gerenciar suas cargas de trabalho de VM convidada da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
@@ -25380,7 +25400,7 @@
       <c r="K475" s="19" t="n"/>
       <c r="L475" s="19" t="inlineStr">
         <is>
-          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
+          <t>41741583-3ef7-4ad7-a6d3-733165c7acbe</t>
         </is>
       </c>
       <c r="M475" s="20" t="n"/>
@@ -25397,7 +25417,7 @@
       </c>
       <c r="B476" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C476" s="18" t="inlineStr">
@@ -25407,13 +25427,13 @@
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>São as linhas de base de conformidade aplicáveis adicionadas ao Microsoft Defender for Cloud</t>
+          <t>Habilitar o log de diagnóstico e de métrica na solução VMware do Azure</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
       <c r="F476" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -25427,7 +25447,7 @@
       <c r="K476" s="19" t="n"/>
       <c r="L476" s="19" t="inlineStr">
         <is>
-          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
+          <t>88f03a4d-2cd4-463c-abbc-868295abc91a</t>
         </is>
       </c>
       <c r="M476" s="20" t="n"/>
@@ -25444,7 +25464,7 @@
       </c>
       <c r="B477" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C477" s="18" t="inlineStr">
@@ -25454,13 +25474,13 @@
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>A residência de dados foi avaliada ao selecionar regiões do Azure a serem usadas para a implantação da Solução VMware do Azure</t>
+          <t>Implantar os agentes do Log Analytics nas cargas de trabalho da VM convidada da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
       <c r="F477" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -25474,7 +25494,7 @@
       <c r="K477" s="19" t="n"/>
       <c r="L477" s="19" t="inlineStr">
         <is>
-          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
+          <t>4ed90dae-2cc8-44c4-9b6b-781cbafe6c46</t>
         </is>
       </c>
       <c r="M477" s="20" t="n"/>
@@ -25491,7 +25511,7 @@
       </c>
       <c r="B478" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C478" s="18" t="inlineStr">
@@ -25501,13 +25521,13 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>As implicações do processamento de dados (modelo de prestador de serviços / consumidor de serviços) são claras e documentadas</t>
+          <t>Verifique se você tem uma política e uma solução de backup documentadas e implementadas para cargas de trabalho de VM da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
       <c r="F478" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -25521,7 +25541,7 @@
       <c r="K478" s="19" t="n"/>
       <c r="L478" s="19" t="inlineStr">
         <is>
-          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
+          <t>589d457a-927c-4397-9d11-02cad6aae11e</t>
         </is>
       </c>
       <c r="M478" s="20" t="n"/>
@@ -25548,7 +25568,7 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso de CMK (Customer Managed Key) para vSAN somente se necessário por motivo(s) de conformidade.</t>
+          <t>Usar o Microsoft Defender for Cloud para monitoramento de conformidade de cargas de trabalho em execução no Azure VMware Solution</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
@@ -25568,7 +25588,7 @@
       <c r="K479" s="19" t="n"/>
       <c r="L479" s="19" t="inlineStr">
         <is>
-          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
+          <t>ee29711b-d352-4caa-ab79-b198dab81932</t>
         </is>
       </c>
       <c r="M479" s="20" t="n"/>
@@ -25585,7 +25605,7 @@
       </c>
       <c r="B480" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C480" s="18" t="inlineStr">
@@ -25595,13 +25615,13 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>Criar painéis para habilitar os principais insights de monitoramento da Solução VMware do Azure</t>
+          <t>São as linhas de base de conformidade aplicáveis adicionadas ao Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
       <c r="F480" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
@@ -25615,7 +25635,7 @@
       <c r="K480" s="19" t="n"/>
       <c r="L480" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
+          <t>c9fc9d1b-b780-436f-9e6b-fbb9ed503547</t>
         </is>
       </c>
       <c r="M480" s="20" t="n"/>
@@ -25632,7 +25652,7 @@
       </c>
       <c r="B481" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C481" s="18" t="inlineStr">
@@ -25642,7 +25662,7 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>Criar alertas de aviso para limites críticos para alertas automáticos sobre o desempenho da solução VMware do Azure (CPU &gt;80%, memória média &gt;80%, vSAN &gt;70%)</t>
+          <t>A residência de dados foi avaliada ao selecionar regiões do Azure a serem usadas para a implantação da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
@@ -25662,7 +25682,7 @@
       <c r="K481" s="19" t="n"/>
       <c r="L481" s="19" t="inlineStr">
         <is>
-          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
+          <t>cc447e82-6128-4a71-b0f1-cac6d9ef1d5e</t>
         </is>
       </c>
       <c r="M481" s="20" t="n"/>
@@ -25679,7 +25699,7 @@
       </c>
       <c r="B482" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C482" s="18" t="inlineStr">
@@ -25689,7 +25709,7 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que o alerta crítico seja criado para monitorar se o consumo de vSAN está abaixo de 75%, pois esse é um limite de suporte do VMware</t>
+          <t>As implicações do processamento de dados (modelo de prestador de serviços / consumidor de serviços) são claras e documentadas</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
@@ -25709,7 +25729,7 @@
       <c r="K482" s="19" t="n"/>
       <c r="L482" s="19" t="inlineStr">
         <is>
-          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
+          <t>832e42e3-611c-4818-a0a0-bc510e43a18a</t>
         </is>
       </c>
       <c r="M482" s="20" t="n"/>
@@ -25726,7 +25746,7 @@
       </c>
       <c r="B483" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C483" s="18" t="inlineStr">
@@ -25736,13 +25756,13 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>Verifique se os alertas estão configurados para alertas e notificações de Integridade do Serviço do Azure</t>
+          <t>Considere o uso de CMK (Customer Managed Key) para vSAN somente se necessário por motivo(s) de conformidade.</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
       <c r="F483" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
@@ -25756,7 +25776,7 @@
       <c r="K483" s="19" t="n"/>
       <c r="L483" s="19" t="inlineStr">
         <is>
-          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
+          <t>547c1747-dc56-4068-a714-435cd19dd244</t>
         </is>
       </c>
       <c r="M483" s="20" t="n"/>
@@ -25783,13 +25803,13 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>Configurar o log da Solução VMware do Azure para ser enviado a uma conta de Armazenamento do Azure ou ao Azure EventHub para processamento</t>
+          <t>Criar painéis para habilitar os principais insights de monitoramento da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
       <c r="F484" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
@@ -25803,7 +25823,7 @@
       <c r="K484" s="19" t="n"/>
       <c r="L484" s="19" t="inlineStr">
         <is>
-          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
+          <t>e43a18a9-cd28-49ce-b6b1-7db8255461e2</t>
         </is>
       </c>
       <c r="M484" s="20" t="n"/>
@@ -25830,13 +25850,13 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>Se for necessário um insight profundo no VMware vSphere: o vRealize Operations e/ou o vRealize Network Insights são usados na solução?</t>
+          <t>Criar alertas de aviso para limites críticos para alertas automáticos sobre o desempenho da solução VMware do Azure (CPU &gt;80%, memória média &gt;80%, vSAN &gt;70%)</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
       <c r="F485" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
@@ -25850,7 +25870,7 @@
       <c r="K485" s="19" t="n"/>
       <c r="L485" s="19" t="inlineStr">
         <is>
-          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
+          <t>6b84ee5d-f47d-42d9-8881-b1cd5d1e54a2</t>
         </is>
       </c>
       <c r="M485" s="20" t="n"/>
@@ -25877,7 +25897,7 @@
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>Verifique se a política de armazenamento vSAN para VMs NÃO é a política de armazenamento padrão, pois essa política aplica provisionamento espesso</t>
+          <t>Certifique-se de que o alerta crítico seja criado para monitorar se o consumo de vSAN está abaixo de 75%, pois esse é um limite de suporte do VMware</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
@@ -25897,7 +25917,7 @@
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
+          <t>9659e396-80e7-4828-ac93-5657d02bff45</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25924,13 +25944,13 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>Verifique se as bibliotecas de conteúdo do vSphere não são colocadas no vSAN, pois o vSAN é um recurso finito</t>
+          <t>Verifique se os alertas estão configurados para alertas e notificações de Integridade do Serviço do Azure</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
       <c r="F487" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
@@ -25944,7 +25964,7 @@
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
+          <t>64b0d934-a348-4726-be79-d6b5c3a36495</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25971,7 +25991,7 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que os repositórios de dados da solução de backup sejam armazenados fora do armazenamento vSAN. No nativo do Azure ou em um armazenamento de dados com backup de pool de discos</t>
+          <t>Configurar o log da Solução VMware do Azure para ser enviado a uma conta de Armazenamento do Azure ou ao Azure EventHub para processamento</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -25991,7 +26011,7 @@
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
+          <t>b6abad38-aad5-43cc-99e1-d86667357c54</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -26018,13 +26038,13 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam gerenciadas de forma híbrida usando o Azure Arc for Servers (a Solução VMware do Arc for Azure está em visualização)</t>
+          <t>Se for necessário um insight profundo no VMware vSphere: o vRealize Operations e/ou o vRealize Network Insights são usados na solução?</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
       <c r="F489" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -26038,7 +26058,7 @@
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
+          <t>9674c5ed-85b8-459c-9733-be2b1a27b775</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -26065,13 +26085,13 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam monitoradas usando o Azure Log Analytics e o Azure Monitor</t>
+          <t>Verifique se a política de armazenamento vSAN para VMs NÃO é a política de armazenamento padrão, pois essa política aplica provisionamento espesso</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
       <c r="F490" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
@@ -26085,7 +26105,7 @@
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
+          <t>a91be1f3-88f0-43a4-b2cd-463cbbbc8682</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -26112,7 +26132,7 @@
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>Incluir cargas de trabalho em execução na Solução VMware do Azure nas ferramentas de gerenciamento de atualizações existentes ou no Gerenciamento de Atualizações do Azure</t>
+          <t>Verifique se as bibliotecas de conteúdo do vSphere não são colocadas no vSAN, pois o vSAN é um recurso finito</t>
         </is>
       </c>
       <c r="E491" s="18" t="n"/>
@@ -26132,7 +26152,7 @@
       <c r="K491" s="19" t="n"/>
       <c r="L491" s="19" t="inlineStr">
         <is>
-          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
+          <t>d9ef1d5e-832d-442e-9611-c818b0afbc51</t>
         </is>
       </c>
       <c r="M491" s="20" t="n"/>
@@ -26159,7 +26179,7 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para integrar cargas de trabalho da Solução VMware do Azure nas soluções de Gerenciamento, Monitoramento e Segurança do Azure</t>
+          <t>Certifique-se de que os repositórios de dados da solução de backup sejam armazenados fora do armazenamento vSAN. No nativo do Azure ou em um armazenamento de dados com backup de pool de discos</t>
         </is>
       </c>
       <c r="E492" s="18" t="n"/>
@@ -26179,7 +26199,7 @@
       <c r="K492" s="19" t="n"/>
       <c r="L492" s="19" t="inlineStr">
         <is>
-          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
+          <t>0e43a18a-9cd2-489b-bd6b-17db8255461e</t>
         </is>
       </c>
       <c r="M492" s="20" t="n"/>
@@ -26196,7 +26216,7 @@
       </c>
       <c r="B493" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C493" s="18" t="inlineStr">
@@ -26206,7 +26226,7 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam integradas ao Microsoft Defender for Cloud</t>
+          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam gerenciadas de forma híbrida usando o Azure Arc for Servers (a Solução VMware do Arc for Azure está em visualização)</t>
         </is>
       </c>
       <c r="E493" s="18" t="n"/>
@@ -26226,7 +26246,7 @@
       <c r="K493" s="19" t="n"/>
       <c r="L493" s="19" t="inlineStr">
         <is>
-          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
+          <t>2aee3453-aec8-4339-848b-262d6cc5f512</t>
         </is>
       </c>
       <c r="M493" s="20" t="n"/>
@@ -26243,7 +26263,7 @@
       </c>
       <c r="B494" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C494" s="18" t="inlineStr">
@@ -26253,7 +26273,7 @@
       </c>
       <c r="D494" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que os backups não sejam armazenados no vSAN, pois o vSAN é um recurso finito</t>
+          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam monitoradas usando o Azure Log Analytics e o Azure Monitor</t>
         </is>
       </c>
       <c r="E494" s="18" t="n"/>
@@ -26273,7 +26293,7 @@
       <c r="K494" s="19" t="n"/>
       <c r="L494" s="19" t="inlineStr">
         <is>
-          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
+          <t>925398e6-da9d-437d-ac43-bc6cd1d79a9b</t>
         </is>
       </c>
       <c r="M494" s="20" t="n"/>
@@ -26290,7 +26310,7 @@
       </c>
       <c r="B495" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C495" s="18" t="inlineStr">
@@ -26300,7 +26320,7 @@
       </c>
       <c r="D495" s="18" t="inlineStr">
         <is>
-          <t>Todas as soluções de DR foram consideradas e uma solução que é melhor para o seu negócio foi decidida? [SRM/JetStream/Zerto/Veeam/...]</t>
+          <t>Incluir cargas de trabalho em execução na Solução VMware do Azure nas ferramentas de gerenciamento de atualizações existentes ou no Gerenciamento de Atualizações do Azure</t>
         </is>
       </c>
       <c r="E495" s="18" t="n"/>
@@ -26320,7 +26340,7 @@
       <c r="K495" s="19" t="n"/>
       <c r="L495" s="19" t="inlineStr">
         <is>
-          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
+          <t>24604489-a8f4-42d7-ae78-cb6a33bd2a09</t>
         </is>
       </c>
       <c r="M495" s="20" t="n"/>
@@ -26337,7 +26357,7 @@
       </c>
       <c r="B496" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C496" s="18" t="inlineStr">
@@ -26347,7 +26367,7 @@
       </c>
       <c r="D496" s="18" t="inlineStr">
         <is>
-          <t>Usar o Azure Site Recovery quando a tecnologia de Recuperação de Desastres for IaaS nativa do Azure</t>
+          <t>Usar a Política do Azure para integrar cargas de trabalho da Solução VMware do Azure nas soluções de Gerenciamento, Monitoramento e Segurança do Azure</t>
         </is>
       </c>
       <c r="E496" s="18" t="n"/>
@@ -26367,7 +26387,7 @@
       <c r="K496" s="19" t="n"/>
       <c r="L496" s="19" t="inlineStr">
         <is>
-          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
+          <t>17e7a8d9-0ae0-4e27-aee2-9711bd352caa</t>
         </is>
       </c>
       <c r="M496" s="20" t="n"/>
@@ -26384,7 +26404,7 @@
       </c>
       <c r="B497" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C497" s="18" t="inlineStr">
@@ -26394,13 +26414,13 @@
       </c>
       <c r="D497" s="18" t="inlineStr">
         <is>
-          <t>Use planos de recuperação automatizados com qualquer uma das soluções de desastre, evite ao máximo tarefas manuais</t>
+          <t>Garantir que as cargas de trabalho em execução na Solução VMware do Azure sejam integradas ao Microsoft Defender for Cloud</t>
         </is>
       </c>
       <c r="E497" s="18" t="n"/>
       <c r="F497" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
@@ -26414,7 +26434,7 @@
       <c r="K497" s="19" t="n"/>
       <c r="L497" s="19" t="inlineStr">
         <is>
-          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
+          <t>aee3553a-fc83-4392-98b2-62d6cc5f5129</t>
         </is>
       </c>
       <c r="M497" s="20" t="n"/>
@@ -26441,7 +26461,7 @@
       </c>
       <c r="D498" s="18" t="inlineStr">
         <is>
-          <t>Usar o par de regiões geopolíticas como o ambiente secundário de recuperação de desastres</t>
+          <t>Certifique-se de que os backups não sejam armazenados no vSAN, pois o vSAN é um recurso finito</t>
         </is>
       </c>
       <c r="E498" s="18" t="n"/>
@@ -26461,7 +26481,7 @@
       <c r="K498" s="19" t="n"/>
       <c r="L498" s="19" t="inlineStr">
         <is>
-          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
+          <t>25398e6d-b9d3-47da-a43b-c6cd1d79a9b2</t>
         </is>
       </c>
       <c r="M498" s="20" t="n"/>
@@ -26488,13 +26508,13 @@
       </c>
       <c r="D499" s="18" t="inlineStr">
         <is>
-          <t>Use 2 espaços de endereço diferentes entre as regiões, por exemplo: 10.0.0.0/16 e 192.168.0.0/16 para as diferentes regiões</t>
+          <t>Todas as soluções de DR foram consideradas e uma solução que é melhor para o seu negócio foi decidida? [SRM/JetStream/Zerto/Veeam/...]</t>
         </is>
       </c>
       <c r="E499" s="18" t="n"/>
       <c r="F499" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -26508,7 +26528,7 @@
       <c r="K499" s="19" t="n"/>
       <c r="L499" s="19" t="inlineStr">
         <is>
-          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
+          <t>5e6bfbb9-ed50-4354-9cc4-47e826028a71</t>
         </is>
       </c>
       <c r="M499" s="20" t="n"/>
@@ -26535,7 +26555,7 @@
       </c>
       <c r="D500" s="18" t="inlineStr">
         <is>
-          <t>O ExpressRoute Global Reach será usado para conectividade entre as Nuvens Privadas da Solução VMware do Azure primária e secundária ou o roteamento é feito por meio de dispositivos virtuais de rede?</t>
+          <t>Usar o Azure Site Recovery quando a tecnologia de Recuperação de Desastres for IaaS nativa do Azure</t>
         </is>
       </c>
       <c r="E500" s="18" t="n"/>
@@ -26555,7 +26575,7 @@
       <c r="K500" s="19" t="n"/>
       <c r="L500" s="19" t="inlineStr">
         <is>
-          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
+          <t>f0f1cac6-d9ef-41d5-b832-d42e3611c818</t>
         </is>
       </c>
       <c r="M500" s="20" t="n"/>
@@ -26582,13 +26602,13 @@
       </c>
       <c r="D501" s="18" t="inlineStr">
         <is>
-          <t>Todas as soluções de backup foram consideradas e uma solução que é melhor para o seu negócio foi decidida? [ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
+          <t>Use planos de recuperação automatizados com qualquer uma das soluções de desastre, evite ao máximo tarefas manuais</t>
         </is>
       </c>
       <c r="E501" s="18" t="n"/>
       <c r="F501" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -26602,7 +26622,7 @@
       <c r="K501" s="19" t="n"/>
       <c r="L501" s="19" t="inlineStr">
         <is>
-          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
+          <t>b0afbc51-0e43-4a18-a9cd-289bed6b17db</t>
         </is>
       </c>
       <c r="M501" s="20" t="n"/>
@@ -26629,7 +26649,7 @@
       </c>
       <c r="D502" s="18" t="inlineStr">
         <is>
-          <t>Implante sua solução de backup na mesma região que sua nuvem privada da Solução VMware do Azure</t>
+          <t>Usar o par de regiões geopolíticas como o ambiente secundário de recuperação de desastres</t>
         </is>
       </c>
       <c r="E502" s="18" t="n"/>
@@ -26649,7 +26669,7 @@
       <c r="K502" s="19" t="n"/>
       <c r="L502" s="19" t="inlineStr">
         <is>
-          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
+          <t>8255461e-2aee-4345-9aec-8339248b262d</t>
         </is>
       </c>
       <c r="M502" s="20" t="n"/>
@@ -26676,13 +26696,13 @@
       </c>
       <c r="D503" s="18" t="inlineStr">
         <is>
-          <t>Implante sua solução de backup fora do vSan, em componentes nativos do Azure</t>
+          <t>Use 2 espaços de endereço diferentes entre as regiões, por exemplo: 10.0.0.0/16 e 192.168.0.0/16 para as diferentes regiões</t>
         </is>
       </c>
       <c r="E503" s="18" t="n"/>
       <c r="F503" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
@@ -26696,7 +26716,7 @@
       <c r="K503" s="19" t="n"/>
       <c r="L503" s="19" t="inlineStr">
         <is>
-          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>6cc5f512-9253-498e-9da9-d37dac43bc6c</t>
         </is>
       </c>
       <c r="M503" s="20" t="n"/>
@@ -26723,13 +26743,13 @@
       </c>
       <c r="D504" s="18" t="inlineStr">
         <is>
-          <t>Existe um processo para solicitar uma restauração dos componentes VMware gerenciados pela Plataforma Azure?</t>
+          <t>O ExpressRoute Global Reach será usado para conectividade entre as Nuvens Privadas da Solução VMware do Azure primária e secundária ou o roteamento é feito por meio de dispositivos virtuais de rede?</t>
         </is>
       </c>
       <c r="E504" s="18" t="n"/>
       <c r="F504" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -26743,7 +26763,7 @@
       <c r="K504" s="19" t="n"/>
       <c r="L504" s="19" t="inlineStr">
         <is>
-          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
+          <t>d1d79a9b-2460-4448-aa8f-42d78e78cb6a</t>
         </is>
       </c>
       <c r="M504" s="20" t="n"/>
@@ -26760,7 +26780,7 @@
       </c>
       <c r="B505" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C505" s="18" t="inlineStr">
@@ -26770,13 +26790,13 @@
       </c>
       <c r="D505" s="18" t="inlineStr">
         <is>
-          <t>Para implantações manuais, todas as configurações e implantações devem ser documentadas</t>
+          <t>Todas as soluções de backup foram consideradas e uma solução que é melhor para o seu negócio foi decidida? [ MABS/CommVault/Metallic.io/Veeam/ . ]</t>
         </is>
       </c>
       <c r="E505" s="18" t="n"/>
       <c r="F505" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -26790,7 +26810,7 @@
       <c r="K505" s="19" t="n"/>
       <c r="L505" s="19" t="inlineStr">
         <is>
-          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
+          <t>33bd2a09-17e7-4a8d-a0ae-0e27cee29711</t>
         </is>
       </c>
       <c r="M505" s="20" t="n"/>
@@ -26807,7 +26827,7 @@
       </c>
       <c r="B506" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C506" s="18" t="inlineStr">
@@ -26817,13 +26837,13 @@
       </c>
       <c r="D506" s="18" t="inlineStr">
         <is>
-          <t>Para implantações manuais, considere implementar bloqueios de recursos para evitar ações acidentais em sua nuvem privada de solução VMware do Azure</t>
+          <t>Implante sua solução de backup na mesma região que sua nuvem privada da Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E506" s="18" t="n"/>
       <c r="F506" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -26837,7 +26857,7 @@
       <c r="K506" s="19" t="n"/>
       <c r="L506" s="19" t="inlineStr">
         <is>
-          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
+          <t>bd352caa-ab79-4b18-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M506" s="20" t="n"/>
@@ -26854,7 +26874,7 @@
       </c>
       <c r="B507" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C507" s="18" t="inlineStr">
@@ -26864,13 +26884,13 @@
       </c>
       <c r="D507" s="18" t="inlineStr">
         <is>
-          <t>Para implantações automatizadas, implante uma nuvem privada mínima e dimensione conforme necessário</t>
+          <t>Implante sua solução de backup fora do vSan, em componentes nativos do Azure</t>
         </is>
       </c>
       <c r="E507" s="18" t="n"/>
       <c r="F507" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -26884,7 +26904,7 @@
       <c r="K507" s="19" t="n"/>
       <c r="L507" s="19" t="inlineStr">
         <is>
-          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
+          <t>bb77036f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M507" s="20" t="n"/>
@@ -26901,7 +26921,7 @@
       </c>
       <c r="B508" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C508" s="18" t="inlineStr">
@@ -26911,7 +26931,7 @@
       </c>
       <c r="D508" s="18" t="inlineStr">
         <is>
-          <t>Para implantações automatizadas, solicite ou reserve cota antes de iniciar a implantação</t>
+          <t>Existe um processo para solicitar uma restauração dos componentes VMware gerenciados pela Plataforma Azure?</t>
         </is>
       </c>
       <c r="E508" s="18" t="n"/>
@@ -26931,7 +26951,7 @@
       <c r="K508" s="19" t="n"/>
       <c r="L508" s="19" t="inlineStr">
         <is>
-          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
+          <t>26028a71-f0f1-4cac-9d9e-f1d5e832d42e</t>
         </is>
       </c>
       <c r="M508" s="20" t="n"/>
@@ -26958,7 +26978,7 @@
       </c>
       <c r="D509" s="18" t="inlineStr">
         <is>
-          <t>Para implantação automatizada, verifique se os bloqueios de recursos relevantes são criados por meio da automação ou da Política do Azure para uma governança adequada</t>
+          <t>Para implantações manuais, todas as configurações e implantações devem ser documentadas</t>
         </is>
       </c>
       <c r="E509" s="18" t="n"/>
@@ -26978,7 +26998,7 @@
       <c r="K509" s="19" t="n"/>
       <c r="L509" s="19" t="inlineStr">
         <is>
-          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
+          <t>4604489a-8f42-4d78-b78c-b7a33bd2a0a1</t>
         </is>
       </c>
       <c r="M509" s="20" t="n"/>
@@ -27005,7 +27025,7 @@
       </c>
       <c r="D510" s="18" t="inlineStr">
         <is>
-          <t>Implemente nomes humanos compreensíveis para chaves de autorização ExR para permitir a fácil identificação da finalidade/uso das chaves</t>
+          <t>Para implantações manuais, considere implementar bloqueios de recursos para evitar ações acidentais em sua nuvem privada de solução VMware do Azure</t>
         </is>
       </c>
       <c r="E510" s="18" t="n"/>
@@ -27025,7 +27045,7 @@
       <c r="K510" s="19" t="n"/>
       <c r="L510" s="19" t="inlineStr">
         <is>
-          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
+          <t>7e7a8d90-ae0e-437c-be29-711bd352caaa</t>
         </is>
       </c>
       <c r="M510" s="20" t="n"/>
@@ -27052,7 +27072,7 @@
       </c>
       <c r="D511" s="18" t="inlineStr">
         <is>
-          <t>Usar o Cofre de chaves para armazenar segredos e chaves de autorização quando Princípios de Serviço separados são usados para implantar a Solução VMware do Azure e a Rota Expressa</t>
+          <t>Para implantações automatizadas, implante uma nuvem privada mínima e dimensione conforme necessário</t>
         </is>
       </c>
       <c r="E511" s="18" t="n"/>
@@ -27072,7 +27092,7 @@
       <c r="K511" s="19" t="n"/>
       <c r="L511" s="19" t="inlineStr">
         <is>
-          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
+          <t>b79b198d-ab81-4932-a9fc-9d1bb78036f5</t>
         </is>
       </c>
       <c r="M511" s="20" t="n"/>
@@ -27099,7 +27119,7 @@
       </c>
       <c r="D512" s="18" t="inlineStr">
         <is>
-          <t>Defina dependências de recursos para serializar ações no IaC quando muitos recursos precisarem ser implantados no/na Solução VMware do Azure, pois a Solução VMware do Azure oferece suporte apenas a um número limitado de operações paralelas.</t>
+          <t>Para implantações automatizadas, solicite ou reserve cota antes de iniciar a implantação</t>
         </is>
       </c>
       <c r="E512" s="18" t="n"/>
@@ -27119,7 +27139,7 @@
       <c r="K512" s="19" t="n"/>
       <c r="L512" s="19" t="inlineStr">
         <is>
-          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
+          <t>e6bfbb9e-d503-4547-ac44-7e826128a71f</t>
         </is>
       </c>
       <c r="M512" s="20" t="n"/>
@@ -27146,7 +27166,7 @@
       </c>
       <c r="D513" s="18" t="inlineStr">
         <is>
-          <t>Ao executar a configuração automatizada de segmentos NSX-T com um único gateway de Camada 1, use as APIs do Portal do Azure em vez das APIs do NSX-Manager</t>
+          <t>Para implantação automatizada, verifique se os bloqueios de recursos relevantes são criados por meio da automação ou da Política do Azure para uma governança adequada</t>
         </is>
       </c>
       <c r="E513" s="18" t="n"/>
@@ -27166,7 +27186,7 @@
       <c r="K513" s="19" t="n"/>
       <c r="L513" s="19" t="inlineStr">
         <is>
-          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
+          <t>0f1cac6d-9ef1-4d5e-a32e-42e3611c818b</t>
         </is>
       </c>
       <c r="M513" s="20" t="n"/>
@@ -27183,7 +27203,7 @@
       </c>
       <c r="B514" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C514" s="18" t="inlineStr">
@@ -27193,13 +27213,13 @@
       </c>
       <c r="D514" s="18" t="inlineStr">
         <is>
-          <t>Ao pretender usar a expansão automatizada, certifique-se de aplicar cota suficiente da Solução VMware do Azure para as assinaturas que executam a Solução VMware do Azure</t>
+          <t>Implemente nomes humanos compreensíveis para chaves de autorização ExR para permitir a fácil identificação da finalidade/uso das chaves</t>
         </is>
       </c>
       <c r="E514" s="18" t="n"/>
       <c r="F514" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -27213,7 +27233,7 @@
       <c r="K514" s="19" t="n"/>
       <c r="L514" s="19" t="inlineStr">
         <is>
-          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
+          <t>e2cc95d4-8c6b-4791-bca0-f6c56589e558</t>
         </is>
       </c>
       <c r="M514" s="20" t="n"/>
@@ -27230,7 +27250,7 @@
       </c>
       <c r="B515" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C515" s="18" t="inlineStr">
@@ -27240,13 +27260,13 @@
       </c>
       <c r="D515" s="18" t="inlineStr">
         <is>
-          <t>Ao pretender usar o scale-in automatizado, certifique-se de levar em consideração os requisitos da política de armazenamento antes de executar essa ação</t>
+          <t>Usar o Cofre de chaves para armazenar segredos e chaves de autorização quando Princípios de Serviço separados são usados para implantar a Solução VMware do Azure e a Rota Expressa</t>
         </is>
       </c>
       <c r="E515" s="18" t="n"/>
       <c r="F515" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -27260,7 +27280,7 @@
       <c r="K515" s="19" t="n"/>
       <c r="L515" s="19" t="inlineStr">
         <is>
-          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
+          <t>255461e2-aee3-4553-afc8-339248b262d6</t>
         </is>
       </c>
       <c r="M515" s="20" t="n"/>
@@ -27277,7 +27297,7 @@
       </c>
       <c r="B516" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C516" s="18" t="inlineStr">
@@ -27287,13 +27307,13 @@
       </c>
       <c r="D516" s="18" t="inlineStr">
         <is>
-          <t>As operações de dimensionamento sempre precisam ser serializadas em um único SDDC, pois apenas uma operação de escala pode ser executada por vez (mesmo quando vários clusters são usados)</t>
+          <t>Defina dependências de recursos para serializar ações no IaC quando muitos recursos precisarem ser implantados no/na Solução VMware do Azure, pois a Solução VMware do Azure oferece suporte apenas a um número limitado de operações paralelas.</t>
         </is>
       </c>
       <c r="E516" s="18" t="n"/>
       <c r="F516" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -27307,7 +27327,7 @@
       <c r="K516" s="19" t="n"/>
       <c r="L516" s="19" t="inlineStr">
         <is>
-          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
+          <t>cc5f5129-2539-48e6-bb9d-37dac43bc6cd</t>
         </is>
       </c>
       <c r="M516" s="20" t="n"/>
@@ -27324,7 +27344,7 @@
       </c>
       <c r="B517" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C517" s="18" t="inlineStr">
@@ -27334,13 +27354,13 @@
       </c>
       <c r="D517" s="18" t="inlineStr">
         <is>
-          <t>Considerar e validar operações de dimensionamento em soluções de terceiros 3rd usadas na arquitetura (suportadas ou não)</t>
+          <t>Ao executar a configuração automatizada de segmentos NSX-T com um único gateway de Camada 1, use as APIs do Portal do Azure em vez das APIs do NSX-Manager</t>
         </is>
       </c>
       <c r="E517" s="18" t="n"/>
       <c r="F517" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
@@ -27354,7 +27374,7 @@
       <c r="K517" s="19" t="n"/>
       <c r="L517" s="19" t="inlineStr">
         <is>
-          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
+          <t>1d79a9b2-4604-4489-a8f4-2d78e78cb7a3</t>
         </is>
       </c>
       <c r="M517" s="20" t="n"/>
@@ -27381,7 +27401,7 @@
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>Definir e impor limites máximos de entrada/saída de escala para seu ambiente nas automações</t>
+          <t>Ao pretender usar a expansão automatizada, certifique-se de aplicar cota suficiente da Solução VMware do Azure para as assinaturas que executam a Solução VMware do Azure</t>
         </is>
       </c>
       <c r="E518" s="18" t="n"/>
@@ -27401,7 +27421,7 @@
       <c r="K518" s="19" t="n"/>
       <c r="L518" s="19" t="inlineStr">
         <is>
-          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
+          <t>3bd2a0a1-7e7a-48d9-8ae0-e37cee29711b</t>
         </is>
       </c>
       <c r="M518" s="20" t="n"/>
@@ -27418,7 +27438,7 @@
       </c>
       <c r="B519" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C519" s="18" t="inlineStr">
@@ -27428,7 +27448,7 @@
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>Implementar regras de monitoramento para monitorar operações de dimensionamento automatizadas e monitorar o sucesso e a falha para habilitar respostas apropriadas (automatizadas)</t>
+          <t>Ao pretender usar o scale-in automatizado, certifique-se de levar em consideração os requisitos da política de armazenamento antes de executar essa ação</t>
         </is>
       </c>
       <c r="E519" s="18" t="n"/>
@@ -27448,7 +27468,7 @@
       <c r="K519" s="19" t="n"/>
       <c r="L519" s="19" t="inlineStr">
         <is>
-          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
+          <t>d352caaa-b79b-4198-bab8-1932c9fc9d1b</t>
         </is>
       </c>
       <c r="M519" s="20" t="n"/>
@@ -27465,7 +27485,7 @@
       </c>
       <c r="B520" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C520" s="18" t="inlineStr">
@@ -27475,13 +27495,13 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o MON, esteja ciente dos limites de VMs configuradas simulataneamente (MON Limit for HCX [400 - standard, 1000 - Larger appliance])</t>
+          <t>As operações de dimensionamento sempre precisam ser serializadas em um único SDDC, pois apenas uma operação de escala pode ser executada por vez (mesmo quando vários clusters são usados)</t>
         </is>
       </c>
       <c r="E520" s="18" t="n"/>
       <c r="F520" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -27490,20 +27510,12 @@
         </is>
       </c>
       <c r="H520" s="18" t="n"/>
-      <c r="I520" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J520" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="I520" s="13" t="n"/>
+      <c r="J520" s="13" t="n"/>
       <c r="K520" s="19" t="n"/>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
+          <t>b78036f5-e6bf-4bb9-bd50-3547cc447e82</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -27520,7 +27532,7 @@
       </c>
       <c r="B521" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C521" s="18" t="inlineStr">
@@ -27530,13 +27542,13 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o MON, você não pode habilitar o MON em mais de 100 extensões de rede</t>
+          <t>Considerar e validar operações de dimensionamento em soluções de terceiros 3rd usadas na arquitetura (suportadas ou não)</t>
         </is>
       </c>
       <c r="E521" s="18" t="n"/>
       <c r="F521" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -27545,20 +27557,12 @@
         </is>
       </c>
       <c r="H521" s="18" t="n"/>
-      <c r="I521" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
-      <c r="J521" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="I521" s="13" t="n"/>
+      <c r="J521" s="13" t="n"/>
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
+          <t>bf15bce2-19e4-4a0e-a588-79424d226786</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -27585,7 +27589,7 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando uma conexão VPN para migrações, ajuste o tamanho da MTU de acordo.</t>
+          <t>Definir e impor limites máximos de entrada/saída de escala para seu ambiente nas automações</t>
         </is>
       </c>
       <c r="E522" s="18" t="n"/>
@@ -27605,7 +27609,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
+          <t>d20b56c5-7be5-4851-a0f8-3835c586cb29</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -27622,7 +27626,7 @@
       </c>
       <c r="B523" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C523" s="18" t="inlineStr">
@@ -27632,7 +27636,7 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>Para regiões de baixa conectividade conectadas ao Azure (500Mbps ou menos), considere implantar o dispositivo de otimização de WAN HCX</t>
+          <t>Implementar regras de monitoramento para monitorar operações de dimensionamento automatizadas e monitorar o sucesso e a falha para habilitar respostas apropriadas (automatizadas)</t>
         </is>
       </c>
       <c r="E523" s="18" t="n"/>
@@ -27652,7 +27656,7 @@
       <c r="K523" s="19" t="n"/>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
+          <t>1dc15a1c-075e-4e9f-841a-cccd579376bc</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -27679,13 +27683,13 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que as migrações sejam iniciadas a partir do dispositivo local e NÃO do dispositivo em nuvem (NÃO execute uma migração reversa)</t>
+          <t>Ao usar o MON, esteja ciente dos limites de VMs configuradas simulataneamente (MON Limit for HCX [400 - standard, 1000 - Larger appliance])</t>
         </is>
       </c>
       <c r="E524" s="18" t="n"/>
       <c r="F524" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -27694,12 +27698,20 @@
         </is>
       </c>
       <c r="H524" s="18" t="n"/>
-      <c r="I524" s="13" t="n"/>
-      <c r="J524" s="13" t="n"/>
+      <c r="I524" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J524" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K524" s="19" t="n"/>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
+          <t>c5972cd4-cd21-4b07-9036-f5e6b4bfd3d5</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -27726,13 +27738,13 @@
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>Quando o Azure Netapp Files for usado para estender o armazenamento para a Solução VMware do Azure, considere usá-lo como um armazenamento de dados VMware em vez de anexá-lo diretamente a uma VM.</t>
+          <t>Ao usar o MON, você não pode habilitar o MON em mais de 100 extensões de rede</t>
         </is>
       </c>
       <c r="E525" s="18" t="n"/>
       <c r="F525" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -27746,11 +27758,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J525" s="13" t="n"/>
+      <c r="J525" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
+          <t>be1f38cf-03a8-422b-b463-cbbbc8ac299e</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -27767,7 +27783,7 @@
       </c>
       <c r="B526" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C526" s="18" t="inlineStr">
@@ -27777,7 +27793,7 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>Verifique se um ExpressRoute Gateway dedicado está sendo usado para soluções de armazenamento de dados externos</t>
+          <t>Se estiver usando uma conexão VPN para migrações, ajuste o tamanho da MTU de acordo.</t>
         </is>
       </c>
       <c r="E526" s="18" t="n"/>
@@ -27792,16 +27808,12 @@
         </is>
       </c>
       <c r="H526" s="18" t="n"/>
-      <c r="I526" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I526" s="13" t="n"/>
       <c r="J526" s="13" t="n"/>
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
+          <t>bc91a43d-90da-4e2c-a881-4706f7c1cbaf</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -27818,7 +27830,7 @@
       </c>
       <c r="B527" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C527" s="18" t="inlineStr">
@@ -27828,7 +27840,7 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>Verifique se o FastPath está habilitado no ExpressRoute Gateway que está sendo usado para soluções de armazenamento de dados externos</t>
+          <t>Para regiões de baixa conectividade conectadas ao Azure (500Mbps ou menos), considere implantar o dispositivo de otimização de WAN HCX</t>
         </is>
       </c>
       <c r="E527" s="18" t="n"/>
@@ -27843,16 +27855,12 @@
         </is>
       </c>
       <c r="H527" s="18" t="n"/>
-      <c r="I527" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I527" s="13" t="n"/>
       <c r="J527" s="13" t="n"/>
       <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
+          <t>e614658d-d457-4e92-9139-b821102cad6e</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -27879,13 +27887,13 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando cluster estendido, verifique se a solução de recuperação de desastres selecionada é suportada pelo fornecedor</t>
+          <t>Certifique-se de que as migrações sejam iniciadas a partir do dispositivo local e NÃO do dispositivo em nuvem (NÃO execute uma migração reversa)</t>
         </is>
       </c>
       <c r="E528" s="18" t="n"/>
       <c r="F528" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
@@ -27894,16 +27902,12 @@
         </is>
       </c>
       <c r="H528" s="18" t="n"/>
-      <c r="I528" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I528" s="13" t="n"/>
       <c r="J528" s="13" t="n"/>
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
+          <t>ae01e6e8-43e5-42f4-922d-928c1b1cd521</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -27930,13 +27934,13 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando cluster estendido, verifique se o SLA fornecido atenderá aos seus requisitos</t>
+          <t>Quando o Azure Netapp Files for usado para estender o armazenamento para a Solução VMware do Azure, considere usá-lo como um armazenamento de dados VMware em vez de anexá-lo diretamente a uma VM.</t>
         </is>
       </c>
       <c r="E529" s="18" t="n"/>
       <c r="F529" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
@@ -27954,7 +27958,7 @@
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+          <t>e54a29a9-de39-4ac0-b7c2-8dc935657202</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -27981,13 +27985,13 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando cluster estendido, verifique se ambos os circuitos da Rota Expressa estão conectados ao hub de conectividade.</t>
+          <t>Verifique se um ExpressRoute Gateway dedicado está sendo usado para soluções de armazenamento de dados externos</t>
         </is>
       </c>
       <c r="E530" s="18" t="n"/>
       <c r="F530" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -28005,7 +28009,7 @@
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+          <t>bff4564b-0d93-44a3-98b2-63e7dd60513a</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -28032,13 +28036,13 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando cluster estendido, verifique se ambos os circuitos da Rota Expressa têm o GlobalReach habilitado.</t>
+          <t>Verifique se o FastPath está habilitado no ExpressRoute Gateway que está sendo usado para soluções de armazenamento de dados externos</t>
         </is>
       </c>
       <c r="E531" s="18" t="n"/>
       <c r="F531" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -28056,7 +28060,7 @@
       <c r="K531" s="19" t="n"/>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+          <t>3649906e-bad3-48ea-b53c-c7de1d8aaab3</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -28083,7 +28087,7 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>Faça com que as configurações de tolerância a desastres do site tenham sido devidamente consideradas e alteradas para sua empresa, se necessário.</t>
+          <t>Se estiver usando cluster estendido, verifique se a solução de recuperação de desastres selecionada é suportada pelo fornecedor</t>
         </is>
       </c>
       <c r="E532" s="18" t="n"/>
@@ -28107,7 +28111,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+          <t>571549ab-8153-4d89-b89d-c7b33be2b1a2</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28117,17 +28121,50 @@
       <c r="Q532" s="20" t="n"/>
     </row>
     <row r="533">
-      <c r="A533" s="18" t="n"/>
-      <c r="B533" s="18" t="n"/>
-      <c r="C533" s="18" t="n"/>
-      <c r="D533" s="18" t="n"/>
+      <c r="A533" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B533" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C533" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D533" s="18" t="inlineStr">
+        <is>
+          <t>Se estiver usando cluster estendido, verifique se o SLA fornecido atenderá aos seus requisitos</t>
+        </is>
+      </c>
       <c r="E533" s="18" t="n"/>
-      <c r="F533" s="18" t="n"/>
+      <c r="F533" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H533" s="18" t="n"/>
-      <c r="I533" s="13" t="n"/>
+      <c r="I533" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J533" s="13" t="n"/>
       <c r="K533" s="19" t="n"/>
-      <c r="L533" s="19" t="n"/>
+      <c r="L533" s="19" t="inlineStr">
+        <is>
+          <t>4c486b6d-8bdc-4059-acf7-5ee8a1309888</t>
+        </is>
+      </c>
       <c r="M533" s="20" t="n"/>
       <c r="N533" s="20" t="n"/>
       <c r="O533" s="20" t="n"/>
@@ -28135,17 +28172,50 @@
       <c r="Q533" s="20" t="n"/>
     </row>
     <row r="534">
-      <c r="A534" s="18" t="n"/>
-      <c r="B534" s="18" t="n"/>
-      <c r="C534" s="18" t="n"/>
-      <c r="D534" s="18" t="n"/>
+      <c r="A534" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B534" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C534" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D534" s="18" t="inlineStr">
+        <is>
+          <t>Se estiver usando cluster estendido, verifique se ambos os circuitos da Rota Expressa estão conectados ao hub de conectividade.</t>
+        </is>
+      </c>
       <c r="E534" s="18" t="n"/>
-      <c r="F534" s="18" t="n"/>
+      <c r="F534" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H534" s="18" t="n"/>
-      <c r="I534" s="13" t="n"/>
+      <c r="I534" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J534" s="13" t="n"/>
       <c r="K534" s="19" t="n"/>
-      <c r="L534" s="19" t="n"/>
+      <c r="L534" s="19" t="inlineStr">
+        <is>
+          <t>9579d66b-896d-471f-a6ca-7be9955d04c3</t>
+        </is>
+      </c>
       <c r="M534" s="20" t="n"/>
       <c r="N534" s="20" t="n"/>
       <c r="O534" s="20" t="n"/>
@@ -28153,17 +28223,50 @@
       <c r="Q534" s="20" t="n"/>
     </row>
     <row r="535">
-      <c r="A535" s="18" t="n"/>
-      <c r="B535" s="18" t="n"/>
-      <c r="C535" s="18" t="n"/>
-      <c r="D535" s="18" t="n"/>
+      <c r="A535" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B535" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C535" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D535" s="18" t="inlineStr">
+        <is>
+          <t>Se estiver usando cluster estendido, verifique se ambos os circuitos da Rota Expressa têm o GlobalReach habilitado.</t>
+        </is>
+      </c>
       <c r="E535" s="18" t="n"/>
-      <c r="F535" s="18" t="n"/>
+      <c r="F535" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H535" s="18" t="n"/>
-      <c r="I535" s="13" t="n"/>
+      <c r="I535" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J535" s="13" t="n"/>
       <c r="K535" s="19" t="n"/>
-      <c r="L535" s="19" t="n"/>
+      <c r="L535" s="19" t="inlineStr">
+        <is>
+          <t>c49d987c-b3d1-4325-aa12-4b6e4d0685ed</t>
+        </is>
+      </c>
       <c r="M535" s="20" t="n"/>
       <c r="N535" s="20" t="n"/>
       <c r="O535" s="20" t="n"/>
@@ -28171,17 +28274,50 @@
       <c r="Q535" s="20" t="n"/>
     </row>
     <row r="536">
-      <c r="A536" s="18" t="n"/>
-      <c r="B536" s="18" t="n"/>
-      <c r="C536" s="18" t="n"/>
-      <c r="D536" s="18" t="n"/>
+      <c r="A536" s="18" t="inlineStr">
+        <is>
+          <t>Azure VMware Solution Design Review</t>
+        </is>
+      </c>
+      <c r="B536" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C536" s="18" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="D536" s="18" t="inlineStr">
+        <is>
+          <t>Faça com que as configurações de tolerância a desastres do site tenham sido devidamente consideradas e alteradas para sua empresa, se necessário.</t>
+        </is>
+      </c>
       <c r="E536" s="18" t="n"/>
-      <c r="F536" s="18" t="n"/>
+      <c r="F536" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H536" s="18" t="n"/>
-      <c r="I536" s="13" t="n"/>
+      <c r="I536" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J536" s="13" t="n"/>
       <c r="K536" s="19" t="n"/>
-      <c r="L536" s="19" t="n"/>
+      <c r="L536" s="19" t="inlineStr">
+        <is>
+          <t>dce9793b-7bcd-4b3b-91eb-2ec14eea6e59</t>
+        </is>
+      </c>
       <c r="M536" s="20" t="n"/>
       <c r="N536" s="20" t="n"/>
       <c r="O536" s="20" t="n"/>
@@ -40375,7 +40511,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G533" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G537" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -40796,17 +40932,21 @@
     <hyperlink ref="I425" r:id="rId414"/>
     <hyperlink ref="I426" r:id="rId415"/>
     <hyperlink ref="I427" r:id="rId416"/>
-    <hyperlink ref="I438" r:id="rId417"/>
-    <hyperlink ref="I520" r:id="rId418"/>
-    <hyperlink ref="I521" r:id="rId419"/>
-    <hyperlink ref="I525" r:id="rId420"/>
-    <hyperlink ref="I526" r:id="rId421"/>
-    <hyperlink ref="I527" r:id="rId422"/>
-    <hyperlink ref="I528" r:id="rId423"/>
+    <hyperlink ref="I428" r:id="rId417"/>
+    <hyperlink ref="I429" r:id="rId418"/>
+    <hyperlink ref="I430" r:id="rId419"/>
+    <hyperlink ref="I431" r:id="rId420"/>
+    <hyperlink ref="I442" r:id="rId421"/>
+    <hyperlink ref="I524" r:id="rId422"/>
+    <hyperlink ref="I525" r:id="rId423"/>
     <hyperlink ref="I529" r:id="rId424"/>
     <hyperlink ref="I530" r:id="rId425"/>
     <hyperlink ref="I531" r:id="rId426"/>
     <hyperlink ref="I532" r:id="rId427"/>
+    <hyperlink ref="I533" r:id="rId428"/>
+    <hyperlink ref="I534" r:id="rId429"/>
+    <hyperlink ref="I535" r:id="rId430"/>
+    <hyperlink ref="I536" r:id="rId431"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -26489,7 +26489,7 @@
     <row r="503">
       <c r="A503" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B503" s="18" t="inlineStr">
@@ -26499,16 +26499,20 @@
       </c>
       <c r="C503" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D503" s="18" t="inlineStr">
         <is>
-          <t>O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
+          <t>Selecione o plano de hospedagem de aplicativo lógico certo com base em seus requisitos de negócios e SLO</t>
         </is>
       </c>
       <c r="E503" s="18" t="n"/>
-      <c r="F503" s="18" t="n"/>
+      <c r="F503" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="G503" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -26524,7 +26528,7 @@
       <c r="K503" s="19" t="n"/>
       <c r="L503" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M503" s="20" t="n"/>
@@ -26536,7 +26540,7 @@
     <row r="504">
       <c r="A504" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B504" s="18" t="inlineStr">
@@ -26546,16 +26550,20 @@
       </c>
       <c r="C504" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D504" s="18" t="inlineStr">
         <is>
-          <t>Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
+          <t>Proteja aplicativos lógicos contra falhas de região com redundância de zona e zonas de disponibilidade</t>
         </is>
       </c>
       <c r="E504" s="18" t="n"/>
-      <c r="F504" s="18" t="n"/>
+      <c r="F504" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="G504" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -26571,7 +26579,7 @@
       <c r="K504" s="19" t="n"/>
       <c r="L504" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M504" s="20" t="n"/>
@@ -26583,7 +26591,7 @@
     <row r="505">
       <c r="A505" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B505" s="18" t="inlineStr">
@@ -26593,16 +26601,20 @@
       </c>
       <c r="C505" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D505" s="18" t="inlineStr">
         <is>
-          <t>Use a conta de armazenamento com redundância geográfica para persistir o Cache do Azure para dados Redis ou zonalmente redundante onde a redundância geográfica não está disponível</t>
+          <t>Considere uma estratégia de DR entre regiões para cargas de trabalho críticas</t>
         </is>
       </c>
       <c r="E505" s="18" t="n"/>
-      <c r="F505" s="18" t="n"/>
+      <c r="F505" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="G505" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -26618,7 +26630,7 @@
       <c r="K505" s="19" t="n"/>
       <c r="L505" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M505" s="20" t="n"/>
@@ -26630,7 +26642,7 @@
     <row r="506">
       <c r="A506" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B506" s="18" t="inlineStr">
@@ -26640,16 +26652,20 @@
       </c>
       <c r="C506" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D506" s="18" t="inlineStr">
         <is>
-          <t>A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
+          <t>Se estiver implantando em um ambiente isolado, use ou migre para o ASE (Ambiente do Serviço de Aplicativo) v3</t>
         </is>
       </c>
       <c r="E506" s="18" t="n"/>
-      <c r="F506" s="18" t="n"/>
+      <c r="F506" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="G506" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -26665,7 +26681,7 @@
       <c r="K506" s="19" t="n"/>
       <c r="L506" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M506" s="20" t="n"/>
@@ -26677,28 +26693,28 @@
     <row r="507">
       <c r="A507" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B507" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C507" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D507" s="18" t="inlineStr">
         <is>
-          <t>Consulte a arquitetura de aplicativo Web com redundância de zona altamente disponível da linha de base para obter as práticas recomendadas</t>
+          <t>Aproveite o Azure DevOps ou o GitHub para simplificar o CI/CD e proteger seu código de Aplicativo Lógico</t>
         </is>
       </c>
       <c r="E507" s="18" t="n"/>
       <c r="F507" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -26716,7 +26732,7 @@
       <c r="K507" s="19" t="n"/>
       <c r="L507" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M507" s="20" t="n"/>
@@ -26728,7 +26744,7 @@
     <row r="508">
       <c r="A508" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B508" s="18" t="inlineStr">
@@ -26738,20 +26754,16 @@
       </c>
       <c r="C508" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D508" s="18" t="inlineStr">
         <is>
-          <t>Use as camadas Premium e Standard. Esses níveis oferecem suporte a slots de preparo e backups automatizados.</t>
+          <t>O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
         </is>
       </c>
       <c r="E508" s="18" t="n"/>
-      <c r="F508" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F508" s="18" t="n"/>
       <c r="G508" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -26767,7 +26779,7 @@
       <c r="K508" s="19" t="n"/>
       <c r="L508" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M508" s="20" t="n"/>
@@ -26779,7 +26791,7 @@
     <row r="509">
       <c r="A509" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B509" s="18" t="inlineStr">
@@ -26789,20 +26801,16 @@
       </c>
       <c r="C509" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D509" s="18" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade quando aplicável regionalmente (requer a camada Premium v2 ou v3)</t>
+          <t>Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
         </is>
       </c>
       <c r="E509" s="18" t="n"/>
-      <c r="F509" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F509" s="18" t="n"/>
       <c r="G509" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -26818,7 +26826,7 @@
       <c r="K509" s="19" t="n"/>
       <c r="L509" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M509" s="20" t="n"/>
@@ -26830,7 +26838,7 @@
     <row r="510">
       <c r="A510" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B510" s="18" t="inlineStr">
@@ -26840,20 +26848,16 @@
       </c>
       <c r="C510" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D510" s="18" t="inlineStr">
         <is>
-          <t>Implementar verificações de integridade</t>
+          <t>Use a conta de armazenamento com redundância geográfica para persistir o Cache do Azure para dados Redis ou zonalmente redundante onde a redundância geográfica não está disponível</t>
         </is>
       </c>
       <c r="E510" s="18" t="n"/>
-      <c r="F510" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F510" s="18" t="n"/>
       <c r="G510" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -26869,7 +26873,7 @@
       <c r="K510" s="19" t="n"/>
       <c r="L510" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M510" s="20" t="n"/>
@@ -26881,7 +26885,7 @@
     <row r="511">
       <c r="A511" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B511" s="18" t="inlineStr">
@@ -26891,20 +26895,16 @@
       </c>
       <c r="C511" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D511" s="18" t="inlineStr">
         <is>
-          <t>Consulte as práticas recomendadas de backup e restauração para o Serviço de Aplicativo do Azure</t>
+          <t>A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
         </is>
       </c>
       <c r="E511" s="18" t="n"/>
-      <c r="F511" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F511" s="18" t="n"/>
       <c r="G511" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -26920,7 +26920,7 @@
       <c r="K511" s="19" t="n"/>
       <c r="L511" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M511" s="20" t="n"/>
@@ -26947,13 +26947,13 @@
       </c>
       <c r="D512" s="18" t="inlineStr">
         <is>
-          <t>Implementar práticas recomendadas de confiabilidade do Serviço de Aplicativo do Azure</t>
+          <t>Consulte a arquitetura de aplicativo Web com redundância de zona altamente disponível da linha de base para obter as práticas recomendadas</t>
         </is>
       </c>
       <c r="E512" s="18" t="n"/>
       <c r="F512" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -26971,7 +26971,7 @@
       <c r="K512" s="19" t="n"/>
       <c r="L512" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M512" s="20" t="n"/>
@@ -26998,13 +26998,13 @@
       </c>
       <c r="D513" s="18" t="inlineStr">
         <is>
-          <t>Familiarizar-se com como mover um aplicativo do Serviço de Aplicativo para outra região durante um desastre</t>
+          <t>Use as camadas Premium e Standard. Esses níveis oferecem suporte a slots de preparo e backups automatizados.</t>
         </is>
       </c>
       <c r="E513" s="18" t="n"/>
       <c r="F513" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -27022,7 +27022,7 @@
       <c r="K513" s="19" t="n"/>
       <c r="L513" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M513" s="20" t="n"/>
@@ -27049,7 +27049,7 @@
       </c>
       <c r="D514" s="18" t="inlineStr">
         <is>
-          <t>Familiarizar-se com o suporte de confiabilidade no Serviço de Aplicativo do Azure</t>
+          <t>Aproveite as zonas de disponibilidade quando aplicável regionalmente (requer a camada Premium v2 ou v3)</t>
         </is>
       </c>
       <c r="E514" s="18" t="n"/>
@@ -27073,7 +27073,7 @@
       <c r="K514" s="19" t="n"/>
       <c r="L514" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M514" s="20" t="n"/>
@@ -27100,7 +27100,7 @@
       </c>
       <c r="D515" s="18" t="inlineStr">
         <is>
-          <t>Verifique se "Sempre Ativo" está habilitado para Aplicativos de Função em execução em um plano de serviço de aplicativo</t>
+          <t>Implementar verificações de integridade</t>
         </is>
       </c>
       <c r="E515" s="18" t="n"/>
@@ -27124,7 +27124,7 @@
       <c r="K515" s="19" t="n"/>
       <c r="L515" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M515" s="20" t="n"/>
@@ -27151,13 +27151,13 @@
       </c>
       <c r="D516" s="18" t="inlineStr">
         <is>
-          <t>Monitorar instâncias do Serviço de Aplicativo usando verificações de integridade</t>
+          <t>Consulte as práticas recomendadas de backup e restauração para o Serviço de Aplicativo do Azure</t>
         </is>
       </c>
       <c r="E516" s="18" t="n"/>
       <c r="F516" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
@@ -27175,7 +27175,7 @@
       <c r="K516" s="19" t="n"/>
       <c r="L516" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M516" s="20" t="n"/>
@@ -27202,13 +27202,13 @@
       </c>
       <c r="D517" s="18" t="inlineStr">
         <is>
-          <t>Monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site usando testes de disponibilidade do Application Insights</t>
+          <t>Implementar práticas recomendadas de confiabilidade do Serviço de Aplicativo do Azure</t>
         </is>
       </c>
       <c r="E517" s="18" t="n"/>
       <c r="F517" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
@@ -27226,7 +27226,7 @@
       <c r="K517" s="19" t="n"/>
       <c r="L517" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M517" s="20" t="n"/>
@@ -27253,7 +27253,7 @@
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>Usar o teste Application Insights Standard para monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site</t>
+          <t>Familiarizar-se com como mover um aplicativo do Serviço de Aplicativo para outra região durante um desastre</t>
         </is>
       </c>
       <c r="E518" s="18" t="n"/>
@@ -27277,7 +27277,7 @@
       <c r="K518" s="19" t="n"/>
       <c r="L518" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M518" s="20" t="n"/>
@@ -27294,7 +27294,7 @@
       </c>
       <c r="B519" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C519" s="18" t="inlineStr">
@@ -27304,14 +27304,10 @@
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves para armazenar segredos</t>
-        </is>
-      </c>
-      <c r="E519" s="18" t="inlineStr">
-        <is>
-          <t>Use o Cofre de Chaves do Azure para armazenar quaisquer segredos de que o aplicativo precisa.  O Cofre de Chaves fornece um ambiente seguro e auditado para armazenar segredos e está bem integrado ao Serviço de Aplicativo por meio do SDK do Cofre de Chaves ou das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
-        </is>
-      </c>
+          <t>Familiarizar-se com o suporte de confiabilidade no Serviço de Aplicativo do Azure</t>
+        </is>
+      </c>
+      <c r="E519" s="18" t="n"/>
       <c r="F519" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -27332,7 +27328,7 @@
       <c r="K519" s="19" t="n"/>
       <c r="L519" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M519" s="20" t="n"/>
@@ -27349,7 +27345,7 @@
       </c>
       <c r="B520" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C520" s="18" t="inlineStr">
@@ -27359,17 +27355,13 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>Usar a Identidade Gerenciada para se conectar ao Cofre de Chaves</t>
-        </is>
-      </c>
-      <c r="E520" s="18" t="inlineStr">
-        <is>
-          <t>Use uma Identidade Gerenciada para se conectar ao Cofre de Chaves usando o SDK do Cofre de Chaves ou por meio das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
-        </is>
-      </c>
+          <t>Verifique se "Sempre Ativo" está habilitado para Aplicativos de Função em execução em um plano de serviço de aplicativo</t>
+        </is>
+      </c>
+      <c r="E520" s="18" t="n"/>
       <c r="F520" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G520" t="inlineStr">
@@ -27387,7 +27379,7 @@
       <c r="K520" s="19" t="n"/>
       <c r="L520" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M520" s="20" t="n"/>
@@ -27404,7 +27396,7 @@
       </c>
       <c r="B521" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C521" s="18" t="inlineStr">
@@ -27414,17 +27406,13 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>Use o Cofre de Chaves para armazenar o certificado TLS.</t>
-        </is>
-      </c>
-      <c r="E521" s="18" t="inlineStr">
-        <is>
-          <t>Armazene o certificado TLS do Serviço de Aplicativo no Cofre de Chaves.</t>
-        </is>
-      </c>
+          <t>Monitorar instâncias do Serviço de Aplicativo usando verificações de integridade</t>
+        </is>
+      </c>
+      <c r="E521" s="18" t="n"/>
       <c r="F521" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G521" t="inlineStr">
@@ -27442,7 +27430,7 @@
       <c r="K521" s="19" t="n"/>
       <c r="L521" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M521" s="20" t="n"/>
@@ -27459,7 +27447,7 @@
       </c>
       <c r="B522" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C522" s="18" t="inlineStr">
@@ -27469,14 +27457,10 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>Isolar sistemas que processam informações confidenciais</t>
-        </is>
-      </c>
-      <c r="E522" s="18" t="inlineStr">
-        <is>
-          <t>Os sistemas que processam informações confidenciais devem ser isolados.  Para fazer isso, use Planos do Serviço de Aplicativo ou Ambientes do Serviço de Aplicativo separados e considere o uso de assinaturas ou grupos de gerenciamento diferentes.</t>
-        </is>
-      </c>
+          <t>Monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site usando testes de disponibilidade do Application Insights</t>
+        </is>
+      </c>
+      <c r="E522" s="18" t="n"/>
       <c r="F522" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -27497,7 +27481,7 @@
       <c r="K522" s="19" t="n"/>
       <c r="L522" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M522" s="20" t="n"/>
@@ -27514,7 +27498,7 @@
       </c>
       <c r="B523" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C523" s="18" t="inlineStr">
@@ -27524,17 +27508,13 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>Não armazene dados confidenciais no disco local</t>
-        </is>
-      </c>
-      <c r="E523" s="18" t="inlineStr">
-        <is>
-          <t>Os discos locais no Serviço de Aplicativo não são criptografados e os dados confidenciais não devem ser armazenados neles.  (Por exemplo: D:\\Local e %TMP%).</t>
-        </is>
-      </c>
+          <t>Usar o teste Application Insights Standard para monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site</t>
+        </is>
+      </c>
+      <c r="E523" s="18" t="n"/>
       <c r="F523" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G523" t="inlineStr">
@@ -27552,7 +27532,7 @@
       <c r="K523" s="19" t="n"/>
       <c r="L523" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M523" s="20" t="n"/>
@@ -27579,17 +27559,17 @@
       </c>
       <c r="D524" s="18" t="inlineStr">
         <is>
-          <t>Usar um provedor de identidade estabelecido para autenticação</t>
+          <t>Usar o Cofre de Chaves para armazenar segredos</t>
         </is>
       </c>
       <c r="E524" s="18" t="inlineStr">
         <is>
-          <t>Para aplicativos Web autenticados, use um Provedor de Identidade bem estabelecido, como o Azure AD ou o Azure AD B2C.  Aproveite a estrutura de aplicativo de sua escolha para se integrar a esse provedor ou use o recurso de Autenticação/Autorização do Serviço de Aplicativo.</t>
+          <t>Use o Cofre de Chaves do Azure para armazenar quaisquer segredos de que o aplicativo precisa.  O Cofre de Chaves fornece um ambiente seguro e auditado para armazenar segredos e está bem integrado ao Serviço de Aplicativo por meio do SDK do Cofre de Chaves ou das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F524" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G524" t="inlineStr">
@@ -27607,7 +27587,7 @@
       <c r="K524" s="19" t="n"/>
       <c r="L524" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M524" s="20" t="n"/>
@@ -27634,12 +27614,12 @@
       </c>
       <c r="D525" s="18" t="inlineStr">
         <is>
-          <t>Implantar a partir de um ambiente confiável</t>
+          <t>Usar a Identidade Gerenciada para se conectar ao Cofre de Chaves</t>
         </is>
       </c>
       <c r="E525" s="18" t="inlineStr">
         <is>
-          <t>Implante código no Serviço de Aplicativo a partir de um ambiente controlado e confiável, como um pipeline de implantação de DevOps bem gerenciado e seguro. Isso evita que o código que não foi controlado por versão e verificado para ser implantado a partir de um host mal-intencionado.</t>
+          <t>Use uma Identidade Gerenciada para se conectar ao Cofre de Chaves usando o SDK do Cofre de Chaves ou por meio das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F525" s="18" t="inlineStr">
@@ -27662,7 +27642,7 @@
       <c r="K525" s="19" t="n"/>
       <c r="L525" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M525" s="20" t="n"/>
@@ -27689,12 +27669,12 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>Desabilitar a autenticação básica</t>
+          <t>Use o Cofre de Chaves para armazenar o certificado TLS.</t>
         </is>
       </c>
       <c r="E526" s="18" t="inlineStr">
         <is>
-          <t>Desative a autenticação básica para FTP/FTPS e WebDeploy/SCM.  Isso desabilita o acesso a esses serviços e impõe o uso de pontos de extremidade protegidos do Azure AD para implantação.  Observe que o site do SCM também pode ser aberto usando credenciais do Azure AD.</t>
+          <t>Armazene o certificado TLS do Serviço de Aplicativo no Cofre de Chaves.</t>
         </is>
       </c>
       <c r="F526" s="18" t="inlineStr">
@@ -27717,7 +27697,7 @@
       <c r="K526" s="19" t="n"/>
       <c r="L526" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M526" s="20" t="n"/>
@@ -27744,17 +27724,17 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>Usar a Identidade Gerenciada para se conectar a recursos</t>
+          <t>Isolar sistemas que processam informações confidenciais</t>
         </is>
       </c>
       <c r="E527" s="18" t="inlineStr">
         <is>
-          <t>Sempre que possível, use a Identidade Gerenciada para se conectar aos recursos protegidos do Azure AD.  Se isso não for possível, armazene segredos no Cofre de Chaves e conecte-se ao Cofre de Chaves usando uma Identidade Gerenciada.</t>
+          <t>Os sistemas que processam informações confidenciais devem ser isolados.  Para fazer isso, use Planos do Serviço de Aplicativo ou Ambientes do Serviço de Aplicativo separados e considere o uso de assinaturas ou grupos de gerenciamento diferentes.</t>
         </is>
       </c>
       <c r="F527" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
@@ -27772,7 +27752,7 @@
       <c r="K527" s="19" t="n"/>
       <c r="L527" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M527" s="20" t="n"/>
@@ -27799,17 +27779,17 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t>Extrair contêineres usando uma identidade gerenciada</t>
+          <t>Não armazene dados confidenciais no disco local</t>
         </is>
       </c>
       <c r="E528" s="18" t="inlineStr">
         <is>
-          <t>Onde estiver usando imagens armazenadas no Registro de Contêiner do Azure, extraia-as usando uma Identidade Gerenciada.</t>
+          <t>Os discos locais no Serviço de Aplicativo não são criptografados e os dados confidenciais não devem ser armazenados neles.  (Por exemplo: D:\\Local e %TMP%).</t>
         </is>
       </c>
       <c r="F528" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
@@ -27827,7 +27807,7 @@
       <c r="K528" s="19" t="n"/>
       <c r="L528" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M528" s="20" t="n"/>
@@ -27854,12 +27834,12 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>Enviar logs de tempo de execução do Serviço de Aplicativo para o Log Analytics</t>
+          <t>Usar um provedor de identidade estabelecido para autenticação</t>
         </is>
       </c>
       <c r="E529" s="18" t="inlineStr">
         <is>
-          <t>Ao definir as configurações de diagnóstico do Serviço de Aplicativo, você pode enviar toda a telemetria para o Log Analytics como o destino central para registro em log e monitoramento. Isso permite que você monitore a atividade de tempo de execução do Serviço de Aplicativo, como logs HTTP, logs de aplicativos, logs de plataforma, ...</t>
+          <t>Para aplicativos Web autenticados, use um Provedor de Identidade bem estabelecido, como o Azure AD ou o Azure AD B2C.  Aproveite a estrutura de aplicativo de sua escolha para se integrar a esse provedor ou use o recurso de Autenticação/Autorização do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F529" s="18" t="inlineStr">
@@ -27882,7 +27862,7 @@
       <c r="K529" s="19" t="n"/>
       <c r="L529" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M529" s="20" t="n"/>
@@ -27909,17 +27889,17 @@
       </c>
       <c r="D530" s="18" t="inlineStr">
         <is>
-          <t>Enviar logs de atividade do Serviço de Aplicativo para o Log Analytics</t>
+          <t>Implantar a partir de um ambiente confiável</t>
         </is>
       </c>
       <c r="E530" s="18" t="inlineStr">
         <is>
-          <t>Configure uma configuração de diagnóstico para enviar o log de atividades para o Log Analytics como o destino central para registro e monitoramento. Isso permite que você monitore a atividade do plano de controle no próprio recurso do Serviço de Aplicativo.</t>
+          <t>Implante código no Serviço de Aplicativo a partir de um ambiente controlado e confiável, como um pipeline de implantação de DevOps bem gerenciado e seguro. Isso evita que o código que não foi controlado por versão e verificado para ser implantado a partir de um host mal-intencionado.</t>
         </is>
       </c>
       <c r="F530" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -27937,7 +27917,7 @@
       <c r="K530" s="19" t="n"/>
       <c r="L530" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M530" s="20" t="n"/>
@@ -27964,17 +27944,17 @@
       </c>
       <c r="D531" s="18" t="inlineStr">
         <is>
-          <t>O acesso à rede de saída deve ser controlado</t>
+          <t>Desabilitar a autenticação básica</t>
         </is>
       </c>
       <c r="E531" s="18" t="inlineStr">
         <is>
-          <t>Controle o acesso à rede de saída usando uma combinação de integração regional de VNet, grupos de segurança de rede e UDR's.  O tráfego deve ser roteado para um NVA, como o Firewall do Azure.  Certifique-se de monitorar os logs do Firewall.</t>
+          <t>Desative a autenticação básica para FTP/FTPS e WebDeploy/SCM.  Isso desabilita o acesso a esses serviços e impõe o uso de pontos de extremidade protegidos do Azure AD para implantação.  Observe que o site do SCM também pode ser aberto usando credenciais do Azure AD.</t>
         </is>
       </c>
       <c r="F531" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -27992,7 +27972,7 @@
       <c r="K531" s="19" t="n"/>
       <c r="L531" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M531" s="20" t="n"/>
@@ -28019,17 +27999,17 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>Garantir um IP estável para comunicações de saída para endereços de Internet</t>
+          <t>Usar a Identidade Gerenciada para se conectar a recursos</t>
         </is>
       </c>
       <c r="E532" s="18" t="inlineStr">
         <is>
-          <t>Você pode fornecer um IP de saída estável usando a integração de rede virtual e um gateway NAT de rede virtual ou um NVA como o Firewall do Azure.  Isso permite que a parte receptora permita uma lista com base no IP, caso seja necessário.  Observe que, para comunicações com os Serviços do Azure, geralmente não há necessidade de depender do endereço IP e mecânicas como Pontos de Extremidade de Serviço devem ser usadas.  (Além disso, o uso de pontos de extremidade privados na extremidade de recebimento evita que o SNAT aconteça e fornece um intervalo de IP de saída estável.)</t>
+          <t>Sempre que possível, use a Identidade Gerenciada para se conectar aos recursos protegidos do Azure AD.  Se isso não for possível, armazene segredos no Cofre de Chaves e conecte-se ao Cofre de Chaves usando uma Identidade Gerenciada.</t>
         </is>
       </c>
       <c r="F532" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -28047,7 +28027,7 @@
       <c r="K532" s="19" t="n"/>
       <c r="L532" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M532" s="20" t="n"/>
@@ -28074,12 +28054,12 @@
       </c>
       <c r="D533" s="18" t="inlineStr">
         <is>
-          <t>O acesso à rede de entrada deve ser controlado</t>
+          <t>Extrair contêineres usando uma identidade gerenciada</t>
         </is>
       </c>
       <c r="E533" s="18" t="inlineStr">
         <is>
-          <t>Controle o acesso à rede de entrada usando uma combinação de Restrições de Acesso do Serviço de Aplicativo, Pontos de Extremidade de Serviço ou Pontos de Extremidade Privados. Diferentes restrições de acesso podem ser necessárias e configuradas para o próprio aplicativo Web e o site do SCM.</t>
+          <t>Onde estiver usando imagens armazenadas no Registro de Contêiner do Azure, extraia-as usando uma Identidade Gerenciada.</t>
         </is>
       </c>
       <c r="F533" s="18" t="inlineStr">
@@ -28102,7 +28082,7 @@
       <c r="K533" s="19" t="n"/>
       <c r="L533" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M533" s="20" t="n"/>
@@ -28129,17 +28109,17 @@
       </c>
       <c r="D534" s="18" t="inlineStr">
         <is>
-          <t>Usar um WAF na frente do Serviço de Aplicativo</t>
+          <t>Enviar logs de tempo de execução do Serviço de Aplicativo para o Log Analytics</t>
         </is>
       </c>
       <c r="E534" s="18" t="inlineStr">
         <is>
-          <t>Proteja-se contra tráfego de entrada mal-intencionado usando um Firewall de Aplicativo Web, como o Gateway de Aplicativo ou o Azure Front Door.  Certifique-se de monitorar os logs do WAF.</t>
+          <t>Ao definir as configurações de diagnóstico do Serviço de Aplicativo, você pode enviar toda a telemetria para o Log Analytics como o destino central para registro em log e monitoramento. Isso permite que você monitore a atividade de tempo de execução do Serviço de Aplicativo, como logs HTTP, logs de aplicativos, logs de plataforma, ...</t>
         </is>
       </c>
       <c r="F534" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
@@ -28157,7 +28137,7 @@
       <c r="K534" s="19" t="n"/>
       <c r="L534" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M534" s="20" t="n"/>
@@ -28184,17 +28164,17 @@
       </c>
       <c r="D535" s="18" t="inlineStr">
         <is>
-          <t>Evite que o WAF seja ignorado</t>
+          <t>Enviar logs de atividade do Serviço de Aplicativo para o Log Analytics</t>
         </is>
       </c>
       <c r="E535" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que o WAF não pode ser ignorado bloqueando o acesso apenas ao WAF.  Use uma combinação de Restrições de Acesso, Pontos de Extremidade de Serviço e Pontos de Extremidade Privados.</t>
+          <t>Configure uma configuração de diagnóstico para enviar o log de atividades para o Log Analytics como o destino central para registro e monitoramento. Isso permite que você monitore a atividade do plano de controle no próprio recurso do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F535" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G535" t="inlineStr">
@@ -28212,7 +28192,7 @@
       <c r="K535" s="19" t="n"/>
       <c r="L535" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M535" s="20" t="n"/>
@@ -28239,12 +28219,12 @@
       </c>
       <c r="D536" s="18" t="inlineStr">
         <is>
-          <t>Definir a política TLS mínima como 1.2</t>
+          <t>O acesso à rede de saída deve ser controlado</t>
         </is>
       </c>
       <c r="E536" s="18" t="inlineStr">
         <is>
-          <t>Defina a política TLS mínima como 1.2 na configuração do Serviço de Aplicativo.</t>
+          <t>Controle o acesso à rede de saída usando uma combinação de integração regional de VNet, grupos de segurança de rede e UDR's.  O tráfego deve ser roteado para um NVA, como o Firewall do Azure.  Certifique-se de monitorar os logs do Firewall.</t>
         </is>
       </c>
       <c r="F536" s="18" t="inlineStr">
@@ -28264,14 +28244,10 @@
         </is>
       </c>
       <c r="J536" s="13" t="n"/>
-      <c r="K536" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K536" s="19" t="n"/>
       <c r="L536" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M536" s="20" t="n"/>
@@ -28298,17 +28274,17 @@
       </c>
       <c r="D537" s="18" t="inlineStr">
         <is>
-          <t>Usar somente HTTPS</t>
+          <t>Garantir um IP estável para comunicações de saída para endereços de Internet</t>
         </is>
       </c>
       <c r="E537" s="18" t="inlineStr">
         <is>
-          <t>Configure o Serviço de Aplicativo para usar somente HTTPS.  Isso faz com que o Serviço de Aplicativo redirecione de HTTP para HTTPS.  Considere fortemente o uso de HTTP Strict Transport Security (HSTS) em seu código ou a partir de seu WAF, que informa aos navegadores que o site só deve ser acessado usando HTTPS.</t>
+          <t>Você pode fornecer um IP de saída estável usando a integração de rede virtual e um gateway NAT de rede virtual ou um NVA como o Firewall do Azure.  Isso permite que a parte receptora permita uma lista com base no IP, caso seja necessário.  Observe que, para comunicações com os Serviços do Azure, geralmente não há necessidade de depender do endereço IP e mecânicas como Pontos de Extremidade de Serviço devem ser usadas.  (Além disso, o uso de pontos de extremidade privados na extremidade de recebimento evita que o SNAT aconteça e fornece um intervalo de IP de saída estável.)</t>
         </is>
       </c>
       <c r="F537" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
@@ -28323,14 +28299,10 @@
         </is>
       </c>
       <c r="J537" s="13" t="n"/>
-      <c r="K537" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K537" s="19" t="n"/>
       <c r="L537" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M537" s="20" t="n"/>
@@ -28357,12 +28329,12 @@
       </c>
       <c r="D538" s="18" t="inlineStr">
         <is>
-          <t>Curingas não devem ser usados para CORS</t>
+          <t>O acesso à rede de entrada deve ser controlado</t>
         </is>
       </c>
       <c r="E538" s="18" t="inlineStr">
         <is>
-          <t>Não use curingas em sua configuração do CORS, pois isso permite que todas as origens acessem o serviço (derrotando assim o propósito do CORS). Especificamente, permita apenas as origens que você espera poder acessar o serviço.</t>
+          <t>Controle o acesso à rede de entrada usando uma combinação de Restrições de Acesso do Serviço de Aplicativo, Pontos de Extremidade de Serviço ou Pontos de Extremidade Privados. Diferentes restrições de acesso podem ser necessárias e configuradas para o próprio aplicativo Web e o site do SCM.</t>
         </is>
       </c>
       <c r="F538" s="18" t="inlineStr">
@@ -28385,7 +28357,7 @@
       <c r="K538" s="19" t="n"/>
       <c r="L538" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M538" s="20" t="n"/>
@@ -28412,12 +28384,12 @@
       </c>
       <c r="D539" s="18" t="inlineStr">
         <is>
-          <t>Desativar a depuração remota</t>
+          <t>Usar um WAF na frente do Serviço de Aplicativo</t>
         </is>
       </c>
       <c r="E539" s="18" t="inlineStr">
         <is>
-          <t>A depuração remota não deve ser ativada na produção, pois isso abre portas adicionais no serviço, o que aumenta a superfície de ataque. Observe que o serviço ativa a depuração remota automaticamente após 48 horas.</t>
+          <t>Proteja-se contra tráfego de entrada mal-intencionado usando um Firewall de Aplicativo Web, como o Gateway de Aplicativo ou o Azure Front Door.  Certifique-se de monitorar os logs do WAF.</t>
         </is>
       </c>
       <c r="F539" s="18" t="inlineStr">
@@ -28437,14 +28409,10 @@
         </is>
       </c>
       <c r="J539" s="13" t="n"/>
-      <c r="K539" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K539" s="19" t="n"/>
       <c r="L539" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M539" s="20" t="n"/>
@@ -28471,17 +28439,17 @@
       </c>
       <c r="D540" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o Defender for Cloud - Defender for App Service</t>
+          <t>Evite que o WAF seja ignorado</t>
         </is>
       </c>
       <c r="E540" s="18" t="inlineStr">
         <is>
-          <t>Habilite o Defender para o Serviço de Aplicativo.  Isso (entre outras ameaças) detecta comunicações com endereços IP mal-intencionados conhecidos.  Analise as recomendações do Defender for App Service como parte de suas operações.</t>
+          <t>Certifique-se de que o WAF não pode ser ignorado bloqueando o acesso apenas ao WAF.  Use uma combinação de Restrições de Acesso, Pontos de Extremidade de Serviço e Pontos de Extremidade Privados.</t>
         </is>
       </c>
       <c r="F540" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
@@ -28499,7 +28467,7 @@
       <c r="K540" s="19" t="n"/>
       <c r="L540" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M540" s="20" t="n"/>
@@ -28526,12 +28494,12 @@
       </c>
       <c r="D541" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o padrão de proteção DDOS na rede virtual WAF</t>
+          <t>Definir a política TLS mínima como 1.2</t>
         </is>
       </c>
       <c r="E541" s="18" t="inlineStr">
         <is>
-          <t>O Azure fornece proteção contra DDoS Basic em sua rede, que pode ser aprimorada com recursos inteligentes de DDoS Standard que aprendem sobre padrões normais de tráfego e podem detectar comportamentos incomuns. O DDoS Standard se aplica a uma Rede Virtual, portanto, ele deve ser configurado para o recurso de rede na frente do aplicativo, como o Application Gateway ou um NVA.</t>
+          <t>Defina a política TLS mínima como 1.2 na configuração do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F541" s="18" t="inlineStr">
@@ -28551,10 +28519,14 @@
         </is>
       </c>
       <c r="J541" s="13" t="n"/>
-      <c r="K541" s="19" t="n"/>
+      <c r="K541" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L541" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M541" s="20" t="n"/>
@@ -28581,17 +28553,17 @@
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>Extrair contêineres por uma rede virtual</t>
+          <t>Usar somente HTTPS</t>
         </is>
       </c>
       <c r="E542" s="18" t="inlineStr">
         <is>
-          <t>Ao usar imagens armazenadas no Registro de Contêiner do Azure, extraia-as por uma rede virtual do Registro de Contêiner do Azure usando seu ponto de extremidade privado e a configuração do aplicativo 'WEBSITE_PULL_IMAGE_OVER_VNET'.</t>
+          <t>Configure o Serviço de Aplicativo para usar somente HTTPS.  Isso faz com que o Serviço de Aplicativo redirecione de HTTP para HTTPS.  Considere fortemente o uso de HTTP Strict Transport Security (HSTS) em seu código ou a partir de seu WAF, que informa aos navegadores que o site só deve ser acessado usando HTTPS.</t>
         </is>
       </c>
       <c r="F542" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G542" t="inlineStr">
@@ -28606,10 +28578,14 @@
         </is>
       </c>
       <c r="J542" s="13" t="n"/>
-      <c r="K542" s="19" t="n"/>
+      <c r="K542" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L542" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M542" s="20" t="n"/>
@@ -28636,17 +28612,17 @@
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t>Realizar um teste de penetração</t>
+          <t>Curingas não devem ser usados para CORS</t>
         </is>
       </c>
       <c r="E543" s="18" t="inlineStr">
         <is>
-          <t>Realizar um teste de penetração na aplicação web seguindo as regras de teste de penetração de engajamento.</t>
+          <t>Não use curingas em sua configuração do CORS, pois isso permite que todas as origens acessem o serviço (derrotando assim o propósito do CORS). Especificamente, permita apenas as origens que você espera poder acessar o serviço.</t>
         </is>
       </c>
       <c r="F543" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G543" t="inlineStr">
@@ -28664,7 +28640,7 @@
       <c r="K543" s="19" t="n"/>
       <c r="L543" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M543" s="20" t="n"/>
@@ -28691,17 +28667,17 @@
       </c>
       <c r="D544" s="18" t="inlineStr">
         <is>
-          <t>Implantar código validado</t>
+          <t>Desativar a depuração remota</t>
         </is>
       </c>
       <c r="E544" s="18" t="inlineStr">
         <is>
-          <t>Implante código confiável que foi validado e verificado em busca de vulnerabilidades de acordo com as práticas de DevSecOps.</t>
+          <t>A depuração remota não deve ser ativada na produção, pois isso abre portas adicionais no serviço, o que aumenta a superfície de ataque. Observe que o serviço ativa a depuração remota automaticamente após 48 horas.</t>
         </is>
       </c>
       <c r="F544" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G544" t="inlineStr">
@@ -28716,10 +28692,14 @@
         </is>
       </c>
       <c r="J544" s="13" t="n"/>
-      <c r="K544" s="19" t="n"/>
+      <c r="K544" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L544" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M544" s="20" t="n"/>
@@ -28746,17 +28726,17 @@
       </c>
       <c r="D545" s="18" t="inlineStr">
         <is>
-          <t>Use plataformas, linguagens, protocolos e frameworks atualizados</t>
+          <t>Habilitar o Defender for Cloud - Defender for App Service</t>
         </is>
       </c>
       <c r="E545" s="18" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes de plataformas, linguagens de programação, protocolos e estruturas suportadas.</t>
+          <t>Habilite o Defender para o Serviço de Aplicativo.  Isso (entre outras ameaças) detecta comunicações com endereços IP mal-intencionados conhecidos.  Analise as recomendações do Defender for App Service como parte de suas operações.</t>
         </is>
       </c>
       <c r="F545" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
@@ -28774,7 +28754,7 @@
       <c r="K545" s="19" t="n"/>
       <c r="L545" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M545" s="20" t="n"/>
@@ -28784,17 +28764,54 @@
       <c r="Q545" s="20" t="n"/>
     </row>
     <row r="546">
-      <c r="A546" s="18" t="n"/>
-      <c r="B546" s="18" t="n"/>
-      <c r="C546" s="18" t="n"/>
-      <c r="D546" s="18" t="n"/>
-      <c r="E546" s="18" t="n"/>
-      <c r="F546" s="18" t="n"/>
+      <c r="A546" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B546" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C546" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D546" s="18" t="inlineStr">
+        <is>
+          <t>Habilitar o padrão de proteção DDOS na rede virtual WAF</t>
+        </is>
+      </c>
+      <c r="E546" s="18" t="inlineStr">
+        <is>
+          <t>O Azure fornece proteção contra DDoS Basic em sua rede, que pode ser aprimorada com recursos inteligentes de DDoS Standard que aprendem sobre padrões normais de tráfego e podem detectar comportamentos incomuns. O DDoS Standard se aplica a uma Rede Virtual, portanto, ele deve ser configurado para o recurso de rede na frente do aplicativo, como o Application Gateway ou um NVA.</t>
+        </is>
+      </c>
+      <c r="F546" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H546" s="18" t="n"/>
-      <c r="I546" s="13" t="n"/>
+      <c r="I546" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J546" s="13" t="n"/>
       <c r="K546" s="19" t="n"/>
-      <c r="L546" s="19" t="n"/>
+      <c r="L546" s="19" t="inlineStr">
+        <is>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+        </is>
+      </c>
       <c r="M546" s="20" t="n"/>
       <c r="N546" s="20" t="n"/>
       <c r="O546" s="20" t="n"/>
@@ -28802,17 +28819,54 @@
       <c r="Q546" s="20" t="n"/>
     </row>
     <row r="547">
-      <c r="A547" s="18" t="n"/>
-      <c r="B547" s="18" t="n"/>
-      <c r="C547" s="18" t="n"/>
-      <c r="D547" s="18" t="n"/>
-      <c r="E547" s="18" t="n"/>
-      <c r="F547" s="18" t="n"/>
+      <c r="A547" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B547" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C547" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D547" s="18" t="inlineStr">
+        <is>
+          <t>Extrair contêineres por uma rede virtual</t>
+        </is>
+      </c>
+      <c r="E547" s="18" t="inlineStr">
+        <is>
+          <t>Ao usar imagens armazenadas no Registro de Contêiner do Azure, extraia-as por uma rede virtual do Registro de Contêiner do Azure usando seu ponto de extremidade privado e a configuração do aplicativo 'WEBSITE_PULL_IMAGE_OVER_VNET'.</t>
+        </is>
+      </c>
+      <c r="F547" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H547" s="18" t="n"/>
-      <c r="I547" s="13" t="n"/>
+      <c r="I547" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J547" s="13" t="n"/>
       <c r="K547" s="19" t="n"/>
-      <c r="L547" s="19" t="n"/>
+      <c r="L547" s="19" t="inlineStr">
+        <is>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+        </is>
+      </c>
       <c r="M547" s="20" t="n"/>
       <c r="N547" s="20" t="n"/>
       <c r="O547" s="20" t="n"/>
@@ -28820,17 +28874,54 @@
       <c r="Q547" s="20" t="n"/>
     </row>
     <row r="548">
-      <c r="A548" s="18" t="n"/>
-      <c r="B548" s="18" t="n"/>
-      <c r="C548" s="18" t="n"/>
-      <c r="D548" s="18" t="n"/>
-      <c r="E548" s="18" t="n"/>
-      <c r="F548" s="18" t="n"/>
+      <c r="A548" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B548" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C548" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D548" s="18" t="inlineStr">
+        <is>
+          <t>Realizar um teste de penetração</t>
+        </is>
+      </c>
+      <c r="E548" s="18" t="inlineStr">
+        <is>
+          <t>Realizar um teste de penetração na aplicação web seguindo as regras de teste de penetração de engajamento.</t>
+        </is>
+      </c>
+      <c r="F548" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H548" s="18" t="n"/>
-      <c r="I548" s="13" t="n"/>
+      <c r="I548" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J548" s="13" t="n"/>
       <c r="K548" s="19" t="n"/>
-      <c r="L548" s="19" t="n"/>
+      <c r="L548" s="19" t="inlineStr">
+        <is>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+        </is>
+      </c>
       <c r="M548" s="20" t="n"/>
       <c r="N548" s="20" t="n"/>
       <c r="O548" s="20" t="n"/>
@@ -28838,17 +28929,54 @@
       <c r="Q548" s="20" t="n"/>
     </row>
     <row r="549">
-      <c r="A549" s="18" t="n"/>
-      <c r="B549" s="18" t="n"/>
-      <c r="C549" s="18" t="n"/>
-      <c r="D549" s="18" t="n"/>
-      <c r="E549" s="18" t="n"/>
-      <c r="F549" s="18" t="n"/>
+      <c r="A549" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B549" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C549" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D549" s="18" t="inlineStr">
+        <is>
+          <t>Implantar código validado</t>
+        </is>
+      </c>
+      <c r="E549" s="18" t="inlineStr">
+        <is>
+          <t>Implante código confiável que foi validado e verificado em busca de vulnerabilidades de acordo com as práticas de DevSecOps.</t>
+        </is>
+      </c>
+      <c r="F549" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H549" s="18" t="n"/>
-      <c r="I549" s="13" t="n"/>
+      <c r="I549" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J549" s="13" t="n"/>
       <c r="K549" s="19" t="n"/>
-      <c r="L549" s="19" t="n"/>
+      <c r="L549" s="19" t="inlineStr">
+        <is>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+        </is>
+      </c>
       <c r="M549" s="20" t="n"/>
       <c r="N549" s="20" t="n"/>
       <c r="O549" s="20" t="n"/>
@@ -28856,17 +28984,54 @@
       <c r="Q549" s="20" t="n"/>
     </row>
     <row r="550">
-      <c r="A550" s="18" t="n"/>
-      <c r="B550" s="18" t="n"/>
-      <c r="C550" s="18" t="n"/>
-      <c r="D550" s="18" t="n"/>
-      <c r="E550" s="18" t="n"/>
-      <c r="F550" s="18" t="n"/>
+      <c r="A550" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B550" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C550" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D550" s="18" t="inlineStr">
+        <is>
+          <t>Use plataformas, linguagens, protocolos e frameworks atualizados</t>
+        </is>
+      </c>
+      <c r="E550" s="18" t="inlineStr">
+        <is>
+          <t>Use as versões mais recentes de plataformas, linguagens de programação, protocolos e estruturas suportadas.</t>
+        </is>
+      </c>
+      <c r="F550" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H550" s="18" t="n"/>
-      <c r="I550" s="13" t="n"/>
+      <c r="I550" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J550" s="13" t="n"/>
       <c r="K550" s="19" t="n"/>
-      <c r="L550" s="19" t="n"/>
+      <c r="L550" s="19" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M550" s="20" t="n"/>
       <c r="N550" s="20" t="n"/>
       <c r="O550" s="20" t="n"/>
@@ -40808,7 +40973,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G546" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G551" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -41253,6 +41418,11 @@
     <hyperlink ref="I543" r:id="rId438"/>
     <hyperlink ref="I544" r:id="rId439"/>
     <hyperlink ref="I545" r:id="rId440"/>
+    <hyperlink ref="I546" r:id="rId441"/>
+    <hyperlink ref="I547" r:id="rId442"/>
+    <hyperlink ref="I548" r:id="rId443"/>
+    <hyperlink ref="I549" r:id="rId444"/>
+    <hyperlink ref="I550" r:id="rId445"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -41767,12 +41767,12 @@
     <row r="5">
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Não é necessário</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Não aplicável ao projeto atual</t>
+          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -41784,12 +41784,12 @@
     <row r="6">
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Não é necessário</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não é necessário</t>
+          <t>Não aplicável ao projeto atual</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -27289,11 +27289,15 @@
       </c>
       <c r="D518" s="18" t="inlineStr">
         <is>
-          <t>O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
+          <t>Habilite a redundância de zona para o Cache do Azure para Redis. O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
         </is>
       </c>
       <c r="E518" s="18" t="n"/>
-      <c r="F518" s="18" t="n"/>
+      <c r="F518" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="G518" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -27336,11 +27340,15 @@
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
+          <t>Configure a persistência de dados para uma instância do Cache do Azure para Redis. Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
         </is>
       </c>
       <c r="E519" s="18" t="n"/>
-      <c r="F519" s="18" t="n"/>
+      <c r="F519" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="G519" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -27387,7 +27395,11 @@
         </is>
       </c>
       <c r="E520" s="18" t="n"/>
-      <c r="F520" s="18" t="n"/>
+      <c r="F520" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="G520" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -27430,11 +27442,15 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
+          <t>Configure a replicação geográfica passiva para instâncias do Cache Premium do Azure para Redis. A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
         </is>
       </c>
       <c r="E521" s="18" t="n"/>
-      <c r="F521" s="18" t="n"/>
+      <c r="F521" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="G521" t="inlineStr">
         <is>
           <t>Não verificado</t>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -27019,7 +27019,7 @@
     <row r="513">
       <c r="A513" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B513" s="18" t="inlineStr">
@@ -27074,7 +27074,7 @@
     <row r="514">
       <c r="A514" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B514" s="18" t="inlineStr">
@@ -27129,7 +27129,7 @@
     <row r="515">
       <c r="A515" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B515" s="18" t="inlineStr">
@@ -27180,7 +27180,7 @@
     <row r="516">
       <c r="A516" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B516" s="18" t="inlineStr">
@@ -27227,7 +27227,7 @@
     <row r="517">
       <c r="A517" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B517" s="18" t="inlineStr">
@@ -27282,7 +27282,7 @@
     <row r="518">
       <c r="A518" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B518" s="18" t="inlineStr">
@@ -27337,7 +27337,7 @@
     <row r="519">
       <c r="A519" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B519" s="18" t="inlineStr">
@@ -27392,7 +27392,7 @@
     <row r="520">
       <c r="A520" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B520" s="18" t="inlineStr">
@@ -27443,7 +27443,7 @@
     <row r="521">
       <c r="A521" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B521" s="18" t="inlineStr">
@@ -27494,7 +27494,7 @@
     <row r="522">
       <c r="A522" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B522" s="18" t="inlineStr">
@@ -27549,7 +27549,7 @@
     <row r="523">
       <c r="A523" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B523" s="18" t="inlineStr">
@@ -27604,7 +27604,7 @@
     <row r="524">
       <c r="A524" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B524" s="18" t="inlineStr">
@@ -27659,7 +27659,7 @@
     <row r="525">
       <c r="A525" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B525" s="18" t="inlineStr">
@@ -27710,7 +27710,7 @@
     <row r="526">
       <c r="A526" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B526" s="18" t="inlineStr">
@@ -27765,7 +27765,7 @@
     <row r="527">
       <c r="A527" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B527" s="18" t="inlineStr">
@@ -27820,7 +27820,7 @@
     <row r="528">
       <c r="A528" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B528" s="18" t="inlineStr">
@@ -27875,7 +27875,7 @@
     <row r="529">
       <c r="A529" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B529" s="18" t="inlineStr">
@@ -27930,7 +27930,7 @@
     <row r="530">
       <c r="A530" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B530" s="18" t="inlineStr">
@@ -27985,7 +27985,7 @@
     <row r="531">
       <c r="A531" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B531" s="18" t="inlineStr">
@@ -28040,7 +28040,7 @@
     <row r="532">
       <c r="A532" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B532" s="18" t="inlineStr">
@@ -28095,7 +28095,7 @@
     <row r="533">
       <c r="A533" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B533" s="18" t="inlineStr">
@@ -28150,7 +28150,7 @@
     <row r="534">
       <c r="A534" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B534" s="18" t="inlineStr">
@@ -28201,7 +28201,7 @@
     <row r="535">
       <c r="A535" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B535" s="18" t="inlineStr">
@@ -28256,7 +28256,7 @@
     <row r="536">
       <c r="A536" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B536" s="18" t="inlineStr">
@@ -28311,7 +28311,7 @@
     <row r="537">
       <c r="A537" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B537" s="18" t="inlineStr">
@@ -28366,7 +28366,7 @@
     <row r="538">
       <c r="A538" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B538" s="18" t="inlineStr">
@@ -28417,7 +28417,7 @@
     <row r="539">
       <c r="A539" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B539" s="18" t="inlineStr">
@@ -28468,7 +28468,7 @@
     <row r="540">
       <c r="A540" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B540" s="18" t="inlineStr">
@@ -28523,7 +28523,7 @@
     <row r="541">
       <c r="A541" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B541" s="18" t="inlineStr">
@@ -28578,7 +28578,7 @@
     <row r="542">
       <c r="A542" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B542" s="18" t="inlineStr">
@@ -28629,7 +28629,7 @@
     <row r="543">
       <c r="A543" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B543" s="18" t="inlineStr">
@@ -28684,7 +28684,7 @@
     <row r="544">
       <c r="A544" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B544" s="18" t="inlineStr">
@@ -28739,7 +28739,7 @@
     <row r="545">
       <c r="A545" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B545" s="18" t="inlineStr">
@@ -28794,7 +28794,7 @@
     <row r="546">
       <c r="A546" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B546" s="18" t="inlineStr">
@@ -28849,7 +28849,7 @@
     <row r="547">
       <c r="A547" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B547" s="18" t="inlineStr">
@@ -28900,7 +28900,7 @@
     <row r="548">
       <c r="A548" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B548" s="18" t="inlineStr">
@@ -28951,7 +28951,7 @@
     <row r="549">
       <c r="A549" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B549" s="18" t="inlineStr">
@@ -29002,7 +29002,7 @@
     <row r="550">
       <c r="A550" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B550" s="18" t="inlineStr">
@@ -29053,7 +29053,7 @@
     <row r="551">
       <c r="A551" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B551" s="18" t="inlineStr">
@@ -29108,7 +29108,7 @@
     <row r="552">
       <c r="A552" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B552" s="18" t="inlineStr">
@@ -29163,7 +29163,7 @@
     <row r="553">
       <c r="A553" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B553" s="18" t="inlineStr">
@@ -29214,7 +29214,7 @@
     <row r="554">
       <c r="A554" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B554" s="18" t="inlineStr">
@@ -29269,7 +29269,7 @@
     <row r="555">
       <c r="A555" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B555" s="18" t="inlineStr">
@@ -29320,7 +29320,7 @@
     <row r="556">
       <c r="A556" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B556" s="18" t="inlineStr">
@@ -29375,7 +29375,7 @@
     <row r="557">
       <c r="A557" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B557" s="18" t="inlineStr">
@@ -29426,7 +29426,7 @@
     <row r="558">
       <c r="A558" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B558" s="18" t="inlineStr">
@@ -29477,7 +29477,7 @@
     <row r="559">
       <c r="A559" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B559" s="18" t="inlineStr">
@@ -29528,7 +29528,7 @@
     <row r="560">
       <c r="A560" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B560" s="18" t="inlineStr">
@@ -29579,7 +29579,7 @@
     <row r="561">
       <c r="A561" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B561" s="18" t="inlineStr">
@@ -29630,7 +29630,7 @@
     <row r="562">
       <c r="A562" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B562" s="18" t="inlineStr">
@@ -29681,7 +29681,7 @@
     <row r="563">
       <c r="A563" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B563" s="18" t="inlineStr">
@@ -29732,7 +29732,7 @@
     <row r="564">
       <c r="A564" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B564" s="18" t="inlineStr">
@@ -29783,7 +29783,7 @@
     <row r="565">
       <c r="A565" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B565" s="18" t="inlineStr">
@@ -29834,7 +29834,7 @@
     <row r="566">
       <c r="A566" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B566" s="18" t="inlineStr">
@@ -29889,7 +29889,7 @@
     <row r="567">
       <c r="A567" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B567" s="18" t="inlineStr">
@@ -29944,7 +29944,7 @@
     <row r="568">
       <c r="A568" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B568" s="18" t="inlineStr">
@@ -29999,7 +29999,7 @@
     <row r="569">
       <c r="A569" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B569" s="18" t="inlineStr">
@@ -30054,7 +30054,7 @@
     <row r="570">
       <c r="A570" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B570" s="18" t="inlineStr">
@@ -30105,7 +30105,7 @@
     <row r="571">
       <c r="A571" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B571" s="18" t="inlineStr">
@@ -30156,7 +30156,7 @@
     <row r="572">
       <c r="A572" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B572" s="18" t="inlineStr">
@@ -30211,7 +30211,7 @@
     <row r="573">
       <c r="A573" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B573" s="18" t="inlineStr">
@@ -30266,7 +30266,7 @@
     <row r="574">
       <c r="A574" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B574" s="18" t="inlineStr">
@@ -30321,7 +30321,7 @@
     <row r="575">
       <c r="A575" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B575" s="18" t="inlineStr">
@@ -30372,7 +30372,7 @@
     <row r="576">
       <c r="A576" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B576" s="18" t="inlineStr">
@@ -30423,7 +30423,7 @@
     <row r="577">
       <c r="A577" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B577" s="18" t="inlineStr">
@@ -30478,7 +30478,7 @@
     <row r="578">
       <c r="A578" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B578" s="18" t="inlineStr">
@@ -30529,7 +30529,7 @@
     <row r="579">
       <c r="A579" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B579" s="18" t="inlineStr">
@@ -30580,7 +30580,7 @@
     <row r="580">
       <c r="A580" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B580" s="18" t="inlineStr">
@@ -30635,7 +30635,7 @@
     <row r="581">
       <c r="A581" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B581" s="18" t="inlineStr">
@@ -30690,7 +30690,7 @@
     <row r="582">
       <c r="A582" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B582" s="18" t="inlineStr">
@@ -30745,7 +30745,7 @@
     <row r="583">
       <c r="A583" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B583" s="18" t="inlineStr">
@@ -30800,7 +30800,7 @@
     <row r="584">
       <c r="A584" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B584" s="18" t="inlineStr">
@@ -30855,7 +30855,7 @@
     <row r="585">
       <c r="A585" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B585" s="18" t="inlineStr">
@@ -30910,7 +30910,7 @@
     <row r="586">
       <c r="A586" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B586" s="18" t="inlineStr">
@@ -30961,7 +30961,7 @@
     <row r="587">
       <c r="A587" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B587" s="18" t="inlineStr">
@@ -31016,7 +31016,7 @@
     <row r="588">
       <c r="A588" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B588" s="18" t="inlineStr">
@@ -31071,7 +31071,7 @@
     <row r="589">
       <c r="A589" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B589" s="18" t="inlineStr">
@@ -31126,7 +31126,7 @@
     <row r="590">
       <c r="A590" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B590" s="18" t="inlineStr">
@@ -31181,7 +31181,7 @@
     <row r="591">
       <c r="A591" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B591" s="18" t="inlineStr">
@@ -31232,7 +31232,7 @@
     <row r="592">
       <c r="A592" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B592" s="18" t="inlineStr">
@@ -31287,7 +31287,7 @@
     <row r="593">
       <c r="A593" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B593" s="18" t="inlineStr">
@@ -31338,7 +31338,7 @@
     <row r="594">
       <c r="A594" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B594" s="18" t="inlineStr">
@@ -31389,7 +31389,7 @@
     <row r="595">
       <c r="A595" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B595" s="18" t="inlineStr">
@@ -31444,7 +31444,7 @@
     <row r="596">
       <c r="A596" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B596" s="18" t="inlineStr">
@@ -31499,7 +31499,7 @@
     <row r="597">
       <c r="A597" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B597" s="18" t="inlineStr">
@@ -31554,7 +31554,7 @@
     <row r="598">
       <c r="A598" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B598" s="18" t="inlineStr">
@@ -31609,7 +31609,7 @@
     <row r="599">
       <c r="A599" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B599" s="18" t="inlineStr">
@@ -31664,7 +31664,7 @@
     <row r="600">
       <c r="A600" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B600" s="18" t="inlineStr">
@@ -31719,7 +31719,7 @@
     <row r="601">
       <c r="A601" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B601" s="18" t="inlineStr">
@@ -31774,7 +31774,7 @@
     <row r="602">
       <c r="A602" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B602" s="18" t="inlineStr">
@@ -31829,7 +31829,7 @@
     <row r="603">
       <c r="A603" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B603" s="18" t="inlineStr">
@@ -31884,7 +31884,7 @@
     <row r="604">
       <c r="A604" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B604" s="18" t="inlineStr">
@@ -31939,7 +31939,7 @@
     <row r="605">
       <c r="A605" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B605" s="18" t="inlineStr">
@@ -31994,7 +31994,7 @@
     <row r="606">
       <c r="A606" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B606" s="18" t="inlineStr">
@@ -32049,7 +32049,7 @@
     <row r="607">
       <c r="A607" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B607" s="18" t="inlineStr">
@@ -32104,7 +32104,7 @@
     <row r="608">
       <c r="A608" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B608" s="18" t="inlineStr">
@@ -32159,7 +32159,7 @@
     <row r="609">
       <c r="A609" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B609" s="18" t="inlineStr">
@@ -32214,7 +32214,7 @@
     <row r="610">
       <c r="A610" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B610" s="18" t="inlineStr">
@@ -32269,7 +32269,7 @@
     <row r="611">
       <c r="A611" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B611" s="18" t="inlineStr">
@@ -32324,7 +32324,7 @@
     <row r="612">
       <c r="A612" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B612" s="18" t="inlineStr">
@@ -32379,7 +32379,7 @@
     <row r="613">
       <c r="A613" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B613" s="18" t="inlineStr">
@@ -32434,7 +32434,7 @@
     <row r="614">
       <c r="A614" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B614" s="18" t="inlineStr">
@@ -32489,7 +32489,7 @@
     <row r="615">
       <c r="A615" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B615" s="18" t="inlineStr">
@@ -32544,7 +32544,7 @@
     <row r="616">
       <c r="A616" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B616" s="18" t="inlineStr">
@@ -32599,7 +32599,7 @@
     <row r="617">
       <c r="A617" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B617" s="18" t="inlineStr">
@@ -32654,7 +32654,7 @@
     <row r="618">
       <c r="A618" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B618" s="18" t="inlineStr">
@@ -32709,7 +32709,7 @@
     <row r="619">
       <c r="A619" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B619" s="18" t="inlineStr">
@@ -32764,7 +32764,7 @@
     <row r="620">
       <c r="A620" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B620" s="18" t="inlineStr">
@@ -32819,7 +32819,7 @@
     <row r="621">
       <c r="A621" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B621" s="18" t="inlineStr">
@@ -32874,7 +32874,7 @@
     <row r="622">
       <c r="A622" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B622" s="18" t="inlineStr">
@@ -32929,7 +32929,7 @@
     <row r="623">
       <c r="A623" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B623" s="18" t="inlineStr">
@@ -32984,7 +32984,7 @@
     <row r="624">
       <c r="A624" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B624" s="18" t="inlineStr">
@@ -33039,7 +33039,7 @@
     <row r="625">
       <c r="A625" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B625" s="18" t="inlineStr">
@@ -33090,7 +33090,7 @@
     <row r="626">
       <c r="A626" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B626" s="18" t="inlineStr">
@@ -33141,7 +33141,7 @@
     <row r="627">
       <c r="A627" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B627" s="18" t="inlineStr">
@@ -33192,7 +33192,7 @@
     <row r="628">
       <c r="A628" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B628" s="18" t="inlineStr">
@@ -33243,7 +33243,7 @@
     <row r="629">
       <c r="A629" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B629" s="18" t="inlineStr">
@@ -33294,7 +33294,7 @@
     <row r="630">
       <c r="A630" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B630" s="18" t="inlineStr">
@@ -33345,7 +33345,7 @@
     <row r="631">
       <c r="A631" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B631" s="18" t="inlineStr">
@@ -33396,7 +33396,7 @@
     <row r="632">
       <c r="A632" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B632" s="18" t="inlineStr">
@@ -33443,7 +33443,7 @@
     <row r="633">
       <c r="A633" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B633" s="18" t="inlineStr">
@@ -33494,7 +33494,7 @@
     <row r="634">
       <c r="A634" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B634" s="18" t="inlineStr">
@@ -33549,7 +33549,7 @@
     <row r="635">
       <c r="A635" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B635" s="18" t="inlineStr">
@@ -33604,7 +33604,7 @@
     <row r="636">
       <c r="A636" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B636" s="18" t="inlineStr">
@@ -33651,7 +33651,7 @@
     <row r="637">
       <c r="A637" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B637" s="18" t="inlineStr">
@@ -33706,7 +33706,7 @@
     <row r="638">
       <c r="A638" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B638" s="18" t="inlineStr">
@@ -33757,7 +33757,7 @@
     <row r="639">
       <c r="A639" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B639" s="18" t="inlineStr">
@@ -33808,7 +33808,7 @@
     <row r="640">
       <c r="A640" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B640" s="18" t="inlineStr">
@@ -33863,7 +33863,7 @@
     <row r="641">
       <c r="A641" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B641" s="18" t="inlineStr">
@@ -33918,7 +33918,7 @@
     <row r="642">
       <c r="A642" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B642" s="18" t="inlineStr">
@@ -33969,7 +33969,7 @@
     <row r="643">
       <c r="A643" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B643" s="18" t="inlineStr">
@@ -34024,7 +34024,7 @@
     <row r="644">
       <c r="A644" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B644" s="18" t="inlineStr">
@@ -34079,7 +34079,7 @@
     <row r="645">
       <c r="A645" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B645" s="18" t="inlineStr">
@@ -34134,7 +34134,7 @@
     <row r="646">
       <c r="A646" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B646" s="18" t="inlineStr">
@@ -34189,7 +34189,7 @@
     <row r="647">
       <c r="A647" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B647" s="18" t="inlineStr">
@@ -34244,7 +34244,7 @@
     <row r="648">
       <c r="A648" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B648" s="18" t="inlineStr">
@@ -34299,7 +34299,7 @@
     <row r="649">
       <c r="A649" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B649" s="18" t="inlineStr">
@@ -34354,7 +34354,7 @@
     <row r="650">
       <c r="A650" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B650" s="18" t="inlineStr">
@@ -34409,7 +34409,7 @@
     <row r="651">
       <c r="A651" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B651" s="18" t="inlineStr">
@@ -34464,7 +34464,7 @@
     <row r="652">
       <c r="A652" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B652" s="18" t="inlineStr">
@@ -34519,7 +34519,7 @@
     <row r="653">
       <c r="A653" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B653" s="18" t="inlineStr">
@@ -34574,7 +34574,7 @@
     <row r="654">
       <c r="A654" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B654" s="18" t="inlineStr">
@@ -34589,7 +34589,7 @@
       </c>
       <c r="D654" s="18" t="inlineStr">
         <is>
-          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
         </is>
       </c>
       <c r="E654" s="18" t="n"/>
@@ -34611,13 +34611,13 @@
       </c>
       <c r="J654" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
       <c r="K654" s="19" t="n"/>
       <c r="L654" s="19" t="inlineStr">
         <is>
-          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M654" s="20" t="n"/>
@@ -34629,7 +34629,7 @@
     <row r="655">
       <c r="A655" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B655" s="18" t="inlineStr">
@@ -34644,13 +34644,13 @@
       </c>
       <c r="D655" s="18" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
         </is>
       </c>
       <c r="E655" s="18" t="n"/>
       <c r="F655" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G655" t="inlineStr">
@@ -34664,11 +34664,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J655" s="13" t="n"/>
+      <c r="J655" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/configure-and-manage-azure-key-vault/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K655" s="19" t="n"/>
       <c r="L655" s="19" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>abc9634d-c44d-41e9-a530-e8444e16aa3c</t>
         </is>
       </c>
       <c r="M655" s="20" t="n"/>
@@ -34680,7 +34684,7 @@
     <row r="656">
       <c r="A656" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B656" s="18" t="inlineStr">
@@ -34695,13 +34699,13 @@
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
       <c r="F656" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
@@ -34715,15 +34719,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J656" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="J656" s="13" t="n"/>
       <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34735,7 +34735,7 @@
     <row r="657">
       <c r="A657" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B657" s="18" t="inlineStr">
@@ -34750,7 +34750,7 @@
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
@@ -34772,13 +34772,13 @@
       </c>
       <c r="J657" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
         </is>
       </c>
       <c r="K657" s="19" t="n"/>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34790,7 +34790,7 @@
     <row r="658">
       <c r="A658" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B658" s="18" t="inlineStr">
@@ -34805,13 +34805,13 @@
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
       <c r="F658" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
@@ -34827,13 +34827,13 @@
       </c>
       <c r="J658" s="31" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34845,7 +34845,7 @@
     <row r="659">
       <c r="A659" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B659" s="18" t="inlineStr">
@@ -34860,7 +34860,7 @@
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
@@ -34882,13 +34882,13 @@
       </c>
       <c r="J659" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34900,7 +34900,7 @@
     <row r="660">
       <c r="A660" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B660" s="18" t="inlineStr">
@@ -34915,13 +34915,13 @@
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
       <c r="F660" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -34937,13 +34937,13 @@
       </c>
       <c r="J660" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34955,7 +34955,7 @@
     <row r="661">
       <c r="A661" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B661" s="18" t="inlineStr">
@@ -34970,13 +34970,13 @@
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -34992,13 +34992,13 @@
       </c>
       <c r="J661" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="K661" s="19" t="n"/>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -35010,7 +35010,7 @@
     <row r="662">
       <c r="A662" s="18" t="inlineStr">
         <is>
-          <t>Azure Landing Zone Review</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B662" s="18" t="inlineStr">
@@ -35025,13 +35025,13 @@
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
       <c r="F662" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -35047,13 +35047,13 @@
       </c>
       <c r="J662" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -35065,28 +35065,28 @@
     <row r="663">
       <c r="A663" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>SAP Checklist</t>
         </is>
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>SAP</t>
         </is>
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>Selecione o plano de hospedagem de aplicativo lógico certo com base em seus requisitos de negócios e SLO</t>
+          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
       <c r="F663" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
@@ -35100,11 +35100,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J663" s="13" t="n"/>
+      <c r="J663" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -35131,7 +35135,7 @@
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>Proteja aplicativos lógicos contra falhas de região com redundância de zona e zonas de disponibilidade</t>
+          <t>Selecione o plano de hospedagem de aplicativo lógico certo com base em seus requisitos de negócios e SLO</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
@@ -35155,7 +35159,7 @@
       <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35182,7 +35186,7 @@
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>Considere uma estratégia de DR entre regiões para cargas de trabalho críticas</t>
+          <t>Proteja aplicativos lógicos contra falhas de região com redundância de zona e zonas de disponibilidade</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
@@ -35206,7 +35210,7 @@
       <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35233,7 +35237,7 @@
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>Se estiver implantando em um ambiente isolado, use ou migre para o ASE (Ambiente do Serviço de Aplicativo) v3</t>
+          <t>Considere uma estratégia de DR entre regiões para cargas de trabalho críticas</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35257,7 +35261,7 @@
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35274,7 +35278,7 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
@@ -35284,13 +35288,13 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>Aproveite o Azure DevOps ou o GitHub para simplificar o CI/CD e proteger seu código de Aplicativo Lógico</t>
+          <t>Se estiver implantando em um ambiente isolado, use ou migre para o ASE (Ambiente do Serviço de Aplicativo) v3</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35308,7 +35312,7 @@
       <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35320,28 +35324,28 @@
     <row r="668">
       <c r="A668" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B668" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C668" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>Habilite a redundância de zona para o Cache do Azure para Redis. O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
+          <t>Aproveite o Azure DevOps ou o GitHub para simplificar o CI/CD e proteger seu código de Aplicativo Lógico</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
       <c r="F668" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
@@ -35359,7 +35363,7 @@
       <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35386,13 +35390,13 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>Configure a persistência de dados para uma instância do Cache do Azure para Redis. Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
+          <t>Habilite a redundância de zona para o Cache do Azure para Redis. O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
       <c r="F669" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
@@ -35410,7 +35414,7 @@
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35437,7 +35441,7 @@
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>Use a conta de armazenamento com redundância geográfica para persistir o Cache do Azure para dados Redis ou zonalmente redundante onde a redundância geográfica não está disponível</t>
+          <t>Configure a persistência de dados para uma instância do Cache do Azure para Redis. Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
@@ -35461,7 +35465,7 @@
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35488,7 +35492,7 @@
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>Configure a replicação geográfica passiva para instâncias do Cache Premium do Azure para Redis. A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
+          <t>Use a conta de armazenamento com redundância geográfica para persistir o Cache do Azure para dados Redis ou zonalmente redundante onde a redundância geográfica não está disponível</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
@@ -35512,7 +35516,7 @@
       <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35524,7 +35528,7 @@
     <row r="672">
       <c r="A672" s="18" t="inlineStr">
         <is>
-          <t>Azure App Service Review</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B672" s="18" t="inlineStr">
@@ -35534,18 +35538,18 @@
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>App Services</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>Consulte a arquitetura de aplicativo Web com redundância de zona altamente disponível da linha de base para obter as práticas recomendadas</t>
+          <t>Configure a replicação geográfica passiva para instâncias do Cache Premium do Azure para Redis. A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35563,7 +35567,7 @@
       <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35590,13 +35594,13 @@
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>Use as camadas Premium e Standard. Esses níveis oferecem suporte a slots de preparo e backups automatizados.</t>
+          <t>Consulte a arquitetura de aplicativo Web com redundância de zona altamente disponível da linha de base para obter as práticas recomendadas</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35614,7 +35618,7 @@
       <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35641,13 +35645,13 @@
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade quando aplicável regionalmente (requer a camada Premium v2 ou v3)</t>
+          <t>Use as camadas Premium e Standard. Esses níveis oferecem suporte a slots de preparo e backups automatizados.</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
       <c r="F674" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
@@ -35665,7 +35669,7 @@
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35692,13 +35696,13 @@
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>Implementar verificações de integridade</t>
+          <t>Aproveite as zonas de disponibilidade quando aplicável regionalmente (requer a camada Premium v2 ou v3)</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35716,7 +35720,7 @@
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35743,13 +35747,13 @@
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>Consulte as práticas recomendadas de backup e restauração para o Serviço de Aplicativo do Azure</t>
+          <t>Implementar verificações de integridade</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
       <c r="F676" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
@@ -35767,7 +35771,7 @@
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35794,7 +35798,7 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Implementar práticas recomendadas de confiabilidade do Serviço de Aplicativo do Azure</t>
+          <t>Consulte as práticas recomendadas de backup e restauração para o Serviço de Aplicativo do Azure</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
@@ -35818,7 +35822,7 @@
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35845,13 +35849,13 @@
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Familiarizar-se com como mover um aplicativo do Serviço de Aplicativo para outra região durante um desastre</t>
+          <t>Implementar práticas recomendadas de confiabilidade do Serviço de Aplicativo do Azure</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35869,7 +35873,7 @@
       <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35896,13 +35900,13 @@
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Familiarizar-se com o suporte de confiabilidade no Serviço de Aplicativo do Azure</t>
+          <t>Familiarizar-se com como mover um aplicativo do Serviço de Aplicativo para outra região durante um desastre</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
       <c r="F679" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -35920,7 +35924,7 @@
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35947,13 +35951,13 @@
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Verifique se "Sempre Ativo" está habilitado para Aplicativos de Função em execução em um plano de serviço de aplicativo</t>
+          <t>Familiarizar-se com o suporte de confiabilidade no Serviço de Aplicativo do Azure</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35971,7 +35975,7 @@
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -35998,7 +36002,7 @@
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Monitorar instâncias do Serviço de Aplicativo usando verificações de integridade</t>
+          <t>Verifique se "Sempre Ativo" está habilitado para Aplicativos de Função em execução em um plano de serviço de aplicativo</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
@@ -36022,7 +36026,7 @@
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36049,7 +36053,7 @@
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site usando testes de disponibilidade do Application Insights</t>
+          <t>Monitorar instâncias do Serviço de Aplicativo usando verificações de integridade</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
@@ -36073,7 +36077,7 @@
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36100,13 +36104,13 @@
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Usar o teste Application Insights Standard para monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site</t>
+          <t>Monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site usando testes de disponibilidade do Application Insights</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -36124,7 +36128,7 @@
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36141,7 +36145,7 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
@@ -36151,17 +36155,13 @@
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves para armazenar segredos</t>
-        </is>
-      </c>
-      <c r="E684" s="18" t="inlineStr">
-        <is>
-          <t>Use o Cofre de Chaves do Azure para armazenar quaisquer segredos de que o aplicativo precisa.  O Cofre de Chaves fornece um ambiente seguro e auditado para armazenar segredos e está bem integrado ao Serviço de Aplicativo por meio do SDK do Cofre de Chaves ou das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
-        </is>
-      </c>
+          <t>Usar o teste Application Insights Standard para monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site</t>
+        </is>
+      </c>
+      <c r="E684" s="18" t="n"/>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -36179,7 +36179,7 @@
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36206,12 +36206,12 @@
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Usar a Identidade Gerenciada para se conectar ao Cofre de Chaves</t>
+          <t>Usar o Cofre de Chaves para armazenar segredos</t>
         </is>
       </c>
       <c r="E685" s="18" t="inlineStr">
         <is>
-          <t>Use uma Identidade Gerenciada para se conectar ao Cofre de Chaves usando o SDK do Cofre de Chaves ou por meio das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
+          <t>Use o Cofre de Chaves do Azure para armazenar quaisquer segredos de que o aplicativo precisa.  O Cofre de Chaves fornece um ambiente seguro e auditado para armazenar segredos e está bem integrado ao Serviço de Aplicativo por meio do SDK do Cofre de Chaves ou das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F685" s="18" t="inlineStr">
@@ -36234,7 +36234,7 @@
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36261,12 +36261,12 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Use o Cofre de Chaves para armazenar o certificado TLS.</t>
+          <t>Usar a Identidade Gerenciada para se conectar ao Cofre de Chaves</t>
         </is>
       </c>
       <c r="E686" s="18" t="inlineStr">
         <is>
-          <t>Armazene o certificado TLS do Serviço de Aplicativo no Cofre de Chaves.</t>
+          <t>Use uma Identidade Gerenciada para se conectar ao Cofre de Chaves usando o SDK do Cofre de Chaves ou por meio das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F686" s="18" t="inlineStr">
@@ -36289,7 +36289,7 @@
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36316,17 +36316,17 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Isolar sistemas que processam informações confidenciais</t>
+          <t>Use o Cofre de Chaves para armazenar o certificado TLS.</t>
         </is>
       </c>
       <c r="E687" s="18" t="inlineStr">
         <is>
-          <t>Os sistemas que processam informações confidenciais devem ser isolados.  Para fazer isso, use Planos do Serviço de Aplicativo ou Ambientes do Serviço de Aplicativo separados e considere o uso de assinaturas ou grupos de gerenciamento diferentes.</t>
+          <t>Armazene o certificado TLS do Serviço de Aplicativo no Cofre de Chaves.</t>
         </is>
       </c>
       <c r="F687" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -36344,7 +36344,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36371,12 +36371,12 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Não armazene dados confidenciais no disco local</t>
+          <t>Isolar sistemas que processam informações confidenciais</t>
         </is>
       </c>
       <c r="E688" s="18" t="inlineStr">
         <is>
-          <t>Os discos locais no Serviço de Aplicativo não são criptografados e os dados confidenciais não devem ser armazenados neles.  (Por exemplo: D:\\Local e %TMP%).</t>
+          <t>Os sistemas que processam informações confidenciais devem ser isolados.  Para fazer isso, use Planos do Serviço de Aplicativo ou Ambientes do Serviço de Aplicativo separados e considere o uso de assinaturas ou grupos de gerenciamento diferentes.</t>
         </is>
       </c>
       <c r="F688" s="18" t="inlineStr">
@@ -36399,7 +36399,7 @@
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36426,12 +36426,12 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Usar um provedor de identidade estabelecido para autenticação</t>
+          <t>Não armazene dados confidenciais no disco local</t>
         </is>
       </c>
       <c r="E689" s="18" t="inlineStr">
         <is>
-          <t>Para aplicativos Web autenticados, use um Provedor de Identidade bem estabelecido, como o Azure AD ou o Azure AD B2C.  Aproveite a estrutura de aplicativo de sua escolha para se integrar a esse provedor ou use o recurso de Autenticação/Autorização do Serviço de Aplicativo.</t>
+          <t>Os discos locais no Serviço de Aplicativo não são criptografados e os dados confidenciais não devem ser armazenados neles.  (Por exemplo: D:\\Local e %TMP%).</t>
         </is>
       </c>
       <c r="F689" s="18" t="inlineStr">
@@ -36454,7 +36454,7 @@
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36481,17 +36481,17 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Implantar a partir de um ambiente confiável</t>
+          <t>Usar um provedor de identidade estabelecido para autenticação</t>
         </is>
       </c>
       <c r="E690" s="18" t="inlineStr">
         <is>
-          <t>Implante código no Serviço de Aplicativo a partir de um ambiente controlado e confiável, como um pipeline de implantação de DevOps bem gerenciado e seguro. Isso evita que o código que não foi controlado por versão e verificado para ser implantado a partir de um host mal-intencionado.</t>
+          <t>Para aplicativos Web autenticados, use um Provedor de Identidade bem estabelecido, como o Azure AD ou o Azure AD B2C.  Aproveite a estrutura de aplicativo de sua escolha para se integrar a esse provedor ou use o recurso de Autenticação/Autorização do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36509,7 +36509,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36536,12 +36536,12 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Desabilitar a autenticação básica</t>
+          <t>Implantar a partir de um ambiente confiável</t>
         </is>
       </c>
       <c r="E691" s="18" t="inlineStr">
         <is>
-          <t>Desative a autenticação básica para FTP/FTPS e WebDeploy/SCM.  Isso desabilita o acesso a esses serviços e impõe o uso de pontos de extremidade protegidos do Azure AD para implantação.  Observe que o site do SCM também pode ser aberto usando credenciais do Azure AD.</t>
+          <t>Implante código no Serviço de Aplicativo a partir de um ambiente controlado e confiável, como um pipeline de implantação de DevOps bem gerenciado e seguro. Isso evita que o código que não foi controlado por versão e verificado para ser implantado a partir de um host mal-intencionado.</t>
         </is>
       </c>
       <c r="F691" s="18" t="inlineStr">
@@ -36564,7 +36564,7 @@
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36591,12 +36591,12 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Usar a Identidade Gerenciada para se conectar a recursos</t>
+          <t>Desabilitar a autenticação básica</t>
         </is>
       </c>
       <c r="E692" s="18" t="inlineStr">
         <is>
-          <t>Sempre que possível, use a Identidade Gerenciada para se conectar aos recursos protegidos do Azure AD.  Se isso não for possível, armazene segredos no Cofre de Chaves e conecte-se ao Cofre de Chaves usando uma Identidade Gerenciada.</t>
+          <t>Desative a autenticação básica para FTP/FTPS e WebDeploy/SCM.  Isso desabilita o acesso a esses serviços e impõe o uso de pontos de extremidade protegidos do Azure AD para implantação.  Observe que o site do SCM também pode ser aberto usando credenciais do Azure AD.</t>
         </is>
       </c>
       <c r="F692" s="18" t="inlineStr">
@@ -36619,7 +36619,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36646,12 +36646,12 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>Extrair contêineres usando uma identidade gerenciada</t>
+          <t>Usar a Identidade Gerenciada para se conectar a recursos</t>
         </is>
       </c>
       <c r="E693" s="18" t="inlineStr">
         <is>
-          <t>Onde estiver usando imagens armazenadas no Registro de Contêiner do Azure, extraia-as usando uma Identidade Gerenciada.</t>
+          <t>Sempre que possível, use a Identidade Gerenciada para se conectar aos recursos protegidos do Azure AD.  Se isso não for possível, armazene segredos no Cofre de Chaves e conecte-se ao Cofre de Chaves usando uma Identidade Gerenciada.</t>
         </is>
       </c>
       <c r="F693" s="18" t="inlineStr">
@@ -36674,7 +36674,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36701,17 +36701,17 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Enviar logs de tempo de execução do Serviço de Aplicativo para o Log Analytics</t>
+          <t>Extrair contêineres usando uma identidade gerenciada</t>
         </is>
       </c>
       <c r="E694" s="18" t="inlineStr">
         <is>
-          <t>Ao definir as configurações de diagnóstico do Serviço de Aplicativo, você pode enviar toda a telemetria para o Log Analytics como o destino central para registro em log e monitoramento. Isso permite que você monitore a atividade de tempo de execução do Serviço de Aplicativo, como logs HTTP, logs de aplicativos, logs de plataforma, ...</t>
+          <t>Onde estiver usando imagens armazenadas no Registro de Contêiner do Azure, extraia-as usando uma Identidade Gerenciada.</t>
         </is>
       </c>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36729,7 +36729,7 @@
       <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36756,12 +36756,12 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Enviar logs de atividade do Serviço de Aplicativo para o Log Analytics</t>
+          <t>Enviar logs de tempo de execução do Serviço de Aplicativo para o Log Analytics</t>
         </is>
       </c>
       <c r="E695" s="18" t="inlineStr">
         <is>
-          <t>Configure uma configuração de diagnóstico para enviar o log de atividades para o Log Analytics como o destino central para registro e monitoramento. Isso permite que você monitore a atividade do plano de controle no próprio recurso do Serviço de Aplicativo.</t>
+          <t>Ao definir as configurações de diagnóstico do Serviço de Aplicativo, você pode enviar toda a telemetria para o Log Analytics como o destino central para registro em log e monitoramento. Isso permite que você monitore a atividade de tempo de execução do Serviço de Aplicativo, como logs HTTP, logs de aplicativos, logs de plataforma, ...</t>
         </is>
       </c>
       <c r="F695" s="18" t="inlineStr">
@@ -36784,7 +36784,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36811,12 +36811,12 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>O acesso à rede de saída deve ser controlado</t>
+          <t>Enviar logs de atividade do Serviço de Aplicativo para o Log Analytics</t>
         </is>
       </c>
       <c r="E696" s="18" t="inlineStr">
         <is>
-          <t>Controle o acesso à rede de saída usando uma combinação de integração regional de VNet, grupos de segurança de rede e UDR's.  O tráfego deve ser roteado para um NVA, como o Firewall do Azure.  Certifique-se de monitorar os logs do Firewall.</t>
+          <t>Configure uma configuração de diagnóstico para enviar o log de atividades para o Log Analytics como o destino central para registro e monitoramento. Isso permite que você monitore a atividade do plano de controle no próprio recurso do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F696" s="18" t="inlineStr">
@@ -36839,7 +36839,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36866,17 +36866,17 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>Garantir um IP estável para comunicações de saída para endereços de Internet</t>
+          <t>O acesso à rede de saída deve ser controlado</t>
         </is>
       </c>
       <c r="E697" s="18" t="inlineStr">
         <is>
-          <t>Você pode fornecer um IP de saída estável usando a integração de rede virtual e um gateway NAT de rede virtual ou um NVA como o Firewall do Azure.  Isso permite que a parte receptora permita uma lista com base no IP, caso seja necessário.  Observe que, para comunicações com os Serviços do Azure, geralmente não há necessidade de depender do endereço IP e mecânicas como Pontos de Extremidade de Serviço devem ser usadas.  (Além disso, o uso de pontos de extremidade privados na extremidade de recebimento evita que o SNAT aconteça e fornece um intervalo de IP de saída estável.)</t>
+          <t>Controle o acesso à rede de saída usando uma combinação de integração regional de VNet, grupos de segurança de rede e UDR's.  O tráfego deve ser roteado para um NVA, como o Firewall do Azure.  Certifique-se de monitorar os logs do Firewall.</t>
         </is>
       </c>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36894,7 +36894,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36921,17 +36921,17 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>O acesso à rede de entrada deve ser controlado</t>
+          <t>Garantir um IP estável para comunicações de saída para endereços de Internet</t>
         </is>
       </c>
       <c r="E698" s="18" t="inlineStr">
         <is>
-          <t>Controle o acesso à rede de entrada usando uma combinação de Restrições de Acesso do Serviço de Aplicativo, Pontos de Extremidade de Serviço ou Pontos de Extremidade Privados. Diferentes restrições de acesso podem ser necessárias e configuradas para o próprio aplicativo Web e o site do SCM.</t>
+          <t>Você pode fornecer um IP de saída estável usando a integração de rede virtual e um gateway NAT de rede virtual ou um NVA como o Firewall do Azure.  Isso permite que a parte receptora permita uma lista com base no IP, caso seja necessário.  Observe que, para comunicações com os Serviços do Azure, geralmente não há necessidade de depender do endereço IP e mecânicas como Pontos de Extremidade de Serviço devem ser usadas.  (Além disso, o uso de pontos de extremidade privados na extremidade de recebimento evita que o SNAT aconteça e fornece um intervalo de IP de saída estável.)</t>
         </is>
       </c>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -36949,7 +36949,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36976,12 +36976,12 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Usar um WAF na frente do Serviço de Aplicativo</t>
+          <t>O acesso à rede de entrada deve ser controlado</t>
         </is>
       </c>
       <c r="E699" s="18" t="inlineStr">
         <is>
-          <t>Proteja-se contra tráfego de entrada mal-intencionado usando um Firewall de Aplicativo Web, como o Gateway de Aplicativo ou o Azure Front Door.  Certifique-se de monitorar os logs do WAF.</t>
+          <t>Controle o acesso à rede de entrada usando uma combinação de Restrições de Acesso do Serviço de Aplicativo, Pontos de Extremidade de Serviço ou Pontos de Extremidade Privados. Diferentes restrições de acesso podem ser necessárias e configuradas para o próprio aplicativo Web e o site do SCM.</t>
         </is>
       </c>
       <c r="F699" s="18" t="inlineStr">
@@ -37004,7 +37004,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37031,12 +37031,12 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Evite que o WAF seja ignorado</t>
+          <t>Usar um WAF na frente do Serviço de Aplicativo</t>
         </is>
       </c>
       <c r="E700" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que o WAF não pode ser ignorado bloqueando o acesso apenas ao WAF.  Use uma combinação de Restrições de Acesso, Pontos de Extremidade de Serviço e Pontos de Extremidade Privados.</t>
+          <t>Proteja-se contra tráfego de entrada mal-intencionado usando um Firewall de Aplicativo Web, como o Gateway de Aplicativo ou o Azure Front Door.  Certifique-se de monitorar os logs do WAF.</t>
         </is>
       </c>
       <c r="F700" s="18" t="inlineStr">
@@ -37059,7 +37059,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37086,17 +37086,17 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Definir a política TLS mínima como 1.2</t>
+          <t>Evite que o WAF seja ignorado</t>
         </is>
       </c>
       <c r="E701" s="18" t="inlineStr">
         <is>
-          <t>Defina a política TLS mínima como 1.2 na configuração do Serviço de Aplicativo.</t>
+          <t>Certifique-se de que o WAF não pode ser ignorado bloqueando o acesso apenas ao WAF.  Use uma combinação de Restrições de Acesso, Pontos de Extremidade de Serviço e Pontos de Extremidade Privados.</t>
         </is>
       </c>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -37111,14 +37111,10 @@
         </is>
       </c>
       <c r="J701" s="13" t="n"/>
-      <c r="K701" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37145,17 +37141,17 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Usar somente HTTPS</t>
+          <t>Definir a política TLS mínima como 1.2</t>
         </is>
       </c>
       <c r="E702" s="18" t="inlineStr">
         <is>
-          <t>Configure o Serviço de Aplicativo para usar somente HTTPS.  Isso faz com que o Serviço de Aplicativo redirecione de HTTP para HTTPS.  Considere fortemente o uso de HTTP Strict Transport Security (HSTS) em seu código ou a partir de seu WAF, que informa aos navegadores que o site só deve ser acessado usando HTTPS.</t>
+          <t>Defina a política TLS mínima como 1.2 na configuração do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37172,12 +37168,12 @@
       <c r="J702" s="13" t="n"/>
       <c r="K702" s="19" t="inlineStr">
         <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37204,12 +37200,12 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Curingas não devem ser usados para CORS</t>
+          <t>Usar somente HTTPS</t>
         </is>
       </c>
       <c r="E703" s="18" t="inlineStr">
         <is>
-          <t>Não use curingas em sua configuração do CORS, pois isso permite que todas as origens acessem o serviço (derrotando assim o propósito do CORS). Especificamente, permita apenas as origens que você espera poder acessar o serviço.</t>
+          <t>Configure o Serviço de Aplicativo para usar somente HTTPS.  Isso faz com que o Serviço de Aplicativo redirecione de HTTP para HTTPS.  Considere fortemente o uso de HTTP Strict Transport Security (HSTS) em seu código ou a partir de seu WAF, que informa aos navegadores que o site só deve ser acessado usando HTTPS.</t>
         </is>
       </c>
       <c r="F703" s="18" t="inlineStr">
@@ -37229,10 +37225,14 @@
         </is>
       </c>
       <c r="J703" s="13" t="n"/>
-      <c r="K703" s="19" t="n"/>
+      <c r="K703" s="19" t="inlineStr">
+        <is>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37259,12 +37259,12 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Desativar a depuração remota</t>
+          <t>Curingas não devem ser usados para CORS</t>
         </is>
       </c>
       <c r="E704" s="18" t="inlineStr">
         <is>
-          <t>A depuração remota não deve ser ativada na produção, pois isso abre portas adicionais no serviço, o que aumenta a superfície de ataque. Observe que o serviço ativa a depuração remota automaticamente após 48 horas.</t>
+          <t>Não use curingas em sua configuração do CORS, pois isso permite que todas as origens acessem o serviço (derrotando assim o propósito do CORS). Especificamente, permita apenas as origens que você espera poder acessar o serviço.</t>
         </is>
       </c>
       <c r="F704" s="18" t="inlineStr">
@@ -37284,14 +37284,10 @@
         </is>
       </c>
       <c r="J704" s="13" t="n"/>
-      <c r="K704" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37318,17 +37314,17 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o Defender for Cloud - Defender for App Service</t>
+          <t>Desativar a depuração remota</t>
         </is>
       </c>
       <c r="E705" s="18" t="inlineStr">
         <is>
-          <t>Habilite o Defender para o Serviço de Aplicativo.  Isso (entre outras ameaças) detecta comunicações com endereços IP mal-intencionados conhecidos.  Analise as recomendações do Defender for App Service como parte de suas operações.</t>
+          <t>A depuração remota não deve ser ativada na produção, pois isso abre portas adicionais no serviço, o que aumenta a superfície de ataque. Observe que o serviço ativa a depuração remota automaticamente após 48 horas.</t>
         </is>
       </c>
       <c r="F705" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
@@ -37343,10 +37339,14 @@
         </is>
       </c>
       <c r="J705" s="13" t="n"/>
-      <c r="K705" s="19" t="n"/>
+      <c r="K705" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37373,12 +37373,12 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o padrão de proteção DDOS na rede virtual WAF</t>
+          <t>Habilitar o Defender for Cloud - Defender for App Service</t>
         </is>
       </c>
       <c r="E706" s="18" t="inlineStr">
         <is>
-          <t>O Azure fornece proteção contra DDoS Basic em sua rede, que pode ser aprimorada com recursos inteligentes de DDoS Standard que aprendem sobre padrões normais de tráfego e podem detectar comportamentos incomuns. O DDoS Standard se aplica a uma Rede Virtual, portanto, ele deve ser configurado para o recurso de rede na frente do aplicativo, como o Application Gateway ou um NVA.</t>
+          <t>Habilite o Defender para o Serviço de Aplicativo.  Isso (entre outras ameaças) detecta comunicações com endereços IP mal-intencionados conhecidos.  Analise as recomendações do Defender for App Service como parte de suas operações.</t>
         </is>
       </c>
       <c r="F706" s="18" t="inlineStr">
@@ -37401,7 +37401,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37428,12 +37428,12 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Extrair contêineres por uma rede virtual</t>
+          <t>Habilitar o padrão de proteção DDOS na rede virtual WAF</t>
         </is>
       </c>
       <c r="E707" s="18" t="inlineStr">
         <is>
-          <t>Ao usar imagens armazenadas no Registro de Contêiner do Azure, extraia-as por uma rede virtual do Registro de Contêiner do Azure usando seu ponto de extremidade privado e a configuração do aplicativo 'WEBSITE_PULL_IMAGE_OVER_VNET'.</t>
+          <t>O Azure fornece proteção contra DDoS Basic em sua rede, que pode ser aprimorada com recursos inteligentes de DDoS Standard que aprendem sobre padrões normais de tráfego e podem detectar comportamentos incomuns. O DDoS Standard se aplica a uma Rede Virtual, portanto, ele deve ser configurado para o recurso de rede na frente do aplicativo, como o Application Gateway ou um NVA.</t>
         </is>
       </c>
       <c r="F707" s="18" t="inlineStr">
@@ -37456,7 +37456,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37483,12 +37483,12 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Realizar um teste de penetração</t>
+          <t>Extrair contêineres por uma rede virtual</t>
         </is>
       </c>
       <c r="E708" s="18" t="inlineStr">
         <is>
-          <t>Realizar um teste de penetração na aplicação web seguindo as regras de teste de penetração de engajamento.</t>
+          <t>Ao usar imagens armazenadas no Registro de Contêiner do Azure, extraia-as por uma rede virtual do Registro de Contêiner do Azure usando seu ponto de extremidade privado e a configuração do aplicativo 'WEBSITE_PULL_IMAGE_OVER_VNET'.</t>
         </is>
       </c>
       <c r="F708" s="18" t="inlineStr">
@@ -37511,7 +37511,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37538,12 +37538,12 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>Implantar código validado</t>
+          <t>Realizar um teste de penetração</t>
         </is>
       </c>
       <c r="E709" s="18" t="inlineStr">
         <is>
-          <t>Implante código confiável que foi validado e verificado em busca de vulnerabilidades de acordo com as práticas de DevSecOps.</t>
+          <t>Realizar um teste de penetração na aplicação web seguindo as regras de teste de penetração de engajamento.</t>
         </is>
       </c>
       <c r="F709" s="18" t="inlineStr">
@@ -37566,7 +37566,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37593,17 +37593,17 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Use plataformas, linguagens, protocolos e frameworks atualizados</t>
+          <t>Implantar código validado</t>
         </is>
       </c>
       <c r="E710" s="18" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes de plataformas, linguagens de programação, protocolos e estruturas suportadas.</t>
+          <t>Implante código confiável que foi validado e verificado em busca de vulnerabilidades de acordo com as práticas de DevSecOps.</t>
         </is>
       </c>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37621,7 +37621,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37631,17 +37631,54 @@
       <c r="Q710" s="20" t="n"/>
     </row>
     <row r="711">
-      <c r="A711" s="18" t="n"/>
-      <c r="B711" s="18" t="n"/>
-      <c r="C711" s="18" t="n"/>
-      <c r="D711" s="18" t="n"/>
-      <c r="E711" s="18" t="n"/>
-      <c r="F711" s="18" t="n"/>
+      <c r="A711" s="18" t="inlineStr">
+        <is>
+          <t>Azure App Service Review</t>
+        </is>
+      </c>
+      <c r="B711" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C711" s="18" t="inlineStr">
+        <is>
+          <t>App Services</t>
+        </is>
+      </c>
+      <c r="D711" s="18" t="inlineStr">
+        <is>
+          <t>Use plataformas, linguagens, protocolos e frameworks atualizados</t>
+        </is>
+      </c>
+      <c r="E711" s="18" t="inlineStr">
+        <is>
+          <t>Use as versões mais recentes de plataformas, linguagens de programação, protocolos e estruturas suportadas.</t>
+        </is>
+      </c>
+      <c r="F711" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H711" s="18" t="n"/>
-      <c r="I711" s="13" t="n"/>
+      <c r="I711" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J711" s="13" t="n"/>
       <c r="K711" s="19" t="n"/>
-      <c r="L711" s="19" t="n"/>
+      <c r="L711" s="19" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M711" s="20" t="n"/>
       <c r="N711" s="20" t="n"/>
       <c r="O711" s="20" t="n"/>
@@ -46685,7 +46722,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G711" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G712" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47289,6 +47326,7 @@
     <hyperlink ref="I708" r:id="rId597"/>
     <hyperlink ref="I709" r:id="rId598"/>
     <hyperlink ref="I710" r:id="rId599"/>
+    <hyperlink ref="I711" r:id="rId600"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -34699,13 +34699,13 @@
       </c>
       <c r="D656" s="18" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
         </is>
       </c>
       <c r="E656" s="18" t="n"/>
       <c r="F656" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G656" t="inlineStr">
@@ -34719,11 +34719,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J656" s="13" t="n"/>
+      <c r="J656" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+        </is>
+      </c>
       <c r="K656" s="19" t="n"/>
       <c r="L656" s="19" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M656" s="20" t="n"/>
@@ -34750,7 +34754,7 @@
       </c>
       <c r="D657" s="18" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
         </is>
       </c>
       <c r="E657" s="18" t="n"/>
@@ -34772,13 +34776,13 @@
       </c>
       <c r="J657" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/secure-azure-resources-with-rbac/?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
         </is>
       </c>
       <c r="K657" s="19" t="n"/>
       <c r="L657" s="19" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M657" s="20" t="n"/>
@@ -34805,13 +34809,13 @@
       </c>
       <c r="D658" s="18" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
         </is>
       </c>
       <c r="E658" s="18" t="n"/>
       <c r="F658" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G658" t="inlineStr">
@@ -34827,13 +34831,13 @@
       </c>
       <c r="J658" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/secure-vnet-dmz?tabs=portal</t>
+          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
         </is>
       </c>
       <c r="K658" s="19" t="n"/>
       <c r="L658" s="19" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M658" s="20" t="n"/>
@@ -34860,7 +34864,7 @@
       </c>
       <c r="D659" s="18" t="inlineStr">
         <is>
-          <t>Considere usar o software antimalware da Microsoft no Azure para proteger suas máquinas virtuais contra arquivos mal-intencionados, adware e outras ameaças.</t>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
         </is>
       </c>
       <c r="E659" s="18" t="n"/>
@@ -34882,13 +34886,13 @@
       </c>
       <c r="J659" s="31" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/blog/deploying-antimalware-solutions-on-azure-virtual-machines/</t>
+          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
         </is>
       </c>
       <c r="K659" s="19" t="n"/>
       <c r="L659" s="19" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M659" s="20" t="n"/>
@@ -34915,13 +34919,13 @@
       </c>
       <c r="D660" s="18" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
         </is>
       </c>
       <c r="E660" s="18" t="n"/>
       <c r="F660" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G660" t="inlineStr">
@@ -34937,13 +34941,13 @@
       </c>
       <c r="J660" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/implement-endpoint-protection-use-microsoft-defender/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
         </is>
       </c>
       <c r="K660" s="19" t="n"/>
       <c r="L660" s="19" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
         </is>
       </c>
       <c r="M660" s="20" t="n"/>
@@ -34970,13 +34974,13 @@
       </c>
       <c r="D661" s="18" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
         </is>
       </c>
       <c r="E661" s="18" t="n"/>
       <c r="F661" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G661" t="inlineStr">
@@ -34992,13 +34996,13 @@
       </c>
       <c r="J661" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/explore-azure-networking/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
         </is>
       </c>
       <c r="K661" s="19" t="n"/>
       <c r="L661" s="19" t="inlineStr">
         <is>
-          <t>87a924c4-25c2-419f-a2f0-96c7c4fe4525</t>
+          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
         </is>
       </c>
       <c r="M661" s="20" t="n"/>
@@ -35025,13 +35029,13 @@
       </c>
       <c r="D662" s="18" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
         </is>
       </c>
       <c r="E662" s="18" t="n"/>
       <c r="F662" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G662" t="inlineStr">
@@ -35047,13 +35051,13 @@
       </c>
       <c r="J662" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/simplify-cloud-procurement-governance-azure-marketplace/?source=recommendations</t>
+          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
         </is>
       </c>
       <c r="K662" s="19" t="n"/>
       <c r="L662" s="19" t="inlineStr">
         <is>
-          <t>491ca1c4-3d40-42c0-9d85-b8933999590b</t>
+          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
         </is>
       </c>
       <c r="M662" s="20" t="n"/>
@@ -35065,28 +35069,28 @@
     <row r="663">
       <c r="A663" s="18" t="inlineStr">
         <is>
-          <t>SAP Checklist</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B663" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C663" s="18" t="inlineStr">
         <is>
-          <t>SAP</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D663" s="18" t="inlineStr">
         <is>
-          <t>Para habilitar a comunicação segura no Azure Monitor para soluções SAP, você pode optar por usar um certificado raiz ou um certificado de servidor. É altamente recomendável que você use certificados raiz.</t>
+          <t>Selecione o plano de hospedagem de aplicativo lógico certo com base em seus requisitos de negócios e SLO</t>
         </is>
       </c>
       <c r="E663" s="18" t="n"/>
       <c r="F663" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G663" t="inlineStr">
@@ -35100,15 +35104,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J663" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/implement-azure-monitoring-sap-workloads-azure-virtual-machines/?source=recommendations</t>
-        </is>
-      </c>
+      <c r="J663" s="13" t="n"/>
       <c r="K663" s="19" t="n"/>
       <c r="L663" s="19" t="inlineStr">
         <is>
-          <t>9fc945b9-0527-47af-8200-9d652fe02fcc</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M663" s="20" t="n"/>
@@ -35135,7 +35135,7 @@
       </c>
       <c r="D664" s="18" t="inlineStr">
         <is>
-          <t>Selecione o plano de hospedagem de aplicativo lógico certo com base em seus requisitos de negócios e SLO</t>
+          <t>Proteja aplicativos lógicos contra falhas de região com redundância de zona e zonas de disponibilidade</t>
         </is>
       </c>
       <c r="E664" s="18" t="n"/>
@@ -35159,7 +35159,7 @@
       <c r="K664" s="19" t="n"/>
       <c r="L664" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M664" s="20" t="n"/>
@@ -35186,7 +35186,7 @@
       </c>
       <c r="D665" s="18" t="inlineStr">
         <is>
-          <t>Proteja aplicativos lógicos contra falhas de região com redundância de zona e zonas de disponibilidade</t>
+          <t>Considere uma estratégia de DR entre regiões para cargas de trabalho críticas</t>
         </is>
       </c>
       <c r="E665" s="18" t="n"/>
@@ -35210,7 +35210,7 @@
       <c r="K665" s="19" t="n"/>
       <c r="L665" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M665" s="20" t="n"/>
@@ -35237,7 +35237,7 @@
       </c>
       <c r="D666" s="18" t="inlineStr">
         <is>
-          <t>Considere uma estratégia de DR entre regiões para cargas de trabalho críticas</t>
+          <t>Se estiver implantando em um ambiente isolado, use ou migre para o ASE (Ambiente do Serviço de Aplicativo) v3</t>
         </is>
       </c>
       <c r="E666" s="18" t="n"/>
@@ -35261,7 +35261,7 @@
       <c r="K666" s="19" t="n"/>
       <c r="L666" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M666" s="20" t="n"/>
@@ -35278,7 +35278,7 @@
       </c>
       <c r="B667" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C667" s="18" t="inlineStr">
@@ -35288,13 +35288,13 @@
       </c>
       <c r="D667" s="18" t="inlineStr">
         <is>
-          <t>Se estiver implantando em um ambiente isolado, use ou migre para o ASE (Ambiente do Serviço de Aplicativo) v3</t>
+          <t>Aproveite o Azure DevOps ou o GitHub para simplificar o CI/CD e proteger seu código de Aplicativo Lógico</t>
         </is>
       </c>
       <c r="E667" s="18" t="n"/>
       <c r="F667" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
@@ -35312,7 +35312,7 @@
       <c r="K667" s="19" t="n"/>
       <c r="L667" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M667" s="20" t="n"/>
@@ -35324,28 +35324,28 @@
     <row r="668">
       <c r="A668" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Redis Resiliency checklist</t>
         </is>
       </c>
       <c r="B668" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C668" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Redis</t>
         </is>
       </c>
       <c r="D668" s="18" t="inlineStr">
         <is>
-          <t>Aproveite o Azure DevOps ou o GitHub para simplificar o CI/CD e proteger seu código de Aplicativo Lógico</t>
+          <t>Habilite a redundância de zona para o Cache do Azure para Redis. O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
         </is>
       </c>
       <c r="E668" s="18" t="n"/>
       <c r="F668" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
@@ -35363,7 +35363,7 @@
       <c r="K668" s="19" t="n"/>
       <c r="L668" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
         </is>
       </c>
       <c r="M668" s="20" t="n"/>
@@ -35390,13 +35390,13 @@
       </c>
       <c r="D669" s="18" t="inlineStr">
         <is>
-          <t>Habilite a redundância de zona para o Cache do Azure para Redis. O Cache do Azure para Redis dá suporte a configurações redundantes de zona nas camadas Premium e Enterprise. Um cache redundante de zona pode colocar seus nós em diferentes zonas de disponibilidade do Azure na mesma região. Ele elimina a interrupção do data center ou AZ como um único ponto de falha e aumenta a disponibilidade geral do cache.</t>
+          <t>Configure a persistência de dados para uma instância do Cache do Azure para Redis. Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
         </is>
       </c>
       <c r="E669" s="18" t="n"/>
       <c r="F669" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
@@ -35414,7 +35414,7 @@
       <c r="K669" s="19" t="n"/>
       <c r="L669" s="19" t="inlineStr">
         <is>
-          <t>65285269-440b-44be-9d3e-0844276d4bdc</t>
+          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
         </is>
       </c>
       <c r="M669" s="20" t="n"/>
@@ -35441,7 +35441,7 @@
       </c>
       <c r="D670" s="18" t="inlineStr">
         <is>
-          <t>Configure a persistência de dados para uma instância do Cache do Azure para Redis. Como os dados do cache são armazenados na memória, uma falha rara e não planejada de vários nós pode fazer com que todos os dados sejam descartados. Para evitar a perda completa de dados, a persistência do Redis permite que você tire instantâneos periódicos de dados na memória e os armazene em sua conta de armazenamento.</t>
+          <t>Use a conta de armazenamento com redundância geográfica para persistir o Cache do Azure para dados Redis ou zonalmente redundante onde a redundância geográfica não está disponível</t>
         </is>
       </c>
       <c r="E670" s="18" t="n"/>
@@ -35465,7 +35465,7 @@
       <c r="K670" s="19" t="n"/>
       <c r="L670" s="19" t="inlineStr">
         <is>
-          <t>bc178bdc-5a06-4ca7-8443-51e19dd34429</t>
+          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
         </is>
       </c>
       <c r="M670" s="20" t="n"/>
@@ -35492,7 +35492,7 @@
       </c>
       <c r="D671" s="18" t="inlineStr">
         <is>
-          <t>Use a conta de armazenamento com redundância geográfica para persistir o Cache do Azure para dados Redis ou zonalmente redundante onde a redundância geográfica não está disponível</t>
+          <t>Configure a replicação geográfica passiva para instâncias do Cache Premium do Azure para Redis. A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
         </is>
       </c>
       <c r="E671" s="18" t="n"/>
@@ -35516,7 +35516,7 @@
       <c r="K671" s="19" t="n"/>
       <c r="L671" s="19" t="inlineStr">
         <is>
-          <t>eb722823-7a15-41c5-ab4e-4f1814387e5c</t>
+          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
         </is>
       </c>
       <c r="M671" s="20" t="n"/>
@@ -35528,7 +35528,7 @@
     <row r="672">
       <c r="A672" s="18" t="inlineStr">
         <is>
-          <t>Redis Resiliency checklist</t>
+          <t>Azure App Service Review</t>
         </is>
       </c>
       <c r="B672" s="18" t="inlineStr">
@@ -35538,18 +35538,18 @@
       </c>
       <c r="C672" s="18" t="inlineStr">
         <is>
-          <t>Redis</t>
+          <t>App Services</t>
         </is>
       </c>
       <c r="D672" s="18" t="inlineStr">
         <is>
-          <t>Configure a replicação geográfica passiva para instâncias do Cache Premium do Azure para Redis. A replicação geográfica é um mecanismo para vincular duas ou mais instâncias do Cache do Azure para Redis, normalmente abrangendo duas regiões do Azure. A replicação geográfica foi projetada principalmente para recuperação de desastres entre regiões. Duas instâncias de cache de camada Premium são conectadas por meio de replicação geográfica de uma forma que fornece leituras e gravações no cache primário e que os dados são replicados para o cache secundário.</t>
+          <t>Consulte a arquitetura de aplicativo Web com redundância de zona altamente disponível da linha de base para obter as práticas recomendadas</t>
         </is>
       </c>
       <c r="E672" s="18" t="n"/>
       <c r="F672" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
@@ -35567,7 +35567,7 @@
       <c r="K672" s="19" t="n"/>
       <c r="L672" s="19" t="inlineStr">
         <is>
-          <t>a8c26c9b-32ab-45bd-bc69-98a135e33789</t>
+          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
         </is>
       </c>
       <c r="M672" s="20" t="n"/>
@@ -35594,13 +35594,13 @@
       </c>
       <c r="D673" s="18" t="inlineStr">
         <is>
-          <t>Consulte a arquitetura de aplicativo Web com redundância de zona altamente disponível da linha de base para obter as práticas recomendadas</t>
+          <t>Use as camadas Premium e Standard. Esses níveis oferecem suporte a slots de preparo e backups automatizados.</t>
         </is>
       </c>
       <c r="E673" s="18" t="n"/>
       <c r="F673" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
@@ -35618,7 +35618,7 @@
       <c r="K673" s="19" t="n"/>
       <c r="L673" s="19" t="inlineStr">
         <is>
-          <t>b32e1aa1-4813-4602-88fe-27ca2891f421</t>
+          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
         </is>
       </c>
       <c r="M673" s="20" t="n"/>
@@ -35645,13 +35645,13 @@
       </c>
       <c r="D674" s="18" t="inlineStr">
         <is>
-          <t>Use as camadas Premium e Standard. Esses níveis oferecem suporte a slots de preparo e backups automatizados.</t>
+          <t>Aproveite as zonas de disponibilidade quando aplicável regionalmente (requer a camada Premium v2 ou v3)</t>
         </is>
       </c>
       <c r="E674" s="18" t="n"/>
       <c r="F674" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
@@ -35669,7 +35669,7 @@
       <c r="K674" s="19" t="n"/>
       <c r="L674" s="19" t="inlineStr">
         <is>
-          <t>e4b31c6a-2e3f-4df1-8e8b-9c3aa5a27820</t>
+          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
         </is>
       </c>
       <c r="M674" s="20" t="n"/>
@@ -35696,13 +35696,13 @@
       </c>
       <c r="D675" s="18" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade quando aplicável regionalmente (requer a camada Premium v2 ou v3)</t>
+          <t>Implementar verificações de integridade</t>
         </is>
       </c>
       <c r="E675" s="18" t="n"/>
       <c r="F675" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
@@ -35720,7 +35720,7 @@
       <c r="K675" s="19" t="n"/>
       <c r="L675" s="19" t="inlineStr">
         <is>
-          <t>a7e2e6c2-491f-4fa4-a82b-521d0bc3b202</t>
+          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
         </is>
       </c>
       <c r="M675" s="20" t="n"/>
@@ -35747,13 +35747,13 @@
       </c>
       <c r="D676" s="18" t="inlineStr">
         <is>
-          <t>Implementar verificações de integridade</t>
+          <t>Consulte as práticas recomendadas de backup e restauração para o Serviço de Aplicativo do Azure</t>
         </is>
       </c>
       <c r="E676" s="18" t="n"/>
       <c r="F676" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
@@ -35771,7 +35771,7 @@
       <c r="K676" s="19" t="n"/>
       <c r="L676" s="19" t="inlineStr">
         <is>
-          <t>1275e4a9-7b6a-43c3-a9cd-5ee18d8995ad</t>
+          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
         </is>
       </c>
       <c r="M676" s="20" t="n"/>
@@ -35798,7 +35798,7 @@
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Consulte as práticas recomendadas de backup e restauração para o Serviço de Aplicativo do Azure</t>
+          <t>Implementar práticas recomendadas de confiabilidade do Serviço de Aplicativo do Azure</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
@@ -35822,7 +35822,7 @@
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>35a91c5d-4ad6-4d9b-8e0f-c47db9e6d1e7</t>
+          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35849,13 +35849,13 @@
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Implementar práticas recomendadas de confiabilidade do Serviço de Aplicativo do Azure</t>
+          <t>Familiarizar-se com como mover um aplicativo do Serviço de Aplicativo para outra região durante um desastre</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
       <c r="F678" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
@@ -35873,7 +35873,7 @@
       <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>e68cd0ec-afc6-4bd8-a27f-7860ad9a0db2</t>
+          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35900,13 +35900,13 @@
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Familiarizar-se com como mover um aplicativo do Serviço de Aplicativo para outra região durante um desastre</t>
+          <t>Familiarizar-se com o suporte de confiabilidade no Serviço de Aplicativo do Azure</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
       <c r="F679" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
@@ -35924,7 +35924,7 @@
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>bd2a865c-0835-4418-bb58-4df91a5a9b3f</t>
+          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -35951,13 +35951,13 @@
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Familiarizar-se com o suporte de confiabilidade no Serviço de Aplicativo do Azure</t>
+          <t>Verifique se "Sempre Ativo" está habilitado para Aplicativos de Função em execução em um plano de serviço de aplicativo</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
       <c r="F680" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
@@ -35975,7 +35975,7 @@
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>f3d2f1e4-e6d4-4b7a-a5a5-e2a9b2c6f293</t>
+          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -36002,7 +36002,7 @@
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Verifique se "Sempre Ativo" está habilitado para Aplicativos de Função em execução em um plano de serviço de aplicativo</t>
+          <t>Monitorar instâncias do Serviço de Aplicativo usando verificações de integridade</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
@@ -36026,7 +36026,7 @@
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>c7b5f3d1-0569-4fd2-9f32-c0b64e9c0c5e</t>
+          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36053,7 +36053,7 @@
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Monitorar instâncias do Serviço de Aplicativo usando verificações de integridade</t>
+          <t>Monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site usando testes de disponibilidade do Application Insights</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
@@ -36077,7 +36077,7 @@
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>a3b4d5f6-758c-4f9d-9e1a-d7c6b7e8f9ab</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36104,13 +36104,13 @@
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site usando testes de disponibilidade do Application Insights</t>
+          <t>Usar o teste Application Insights Standard para monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
       <c r="F683" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
@@ -36128,7 +36128,7 @@
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36145,7 +36145,7 @@
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
@@ -36155,13 +36155,17 @@
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Usar o teste Application Insights Standard para monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site</t>
-        </is>
-      </c>
-      <c r="E684" s="18" t="n"/>
+          <t>Usar o Cofre de Chaves para armazenar segredos</t>
+        </is>
+      </c>
+      <c r="E684" s="18" t="inlineStr">
+        <is>
+          <t>Use o Cofre de Chaves do Azure para armazenar quaisquer segredos de que o aplicativo precisa.  O Cofre de Chaves fornece um ambiente seguro e auditado para armazenar segredos e está bem integrado ao Serviço de Aplicativo por meio do SDK do Cofre de Chaves ou das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
+        </is>
+      </c>
       <c r="F684" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
@@ -36179,7 +36183,7 @@
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36206,12 +36210,12 @@
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves para armazenar segredos</t>
+          <t>Usar a Identidade Gerenciada para se conectar ao Cofre de Chaves</t>
         </is>
       </c>
       <c r="E685" s="18" t="inlineStr">
         <is>
-          <t>Use o Cofre de Chaves do Azure para armazenar quaisquer segredos de que o aplicativo precisa.  O Cofre de Chaves fornece um ambiente seguro e auditado para armazenar segredos e está bem integrado ao Serviço de Aplicativo por meio do SDK do Cofre de Chaves ou das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
+          <t>Use uma Identidade Gerenciada para se conectar ao Cofre de Chaves usando o SDK do Cofre de Chaves ou por meio das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F685" s="18" t="inlineStr">
@@ -36234,7 +36238,7 @@
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36261,12 +36265,12 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Usar a Identidade Gerenciada para se conectar ao Cofre de Chaves</t>
+          <t>Use o Cofre de Chaves para armazenar o certificado TLS.</t>
         </is>
       </c>
       <c r="E686" s="18" t="inlineStr">
         <is>
-          <t>Use uma Identidade Gerenciada para se conectar ao Cofre de Chaves usando o SDK do Cofre de Chaves ou por meio das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
+          <t>Armazene o certificado TLS do Serviço de Aplicativo no Cofre de Chaves.</t>
         </is>
       </c>
       <c r="F686" s="18" t="inlineStr">
@@ -36289,7 +36293,7 @@
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36316,17 +36320,17 @@
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Use o Cofre de Chaves para armazenar o certificado TLS.</t>
+          <t>Isolar sistemas que processam informações confidenciais</t>
         </is>
       </c>
       <c r="E687" s="18" t="inlineStr">
         <is>
-          <t>Armazene o certificado TLS do Serviço de Aplicativo no Cofre de Chaves.</t>
+          <t>Os sistemas que processam informações confidenciais devem ser isolados.  Para fazer isso, use Planos do Serviço de Aplicativo ou Ambientes do Serviço de Aplicativo separados e considere o uso de assinaturas ou grupos de gerenciamento diferentes.</t>
         </is>
       </c>
       <c r="F687" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
@@ -36344,7 +36348,7 @@
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36371,12 +36375,12 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Isolar sistemas que processam informações confidenciais</t>
+          <t>Não armazene dados confidenciais no disco local</t>
         </is>
       </c>
       <c r="E688" s="18" t="inlineStr">
         <is>
-          <t>Os sistemas que processam informações confidenciais devem ser isolados.  Para fazer isso, use Planos do Serviço de Aplicativo ou Ambientes do Serviço de Aplicativo separados e considere o uso de assinaturas ou grupos de gerenciamento diferentes.</t>
+          <t>Os discos locais no Serviço de Aplicativo não são criptografados e os dados confidenciais não devem ser armazenados neles.  (Por exemplo: D:\\Local e %TMP%).</t>
         </is>
       </c>
       <c r="F688" s="18" t="inlineStr">
@@ -36399,7 +36403,7 @@
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36426,12 +36430,12 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Não armazene dados confidenciais no disco local</t>
+          <t>Usar um provedor de identidade estabelecido para autenticação</t>
         </is>
       </c>
       <c r="E689" s="18" t="inlineStr">
         <is>
-          <t>Os discos locais no Serviço de Aplicativo não são criptografados e os dados confidenciais não devem ser armazenados neles.  (Por exemplo: D:\\Local e %TMP%).</t>
+          <t>Para aplicativos Web autenticados, use um Provedor de Identidade bem estabelecido, como o Azure AD ou o Azure AD B2C.  Aproveite a estrutura de aplicativo de sua escolha para se integrar a esse provedor ou use o recurso de Autenticação/Autorização do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F689" s="18" t="inlineStr">
@@ -36454,7 +36458,7 @@
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36481,17 +36485,17 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Usar um provedor de identidade estabelecido para autenticação</t>
+          <t>Implantar a partir de um ambiente confiável</t>
         </is>
       </c>
       <c r="E690" s="18" t="inlineStr">
         <is>
-          <t>Para aplicativos Web autenticados, use um Provedor de Identidade bem estabelecido, como o Azure AD ou o Azure AD B2C.  Aproveite a estrutura de aplicativo de sua escolha para se integrar a esse provedor ou use o recurso de Autenticação/Autorização do Serviço de Aplicativo.</t>
+          <t>Implante código no Serviço de Aplicativo a partir de um ambiente controlado e confiável, como um pipeline de implantação de DevOps bem gerenciado e seguro. Isso evita que o código que não foi controlado por versão e verificado para ser implantado a partir de um host mal-intencionado.</t>
         </is>
       </c>
       <c r="F690" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -36509,7 +36513,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36536,12 +36540,12 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Implantar a partir de um ambiente confiável</t>
+          <t>Desabilitar a autenticação básica</t>
         </is>
       </c>
       <c r="E691" s="18" t="inlineStr">
         <is>
-          <t>Implante código no Serviço de Aplicativo a partir de um ambiente controlado e confiável, como um pipeline de implantação de DevOps bem gerenciado e seguro. Isso evita que o código que não foi controlado por versão e verificado para ser implantado a partir de um host mal-intencionado.</t>
+          <t>Desative a autenticação básica para FTP/FTPS e WebDeploy/SCM.  Isso desabilita o acesso a esses serviços e impõe o uso de pontos de extremidade protegidos do Azure AD para implantação.  Observe que o site do SCM também pode ser aberto usando credenciais do Azure AD.</t>
         </is>
       </c>
       <c r="F691" s="18" t="inlineStr">
@@ -36564,7 +36568,7 @@
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36591,12 +36595,12 @@
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Desabilitar a autenticação básica</t>
+          <t>Usar a Identidade Gerenciada para se conectar a recursos</t>
         </is>
       </c>
       <c r="E692" s="18" t="inlineStr">
         <is>
-          <t>Desative a autenticação básica para FTP/FTPS e WebDeploy/SCM.  Isso desabilita o acesso a esses serviços e impõe o uso de pontos de extremidade protegidos do Azure AD para implantação.  Observe que o site do SCM também pode ser aberto usando credenciais do Azure AD.</t>
+          <t>Sempre que possível, use a Identidade Gerenciada para se conectar aos recursos protegidos do Azure AD.  Se isso não for possível, armazene segredos no Cofre de Chaves e conecte-se ao Cofre de Chaves usando uma Identidade Gerenciada.</t>
         </is>
       </c>
       <c r="F692" s="18" t="inlineStr">
@@ -36619,7 +36623,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36646,12 +36650,12 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>Usar a Identidade Gerenciada para se conectar a recursos</t>
+          <t>Extrair contêineres usando uma identidade gerenciada</t>
         </is>
       </c>
       <c r="E693" s="18" t="inlineStr">
         <is>
-          <t>Sempre que possível, use a Identidade Gerenciada para se conectar aos recursos protegidos do Azure AD.  Se isso não for possível, armazene segredos no Cofre de Chaves e conecte-se ao Cofre de Chaves usando uma Identidade Gerenciada.</t>
+          <t>Onde estiver usando imagens armazenadas no Registro de Contêiner do Azure, extraia-as usando uma Identidade Gerenciada.</t>
         </is>
       </c>
       <c r="F693" s="18" t="inlineStr">
@@ -36674,7 +36678,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36701,17 +36705,17 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Extrair contêineres usando uma identidade gerenciada</t>
+          <t>Enviar logs de tempo de execução do Serviço de Aplicativo para o Log Analytics</t>
         </is>
       </c>
       <c r="E694" s="18" t="inlineStr">
         <is>
-          <t>Onde estiver usando imagens armazenadas no Registro de Contêiner do Azure, extraia-as usando uma Identidade Gerenciada.</t>
+          <t>Ao definir as configurações de diagnóstico do Serviço de Aplicativo, você pode enviar toda a telemetria para o Log Analytics como o destino central para registro em log e monitoramento. Isso permite que você monitore a atividade de tempo de execução do Serviço de Aplicativo, como logs HTTP, logs de aplicativos, logs de plataforma, ...</t>
         </is>
       </c>
       <c r="F694" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -36729,7 +36733,7 @@
       <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36756,12 +36760,12 @@
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Enviar logs de tempo de execução do Serviço de Aplicativo para o Log Analytics</t>
+          <t>Enviar logs de atividade do Serviço de Aplicativo para o Log Analytics</t>
         </is>
       </c>
       <c r="E695" s="18" t="inlineStr">
         <is>
-          <t>Ao definir as configurações de diagnóstico do Serviço de Aplicativo, você pode enviar toda a telemetria para o Log Analytics como o destino central para registro em log e monitoramento. Isso permite que você monitore a atividade de tempo de execução do Serviço de Aplicativo, como logs HTTP, logs de aplicativos, logs de plataforma, ...</t>
+          <t>Configure uma configuração de diagnóstico para enviar o log de atividades para o Log Analytics como o destino central para registro e monitoramento. Isso permite que você monitore a atividade do plano de controle no próprio recurso do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F695" s="18" t="inlineStr">
@@ -36784,7 +36788,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36811,12 +36815,12 @@
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Enviar logs de atividade do Serviço de Aplicativo para o Log Analytics</t>
+          <t>O acesso à rede de saída deve ser controlado</t>
         </is>
       </c>
       <c r="E696" s="18" t="inlineStr">
         <is>
-          <t>Configure uma configuração de diagnóstico para enviar o log de atividades para o Log Analytics como o destino central para registro e monitoramento. Isso permite que você monitore a atividade do plano de controle no próprio recurso do Serviço de Aplicativo.</t>
+          <t>Controle o acesso à rede de saída usando uma combinação de integração regional de VNet, grupos de segurança de rede e UDR's.  O tráfego deve ser roteado para um NVA, como o Firewall do Azure.  Certifique-se de monitorar os logs do Firewall.</t>
         </is>
       </c>
       <c r="F696" s="18" t="inlineStr">
@@ -36839,7 +36843,7 @@
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36866,17 +36870,17 @@
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>O acesso à rede de saída deve ser controlado</t>
+          <t>Garantir um IP estável para comunicações de saída para endereços de Internet</t>
         </is>
       </c>
       <c r="E697" s="18" t="inlineStr">
         <is>
-          <t>Controle o acesso à rede de saída usando uma combinação de integração regional de VNet, grupos de segurança de rede e UDR's.  O tráfego deve ser roteado para um NVA, como o Firewall do Azure.  Certifique-se de monitorar os logs do Firewall.</t>
+          <t>Você pode fornecer um IP de saída estável usando a integração de rede virtual e um gateway NAT de rede virtual ou um NVA como o Firewall do Azure.  Isso permite que a parte receptora permita uma lista com base no IP, caso seja necessário.  Observe que, para comunicações com os Serviços do Azure, geralmente não há necessidade de depender do endereço IP e mecânicas como Pontos de Extremidade de Serviço devem ser usadas.  (Além disso, o uso de pontos de extremidade privados na extremidade de recebimento evita que o SNAT aconteça e fornece um intervalo de IP de saída estável.)</t>
         </is>
       </c>
       <c r="F697" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
@@ -36894,7 +36898,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36921,17 +36925,17 @@
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Garantir um IP estável para comunicações de saída para endereços de Internet</t>
+          <t>O acesso à rede de entrada deve ser controlado</t>
         </is>
       </c>
       <c r="E698" s="18" t="inlineStr">
         <is>
-          <t>Você pode fornecer um IP de saída estável usando a integração de rede virtual e um gateway NAT de rede virtual ou um NVA como o Firewall do Azure.  Isso permite que a parte receptora permita uma lista com base no IP, caso seja necessário.  Observe que, para comunicações com os Serviços do Azure, geralmente não há necessidade de depender do endereço IP e mecânicas como Pontos de Extremidade de Serviço devem ser usadas.  (Além disso, o uso de pontos de extremidade privados na extremidade de recebimento evita que o SNAT aconteça e fornece um intervalo de IP de saída estável.)</t>
+          <t>Controle o acesso à rede de entrada usando uma combinação de Restrições de Acesso do Serviço de Aplicativo, Pontos de Extremidade de Serviço ou Pontos de Extremidade Privados. Diferentes restrições de acesso podem ser necessárias e configuradas para o próprio aplicativo Web e o site do SCM.</t>
         </is>
       </c>
       <c r="F698" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
@@ -36949,7 +36953,7 @@
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36976,12 +36980,12 @@
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>O acesso à rede de entrada deve ser controlado</t>
+          <t>Usar um WAF na frente do Serviço de Aplicativo</t>
         </is>
       </c>
       <c r="E699" s="18" t="inlineStr">
         <is>
-          <t>Controle o acesso à rede de entrada usando uma combinação de Restrições de Acesso do Serviço de Aplicativo, Pontos de Extremidade de Serviço ou Pontos de Extremidade Privados. Diferentes restrições de acesso podem ser necessárias e configuradas para o próprio aplicativo Web e o site do SCM.</t>
+          <t>Proteja-se contra tráfego de entrada mal-intencionado usando um Firewall de Aplicativo Web, como o Gateway de Aplicativo ou o Azure Front Door.  Certifique-se de monitorar os logs do WAF.</t>
         </is>
       </c>
       <c r="F699" s="18" t="inlineStr">
@@ -37004,7 +37008,7 @@
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37031,12 +37035,12 @@
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Usar um WAF na frente do Serviço de Aplicativo</t>
+          <t>Evite que o WAF seja ignorado</t>
         </is>
       </c>
       <c r="E700" s="18" t="inlineStr">
         <is>
-          <t>Proteja-se contra tráfego de entrada mal-intencionado usando um Firewall de Aplicativo Web, como o Gateway de Aplicativo ou o Azure Front Door.  Certifique-se de monitorar os logs do WAF.</t>
+          <t>Certifique-se de que o WAF não pode ser ignorado bloqueando o acesso apenas ao WAF.  Use uma combinação de Restrições de Acesso, Pontos de Extremidade de Serviço e Pontos de Extremidade Privados.</t>
         </is>
       </c>
       <c r="F700" s="18" t="inlineStr">
@@ -37059,7 +37063,7 @@
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37086,17 +37090,17 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Evite que o WAF seja ignorado</t>
+          <t>Definir a política TLS mínima como 1.2</t>
         </is>
       </c>
       <c r="E701" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que o WAF não pode ser ignorado bloqueando o acesso apenas ao WAF.  Use uma combinação de Restrições de Acesso, Pontos de Extremidade de Serviço e Pontos de Extremidade Privados.</t>
+          <t>Defina a política TLS mínima como 1.2 na configuração do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="F701" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
@@ -37111,10 +37115,14 @@
         </is>
       </c>
       <c r="J701" s="13" t="n"/>
-      <c r="K701" s="19" t="n"/>
+      <c r="K701" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37141,17 +37149,17 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Definir a política TLS mínima como 1.2</t>
+          <t>Usar somente HTTPS</t>
         </is>
       </c>
       <c r="E702" s="18" t="inlineStr">
         <is>
-          <t>Defina a política TLS mínima como 1.2 na configuração do Serviço de Aplicativo.</t>
+          <t>Configure o Serviço de Aplicativo para usar somente HTTPS.  Isso faz com que o Serviço de Aplicativo redirecione de HTTP para HTTPS.  Considere fortemente o uso de HTTP Strict Transport Security (HSTS) em seu código ou a partir de seu WAF, que informa aos navegadores que o site só deve ser acessado usando HTTPS.</t>
         </is>
       </c>
       <c r="F702" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
@@ -37168,12 +37176,12 @@
       <c r="J702" s="13" t="n"/>
       <c r="K702" s="19" t="inlineStr">
         <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.MinTlsVersion&gt;=1.2) | distinct id,compliant</t>
+          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37200,12 +37208,12 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Usar somente HTTPS</t>
+          <t>Curingas não devem ser usados para CORS</t>
         </is>
       </c>
       <c r="E703" s="18" t="inlineStr">
         <is>
-          <t>Configure o Serviço de Aplicativo para usar somente HTTPS.  Isso faz com que o Serviço de Aplicativo redirecione de HTTP para HTTPS.  Considere fortemente o uso de HTTP Strict Transport Security (HSTS) em seu código ou a partir de seu WAF, que informa aos navegadores que o site só deve ser acessado usando HTTPS.</t>
+          <t>Não use curingas em sua configuração do CORS, pois isso permite que todas as origens acessem o serviço (derrotando assim o propósito do CORS). Especificamente, permita apenas as origens que você espera poder acessar o serviço.</t>
         </is>
       </c>
       <c r="F703" s="18" t="inlineStr">
@@ -37225,14 +37233,10 @@
         </is>
       </c>
       <c r="J703" s="13" t="n"/>
-      <c r="K703" s="19" t="inlineStr">
-        <is>
-          <t>where (type=='microsoft.web/sites' and (kind == 'app' or kind == 'app,linux' )) | extend compliant = (properties.httpsOnly==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37259,12 +37263,12 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Curingas não devem ser usados para CORS</t>
+          <t>Desativar a depuração remota</t>
         </is>
       </c>
       <c r="E704" s="18" t="inlineStr">
         <is>
-          <t>Não use curingas em sua configuração do CORS, pois isso permite que todas as origens acessem o serviço (derrotando assim o propósito do CORS). Especificamente, permita apenas as origens que você espera poder acessar o serviço.</t>
+          <t>A depuração remota não deve ser ativada na produção, pois isso abre portas adicionais no serviço, o que aumenta a superfície de ataque. Observe que o serviço ativa a depuração remota automaticamente após 48 horas.</t>
         </is>
       </c>
       <c r="F704" s="18" t="inlineStr">
@@ -37284,10 +37288,14 @@
         </is>
       </c>
       <c r="J704" s="13" t="n"/>
-      <c r="K704" s="19" t="n"/>
+      <c r="K704" s="19" t="inlineStr">
+        <is>
+          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37314,17 +37322,17 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Desativar a depuração remota</t>
+          <t>Habilitar o Defender for Cloud - Defender for App Service</t>
         </is>
       </c>
       <c r="E705" s="18" t="inlineStr">
         <is>
-          <t>A depuração remota não deve ser ativada na produção, pois isso abre portas adicionais no serviço, o que aumenta a superfície de ataque. Observe que o serviço ativa a depuração remota automaticamente após 48 horas.</t>
+          <t>Habilite o Defender para o Serviço de Aplicativo.  Isso (entre outras ameaças) detecta comunicações com endereços IP mal-intencionados conhecidos.  Analise as recomendações do Defender for App Service como parte de suas operações.</t>
         </is>
       </c>
       <c r="F705" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
@@ -37339,14 +37347,10 @@
         </is>
       </c>
       <c r="J705" s="13" t="n"/>
-      <c r="K705" s="19" t="inlineStr">
-        <is>
-          <t>appserviceresources | where type =~ 'microsoft.web/sites/config' | extend compliant = (properties.RemoteDebuggingEnabled == false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37373,12 +37377,12 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o Defender for Cloud - Defender for App Service</t>
+          <t>Habilitar o padrão de proteção DDOS na rede virtual WAF</t>
         </is>
       </c>
       <c r="E706" s="18" t="inlineStr">
         <is>
-          <t>Habilite o Defender para o Serviço de Aplicativo.  Isso (entre outras ameaças) detecta comunicações com endereços IP mal-intencionados conhecidos.  Analise as recomendações do Defender for App Service como parte de suas operações.</t>
+          <t>O Azure fornece proteção contra DDoS Basic em sua rede, que pode ser aprimorada com recursos inteligentes de DDoS Standard que aprendem sobre padrões normais de tráfego e podem detectar comportamentos incomuns. O DDoS Standard se aplica a uma Rede Virtual, portanto, ele deve ser configurado para o recurso de rede na frente do aplicativo, como o Application Gateway ou um NVA.</t>
         </is>
       </c>
       <c r="F706" s="18" t="inlineStr">
@@ -37401,7 +37405,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37428,12 +37432,12 @@
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o padrão de proteção DDOS na rede virtual WAF</t>
+          <t>Extrair contêineres por uma rede virtual</t>
         </is>
       </c>
       <c r="E707" s="18" t="inlineStr">
         <is>
-          <t>O Azure fornece proteção contra DDoS Basic em sua rede, que pode ser aprimorada com recursos inteligentes de DDoS Standard que aprendem sobre padrões normais de tráfego e podem detectar comportamentos incomuns. O DDoS Standard se aplica a uma Rede Virtual, portanto, ele deve ser configurado para o recurso de rede na frente do aplicativo, como o Application Gateway ou um NVA.</t>
+          <t>Ao usar imagens armazenadas no Registro de Contêiner do Azure, extraia-as por uma rede virtual do Registro de Contêiner do Azure usando seu ponto de extremidade privado e a configuração do aplicativo 'WEBSITE_PULL_IMAGE_OVER_VNET'.</t>
         </is>
       </c>
       <c r="F707" s="18" t="inlineStr">
@@ -37456,7 +37460,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37483,12 +37487,12 @@
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Extrair contêineres por uma rede virtual</t>
+          <t>Realizar um teste de penetração</t>
         </is>
       </c>
       <c r="E708" s="18" t="inlineStr">
         <is>
-          <t>Ao usar imagens armazenadas no Registro de Contêiner do Azure, extraia-as por uma rede virtual do Registro de Contêiner do Azure usando seu ponto de extremidade privado e a configuração do aplicativo 'WEBSITE_PULL_IMAGE_OVER_VNET'.</t>
+          <t>Realizar um teste de penetração na aplicação web seguindo as regras de teste de penetração de engajamento.</t>
         </is>
       </c>
       <c r="F708" s="18" t="inlineStr">
@@ -37511,7 +37515,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37538,12 +37542,12 @@
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>Realizar um teste de penetração</t>
+          <t>Implantar código validado</t>
         </is>
       </c>
       <c r="E709" s="18" t="inlineStr">
         <is>
-          <t>Realizar um teste de penetração na aplicação web seguindo as regras de teste de penetração de engajamento.</t>
+          <t>Implante código confiável que foi validado e verificado em busca de vulnerabilidades de acordo com as práticas de DevSecOps.</t>
         </is>
       </c>
       <c r="F709" s="18" t="inlineStr">
@@ -37566,7 +37570,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37593,17 +37597,17 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Implantar código validado</t>
+          <t>Use plataformas, linguagens, protocolos e frameworks atualizados</t>
         </is>
       </c>
       <c r="E710" s="18" t="inlineStr">
         <is>
-          <t>Implante código confiável que foi validado e verificado em busca de vulnerabilidades de acordo com as práticas de DevSecOps.</t>
+          <t>Use as versões mais recentes de plataformas, linguagens de programação, protocolos e estruturas suportadas.</t>
         </is>
       </c>
       <c r="F710" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -37621,7 +37625,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37631,54 +37635,17 @@
       <c r="Q710" s="20" t="n"/>
     </row>
     <row r="711">
-      <c r="A711" s="18" t="inlineStr">
-        <is>
-          <t>Azure App Service Review</t>
-        </is>
-      </c>
-      <c r="B711" s="18" t="inlineStr">
-        <is>
-          <t>Segurança</t>
-        </is>
-      </c>
-      <c r="C711" s="18" t="inlineStr">
-        <is>
-          <t>App Services</t>
-        </is>
-      </c>
-      <c r="D711" s="18" t="inlineStr">
-        <is>
-          <t>Use plataformas, linguagens, protocolos e frameworks atualizados</t>
-        </is>
-      </c>
-      <c r="E711" s="18" t="inlineStr">
-        <is>
-          <t>Use as versões mais recentes de plataformas, linguagens de programação, protocolos e estruturas suportadas.</t>
-        </is>
-      </c>
-      <c r="F711" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="A711" s="18" t="n"/>
+      <c r="B711" s="18" t="n"/>
+      <c r="C711" s="18" t="n"/>
+      <c r="D711" s="18" t="n"/>
+      <c r="E711" s="18" t="n"/>
+      <c r="F711" s="18" t="n"/>
       <c r="H711" s="18" t="n"/>
-      <c r="I711" s="31" t="inlineStr">
-        <is>
-          <t>More info</t>
-        </is>
-      </c>
+      <c r="I711" s="13" t="n"/>
       <c r="J711" s="13" t="n"/>
       <c r="K711" s="19" t="n"/>
-      <c r="L711" s="19" t="inlineStr">
-        <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
-        </is>
-      </c>
+      <c r="L711" s="19" t="n"/>
       <c r="M711" s="20" t="n"/>
       <c r="N711" s="20" t="n"/>
       <c r="O711" s="20" t="n"/>
@@ -46722,7 +46689,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G712" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G711" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -47326,7 +47293,6 @@
     <hyperlink ref="I708" r:id="rId597"/>
     <hyperlink ref="I709" r:id="rId598"/>
     <hyperlink ref="I710" r:id="rId599"/>
-    <hyperlink ref="I711" r:id="rId600"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -35879,30 +35879,26 @@
     <row r="677">
       <c r="A677" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B677" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C677" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduzir o risco de paralisações causadas pela renovação manual de certificados</t>
+          <t>Regras de coleta de dados no Azure Monitor -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
-      <c r="F677" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F677" s="18" t="n"/>
       <c r="G677" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -35914,11 +35910,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J677" s="13" t="n"/>
+      <c r="J677" s="31" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
+        </is>
+      </c>
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>a95b86ad-8840-48e3-9273-4b875ba18f20</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35930,30 +35930,26 @@
     <row r="678">
       <c r="A678" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B678" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C678" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Verifique se você está usando o SKU do Application Gateway v2</t>
+          <t>Verificar instâncias de backup com a fonte de dados subjacente não encontrada</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
-      <c r="F678" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F678" s="18" t="n"/>
       <c r="G678" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -35965,19 +35961,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J678" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K678" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
-        </is>
-      </c>
+      <c r="J678" s="13" t="n"/>
+      <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>45901365-d38e-443f-abcb-d868266abca2</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35989,30 +35977,26 @@
     <row r="679">
       <c r="A679" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B679" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C679" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU padrão para seus Balanceadores de Carga do Azure</t>
+          <t>Excluir ou arquivar serviços não associados (discos, nics, endereços IP etc.)</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
-      <c r="F679" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F679" s="18" t="n"/>
       <c r="G679" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36025,14 +36009,10 @@
         </is>
       </c>
       <c r="J679" s="13" t="n"/>
-      <c r="K679" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
-        </is>
-      </c>
+      <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>64f9a19a-f29c-495d-94c6-c7919ca0f6c5</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -36044,30 +36024,26 @@
     <row r="680">
       <c r="A680" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B680" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C680" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Verifique se os endereços IP de front-end dos Load Balancers são redundantes por zona (a menos que você precise de frontends zonais).</t>
+          <t>Considere um bom equilíbrio entre recuperação de local, armazenamento e backup para aplicativos não essenciais</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
-      <c r="F680" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F680" s="18" t="n"/>
       <c r="G680" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36083,7 +36059,7 @@
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>69bad37a-ad53-4cc7-ae1d-76667357c449</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -36095,30 +36071,26 @@
     <row r="681">
       <c r="A681" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B681" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C681" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t>Seus Application Gateways v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
+          <t xml:space="preserve">Verifique os gastos e as oportunidades de economia entre os 40 diferentes espaços de trabalho de análise de log - use retenção e coleta de dados diferentes para espaços de trabalho não prod - crie limite diário para reconhecimento e dimensionamento de camadas - Se você definir um limite diário, além de criar um alerta quando o limite for atingido, certifique-se de também criar uma regra de alerta para ser notificado quando alguma porcentagem for atingida (90%, por exemplo). - considerar a transformação do espaço de trabalho, se possível - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
-      <c r="F681" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F681" s="18" t="n"/>
       <c r="G681" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36132,17 +36104,13 @@
       </c>
       <c r="J681" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K681" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/understand-work-scopes</t>
+        </is>
+      </c>
+      <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>674b5ed8-5a85-49c7-933b-e2a1a27b765a</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36154,34 +36122,26 @@
     <row r="682">
       <c r="A682" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B682" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C682" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
-        </is>
-      </c>
-      <c r="E682" s="18" t="inlineStr">
-        <is>
-          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
-        </is>
-      </c>
-      <c r="F682" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+          <t>Impor uma política de log de limpeza e automação (se necessário, os logs podem ser movidos para armazenamento frio)</t>
+        </is>
+      </c>
+      <c r="E682" s="18" t="n"/>
+      <c r="F682" s="18" t="n"/>
       <c r="G682" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36195,13 +36155,13 @@
       </c>
       <c r="J682" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://www.youtube.com/watch?v=nHQYcYGKuyw</t>
         </is>
       </c>
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>91be1f38-8ef3-494c-8bd4-63cbbac75819</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36213,30 +36173,26 @@
     <row r="683">
       <c r="A683" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B683" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
+          <t>Verifique se os discos são realmente necessários, se não: excluir. Se forem necessários, encontre níveis de armazenamento mais baixos ou use backup -</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
-      <c r="F683" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F683" s="18" t="n"/>
       <c r="G683" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36250,13 +36206,13 @@
       </c>
       <c r="J683" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/manage-automation</t>
         </is>
       </c>
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>6aae01e6-a84d-4e5d-b36d-1d92881a1bd5</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36268,30 +36224,26 @@
     <row r="684">
       <c r="A684" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B684" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C684" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t>Configure o dimensionamento automático com uma quantidade mínima de duas instâncias.</t>
+          <t xml:space="preserve">Considere mover o armazenamento não utilizado para o nível inferior, com regra personalizada - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
-      <c r="F684" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F684" s="18" t="n"/>
       <c r="G684" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36305,17 +36257,13 @@
       </c>
       <c r="J684" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K684" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
+      <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>d1e44a19-659d-4395-afd7-7289b835556d</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36327,30 +36275,26 @@
     <row r="685">
       <c r="A685" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B685" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C685" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t>Implantar o Application Gateway em zonas de disponibilidade</t>
+          <t xml:space="preserve">Verifique se o Advisor está configurado para o dimensionamento correto da VM </t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
-      <c r="F685" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F685" s="18" t="n"/>
       <c r="G685" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36362,19 +36306,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J685" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K685" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J685" s="13" t="n"/>
+      <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>d0102cac-6aae-401e-9a84-de5de36d1d92</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36386,30 +36322,30 @@
     <row r="686">
       <c r="A686" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B686" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C686" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
-        </is>
-      </c>
-      <c r="E686" s="18" t="n"/>
-      <c r="F686" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+          <t>executar o script em todas as VMs do Windows https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- considere implementar uma diretiva se as VMs do Windows forem criadas com frequência</t>
+        </is>
+      </c>
+      <c r="E686" s="18" t="inlineStr">
+        <is>
+          <t>verifique pesquisando as Licenças de Categoria de Medidor na Análise de Custos</t>
+        </is>
+      </c>
+      <c r="F686" s="18" t="n"/>
       <c r="G686" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36421,15 +36357,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J686" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J686" s="13" t="n"/>
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>59ae568b-a38d-4498-9e22-13dbd7bb012f</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36441,30 +36373,26 @@
     <row r="687">
       <c r="A687" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B687" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C687" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
+          <t xml:space="preserve"> isso também pode ser colocado no AHUB se você já tiver licenças https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
-      <c r="F687" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F687" s="18" t="n"/>
       <c r="G687" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36476,15 +36404,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J687" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J687" s="13" t="n"/>
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>7b95e06e-158e-42ea-9992-c2de6e2065b3</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36496,30 +36420,26 @@
     <row r="688">
       <c r="A688" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B688" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C688" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Consolidar famílias de VM reservadas com opção de flexibilidade (não mais do que 4-5 famílias)</t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
-      <c r="F688" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F688" s="18" t="n"/>
       <c r="G688" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36533,13 +36453,13 @@
       </c>
       <c r="J688" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management</t>
         </is>
       </c>
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>75c1e945-b459-4837-bf7a-e7c6d3b475a5</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36551,30 +36471,26 @@
     <row r="689">
       <c r="A689" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B689" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C689" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
+          <t>Utilize instâncias reservadas do Azure: esse recurso permite reservar VMs por um período de 1 ou 3 anos, proporcionando uma economia significativa em comparação com os preços do PAYG.</t>
         </is>
       </c>
       <c r="E689" s="18" t="n"/>
-      <c r="F689" s="18" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+      <c r="F689" s="18" t="n"/>
       <c r="G689" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36586,15 +36502,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J689" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+      <c r="J689" s="13" t="n"/>
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>c7acbe49-bbe6-44dd-a9f2-e87778468d55</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36606,30 +36518,26 @@
     <row r="690">
       <c r="A690" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B690" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C690" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Somente discos maiores podem ser reservados =&gt; 1 TiB -</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
-      <c r="F690" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F690" s="18" t="n"/>
       <c r="G690" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36641,15 +36549,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J690" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+      <c r="J690" s="13" t="n"/>
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>a6bcca2b-4fea-41db-b3dd-95d48c7c891d</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36661,30 +36565,26 @@
     <row r="691">
       <c r="A691" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B691" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C691" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Implante sua política de WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Após a otimização do dimensionamento correto</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
-      <c r="F691" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F691" s="18" t="n"/>
       <c r="G691" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36697,14 +36597,10 @@
         </is>
       </c>
       <c r="J691" s="13" t="n"/>
-      <c r="K691" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>cb1f7d57-59ae-4568-aa38-d4985e2213db</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36716,30 +36612,26 @@
     <row r="692">
       <c r="A692" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B692" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C692" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure SQL</t>
         </is>
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
+          <t>Verifique se aplicável e aplique a política/alteração https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
-      <c r="F692" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F692" s="18" t="n"/>
       <c r="G692" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36755,7 +36647,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>d7bb012f-7b95-4e06-b158-e2ea3992c2de</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36767,30 +36659,26 @@
     <row r="693">
       <c r="A693" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B693" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C693" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>O desconto da peça de licença VM + (ahub + 3YRI) é de cerca de 70% de desconto</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
-      <c r="F693" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F693" s="18" t="n"/>
       <c r="G693" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36806,7 +36694,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>6e2065b3-a76a-4f4a-991e-8839ada46667</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36818,30 +36706,26 @@
     <row r="694">
       <c r="A694" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B694" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C694" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Considere o uso de um VMSS para corresponder à demanda em vez de dimensionamento simples</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
-      <c r="F694" s="18" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+      <c r="F694" s="18" t="n"/>
       <c r="G694" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36854,14 +36738,10 @@
         </is>
       </c>
       <c r="J694" s="13" t="n"/>
-      <c r="K694" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
-        </is>
-      </c>
+      <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>ccbd9792-a6bc-4ca2-a4fe-a1dbf3dd95d4</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36873,30 +36753,26 @@
     <row r="695">
       <c r="A695" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B695" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C695" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
+          <t>Use o autoscaler AKS para corresponder ao uso de clusters (verifique se os requisitos dos pods correspondem ao dimensionador)</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
-      <c r="F695" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F695" s="18" t="n"/>
       <c r="G695" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36912,7 +36788,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>c1b1cd52-1e54-4a29-a9de-39ac0e7c28dc</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36924,30 +36800,26 @@
     <row r="696">
       <c r="A696" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B696" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C696" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Mover pontos de recuperação para o vault-archive, quando aplicável (Validar)</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
-      <c r="F696" s="18" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+      <c r="F696" s="18" t="n"/>
       <c r="G696" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36959,15 +36831,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J696" s="13" t="n"/>
-      <c r="K696" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="J696" s="31" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
+        </is>
+      </c>
+      <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>44be3b1a-27f8-4b9e-a1be-1f38df03a822</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36979,30 +36851,26 @@
     <row r="697">
       <c r="A697" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B697" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C697" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
+          <t>Considere o uso de VMs spot com fallback sempre que possível. Considere o autotermination de clusters.</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
-      <c r="F697" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F697" s="18" t="n"/>
       <c r="G697" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37015,14 +36883,10 @@
         </is>
       </c>
       <c r="J697" s="13" t="n"/>
-      <c r="K697" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>cd463cbb-bc8a-4c29-aebc-91a43da1dae2</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -37034,30 +36898,26 @@
     <row r="698">
       <c r="A698" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B698" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C698" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Funções - Reutilizar conexões</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
-      <c r="F698" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F698" s="18" t="n"/>
       <c r="G698" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37069,15 +36929,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J698" s="13" t="n"/>
-      <c r="K698" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
-        </is>
-      </c>
+      <c r="J698" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/reservation-apis?toc=%2Fazure%2Fcost-management-billing%2Ftoc.json</t>
+        </is>
+      </c>
+      <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>cc881470-607c-41cc-a0e6-14658dd458e9</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -37089,30 +36949,26 @@
     <row r="699">
       <c r="A699" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B699" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C699" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+          <t>Funções - Armazenar dados em cache localmente</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
-      <c r="F699" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F699" s="18" t="n"/>
       <c r="G699" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37124,11 +36980,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J699" s="13" t="n"/>
+      <c r="J699" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>27139b82-1102-4dbd-9eaf-11e6f843e52f</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37140,30 +37000,26 @@
     <row r="700">
       <c r="A700" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B700" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C700" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Funções - Partidas a frio - Use a funcionalidade 'Executar do pacote'. Dessa forma, o código é baixado como um único arquivo zip. Isso pode, por exemplo, resultar em melhorias significativas com as funções Javascript, que possuem muitos módulos de nó. Use ferramentas específicas de linguagem para reduzir o tamanho do pacote, por exemplo, aplicativos Javascript que agitam árvores.</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
-      <c r="F700" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F700" s="18" t="n"/>
       <c r="G700" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37175,11 +37031,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J700" s="13" t="n"/>
+      <c r="J700" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>4722d928-c1b1-4cd5-81e5-4a29b9de39ac</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37191,30 +37051,26 @@
     <row r="701">
       <c r="A701" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B701" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C701" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Funções - Mantenha suas funções aquecidas</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
-      <c r="F701" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F701" s="18" t="n"/>
       <c r="G701" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37226,11 +37082,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J701" s="13" t="n"/>
+      <c r="J701" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>0e7c28dc-9366-4572-82bf-f4564b0d934a</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37242,30 +37102,26 @@
     <row r="702">
       <c r="A702" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B702" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C702" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>Ao usar o dimensionamento automático com funções diferentes, pode haver um que conduza todo o dimensionamento automático para todos os recursos - considere movê-lo para um plano de consumo separado (e considere um plano mais alto para a CPU)</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
-      <c r="F702" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F702" s="18" t="n"/>
       <c r="G702" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37281,7 +37137,7 @@
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>359c363e-7dd6-4162-9a36-4a907ebae38e</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37293,30 +37149,26 @@
     <row r="703">
       <c r="A703" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B703" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C703" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Os aplicativos de função em um determinado plano são todos dimensionados juntos, portanto, quaisquer problemas com o dimensionamento podem afetar todos os aplicativos no plano.</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
-      <c r="F703" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F703" s="18" t="n"/>
       <c r="G703" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37332,7 +37184,7 @@
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>ad53cc7d-e2e8-4aaa-a357-1549ab9153d8</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37344,30 +37196,26 @@
     <row r="704">
       <c r="A704" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B704" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C704" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Azure Front Door.</t>
+          <t>Sou cobrado por 'tempo de espera'? Essa pergunta geralmente é feita no contexto de uma função C# que faz uma operação assíncrona e aguarda o resultado, por exemplo, aguardar Task.Delay(1000) ou aguardar cliente. GetAsync('http://google.com'). A resposta é sim - o segundo cálculo de GB é baseado na hora de início e término da função e no uso de memória durante esse período. O que realmente acontece ao longo desse tempo em termos de atividade da CPU não é levado em consideração no cálculo. Uma exceção a essa regra é se você estiver usando funções duráveis. Você não é cobrado pelo tempo gasto em espera em funções de orquestrador.aplique técnicas de modelagem de demanda sempre que possível (ambientes de desenvolvimento?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
-      <c r="F704" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F704" s="18" t="n"/>
       <c r="G704" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37383,7 +37231,7 @@
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>9f89dc7b-44be-43b1-a27f-8b9e91be1f38</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37395,12 +37243,12 @@
     <row r="705">
       <c r="A705" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B705" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C705" s="18" t="inlineStr">
@@ -37410,15 +37258,11 @@
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Frontdoor - Desativar a página inicial padrãoNas configurações do aplicativo do seu aplicativo, defina AzureWebJobsDisableHomepage como true. Isso retornará um 204 (Sem Conteúdo) para o PoP para que apenas os dados de cabeçalho sejam retornados.</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
-      <c r="F705" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F705" s="18" t="n"/>
       <c r="G705" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37434,7 +37278,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>3da1dae2-cc88-4147-8607-c1cca0e61465</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37446,12 +37290,12 @@
     <row r="706">
       <c r="A706" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B706" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C706" s="18" t="inlineStr">
@@ -37461,15 +37305,11 @@
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Habilite o conjunto de regras de proteção de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Frontdoor - Rota para algo que não retorna nada. Configure uma Função, Proxy de Função ou adicione uma rota em seu WebApp que retorne 200 (OK) e envie conteúdo nulo ou mínimo. A vantagem disso é que você poderá fazer logout quando for chamado.</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
-      <c r="F706" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F706" s="18" t="n"/>
       <c r="G706" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37485,7 +37325,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>8dd458e9-2713-49b8-8110-2dbd6eaf11e6</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37497,30 +37337,26 @@
     <row r="707">
       <c r="A707" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B707" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C707" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Considere níveis de arquivamento para dados menos usados</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
-      <c r="F707" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F707" s="18" t="n"/>
       <c r="G707" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37536,7 +37372,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>7e31c67d-68cf-46a6-8a11-94956d697dc3</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37548,30 +37384,26 @@
     <row r="708">
       <c r="A708" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B708" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C708" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Verifique os tamanhos de disco em que o tamanho não corresponde à camada (ou seja, um disco de 513 GiB pagará um P30 (1TiB) e considere o redimensionamento</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
-      <c r="F708" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F708" s="18" t="n"/>
       <c r="G708" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37587,7 +37419,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>a2ed27b2-d186-4f1a-8252-bddde68a487c</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37599,30 +37431,26 @@
     <row r="709">
       <c r="A709" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B709" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C709" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Considere usar SSD padrão em vez de Premium ou Ultra sempre que possível</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
-      <c r="F709" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F709" s="18" t="n"/>
       <c r="G709" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37638,7 +37466,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>dec4861b-c3bc-410a-b77e-26e4d5a3bec2</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37650,30 +37478,26 @@
     <row r="710">
       <c r="A710" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B710" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C710" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+          <t>Para contas de armazenamento, verifique se a camada escolhida não está somando encargos de transação (pode ser mais barato passar para a próxima camada)</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
-      <c r="F710" s="18" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+      <c r="F710" s="18" t="n"/>
       <c r="G710" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37689,7 +37513,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>c4e2436b-1336-4db5-9f17-960eee0bdf5c</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37701,30 +37525,26 @@
     <row r="711">
       <c r="A711" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B711" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C711" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Site Recovery</t>
         </is>
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Para ASR, considere o uso de discos SSD padrão se o RPO/RTO e a taxa de transferência de replicação permitirem</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
-      <c r="F711" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F711" s="18" t="n"/>
       <c r="G711" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37740,7 +37560,7 @@
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>c2efc5d7-61d4-41d2-900b-b47a393a040f</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37752,30 +37572,26 @@
     <row r="712">
       <c r="A712" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B712" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C712" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o conjunto de regras de proteção de bot WAF do Gateway de Aplicativo do Azure As regras de bot detectam bots bons e ruins.</t>
+          <t>Contas de armazenamento: verifique o hot tier e/ou o GRS necessário</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
-      <c r="F712" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F712" s="18" t="n"/>
       <c r="G712" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37788,14 +37604,10 @@
         </is>
       </c>
       <c r="J712" s="13" t="n"/>
-      <c r="K712" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
-        </is>
-      </c>
+      <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>d3294798-b118-48b2-a5a4-6ceb544451e1</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37807,30 +37619,26 @@
     <row r="713">
       <c r="A713" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B713" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C713" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Gateway de Aplicativo do Azure.</t>
+          <t xml:space="preserve">Discos - valide o uso de discos SSD Premium em todos os lugares: por exemplo, não-prod pode trocar para SSD padrão ou SSD Premium sob demanda  </t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
-      <c r="F713" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F713" s="18" t="n"/>
       <c r="G713" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37846,7 +37654,7 @@
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>92d34429-3c76-4286-97a5-51c5b04e4f18</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37858,30 +37666,26 @@
     <row r="714">
       <c r="A714" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B714" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C714" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Gateway de Aplicativo do Azure para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Crie orçamentos para gerenciar custos e crie alertas que notifiquem automaticamente as partes interessadas sobre anomalias de gastos e riscos de gastos excessivos.</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
-      <c r="F714" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F714" s="18" t="n"/>
       <c r="G714" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37897,7 +37701,7 @@
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>54387e5c-ed12-46cd-832a-f5b2fc6998a5</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37909,30 +37713,26 @@
     <row r="715">
       <c r="A715" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B715" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C715" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>Implante sua política de WAF para o Application Gateway no modo 'Prevenção'.</t>
+          <t>Exporte dados de custo para uma conta de armazenamento para análise de dados adicionais.</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
-      <c r="F715" s="18" t="inlineStr">
-        <is>
-          <t>Alto</t>
-        </is>
-      </c>
+      <c r="F715" s="18" t="n"/>
       <c r="G715" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -37945,14 +37745,10 @@
         </is>
       </c>
       <c r="J715" s="13" t="n"/>
-      <c r="K715" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K715" s="19" t="n"/>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>35e33789-7e31-4c67-b68c-f6a62a119495</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37964,30 +37760,26 @@
     <row r="716">
       <c r="A716" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B716" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C716" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Controle os custos de um pool SQL dedicado pausando o recurso quando ele não estiver em uso.</t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
-      <c r="F716" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F716" s="18" t="n"/>
       <c r="G716" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38003,7 +37795,7 @@
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+          <t>6d697dc3-a2ed-427b-8d18-6f1a1252bddd</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -38015,30 +37807,26 @@
     <row r="717">
       <c r="A717" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B717" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C717" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Habilite o recurso de pausa automática do Apache Spark sem servidor e defina seu valor de tempo limite de acordo.</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
-      <c r="F717" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F717" s="18" t="n"/>
       <c r="G717" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38054,7 +37842,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+          <t>e68a487c-dec4-4861-ac3b-c10ae77e26e4</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -38066,30 +37854,26 @@
     <row r="718">
       <c r="A718" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B718" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C718" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+          <t>Crie várias definições de pool do Apache Spark de vários tamanhos.</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
-      <c r="F718" s="18" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+      <c r="F718" s="18" t="n"/>
       <c r="G718" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38105,7 +37889,7 @@
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+          <t>d5a3bec2-c4e2-4436-a133-6db55f17960e</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -38117,30 +37901,26 @@
     <row r="719">
       <c r="A719" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B719" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C719" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Gateway de Aplicativo do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Adquira unidades de confirmação (SCU) do Azure Synapse por um ano com um plano de pré-compra para economizar nos custos do Azure Synapse Analytics.</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
-      <c r="F719" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F719" s="18" t="n"/>
       <c r="G719" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38152,11 +37932,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J719" s="13" t="n"/>
+      <c r="J719" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+          <t>ee0bdf5c-c2ef-4c5d-961d-41d2500bb47a</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -38168,30 +37952,26 @@
     <row r="720">
       <c r="A720" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B720" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C720" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Usar VMs spot para trabalhos interruptíveis: são VMs que podem ser licitadas e compradas a um preço com desconto, fornecendo uma solução econômica para cargas de trabalho não críticas.</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
-      <c r="F720" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F720" s="18" t="n"/>
       <c r="G720" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38203,11 +37983,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J720" s="13" t="n"/>
+      <c r="J720" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+          <t>393a040f-d329-4479-ab11-88b2c5a46ceb</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38219,30 +38003,26 @@
     <row r="721">
       <c r="A721" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B721" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C721" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar seus logs WAF do Gateway de Aplicativo do Azure.</t>
+          <t>Dimensionamento correto de todas as VMs</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
-      <c r="F721" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F721" s="18" t="n"/>
       <c r="G721" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38258,7 +38038,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+          <t>544451e1-92d3-4442-a3c7-628637a551c5</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38270,30 +38050,26 @@
     <row r="722">
       <c r="A722" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B722" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C722" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar seus logs do WAF do Azure Front Door.</t>
+          <t>Trocar VM dimensionada com tamanhos normalizados e mais recentes</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
-      <c r="F722" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F722" s="18" t="n"/>
       <c r="G722" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38305,11 +38081,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J722" s="13" t="n"/>
+      <c r="J722" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>b04e4f18-5438-47e5-aed1-26cd032af5b2</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38321,30 +38101,26 @@
     <row r="723">
       <c r="A723" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B723" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C723" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>Envie logs do WAF do Gateway de Aplicativo do Azure para o Microsoft Sentinel.</t>
+          <t>VMs de dimensionamento correto - comece com o monitoramento do uso abaixo de 5% e, em seguida, trabalhe até 40%</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
-      <c r="F723" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F723" s="18" t="n"/>
       <c r="G723" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38356,11 +38132,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J723" s="13" t="n"/>
+      <c r="J723" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+          <t>fc6998a5-35e3-4378-a7e3-1c67d68cf6a6</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38372,30 +38152,26 @@
     <row r="724">
       <c r="A724" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B724" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C724" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
+          <t>A conteinerização de um aplicativo pode melhorar a densidade da VM e economizar dinheiro no dimensionamento</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
-      <c r="F724" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F724" s="18" t="n"/>
       <c r="G724" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38407,11 +38183,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J724" s="13" t="n"/>
+      <c r="J724" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>2a119495-6d69-47dc-9a2e-d27b2d186f1a</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38433,12 +38213,12 @@
       </c>
       <c r="C725" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduzir o risco de paralisações causadas pela renovação manual de certificados</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
@@ -38462,7 +38242,7 @@
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38479,7 +38259,7 @@
       </c>
       <c r="B726" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C726" s="18" t="inlineStr">
@@ -38489,7 +38269,7 @@
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>Use políticas de WAF em vez da configuração de WAF herdada.</t>
+          <t>Verifique se você está usando o SKU do Application Gateway v2</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
@@ -38509,11 +38289,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J726" s="13" t="n"/>
-      <c r="K726" s="19" t="n"/>
+      <c r="J726" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K726" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
+        </is>
+      </c>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38535,12 +38323,12 @@
       </c>
       <c r="C727" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de entrada nos back-ends para que eles só aceitem conexões da sub-rede do Application Gateway, por exemplo, com NSGs.</t>
+          <t>Verifique se você está usando a SKU padrão para seus Balanceadores de Carga do Azure</t>
         </is>
       </c>
       <c r="E727" s="18" t="n"/>
@@ -38561,10 +38349,14 @@
         </is>
       </c>
       <c r="J727" s="13" t="n"/>
-      <c r="K727" s="19" t="n"/>
+      <c r="K727" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
+        </is>
+      </c>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38586,12 +38378,12 @@
       </c>
       <c r="C728" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas origens recebam apenas o tráfego de sua instância do Azure Front Door.</t>
+          <t>Verifique se os endereços IP de front-end dos Load Balancers são redundantes por zona (a menos que você precise de frontends zonais).</t>
         </is>
       </c>
       <c r="E728" s="18" t="n"/>
@@ -38615,7 +38407,7 @@
       <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38642,13 +38434,13 @@
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>Você deve criptografar o tráfego para os servidores de back-end.</t>
+          <t>Seus Application Gateways v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
         </is>
       </c>
       <c r="E729" s="18" t="n"/>
       <c r="F729" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G729" t="inlineStr">
@@ -38662,11 +38454,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J729" s="13" t="n"/>
-      <c r="K729" s="19" t="n"/>
+      <c r="J729" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K729" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38693,13 +38493,17 @@
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>Você deve usar um Web Application Firewall.</t>
-        </is>
-      </c>
-      <c r="E730" s="18" t="n"/>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+        </is>
+      </c>
+      <c r="E730" s="18" t="inlineStr">
+        <is>
+          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
+        </is>
+      </c>
       <c r="F730" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G730" t="inlineStr">
@@ -38713,11 +38517,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J730" s="13" t="n"/>
+      <c r="J730" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K730" s="19" t="n"/>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38744,7 +38552,7 @@
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>Redirecionar HTTP para HTTPS</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
@@ -38764,11 +38572,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J731" s="13" t="n"/>
+      <c r="J731" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38785,7 +38597,7 @@
       </c>
       <c r="B732" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C732" s="18" t="inlineStr">
@@ -38795,7 +38607,7 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>Usar cookies gerenciados por gateway para direcionar o tráfego de uma sessão de usuário para o mesmo servidor para processamento</t>
+          <t>Configure o dimensionamento automático com uma quantidade mínima de duas instâncias.</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
@@ -38815,11 +38627,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J732" s="13" t="n"/>
-      <c r="K732" s="19" t="n"/>
+      <c r="J732" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K732" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38836,7 +38656,7 @@
       </c>
       <c r="B733" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C733" s="18" t="inlineStr">
@@ -38846,13 +38666,13 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>Habilite a drenagem de conexão durante as atualizações de serviço planejadas para evitar a perda de conexão com membrs existentes do pool de back-end</t>
+          <t>Implantar o Application Gateway em zonas de disponibilidade</t>
         </is>
       </c>
       <c r="E733" s="18" t="n"/>
       <c r="F733" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
@@ -38866,11 +38686,19 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J733" s="13" t="n"/>
-      <c r="K733" s="19" t="n"/>
+      <c r="J733" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K733" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38887,23 +38715,23 @@
       </c>
       <c r="B734" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C734" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>Criar páginas de erro personalizadas para exibir uma experiência de usuário personalizada</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="E734" s="18" t="n"/>
       <c r="F734" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -38917,11 +38745,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J734" s="13" t="n"/>
+      <c r="J734" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38943,12 +38775,12 @@
       </c>
       <c r="C735" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>Edite solicitações HTTP e cabeçalhos de resposta para facilitar o roteamento e a troca de informações entre o cliente e o servidor</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="E735" s="18" t="n"/>
@@ -38968,11 +38800,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J735" s="13" t="n"/>
+      <c r="J735" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K735" s="19" t="n"/>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -38989,23 +38825,23 @@
       </c>
       <c r="B736" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C736" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>Configure o Front Door para otimizar o roteamento de tráfego global da Web e o desempenho do usuário final de nível superior e a confiabilidade por meio de failover global rápido</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="E736" s="18" t="n"/>
       <c r="F736" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
@@ -39019,11 +38855,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J736" s="13" t="n"/>
+      <c r="J736" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K736" s="19" t="n"/>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -39040,23 +38880,23 @@
       </c>
       <c r="B737" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C737" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>Usar balanceamento de carga da camada de transporte</t>
+          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
       <c r="F737" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
@@ -39070,11 +38910,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J737" s="13" t="n"/>
+      <c r="J737" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -39096,12 +38940,12 @@
       </c>
       <c r="C738" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>Configurar o roteamento com base no host ou nome de domínio para vários aplicativos Web em um único gateway</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
@@ -39121,11 +38965,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J738" s="13" t="n"/>
+      <c r="J738" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -39147,18 +38995,18 @@
       </c>
       <c r="C739" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>Centralize o gerenciamento de certificados SSL para reduzir a sobrecarga de criptografia e descriptografia de um farm de servidores back-end</t>
+          <t>Implante sua política de WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
       <c r="F739" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G739" t="inlineStr">
@@ -39173,10 +39021,14 @@
         </is>
       </c>
       <c r="J739" s="13" t="n"/>
-      <c r="K739" s="19" t="n"/>
+      <c r="K739" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -39198,18 +39050,18 @@
       </c>
       <c r="C740" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>Usar o Application Gateway para suporte nativo para protocolos WebSocket e HTTP/2</t>
+          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
         </is>
       </c>
       <c r="E740" s="18" t="n"/>
       <c r="F740" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -39227,7 +39079,7 @@
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39237,17 +39089,50 @@
       <c r="Q740" s="20" t="n"/>
     </row>
     <row r="741">
-      <c r="A741" s="18" t="n"/>
-      <c r="B741" s="18" t="n"/>
-      <c r="C741" s="18" t="n"/>
-      <c r="D741" s="18" t="n"/>
+      <c r="A741" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B741" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C741" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D741" s="18" t="inlineStr">
+        <is>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+        </is>
+      </c>
       <c r="E741" s="18" t="n"/>
-      <c r="F741" s="18" t="n"/>
+      <c r="F741" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H741" s="18" t="n"/>
-      <c r="I741" s="13" t="n"/>
+      <c r="I741" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J741" s="13" t="n"/>
       <c r="K741" s="19" t="n"/>
-      <c r="L741" s="19" t="n"/>
+      <c r="L741" s="19" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M741" s="20" t="n"/>
       <c r="N741" s="20" t="n"/>
       <c r="O741" s="20" t="n"/>
@@ -39255,17 +39140,54 @@
       <c r="Q741" s="20" t="n"/>
     </row>
     <row r="742">
-      <c r="A742" s="18" t="n"/>
-      <c r="B742" s="18" t="n"/>
-      <c r="C742" s="18" t="n"/>
-      <c r="D742" s="18" t="n"/>
+      <c r="A742" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B742" s="18" t="inlineStr">
+        <is>
+          <t>Desempenho</t>
+        </is>
+      </c>
+      <c r="C742" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D742" s="18" t="inlineStr">
+        <is>
+          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="E742" s="18" t="n"/>
-      <c r="F742" s="18" t="n"/>
+      <c r="F742" s="18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H742" s="18" t="n"/>
-      <c r="I742" s="13" t="n"/>
+      <c r="I742" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J742" s="13" t="n"/>
-      <c r="K742" s="19" t="n"/>
-      <c r="L742" s="19" t="n"/>
+      <c r="K742" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
+      <c r="L742" s="19" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M742" s="20" t="n"/>
       <c r="N742" s="20" t="n"/>
       <c r="O742" s="20" t="n"/>
@@ -39273,17 +39195,50 @@
       <c r="Q742" s="20" t="n"/>
     </row>
     <row r="743">
-      <c r="A743" s="18" t="n"/>
-      <c r="B743" s="18" t="n"/>
-      <c r="C743" s="18" t="n"/>
-      <c r="D743" s="18" t="n"/>
+      <c r="A743" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B743" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C743" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D743" s="18" t="inlineStr">
+        <is>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
+        </is>
+      </c>
       <c r="E743" s="18" t="n"/>
-      <c r="F743" s="18" t="n"/>
+      <c r="F743" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H743" s="18" t="n"/>
-      <c r="I743" s="13" t="n"/>
+      <c r="I743" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J743" s="13" t="n"/>
       <c r="K743" s="19" t="n"/>
-      <c r="L743" s="19" t="n"/>
+      <c r="L743" s="19" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M743" s="20" t="n"/>
       <c r="N743" s="20" t="n"/>
       <c r="O743" s="20" t="n"/>
@@ -39291,17 +39246,54 @@
       <c r="Q743" s="20" t="n"/>
     </row>
     <row r="744">
-      <c r="A744" s="18" t="n"/>
-      <c r="B744" s="18" t="n"/>
-      <c r="C744" s="18" t="n"/>
-      <c r="D744" s="18" t="n"/>
+      <c r="A744" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B744" s="18" t="inlineStr">
+        <is>
+          <t>Desempenho</t>
+        </is>
+      </c>
+      <c r="C744" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D744" s="18" t="inlineStr">
+        <is>
+          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+        </is>
+      </c>
       <c r="E744" s="18" t="n"/>
-      <c r="F744" s="18" t="n"/>
+      <c r="F744" s="18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H744" s="18" t="n"/>
-      <c r="I744" s="13" t="n"/>
+      <c r="I744" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J744" s="13" t="n"/>
-      <c r="K744" s="19" t="n"/>
-      <c r="L744" s="19" t="n"/>
+      <c r="K744" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
+      <c r="L744" s="19" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M744" s="20" t="n"/>
       <c r="N744" s="20" t="n"/>
       <c r="O744" s="20" t="n"/>
@@ -39309,17 +39301,54 @@
       <c r="Q744" s="20" t="n"/>
     </row>
     <row r="745">
-      <c r="A745" s="18" t="n"/>
-      <c r="B745" s="18" t="n"/>
-      <c r="C745" s="18" t="n"/>
-      <c r="D745" s="18" t="n"/>
+      <c r="A745" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B745" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C745" s="18" t="inlineStr">
+        <is>
+          <t>Load Balancer</t>
+        </is>
+      </c>
+      <c r="D745" s="18" t="inlineStr">
+        <is>
+          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
+        </is>
+      </c>
       <c r="E745" s="18" t="n"/>
-      <c r="F745" s="18" t="n"/>
+      <c r="F745" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H745" s="18" t="n"/>
-      <c r="I745" s="13" t="n"/>
+      <c r="I745" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J745" s="13" t="n"/>
-      <c r="K745" s="19" t="n"/>
-      <c r="L745" s="19" t="n"/>
+      <c r="K745" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+        </is>
+      </c>
+      <c r="L745" s="19" t="inlineStr">
+        <is>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+        </is>
+      </c>
       <c r="M745" s="20" t="n"/>
       <c r="N745" s="20" t="n"/>
       <c r="O745" s="20" t="n"/>
@@ -39327,17 +39356,54 @@
       <c r="Q745" s="20" t="n"/>
     </row>
     <row r="746">
-      <c r="A746" s="18" t="n"/>
-      <c r="B746" s="18" t="n"/>
-      <c r="C746" s="18" t="n"/>
-      <c r="D746" s="18" t="n"/>
+      <c r="A746" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B746" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C746" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D746" s="18" t="inlineStr">
+        <is>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+        </is>
+      </c>
       <c r="E746" s="18" t="n"/>
-      <c r="F746" s="18" t="n"/>
+      <c r="F746" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H746" s="18" t="n"/>
-      <c r="I746" s="13" t="n"/>
+      <c r="I746" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J746" s="13" t="n"/>
-      <c r="K746" s="19" t="n"/>
-      <c r="L746" s="19" t="n"/>
+      <c r="K746" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
+      <c r="L746" s="19" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M746" s="20" t="n"/>
       <c r="N746" s="20" t="n"/>
       <c r="O746" s="20" t="n"/>
@@ -39345,17 +39411,50 @@
       <c r="Q746" s="20" t="n"/>
     </row>
     <row r="747">
-      <c r="A747" s="18" t="n"/>
-      <c r="B747" s="18" t="n"/>
-      <c r="C747" s="18" t="n"/>
-      <c r="D747" s="18" t="n"/>
+      <c r="A747" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B747" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C747" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D747" s="18" t="inlineStr">
+        <is>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+        </is>
+      </c>
       <c r="E747" s="18" t="n"/>
-      <c r="F747" s="18" t="n"/>
+      <c r="F747" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H747" s="18" t="n"/>
-      <c r="I747" s="13" t="n"/>
+      <c r="I747" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J747" s="13" t="n"/>
       <c r="K747" s="19" t="n"/>
-      <c r="L747" s="19" t="n"/>
+      <c r="L747" s="19" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M747" s="20" t="n"/>
       <c r="N747" s="20" t="n"/>
       <c r="O747" s="20" t="n"/>
@@ -39363,17 +39462,50 @@
       <c r="Q747" s="20" t="n"/>
     </row>
     <row r="748">
-      <c r="A748" s="18" t="n"/>
-      <c r="B748" s="18" t="n"/>
-      <c r="C748" s="18" t="n"/>
-      <c r="D748" s="18" t="n"/>
+      <c r="A748" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B748" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C748" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D748" s="18" t="inlineStr">
+        <is>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+        </is>
+      </c>
       <c r="E748" s="18" t="n"/>
-      <c r="F748" s="18" t="n"/>
+      <c r="F748" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H748" s="18" t="n"/>
-      <c r="I748" s="13" t="n"/>
+      <c r="I748" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J748" s="13" t="n"/>
       <c r="K748" s="19" t="n"/>
-      <c r="L748" s="19" t="n"/>
+      <c r="L748" s="19" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M748" s="20" t="n"/>
       <c r="N748" s="20" t="n"/>
       <c r="O748" s="20" t="n"/>
@@ -39381,17 +39513,50 @@
       <c r="Q748" s="20" t="n"/>
     </row>
     <row r="749">
-      <c r="A749" s="18" t="n"/>
-      <c r="B749" s="18" t="n"/>
-      <c r="C749" s="18" t="n"/>
-      <c r="D749" s="18" t="n"/>
+      <c r="A749" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B749" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C749" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D749" s="18" t="inlineStr">
+        <is>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+        </is>
+      </c>
       <c r="E749" s="18" t="n"/>
-      <c r="F749" s="18" t="n"/>
+      <c r="F749" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H749" s="18" t="n"/>
-      <c r="I749" s="13" t="n"/>
+      <c r="I749" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J749" s="13" t="n"/>
       <c r="K749" s="19" t="n"/>
-      <c r="L749" s="19" t="n"/>
+      <c r="L749" s="19" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M749" s="20" t="n"/>
       <c r="N749" s="20" t="n"/>
       <c r="O749" s="20" t="n"/>
@@ -39399,17 +39564,50 @@
       <c r="Q749" s="20" t="n"/>
     </row>
     <row r="750">
-      <c r="A750" s="18" t="n"/>
-      <c r="B750" s="18" t="n"/>
-      <c r="C750" s="18" t="n"/>
-      <c r="D750" s="18" t="n"/>
+      <c r="A750" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B750" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C750" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D750" s="18" t="inlineStr">
+        <is>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+        </is>
+      </c>
       <c r="E750" s="18" t="n"/>
-      <c r="F750" s="18" t="n"/>
+      <c r="F750" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H750" s="18" t="n"/>
-      <c r="I750" s="13" t="n"/>
+      <c r="I750" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J750" s="13" t="n"/>
       <c r="K750" s="19" t="n"/>
-      <c r="L750" s="19" t="n"/>
+      <c r="L750" s="19" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M750" s="20" t="n"/>
       <c r="N750" s="20" t="n"/>
       <c r="O750" s="20" t="n"/>
@@ -39417,17 +39615,50 @@
       <c r="Q750" s="20" t="n"/>
     </row>
     <row r="751">
-      <c r="A751" s="18" t="n"/>
-      <c r="B751" s="18" t="n"/>
-      <c r="C751" s="18" t="n"/>
-      <c r="D751" s="18" t="n"/>
+      <c r="A751" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B751" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C751" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D751" s="18" t="inlineStr">
+        <is>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+        </is>
+      </c>
       <c r="E751" s="18" t="n"/>
-      <c r="F751" s="18" t="n"/>
+      <c r="F751" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H751" s="18" t="n"/>
-      <c r="I751" s="13" t="n"/>
+      <c r="I751" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J751" s="13" t="n"/>
       <c r="K751" s="19" t="n"/>
-      <c r="L751" s="19" t="n"/>
+      <c r="L751" s="19" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M751" s="20" t="n"/>
       <c r="N751" s="20" t="n"/>
       <c r="O751" s="20" t="n"/>
@@ -39435,17 +39666,50 @@
       <c r="Q751" s="20" t="n"/>
     </row>
     <row r="752">
-      <c r="A752" s="18" t="n"/>
-      <c r="B752" s="18" t="n"/>
-      <c r="C752" s="18" t="n"/>
-      <c r="D752" s="18" t="n"/>
+      <c r="A752" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B752" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C752" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D752" s="18" t="inlineStr">
+        <is>
+          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="E752" s="18" t="n"/>
-      <c r="F752" s="18" t="n"/>
+      <c r="F752" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H752" s="18" t="n"/>
-      <c r="I752" s="13" t="n"/>
+      <c r="I752" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J752" s="13" t="n"/>
       <c r="K752" s="19" t="n"/>
-      <c r="L752" s="19" t="n"/>
+      <c r="L752" s="19" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M752" s="20" t="n"/>
       <c r="N752" s="20" t="n"/>
       <c r="O752" s="20" t="n"/>
@@ -39453,17 +39717,50 @@
       <c r="Q752" s="20" t="n"/>
     </row>
     <row r="753">
-      <c r="A753" s="18" t="n"/>
-      <c r="B753" s="18" t="n"/>
-      <c r="C753" s="18" t="n"/>
-      <c r="D753" s="18" t="n"/>
+      <c r="A753" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B753" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C753" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D753" s="18" t="inlineStr">
+        <is>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+        </is>
+      </c>
       <c r="E753" s="18" t="n"/>
-      <c r="F753" s="18" t="n"/>
+      <c r="F753" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H753" s="18" t="n"/>
-      <c r="I753" s="13" t="n"/>
+      <c r="I753" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J753" s="13" t="n"/>
       <c r="K753" s="19" t="n"/>
-      <c r="L753" s="19" t="n"/>
+      <c r="L753" s="19" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M753" s="20" t="n"/>
       <c r="N753" s="20" t="n"/>
       <c r="O753" s="20" t="n"/>
@@ -39471,17 +39768,50 @@
       <c r="Q753" s="20" t="n"/>
     </row>
     <row r="754">
-      <c r="A754" s="18" t="n"/>
-      <c r="B754" s="18" t="n"/>
-      <c r="C754" s="18" t="n"/>
-      <c r="D754" s="18" t="n"/>
+      <c r="A754" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B754" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C754" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D754" s="18" t="inlineStr">
+        <is>
+          <t>Habilite o conjunto de regras de proteção de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+        </is>
+      </c>
       <c r="E754" s="18" t="n"/>
-      <c r="F754" s="18" t="n"/>
+      <c r="F754" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H754" s="18" t="n"/>
-      <c r="I754" s="13" t="n"/>
+      <c r="I754" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J754" s="13" t="n"/>
       <c r="K754" s="19" t="n"/>
-      <c r="L754" s="19" t="n"/>
+      <c r="L754" s="19" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M754" s="20" t="n"/>
       <c r="N754" s="20" t="n"/>
       <c r="O754" s="20" t="n"/>
@@ -39489,17 +39819,50 @@
       <c r="Q754" s="20" t="n"/>
     </row>
     <row r="755">
-      <c r="A755" s="18" t="n"/>
-      <c r="B755" s="18" t="n"/>
-      <c r="C755" s="18" t="n"/>
-      <c r="D755" s="18" t="n"/>
+      <c r="A755" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B755" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C755" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D755" s="18" t="inlineStr">
+        <is>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+        </is>
+      </c>
       <c r="E755" s="18" t="n"/>
-      <c r="F755" s="18" t="n"/>
+      <c r="F755" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H755" s="18" t="n"/>
-      <c r="I755" s="13" t="n"/>
+      <c r="I755" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J755" s="13" t="n"/>
       <c r="K755" s="19" t="n"/>
-      <c r="L755" s="19" t="n"/>
+      <c r="L755" s="19" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M755" s="20" t="n"/>
       <c r="N755" s="20" t="n"/>
       <c r="O755" s="20" t="n"/>
@@ -39507,17 +39870,50 @@
       <c r="Q755" s="20" t="n"/>
     </row>
     <row r="756">
-      <c r="A756" s="18" t="n"/>
-      <c r="B756" s="18" t="n"/>
-      <c r="C756" s="18" t="n"/>
-      <c r="D756" s="18" t="n"/>
+      <c r="A756" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B756" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C756" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D756" s="18" t="inlineStr">
+        <is>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+        </is>
+      </c>
       <c r="E756" s="18" t="n"/>
-      <c r="F756" s="18" t="n"/>
+      <c r="F756" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H756" s="18" t="n"/>
-      <c r="I756" s="13" t="n"/>
+      <c r="I756" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J756" s="13" t="n"/>
       <c r="K756" s="19" t="n"/>
-      <c r="L756" s="19" t="n"/>
+      <c r="L756" s="19" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M756" s="20" t="n"/>
       <c r="N756" s="20" t="n"/>
       <c r="O756" s="20" t="n"/>
@@ -39525,17 +39921,50 @@
       <c r="Q756" s="20" t="n"/>
     </row>
     <row r="757">
-      <c r="A757" s="18" t="n"/>
-      <c r="B757" s="18" t="n"/>
-      <c r="C757" s="18" t="n"/>
-      <c r="D757" s="18" t="n"/>
+      <c r="A757" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B757" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C757" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D757" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+        </is>
+      </c>
       <c r="E757" s="18" t="n"/>
-      <c r="F757" s="18" t="n"/>
+      <c r="F757" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H757" s="18" t="n"/>
-      <c r="I757" s="13" t="n"/>
+      <c r="I757" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J757" s="13" t="n"/>
       <c r="K757" s="19" t="n"/>
-      <c r="L757" s="19" t="n"/>
+      <c r="L757" s="19" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M757" s="20" t="n"/>
       <c r="N757" s="20" t="n"/>
       <c r="O757" s="20" t="n"/>
@@ -39543,17 +39972,50 @@
       <c r="Q757" s="20" t="n"/>
     </row>
     <row r="758">
-      <c r="A758" s="18" t="n"/>
-      <c r="B758" s="18" t="n"/>
-      <c r="C758" s="18" t="n"/>
-      <c r="D758" s="18" t="n"/>
+      <c r="A758" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B758" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C758" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D758" s="18" t="inlineStr">
+        <is>
+          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+        </is>
+      </c>
       <c r="E758" s="18" t="n"/>
-      <c r="F758" s="18" t="n"/>
+      <c r="F758" s="18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H758" s="18" t="n"/>
-      <c r="I758" s="13" t="n"/>
+      <c r="I758" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J758" s="13" t="n"/>
       <c r="K758" s="19" t="n"/>
-      <c r="L758" s="19" t="n"/>
+      <c r="L758" s="19" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M758" s="20" t="n"/>
       <c r="N758" s="20" t="n"/>
       <c r="O758" s="20" t="n"/>
@@ -39561,17 +40023,50 @@
       <c r="Q758" s="20" t="n"/>
     </row>
     <row r="759">
-      <c r="A759" s="18" t="n"/>
-      <c r="B759" s="18" t="n"/>
-      <c r="C759" s="18" t="n"/>
-      <c r="D759" s="18" t="n"/>
+      <c r="A759" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B759" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C759" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D759" s="18" t="inlineStr">
+        <is>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+        </is>
+      </c>
       <c r="E759" s="18" t="n"/>
-      <c r="F759" s="18" t="n"/>
+      <c r="F759" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H759" s="18" t="n"/>
-      <c r="I759" s="13" t="n"/>
+      <c r="I759" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J759" s="13" t="n"/>
       <c r="K759" s="19" t="n"/>
-      <c r="L759" s="19" t="n"/>
+      <c r="L759" s="19" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M759" s="20" t="n"/>
       <c r="N759" s="20" t="n"/>
       <c r="O759" s="20" t="n"/>
@@ -39579,17 +40074,54 @@
       <c r="Q759" s="20" t="n"/>
     </row>
     <row r="760">
-      <c r="A760" s="18" t="n"/>
-      <c r="B760" s="18" t="n"/>
-      <c r="C760" s="18" t="n"/>
-      <c r="D760" s="18" t="n"/>
+      <c r="A760" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B760" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C760" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D760" s="18" t="inlineStr">
+        <is>
+          <t>Habilitar o conjunto de regras de proteção de bot WAF do Gateway de Aplicativo do Azure As regras de bot detectam bots bons e ruins.</t>
+        </is>
+      </c>
       <c r="E760" s="18" t="n"/>
-      <c r="F760" s="18" t="n"/>
+      <c r="F760" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H760" s="18" t="n"/>
-      <c r="I760" s="13" t="n"/>
+      <c r="I760" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J760" s="13" t="n"/>
-      <c r="K760" s="19" t="n"/>
-      <c r="L760" s="19" t="n"/>
+      <c r="K760" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
+        </is>
+      </c>
+      <c r="L760" s="19" t="inlineStr">
+        <is>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+        </is>
+      </c>
       <c r="M760" s="20" t="n"/>
       <c r="N760" s="20" t="n"/>
       <c r="O760" s="20" t="n"/>
@@ -39597,17 +40129,50 @@
       <c r="Q760" s="20" t="n"/>
     </row>
     <row r="761">
-      <c r="A761" s="18" t="n"/>
-      <c r="B761" s="18" t="n"/>
-      <c r="C761" s="18" t="n"/>
-      <c r="D761" s="18" t="n"/>
+      <c r="A761" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B761" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C761" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D761" s="18" t="inlineStr">
+        <is>
+          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Gateway de Aplicativo do Azure.</t>
+        </is>
+      </c>
       <c r="E761" s="18" t="n"/>
-      <c r="F761" s="18" t="n"/>
+      <c r="F761" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H761" s="18" t="n"/>
-      <c r="I761" s="13" t="n"/>
+      <c r="I761" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J761" s="13" t="n"/>
       <c r="K761" s="19" t="n"/>
-      <c r="L761" s="19" t="n"/>
+      <c r="L761" s="19" t="inlineStr">
+        <is>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+        </is>
+      </c>
       <c r="M761" s="20" t="n"/>
       <c r="N761" s="20" t="n"/>
       <c r="O761" s="20" t="n"/>
@@ -39615,17 +40180,50 @@
       <c r="Q761" s="20" t="n"/>
     </row>
     <row r="762">
-      <c r="A762" s="18" t="n"/>
-      <c r="B762" s="18" t="n"/>
-      <c r="C762" s="18" t="n"/>
-      <c r="D762" s="18" t="n"/>
+      <c r="A762" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B762" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C762" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D762" s="18" t="inlineStr">
+        <is>
+          <t>Ajuste o WAF do Gateway de Aplicativo do Azure para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+        </is>
+      </c>
       <c r="E762" s="18" t="n"/>
-      <c r="F762" s="18" t="n"/>
+      <c r="F762" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H762" s="18" t="n"/>
-      <c r="I762" s="13" t="n"/>
+      <c r="I762" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J762" s="13" t="n"/>
       <c r="K762" s="19" t="n"/>
-      <c r="L762" s="19" t="n"/>
+      <c r="L762" s="19" t="inlineStr">
+        <is>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+        </is>
+      </c>
       <c r="M762" s="20" t="n"/>
       <c r="N762" s="20" t="n"/>
       <c r="O762" s="20" t="n"/>
@@ -39633,17 +40231,54 @@
       <c r="Q762" s="20" t="n"/>
     </row>
     <row r="763">
-      <c r="A763" s="18" t="n"/>
-      <c r="B763" s="18" t="n"/>
-      <c r="C763" s="18" t="n"/>
-      <c r="D763" s="18" t="n"/>
+      <c r="A763" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B763" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C763" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D763" s="18" t="inlineStr">
+        <is>
+          <t>Implante sua política de WAF para o Application Gateway no modo 'Prevenção'.</t>
+        </is>
+      </c>
       <c r="E763" s="18" t="n"/>
-      <c r="F763" s="18" t="n"/>
+      <c r="F763" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H763" s="18" t="n"/>
-      <c r="I763" s="13" t="n"/>
+      <c r="I763" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J763" s="13" t="n"/>
-      <c r="K763" s="19" t="n"/>
-      <c r="L763" s="19" t="n"/>
+      <c r="K763" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
+      <c r="L763" s="19" t="inlineStr">
+        <is>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+        </is>
+      </c>
       <c r="M763" s="20" t="n"/>
       <c r="N763" s="20" t="n"/>
       <c r="O763" s="20" t="n"/>
@@ -39651,17 +40286,50 @@
       <c r="Q763" s="20" t="n"/>
     </row>
     <row r="764">
-      <c r="A764" s="18" t="n"/>
-      <c r="B764" s="18" t="n"/>
-      <c r="C764" s="18" t="n"/>
-      <c r="D764" s="18" t="n"/>
+      <c r="A764" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B764" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C764" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D764" s="18" t="inlineStr">
+        <is>
+          <t>Adicione o limite de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+        </is>
+      </c>
       <c r="E764" s="18" t="n"/>
-      <c r="F764" s="18" t="n"/>
+      <c r="F764" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G764" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H764" s="18" t="n"/>
-      <c r="I764" s="13" t="n"/>
+      <c r="I764" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J764" s="13" t="n"/>
       <c r="K764" s="19" t="n"/>
-      <c r="L764" s="19" t="n"/>
+      <c r="L764" s="19" t="inlineStr">
+        <is>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+        </is>
+      </c>
       <c r="M764" s="20" t="n"/>
       <c r="N764" s="20" t="n"/>
       <c r="O764" s="20" t="n"/>
@@ -39669,17 +40337,50 @@
       <c r="Q764" s="20" t="n"/>
     </row>
     <row r="765">
-      <c r="A765" s="18" t="n"/>
-      <c r="B765" s="18" t="n"/>
-      <c r="C765" s="18" t="n"/>
-      <c r="D765" s="18" t="n"/>
+      <c r="A765" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B765" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C765" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D765" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+        </is>
+      </c>
       <c r="E765" s="18" t="n"/>
-      <c r="F765" s="18" t="n"/>
+      <c r="F765" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H765" s="18" t="n"/>
-      <c r="I765" s="13" t="n"/>
+      <c r="I765" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J765" s="13" t="n"/>
       <c r="K765" s="19" t="n"/>
-      <c r="L765" s="19" t="n"/>
+      <c r="L765" s="19" t="inlineStr">
+        <is>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+        </is>
+      </c>
       <c r="M765" s="20" t="n"/>
       <c r="N765" s="20" t="n"/>
       <c r="O765" s="20" t="n"/>
@@ -39687,17 +40388,50 @@
       <c r="Q765" s="20" t="n"/>
     </row>
     <row r="766">
-      <c r="A766" s="18" t="n"/>
-      <c r="B766" s="18" t="n"/>
-      <c r="C766" s="18" t="n"/>
-      <c r="D766" s="18" t="n"/>
+      <c r="A766" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B766" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C766" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D766" s="18" t="inlineStr">
+        <is>
+          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+        </is>
+      </c>
       <c r="E766" s="18" t="n"/>
-      <c r="F766" s="18" t="n"/>
+      <c r="F766" s="18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H766" s="18" t="n"/>
-      <c r="I766" s="13" t="n"/>
+      <c r="I766" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J766" s="13" t="n"/>
       <c r="K766" s="19" t="n"/>
-      <c r="L766" s="19" t="n"/>
+      <c r="L766" s="19" t="inlineStr">
+        <is>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+        </is>
+      </c>
       <c r="M766" s="20" t="n"/>
       <c r="N766" s="20" t="n"/>
       <c r="O766" s="20" t="n"/>
@@ -39705,17 +40439,50 @@
       <c r="Q766" s="20" t="n"/>
     </row>
     <row r="767">
-      <c r="A767" s="18" t="n"/>
-      <c r="B767" s="18" t="n"/>
-      <c r="C767" s="18" t="n"/>
-      <c r="D767" s="18" t="n"/>
+      <c r="A767" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B767" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C767" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D767" s="18" t="inlineStr">
+        <is>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Gateway de Aplicativo do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+        </is>
+      </c>
       <c r="E767" s="18" t="n"/>
-      <c r="F767" s="18" t="n"/>
+      <c r="F767" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H767" s="18" t="n"/>
-      <c r="I767" s="13" t="n"/>
+      <c r="I767" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J767" s="13" t="n"/>
       <c r="K767" s="19" t="n"/>
-      <c r="L767" s="19" t="n"/>
+      <c r="L767" s="19" t="inlineStr">
+        <is>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+        </is>
+      </c>
       <c r="M767" s="20" t="n"/>
       <c r="N767" s="20" t="n"/>
       <c r="O767" s="20" t="n"/>
@@ -39723,17 +40490,50 @@
       <c r="Q767" s="20" t="n"/>
     </row>
     <row r="768">
-      <c r="A768" s="18" t="n"/>
-      <c r="B768" s="18" t="n"/>
-      <c r="C768" s="18" t="n"/>
-      <c r="D768" s="18" t="n"/>
+      <c r="A768" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B768" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C768" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D768" s="18" t="inlineStr">
+        <is>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+        </is>
+      </c>
       <c r="E768" s="18" t="n"/>
-      <c r="F768" s="18" t="n"/>
+      <c r="F768" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H768" s="18" t="n"/>
-      <c r="I768" s="13" t="n"/>
+      <c r="I768" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J768" s="13" t="n"/>
       <c r="K768" s="19" t="n"/>
-      <c r="L768" s="19" t="n"/>
+      <c r="L768" s="19" t="inlineStr">
+        <is>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+        </is>
+      </c>
       <c r="M768" s="20" t="n"/>
       <c r="N768" s="20" t="n"/>
       <c r="O768" s="20" t="n"/>
@@ -39741,17 +40541,50 @@
       <c r="Q768" s="20" t="n"/>
     </row>
     <row r="769">
-      <c r="A769" s="18" t="n"/>
-      <c r="B769" s="18" t="n"/>
-      <c r="C769" s="18" t="n"/>
-      <c r="D769" s="18" t="n"/>
+      <c r="A769" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B769" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C769" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D769" s="18" t="inlineStr">
+        <is>
+          <t>Adicione configurações de diagnóstico para salvar seus logs WAF do Gateway de Aplicativo do Azure.</t>
+        </is>
+      </c>
       <c r="E769" s="18" t="n"/>
-      <c r="F769" s="18" t="n"/>
+      <c r="F769" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H769" s="18" t="n"/>
-      <c r="I769" s="13" t="n"/>
+      <c r="I769" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J769" s="13" t="n"/>
       <c r="K769" s="19" t="n"/>
-      <c r="L769" s="19" t="n"/>
+      <c r="L769" s="19" t="inlineStr">
+        <is>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+        </is>
+      </c>
       <c r="M769" s="20" t="n"/>
       <c r="N769" s="20" t="n"/>
       <c r="O769" s="20" t="n"/>
@@ -39759,17 +40592,50 @@
       <c r="Q769" s="20" t="n"/>
     </row>
     <row r="770">
-      <c r="A770" s="18" t="n"/>
-      <c r="B770" s="18" t="n"/>
-      <c r="C770" s="18" t="n"/>
-      <c r="D770" s="18" t="n"/>
+      <c r="A770" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B770" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C770" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D770" s="18" t="inlineStr">
+        <is>
+          <t>Adicione configurações de diagnóstico para salvar seus logs do WAF do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="E770" s="18" t="n"/>
-      <c r="F770" s="18" t="n"/>
+      <c r="F770" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H770" s="18" t="n"/>
-      <c r="I770" s="13" t="n"/>
+      <c r="I770" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J770" s="13" t="n"/>
       <c r="K770" s="19" t="n"/>
-      <c r="L770" s="19" t="n"/>
+      <c r="L770" s="19" t="inlineStr">
+        <is>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+        </is>
+      </c>
       <c r="M770" s="20" t="n"/>
       <c r="N770" s="20" t="n"/>
       <c r="O770" s="20" t="n"/>
@@ -39777,17 +40643,50 @@
       <c r="Q770" s="20" t="n"/>
     </row>
     <row r="771">
-      <c r="A771" s="18" t="n"/>
-      <c r="B771" s="18" t="n"/>
-      <c r="C771" s="18" t="n"/>
-      <c r="D771" s="18" t="n"/>
+      <c r="A771" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B771" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C771" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D771" s="18" t="inlineStr">
+        <is>
+          <t>Envie logs do WAF do Gateway de Aplicativo do Azure para o Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="E771" s="18" t="n"/>
-      <c r="F771" s="18" t="n"/>
+      <c r="F771" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H771" s="18" t="n"/>
-      <c r="I771" s="13" t="n"/>
+      <c r="I771" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J771" s="13" t="n"/>
       <c r="K771" s="19" t="n"/>
-      <c r="L771" s="19" t="n"/>
+      <c r="L771" s="19" t="inlineStr">
+        <is>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+        </is>
+      </c>
       <c r="M771" s="20" t="n"/>
       <c r="N771" s="20" t="n"/>
       <c r="O771" s="20" t="n"/>
@@ -39795,17 +40694,50 @@
       <c r="Q771" s="20" t="n"/>
     </row>
     <row r="772">
-      <c r="A772" s="18" t="n"/>
-      <c r="B772" s="18" t="n"/>
-      <c r="C772" s="18" t="n"/>
-      <c r="D772" s="18" t="n"/>
+      <c r="A772" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B772" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C772" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D772" s="18" t="inlineStr">
+        <is>
+          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
+        </is>
+      </c>
       <c r="E772" s="18" t="n"/>
-      <c r="F772" s="18" t="n"/>
+      <c r="F772" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H772" s="18" t="n"/>
-      <c r="I772" s="13" t="n"/>
+      <c r="I772" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J772" s="13" t="n"/>
       <c r="K772" s="19" t="n"/>
-      <c r="L772" s="19" t="n"/>
+      <c r="L772" s="19" t="inlineStr">
+        <is>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+        </is>
+      </c>
       <c r="M772" s="20" t="n"/>
       <c r="N772" s="20" t="n"/>
       <c r="O772" s="20" t="n"/>
@@ -39813,17 +40745,50 @@
       <c r="Q772" s="20" t="n"/>
     </row>
     <row r="773">
-      <c r="A773" s="18" t="n"/>
-      <c r="B773" s="18" t="n"/>
-      <c r="C773" s="18" t="n"/>
-      <c r="D773" s="18" t="n"/>
+      <c r="A773" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B773" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C773" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D773" s="18" t="inlineStr">
+        <is>
+          <t>Defina sua configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+        </is>
+      </c>
       <c r="E773" s="18" t="n"/>
-      <c r="F773" s="18" t="n"/>
+      <c r="F773" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H773" s="18" t="n"/>
-      <c r="I773" s="13" t="n"/>
+      <c r="I773" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J773" s="13" t="n"/>
       <c r="K773" s="19" t="n"/>
-      <c r="L773" s="19" t="n"/>
+      <c r="L773" s="19" t="inlineStr">
+        <is>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+        </is>
+      </c>
       <c r="M773" s="20" t="n"/>
       <c r="N773" s="20" t="n"/>
       <c r="O773" s="20" t="n"/>
@@ -39831,17 +40796,50 @@
       <c r="Q773" s="20" t="n"/>
     </row>
     <row r="774">
-      <c r="A774" s="18" t="n"/>
-      <c r="B774" s="18" t="n"/>
-      <c r="C774" s="18" t="n"/>
-      <c r="D774" s="18" t="n"/>
+      <c r="A774" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B774" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C774" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D774" s="18" t="inlineStr">
+        <is>
+          <t>Use políticas de WAF em vez da configuração de WAF herdada.</t>
+        </is>
+      </c>
       <c r="E774" s="18" t="n"/>
-      <c r="F774" s="18" t="n"/>
+      <c r="F774" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H774" s="18" t="n"/>
-      <c r="I774" s="13" t="n"/>
+      <c r="I774" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J774" s="13" t="n"/>
       <c r="K774" s="19" t="n"/>
-      <c r="L774" s="19" t="n"/>
+      <c r="L774" s="19" t="inlineStr">
+        <is>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+        </is>
+      </c>
       <c r="M774" s="20" t="n"/>
       <c r="N774" s="20" t="n"/>
       <c r="O774" s="20" t="n"/>
@@ -39849,17 +40847,50 @@
       <c r="Q774" s="20" t="n"/>
     </row>
     <row r="775">
-      <c r="A775" s="18" t="n"/>
-      <c r="B775" s="18" t="n"/>
-      <c r="C775" s="18" t="n"/>
-      <c r="D775" s="18" t="n"/>
+      <c r="A775" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B775" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C775" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D775" s="18" t="inlineStr">
+        <is>
+          <t>Filtre o tráfego de entrada nos back-ends para que eles só aceitem conexões da sub-rede do Application Gateway, por exemplo, com NSGs.</t>
+        </is>
+      </c>
       <c r="E775" s="18" t="n"/>
-      <c r="F775" s="18" t="n"/>
+      <c r="F775" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H775" s="18" t="n"/>
-      <c r="I775" s="13" t="n"/>
+      <c r="I775" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J775" s="13" t="n"/>
       <c r="K775" s="19" t="n"/>
-      <c r="L775" s="19" t="n"/>
+      <c r="L775" s="19" t="inlineStr">
+        <is>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+        </is>
+      </c>
       <c r="M775" s="20" t="n"/>
       <c r="N775" s="20" t="n"/>
       <c r="O775" s="20" t="n"/>
@@ -39867,17 +40898,50 @@
       <c r="Q775" s="20" t="n"/>
     </row>
     <row r="776">
-      <c r="A776" s="18" t="n"/>
-      <c r="B776" s="18" t="n"/>
-      <c r="C776" s="18" t="n"/>
-      <c r="D776" s="18" t="n"/>
+      <c r="A776" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B776" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C776" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D776" s="18" t="inlineStr">
+        <is>
+          <t>Certifique-se de que suas origens recebam apenas o tráfego de sua instância do Azure Front Door.</t>
+        </is>
+      </c>
       <c r="E776" s="18" t="n"/>
-      <c r="F776" s="18" t="n"/>
+      <c r="F776" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H776" s="18" t="n"/>
-      <c r="I776" s="13" t="n"/>
+      <c r="I776" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J776" s="13" t="n"/>
       <c r="K776" s="19" t="n"/>
-      <c r="L776" s="19" t="n"/>
+      <c r="L776" s="19" t="inlineStr">
+        <is>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+        </is>
+      </c>
       <c r="M776" s="20" t="n"/>
       <c r="N776" s="20" t="n"/>
       <c r="O776" s="20" t="n"/>
@@ -39885,17 +40949,50 @@
       <c r="Q776" s="20" t="n"/>
     </row>
     <row r="777">
-      <c r="A777" s="18" t="n"/>
-      <c r="B777" s="18" t="n"/>
-      <c r="C777" s="18" t="n"/>
-      <c r="D777" s="18" t="n"/>
+      <c r="A777" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B777" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C777" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D777" s="18" t="inlineStr">
+        <is>
+          <t>Você deve criptografar o tráfego para os servidores de back-end.</t>
+        </is>
+      </c>
       <c r="E777" s="18" t="n"/>
-      <c r="F777" s="18" t="n"/>
+      <c r="F777" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H777" s="18" t="n"/>
-      <c r="I777" s="13" t="n"/>
+      <c r="I777" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J777" s="13" t="n"/>
       <c r="K777" s="19" t="n"/>
-      <c r="L777" s="19" t="n"/>
+      <c r="L777" s="19" t="inlineStr">
+        <is>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+        </is>
+      </c>
       <c r="M777" s="20" t="n"/>
       <c r="N777" s="20" t="n"/>
       <c r="O777" s="20" t="n"/>
@@ -39903,17 +41000,50 @@
       <c r="Q777" s="20" t="n"/>
     </row>
     <row r="778">
-      <c r="A778" s="18" t="n"/>
-      <c r="B778" s="18" t="n"/>
-      <c r="C778" s="18" t="n"/>
-      <c r="D778" s="18" t="n"/>
+      <c r="A778" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B778" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C778" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D778" s="18" t="inlineStr">
+        <is>
+          <t>Você deve usar um Web Application Firewall.</t>
+        </is>
+      </c>
       <c r="E778" s="18" t="n"/>
-      <c r="F778" s="18" t="n"/>
+      <c r="F778" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H778" s="18" t="n"/>
-      <c r="I778" s="13" t="n"/>
+      <c r="I778" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J778" s="13" t="n"/>
       <c r="K778" s="19" t="n"/>
-      <c r="L778" s="19" t="n"/>
+      <c r="L778" s="19" t="inlineStr">
+        <is>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+        </is>
+      </c>
       <c r="M778" s="20" t="n"/>
       <c r="N778" s="20" t="n"/>
       <c r="O778" s="20" t="n"/>
@@ -39921,17 +41051,50 @@
       <c r="Q778" s="20" t="n"/>
     </row>
     <row r="779">
-      <c r="A779" s="18" t="n"/>
-      <c r="B779" s="18" t="n"/>
-      <c r="C779" s="18" t="n"/>
-      <c r="D779" s="18" t="n"/>
+      <c r="A779" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B779" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C779" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D779" s="18" t="inlineStr">
+        <is>
+          <t>Redirecionar HTTP para HTTPS</t>
+        </is>
+      </c>
       <c r="E779" s="18" t="n"/>
-      <c r="F779" s="18" t="n"/>
+      <c r="F779" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H779" s="18" t="n"/>
-      <c r="I779" s="13" t="n"/>
+      <c r="I779" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J779" s="13" t="n"/>
       <c r="K779" s="19" t="n"/>
-      <c r="L779" s="19" t="n"/>
+      <c r="L779" s="19" t="inlineStr">
+        <is>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+        </is>
+      </c>
       <c r="M779" s="20" t="n"/>
       <c r="N779" s="20" t="n"/>
       <c r="O779" s="20" t="n"/>
@@ -39939,17 +41102,50 @@
       <c r="Q779" s="20" t="n"/>
     </row>
     <row r="780">
-      <c r="A780" s="18" t="n"/>
-      <c r="B780" s="18" t="n"/>
-      <c r="C780" s="18" t="n"/>
-      <c r="D780" s="18" t="n"/>
+      <c r="A780" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B780" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C780" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D780" s="18" t="inlineStr">
+        <is>
+          <t>Usar cookies gerenciados por gateway para direcionar o tráfego de uma sessão de usuário para o mesmo servidor para processamento</t>
+        </is>
+      </c>
       <c r="E780" s="18" t="n"/>
-      <c r="F780" s="18" t="n"/>
+      <c r="F780" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H780" s="18" t="n"/>
-      <c r="I780" s="13" t="n"/>
+      <c r="I780" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J780" s="13" t="n"/>
       <c r="K780" s="19" t="n"/>
-      <c r="L780" s="19" t="n"/>
+      <c r="L780" s="19" t="inlineStr">
+        <is>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+        </is>
+      </c>
       <c r="M780" s="20" t="n"/>
       <c r="N780" s="20" t="n"/>
       <c r="O780" s="20" t="n"/>
@@ -39957,17 +41153,50 @@
       <c r="Q780" s="20" t="n"/>
     </row>
     <row r="781">
-      <c r="A781" s="18" t="n"/>
-      <c r="B781" s="18" t="n"/>
-      <c r="C781" s="18" t="n"/>
-      <c r="D781" s="18" t="n"/>
+      <c r="A781" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B781" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C781" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D781" s="18" t="inlineStr">
+        <is>
+          <t>Habilite a drenagem de conexão durante as atualizações de serviço planejadas para evitar a perda de conexão com membrs existentes do pool de back-end</t>
+        </is>
+      </c>
       <c r="E781" s="18" t="n"/>
-      <c r="F781" s="18" t="n"/>
+      <c r="F781" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H781" s="18" t="n"/>
-      <c r="I781" s="13" t="n"/>
+      <c r="I781" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J781" s="13" t="n"/>
       <c r="K781" s="19" t="n"/>
-      <c r="L781" s="19" t="n"/>
+      <c r="L781" s="19" t="inlineStr">
+        <is>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+        </is>
+      </c>
       <c r="M781" s="20" t="n"/>
       <c r="N781" s="20" t="n"/>
       <c r="O781" s="20" t="n"/>
@@ -39975,17 +41204,50 @@
       <c r="Q781" s="20" t="n"/>
     </row>
     <row r="782">
-      <c r="A782" s="18" t="n"/>
-      <c r="B782" s="18" t="n"/>
-      <c r="C782" s="18" t="n"/>
-      <c r="D782" s="18" t="n"/>
+      <c r="A782" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B782" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C782" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D782" s="18" t="inlineStr">
+        <is>
+          <t>Criar páginas de erro personalizadas para exibir uma experiência de usuário personalizada</t>
+        </is>
+      </c>
       <c r="E782" s="18" t="n"/>
-      <c r="F782" s="18" t="n"/>
+      <c r="F782" s="18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H782" s="18" t="n"/>
-      <c r="I782" s="13" t="n"/>
+      <c r="I782" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J782" s="13" t="n"/>
       <c r="K782" s="19" t="n"/>
-      <c r="L782" s="19" t="n"/>
+      <c r="L782" s="19" t="inlineStr">
+        <is>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+        </is>
+      </c>
       <c r="M782" s="20" t="n"/>
       <c r="N782" s="20" t="n"/>
       <c r="O782" s="20" t="n"/>
@@ -39993,17 +41255,50 @@
       <c r="Q782" s="20" t="n"/>
     </row>
     <row r="783">
-      <c r="A783" s="18" t="n"/>
-      <c r="B783" s="18" t="n"/>
-      <c r="C783" s="18" t="n"/>
-      <c r="D783" s="18" t="n"/>
+      <c r="A783" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B783" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C783" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D783" s="18" t="inlineStr">
+        <is>
+          <t>Edite solicitações HTTP e cabeçalhos de resposta para facilitar o roteamento e a troca de informações entre o cliente e o servidor</t>
+        </is>
+      </c>
       <c r="E783" s="18" t="n"/>
-      <c r="F783" s="18" t="n"/>
+      <c r="F783" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H783" s="18" t="n"/>
-      <c r="I783" s="13" t="n"/>
+      <c r="I783" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J783" s="13" t="n"/>
       <c r="K783" s="19" t="n"/>
-      <c r="L783" s="19" t="n"/>
+      <c r="L783" s="19" t="inlineStr">
+        <is>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+        </is>
+      </c>
       <c r="M783" s="20" t="n"/>
       <c r="N783" s="20" t="n"/>
       <c r="O783" s="20" t="n"/>
@@ -40011,17 +41306,50 @@
       <c r="Q783" s="20" t="n"/>
     </row>
     <row r="784">
-      <c r="A784" s="18" t="n"/>
-      <c r="B784" s="18" t="n"/>
-      <c r="C784" s="18" t="n"/>
-      <c r="D784" s="18" t="n"/>
+      <c r="A784" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B784" s="18" t="inlineStr">
+        <is>
+          <t>Desempenho</t>
+        </is>
+      </c>
+      <c r="C784" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D784" s="18" t="inlineStr">
+        <is>
+          <t>Configure o Front Door para otimizar o roteamento de tráfego global da Web e o desempenho do usuário final de nível superior e a confiabilidade por meio de failover global rápido</t>
+        </is>
+      </c>
       <c r="E784" s="18" t="n"/>
-      <c r="F784" s="18" t="n"/>
+      <c r="F784" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H784" s="18" t="n"/>
-      <c r="I784" s="13" t="n"/>
+      <c r="I784" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J784" s="13" t="n"/>
       <c r="K784" s="19" t="n"/>
-      <c r="L784" s="19" t="n"/>
+      <c r="L784" s="19" t="inlineStr">
+        <is>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+        </is>
+      </c>
       <c r="M784" s="20" t="n"/>
       <c r="N784" s="20" t="n"/>
       <c r="O784" s="20" t="n"/>
@@ -40029,17 +41357,50 @@
       <c r="Q784" s="20" t="n"/>
     </row>
     <row r="785">
-      <c r="A785" s="18" t="n"/>
-      <c r="B785" s="18" t="n"/>
-      <c r="C785" s="18" t="n"/>
-      <c r="D785" s="18" t="n"/>
+      <c r="A785" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B785" s="18" t="inlineStr">
+        <is>
+          <t>Desempenho</t>
+        </is>
+      </c>
+      <c r="C785" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D785" s="18" t="inlineStr">
+        <is>
+          <t>Usar balanceamento de carga da camada de transporte</t>
+        </is>
+      </c>
       <c r="E785" s="18" t="n"/>
-      <c r="F785" s="18" t="n"/>
+      <c r="F785" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H785" s="18" t="n"/>
-      <c r="I785" s="13" t="n"/>
+      <c r="I785" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J785" s="13" t="n"/>
       <c r="K785" s="19" t="n"/>
-      <c r="L785" s="19" t="n"/>
+      <c r="L785" s="19" t="inlineStr">
+        <is>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+        </is>
+      </c>
       <c r="M785" s="20" t="n"/>
       <c r="N785" s="20" t="n"/>
       <c r="O785" s="20" t="n"/>
@@ -40047,17 +41408,50 @@
       <c r="Q785" s="20" t="n"/>
     </row>
     <row r="786">
-      <c r="A786" s="18" t="n"/>
-      <c r="B786" s="18" t="n"/>
-      <c r="C786" s="18" t="n"/>
-      <c r="D786" s="18" t="n"/>
+      <c r="A786" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B786" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C786" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D786" s="18" t="inlineStr">
+        <is>
+          <t>Configurar o roteamento com base no host ou nome de domínio para vários aplicativos Web em um único gateway</t>
+        </is>
+      </c>
       <c r="E786" s="18" t="n"/>
-      <c r="F786" s="18" t="n"/>
+      <c r="F786" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H786" s="18" t="n"/>
-      <c r="I786" s="13" t="n"/>
+      <c r="I786" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J786" s="13" t="n"/>
       <c r="K786" s="19" t="n"/>
-      <c r="L786" s="19" t="n"/>
+      <c r="L786" s="19" t="inlineStr">
+        <is>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+        </is>
+      </c>
       <c r="M786" s="20" t="n"/>
       <c r="N786" s="20" t="n"/>
       <c r="O786" s="20" t="n"/>
@@ -40065,17 +41459,50 @@
       <c r="Q786" s="20" t="n"/>
     </row>
     <row r="787">
-      <c r="A787" s="18" t="n"/>
-      <c r="B787" s="18" t="n"/>
-      <c r="C787" s="18" t="n"/>
-      <c r="D787" s="18" t="n"/>
+      <c r="A787" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B787" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C787" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D787" s="18" t="inlineStr">
+        <is>
+          <t>Centralize o gerenciamento de certificados SSL para reduzir a sobrecarga de criptografia e descriptografia de um farm de servidores back-end</t>
+        </is>
+      </c>
       <c r="E787" s="18" t="n"/>
-      <c r="F787" s="18" t="n"/>
+      <c r="F787" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H787" s="18" t="n"/>
-      <c r="I787" s="13" t="n"/>
+      <c r="I787" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J787" s="13" t="n"/>
       <c r="K787" s="19" t="n"/>
-      <c r="L787" s="19" t="n"/>
+      <c r="L787" s="19" t="inlineStr">
+        <is>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+        </is>
+      </c>
       <c r="M787" s="20" t="n"/>
       <c r="N787" s="20" t="n"/>
       <c r="O787" s="20" t="n"/>
@@ -40083,17 +41510,50 @@
       <c r="Q787" s="20" t="n"/>
     </row>
     <row r="788">
-      <c r="A788" s="18" t="n"/>
-      <c r="B788" s="18" t="n"/>
-      <c r="C788" s="18" t="n"/>
-      <c r="D788" s="18" t="n"/>
+      <c r="A788" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B788" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C788" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D788" s="18" t="inlineStr">
+        <is>
+          <t>Usar o Application Gateway para suporte nativo para protocolos WebSocket e HTTP/2</t>
+        </is>
+      </c>
       <c r="E788" s="18" t="n"/>
-      <c r="F788" s="18" t="n"/>
+      <c r="F788" s="18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G788" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H788" s="18" t="n"/>
-      <c r="I788" s="13" t="n"/>
+      <c r="I788" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J788" s="13" t="n"/>
       <c r="K788" s="19" t="n"/>
-      <c r="L788" s="19" t="n"/>
+      <c r="L788" s="19" t="inlineStr">
+        <is>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+        </is>
+      </c>
       <c r="M788" s="20" t="n"/>
       <c r="N788" s="20" t="n"/>
       <c r="O788" s="20" t="n"/>
@@ -47751,7 +49211,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G741" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G789" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -48385,6 +49845,54 @@
     <hyperlink ref="I738" r:id="rId627"/>
     <hyperlink ref="I739" r:id="rId628"/>
     <hyperlink ref="I740" r:id="rId629"/>
+    <hyperlink ref="I741" r:id="rId630"/>
+    <hyperlink ref="I742" r:id="rId631"/>
+    <hyperlink ref="I743" r:id="rId632"/>
+    <hyperlink ref="I744" r:id="rId633"/>
+    <hyperlink ref="I745" r:id="rId634"/>
+    <hyperlink ref="I746" r:id="rId635"/>
+    <hyperlink ref="I747" r:id="rId636"/>
+    <hyperlink ref="I748" r:id="rId637"/>
+    <hyperlink ref="I749" r:id="rId638"/>
+    <hyperlink ref="I750" r:id="rId639"/>
+    <hyperlink ref="I751" r:id="rId640"/>
+    <hyperlink ref="I752" r:id="rId641"/>
+    <hyperlink ref="I753" r:id="rId642"/>
+    <hyperlink ref="I754" r:id="rId643"/>
+    <hyperlink ref="I755" r:id="rId644"/>
+    <hyperlink ref="I756" r:id="rId645"/>
+    <hyperlink ref="I757" r:id="rId646"/>
+    <hyperlink ref="I758" r:id="rId647"/>
+    <hyperlink ref="I759" r:id="rId648"/>
+    <hyperlink ref="I760" r:id="rId649"/>
+    <hyperlink ref="I761" r:id="rId650"/>
+    <hyperlink ref="I762" r:id="rId651"/>
+    <hyperlink ref="I763" r:id="rId652"/>
+    <hyperlink ref="I764" r:id="rId653"/>
+    <hyperlink ref="I765" r:id="rId654"/>
+    <hyperlink ref="I766" r:id="rId655"/>
+    <hyperlink ref="I767" r:id="rId656"/>
+    <hyperlink ref="I768" r:id="rId657"/>
+    <hyperlink ref="I769" r:id="rId658"/>
+    <hyperlink ref="I770" r:id="rId659"/>
+    <hyperlink ref="I771" r:id="rId660"/>
+    <hyperlink ref="I772" r:id="rId661"/>
+    <hyperlink ref="I773" r:id="rId662"/>
+    <hyperlink ref="I774" r:id="rId663"/>
+    <hyperlink ref="I775" r:id="rId664"/>
+    <hyperlink ref="I776" r:id="rId665"/>
+    <hyperlink ref="I777" r:id="rId666"/>
+    <hyperlink ref="I778" r:id="rId667"/>
+    <hyperlink ref="I779" r:id="rId668"/>
+    <hyperlink ref="I780" r:id="rId669"/>
+    <hyperlink ref="I781" r:id="rId670"/>
+    <hyperlink ref="I782" r:id="rId671"/>
+    <hyperlink ref="I783" r:id="rId672"/>
+    <hyperlink ref="I784" r:id="rId673"/>
+    <hyperlink ref="I785" r:id="rId674"/>
+    <hyperlink ref="I786" r:id="rId675"/>
+    <hyperlink ref="I787" r:id="rId676"/>
+    <hyperlink ref="I788" r:id="rId677"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -35879,26 +35879,30 @@
     <row r="677">
       <c r="A677" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B677" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C677" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D677" s="18" t="inlineStr">
         <is>
-          <t>Regras de coleta de dados no Azure Monitor -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview</t>
+          <t>Aproveite o servidor flexível</t>
         </is>
       </c>
       <c r="E677" s="18" t="n"/>
-      <c r="F677" s="18" t="n"/>
+      <c r="F677" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="G677" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -35910,15 +35914,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J677" s="31" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/pricing/reservations/</t>
-        </is>
-      </c>
+      <c r="J677" s="13" t="n"/>
       <c r="K677" s="19" t="n"/>
       <c r="L677" s="19" t="inlineStr">
         <is>
-          <t>a95b86ad-8840-48e3-9273-4b875ba18f20</t>
+          <t>388c3e25-e800-4ad2-9df3-f3d6ae1050b7</t>
         </is>
       </c>
       <c r="M677" s="20" t="n"/>
@@ -35930,26 +35930,30 @@
     <row r="678">
       <c r="A678" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B678" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C678" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D678" s="18" t="inlineStr">
         <is>
-          <t>Verificar instâncias de backup com a fonte de dados subjacente não encontrada</t>
+          <t>Aproveite as zonas de disponibilidade quando aplicável regionalmente</t>
         </is>
       </c>
       <c r="E678" s="18" t="n"/>
-      <c r="F678" s="18" t="n"/>
+      <c r="F678" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
       <c r="G678" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -35965,7 +35969,7 @@
       <c r="K678" s="19" t="n"/>
       <c r="L678" s="19" t="inlineStr">
         <is>
-          <t>45901365-d38e-443f-abcb-d868266abca2</t>
+          <t>de3aad1e-8c38-4ec9-9666-7313c005674b</t>
         </is>
       </c>
       <c r="M678" s="20" t="n"/>
@@ -35977,26 +35981,30 @@
     <row r="679">
       <c r="A679" s="18" t="inlineStr">
         <is>
-          <t>Cost Optimization Checklist</t>
+          <t>MySQL Review Checklist</t>
         </is>
       </c>
       <c r="B679" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C679" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure MySQL</t>
         </is>
       </c>
       <c r="D679" s="18" t="inlineStr">
         <is>
-          <t>Excluir ou arquivar serviços não associados (discos, nics, endereços IP etc.)</t>
+          <t>Aproveite a replicação de dados para cenários de DR entre regiões</t>
         </is>
       </c>
       <c r="E679" s="18" t="n"/>
-      <c r="F679" s="18" t="n"/>
+      <c r="F679" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
       <c r="G679" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -36012,7 +36020,7 @@
       <c r="K679" s="19" t="n"/>
       <c r="L679" s="19" t="inlineStr">
         <is>
-          <t>64f9a19a-f29c-495d-94c6-c7919ca0f6c5</t>
+          <t>1e944a45-9c37-43e7-bd61-623b365a917e</t>
         </is>
       </c>
       <c r="M679" s="20" t="n"/>
@@ -36034,12 +36042,12 @@
       </c>
       <c r="C680" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D680" s="18" t="inlineStr">
         <is>
-          <t>Considere um bom equilíbrio entre recuperação de local, armazenamento e backup para aplicativos não essenciais</t>
+          <t>Regras de coleta de dados no Azure Monitor -https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-rule-overview</t>
         </is>
       </c>
       <c r="E680" s="18" t="n"/>
@@ -36055,11 +36063,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J680" s="13" t="n"/>
+      <c r="J680" s="31" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
+        </is>
+      </c>
       <c r="K680" s="19" t="n"/>
       <c r="L680" s="19" t="inlineStr">
         <is>
-          <t>69bad37a-ad53-4cc7-ae1d-76667357c449</t>
+          <t>a95b86ad-8840-48e3-9273-4b875ba18f20</t>
         </is>
       </c>
       <c r="M680" s="20" t="n"/>
@@ -36081,12 +36093,12 @@
       </c>
       <c r="C681" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D681" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique os gastos e as oportunidades de economia entre os 40 diferentes espaços de trabalho de análise de log - use retenção e coleta de dados diferentes para espaços de trabalho não prod - crie limite diário para reconhecimento e dimensionamento de camadas - Se você definir um limite diário, além de criar um alerta quando o limite for atingido, certifique-se de também criar uma regra de alerta para ser notificado quando alguma porcentagem for atingida (90%, por exemplo). - considerar a transformação do espaço de trabalho, se possível - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
+          <t>Verificar instâncias de backup com a fonte de dados subjacente não encontrada</t>
         </is>
       </c>
       <c r="E681" s="18" t="n"/>
@@ -36102,15 +36114,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J681" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/understand-work-scopes</t>
-        </is>
-      </c>
+      <c r="J681" s="13" t="n"/>
       <c r="K681" s="19" t="n"/>
       <c r="L681" s="19" t="inlineStr">
         <is>
-          <t>674b5ed8-5a85-49c7-933b-e2a1a27b765a</t>
+          <t>45901365-d38e-443f-abcb-d868266abca2</t>
         </is>
       </c>
       <c r="M681" s="20" t="n"/>
@@ -36132,12 +36140,12 @@
       </c>
       <c r="C682" s="18" t="inlineStr">
         <is>
-          <t>Azure Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D682" s="18" t="inlineStr">
         <is>
-          <t>Impor uma política de log de limpeza e automação (se necessário, os logs podem ser movidos para armazenamento frio)</t>
+          <t>Excluir ou arquivar serviços não associados (discos, nics, endereços IP etc.)</t>
         </is>
       </c>
       <c r="E682" s="18" t="n"/>
@@ -36153,15 +36161,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J682" s="31" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=nHQYcYGKuyw</t>
-        </is>
-      </c>
+      <c r="J682" s="13" t="n"/>
       <c r="K682" s="19" t="n"/>
       <c r="L682" s="19" t="inlineStr">
         <is>
-          <t>91be1f38-8ef3-494c-8bd4-63cbbac75819</t>
+          <t>64f9a19a-f29c-495d-94c6-c7919ca0f6c5</t>
         </is>
       </c>
       <c r="M682" s="20" t="n"/>
@@ -36183,12 +36187,12 @@
       </c>
       <c r="C683" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D683" s="18" t="inlineStr">
         <is>
-          <t>Verifique se os discos são realmente necessários, se não: excluir. Se forem necessários, encontre níveis de armazenamento mais baixos ou use backup -</t>
+          <t>Considere um bom equilíbrio entre recuperação de local, armazenamento e backup para aplicativos não essenciais</t>
         </is>
       </c>
       <c r="E683" s="18" t="n"/>
@@ -36204,15 +36208,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J683" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/manage-automation</t>
-        </is>
-      </c>
+      <c r="J683" s="13" t="n"/>
       <c r="K683" s="19" t="n"/>
       <c r="L683" s="19" t="inlineStr">
         <is>
-          <t>6aae01e6-a84d-4e5d-b36d-1d92881a1bd5</t>
+          <t>69bad37a-ad53-4cc7-ae1d-76667357c449</t>
         </is>
       </c>
       <c r="M683" s="20" t="n"/>
@@ -36234,12 +36234,12 @@
       </c>
       <c r="C684" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D684" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere mover o armazenamento não utilizado para o nível inferior, com regra personalizada - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
+          <t xml:space="preserve">Verifique os gastos e as oportunidades de economia entre os 40 diferentes espaços de trabalho de análise de log - use retenção e coleta de dados diferentes para espaços de trabalho não prod - crie limite diário para reconhecimento e dimensionamento de camadas - Se você definir um limite diário, além de criar um alerta quando o limite for atingido, certifique-se de também criar uma regra de alerta para ser notificado quando alguma porcentagem for atingida (90%, por exemplo). - considerar a transformação do espaço de trabalho, se possível - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr </t>
         </is>
       </c>
       <c r="E684" s="18" t="n"/>
@@ -36257,13 +36257,13 @@
       </c>
       <c r="J684" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/understand-work-scopes</t>
         </is>
       </c>
       <c r="K684" s="19" t="n"/>
       <c r="L684" s="19" t="inlineStr">
         <is>
-          <t>d1e44a19-659d-4395-afd7-7289b835556d</t>
+          <t>674b5ed8-5a85-49c7-933b-e2a1a27b765a</t>
         </is>
       </c>
       <c r="M684" s="20" t="n"/>
@@ -36285,12 +36285,12 @@
       </c>
       <c r="C685" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Azure Monitor</t>
         </is>
       </c>
       <c r="D685" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Verifique se o Advisor está configurado para o dimensionamento correto da VM </t>
+          <t>Impor uma política de log de limpeza e automação (se necessário, os logs podem ser movidos para armazenamento frio)</t>
         </is>
       </c>
       <c r="E685" s="18" t="n"/>
@@ -36306,11 +36306,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J685" s="13" t="n"/>
+      <c r="J685" s="31" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=nHQYcYGKuyw</t>
+        </is>
+      </c>
       <c r="K685" s="19" t="n"/>
       <c r="L685" s="19" t="inlineStr">
         <is>
-          <t>d0102cac-6aae-401e-9a84-de5de36d1d92</t>
+          <t>91be1f38-8ef3-494c-8bd4-63cbbac75819</t>
         </is>
       </c>
       <c r="M685" s="20" t="n"/>
@@ -36337,14 +36341,10 @@
       </c>
       <c r="D686" s="18" t="inlineStr">
         <is>
-          <t>executar o script em todas as VMs do Windows https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- considere implementar uma diretiva se as VMs do Windows forem criadas com frequência</t>
-        </is>
-      </c>
-      <c r="E686" s="18" t="inlineStr">
-        <is>
-          <t>verifique pesquisando as Licenças de Categoria de Medidor na Análise de Custos</t>
-        </is>
-      </c>
+          <t>Verifique se os discos são realmente necessários, se não: excluir. Se forem necessários, encontre níveis de armazenamento mais baixos ou use backup -</t>
+        </is>
+      </c>
+      <c r="E686" s="18" t="n"/>
       <c r="F686" s="18" t="n"/>
       <c r="G686" t="inlineStr">
         <is>
@@ -36357,11 +36357,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J686" s="13" t="n"/>
+      <c r="J686" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/manage-automation</t>
+        </is>
+      </c>
       <c r="K686" s="19" t="n"/>
       <c r="L686" s="19" t="inlineStr">
         <is>
-          <t>59ae568b-a38d-4498-9e22-13dbd7bb012f</t>
+          <t>6aae01e6-a84d-4e5d-b36d-1d92881a1bd5</t>
         </is>
       </c>
       <c r="M686" s="20" t="n"/>
@@ -36383,12 +36387,12 @@
       </c>
       <c r="C687" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D687" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> isso também pode ser colocado no AHUB se você já tiver licenças https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t xml:space="preserve">Considere mover o armazenamento não utilizado para o nível inferior, com regra personalizada - https://learn.microsoft.com/azure/storage/blobs/lifecycle-management-policy-configure  </t>
         </is>
       </c>
       <c r="E687" s="18" t="n"/>
@@ -36404,11 +36408,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J687" s="13" t="n"/>
+      <c r="J687" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/enable-tag-inheritance</t>
+        </is>
+      </c>
       <c r="K687" s="19" t="n"/>
       <c r="L687" s="19" t="inlineStr">
         <is>
-          <t>7b95e06e-158e-42ea-9992-c2de6e2065b3</t>
+          <t>d1e44a19-659d-4395-afd7-7289b835556d</t>
         </is>
       </c>
       <c r="M687" s="20" t="n"/>
@@ -36435,7 +36443,7 @@
       </c>
       <c r="D688" s="18" t="inlineStr">
         <is>
-          <t>Consolidar famílias de VM reservadas com opção de flexibilidade (não mais do que 4-5 famílias)</t>
+          <t xml:space="preserve">Verifique se o Advisor está configurado para o dimensionamento correto da VM </t>
         </is>
       </c>
       <c r="E688" s="18" t="n"/>
@@ -36451,15 +36459,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J688" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management</t>
-        </is>
-      </c>
+      <c r="J688" s="13" t="n"/>
       <c r="K688" s="19" t="n"/>
       <c r="L688" s="19" t="inlineStr">
         <is>
-          <t>75c1e945-b459-4837-bf7a-e7c6d3b475a5</t>
+          <t>d0102cac-6aae-401e-9a84-de5de36d1d92</t>
         </is>
       </c>
       <c r="M688" s="20" t="n"/>
@@ -36486,10 +36490,14 @@
       </c>
       <c r="D689" s="18" t="inlineStr">
         <is>
-          <t>Utilize instâncias reservadas do Azure: esse recurso permite reservar VMs por um período de 1 ou 3 anos, proporcionando uma economia significativa em comparação com os preços do PAYG.</t>
-        </is>
-      </c>
-      <c r="E689" s="18" t="n"/>
+          <t>executar o script em todas as VMs do Windows https://learn.microsoft.com/azure/virtual-machines/windows/hybrid-use-benefit-licensing?ref=andrewmatveychuk.com#convert-an-existing-vm-using-azure-hybrid-benefit-for-windows-server- considere implementar uma diretiva se as VMs do Windows forem criadas com frequência</t>
+        </is>
+      </c>
+      <c r="E689" s="18" t="inlineStr">
+        <is>
+          <t>verifique pesquisando as Licenças de Categoria de Medidor na Análise de Custos</t>
+        </is>
+      </c>
       <c r="F689" s="18" t="n"/>
       <c r="G689" t="inlineStr">
         <is>
@@ -36506,7 +36514,7 @@
       <c r="K689" s="19" t="n"/>
       <c r="L689" s="19" t="inlineStr">
         <is>
-          <t>c7acbe49-bbe6-44dd-a9f2-e87778468d55</t>
+          <t>59ae568b-a38d-4498-9e22-13dbd7bb012f</t>
         </is>
       </c>
       <c r="M689" s="20" t="n"/>
@@ -36533,7 +36541,7 @@
       </c>
       <c r="D690" s="18" t="inlineStr">
         <is>
-          <t>Somente discos maiores podem ser reservados =&gt; 1 TiB -</t>
+          <t xml:space="preserve"> isso também pode ser colocado no AHUB se você já tiver licenças https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="E690" s="18" t="n"/>
@@ -36553,7 +36561,7 @@
       <c r="K690" s="19" t="n"/>
       <c r="L690" s="19" t="inlineStr">
         <is>
-          <t>a6bcca2b-4fea-41db-b3dd-95d48c7c891d</t>
+          <t>7b95e06e-158e-42ea-9992-c2de6e2065b3</t>
         </is>
       </c>
       <c r="M690" s="20" t="n"/>
@@ -36580,7 +36588,7 @@
       </c>
       <c r="D691" s="18" t="inlineStr">
         <is>
-          <t>Após a otimização do dimensionamento correto</t>
+          <t>Consolidar famílias de VM reservadas com opção de flexibilidade (não mais do que 4-5 famílias)</t>
         </is>
       </c>
       <c r="E691" s="18" t="n"/>
@@ -36596,11 +36604,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J691" s="13" t="n"/>
+      <c r="J691" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management</t>
+        </is>
+      </c>
       <c r="K691" s="19" t="n"/>
       <c r="L691" s="19" t="inlineStr">
         <is>
-          <t>cb1f7d57-59ae-4568-aa38-d4985e2213db</t>
+          <t>75c1e945-b459-4837-bf7a-e7c6d3b475a5</t>
         </is>
       </c>
       <c r="M691" s="20" t="n"/>
@@ -36622,12 +36634,12 @@
       </c>
       <c r="C692" s="18" t="inlineStr">
         <is>
-          <t>Azure SQL</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D692" s="18" t="inlineStr">
         <is>
-          <t>Verifique se aplicável e aplique a política/alteração https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
+          <t>Utilize instâncias reservadas do Azure: esse recurso permite reservar VMs por um período de 1 ou 3 anos, proporcionando uma economia significativa em comparação com os preços do PAYG.</t>
         </is>
       </c>
       <c r="E692" s="18" t="n"/>
@@ -36647,7 +36659,7 @@
       <c r="K692" s="19" t="n"/>
       <c r="L692" s="19" t="inlineStr">
         <is>
-          <t>d7bb012f-7b95-4e06-b158-e2ea3992c2de</t>
+          <t>c7acbe49-bbe6-44dd-a9f2-e87778468d55</t>
         </is>
       </c>
       <c r="M692" s="20" t="n"/>
@@ -36674,7 +36686,7 @@
       </c>
       <c r="D693" s="18" t="inlineStr">
         <is>
-          <t>O desconto da peça de licença VM + (ahub + 3YRI) é de cerca de 70% de desconto</t>
+          <t>Somente discos maiores podem ser reservados =&gt; 1 TiB -</t>
         </is>
       </c>
       <c r="E693" s="18" t="n"/>
@@ -36694,7 +36706,7 @@
       <c r="K693" s="19" t="n"/>
       <c r="L693" s="19" t="inlineStr">
         <is>
-          <t>6e2065b3-a76a-4f4a-991e-8839ada46667</t>
+          <t>a6bcca2b-4fea-41db-b3dd-95d48c7c891d</t>
         </is>
       </c>
       <c r="M693" s="20" t="n"/>
@@ -36721,7 +36733,7 @@
       </c>
       <c r="D694" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso de um VMSS para corresponder à demanda em vez de dimensionamento simples</t>
+          <t>Após a otimização do dimensionamento correto</t>
         </is>
       </c>
       <c r="E694" s="18" t="n"/>
@@ -36741,7 +36753,7 @@
       <c r="K694" s="19" t="n"/>
       <c r="L694" s="19" t="inlineStr">
         <is>
-          <t>ccbd9792-a6bc-4ca2-a4fe-a1dbf3dd95d4</t>
+          <t>cb1f7d57-59ae-4568-aa38-d4985e2213db</t>
         </is>
       </c>
       <c r="M694" s="20" t="n"/>
@@ -36763,12 +36775,12 @@
       </c>
       <c r="C695" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure SQL</t>
         </is>
       </c>
       <c r="D695" s="18" t="inlineStr">
         <is>
-          <t>Use o autoscaler AKS para corresponder ao uso de clusters (verifique se os requisitos dos pods correspondem ao dimensionador)</t>
+          <t>Verifique se aplicável e aplique a política/alteração https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
         </is>
       </c>
       <c r="E695" s="18" t="n"/>
@@ -36788,7 +36800,7 @@
       <c r="K695" s="19" t="n"/>
       <c r="L695" s="19" t="inlineStr">
         <is>
-          <t>c1b1cd52-1e54-4a29-a9de-39ac0e7c28dc</t>
+          <t>d7bb012f-7b95-4e06-b158-e2ea3992c2de</t>
         </is>
       </c>
       <c r="M695" s="20" t="n"/>
@@ -36810,12 +36822,12 @@
       </c>
       <c r="C696" s="18" t="inlineStr">
         <is>
-          <t>Azure Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D696" s="18" t="inlineStr">
         <is>
-          <t>Mover pontos de recuperação para o vault-archive, quando aplicável (Validar)</t>
+          <t>O desconto da peça de licença VM + (ahub + 3YRI) é de cerca de 70% de desconto</t>
         </is>
       </c>
       <c r="E696" s="18" t="n"/>
@@ -36831,15 +36843,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J696" s="31" t="inlineStr">
-        <is>
-          <t>https://azure.microsoft.com/pricing/reservations/</t>
-        </is>
-      </c>
+      <c r="J696" s="13" t="n"/>
       <c r="K696" s="19" t="n"/>
       <c r="L696" s="19" t="inlineStr">
         <is>
-          <t>44be3b1a-27f8-4b9e-a1be-1f38df03a822</t>
+          <t>6e2065b3-a76a-4f4a-991e-8839ada46667</t>
         </is>
       </c>
       <c r="M696" s="20" t="n"/>
@@ -36861,12 +36869,12 @@
       </c>
       <c r="C697" s="18" t="inlineStr">
         <is>
-          <t>Databricks</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D697" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso de VMs spot com fallback sempre que possível. Considere o autotermination de clusters.</t>
+          <t>Considere o uso de um VMSS para corresponder à demanda em vez de dimensionamento simples</t>
         </is>
       </c>
       <c r="E697" s="18" t="n"/>
@@ -36886,7 +36894,7 @@
       <c r="K697" s="19" t="n"/>
       <c r="L697" s="19" t="inlineStr">
         <is>
-          <t>cd463cbb-bc8a-4c29-aebc-91a43da1dae2</t>
+          <t>ccbd9792-a6bc-4ca2-a4fe-a1dbf3dd95d4</t>
         </is>
       </c>
       <c r="M697" s="20" t="n"/>
@@ -36908,12 +36916,12 @@
       </c>
       <c r="C698" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D698" s="18" t="inlineStr">
         <is>
-          <t>Funções - Reutilizar conexões</t>
+          <t>Use o autoscaler AKS para corresponder ao uso de clusters (verifique se os requisitos dos pods correspondem ao dimensionador)</t>
         </is>
       </c>
       <c r="E698" s="18" t="n"/>
@@ -36929,15 +36937,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J698" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/reservation-apis?toc=%2Fazure%2Fcost-management-billing%2Ftoc.json</t>
-        </is>
-      </c>
+      <c r="J698" s="13" t="n"/>
       <c r="K698" s="19" t="n"/>
       <c r="L698" s="19" t="inlineStr">
         <is>
-          <t>cc881470-607c-41cc-a0e6-14658dd458e9</t>
+          <t>c1b1cd52-1e54-4a29-a9de-39ac0e7c28dc</t>
         </is>
       </c>
       <c r="M698" s="20" t="n"/>
@@ -36959,12 +36963,12 @@
       </c>
       <c r="C699" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Azure Backup</t>
         </is>
       </c>
       <c r="D699" s="18" t="inlineStr">
         <is>
-          <t>Funções - Armazenar dados em cache localmente</t>
+          <t>Mover pontos de recuperação para o vault-archive, quando aplicável (Validar)</t>
         </is>
       </c>
       <c r="E699" s="18" t="n"/>
@@ -36982,13 +36986,13 @@
       </c>
       <c r="J699" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://azure.microsoft.com/pricing/reservations/</t>
         </is>
       </c>
       <c r="K699" s="19" t="n"/>
       <c r="L699" s="19" t="inlineStr">
         <is>
-          <t>27139b82-1102-4dbd-9eaf-11e6f843e52f</t>
+          <t>44be3b1a-27f8-4b9e-a1be-1f38df03a822</t>
         </is>
       </c>
       <c r="M699" s="20" t="n"/>
@@ -37010,12 +37014,12 @@
       </c>
       <c r="C700" s="18" t="inlineStr">
         <is>
-          <t>Azure Functions</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="D700" s="18" t="inlineStr">
         <is>
-          <t>Funções - Partidas a frio - Use a funcionalidade 'Executar do pacote'. Dessa forma, o código é baixado como um único arquivo zip. Isso pode, por exemplo, resultar em melhorias significativas com as funções Javascript, que possuem muitos módulos de nó. Use ferramentas específicas de linguagem para reduzir o tamanho do pacote, por exemplo, aplicativos Javascript que agitam árvores.</t>
+          <t>Considere o uso de VMs spot com fallback sempre que possível. Considere o autotermination de clusters.</t>
         </is>
       </c>
       <c r="E700" s="18" t="n"/>
@@ -37031,15 +37035,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J700" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J700" s="13" t="n"/>
       <c r="K700" s="19" t="n"/>
       <c r="L700" s="19" t="inlineStr">
         <is>
-          <t>4722d928-c1b1-4cd5-81e5-4a29b9de39ac</t>
+          <t>cd463cbb-bc8a-4c29-aebc-91a43da1dae2</t>
         </is>
       </c>
       <c r="M700" s="20" t="n"/>
@@ -37066,7 +37066,7 @@
       </c>
       <c r="D701" s="18" t="inlineStr">
         <is>
-          <t>Funções - Mantenha suas funções aquecidas</t>
+          <t>Funções - Reutilizar conexões</t>
         </is>
       </c>
       <c r="E701" s="18" t="n"/>
@@ -37084,13 +37084,13 @@
       </c>
       <c r="J701" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/reservation-apis?toc=%2Fazure%2Fcost-management-billing%2Ftoc.json</t>
         </is>
       </c>
       <c r="K701" s="19" t="n"/>
       <c r="L701" s="19" t="inlineStr">
         <is>
-          <t>0e7c28dc-9366-4572-82bf-f4564b0d934a</t>
+          <t>cc881470-607c-41cc-a0e6-14658dd458e9</t>
         </is>
       </c>
       <c r="M701" s="20" t="n"/>
@@ -37117,7 +37117,7 @@
       </c>
       <c r="D702" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o dimensionamento automático com funções diferentes, pode haver um que conduza todo o dimensionamento automático para todos os recursos - considere movê-lo para um plano de consumo separado (e considere um plano mais alto para a CPU)</t>
+          <t>Funções - Armazenar dados em cache localmente</t>
         </is>
       </c>
       <c r="E702" s="18" t="n"/>
@@ -37133,11 +37133,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J702" s="13" t="n"/>
+      <c r="J702" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="K702" s="19" t="n"/>
       <c r="L702" s="19" t="inlineStr">
         <is>
-          <t>359c363e-7dd6-4162-9a36-4a907ebae38e</t>
+          <t>27139b82-1102-4dbd-9eaf-11e6f843e52f</t>
         </is>
       </c>
       <c r="M702" s="20" t="n"/>
@@ -37164,7 +37168,7 @@
       </c>
       <c r="D703" s="18" t="inlineStr">
         <is>
-          <t>Os aplicativos de função em um determinado plano são todos dimensionados juntos, portanto, quaisquer problemas com o dimensionamento podem afetar todos os aplicativos no plano.</t>
+          <t>Funções - Partidas a frio - Use a funcionalidade 'Executar do pacote'. Dessa forma, o código é baixado como um único arquivo zip. Isso pode, por exemplo, resultar em melhorias significativas com as funções Javascript, que possuem muitos módulos de nó. Use ferramentas específicas de linguagem para reduzir o tamanho do pacote, por exemplo, aplicativos Javascript que agitam árvores.</t>
         </is>
       </c>
       <c r="E703" s="18" t="n"/>
@@ -37180,11 +37184,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J703" s="13" t="n"/>
+      <c r="J703" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="K703" s="19" t="n"/>
       <c r="L703" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7d-e2e8-4aaa-a357-1549ab9153d8</t>
+          <t>4722d928-c1b1-4cd5-81e5-4a29b9de39ac</t>
         </is>
       </c>
       <c r="M703" s="20" t="n"/>
@@ -37211,7 +37219,7 @@
       </c>
       <c r="D704" s="18" t="inlineStr">
         <is>
-          <t>Sou cobrado por 'tempo de espera'? Essa pergunta geralmente é feita no contexto de uma função C# que faz uma operação assíncrona e aguarda o resultado, por exemplo, aguardar Task.Delay(1000) ou aguardar cliente. GetAsync('http://google.com'). A resposta é sim - o segundo cálculo de GB é baseado na hora de início e término da função e no uso de memória durante esse período. O que realmente acontece ao longo desse tempo em termos de atividade da CPU não é levado em consideração no cálculo. Uma exceção a essa regra é se você estiver usando funções duráveis. Você não é cobrado pelo tempo gasto em espera em funções de orquestrador.aplique técnicas de modelagem de demanda sempre que possível (ambientes de desenvolvimento?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>Funções - Mantenha suas funções aquecidas</t>
         </is>
       </c>
       <c r="E704" s="18" t="n"/>
@@ -37227,11 +37235,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J704" s="13" t="n"/>
+      <c r="J704" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K704" s="19" t="n"/>
       <c r="L704" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-44be-43b1-a27f-8b9e91be1f38</t>
+          <t>0e7c28dc-9366-4572-82bf-f4564b0d934a</t>
         </is>
       </c>
       <c r="M704" s="20" t="n"/>
@@ -37253,12 +37265,12 @@
       </c>
       <c r="C705" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D705" s="18" t="inlineStr">
         <is>
-          <t>Frontdoor - Desativar a página inicial padrãoNas configurações do aplicativo do seu aplicativo, defina AzureWebJobsDisableHomepage como true. Isso retornará um 204 (Sem Conteúdo) para o PoP para que apenas os dados de cabeçalho sejam retornados.</t>
+          <t>Ao usar o dimensionamento automático com funções diferentes, pode haver um que conduza todo o dimensionamento automático para todos os recursos - considere movê-lo para um plano de consumo separado (e considere um plano mais alto para a CPU)</t>
         </is>
       </c>
       <c r="E705" s="18" t="n"/>
@@ -37278,7 +37290,7 @@
       <c r="K705" s="19" t="n"/>
       <c r="L705" s="19" t="inlineStr">
         <is>
-          <t>3da1dae2-cc88-4147-8607-c1cca0e61465</t>
+          <t>359c363e-7dd6-4162-9a36-4a907ebae38e</t>
         </is>
       </c>
       <c r="M705" s="20" t="n"/>
@@ -37300,12 +37312,12 @@
       </c>
       <c r="C706" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D706" s="18" t="inlineStr">
         <is>
-          <t>Frontdoor - Rota para algo que não retorna nada. Configure uma Função, Proxy de Função ou adicione uma rota em seu WebApp que retorne 200 (OK) e envie conteúdo nulo ou mínimo. A vantagem disso é que você poderá fazer logout quando for chamado.</t>
+          <t>Os aplicativos de função em um determinado plano são todos dimensionados juntos, portanto, quaisquer problemas com o dimensionamento podem afetar todos os aplicativos no plano.</t>
         </is>
       </c>
       <c r="E706" s="18" t="n"/>
@@ -37325,7 +37337,7 @@
       <c r="K706" s="19" t="n"/>
       <c r="L706" s="19" t="inlineStr">
         <is>
-          <t>8dd458e9-2713-49b8-8110-2dbd6eaf11e6</t>
+          <t>ad53cc7d-e2e8-4aaa-a357-1549ab9153d8</t>
         </is>
       </c>
       <c r="M706" s="20" t="n"/>
@@ -37347,12 +37359,12 @@
       </c>
       <c r="C707" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Azure Functions</t>
         </is>
       </c>
       <c r="D707" s="18" t="inlineStr">
         <is>
-          <t>Considere níveis de arquivamento para dados menos usados</t>
+          <t>Sou cobrado por 'tempo de espera'? Essa pergunta geralmente é feita no contexto de uma função C# que faz uma operação assíncrona e aguarda o resultado, por exemplo, aguardar Task.Delay(1000) ou aguardar cliente. GetAsync('http://google.com'). A resposta é sim - o segundo cálculo de GB é baseado na hora de início e término da função e no uso de memória durante esse período. O que realmente acontece ao longo desse tempo em termos de atividade da CPU não é levado em consideração no cálculo. Uma exceção a essa regra é se você estiver usando funções duráveis. Você não é cobrado pelo tempo gasto em espera em funções de orquestrador.aplique técnicas de modelagem de demanda sempre que possível (ambientes de desenvolvimento?) https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="E707" s="18" t="n"/>
@@ -37372,7 +37384,7 @@
       <c r="K707" s="19" t="n"/>
       <c r="L707" s="19" t="inlineStr">
         <is>
-          <t>7e31c67d-68cf-46a6-8a11-94956d697dc3</t>
+          <t>9f89dc7b-44be-43b1-a27f-8b9e91be1f38</t>
         </is>
       </c>
       <c r="M707" s="20" t="n"/>
@@ -37394,12 +37406,12 @@
       </c>
       <c r="C708" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D708" s="18" t="inlineStr">
         <is>
-          <t>Verifique os tamanhos de disco em que o tamanho não corresponde à camada (ou seja, um disco de 513 GiB pagará um P30 (1TiB) e considere o redimensionamento</t>
+          <t>Frontdoor - Desativar a página inicial padrãoNas configurações do aplicativo do seu aplicativo, defina AzureWebJobsDisableHomepage como true. Isso retornará um 204 (Sem Conteúdo) para o PoP para que apenas os dados de cabeçalho sejam retornados.</t>
         </is>
       </c>
       <c r="E708" s="18" t="n"/>
@@ -37419,7 +37431,7 @@
       <c r="K708" s="19" t="n"/>
       <c r="L708" s="19" t="inlineStr">
         <is>
-          <t>a2ed27b2-d186-4f1a-8252-bddde68a487c</t>
+          <t>3da1dae2-cc88-4147-8607-c1cca0e61465</t>
         </is>
       </c>
       <c r="M708" s="20" t="n"/>
@@ -37441,12 +37453,12 @@
       </c>
       <c r="C709" s="18" t="inlineStr">
         <is>
-          <t>Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D709" s="18" t="inlineStr">
         <is>
-          <t>Considere usar SSD padrão em vez de Premium ou Ultra sempre que possível</t>
+          <t>Frontdoor - Rota para algo que não retorna nada. Configure uma Função, Proxy de Função ou adicione uma rota em seu WebApp que retorne 200 (OK) e envie conteúdo nulo ou mínimo. A vantagem disso é que você poderá fazer logout quando for chamado.</t>
         </is>
       </c>
       <c r="E709" s="18" t="n"/>
@@ -37466,7 +37478,7 @@
       <c r="K709" s="19" t="n"/>
       <c r="L709" s="19" t="inlineStr">
         <is>
-          <t>dec4861b-c3bc-410a-b77e-26e4d5a3bec2</t>
+          <t>8dd458e9-2713-49b8-8110-2dbd6eaf11e6</t>
         </is>
       </c>
       <c r="M709" s="20" t="n"/>
@@ -37493,7 +37505,7 @@
       </c>
       <c r="D710" s="18" t="inlineStr">
         <is>
-          <t>Para contas de armazenamento, verifique se a camada escolhida não está somando encargos de transação (pode ser mais barato passar para a próxima camada)</t>
+          <t>Considere níveis de arquivamento para dados menos usados</t>
         </is>
       </c>
       <c r="E710" s="18" t="n"/>
@@ -37513,7 +37525,7 @@
       <c r="K710" s="19" t="n"/>
       <c r="L710" s="19" t="inlineStr">
         <is>
-          <t>c4e2436b-1336-4db5-9f17-960eee0bdf5c</t>
+          <t>7e31c67d-68cf-46a6-8a11-94956d697dc3</t>
         </is>
       </c>
       <c r="M710" s="20" t="n"/>
@@ -37535,12 +37547,12 @@
       </c>
       <c r="C711" s="18" t="inlineStr">
         <is>
-          <t>Site Recovery</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D711" s="18" t="inlineStr">
         <is>
-          <t>Para ASR, considere o uso de discos SSD padrão se o RPO/RTO e a taxa de transferência de replicação permitirem</t>
+          <t>Verifique os tamanhos de disco em que o tamanho não corresponde à camada (ou seja, um disco de 513 GiB pagará um P30 (1TiB) e considere o redimensionamento</t>
         </is>
       </c>
       <c r="E711" s="18" t="n"/>
@@ -37560,7 +37572,7 @@
       <c r="K711" s="19" t="n"/>
       <c r="L711" s="19" t="inlineStr">
         <is>
-          <t>c2efc5d7-61d4-41d2-900b-b47a393a040f</t>
+          <t>a2ed27b2-d186-4f1a-8252-bddde68a487c</t>
         </is>
       </c>
       <c r="M711" s="20" t="n"/>
@@ -37587,7 +37599,7 @@
       </c>
       <c r="D712" s="18" t="inlineStr">
         <is>
-          <t>Contas de armazenamento: verifique o hot tier e/ou o GRS necessário</t>
+          <t>Considere usar SSD padrão em vez de Premium ou Ultra sempre que possível</t>
         </is>
       </c>
       <c r="E712" s="18" t="n"/>
@@ -37607,7 +37619,7 @@
       <c r="K712" s="19" t="n"/>
       <c r="L712" s="19" t="inlineStr">
         <is>
-          <t>d3294798-b118-48b2-a5a4-6ceb544451e1</t>
+          <t>dec4861b-c3bc-410a-b77e-26e4d5a3bec2</t>
         </is>
       </c>
       <c r="M712" s="20" t="n"/>
@@ -37629,12 +37641,12 @@
       </c>
       <c r="C713" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D713" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Discos - valide o uso de discos SSD Premium em todos os lugares: por exemplo, não-prod pode trocar para SSD padrão ou SSD Premium sob demanda  </t>
+          <t>Para contas de armazenamento, verifique se a camada escolhida não está somando encargos de transação (pode ser mais barato passar para a próxima camada)</t>
         </is>
       </c>
       <c r="E713" s="18" t="n"/>
@@ -37654,7 +37666,7 @@
       <c r="K713" s="19" t="n"/>
       <c r="L713" s="19" t="inlineStr">
         <is>
-          <t>92d34429-3c76-4286-97a5-51c5b04e4f18</t>
+          <t>c4e2436b-1336-4db5-9f17-960eee0bdf5c</t>
         </is>
       </c>
       <c r="M713" s="20" t="n"/>
@@ -37676,12 +37688,12 @@
       </c>
       <c r="C714" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>Site Recovery</t>
         </is>
       </c>
       <c r="D714" s="18" t="inlineStr">
         <is>
-          <t>Crie orçamentos para gerenciar custos e crie alertas que notifiquem automaticamente as partes interessadas sobre anomalias de gastos e riscos de gastos excessivos.</t>
+          <t>Para ASR, considere o uso de discos SSD padrão se o RPO/RTO e a taxa de transferência de replicação permitirem</t>
         </is>
       </c>
       <c r="E714" s="18" t="n"/>
@@ -37701,7 +37713,7 @@
       <c r="K714" s="19" t="n"/>
       <c r="L714" s="19" t="inlineStr">
         <is>
-          <t>54387e5c-ed12-46cd-832a-f5b2fc6998a5</t>
+          <t>c2efc5d7-61d4-41d2-900b-b47a393a040f</t>
         </is>
       </c>
       <c r="M714" s="20" t="n"/>
@@ -37723,12 +37735,12 @@
       </c>
       <c r="C715" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>Storage</t>
         </is>
       </c>
       <c r="D715" s="18" t="inlineStr">
         <is>
-          <t>Exporte dados de custo para uma conta de armazenamento para análise de dados adicionais.</t>
+          <t>Contas de armazenamento: verifique o hot tier e/ou o GRS necessário</t>
         </is>
       </c>
       <c r="E715" s="18" t="n"/>
@@ -37748,7 +37760,7 @@
       <c r="K715" s="19" t="n"/>
       <c r="L715" s="19" t="inlineStr">
         <is>
-          <t>35e33789-7e31-4c67-b68c-f6a62a119495</t>
+          <t>d3294798-b118-48b2-a5a4-6ceb544451e1</t>
         </is>
       </c>
       <c r="M715" s="20" t="n"/>
@@ -37770,12 +37782,12 @@
       </c>
       <c r="C716" s="18" t="inlineStr">
         <is>
-          <t>Synapse</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D716" s="18" t="inlineStr">
         <is>
-          <t>Controle os custos de um pool SQL dedicado pausando o recurso quando ele não estiver em uso.</t>
+          <t xml:space="preserve">Discos - valide o uso de discos SSD Premium em todos os lugares: por exemplo, não-prod pode trocar para SSD padrão ou SSD Premium sob demanda  </t>
         </is>
       </c>
       <c r="E716" s="18" t="n"/>
@@ -37795,7 +37807,7 @@
       <c r="K716" s="19" t="n"/>
       <c r="L716" s="19" t="inlineStr">
         <is>
-          <t>6d697dc3-a2ed-427b-8d18-6f1a1252bddd</t>
+          <t>92d34429-3c76-4286-97a5-51c5b04e4f18</t>
         </is>
       </c>
       <c r="M716" s="20" t="n"/>
@@ -37822,7 +37834,7 @@
       </c>
       <c r="D717" s="18" t="inlineStr">
         <is>
-          <t>Habilite o recurso de pausa automática do Apache Spark sem servidor e defina seu valor de tempo limite de acordo.</t>
+          <t>Crie orçamentos para gerenciar custos e crie alertas que notifiquem automaticamente as partes interessadas sobre anomalias de gastos e riscos de gastos excessivos.</t>
         </is>
       </c>
       <c r="E717" s="18" t="n"/>
@@ -37842,7 +37854,7 @@
       <c r="K717" s="19" t="n"/>
       <c r="L717" s="19" t="inlineStr">
         <is>
-          <t>e68a487c-dec4-4861-ac3b-c10ae77e26e4</t>
+          <t>54387e5c-ed12-46cd-832a-f5b2fc6998a5</t>
         </is>
       </c>
       <c r="M717" s="20" t="n"/>
@@ -37869,7 +37881,7 @@
       </c>
       <c r="D718" s="18" t="inlineStr">
         <is>
-          <t>Crie várias definições de pool do Apache Spark de vários tamanhos.</t>
+          <t>Exporte dados de custo para uma conta de armazenamento para análise de dados adicionais.</t>
         </is>
       </c>
       <c r="E718" s="18" t="n"/>
@@ -37889,7 +37901,7 @@
       <c r="K718" s="19" t="n"/>
       <c r="L718" s="19" t="inlineStr">
         <is>
-          <t>d5a3bec2-c4e2-4436-a133-6db55f17960e</t>
+          <t>35e33789-7e31-4c67-b68c-f6a62a119495</t>
         </is>
       </c>
       <c r="M718" s="20" t="n"/>
@@ -37916,7 +37928,7 @@
       </c>
       <c r="D719" s="18" t="inlineStr">
         <is>
-          <t>Adquira unidades de confirmação (SCU) do Azure Synapse por um ano com um plano de pré-compra para economizar nos custos do Azure Synapse Analytics.</t>
+          <t>Controle os custos de um pool SQL dedicado pausando o recurso quando ele não estiver em uso.</t>
         </is>
       </c>
       <c r="E719" s="18" t="n"/>
@@ -37932,15 +37944,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J719" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J719" s="13" t="n"/>
       <c r="K719" s="19" t="n"/>
       <c r="L719" s="19" t="inlineStr">
         <is>
-          <t>ee0bdf5c-c2ef-4c5d-961d-41d2500bb47a</t>
+          <t>6d697dc3-a2ed-427b-8d18-6f1a1252bddd</t>
         </is>
       </c>
       <c r="M719" s="20" t="n"/>
@@ -37962,12 +37970,12 @@
       </c>
       <c r="C720" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D720" s="18" t="inlineStr">
         <is>
-          <t>Usar VMs spot para trabalhos interruptíveis: são VMs que podem ser licitadas e compradas a um preço com desconto, fornecendo uma solução econômica para cargas de trabalho não críticas.</t>
+          <t>Habilite o recurso de pausa automática do Apache Spark sem servidor e defina seu valor de tempo limite de acordo.</t>
         </is>
       </c>
       <c r="E720" s="18" t="n"/>
@@ -37983,15 +37991,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J720" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J720" s="13" t="n"/>
       <c r="K720" s="19" t="n"/>
       <c r="L720" s="19" t="inlineStr">
         <is>
-          <t>393a040f-d329-4479-ab11-88b2c5a46ceb</t>
+          <t>e68a487c-dec4-4861-ac3b-c10ae77e26e4</t>
         </is>
       </c>
       <c r="M720" s="20" t="n"/>
@@ -38013,12 +38017,12 @@
       </c>
       <c r="C721" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D721" s="18" t="inlineStr">
         <is>
-          <t>Dimensionamento correto de todas as VMs</t>
+          <t>Crie várias definições de pool do Apache Spark de vários tamanhos.</t>
         </is>
       </c>
       <c r="E721" s="18" t="n"/>
@@ -38038,7 +38042,7 @@
       <c r="K721" s="19" t="n"/>
       <c r="L721" s="19" t="inlineStr">
         <is>
-          <t>544451e1-92d3-4442-a3c7-628637a551c5</t>
+          <t>d5a3bec2-c4e2-4436-a133-6db55f17960e</t>
         </is>
       </c>
       <c r="M721" s="20" t="n"/>
@@ -38060,12 +38064,12 @@
       </c>
       <c r="C722" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Synapse</t>
         </is>
       </c>
       <c r="D722" s="18" t="inlineStr">
         <is>
-          <t>Trocar VM dimensionada com tamanhos normalizados e mais recentes</t>
+          <t>Adquira unidades de confirmação (SCU) do Azure Synapse por um ano com um plano de pré-compra para economizar nos custos do Azure Synapse Analytics.</t>
         </is>
       </c>
       <c r="E722" s="18" t="n"/>
@@ -38089,7 +38093,7 @@
       <c r="K722" s="19" t="n"/>
       <c r="L722" s="19" t="inlineStr">
         <is>
-          <t>b04e4f18-5438-47e5-aed1-26cd032af5b2</t>
+          <t>ee0bdf5c-c2ef-4c5d-961d-41d2500bb47a</t>
         </is>
       </c>
       <c r="M722" s="20" t="n"/>
@@ -38116,7 +38120,7 @@
       </c>
       <c r="D723" s="18" t="inlineStr">
         <is>
-          <t>VMs de dimensionamento correto - comece com o monitoramento do uso abaixo de 5% e, em seguida, trabalhe até 40%</t>
+          <t>Usar VMs spot para trabalhos interruptíveis: são VMs que podem ser licitadas e compradas a um preço com desconto, fornecendo uma solução econômica para cargas de trabalho não críticas.</t>
         </is>
       </c>
       <c r="E723" s="18" t="n"/>
@@ -38140,7 +38144,7 @@
       <c r="K723" s="19" t="n"/>
       <c r="L723" s="19" t="inlineStr">
         <is>
-          <t>fc6998a5-35e3-4378-a7e3-1c67d68cf6a6</t>
+          <t>393a040f-d329-4479-ab11-88b2c5a46ceb</t>
         </is>
       </c>
       <c r="M723" s="20" t="n"/>
@@ -38167,7 +38171,7 @@
       </c>
       <c r="D724" s="18" t="inlineStr">
         <is>
-          <t>A conteinerização de um aplicativo pode melhorar a densidade da VM e economizar dinheiro no dimensionamento</t>
+          <t>Dimensionamento correto de todas as VMs</t>
         </is>
       </c>
       <c r="E724" s="18" t="n"/>
@@ -38183,15 +38187,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J724" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J724" s="13" t="n"/>
       <c r="K724" s="19" t="n"/>
       <c r="L724" s="19" t="inlineStr">
         <is>
-          <t>2a119495-6d69-47dc-9a2e-d27b2d186f1a</t>
+          <t>544451e1-92d3-4442-a3c7-628637a551c5</t>
         </is>
       </c>
       <c r="M724" s="20" t="n"/>
@@ -38203,30 +38203,26 @@
     <row r="725">
       <c r="A725" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B725" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C725" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D725" s="18" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduzir o risco de paralisações causadas pela renovação manual de certificados</t>
+          <t>Trocar VM dimensionada com tamanhos normalizados e mais recentes</t>
         </is>
       </c>
       <c r="E725" s="18" t="n"/>
-      <c r="F725" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F725" s="18" t="n"/>
       <c r="G725" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38238,11 +38234,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J725" s="13" t="n"/>
+      <c r="J725" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="K725" s="19" t="n"/>
       <c r="L725" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>b04e4f18-5438-47e5-aed1-26cd032af5b2</t>
         </is>
       </c>
       <c r="M725" s="20" t="n"/>
@@ -38254,30 +38254,26 @@
     <row r="726">
       <c r="A726" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B726" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C726" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D726" s="18" t="inlineStr">
         <is>
-          <t>Verifique se você está usando o SKU do Application Gateway v2</t>
+          <t>VMs de dimensionamento correto - comece com o monitoramento do uso abaixo de 5% e, em seguida, trabalhe até 40%</t>
         </is>
       </c>
       <c r="E726" s="18" t="n"/>
-      <c r="F726" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F726" s="18" t="n"/>
       <c r="G726" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38294,14 +38290,10 @@
           <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
-      <c r="K726" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
-        </is>
-      </c>
+      <c r="K726" s="19" t="n"/>
       <c r="L726" s="19" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>fc6998a5-35e3-4378-a7e3-1c67d68cf6a6</t>
         </is>
       </c>
       <c r="M726" s="20" t="n"/>
@@ -38313,30 +38305,26 @@
     <row r="727">
       <c r="A727" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cost Optimization Checklist</t>
         </is>
       </c>
       <c r="B727" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C727" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D727" s="18" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU padrão para seus Balanceadores de Carga do Azure</t>
+          <t>A conteinerização de um aplicativo pode melhorar a densidade da VM e economizar dinheiro no dimensionamento</t>
         </is>
       </c>
       <c r="E727" s="18" t="n"/>
-      <c r="F727" s="18" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
+      <c r="F727" s="18" t="n"/>
       <c r="G727" t="inlineStr">
         <is>
           <t>Não verificado</t>
@@ -38348,15 +38336,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J727" s="13" t="n"/>
-      <c r="K727" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
-        </is>
-      </c>
+      <c r="J727" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K727" s="19" t="n"/>
       <c r="L727" s="19" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>2a119495-6d69-47dc-9a2e-d27b2d186f1a</t>
         </is>
       </c>
       <c r="M727" s="20" t="n"/>
@@ -38373,17 +38361,17 @@
       </c>
       <c r="B728" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C728" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D728" s="18" t="inlineStr">
         <is>
-          <t>Verifique se os endereços IP de front-end dos Load Balancers são redundantes por zona (a menos que você precise de frontends zonais).</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão de certificado 'Mais recente'. Reduzir o risco de paralisações causadas pela renovação manual de certificados</t>
         </is>
       </c>
       <c r="E728" s="18" t="n"/>
@@ -38407,7 +38395,7 @@
       <c r="K728" s="19" t="n"/>
       <c r="L728" s="19" t="inlineStr">
         <is>
-          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M728" s="20" t="n"/>
@@ -38434,7 +38422,7 @@
       </c>
       <c r="D729" s="18" t="inlineStr">
         <is>
-          <t>Seus Application Gateways v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
+          <t>Verifique se você está usando o SKU do Application Gateway v2</t>
         </is>
       </c>
       <c r="E729" s="18" t="n"/>
@@ -38461,12 +38449,12 @@
       </c>
       <c r="K729" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/applicationgateways' | project id, compliant = properties.sku.name in ('Standard_v2', 'WAF_v2') | project id,compliant</t>
         </is>
       </c>
       <c r="L729" s="19" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M729" s="20" t="n"/>
@@ -38488,19 +38476,15 @@
       </c>
       <c r="C730" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D730" s="18" t="inlineStr">
         <is>
-          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
-        </is>
-      </c>
-      <c r="E730" s="18" t="inlineStr">
-        <is>
-          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
-        </is>
-      </c>
+          <t>Verifique se você está usando a SKU padrão para seus Balanceadores de Carga do Azure</t>
+        </is>
+      </c>
+      <c r="E730" s="18" t="n"/>
       <c r="F730" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -38517,15 +38501,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J730" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
-      <c r="K730" s="19" t="n"/>
+      <c r="J730" s="13" t="n"/>
+      <c r="K730" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/loadbalancers' | project id, compliant=(tolower(sku.name) == 'standard')</t>
+        </is>
+      </c>
       <c r="L730" s="19" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M730" s="20" t="n"/>
@@ -38547,12 +38531,12 @@
       </c>
       <c r="C731" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D731" s="18" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
+          <t>Verifique se os endereços IP de front-end dos Load Balancers são redundantes por zona (a menos que você precise de frontends zonais).</t>
         </is>
       </c>
       <c r="E731" s="18" t="n"/>
@@ -38572,15 +38556,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J731" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J731" s="13" t="n"/>
       <c r="K731" s="19" t="n"/>
       <c r="L731" s="19" t="inlineStr">
         <is>
-          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
+          <t>9432621a-8397-4654-a882-5bc856b7ef83</t>
         </is>
       </c>
       <c r="M731" s="20" t="n"/>
@@ -38597,7 +38577,7 @@
       </c>
       <c r="B732" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C732" s="18" t="inlineStr">
@@ -38607,7 +38587,7 @@
       </c>
       <c r="D732" s="18" t="inlineStr">
         <is>
-          <t>Configure o dimensionamento automático com uma quantidade mínima de duas instâncias.</t>
+          <t>Seus Application Gateways v2 devem ser implantados em sub-redes com prefixos IP iguais ou maiores que /24</t>
         </is>
       </c>
       <c r="E732" s="18" t="n"/>
@@ -38634,12 +38614,12 @@
       </c>
       <c r="K732" s="19" t="inlineStr">
         <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+          <t>resources | where type=='microsoft.network/applicationgateways' | extend subnetId = tostring(properties.gatewayIPConfigurations[0].properties.subnet.id) | project id, subnetId | join (resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | mv-expand subnets.properties.addressPrefixes | project id, subnetId = tostring(subnets.id), prefix1 = subnets.properties.addressPrefix, prefix2 = subnets.properties.addressPrefixes | mv-expand prefix2 | extend prefix = iff(isnotnull(prefix1), prefix1, prefix2) | extend subnetPrefixLength = split(prefix, '/')[1])on subnetId | extend compliant = (subnetPrefixLength &lt;= 24 or subnetPrefixLength == 64) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L732" s="19" t="inlineStr">
         <is>
-          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M732" s="20" t="n"/>
@@ -38656,7 +38636,7 @@
       </c>
       <c r="B733" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C733" s="18" t="inlineStr">
@@ -38666,10 +38646,14 @@
       </c>
       <c r="D733" s="18" t="inlineStr">
         <is>
-          <t>Implantar o Application Gateway em zonas de disponibilidade</t>
-        </is>
-      </c>
-      <c r="E733" s="18" t="n"/>
+          <t>Implante o Gateway de Aplicativo do Azure v2 ou NVAs de parceiros usados para fazer proxy de conexões HTTP(S) de entrada na rede virtual da zona de aterrissagem e com os aplicativos que eles estão protegendo.</t>
+        </is>
+      </c>
+      <c r="E733" s="18" t="inlineStr">
+        <is>
+          <t>A administração de proxies reversos em geral e do WAF em particular está mais próxima do aplicativo do que da rede, portanto, eles pertencem à mesma assinatura que o aplicativo. Centralizar o Application Gateway e o WAF na assinatura de conectividade pode ser OK se for gerenciado por uma única equipe.</t>
+        </is>
+      </c>
       <c r="F733" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -38691,14 +38675,10 @@
           <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
-      <c r="K733" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K733" s="19" t="n"/>
       <c r="L733" s="19" t="inlineStr">
         <is>
-          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M733" s="20" t="n"/>
@@ -38720,12 +38700,12 @@
       </c>
       <c r="C734" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D734" s="18" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="E734" s="18" t="n"/>
@@ -38753,7 +38733,7 @@
       <c r="K734" s="19" t="n"/>
       <c r="L734" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>f109e1f3-c79b-4f14-82de-6b5c22314d08</t>
         </is>
       </c>
       <c r="M734" s="20" t="n"/>
@@ -38770,17 +38750,17 @@
       </c>
       <c r="B735" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C735" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D735" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
+          <t>Configure o dimensionamento automático com uma quantidade mínima de duas instâncias.</t>
         </is>
       </c>
       <c r="E735" s="18" t="n"/>
@@ -38802,13 +38782,17 @@
       </c>
       <c r="J735" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K735" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K735" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(properties.autoscaleConfiguration) and properties.autoscaleConfiguration.minCapacity &gt;= 2) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L735" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>135bf4ac-f9db-461f-b76b-2ee9e30b12c0</t>
         </is>
       </c>
       <c r="M735" s="20" t="n"/>
@@ -38830,18 +38814,18 @@
       </c>
       <c r="C736" s="18" t="inlineStr">
         <is>
-          <t>Traffic Manager</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D736" s="18" t="inlineStr">
         <is>
-          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
+          <t>Implantar o Application Gateway em zonas de disponibilidade</t>
         </is>
       </c>
       <c r="E736" s="18" t="n"/>
       <c r="F736" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G736" t="inlineStr">
@@ -38857,13 +38841,17 @@
       </c>
       <c r="J736" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K736" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
+      <c r="K736" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationGateways' | extend compliant = (isnotnull(zones) and array_length(zones) &gt; 1) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L736" s="19" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>060c6964-52b5-48db-af8b-83e4b2d85349</t>
         </is>
       </c>
       <c r="M736" s="20" t="n"/>
@@ -38885,18 +38873,18 @@
       </c>
       <c r="C737" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D737" s="18" t="inlineStr">
         <is>
-          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
+          <t>Use o Azure Front Door com políticas WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="E737" s="18" t="n"/>
       <c r="F737" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G737" t="inlineStr">
@@ -38912,13 +38900,13 @@
       </c>
       <c r="J737" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K737" s="19" t="n"/>
       <c r="L737" s="19" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M737" s="20" t="n"/>
@@ -38940,12 +38928,12 @@
       </c>
       <c r="C738" s="18" t="inlineStr">
         <is>
-          <t>Entra</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D738" s="18" t="inlineStr">
         <is>
-          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
+          <t>Ao usar o Front Door e o Application Gateway para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Application Gateway para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="E738" s="18" t="n"/>
@@ -38967,13 +38955,13 @@
       </c>
       <c r="J738" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K738" s="19" t="n"/>
       <c r="L738" s="19" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M738" s="20" t="n"/>
@@ -38990,17 +38978,17 @@
       </c>
       <c r="B739" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C739" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Traffic Manager</t>
         </is>
       </c>
       <c r="D739" s="18" t="inlineStr">
         <is>
-          <t>Implante sua política de WAF para Front Door no modo 'Prevenção'.</t>
+          <t>Use o Gerenciador de Tráfego para fornecer aplicativos globais que abrangem protocolos diferentes de HTTP/S.</t>
         </is>
       </c>
       <c r="E739" s="18" t="n"/>
@@ -39020,15 +39008,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J739" s="13" t="n"/>
-      <c r="K739" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="J739" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K739" s="19" t="n"/>
       <c r="L739" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M739" s="20" t="n"/>
@@ -39050,18 +39038,18 @@
       </c>
       <c r="C740" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D740" s="18" t="inlineStr">
         <is>
-          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
+          <t>Se os usuários precisarem apenas de acesso a aplicativos internos, o Proxy de Aplicativo de ID do Microsoft Entra foi considerado uma alternativa à Área de Trabalho Virtual (AVD) do Azure?</t>
         </is>
       </c>
       <c r="E740" s="18" t="n"/>
       <c r="F740" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G740" t="inlineStr">
@@ -39075,11 +39063,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J740" s="13" t="n"/>
+      <c r="J740" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="K740" s="19" t="n"/>
       <c r="L740" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M740" s="20" t="n"/>
@@ -39101,18 +39093,18 @@
       </c>
       <c r="C741" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Entra</t>
         </is>
       </c>
       <c r="D741" s="18" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Para reduzir o número de portas de firewall abertas para conexões de entrada em sua rede, considere o uso do Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos.</t>
         </is>
       </c>
       <c r="E741" s="18" t="n"/>
       <c r="F741" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G741" t="inlineStr">
@@ -39126,11 +39118,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J741" s="13" t="n"/>
+      <c r="J741" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="K741" s="19" t="n"/>
       <c r="L741" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M741" s="20" t="n"/>
@@ -39147,7 +39143,7 @@
       </c>
       <c r="B742" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C742" s="18" t="inlineStr">
@@ -39157,13 +39153,13 @@
       </c>
       <c r="D742" s="18" t="inlineStr">
         <is>
-          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
+          <t>Implante sua política de WAF para Front Door no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="E742" s="18" t="n"/>
       <c r="F742" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G742" t="inlineStr">
@@ -39180,12 +39176,12 @@
       <c r="J742" s="13" t="n"/>
       <c r="K742" s="19" t="inlineStr">
         <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
         </is>
       </c>
       <c r="L742" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M742" s="20" t="n"/>
@@ -39202,7 +39198,7 @@
       </c>
       <c r="B743" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C743" s="18" t="inlineStr">
@@ -39212,13 +39208,13 @@
       </c>
       <c r="D743" s="18" t="inlineStr">
         <is>
-          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
+          <t>Evite combinar o Gerenciador de Tráfego do Azure e o Azure Front Door.</t>
         </is>
       </c>
       <c r="E743" s="18" t="n"/>
       <c r="F743" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G743" t="inlineStr">
@@ -39236,7 +39232,7 @@
       <c r="K743" s="19" t="n"/>
       <c r="L743" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M743" s="20" t="n"/>
@@ -39253,7 +39249,7 @@
       </c>
       <c r="B744" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C744" s="18" t="inlineStr">
@@ -39263,13 +39259,13 @@
       </c>
       <c r="D744" s="18" t="inlineStr">
         <is>
-          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="E744" s="18" t="n"/>
       <c r="F744" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G744" t="inlineStr">
@@ -39284,14 +39280,10 @@
         </is>
       </c>
       <c r="J744" s="13" t="n"/>
-      <c r="K744" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="K744" s="19" t="n"/>
       <c r="L744" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M744" s="20" t="n"/>
@@ -39308,23 +39300,23 @@
       </c>
       <c r="B745" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C745" s="18" t="inlineStr">
         <is>
-          <t>Load Balancer</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D745" s="18" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
+          <t>Desabilite os testes de integridade quando houver apenas uma origem em um grupo de origem do Azure Front Door.</t>
         </is>
       </c>
       <c r="E745" s="18" t="n"/>
       <c r="F745" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G745" t="inlineStr">
@@ -39341,12 +39333,12 @@
       <c r="J745" s="13" t="n"/>
       <c r="K745" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
         </is>
       </c>
       <c r="L745" s="19" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M745" s="20" t="n"/>
@@ -39363,7 +39355,7 @@
       </c>
       <c r="B746" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C746" s="18" t="inlineStr">
@@ -39373,13 +39365,13 @@
       </c>
       <c r="D746" s="18" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
+          <t>Selecione bons pontos de extremidade de teste de integridade para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do seu aplicativo.</t>
         </is>
       </c>
       <c r="E746" s="18" t="n"/>
       <c r="F746" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G746" t="inlineStr">
@@ -39394,14 +39386,10 @@
         </is>
       </c>
       <c r="J746" s="13" t="n"/>
-      <c r="K746" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
-        </is>
-      </c>
+      <c r="K746" s="19" t="n"/>
       <c r="L746" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M746" s="20" t="n"/>
@@ -39418,7 +39406,7 @@
       </c>
       <c r="B747" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C747" s="18" t="inlineStr">
@@ -39428,13 +39416,13 @@
       </c>
       <c r="D747" s="18" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+          <t>Use testes de integridade do HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="E747" s="18" t="n"/>
       <c r="F747" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G747" t="inlineStr">
@@ -39449,10 +39437,14 @@
         </is>
       </c>
       <c r="J747" s="13" t="n"/>
-      <c r="K747" s="19" t="n"/>
+      <c r="K747" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L747" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M747" s="20" t="n"/>
@@ -39469,17 +39461,17 @@
       </c>
       <c r="B748" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C748" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D748" s="18" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Usar o Gateway NAT do Azure em vez das regras de saída do Load Balancer para melhor escalabilidade do SNAT</t>
         </is>
       </c>
       <c r="E748" s="18" t="n"/>
@@ -39500,10 +39492,14 @@
         </is>
       </c>
       <c r="J748" s="13" t="n"/>
-      <c r="K748" s="19" t="n"/>
+      <c r="K748" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/loadbalancers' | extend countOutRules=array_length(properties.outboundRules) | extend compliant = (countOutRules == 0) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L748" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M748" s="20" t="n"/>
@@ -39520,7 +39516,7 @@
       </c>
       <c r="B749" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C749" s="18" t="inlineStr">
@@ -39530,13 +39526,13 @@
       </c>
       <c r="D749" s="18" t="inlineStr">
         <is>
-          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de paralisações devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="E749" s="18" t="n"/>
       <c r="F749" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G749" t="inlineStr">
@@ -39551,10 +39547,14 @@
         </is>
       </c>
       <c r="J749" s="13" t="n"/>
-      <c r="K749" s="19" t="n"/>
+      <c r="K749" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L749" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M749" s="20" t="n"/>
@@ -39571,7 +39571,7 @@
       </c>
       <c r="B750" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C750" s="18" t="inlineStr">
@@ -39581,13 +39581,13 @@
       </c>
       <c r="D750" s="18" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
+          <t>Defina sua configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="E750" s="18" t="n"/>
       <c r="F750" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G750" t="inlineStr">
@@ -39605,7 +39605,7 @@
       <c r="K750" s="19" t="n"/>
       <c r="L750" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M750" s="20" t="n"/>
@@ -39632,7 +39632,7 @@
       </c>
       <c r="D751" s="18" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="E751" s="18" t="n"/>
@@ -39656,7 +39656,7 @@
       <c r="K751" s="19" t="n"/>
       <c r="L751" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M751" s="20" t="n"/>
@@ -39683,13 +39683,13 @@
       </c>
       <c r="D752" s="18" t="inlineStr">
         <is>
-          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Azure Front Door.</t>
+          <t>Use o redirecionamento HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="E752" s="18" t="n"/>
       <c r="F752" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G752" t="inlineStr">
@@ -39707,7 +39707,7 @@
       <c r="K752" s="19" t="n"/>
       <c r="L752" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M752" s="20" t="n"/>
@@ -39734,7 +39734,7 @@
       </c>
       <c r="D753" s="18" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma série de ataques.</t>
         </is>
       </c>
       <c r="E753" s="18" t="n"/>
@@ -39758,7 +39758,7 @@
       <c r="K753" s="19" t="n"/>
       <c r="L753" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M753" s="20" t="n"/>
@@ -39785,7 +39785,7 @@
       </c>
       <c r="D754" s="18" t="inlineStr">
         <is>
-          <t>Habilite o conjunto de regras de proteção de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="E754" s="18" t="n"/>
@@ -39809,7 +39809,7 @@
       <c r="K754" s="19" t="n"/>
       <c r="L754" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M754" s="20" t="n"/>
@@ -39836,13 +39836,13 @@
       </c>
       <c r="D755" s="18" t="inlineStr">
         <is>
-          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Azure Front Door.</t>
         </is>
       </c>
       <c r="E755" s="18" t="n"/>
       <c r="F755" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G755" t="inlineStr">
@@ -39860,7 +39860,7 @@
       <c r="K755" s="19" t="n"/>
       <c r="L755" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M755" s="20" t="n"/>
@@ -39887,13 +39887,13 @@
       </c>
       <c r="D756" s="18" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="E756" s="18" t="n"/>
       <c r="F756" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G756" t="inlineStr">
@@ -39911,7 +39911,7 @@
       <c r="K756" s="19" t="n"/>
       <c r="L756" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M756" s="20" t="n"/>
@@ -39938,13 +39938,13 @@
       </c>
       <c r="D757" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Habilite o conjunto de regras de proteção de bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="E757" s="18" t="n"/>
       <c r="F757" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G757" t="inlineStr">
@@ -39962,7 +39962,7 @@
       <c r="K757" s="19" t="n"/>
       <c r="L757" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M757" s="20" t="n"/>
@@ -39989,13 +39989,13 @@
       </c>
       <c r="D758" s="18" t="inlineStr">
         <is>
-          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="E758" s="18" t="n"/>
       <c r="F758" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G758" t="inlineStr">
@@ -40013,7 +40013,7 @@
       <c r="K758" s="19" t="n"/>
       <c r="L758" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M758" s="20" t="n"/>
@@ -40040,7 +40040,7 @@
       </c>
       <c r="D759" s="18" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Adicione o limite de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="E759" s="18" t="n"/>
@@ -40064,7 +40064,7 @@
       <c r="K759" s="19" t="n"/>
       <c r="L759" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M759" s="20" t="n"/>
@@ -40086,18 +40086,18 @@
       </c>
       <c r="C760" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D760" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o conjunto de regras de proteção de bot WAF do Gateway de Aplicativo do Azure As regras de bot detectam bots bons e ruins.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Azure Front Door. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="E760" s="18" t="n"/>
       <c r="F760" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G760" t="inlineStr">
@@ -40112,14 +40112,10 @@
         </is>
       </c>
       <c r="J760" s="13" t="n"/>
-      <c r="K760" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
-        </is>
-      </c>
+      <c r="K760" s="19" t="n"/>
       <c r="L760" s="19" t="inlineStr">
         <is>
-          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M760" s="20" t="n"/>
@@ -40141,18 +40137,18 @@
       </c>
       <c r="C761" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D761" s="18" t="inlineStr">
         <is>
-          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Gateway de Aplicativo do Azure.</t>
+          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
         </is>
       </c>
       <c r="E761" s="18" t="n"/>
       <c r="F761" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G761" t="inlineStr">
@@ -40170,7 +40166,7 @@
       <c r="K761" s="19" t="n"/>
       <c r="L761" s="19" t="inlineStr">
         <is>
-          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M761" s="20" t="n"/>
@@ -40192,18 +40188,18 @@
       </c>
       <c r="C762" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D762" s="18" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Gateway de Aplicativo do Azure para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="E762" s="18" t="n"/>
       <c r="F762" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G762" t="inlineStr">
@@ -40221,7 +40217,7 @@
       <c r="K762" s="19" t="n"/>
       <c r="L762" s="19" t="inlineStr">
         <is>
-          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M762" s="20" t="n"/>
@@ -40248,7 +40244,7 @@
       </c>
       <c r="D763" s="18" t="inlineStr">
         <is>
-          <t>Implante sua política de WAF para o Application Gateway no modo 'Prevenção'.</t>
+          <t>Habilitar o conjunto de regras de proteção de bot WAF do Gateway de Aplicativo do Azure As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="E763" s="18" t="n"/>
@@ -40271,12 +40267,12 @@
       <c r="J763" s="13" t="n"/>
       <c r="K763" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+          <t>resources | where type == 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | mv-expand properties.managedRules.managedRuleSets | project id, rulesettype = properties_managedRules_managedRuleSets.ruleSetType | extend compliant1 = (rulesettype == 'Microsoft_BotManagerRuleSet') | project id, compliant1 | summarize compliant = max(compliant1) by id</t>
         </is>
       </c>
       <c r="L763" s="19" t="inlineStr">
         <is>
-          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
+          <t>2f8e81eb-8e68-4026-8b1f-70f9b05f7cf9</t>
         </is>
       </c>
       <c r="M763" s="20" t="n"/>
@@ -40303,13 +40299,13 @@
       </c>
       <c r="D764" s="18" t="inlineStr">
         <is>
-          <t>Adicione o limite de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Habilite o recurso de inspeção do corpo de solicitação habilitado na política WAF do Gateway de Aplicativo do Azure.</t>
         </is>
       </c>
       <c r="E764" s="18" t="n"/>
       <c r="F764" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G764" t="inlineStr">
@@ -40327,7 +40323,7 @@
       <c r="K764" s="19" t="n"/>
       <c r="L764" s="19" t="inlineStr">
         <is>
-          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
+          <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
         </is>
       </c>
       <c r="M764" s="20" t="n"/>
@@ -40354,13 +40350,13 @@
       </c>
       <c r="D765" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
+          <t>Ajuste o WAF do Gateway de Aplicativo do Azure para sua carga de trabalho. Reduza as detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="E765" s="18" t="n"/>
       <c r="F765" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
@@ -40378,7 +40374,7 @@
       <c r="K765" s="19" t="n"/>
       <c r="L765" s="19" t="inlineStr">
         <is>
-          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
+          <t>a4dd86d3-5ffa-408c-b660-cce073d085b8</t>
         </is>
       </c>
       <c r="M765" s="20" t="n"/>
@@ -40405,13 +40401,13 @@
       </c>
       <c r="D766" s="18" t="inlineStr">
         <is>
-          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+          <t>Implante sua política de WAF para o Application Gateway no modo 'Prevenção'.</t>
         </is>
       </c>
       <c r="E766" s="18" t="n"/>
       <c r="F766" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
@@ -40426,10 +40422,14 @@
         </is>
       </c>
       <c r="J766" s="13" t="n"/>
-      <c r="K766" s="19" t="n"/>
+      <c r="K766" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L766" s="19" t="inlineStr">
         <is>
-          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
+          <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
         </is>
       </c>
       <c r="M766" s="20" t="n"/>
@@ -40456,7 +40456,7 @@
       </c>
       <c r="D767" s="18" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Gateway de Aplicativo do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Adicione o limite de taxa ao WAF do Gateway de Aplicativo do Azure. A limitação de taxa bloqueia clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="E767" s="18" t="n"/>
@@ -40480,7 +40480,7 @@
       <c r="K767" s="19" t="n"/>
       <c r="L767" s="19" t="inlineStr">
         <is>
-          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
+          <t>43fae595-8a32-4299-a69e-0f32c454dcc9</t>
         </is>
       </c>
       <c r="M767" s="20" t="n"/>
@@ -40507,7 +40507,7 @@
       </c>
       <c r="D768" s="18" t="inlineStr">
         <is>
-          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
+          <t xml:space="preserve">Use um limite alto para os limites de taxa do WAF do Gateway de Aplicativo do Azure. Limites de limite de taxa alta evitam o bloqueio de tráfego legítimo, ao mesmo tempo em que fornecem proteção contra um número extremamente alto de solicitações que podem sobrecarregar sua infraestrutura. </t>
         </is>
       </c>
       <c r="E768" s="18" t="n"/>
@@ -40531,7 +40531,7 @@
       <c r="K768" s="19" t="n"/>
       <c r="L768" s="19" t="inlineStr">
         <is>
-          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
+          <t>041e0ad8-7b12-4694-a0b7-a0e25ee2470f</t>
         </is>
       </c>
       <c r="M768" s="20" t="n"/>
@@ -40548,7 +40548,7 @@
       </c>
       <c r="B769" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C769" s="18" t="inlineStr">
@@ -40558,13 +40558,13 @@
       </c>
       <c r="D769" s="18" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar seus logs WAF do Gateway de Aplicativo do Azure.</t>
+          <t>Se você não está esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
         </is>
       </c>
       <c r="E769" s="18" t="n"/>
       <c r="F769" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G769" t="inlineStr">
@@ -40582,7 +40582,7 @@
       <c r="K769" s="19" t="n"/>
       <c r="L769" s="19" t="inlineStr">
         <is>
-          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
+          <t>99937189-ff78-492a-b9ca-18d828d82b37</t>
         </is>
       </c>
       <c r="M769" s="20" t="n"/>
@@ -40599,17 +40599,17 @@
       </c>
       <c r="B770" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C770" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D770" s="18" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar seus logs do WAF do Azure Front Door.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Gateway de Aplicativo do Azure. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="E770" s="18" t="n"/>
@@ -40633,7 +40633,7 @@
       <c r="K770" s="19" t="n"/>
       <c r="L770" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>349a15c1-52f4-4319-9078-3895d95ecafd</t>
         </is>
       </c>
       <c r="M770" s="20" t="n"/>
@@ -40650,7 +40650,7 @@
       </c>
       <c r="B771" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C771" s="18" t="inlineStr">
@@ -40660,7 +40660,7 @@
       </c>
       <c r="D771" s="18" t="inlineStr">
         <is>
-          <t>Envie logs do WAF do Gateway de Aplicativo do Azure para o Microsoft Sentinel.</t>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Gateway de Aplicativo do Azure. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário atual de ameaças.</t>
         </is>
       </c>
       <c r="E771" s="18" t="n"/>
@@ -40684,7 +40684,7 @@
       <c r="K771" s="19" t="n"/>
       <c r="L771" s="19" t="inlineStr">
         <is>
-          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
+          <t>6c19dfd5-a61c-436c-9001-491b9b3d0228</t>
         </is>
       </c>
       <c r="M771" s="20" t="n"/>
@@ -40706,12 +40706,12 @@
       </c>
       <c r="C772" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D772" s="18" t="inlineStr">
         <is>
-          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
+          <t>Adicione configurações de diagnóstico para salvar seus logs WAF do Gateway de Aplicativo do Azure.</t>
         </is>
       </c>
       <c r="E772" s="18" t="n"/>
@@ -40735,7 +40735,7 @@
       <c r="K772" s="19" t="n"/>
       <c r="L772" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>f84106a2-2e9e-42ac-add6-d3416ecfed53</t>
         </is>
       </c>
       <c r="M772" s="20" t="n"/>
@@ -40757,12 +40757,12 @@
       </c>
       <c r="C773" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D773" s="18" t="inlineStr">
         <is>
-          <t>Defina sua configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+          <t>Adicione configurações de diagnóstico para salvar seus logs do WAF do Azure Front Door.</t>
         </is>
       </c>
       <c r="E773" s="18" t="n"/>
@@ -40786,7 +40786,7 @@
       <c r="K773" s="19" t="n"/>
       <c r="L773" s="19" t="inlineStr">
         <is>
-          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M773" s="20" t="n"/>
@@ -40813,7 +40813,7 @@
       </c>
       <c r="D774" s="18" t="inlineStr">
         <is>
-          <t>Use políticas de WAF em vez da configuração de WAF herdada.</t>
+          <t>Envie logs do WAF do Gateway de Aplicativo do Azure para o Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="E774" s="18" t="n"/>
@@ -40837,7 +40837,7 @@
       <c r="K774" s="19" t="n"/>
       <c r="L774" s="19" t="inlineStr">
         <is>
-          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
+          <t>92664c60-47e3-4591-8b1b-8d557656e686</t>
         </is>
       </c>
       <c r="M774" s="20" t="n"/>
@@ -40854,17 +40854,17 @@
       </c>
       <c r="B775" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C775" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D775" s="18" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de entrada nos back-ends para que eles só aceitem conexões da sub-rede do Application Gateway, por exemplo, com NSGs.</t>
+          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="E775" s="18" t="n"/>
@@ -40888,7 +40888,7 @@
       <c r="K775" s="19" t="n"/>
       <c r="L775" s="19" t="inlineStr">
         <is>
-          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M775" s="20" t="n"/>
@@ -40905,17 +40905,17 @@
       </c>
       <c r="B776" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C776" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>App Gateway</t>
         </is>
       </c>
       <c r="D776" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que suas origens recebam apenas o tráfego de sua instância do Azure Front Door.</t>
+          <t>Defina sua configuração do WAF do Gateway de Aplicativo do Azure como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="E776" s="18" t="n"/>
@@ -40939,7 +40939,7 @@
       <c r="K776" s="19" t="n"/>
       <c r="L776" s="19" t="inlineStr">
         <is>
-          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
+          <t>ba0e9b26-6e0d-4ec8-8541-023c00afd5b7</t>
         </is>
       </c>
       <c r="M776" s="20" t="n"/>
@@ -40956,7 +40956,7 @@
       </c>
       <c r="B777" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C777" s="18" t="inlineStr">
@@ -40966,13 +40966,13 @@
       </c>
       <c r="D777" s="18" t="inlineStr">
         <is>
-          <t>Você deve criptografar o tráfego para os servidores de back-end.</t>
+          <t>Use políticas de WAF em vez da configuração de WAF herdada.</t>
         </is>
       </c>
       <c r="E777" s="18" t="n"/>
       <c r="F777" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -40990,7 +40990,7 @@
       <c r="K777" s="19" t="n"/>
       <c r="L777" s="19" t="inlineStr">
         <is>
-          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
+          <t>f17ec301-8470-4afd-aabc-c1fdfe47dcc0</t>
         </is>
       </c>
       <c r="M777" s="20" t="n"/>
@@ -41017,13 +41017,13 @@
       </c>
       <c r="D778" s="18" t="inlineStr">
         <is>
-          <t>Você deve usar um Web Application Firewall.</t>
+          <t>Filtre o tráfego de entrada nos back-ends para que eles só aceitem conexões da sub-rede do Application Gateway, por exemplo, com NSGs.</t>
         </is>
       </c>
       <c r="E778" s="18" t="n"/>
       <c r="F778" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -41041,7 +41041,7 @@
       <c r="K778" s="19" t="n"/>
       <c r="L778" s="19" t="inlineStr">
         <is>
-          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
+          <t>d4eb8667-f8cb-4cdd-94e6-2f967ba98f88</t>
         </is>
       </c>
       <c r="M778" s="20" t="n"/>
@@ -41063,12 +41063,12 @@
       </c>
       <c r="C779" s="18" t="inlineStr">
         <is>
-          <t>App Gateway</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D779" s="18" t="inlineStr">
         <is>
-          <t>Redirecionar HTTP para HTTPS</t>
+          <t>Certifique-se de que suas origens recebam apenas o tráfego de sua instância do Azure Front Door.</t>
         </is>
       </c>
       <c r="E779" s="18" t="n"/>
@@ -41092,7 +41092,7 @@
       <c r="K779" s="19" t="n"/>
       <c r="L779" s="19" t="inlineStr">
         <is>
-          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
+          <t>7d3df025-59a3-447d-ac25-3f5750d35de1</t>
         </is>
       </c>
       <c r="M779" s="20" t="n"/>
@@ -41109,7 +41109,7 @@
       </c>
       <c r="B780" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C780" s="18" t="inlineStr">
@@ -41119,13 +41119,13 @@
       </c>
       <c r="D780" s="18" t="inlineStr">
         <is>
-          <t>Usar cookies gerenciados por gateway para direcionar o tráfego de uma sessão de usuário para o mesmo servidor para processamento</t>
+          <t>Você deve criptografar o tráfego para os servidores de back-end.</t>
         </is>
       </c>
       <c r="E780" s="18" t="n"/>
       <c r="F780" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -41143,7 +41143,7 @@
       <c r="K780" s="19" t="n"/>
       <c r="L780" s="19" t="inlineStr">
         <is>
-          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
+          <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>
         </is>
       </c>
       <c r="M780" s="20" t="n"/>
@@ -41170,7 +41170,7 @@
       </c>
       <c r="D781" s="18" t="inlineStr">
         <is>
-          <t>Habilite a drenagem de conexão durante as atualizações de serviço planejadas para evitar a perda de conexão com membrs existentes do pool de back-end</t>
+          <t>Você deve usar um Web Application Firewall.</t>
         </is>
       </c>
       <c r="E781" s="18" t="n"/>
@@ -41194,7 +41194,7 @@
       <c r="K781" s="19" t="n"/>
       <c r="L781" s="19" t="inlineStr">
         <is>
-          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
+          <t>3dba65cb-834d-44d8-a3ca-a6aa2f1587be</t>
         </is>
       </c>
       <c r="M781" s="20" t="n"/>
@@ -41211,7 +41211,7 @@
       </c>
       <c r="B782" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C782" s="18" t="inlineStr">
@@ -41221,13 +41221,13 @@
       </c>
       <c r="D782" s="18" t="inlineStr">
         <is>
-          <t>Criar páginas de erro personalizadas para exibir uma experiência de usuário personalizada</t>
+          <t>Redirecionar HTTP para HTTPS</t>
         </is>
       </c>
       <c r="E782" s="18" t="n"/>
       <c r="F782" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G782" t="inlineStr">
@@ -41245,7 +41245,7 @@
       <c r="K782" s="19" t="n"/>
       <c r="L782" s="19" t="inlineStr">
         <is>
-          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
+          <t>0158fcb6-0bc1-4687-832f-cc7c359c22d2</t>
         </is>
       </c>
       <c r="M782" s="20" t="n"/>
@@ -41262,7 +41262,7 @@
       </c>
       <c r="B783" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C783" s="18" t="inlineStr">
@@ -41272,7 +41272,7 @@
       </c>
       <c r="D783" s="18" t="inlineStr">
         <is>
-          <t>Edite solicitações HTTP e cabeçalhos de resposta para facilitar o roteamento e a troca de informações entre o cliente e o servidor</t>
+          <t>Usar cookies gerenciados por gateway para direcionar o tráfego de uma sessão de usuário para o mesmo servidor para processamento</t>
         </is>
       </c>
       <c r="E783" s="18" t="n"/>
@@ -41296,7 +41296,7 @@
       <c r="K783" s="19" t="n"/>
       <c r="L783" s="19" t="inlineStr">
         <is>
-          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
+          <t>bb697864-1b4c-43af-8667-90cc69aaed5f</t>
         </is>
       </c>
       <c r="M783" s="20" t="n"/>
@@ -41313,7 +41313,7 @@
       </c>
       <c r="B784" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C784" s="18" t="inlineStr">
@@ -41323,13 +41323,13 @@
       </c>
       <c r="D784" s="18" t="inlineStr">
         <is>
-          <t>Configure o Front Door para otimizar o roteamento de tráfego global da Web e o desempenho do usuário final de nível superior e a confiabilidade por meio de failover global rápido</t>
+          <t>Habilite a drenagem de conexão durante as atualizações de serviço planejadas para evitar a perda de conexão com membrs existentes do pool de back-end</t>
         </is>
       </c>
       <c r="E784" s="18" t="n"/>
       <c r="F784" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G784" t="inlineStr">
@@ -41347,7 +41347,7 @@
       <c r="K784" s="19" t="n"/>
       <c r="L784" s="19" t="inlineStr">
         <is>
-          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
+          <t>ff353ad8-15fb-4ae8-9fc5-a85a36d36a35</t>
         </is>
       </c>
       <c r="M784" s="20" t="n"/>
@@ -41364,7 +41364,7 @@
       </c>
       <c r="B785" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C785" s="18" t="inlineStr">
@@ -41374,13 +41374,13 @@
       </c>
       <c r="D785" s="18" t="inlineStr">
         <is>
-          <t>Usar balanceamento de carga da camada de transporte</t>
+          <t>Criar páginas de erro personalizadas para exibir uma experiência de usuário personalizada</t>
         </is>
       </c>
       <c r="E785" s="18" t="n"/>
       <c r="F785" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G785" t="inlineStr">
@@ -41398,7 +41398,7 @@
       <c r="K785" s="19" t="n"/>
       <c r="L785" s="19" t="inlineStr">
         <is>
-          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
+          <t>c8741f03-45a4-4183-a6b8-139e0773b8b5</t>
         </is>
       </c>
       <c r="M785" s="20" t="n"/>
@@ -41425,7 +41425,7 @@
       </c>
       <c r="D786" s="18" t="inlineStr">
         <is>
-          <t>Configurar o roteamento com base no host ou nome de domínio para vários aplicativos Web em um único gateway</t>
+          <t>Edite solicitações HTTP e cabeçalhos de resposta para facilitar o roteamento e a troca de informações entre o cliente e o servidor</t>
         </is>
       </c>
       <c r="E786" s="18" t="n"/>
@@ -41449,7 +41449,7 @@
       <c r="K786" s="19" t="n"/>
       <c r="L786" s="19" t="inlineStr">
         <is>
-          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+          <t>f850d46f-f5d7-4b17-b48c-a780741402e1</t>
         </is>
       </c>
       <c r="M786" s="20" t="n"/>
@@ -41466,7 +41466,7 @@
       </c>
       <c r="B787" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C787" s="18" t="inlineStr">
@@ -41476,7 +41476,7 @@
       </c>
       <c r="D787" s="18" t="inlineStr">
         <is>
-          <t>Centralize o gerenciamento de certificados SSL para reduzir a sobrecarga de criptografia e descriptografia de um farm de servidores back-end</t>
+          <t>Configure o Front Door para otimizar o roteamento de tráfego global da Web e o desempenho do usuário final de nível superior e a confiabilidade por meio de failover global rápido</t>
         </is>
       </c>
       <c r="E787" s="18" t="n"/>
@@ -41500,7 +41500,7 @@
       <c r="K787" s="19" t="n"/>
       <c r="L787" s="19" t="inlineStr">
         <is>
-          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+          <t>eadc3164-4a0f-461c-85f1-1a372c04dfd1</t>
         </is>
       </c>
       <c r="M787" s="20" t="n"/>
@@ -41517,7 +41517,7 @@
       </c>
       <c r="B788" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C788" s="18" t="inlineStr">
@@ -41527,13 +41527,13 @@
       </c>
       <c r="D788" s="18" t="inlineStr">
         <is>
-          <t>Usar o Application Gateway para suporte nativo para protocolos WebSocket e HTTP/2</t>
+          <t>Usar balanceamento de carga da camada de transporte</t>
         </is>
       </c>
       <c r="E788" s="18" t="n"/>
       <c r="F788" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G788" t="inlineStr">
@@ -41551,7 +41551,7 @@
       <c r="K788" s="19" t="n"/>
       <c r="L788" s="19" t="inlineStr">
         <is>
-          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+          <t>29dcc19f-a8fa-4c35-8281-290577538793</t>
         </is>
       </c>
       <c r="M788" s="20" t="n"/>
@@ -41561,17 +41561,50 @@
       <c r="Q788" s="20" t="n"/>
     </row>
     <row r="789">
-      <c r="A789" s="18" t="n"/>
-      <c r="B789" s="18" t="n"/>
-      <c r="C789" s="18" t="n"/>
-      <c r="D789" s="18" t="n"/>
+      <c r="A789" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B789" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C789" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D789" s="18" t="inlineStr">
+        <is>
+          <t>Configurar o roteamento com base no host ou nome de domínio para vários aplicativos Web em um único gateway</t>
+        </is>
+      </c>
       <c r="E789" s="18" t="n"/>
-      <c r="F789" s="18" t="n"/>
+      <c r="F789" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H789" s="18" t="n"/>
-      <c r="I789" s="13" t="n"/>
+      <c r="I789" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J789" s="13" t="n"/>
       <c r="K789" s="19" t="n"/>
-      <c r="L789" s="19" t="n"/>
+      <c r="L789" s="19" t="inlineStr">
+        <is>
+          <t>276898c1-af5e-4819-9e8e-049c7801ab9d</t>
+        </is>
+      </c>
       <c r="M789" s="20" t="n"/>
       <c r="N789" s="20" t="n"/>
       <c r="O789" s="20" t="n"/>
@@ -41579,17 +41612,50 @@
       <c r="Q789" s="20" t="n"/>
     </row>
     <row r="790">
-      <c r="A790" s="18" t="n"/>
-      <c r="B790" s="18" t="n"/>
-      <c r="C790" s="18" t="n"/>
-      <c r="D790" s="18" t="n"/>
+      <c r="A790" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B790" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C790" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D790" s="18" t="inlineStr">
+        <is>
+          <t>Centralize o gerenciamento de certificados SSL para reduzir a sobrecarga de criptografia e descriptografia de um farm de servidores back-end</t>
+        </is>
+      </c>
       <c r="E790" s="18" t="n"/>
-      <c r="F790" s="18" t="n"/>
+      <c r="F790" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H790" s="18" t="n"/>
-      <c r="I790" s="13" t="n"/>
+      <c r="I790" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J790" s="13" t="n"/>
       <c r="K790" s="19" t="n"/>
-      <c r="L790" s="19" t="n"/>
+      <c r="L790" s="19" t="inlineStr">
+        <is>
+          <t>5fe365b6-58e8-47ed-a8cf-5163850380a2</t>
+        </is>
+      </c>
       <c r="M790" s="20" t="n"/>
       <c r="N790" s="20" t="n"/>
       <c r="O790" s="20" t="n"/>
@@ -41597,17 +41663,50 @@
       <c r="Q790" s="20" t="n"/>
     </row>
     <row r="791">
-      <c r="A791" s="18" t="n"/>
-      <c r="B791" s="18" t="n"/>
-      <c r="C791" s="18" t="n"/>
-      <c r="D791" s="18" t="n"/>
+      <c r="A791" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B791" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C791" s="18" t="inlineStr">
+        <is>
+          <t>App Gateway</t>
+        </is>
+      </c>
+      <c r="D791" s="18" t="inlineStr">
+        <is>
+          <t>Usar o Application Gateway para suporte nativo para protocolos WebSocket e HTTP/2</t>
+        </is>
+      </c>
       <c r="E791" s="18" t="n"/>
-      <c r="F791" s="18" t="n"/>
+      <c r="F791" s="18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H791" s="18" t="n"/>
-      <c r="I791" s="13" t="n"/>
+      <c r="I791" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J791" s="13" t="n"/>
       <c r="K791" s="19" t="n"/>
-      <c r="L791" s="19" t="n"/>
+      <c r="L791" s="19" t="inlineStr">
+        <is>
+          <t>fa64b4dd-35c2-4047-ac5c-45dfbf8b0db9</t>
+        </is>
+      </c>
       <c r="M791" s="20" t="n"/>
       <c r="N791" s="20" t="n"/>
       <c r="O791" s="20" t="n"/>
@@ -49211,7 +49310,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G789" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G792" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -49893,6 +49992,9 @@
     <hyperlink ref="I786" r:id="rId675"/>
     <hyperlink ref="I787" r:id="rId676"/>
     <hyperlink ref="I788" r:id="rId677"/>
+    <hyperlink ref="I789" r:id="rId678"/>
+    <hyperlink ref="I790" r:id="rId679"/>
+    <hyperlink ref="I791" r:id="rId680"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -23437,7 +23437,7 @@
       </c>
       <c r="J440" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="K440" s="19" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -6744,7 +6744,7 @@
       <c r="K127" s="19" t="n"/>
       <c r="L127" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M127" s="20" t="n"/>
@@ -6795,7 +6795,7 @@
       <c r="K128" s="19" t="n"/>
       <c r="L128" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M128" s="20" t="n"/>
@@ -6846,7 +6846,7 @@
       <c r="K129" s="19" t="n"/>
       <c r="L129" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M129" s="20" t="n"/>
@@ -6897,7 +6897,7 @@
       <c r="K130" s="19" t="n"/>
       <c r="L130" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M130" s="20" t="n"/>
@@ -6948,7 +6948,7 @@
       <c r="K131" s="19" t="n"/>
       <c r="L131" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M131" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -24038,7 +24038,7 @@
       </c>
       <c r="B451" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C451" s="18" t="inlineStr">
@@ -24089,7 +24089,7 @@
       </c>
       <c r="B452" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C452" s="18" t="inlineStr">

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -19531,7 +19531,7 @@
       </c>
       <c r="D368" s="18" t="inlineStr">
         <is>
-          <t>Implementar um acesso de emergência ou contas de quebra-vidro para evitar o bloqueio de contas em todo o locatário</t>
+          <t>Aplique um modelo RBAC que se alinhe ao seu modelo operacional de nuvem. Escopo e atribuição entre grupos de gerenciamento e assinaturas.</t>
         </is>
       </c>
       <c r="E368" s="18" t="n"/>
@@ -19553,13 +19553,13 @@
       </c>
       <c r="J368" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="K368" s="19" t="n"/>
       <c r="L368" s="19" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M368" s="20" t="n"/>
@@ -19586,13 +19586,13 @@
       </c>
       <c r="D369" s="18" t="inlineStr">
         <is>
-          <t>Integre os logs de ID do Microsoft Entra com o Azure Monitor central da plataforma. O Azure Monitor permite uma única fonte de verdade sobre dados de log e monitoramento no Azure, oferecendo às organizações opções nativas de nuvem para atender aos requisitos de coleta e retenção de logs.</t>
+          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
         </is>
       </c>
       <c r="E369" s="18" t="n"/>
       <c r="F369" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -19606,11 +19606,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J369" s="13" t="n"/>
+      <c r="J369" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K369" s="19" t="n"/>
       <c r="L369" s="19" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M369" s="20" t="n"/>
@@ -19637,13 +19641,13 @@
       </c>
       <c r="D370" s="18" t="inlineStr">
         <is>
-          <t>Aplique um modelo RBAC que se alinhe ao seu modelo operacional de nuvem. Escopo e atribuição entre grupos de gerenciamento e assinaturas.</t>
+          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo Entra ID somente se um sistema de gerenciamento de grupo já estiver em vigor.</t>
         </is>
       </c>
       <c r="E370" s="18" t="n"/>
       <c r="F370" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -19659,13 +19663,13 @@
       </c>
       <c r="J370" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="K370" s="19" t="n"/>
       <c r="L370" s="19" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M370" s="20" t="n"/>
@@ -19857,13 +19861,13 @@
       </c>
       <c r="D374" s="18" t="inlineStr">
         <is>
-          <t>Use apenas o tipo de autenticação Conta corporativa ou de estudante para todos os tipos de conta. Evite usar a conta da Microsoft</t>
+          <t>Se estiver planejando mudar de Serviços de Domínio do Active Directory para serviços de domínio Entra, avalie a compatibilidade de todas as cargas de trabalho</t>
         </is>
       </c>
       <c r="E374" s="18" t="n"/>
       <c r="F374" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -19879,13 +19883,13 @@
       </c>
       <c r="J374" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="K374" s="19" t="n"/>
       <c r="L374" s="19" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M374" s="20" t="n"/>
@@ -19912,7 +19916,7 @@
       </c>
       <c r="D375" s="18" t="inlineStr">
         <is>
-          <t>Use apenas grupos para atribuir permissões. Adicione grupos locais ao grupo Entra ID somente se um sistema de gerenciamento de grupo já estiver em vigor.</t>
+          <t>Integre os logs de ID do Microsoft Entra com o Azure Monitor central da plataforma. O Azure Monitor permite uma única fonte de verdade sobre dados de log e monitoramento no Azure, oferecendo às organizações opções nativas de nuvem para atender aos requisitos de coleta e retenção de logs.</t>
         </is>
       </c>
       <c r="E375" s="18" t="n"/>
@@ -19932,15 +19936,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J375" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J375" s="13" t="n"/>
       <c r="K375" s="19" t="n"/>
       <c r="L375" s="19" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M375" s="20" t="n"/>
@@ -19967,13 +19967,13 @@
       </c>
       <c r="D376" s="18" t="inlineStr">
         <is>
-          <t>Se estiver planejando mudar de Serviços de Domínio do Active Directory para serviços de domínio Entra, avalie a compatibilidade de todas as cargas de trabalho</t>
+          <t>Implementar um acesso de emergência ou contas de quebra-vidro para evitar o bloqueio de contas em todo o locatário</t>
         </is>
       </c>
       <c r="E376" s="18" t="n"/>
       <c r="F376" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -19989,13 +19989,13 @@
       </c>
       <c r="J376" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="K376" s="19" t="n"/>
       <c r="L376" s="19" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M376" s="20" t="n"/>
@@ -20022,7 +20022,7 @@
       </c>
       <c r="D377" s="18" t="inlineStr">
         <is>
-          <t>Quando necessário, use o Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
+          <t>Evite usar contas sincronizadas locais para atribuições de função de ID do Microsoft Entra.</t>
         </is>
       </c>
       <c r="E377" s="18" t="n"/>
@@ -20044,13 +20044,13 @@
       </c>
       <c r="J377" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="K377" s="19" t="n"/>
       <c r="L377" s="19" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M377" s="20" t="n"/>
@@ -20077,7 +20077,7 @@
       </c>
       <c r="D378" s="18" t="inlineStr">
         <is>
-          <t>Evite usar contas sincronizadas locais para atribuições de função de ID do Microsoft Entra.</t>
+          <t>Quando necessário, use o Microsoft Entra ID Application Proxy para dar aos usuários remotos acesso seguro e autenticado a aplicativos internos (hospedados na nuvem ou no local).</t>
         </is>
       </c>
       <c r="E378" s="18" t="n"/>
@@ -20099,13 +20099,13 @@
       </c>
       <c r="J378" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="K378" s="19" t="n"/>
       <c r="L378" s="19" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M378" s="20" t="n"/>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="D379" s="18" t="inlineStr">
         <is>
-          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
+          <t>Aproveite um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
         </is>
       </c>
       <c r="E379" s="18" t="n"/>
@@ -20154,13 +20154,13 @@
       </c>
       <c r="J379" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K379" s="19" t="n"/>
       <c r="L379" s="19" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M379" s="20" t="n"/>
@@ -20177,23 +20177,23 @@
       </c>
       <c r="B380" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C380" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D380" s="18" t="inlineStr">
         <is>
-          <t>Quando você estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
+          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também servidores DNS.</t>
         </is>
       </c>
       <c r="E380" s="18" t="n"/>
       <c r="F380" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -20211,7 +20211,7 @@
       <c r="K380" s="19" t="n"/>
       <c r="L380" s="19" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M380" s="20" t="n"/>
@@ -20233,18 +20233,18 @@
       </c>
       <c r="C381" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D381" s="18" t="inlineStr">
         <is>
-          <t>Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa.</t>
+          <t>Use uma rede DDoS ou planos de proteção IP para todos os endereços IP públicos nas zonas de aterrissagem do aplicativo.</t>
         </is>
       </c>
       <c r="E381" s="18" t="n"/>
       <c r="F381" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -20260,13 +20260,13 @@
       </c>
       <c r="J381" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K381" s="19" t="n"/>
       <c r="L381" s="19" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M381" s="20" t="n"/>
@@ -20283,17 +20283,17 @@
       </c>
       <c r="B382" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C382" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>NVA</t>
         </is>
       </c>
       <c r="D382" s="18" t="inlineStr">
         <is>
-          <t>Aproveite um design de rede baseado na topologia de rede hub-and-spoke tradicional para cenários de rede que exigem flexibilidade máxima.</t>
+          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
         </is>
       </c>
       <c r="E382" s="18" t="n"/>
@@ -20313,15 +20313,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J382" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J382" s="13" t="n"/>
       <c r="K382" s="19" t="n"/>
       <c r="L382" s="19" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M382" s="20" t="n"/>
@@ -20338,23 +20334,23 @@
       </c>
       <c r="B383" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C383" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D383" s="18" t="inlineStr">
         <is>
-          <t>Verifique se os serviços de rede compartilhados, incluindo gateways de Rota Expressa, gateways VPN e Firewall do Azure ou NVAs de parceiros na rede virtual de hub central. Se necessário, implante também servidores DNS.</t>
+          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
         </is>
       </c>
       <c r="E383" s="18" t="n"/>
       <c r="F383" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -20372,7 +20368,7 @@
       <c r="K383" s="19" t="n"/>
       <c r="L383" s="19" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M383" s="20" t="n"/>
@@ -20389,23 +20385,23 @@
       </c>
       <c r="B384" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C384" s="18" t="inlineStr">
         <is>
-          <t>NVA</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="D384" s="18" t="inlineStr">
         <is>
-          <t>Ao implantar tecnologias de rede de parceiros ou NVAs, siga as orientações do fornecedor parceiro</t>
+          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
         </is>
       </c>
       <c r="E384" s="18" t="n"/>
       <c r="F384" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -20420,10 +20416,14 @@
         </is>
       </c>
       <c r="J384" s="13" t="n"/>
-      <c r="K384" s="19" t="n"/>
+      <c r="K384" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L384" s="19" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M384" s="20" t="n"/>
@@ -20440,23 +20440,23 @@
       </c>
       <c r="B385" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C385" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D385" s="18" t="inlineStr">
         <is>
-          <t>Se você precisar transitar entre gateways ExpressRoute e VPN em cenários de hub e spoke, use o Servidor de Rota do Azure.</t>
+          <t>Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras.</t>
         </is>
       </c>
       <c r="E385" s="18" t="n"/>
       <c r="F385" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -20470,11 +20470,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J385" s="13" t="n"/>
+      <c r="J385" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="K385" s="19" t="n"/>
       <c r="L385" s="19" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M385" s="20" t="n"/>
@@ -20491,23 +20495,23 @@
       </c>
       <c r="B386" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C386" s="18" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D386" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o Servidor de Rotas, use um prefixo /27 para a sub-rede do Servidor de Rotas.</t>
+          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
         </is>
       </c>
       <c r="E386" s="18" t="n"/>
       <c r="F386" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -20521,15 +20525,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J386" s="13" t="n"/>
-      <c r="K386" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'RouteServerSubnet' | extend compliant = (subnetPrefixLength &lt;= 27) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J386" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
+      <c r="K386" s="19" t="n"/>
       <c r="L386" s="19" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M386" s="20" t="n"/>
@@ -20546,7 +20550,7 @@
       </c>
       <c r="B387" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C387" s="18" t="inlineStr">
@@ -20556,7 +20560,7 @@
       </c>
       <c r="D387" s="18" t="inlineStr">
         <is>
-          <t>Para arquiteturas de rede com várias topologias de hub e spoke em regiões do Azure, use emparelhamentos de rede virtual global entre as VNets de hub para conectar as regiões umas às outras.</t>
+          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
         </is>
       </c>
       <c r="E387" s="18" t="n"/>
@@ -20576,15 +20580,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J387" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K387" s="19" t="n"/>
+      <c r="J387" s="13" t="n"/>
+      <c r="K387" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L387" s="19" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M387" s="20" t="n"/>
@@ -20601,7 +20605,7 @@
       </c>
       <c r="B388" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C388" s="18" t="inlineStr">
@@ -20611,7 +20615,7 @@
       </c>
       <c r="D388" s="18" t="inlineStr">
         <is>
-          <t>Use o Azure Monitor for Networks para monitorar o estado de ponta a ponta das redes no Azure.</t>
+          <t>Considere o limite de rotas por tabela de rotas (400).</t>
         </is>
       </c>
       <c r="E388" s="18" t="n"/>
@@ -20631,15 +20635,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J388" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
-      <c r="K388" s="19" t="n"/>
+      <c r="J388" s="13" t="n"/>
+      <c r="K388" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L388" s="19" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M388" s="20" t="n"/>
@@ -20666,13 +20670,13 @@
       </c>
       <c r="D389" s="18" t="inlineStr">
         <is>
-          <t>Ao conectar redes virtuais spoke à rede virtual do hub central, considere os limites de emparelhamento de VNet (500), o número máximo de prefixos que podem ser anunciados via Rota Expressa (1000)</t>
+          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
         </is>
       </c>
       <c r="E389" s="18" t="n"/>
       <c r="F389" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -20689,12 +20693,12 @@
       <c r="J389" s="13" t="n"/>
       <c r="K389" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | summarize peeringcount = count() by id | extend compliant = (peeringcount &lt; 450) | distinct id,compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
         </is>
       </c>
       <c r="L389" s="19" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M389" s="20" t="n"/>
@@ -20711,17 +20715,17 @@
       </c>
       <c r="B390" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C390" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D390" s="18" t="inlineStr">
         <is>
-          <t>Considere o limite de rotas por tabela de rotas (400).</t>
+          <t>Quando você estiver usando o ExpressRoute Direct, configure o MACsec para criptografar o tráfego no nível de camada dois entre os roteadores da organização e o MSEE. O diagrama mostra essa criptografia no fluxo.</t>
         </is>
       </c>
       <c r="E390" s="18" t="n"/>
@@ -20742,14 +20746,10 @@
         </is>
       </c>
       <c r="J390" s="13" t="n"/>
-      <c r="K390" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/routetables' | mvexpand properties.routes | summarize routeCount = count() by id | extend compliant = (routeCount &lt; 360) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K390" s="19" t="n"/>
       <c r="L390" s="19" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M390" s="20" t="n"/>
@@ -20766,23 +20766,23 @@
       </c>
       <c r="B391" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C391" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D391" s="18" t="inlineStr">
         <is>
-          <t>Use a configuração 'Permitir tráfego para rede virtual remota' ao configurar emparelhamentos de rede virtual</t>
+          <t>Para cenários em que MACsec não é uma opção (por exemplo, não usar o ExpressRoute Direct), use um gateway VPN para estabelecer túneis IPsec sobre emparelhamento privado da Rota Expressa.</t>
         </is>
       </c>
       <c r="E391" s="18" t="n"/>
       <c r="F391" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -20796,15 +20796,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J391" s="13" t="n"/>
-      <c r="K391" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess == True)</t>
-        </is>
-      </c>
+      <c r="J391" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
+      <c r="K391" s="19" t="n"/>
       <c r="L391" s="19" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M391" s="20" t="n"/>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="B392" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C392" s="18" t="inlineStr">
@@ -20831,13 +20831,13 @@
       </c>
       <c r="D392" s="18" t="inlineStr">
         <is>
-          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
+          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
         </is>
       </c>
       <c r="E392" s="18" t="n"/>
       <c r="F392" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -20853,13 +20853,13 @@
       </c>
       <c r="J392" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K392" s="19" t="n"/>
       <c r="L392" s="19" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M392" s="20" t="n"/>
@@ -20876,27 +20876,23 @@
       </c>
       <c r="B393" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C393" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D393" s="18" t="inlineStr">
         <is>
-          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
-        </is>
-      </c>
-      <c r="E393" s="18" t="inlineStr">
-        <is>
-          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
-        </is>
-      </c>
+          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+        </is>
+      </c>
+      <c r="E393" s="18" t="n"/>
       <c r="F393" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -20912,13 +20908,17 @@
       </c>
       <c r="J393" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K393" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K393" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L393" s="19" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M393" s="20" t="n"/>
@@ -20940,18 +20940,18 @@
       </c>
       <c r="C394" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D394" s="18" t="inlineStr">
         <is>
-          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
+          <t>Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16)</t>
         </is>
       </c>
       <c r="E394" s="18" t="n"/>
       <c r="F394" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -20967,17 +20967,17 @@
       </c>
       <c r="J394" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K394" s="19" t="inlineStr">
         <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
         </is>
       </c>
       <c r="L394" s="19" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M394" s="20" t="n"/>
@@ -20994,17 +20994,17 @@
       </c>
       <c r="B395" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C395" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D395" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
+          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
         </is>
       </c>
       <c r="E395" s="18" t="n"/>
@@ -21024,15 +21024,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J395" s="13" t="n"/>
-      <c r="K395" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="J395" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K395" s="19" t="n"/>
       <c r="L395" s="19" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M395" s="20" t="n"/>
@@ -21049,23 +21049,23 @@
       </c>
       <c r="B396" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C396" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D396" s="18" t="inlineStr">
         <is>
-          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="E396" s="18" t="n"/>
       <c r="F396" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -21079,15 +21079,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J396" s="13" t="n"/>
-      <c r="K396" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
-        </is>
-      </c>
+      <c r="J396" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
+      <c r="K396" s="19" t="n"/>
       <c r="L396" s="19" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M396" s="20" t="n"/>
@@ -21104,17 +21104,17 @@
       </c>
       <c r="B397" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C397" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D397" s="18" t="inlineStr">
         <is>
-          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
+          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
         </is>
       </c>
       <c r="E397" s="18" t="n"/>
@@ -21136,17 +21136,13 @@
       </c>
       <c r="J397" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K397" s="19" t="inlineStr">
-        <is>
-          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
+      <c r="K397" s="19" t="n"/>
       <c r="L397" s="19" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M397" s="20" t="n"/>
@@ -21163,23 +21159,23 @@
       </c>
       <c r="B398" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C398" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D398" s="18" t="inlineStr">
         <is>
-          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
+          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
         </is>
       </c>
       <c r="E398" s="18" t="n"/>
       <c r="F398" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -21193,15 +21189,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J398" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+      <c r="J398" s="13" t="n"/>
       <c r="K398" s="19" t="n"/>
       <c r="L398" s="19" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M398" s="20" t="n"/>
@@ -21218,23 +21210,23 @@
       </c>
       <c r="B399" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C399" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>DNS</t>
         </is>
       </c>
       <c r="D399" s="18" t="inlineStr">
         <is>
-          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
+          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
         </is>
       </c>
       <c r="E399" s="18" t="n"/>
       <c r="F399" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -21250,13 +21242,13 @@
       </c>
       <c r="J399" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="K399" s="19" t="n"/>
       <c r="L399" s="19" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M399" s="20" t="n"/>
@@ -21273,17 +21265,17 @@
       </c>
       <c r="B400" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C400" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D400" s="18" t="inlineStr">
         <is>
-          <t>Use gateways VPN com redundância de zona para conectar filiais ou locais remotos ao Azure (quando disponível).</t>
+          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
         </is>
       </c>
       <c r="E400" s="18" t="n"/>
@@ -21303,19 +21295,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J400" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K400" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="J400" s="13" t="n"/>
+      <c r="K400" s="19" t="n"/>
       <c r="L400" s="19" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M400" s="20" t="n"/>
@@ -21332,17 +21316,17 @@
       </c>
       <c r="B401" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C401" s="18" t="inlineStr">
         <is>
-          <t>VPN</t>
+          <t>Bastion</t>
         </is>
       </c>
       <c r="D401" s="18" t="inlineStr">
         <is>
-          <t>Use dispositivos VPN redundantes no local (ativo/ativo ou ativo/passivo).</t>
+          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
         </is>
       </c>
       <c r="E401" s="18" t="n"/>
@@ -21362,15 +21346,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J401" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
-        </is>
-      </c>
-      <c r="K401" s="19" t="n"/>
+      <c r="J401" s="13" t="n"/>
+      <c r="K401" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L401" s="19" t="inlineStr">
         <is>
-          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M401" s="20" t="n"/>
@@ -21387,23 +21371,23 @@
       </c>
       <c r="B402" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C402" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D402" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
         </is>
       </c>
       <c r="E402" s="18" t="n"/>
       <c r="F402" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -21419,13 +21403,13 @@
       </c>
       <c r="J402" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K402" s="19" t="n"/>
       <c r="L402" s="19" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M402" s="20" t="n"/>
@@ -21447,18 +21431,18 @@
       </c>
       <c r="C403" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D403" s="18" t="inlineStr">
         <is>
-          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
+          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="E403" s="18" t="n"/>
       <c r="F403" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -21474,13 +21458,13 @@
       </c>
       <c r="J403" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="K403" s="19" t="n"/>
       <c r="L403" s="19" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M403" s="20" t="n"/>
@@ -21497,23 +21481,23 @@
       </c>
       <c r="B404" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C404" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D404" s="18" t="inlineStr">
         <is>
-          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
+          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
         </is>
       </c>
       <c r="E404" s="18" t="n"/>
       <c r="F404" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -21529,13 +21513,13 @@
       </c>
       <c r="J404" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="K404" s="19" t="n"/>
       <c r="L404" s="19" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M404" s="20" t="n"/>
@@ -21552,23 +21536,23 @@
       </c>
       <c r="B405" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C405" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D405" s="18" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão para monitoramento de conectividade na rede, especialmente entre o local e o Azure.</t>
+          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
         </is>
       </c>
       <c r="E405" s="18" t="n"/>
       <c r="F405" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -21584,13 +21568,13 @@
       </c>
       <c r="J405" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="K405" s="19" t="n"/>
       <c r="L405" s="19" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M405" s="20" t="n"/>
@@ -21612,18 +21596,18 @@
       </c>
       <c r="C406" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D406" s="18" t="inlineStr">
         <is>
-          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
+          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e somente as configurações de acesso explícito serão permitidas</t>
         </is>
       </c>
       <c r="E406" s="18" t="n"/>
       <c r="F406" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
@@ -21637,19 +21621,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J406" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K406" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
-        </is>
-      </c>
+      <c r="J406" s="13" t="n"/>
+      <c r="K406" s="19" t="n"/>
       <c r="L406" s="19" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M406" s="20" t="n"/>
@@ -21666,23 +21642,23 @@
       </c>
       <c r="B407" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C407" s="18" t="inlineStr">
         <is>
-          <t>ExpressRoute</t>
+          <t>VNet</t>
         </is>
       </c>
       <c r="D407" s="18" t="inlineStr">
         <is>
-          <t>Use VPN site a site como failover da Rota Expressa, especialmente se estiver usando apenas um único circuito da Rota Expressa.</t>
+          <t>Adicione configurações de diagnóstico para salvar logs relacionados a DDoS para todos os endereços IP públicos protegidos (IP DDoS ou Proteção de Rede).</t>
         </is>
       </c>
       <c r="E407" s="18" t="n"/>
       <c r="F407" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -21696,11 +21672,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J407" s="13" t="n"/>
+      <c r="J407" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K407" s="19" t="n"/>
       <c r="L407" s="19" t="inlineStr">
         <is>
-          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M407" s="20" t="n"/>
@@ -21717,7 +21697,7 @@
       </c>
       <c r="B408" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C408" s="18" t="inlineStr">
@@ -21727,13 +21707,13 @@
       </c>
       <c r="D408" s="18" t="inlineStr">
         <is>
-          <t>Se você estiver usando uma tabela de rotas na GatewaySubnet, verifique se as rotas de gateway são propagadas.</t>
+          <t>Verifique se você investigou a possibilidade de usar a Rota Expressa como conexão primária com o Azure.</t>
         </is>
       </c>
       <c r="E408" s="18" t="n"/>
       <c r="F408" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
@@ -21747,15 +21727,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J408" s="13" t="n"/>
-      <c r="K408" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
-        </is>
-      </c>
+      <c r="J408" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K408" s="19" t="n"/>
       <c r="L408" s="19" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M408" s="20" t="n"/>
@@ -21782,13 +21762,17 @@
       </c>
       <c r="D409" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando a Rota Expressa, seu roteamento local deve ser dinâmico: no caso de uma falha de conexão, ele deve convergir para a conexão restante do circuito. A carga deve ser compartilhada entre ambas as conexões idealmente como ativa/ativa, embora ativa/passiva também seja suportada.</t>
-        </is>
-      </c>
-      <c r="E409" s="18" t="n"/>
+          <t>Ao usar vários circuitos de Rota Expressa ou vários locais locais, certifique-se de otimizar o roteamento com atributos BGP, se determinados caminhos forem preferidos.</t>
+        </is>
+      </c>
+      <c r="E409" s="18" t="inlineStr">
+        <is>
+          <t>Você pode usar os pesos de conexão e prependente de caminho AS para influenciar o tráfego do Azure para o local e toda a gama de atributos BGP em seus próprios roteadores para influenciar o tráfego do local para o Azure.</t>
+        </is>
+      </c>
       <c r="F409" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
@@ -21802,11 +21786,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J409" s="13" t="n"/>
+      <c r="J409" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K409" s="19" t="n"/>
       <c r="L409" s="19" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M409" s="20" t="n"/>
@@ -21823,7 +21811,7 @@
       </c>
       <c r="B410" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C410" s="18" t="inlineStr">
@@ -21833,7 +21821,7 @@
       </c>
       <c r="D410" s="18" t="inlineStr">
         <is>
-          <t>Verifique se os dois links físicos do circuito da Rota Expressa estão conectados a dois dispositivos de borda distintos na rede.</t>
+          <t>Verifique se você está usando a SKU certa para os gateways ExpressRoute/VPN com base nos requisitos de largura de banda e desempenho.</t>
         </is>
       </c>
       <c r="E410" s="18" t="n"/>
@@ -21858,10 +21846,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K410" s="19" t="n"/>
+      <c r="K410" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier !in ('Basic', 'Standard')| project name, id, subscriptionId, resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L410" s="19" t="inlineStr">
         <is>
-          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M410" s="20" t="n"/>
@@ -21878,7 +21870,7 @@
       </c>
       <c r="B411" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C411" s="18" t="inlineStr">
@@ -21888,13 +21880,13 @@
       </c>
       <c r="D411" s="18" t="inlineStr">
         <is>
-          <t>Verifique se o BFD (Bidirectional Forwarding Detection) está habilitado e configurado em dispositivos de roteamento de borda do cliente ou provedor.</t>
+          <t>Certifique-se de que você está usando circuitos de Rota Expressa de dados ilimitados somente se atingir a largura de banda que justifica seu custo.</t>
         </is>
       </c>
       <c r="E411" s="18" t="n"/>
       <c r="F411" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
@@ -21908,15 +21900,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J411" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K411" s="19" t="n"/>
+      <c r="J411" s="13" t="n"/>
+      <c r="K411" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/expressroutecircuits' | extend compliant = (tolower(sku.family) == 'metereddata' or tolower(sku.tier) == 'local') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L411" s="19" t="inlineStr">
         <is>
-          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M411" s="20" t="n"/>
@@ -21933,7 +21925,7 @@
       </c>
       <c r="B412" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C412" s="18" t="inlineStr">
@@ -21943,7 +21935,7 @@
       </c>
       <c r="D412" s="18" t="inlineStr">
         <is>
-          <t>Conecte o ExpressRoute Gateway a dois ou mais circuitos de locais de emparelhamento diferentes para maior resiliência.</t>
+          <t>Aproveite a SKU Local da Rota Expressa para reduzir o custo de seus circuitos, se o local de emparelhamento de seus circuitos oferecer suporte às regiões do Azure para a SKU Local.</t>
         </is>
       </c>
       <c r="E412" s="18" t="n"/>
@@ -21963,15 +21955,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J412" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
-      <c r="K412" s="19" t="n"/>
+      <c r="J412" s="13" t="n"/>
+      <c r="K412" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project id, gwid=tostring(properties.virtualNetworkGateway1.id), circuitid=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitid=tostring(id), circuitsku=sku.tier) on circuitid | project id=gwid, compliant = (circuitsku == 'Local') | summarize compliant=max(compliant) by id</t>
+        </is>
+      </c>
       <c r="L412" s="19" t="inlineStr">
         <is>
-          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M412" s="20" t="n"/>
@@ -21988,7 +21980,7 @@
       </c>
       <c r="B413" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C413" s="18" t="inlineStr">
@@ -21998,7 +21990,7 @@
       </c>
       <c r="D413" s="18" t="inlineStr">
         <is>
-          <t>Configure logs e alertas de diagnóstico para o gateway de rede virtual da Rota Expressa.</t>
+          <t>Implante um gateway de Rota Expressa com redundância de zona nas regiões do Azure com suporte.</t>
         </is>
       </c>
       <c r="E413" s="18" t="n"/>
@@ -22023,10 +22015,14 @@
           <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
-      <c r="K413" s="19" t="n"/>
+      <c r="K413" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type == 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType == 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L413" s="19" t="inlineStr">
         <is>
-          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M413" s="20" t="n"/>
@@ -22053,7 +22049,7 @@
       </c>
       <c r="D414" s="18" t="inlineStr">
         <is>
-          <t>Evite usar circuitos de Rota Expressa para comunicação de VNet-to-VNet.</t>
+          <t>Para cenários que exigem largura de banda superior a 10 Gbps ou portas dedicadas de 10/100 Gbps, use o ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="E414" s="18" t="n"/>
@@ -22081,7 +22077,7 @@
       <c r="K414" s="19" t="n"/>
       <c r="L414" s="19" t="inlineStr">
         <is>
-          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M414" s="20" t="n"/>
@@ -22098,7 +22094,7 @@
       </c>
       <c r="B415" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C415" s="18" t="inlineStr">
@@ -22108,13 +22104,13 @@
       </c>
       <c r="D415" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que nenhum espaço de endereço IP sobreposto entre regiões do Azure e locais locais seja usado</t>
+          <t>Quando a baixa latência for necessária ou a taxa de transferência do local para o Azure precisar ser maior que 10 Gbps, habilite o FastPath para ignorar o gateway da Rota Expressa a partir do caminho de dados.</t>
         </is>
       </c>
       <c r="E415" s="18" t="n"/>
       <c r="F415" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -22130,13 +22126,13 @@
       </c>
       <c r="J415" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K415" s="19" t="n"/>
       <c r="L415" s="19" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M415" s="20" t="n"/>
@@ -22153,23 +22149,23 @@
       </c>
       <c r="B416" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C416" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D416" s="18" t="inlineStr">
         <is>
-          <t>Use endereços IP dos intervalos de alocação de endereços para internets privadas (RFC 1918).</t>
+          <t>Use gateways VPN com redundância de zona para conectar filiais ou locais remotos ao Azure (quando disponível).</t>
         </is>
       </c>
       <c r="E416" s="18" t="n"/>
       <c r="F416" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
@@ -22185,17 +22181,17 @@
       </c>
       <c r="J416" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="K416" s="19" t="inlineStr">
         <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\\.|172\\.(1[6-9]|2[0-9]|3[01])\\.|192\\.168\\.)')  | project id, compliant, cidr</t>
+          <t>resources | where type=='microsoft.network/virtualnetworkgateways' | where properties.gatewayType == 'Vpn' | extend compliant = (tolower(properties.sku.name) contains 'az') | distinct id, compliant</t>
         </is>
       </c>
       <c r="L416" s="19" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M416" s="20" t="n"/>
@@ -22212,23 +22208,23 @@
       </c>
       <c r="B417" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C417" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>VPN</t>
         </is>
       </c>
       <c r="D417" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de que o espaço de endereço IP não seja desperdiçado, não crie redes virtuais desnecessariamente grandes (por exemplo, /16)</t>
+          <t>Use dispositivos VPN redundantes no local (ativo/ativo ou ativo/passivo).</t>
         </is>
       </c>
       <c r="E417" s="18" t="n"/>
       <c r="F417" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -22244,17 +22240,13 @@
       </c>
       <c r="J417" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
-      <c r="K417" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | extend addressMask = split(addressPrefix,'/')[1] | extend compliant = addressMask &gt; 16 | project name, id, subscriptionId, resourceGroup, addressPrefix, compliant</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
+      <c r="K417" s="19" t="n"/>
       <c r="L417" s="19" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M417" s="20" t="n"/>
@@ -22271,17 +22263,17 @@
       </c>
       <c r="B418" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C418" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D418" s="18" t="inlineStr">
         <is>
-          <t>Evite usar intervalos de endereços IP sobrepostos para sites de produção e DR.</t>
+          <t>Se estiver usando o ExpressRoute Direct, considere usar circuitos locais do ExpressRoute para as regiões locais do Azure para economizar custos</t>
         </is>
       </c>
       <c r="E418" s="18" t="n"/>
@@ -22303,13 +22295,13 @@
       </c>
       <c r="J418" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K418" s="19" t="n"/>
       <c r="L418" s="19" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M418" s="20" t="n"/>
@@ -22326,17 +22318,17 @@
       </c>
       <c r="B419" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C419" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D419" s="18" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure é tudo o que é necessário, use o DNS Privado do Azure para resolução com uma zona delegada para resolução de nomes (como 'azure.contoso.com').</t>
+          <t>Quando o isolamento de tráfego ou a largura de banda dedicada forem necessários, como para separar ambientes de produção e de não produção, use circuitos de Rota Expressa diferentes. Ele ajudará você a garantir domínios de roteamento isolados e aliviar os riscos de vizinhos barulhentos.</t>
         </is>
       </c>
       <c r="E419" s="18" t="n"/>
@@ -22358,13 +22350,13 @@
       </c>
       <c r="J419" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K419" s="19" t="n"/>
       <c r="L419" s="19" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M419" s="20" t="n"/>
@@ -22381,17 +22373,17 @@
       </c>
       <c r="B420" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C420" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D420" s="18" t="inlineStr">
         <is>
-          <t>Para ambientes em que a resolução de nomes no Azure e no local é necessária, considere usar o Resolvedor Privado de DNS do Azure.</t>
+          <t>Monitore a disponibilidade e a utilização do ExpressRoute usando o Express Route Insights integrado.</t>
         </is>
       </c>
       <c r="E420" s="18" t="n"/>
@@ -22413,13 +22405,13 @@
       </c>
       <c r="J420" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K420" s="19" t="n"/>
       <c r="L420" s="19" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M420" s="20" t="n"/>
@@ -22441,18 +22433,18 @@
       </c>
       <c r="C421" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D421" s="18" t="inlineStr">
         <is>
-          <t>Cargas de trabalho especiais que exigem e implantam seu próprio DNS (como o Red Hat OpenShift) devem usar sua solução DNS preferida.</t>
+          <t>Use o Monitor de Conexão para monitoramento de conectividade na rede, especialmente entre o local e o Azure.</t>
         </is>
       </c>
       <c r="E421" s="18" t="n"/>
       <c r="F421" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
@@ -22466,11 +22458,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J421" s="13" t="n"/>
+      <c r="J421" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K421" s="19" t="n"/>
       <c r="L421" s="19" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M421" s="20" t="n"/>
@@ -22487,23 +22483,23 @@
       </c>
       <c r="B422" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C422" s="18" t="inlineStr">
         <is>
-          <t>DNS</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D422" s="18" t="inlineStr">
         <is>
-          <t>Habilite o registro automático para o DNS do Azure para gerenciar automaticamente o ciclo de vida dos registros DNS para as máquinas virtuais implantadas em uma rede virtual.</t>
+          <t>Use circuitos de Rota Expressa de diferentes locais de emparelhamento para redundância.</t>
         </is>
       </c>
       <c r="E422" s="18" t="n"/>
       <c r="F422" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
@@ -22519,13 +22515,17 @@
       </c>
       <c r="J422" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
-      <c r="K422" s="19" t="n"/>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
+      <c r="K422" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=='microsoft.network/connections' | where properties.connectionType == 'ExpressRoute' | project cxId=id, gwId=tostring(properties.virtualNetworkGateway1.id), circuitId=tostring(properties.peer.id) | join (resources | where type=='microsoft.network/expressroutecircuits' | project circuitId=tostring(id), circuitLocation=tostring(properties.serviceProviderProperties.peeringLocation)) on circuitId | distinct gwId, circuitLocation | summarize countErLocations=count() by id=gwId | extend compliant = (countErLocations &gt;= 2)</t>
+        </is>
+      </c>
       <c r="L422" s="19" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M422" s="20" t="n"/>
@@ -22542,17 +22542,17 @@
       </c>
       <c r="B423" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C423" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D423" s="18" t="inlineStr">
         <is>
-          <t>Considere usar o Bastião do Azure para se conectar com segurança à sua rede.</t>
+          <t>Use VPN site a site como failover da Rota Expressa, especialmente se estiver usando apenas um único circuito da Rota Expressa.</t>
         </is>
       </c>
       <c r="E423" s="18" t="n"/>
@@ -22576,7 +22576,7 @@
       <c r="K423" s="19" t="n"/>
       <c r="L423" s="19" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M423" s="20" t="n"/>
@@ -22593,23 +22593,23 @@
       </c>
       <c r="B424" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C424" s="18" t="inlineStr">
         <is>
-          <t>Bastion</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D424" s="18" t="inlineStr">
         <is>
-          <t>Use o Bastião do Azure em uma sub-rede /26 ou maior.</t>
+          <t>Se você estiver usando uma tabela de rotas na GatewaySubnet, verifique se as rotas de gateway são propagadas.</t>
         </is>
       </c>
       <c r="E424" s="18" t="n"/>
       <c r="F424" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
@@ -22626,12 +22626,12 @@
       <c r="J424" s="13" t="n"/>
       <c r="K424" s="19" t="inlineStr">
         <is>
-          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,subnets=properties.subnets | mv-expand subnets | project id, subnetName = subnets.name, subnetPrefix = subnets.properties.addressPrefix | extend subnetPrefixLength = split(subnetPrefix, '/')[1] | where subnetName == 'AzureBastionSubnet' | extend compliant = (subnetPrefixLength &lt;= 26) | distinct id, compliant</t>
+          <t>resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,subnetName=tostring(subnets.name),routeTableId=tostring(subnets.properties.routeTable.id) | where subnetName == 'GatewaySubnet' | join kind=leftouter (Resources | where type == 'microsoft.network/routetables' | project routeTableName=name,routeTableId=id, disableBgpRoutePropagation=properties.disableBgpRoutePropagation) on routeTableId | project id,compliant = (disableBgpRoutePropagation == False or isnull(disableBgpRoutePropagation))</t>
         </is>
       </c>
       <c r="L424" s="19" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M424" s="20" t="n"/>
@@ -22648,23 +22648,23 @@
       </c>
       <c r="B425" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C425" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D425" s="18" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Se estiver usando a Rota Expressa, seu roteamento local deve ser dinâmico: no caso de uma falha de conexão, ele deve convergir para a conexão restante do circuito. A carga deve ser compartilhada entre ambas as conexões idealmente como ativa/ativa, embora ativa/passiva também seja suportada.</t>
         </is>
       </c>
       <c r="E425" s="18" t="n"/>
       <c r="F425" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -22678,15 +22678,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J425" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+      <c r="J425" s="13" t="n"/>
       <c r="K425" s="19" t="n"/>
       <c r="L425" s="19" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M425" s="20" t="n"/>
@@ -22703,23 +22699,23 @@
       </c>
       <c r="B426" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C426" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D426" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o Azure Front Door e o Gateway de Aplicativo do Azure para ajudar a proteger aplicativos HTTP/S, use políticas de WAF no Azure Front Door. Bloqueie o Gateway de Aplicativo do Azure para receber tráfego somente do Azure Front Door.</t>
+          <t>Verifique se os dois links físicos do circuito da Rota Expressa estão conectados a dois dispositivos de borda distintos na rede.</t>
         </is>
       </c>
       <c r="E426" s="18" t="n"/>
       <c r="F426" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -22735,13 +22731,13 @@
       </c>
       <c r="J426" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K426" s="19" t="n"/>
       <c r="L426" s="19" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>b258f058-b9f6-46cd-b28d-990106f0c3f8</t>
         </is>
       </c>
       <c r="M426" s="20" t="n"/>
@@ -22758,23 +22754,23 @@
       </c>
       <c r="B427" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C427" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D427" s="18" t="inlineStr">
         <is>
-          <t>Implantar WAFs e outros proxies reversos são necessários para conexões HTTP/S de entrada, implantá-los em uma rede virtual de zona de aterrissagem e junto com os aplicativos que eles estão protegendo e expondo à Internet.</t>
+          <t>Verifique se o BFD (Bidirectional Forwarding Detection) está habilitado e configurado em dispositivos de roteamento de borda do cliente ou provedor.</t>
         </is>
       </c>
       <c r="E427" s="18" t="n"/>
       <c r="F427" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -22790,13 +22786,13 @@
       </c>
       <c r="J427" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K427" s="19" t="n"/>
       <c r="L427" s="19" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>fe2a1b53-6fbd-4c67-b58a-85d7c7a0afcb</t>
         </is>
       </c>
       <c r="M427" s="20" t="n"/>
@@ -22813,17 +22809,17 @@
       </c>
       <c r="B428" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C428" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D428" s="18" t="inlineStr">
         <is>
-          <t>Use os planos de Proteção de IP ou Rede DDoS do Azure para ajudar a proteger os pontos de extremidade de Endereços IP Públicos nas redes virtuais.</t>
+          <t>Conecte o ExpressRoute Gateway a dois ou mais circuitos de locais de emparelhamento diferentes para maior resiliência.</t>
         </is>
       </c>
       <c r="E428" s="18" t="n"/>
@@ -22845,13 +22841,13 @@
       </c>
       <c r="J428" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K428" s="19" t="n"/>
       <c r="L428" s="19" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>669b215a-ce43-4371-8f6f-11047f6490f1</t>
         </is>
       </c>
       <c r="M428" s="20" t="n"/>
@@ -22868,23 +22864,23 @@
       </c>
       <c r="B429" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C429" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D429" s="18" t="inlineStr">
         <is>
-          <t>Avalie e analise a configuração e a estratégia do tráfego de saída da rede antes da próxima mudança de ruptura. Em 30 de setembro de 2025, o acesso de saída padrão para novas implantações será desativado e somente as configurações de acesso explícito serão permitidas</t>
+          <t>Configure logs e alertas de diagnóstico para o gateway de rede virtual da Rota Expressa.</t>
         </is>
       </c>
       <c r="E429" s="18" t="n"/>
       <c r="F429" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
@@ -22898,11 +22894,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J429" s="13" t="n"/>
+      <c r="J429" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="K429" s="19" t="n"/>
       <c r="L429" s="19" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>3f79ed00-203b-4c95-9efd-691505f5a1f9</t>
         </is>
       </c>
       <c r="M429" s="20" t="n"/>
@@ -22919,23 +22919,23 @@
       </c>
       <c r="B430" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C430" s="18" t="inlineStr">
         <is>
-          <t>VNet</t>
+          <t>ExpressRoute</t>
         </is>
       </c>
       <c r="D430" s="18" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar logs relacionados a DDoS para todos os endereços IP públicos protegidos (IP DDoS ou Proteção de Rede).</t>
+          <t>Evite usar circuitos de Rota Expressa para comunicação de VNet-to-VNet.</t>
         </is>
       </c>
       <c r="E430" s="18" t="n"/>
       <c r="F430" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
@@ -22951,13 +22951,13 @@
       </c>
       <c r="J430" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="K430" s="19" t="n"/>
       <c r="L430" s="19" t="inlineStr">
         <is>
-          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
+          <t>5234c93f-b651-41dd-80c1-234177b91ced</t>
         </is>
       </c>
       <c r="M430" s="20" t="n"/>
@@ -25896,18 +25896,18 @@
       </c>
       <c r="C486" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D486" s="18" t="inlineStr">
         <is>
-          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
+          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
         </is>
       </c>
       <c r="E486" s="18" t="n"/>
       <c r="F486" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
@@ -25921,11 +25921,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J486" s="13" t="n"/>
+      <c r="J486" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="K486" s="19" t="n"/>
       <c r="L486" s="19" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M486" s="20" t="n"/>
@@ -25947,12 +25951,12 @@
       </c>
       <c r="C487" s="18" t="inlineStr">
         <is>
-          <t>WAF</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
+          <t>Exporte logs para o Armazenamento do Azure se seus requisitos de retenção de log excederem doze anos. Use o armazenamento imutável com uma política de gravação única e leitura de muitos para tornar os dados não apagáveis e não modificáveis por um intervalo especificado pelo usuário.</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
@@ -25972,11 +25976,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J487" s="13" t="n"/>
+      <c r="J487" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="K487" s="19" t="n"/>
       <c r="L487" s="19" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M487" s="20" t="n"/>
@@ -25993,17 +26001,17 @@
       </c>
       <c r="B488" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C488" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
+          <t>Monitore o desvio de configuração da máquina virtual (VM) no nível do sistema operacional usando a Política do Azure. Habilitar os recursos de auditoria de Configuração de Máquina do Azure Automanage por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -26023,11 +26031,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J488" s="13" t="n"/>
+      <c r="J488" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K488" s="19" t="n"/>
       <c r="L488" s="19" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M488" s="20" t="n"/>
@@ -26049,12 +26061,12 @@
       </c>
       <c r="C489" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>Use um único espaço de trabalho de logs de monitor para gerenciar plataformas centralmente, exceto onde o controle de acesso baseado em função do Azure (RBAC do Azure), os requisitos de soberania de dados ou as políticas de retenção de dados exigem espaços de trabalho separados.</t>
+          <t>Use o Azure Update Manager como um mecanismo de aplicação de patches para VMs do Windows e Linux no Azure.</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
@@ -26076,13 +26088,13 @@
       </c>
       <c r="J489" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K489" s="19" t="n"/>
       <c r="L489" s="19" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M489" s="20" t="n"/>
@@ -26104,12 +26116,12 @@
       </c>
       <c r="C490" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>Exporte logs para o Armazenamento do Azure se seus requisitos de retenção de log excederem doze anos. Use o armazenamento imutável com uma política de gravação única e leitura de muitos para tornar os dados não apagáveis e não modificáveis por um intervalo especificado pelo usuário.</t>
+          <t>Use o Azure Update Manager como um mecanismo de aplicação de patches para VMs do Windows e Linux fora do Azure usando o Azure Arc.</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
@@ -26131,13 +26143,13 @@
       </c>
       <c r="J490" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="K490" s="19" t="n"/>
       <c r="L490" s="19" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M490" s="20" t="n"/>
@@ -26159,12 +26171,12 @@
       </c>
       <c r="C491" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Network Watcher</t>
         </is>
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração da máquina virtual (VM) no nível do sistema operacional usando a Política do Azure. Habilitar os recursos de auditoria de Configuração de Máquina do Azure Automanage por meio da política ajuda as cargas de trabalho da equipe de aplicativos a consumir imediatamente os recursos de recursos com pouco esforço.</t>
+          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
         </is>
       </c>
       <c r="E491" s="18" t="n"/>
@@ -26186,13 +26198,13 @@
       </c>
       <c r="J491" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="K491" s="19" t="n"/>
       <c r="L491" s="19" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M491" s="20" t="n"/>
@@ -26214,12 +26226,12 @@
       </c>
       <c r="C492" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>Use o Azure Update Manager como um mecanismo de aplicação de patches para VMs do Windows e Linux no Azure.</t>
+          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
         </is>
       </c>
       <c r="E492" s="18" t="n"/>
@@ -26239,15 +26251,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J492" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J492" s="13" t="n"/>
       <c r="K492" s="19" t="n"/>
       <c r="L492" s="19" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M492" s="20" t="n"/>
@@ -26269,12 +26277,12 @@
       </c>
       <c r="C493" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>Use o Azure Update Manager como um mecanismo de aplicação de patches para VMs do Windows e Linux fora do Azure usando o Azure Arc.</t>
+          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
         </is>
       </c>
       <c r="E493" s="18" t="n"/>
@@ -26294,15 +26302,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J493" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
-        </is>
-      </c>
+      <c r="J493" s="13" t="n"/>
       <c r="K493" s="19" t="n"/>
       <c r="L493" s="19" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M493" s="20" t="n"/>
@@ -26324,12 +26328,12 @@
       </c>
       <c r="C494" s="18" t="inlineStr">
         <is>
-          <t>Network Watcher</t>
+          <t>Monitor</t>
         </is>
       </c>
       <c r="D494" s="18" t="inlineStr">
         <is>
-          <t>Use o Inspetor de Rede para monitorar proativamente os fluxos de tráfego</t>
+          <t>Ao usar o Controle de Alterações e Inventário por meio de Contas de Automação do Azure, verifique se você selecionou regiões com suporte para vincular seu espaço de trabalho do Log Analytics e contas de automação.</t>
         </is>
       </c>
       <c r="E494" s="18" t="n"/>
@@ -26349,15 +26353,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J494" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+      <c r="J494" s="13" t="n"/>
       <c r="K494" s="19" t="n"/>
       <c r="L494" s="19" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M494" s="20" t="n"/>
@@ -26374,17 +26374,17 @@
       </c>
       <c r="B495" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C495" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D495" s="18" t="inlineStr">
         <is>
-          <t>Use os Logs do Azure Monitor para insights e relatórios.</t>
+          <t>Ao usar o Backup do Azure, considere os diferentes tipos de backup (GRS, ZRS E LRS), pois a configuração padrão é GRS</t>
         </is>
       </c>
       <c r="E495" s="18" t="n"/>
@@ -26408,7 +26408,7 @@
       <c r="K495" s="19" t="n"/>
       <c r="L495" s="19" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M495" s="20" t="n"/>
@@ -26425,17 +26425,17 @@
       </c>
       <c r="B496" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C496" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D496" s="18" t="inlineStr">
         <is>
-          <t>Use alertas do Azure Monitor para a geração de alertas operacionais.</t>
+          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
         </is>
       </c>
       <c r="E496" s="18" t="n"/>
@@ -26459,7 +26459,7 @@
       <c r="K496" s="19" t="n"/>
       <c r="L496" s="19" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M496" s="20" t="n"/>
@@ -26476,20 +26476,24 @@
       </c>
       <c r="B497" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C497" s="18" t="inlineStr">
         <is>
-          <t>Monitor</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D497" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o Controle de Alterações e Inventário por meio de Contas de Automação do Azure, verifique se você selecionou regiões com suporte para vincular seu espaço de trabalho do Log Analytics e contas de automação.</t>
-        </is>
-      </c>
-      <c r="E497" s="18" t="n"/>
+          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
+        </is>
+      </c>
+      <c r="E497" s="18" t="inlineStr">
+        <is>
+          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
+        </is>
+      </c>
       <c r="F497" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -26510,7 +26514,7 @@
       <c r="K497" s="19" t="n"/>
       <c r="L497" s="19" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M497" s="20" t="n"/>
@@ -26527,7 +26531,7 @@
       </c>
       <c r="B498" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C498" s="18" t="inlineStr">
@@ -26537,7 +26541,7 @@
       </c>
       <c r="D498" s="18" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure para implantar automaticamente configurações de software por meio de extensões de VM e impor uma configuração de VM de linha de base compatível.</t>
+          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
         </is>
       </c>
       <c r="E498" s="18" t="n"/>
@@ -26561,7 +26565,7 @@
       <c r="K498" s="19" t="n"/>
       <c r="L498" s="19" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M498" s="20" t="n"/>
@@ -26578,24 +26582,20 @@
       </c>
       <c r="B499" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C499" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>Backup</t>
         </is>
       </c>
       <c r="D499" s="18" t="inlineStr">
         <is>
-          <t>Monitore o desvio de configuração de segurança da VM por meio da Política do Azure.</t>
-        </is>
-      </c>
-      <c r="E499" s="18" t="inlineStr">
-        <is>
-          <t>Os recursos de configuração de convidado da Política do Azure podem auditar e corrigir as configurações do computador (por exemplo, sistema operacional, aplicativo, ambiente) para garantir que os recursos estejam alinhados com as configurações esperadas, e o Gerenciamento de Atualizações pode impor o gerenciamento de patches para VMs.</t>
-        </is>
-      </c>
+          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
+        </is>
+      </c>
+      <c r="E499" s="18" t="n"/>
       <c r="F499" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -26616,7 +26616,7 @@
       <c r="K499" s="19" t="n"/>
       <c r="L499" s="19" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M499" s="20" t="n"/>
@@ -26633,7 +26633,7 @@
       </c>
       <c r="B500" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C500" s="18" t="inlineStr">
@@ -26643,13 +26643,13 @@
       </c>
       <c r="D500" s="18" t="inlineStr">
         <is>
-          <t>Use o Azure Site Recovery para cenários de recuperação de desastres de Máquinas Virtuais do Azure para Azure. Isso permite que você replique cargas de trabalho entre regiões.</t>
+          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
         </is>
       </c>
       <c r="E500" s="18" t="n"/>
       <c r="F500" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
@@ -26667,7 +26667,7 @@
       <c r="K500" s="19" t="n"/>
       <c r="L500" s="19" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M500" s="20" t="n"/>
@@ -26684,23 +26684,23 @@
       </c>
       <c r="B501" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C501" s="18" t="inlineStr">
         <is>
-          <t>Backup</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="D501" s="18" t="inlineStr">
         <is>
-          <t>Use os recursos de backup nativos do Azure ou uma solução de backup de terceiros de terceiros compatível com o Azure.</t>
+          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
         </is>
       </c>
       <c r="E501" s="18" t="n"/>
       <c r="F501" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
@@ -26718,7 +26718,7 @@
       <c r="K501" s="19" t="n"/>
       <c r="L501" s="19" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M501" s="20" t="n"/>
@@ -26745,13 +26745,13 @@
       </c>
       <c r="D502" s="18" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade para suas VMs em regiões onde elas são suportadas.</t>
+          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
         </is>
       </c>
       <c r="E502" s="18" t="n"/>
       <c r="F502" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
@@ -26769,7 +26769,7 @@
       <c r="K502" s="19" t="n"/>
       <c r="L502" s="19" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M502" s="20" t="n"/>
@@ -26786,17 +26786,17 @@
       </c>
       <c r="B503" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C503" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D503" s="18" t="inlineStr">
         <is>
-          <t>Evite executar uma carga de trabalho de produção em uma única VM.</t>
+          <t>Adicione configurações de diagnóstico para salvar logs WAF de serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway. Analise regularmente os logs para verificar se há ataques e detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="E503" s="18" t="n"/>
@@ -26820,7 +26820,7 @@
       <c r="K503" s="19" t="n"/>
       <c r="L503" s="19" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M503" s="20" t="n"/>
@@ -26837,17 +26837,17 @@
       </c>
       <c r="B504" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C504" s="18" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>WAF</t>
         </is>
       </c>
       <c r="D504" s="18" t="inlineStr">
         <is>
-          <t>O Balanceador de Carga do Azure e o Gateway de Aplicativo distribuem o tráfego de rede de entrada em vários recursos.</t>
+          <t>Envie logs do WAF de seus serviços de entrega de aplicativos, como o Azure Front Door e o Azure Application Gateway, para o Microsoft Sentinel. Detecte ataques e integre a telemetria WAF ao seu ambiente geral do Azure.</t>
         </is>
       </c>
       <c r="E504" s="18" t="n"/>
@@ -26871,7 +26871,7 @@
       <c r="K504" s="19" t="n"/>
       <c r="L504" s="19" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M504" s="20" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -12920,7 +12920,7 @@
       </c>
       <c r="D243" s="18" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
+          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração (Habilitando IP flutuante) reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="E243" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -281,7 +281,7 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11984,7 +11984,7 @@
       </c>
       <c r="D215" s="18" t="inlineStr">
         <is>
-          <t>Use o Azure Update Manager como um mecanismo de aplicação de patches para VMs do Windows e Linux fora do Azure usando o Azure Arc.</t>
+          <t>Use o Azure Update Manager como um mecanismo de aplicação de patches para VMs Windows e Linux fora do Azure usando o Azure Arc.</t>
         </is>
       </c>
       <c r="E215" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -48045,29 +48045,25 @@
     <row r="911">
       <c r="A911" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B911" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C911" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D911" s="18" t="inlineStr">
         <is>
-          <t>Considere a 'linha de base de segurança do Azure para armazenamento'</t>
-        </is>
-      </c>
-      <c r="E911" s="18" t="inlineStr">
-        <is>
-          <t>Aplicar as orientações do benchmark de segurança na nuvem da Microsoft relacionadas ao armazenamento</t>
-        </is>
-      </c>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão do certificado 'Mais recente'. Reduza o risco de interrupções causadas pela renovação manual do certificado.</t>
+        </is>
+      </c>
+      <c r="E911" s="18" t="n"/>
       <c r="F911" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -48088,7 +48084,7 @@
       <c r="K911" s="19" t="n"/>
       <c r="L911" s="19" t="inlineStr">
         <is>
-          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M911" s="20" t="n"/>
@@ -48100,7 +48096,7 @@
     <row r="912">
       <c r="A912" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B912" s="18" t="inlineStr">
@@ -48110,22 +48106,18 @@
       </c>
       <c r="C912" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D912" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso de pontos de extremidade privados para o Armazenamento do Azure</t>
-        </is>
-      </c>
-      <c r="E912" s="18" t="inlineStr">
-        <is>
-          <t>O Armazenamento do Azure, por padrão, tem um endereço IP público e pode ser acessado pela Internet. Os pontos de extremidade privados permitem expor com segurança o Armazenamento do Azure apenas aos recursos de Computação do Azure que precisam de acesso, eliminando assim a exposição à Internet pública</t>
-        </is>
-      </c>
+          <t>Use o Azure Front Door com políticas do WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+        </is>
+      </c>
+      <c r="E912" s="18" t="n"/>
       <c r="F912" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
@@ -48139,11 +48131,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J912" s="13" t="n"/>
+      <c r="J912" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K912" s="19" t="n"/>
       <c r="L912" s="19" t="inlineStr">
         <is>
-          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M912" s="20" t="n"/>
@@ -48155,7 +48151,7 @@
     <row r="913">
       <c r="A913" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B913" s="18" t="inlineStr">
@@ -48165,19 +48161,15 @@
       </c>
       <c r="C913" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D913" s="18" t="inlineStr">
         <is>
-          <t>Verifique se as contas de armazenamento mais antigas não estão usando o 'modelo de implantação clássico'</t>
-        </is>
-      </c>
-      <c r="E913" s="18" t="inlineStr">
-        <is>
-          <t>As contas de armazenamento recém-criadas são criadas usando o modelo de implantação ARM, para que o RBAC, a auditoria, etc., estejam todos habilitados. Verifique se não há contas de armazenamento antigas com modelo de implantação clássico em uma assinatura</t>
-        </is>
-      </c>
+          <t>Ao usar o Front Door e o Gateway de Aplicativo para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Front Door.</t>
+        </is>
+      </c>
+      <c r="E913" s="18" t="n"/>
       <c r="F913" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -48194,11 +48186,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J913" s="13" t="n"/>
+      <c r="J913" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K913" s="19" t="n"/>
       <c r="L913" s="19" t="inlineStr">
         <is>
-          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M913" s="20" t="n"/>
@@ -48210,7 +48206,7 @@
     <row r="914">
       <c r="A914" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B914" s="18" t="inlineStr">
@@ -48220,19 +48216,15 @@
       </c>
       <c r="C914" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D914" s="18" t="inlineStr">
         <is>
-          <t>Habilitar o Microsoft Defender para todas as suas contas de armazenamento</t>
-        </is>
-      </c>
-      <c r="E914" s="18" t="inlineStr">
-        <is>
-          <t>Aproveite o Microsoft Defender para saber mais sobre atividades suspeitas e configurações incorretas.</t>
-        </is>
-      </c>
+          <t>Implante sua política de WAF para o Front Door no modo 'Prevenção' para que o Firewall de Aplicativo Web tome as medidas apropriadas para permitir ou negar o tráfego.</t>
+        </is>
+      </c>
+      <c r="E914" s="18" t="n"/>
       <c r="F914" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -48250,10 +48242,14 @@
         </is>
       </c>
       <c r="J914" s="13" t="n"/>
-      <c r="K914" s="19" t="n"/>
+      <c r="K914" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L914" s="19" t="inlineStr">
         <is>
-          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M914" s="20" t="n"/>
@@ -48265,7 +48261,7 @@
     <row r="915">
       <c r="A915" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B915" s="18" t="inlineStr">
@@ -48275,22 +48271,18 @@
       </c>
       <c r="C915" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D915" s="18" t="inlineStr">
         <is>
-          <t>Ativar 'exclusão suave' para blobs</t>
-        </is>
-      </c>
-      <c r="E915" s="18" t="inlineStr">
-        <is>
-          <t>O mecanismo soft-delete permite recuperar blobs excluídos acidentalmente.</t>
-        </is>
-      </c>
+          <t>Evite colocar o Gerenciador de Tráfego atrás da Porta da Frente.</t>
+        </is>
+      </c>
+      <c r="E915" s="18" t="n"/>
       <c r="F915" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
@@ -48305,10 +48297,14 @@
         </is>
       </c>
       <c r="J915" s="13" t="n"/>
-      <c r="K915" s="19" t="n"/>
+      <c r="K915" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend compliant = properties['hostName'] !endswith '.trafficmanager.net' | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L915" s="19" t="inlineStr">
         <is>
-          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M915" s="20" t="n"/>
@@ -48320,7 +48316,7 @@
     <row r="916">
       <c r="A916" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B916" s="18" t="inlineStr">
@@ -48330,22 +48326,18 @@
       </c>
       <c r="C916" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D916" s="18" t="inlineStr">
         <is>
-          <t>Desativar 'exclusão suave' para blobs</t>
-        </is>
-      </c>
-      <c r="E916" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere desativar seletivamente a "exclusão suave" para determinados contêineres de blob, por exemplo, se o aplicativo tiver que garantir que as informações excluídas sejam imediatamente excluídas, por exemplo, por motivos de confidencialidade, privacidade ou conformidade. </t>
-        </is>
-      </c>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+        </is>
+      </c>
+      <c r="E916" s="18" t="n"/>
       <c r="F916" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G916" t="inlineStr">
@@ -48363,7 +48355,7 @@
       <c r="K916" s="19" t="n"/>
       <c r="L916" s="19" t="inlineStr">
         <is>
-          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M916" s="20" t="n"/>
@@ -48375,32 +48367,28 @@
     <row r="917">
       <c r="A917" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B917" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C917" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D917" s="18" t="inlineStr">
         <is>
-          <t>Ativar 'exclusão suave' para contêineres</t>
-        </is>
-      </c>
-      <c r="E917" s="18" t="inlineStr">
-        <is>
-          <t>A exclusão suave para contêineres permite que você recupere um contêiner depois que ele tenha sido excluído, por exemplo, recuperar de uma operação de exclusão acidental.</t>
-        </is>
-      </c>
+          <t>Desabilite as investigações de integridade quando houver apenas uma origem em um grupo de origens do Azure Front Door.</t>
+        </is>
+      </c>
+      <c r="E917" s="18" t="n"/>
       <c r="F917" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
@@ -48415,10 +48403,14 @@
         </is>
       </c>
       <c r="J917" s="13" t="n"/>
-      <c r="K917" s="19" t="n"/>
+      <c r="K917" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L917" s="19" t="inlineStr">
         <is>
-          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M917" s="20" t="n"/>
@@ -48430,29 +48422,25 @@
     <row r="918">
       <c r="A918" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B918" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C918" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D918" s="18" t="inlineStr">
         <is>
-          <t>Desativar 'exclusão suave' para contêineres</t>
-        </is>
-      </c>
-      <c r="E918" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere desativar seletivamente a "exclusão suave" para determinados contêineres de blob, por exemplo, se o aplicativo tiver que garantir que as informações excluídas sejam imediatamente excluídas, por exemplo, por motivos de confidencialidade, privacidade ou conformidade. </t>
-        </is>
-      </c>
+          <t>Selecione pontos de extremidade de investigação de integridade boa para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do aplicativo.</t>
+        </is>
+      </c>
+      <c r="E918" s="18" t="n"/>
       <c r="F918" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -48473,7 +48461,7 @@
       <c r="K918" s="19" t="n"/>
       <c r="L918" s="19" t="inlineStr">
         <is>
-          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M918" s="20" t="n"/>
@@ -48485,32 +48473,28 @@
     <row r="919">
       <c r="A919" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B919" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C919" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D919" s="18" t="inlineStr">
         <is>
-          <t>Habilitar bloqueios de recursos em contas de armazenamento</t>
-        </is>
-      </c>
-      <c r="E919" s="18" t="inlineStr">
-        <is>
-          <t>Evita a exclusão acidental de uma conta de armazenamento, forçando o usuário a remover primeiro o bloqueio de exclusão, antes da exclusão</t>
-        </is>
-      </c>
+          <t>Use investigações de integridade HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+        </is>
+      </c>
+      <c r="E919" s="18" t="n"/>
       <c r="F919" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -48525,10 +48509,14 @@
         </is>
       </c>
       <c r="J919" s="13" t="n"/>
-      <c r="K919" s="19" t="n"/>
+      <c r="K919" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L919" s="19" t="inlineStr">
         <is>
-          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M919" s="20" t="n"/>
@@ -48540,29 +48528,25 @@
     <row r="920">
       <c r="A920" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B920" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C920" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D920" s="18" t="inlineStr">
         <is>
-          <t>Considere blobs imutáveis</t>
-        </is>
-      </c>
-      <c r="E920" s="18" t="inlineStr">
-        <is>
-          <t>Considere políticas de "retenção legal" ou "retenção baseada em tempo" para blobs, de modo que seja impossível excluir o blob, o contêiner ou a conta de armazenamento. Por favor, note que "impossível" significa na verdade "impossível"; uma vez que uma conta de armazenamento contém um blob imutável, a única maneira de 'se livrar' dessa conta de armazenamento é cancelando a assinatura do Azure.</t>
-        </is>
-      </c>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+        </is>
+      </c>
+      <c r="E920" s="18" t="n"/>
       <c r="F920" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -48580,10 +48564,14 @@
         </is>
       </c>
       <c r="J920" s="13" t="n"/>
-      <c r="K920" s="19" t="n"/>
+      <c r="K920" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L920" s="19" t="inlineStr">
         <is>
-          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M920" s="20" t="n"/>
@@ -48595,32 +48583,28 @@
     <row r="921">
       <c r="A921" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B921" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C921" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D921" s="18" t="inlineStr">
         <is>
-          <t>Exigir HTTPS, ou seja, desativar a porta 80 na conta de armazenamento</t>
-        </is>
-      </c>
-      <c r="E921" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Considere desabilitar o acesso HTTP/80 desprotegido à conta de armazenamento, para que todas as transferências de dados sejam criptografadas, protegidas por integridade e o servidor seja autenticado. </t>
-        </is>
-      </c>
+          <t>Defina a configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+        </is>
+      </c>
+      <c r="E921" s="18" t="n"/>
       <c r="F921" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -48638,7 +48622,7 @@
       <c r="K921" s="19" t="n"/>
       <c r="L921" s="19" t="inlineStr">
         <is>
-          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M921" s="20" t="n"/>
@@ -48650,7 +48634,7 @@
     <row r="922">
       <c r="A922" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B922" s="18" t="inlineStr">
@@ -48660,19 +48644,15 @@
       </c>
       <c r="C922" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D922" s="18" t="inlineStr">
         <is>
-          <t>Ao impor HTTPS (desabilitando HTTP), verifique se você não usa domínios personalizados (CNAME) para a conta de armazenamento.</t>
-        </is>
-      </c>
-      <c r="E922" s="18" t="inlineStr">
-        <is>
-          <t>Ao configurar um domínio personalizado (nome do host) em uma conta de armazenamento, verifique se você precisa de TLS/HTTPS; em caso afirmativo, talvez seja necessário colocar a CDN do Azure na frente da sua conta de armazenamento.</t>
-        </is>
-      </c>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+        </is>
+      </c>
+      <c r="E922" s="18" t="n"/>
       <c r="F922" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -48690,10 +48670,14 @@
         </is>
       </c>
       <c r="J922" s="13" t="n"/>
-      <c r="K922" s="19" t="n"/>
+      <c r="K922" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = forwardingProtocol =~ 'httpsonly' and (supportedProtocols has 'https' or httpsRedirect =~ 'enabled') | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L922" s="19" t="inlineStr">
         <is>
-          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M922" s="20" t="n"/>
@@ -48705,7 +48689,7 @@
     <row r="923">
       <c r="A923" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B923" s="18" t="inlineStr">
@@ -48715,19 +48699,15 @@
       </c>
       <c r="C923" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D923" s="18" t="inlineStr">
         <is>
-          <t>Limitar tokens de assinatura de acesso compartilhado (SAS) somente a conexões HTTPS</t>
-        </is>
-      </c>
-      <c r="E923" s="18" t="inlineStr">
-        <is>
-          <t>Exigir HTTPS quando um cliente usa um token SAS para acessar dados de blob ajuda a minimizar o risco de perda de credenciais.</t>
-        </is>
-      </c>
+          <t>Use o redirecionamento de HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+        </is>
+      </c>
+      <c r="E923" s="18" t="n"/>
       <c r="F923" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -48745,10 +48725,14 @@
         </is>
       </c>
       <c r="J923" s="13" t="n"/>
-      <c r="K923" s="19" t="n"/>
+      <c r="K923" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = httpsRedirect =~ 'enabled' | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L923" s="19" t="inlineStr">
         <is>
-          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M923" s="20" t="n"/>
@@ -48760,7 +48744,7 @@
     <row r="924">
       <c r="A924" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B924" s="18" t="inlineStr">
@@ -48770,19 +48754,15 @@
       </c>
       <c r="C924" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D924" s="18" t="inlineStr">
         <is>
-          <t>Usar tokens do Azure Active Directory (Azure AD) para acesso de blob</t>
-        </is>
-      </c>
-      <c r="E924" s="18" t="inlineStr">
-        <is>
-          <t>Os tokens AAD devem ser favorecidos em relação às assinaturas de acesso compartilhado, sempre que possível</t>
-        </is>
-      </c>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma variedade de ataques.</t>
+        </is>
+      </c>
+      <c r="E924" s="18" t="n"/>
       <c r="F924" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -48803,7 +48783,7 @@
       <c r="K924" s="19" t="n"/>
       <c r="L924" s="19" t="inlineStr">
         <is>
-          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M924" s="20" t="n"/>
@@ -48815,7 +48795,7 @@
     <row r="925">
       <c r="A925" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B925" s="18" t="inlineStr">
@@ -48825,22 +48805,18 @@
       </c>
       <c r="C925" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D925" s="18" t="inlineStr">
         <is>
-          <t>Privilégio mínimo nas permissões do IaM</t>
-        </is>
-      </c>
-      <c r="E925" s="18" t="inlineStr">
-        <is>
-          <t>Ao atribuir uma função a um usuário, grupo ou aplicativo, conceda a essa entidade de segurança apenas as permissões necessárias para que eles executem suas tarefas. Limitar o acesso aos recursos ajuda a evitar o uso indevido não intencional e mal-intencionado de seus dados.</t>
-        </is>
-      </c>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho configurando o WAF no modo de detecção para reduzir e corrigir detecções de falsos positivos.</t>
+        </is>
+      </c>
+      <c r="E925" s="18" t="n"/>
       <c r="F925" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
@@ -48849,12 +48825,16 @@
         </is>
       </c>
       <c r="H925" s="18" t="n"/>
-      <c r="I925" s="13" t="n"/>
+      <c r="I925" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J925" s="13" t="n"/>
       <c r="K925" s="19" t="n"/>
       <c r="L925" s="19" t="inlineStr">
         <is>
-          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M925" s="20" t="n"/>
@@ -48866,7 +48846,7 @@
     <row r="926">
       <c r="A926" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B926" s="18" t="inlineStr">
@@ -48876,19 +48856,15 @@
       </c>
       <c r="C926" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D926" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o SAS, prefira o SAS de delegação de usuário ao SAS baseado em chave de conta de armazenamento.</t>
-        </is>
-      </c>
-      <c r="E926" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uma SAS de delegação de usuário é protegida com credenciais do Azure Active Directory (Azure AD) e também pelas permissões especificadas para a SAS. Uma SAS de delegação de usuário é análoga a uma SAS de serviço em termos de escopo e função, mas oferece benefícios de segurança em relação à SAS de serviço. </t>
-        </is>
-      </c>
+          <t>Habilite o recurso de inspeção do corpo da solicitação habilitado na política do WAF do Azure Front Door.</t>
+        </is>
+      </c>
+      <c r="E926" s="18" t="n"/>
       <c r="F926" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -48909,7 +48885,7 @@
       <c r="K926" s="19" t="n"/>
       <c r="L926" s="19" t="inlineStr">
         <is>
-          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M926" s="20" t="n"/>
@@ -48921,7 +48897,7 @@
     <row r="927">
       <c r="A927" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B927" s="18" t="inlineStr">
@@ -48931,19 +48907,15 @@
       </c>
       <c r="C927" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D927" s="18" t="inlineStr">
         <is>
-          <t>Considere desabilitar as chaves de conta de armazenamento, para que somente o acesso ao AAD (e a delegação de usuários SAS) seja suportado.</t>
-        </is>
-      </c>
-      <c r="E927" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As chaves de conta de armazenamento ('chaves compartilhadas') têm pouquíssimos recursos de auditoria. Embora possa ser monitorado em quem/quando foi obtida uma cópia das chaves, uma vez que as chaves estão nas mãos de várias pessoas, é impossível atribuir o uso a um usuário específico. Depender exclusivamente da autenticação do AAD facilita a vinculação do acesso ao armazenamento a um usuário. </t>
-        </is>
-      </c>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+        </is>
+      </c>
+      <c r="E927" s="18" t="n"/>
       <c r="F927" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -48964,7 +48936,7 @@
       <c r="K927" s="19" t="n"/>
       <c r="L927" s="19" t="inlineStr">
         <is>
-          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M927" s="20" t="n"/>
@@ -48976,7 +48948,7 @@
     <row r="928">
       <c r="A928" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B928" s="18" t="inlineStr">
@@ -48986,19 +48958,15 @@
       </c>
       <c r="C928" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D928" s="18" t="inlineStr">
         <is>
-          <t>Considere usar o Azure Monitor para auditar as operações do plano de controle na conta de armazenamento</t>
-        </is>
-      </c>
-      <c r="E928" s="18" t="inlineStr">
-        <is>
-          <t>Use os dados do Registro de atividades para identificar "quando", "quem", "o que" e "como" a segurança da sua conta de armazenamento está sendo visualizada ou alterada (ou seja, chaves de conta de armazenamento, políticas de acesso, etc.).</t>
-        </is>
-      </c>
+          <t>Habilite o conjunto de regras de proteção contra bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+        </is>
+      </c>
+      <c r="E928" s="18" t="n"/>
       <c r="F928" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -49019,7 +48987,7 @@
       <c r="K928" s="19" t="n"/>
       <c r="L928" s="19" t="inlineStr">
         <is>
-          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M928" s="20" t="n"/>
@@ -49031,7 +48999,7 @@
     <row r="929">
       <c r="A929" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B929" s="18" t="inlineStr">
@@ -49041,19 +49009,15 @@
       </c>
       <c r="C929" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D929" s="18" t="inlineStr">
         <is>
-          <t>Ao usar chaves de conta de armazenamento, considere habilitar uma 'política de expiração de chave'</t>
-        </is>
-      </c>
-      <c r="E929" s="18" t="inlineStr">
-        <is>
-          <t>Uma política de expiração de chave permite que você defina um lembrete para a rotação das chaves de acesso da conta. O lembrete será exibido se o intervalo especificado tiver decorrido e as teclas ainda não tiverem sido giradas.</t>
-        </is>
-      </c>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário de ameaças atual.</t>
+        </is>
+      </c>
+      <c r="E929" s="18" t="n"/>
       <c r="F929" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -49074,7 +49038,7 @@
       <c r="K929" s="19" t="n"/>
       <c r="L929" s="19" t="inlineStr">
         <is>
-          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M929" s="20" t="n"/>
@@ -49086,7 +49050,7 @@
     <row r="930">
       <c r="A930" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B930" s="18" t="inlineStr">
@@ -49096,19 +49060,15 @@
       </c>
       <c r="C930" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D930" s="18" t="inlineStr">
         <is>
-          <t>Considere configurar uma política de expiração SAS</t>
-        </is>
-      </c>
-      <c r="E930" s="18" t="inlineStr">
-        <is>
-          <t>Uma diretiva de expiração SAS especifica um intervalo recomendado sobre o qual a SAS é válida. As políticas de expiração do SAS se aplicam a um SAS de serviço ou a um SAS de conta. Quando um usuário gera SAS de serviço ou SAS de conta com um intervalo de validade maior do que o intervalo recomendado, ele verá um aviso.</t>
-        </is>
-      </c>
+          <t>Adicione a limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia os clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+        </is>
+      </c>
+      <c r="E930" s="18" t="n"/>
       <c r="F930" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -49129,7 +49089,7 @@
       <c r="K930" s="19" t="n"/>
       <c r="L930" s="19" t="inlineStr">
         <is>
-          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M930" s="20" t="n"/>
@@ -49141,7 +49101,7 @@
     <row r="931">
       <c r="A931" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B931" s="18" t="inlineStr">
@@ -49151,19 +49111,15 @@
       </c>
       <c r="C931" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D931" s="18" t="inlineStr">
         <is>
-          <t>Considere vincular o SAS a uma política de acesso armazenado</t>
-        </is>
-      </c>
-      <c r="E931" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As políticas de acesso armazenado oferecem a opção de revogar permissões para uma SAS de serviço sem precisar gerar novamente as chaves da conta de armazenamento. </t>
-        </is>
-      </c>
+          <t>Use um limite alto para os limites de taxa do WAF do Azure Front Door. Os limites de limite de taxa altos evitam o bloqueio do tráfego legítimo, ao mesmo tempo em que fornecem proteção contra números extremamente altos de solicitações que podem sobrecarregar sua infraestrutura.</t>
+        </is>
+      </c>
+      <c r="E931" s="18" t="n"/>
       <c r="F931" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -49184,7 +49140,7 @@
       <c r="K931" s="19" t="n"/>
       <c r="L931" s="19" t="inlineStr">
         <is>
-          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M931" s="20" t="n"/>
@@ -49196,7 +49152,7 @@
     <row r="932">
       <c r="A932" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B932" s="18" t="inlineStr">
@@ -49206,18 +49162,18 @@
       </c>
       <c r="C932" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D932" s="18" t="inlineStr">
         <is>
-          <t>Considere configurar o repositório de código-fonte do aplicativo para detectar cadeias de conexão com check-in e chaves de conta de armazenamento.</t>
+          <t>Se você não estiver esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
         </is>
       </c>
       <c r="E932" s="18" t="n"/>
       <c r="F932" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G932" t="inlineStr">
@@ -49235,7 +49191,7 @@
       <c r="K932" s="19" t="n"/>
       <c r="L932" s="19" t="inlineStr">
         <is>
-          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M932" s="20" t="n"/>
@@ -49247,7 +49203,7 @@
     <row r="933">
       <c r="A933" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B933" s="18" t="inlineStr">
@@ -49257,22 +49213,18 @@
       </c>
       <c r="C933" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D933" s="18" t="inlineStr">
         <is>
-          <t>Considere armazenar cadeias de conexão no Cofre de Chaves do Azure (em cenários em que identidades gerenciadas não são possíveis)</t>
-        </is>
-      </c>
-      <c r="E933" s="18" t="inlineStr">
-        <is>
-          <t>Idealmente, seu aplicativo deve estar usando uma identidade gerenciada para autenticar no Armazenamento do Azure. Se isso não for possível, considere ter a credencial de armazenamento (cadeia de conexão, chave de conta de armazenamento, SAS, credencial da entidade de serviço) no Azure KeyVault ou em um serviço equivalente.</t>
-        </is>
-      </c>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+        </is>
+      </c>
+      <c r="E933" s="18" t="n"/>
       <c r="F933" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G933" t="inlineStr">
@@ -49290,7 +49242,7 @@
       <c r="K933" s="19" t="n"/>
       <c r="L933" s="19" t="inlineStr">
         <is>
-          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M933" s="20" t="n"/>
@@ -49302,32 +49254,28 @@
     <row r="934">
       <c r="A934" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B934" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C934" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D934" s="18" t="inlineStr">
         <is>
-          <t>Esforce-se por curtos períodos de validade para SAS ad-hoc</t>
-        </is>
-      </c>
-      <c r="E934" s="18" t="inlineStr">
-        <is>
-          <t>Use tempos de expiração de curto prazo em um SAS de serviço SAS ad hoc ou SAS de conta. Dessa forma, mesmo que um SAS seja comprometido, ele é válido apenas por um curto período de tempo. Essa prática é especialmente importante se você não puder fazer referência a uma política de acesso armazenado. Os tempos de expiração de curto prazo também limitam a quantidade de dados que podem ser gravados em um blob, limitando o tempo disponível para carregar nele.</t>
-        </is>
-      </c>
+          <t>Capture logs e métricas ativando as Configurações de Diagnóstico. Inclua logs de atividades de recursos, logs de acesso, logs de investigação de integridade e logs do WAF. Configure alertas.</t>
+        </is>
+      </c>
+      <c r="E934" s="18" t="n"/>
       <c r="F934" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G934" t="inlineStr">
@@ -49345,7 +49293,7 @@
       <c r="K934" s="19" t="n"/>
       <c r="L934" s="19" t="inlineStr">
         <is>
-          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M934" s="20" t="n"/>
@@ -49357,29 +49305,25 @@
     <row r="935">
       <c r="A935" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B935" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C935" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D935" s="18" t="inlineStr">
         <is>
-          <t>Aplicar um escopo restrito a uma SAS</t>
-        </is>
-      </c>
-      <c r="E935" s="18" t="inlineStr">
-        <is>
-          <t>Ao criar um SAS, seja o mais específico e restritivo possível. Prefira um SAS para um único recurso e operação em vez de um SAS que dá acesso muito mais amplo.</t>
-        </is>
-      </c>
+          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
+        </is>
+      </c>
+      <c r="E935" s="18" t="n"/>
       <c r="F935" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -49400,7 +49344,7 @@
       <c r="K935" s="19" t="n"/>
       <c r="L935" s="19" t="inlineStr">
         <is>
-          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M935" s="20" t="n"/>
@@ -49412,29 +49356,25 @@
     <row r="936">
       <c r="A936" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B936" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C936" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D936" s="18" t="inlineStr">
         <is>
-          <t>Considere a definição do escopo do SAS para um endereço IP de cliente específico, sempre que possível</t>
-        </is>
-      </c>
-      <c r="E936" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uma SAS pode incluir parâmetros nos quais endereços IP de cliente ou intervalos de endereços estão autorizados a solicitar um recurso usando a SAS. </t>
-        </is>
-      </c>
+          <t>Escolha um método de roteamento que dê suporte à sua estratégia de implantação. O método ponderado, que distribui o tráfego com base no coeficiente de peso configurado, oferece suporte a modelos ativos-ativos. Um valor baseado em prioridade que configura a região primária para receber todo o tráfego e enviar tráfego para a região secundária como backup oferece suporte a modelos ativo-passivo. Combine os métodos anteriores com latência para que a origem com a menor latência receba tráfego.</t>
+        </is>
+      </c>
+      <c r="E936" s="18" t="n"/>
       <c r="F936" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -49455,7 +49395,7 @@
       <c r="K936" s="19" t="n"/>
       <c r="L936" s="19" t="inlineStr">
         <is>
-          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+          <t>3bb0a854-ea3d-4212-bd8e-3f0cb7792b02</t>
         </is>
       </c>
       <c r="M936" s="20" t="n"/>
@@ -49467,32 +49407,28 @@
     <row r="937">
       <c r="A937" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B937" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C937" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D937" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere verificar os dados carregados, depois que os clientes usaram um SAS para carregar um arquivo. </t>
-        </is>
-      </c>
-      <c r="E937" s="18" t="inlineStr">
-        <is>
-          <t>Um SAS não pode restringir a quantidade de dados que um cliente carrega; Dado o modelo de precificação da quantidade de armazenamento ao longo do tempo, pode fazer sentido validar se os clientes carregaram conteúdo maliciosamente grande.</t>
-        </is>
-      </c>
+          <t>Dar suporte à redundância por ter várias origens em um ou mais pools de back-end. Sempre tenha instâncias redundantes do seu aplicativo e certifique-se de que cada instância exponha um ponto de extremidade ou origem. Você pode colocar essas origens em um ou mais pools de back-end.</t>
+        </is>
+      </c>
+      <c r="E937" s="18" t="n"/>
       <c r="F937" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
@@ -49501,12 +49437,20 @@
         </is>
       </c>
       <c r="H937" s="18" t="n"/>
-      <c r="I937" s="13" t="n"/>
+      <c r="I937" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J937" s="13" t="n"/>
-      <c r="K937" s="19" t="n"/>
+      <c r="K937" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L937" s="19" t="inlineStr">
         <is>
-          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+          <t>c3a769e4-cc78-40a9-b36a-f9bcab19ec2d</t>
         </is>
       </c>
       <c r="M937" s="20" t="n"/>
@@ -49518,32 +49462,28 @@
     <row r="938">
       <c r="A938" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B938" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C938" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D938" s="18" t="inlineStr">
         <is>
-          <t>SFTP: Limite a quantidade de 'usuários locais' para acesso SFTP e audite se o acesso é necessário ao longo do tempo.</t>
-        </is>
-      </c>
-      <c r="E938" s="18" t="inlineStr">
-        <is>
-          <t>Ao acessar o armazenamento de blob via SFTP usando uma 'conta de usuário local', os controles RBAC 'normais' não se aplicam. O acesso a blobs via NFS ou REST pode ser mais restritivo do que o acesso a SFTP. Infelizmente, no início de 2023, os usuários locais são a única forma de gerenciamento de identidade que atualmente é suportada para o ponto de extremidade SFTP</t>
-        </is>
-      </c>
+          <t>Defina um tempo limite para encaminhar solicitações para o back-end. Ajuste a configuração de tempo limite de acordo com as necessidades de seus endpoints. Caso contrário, o Azure Front Door poderá fechar a conexão antes que a origem envie a resposta. Você também pode reduzir o tempo limite padrão do Azure Front Door se todas as suas origens tiverem um tempo limite mais curto.</t>
+        </is>
+      </c>
+      <c r="E938" s="18" t="n"/>
       <c r="F938" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -49561,7 +49501,7 @@
       <c r="K938" s="19" t="n"/>
       <c r="L938" s="19" t="inlineStr">
         <is>
-          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+          <t>999852be-2137-4179-8fc3-30d1df6fed1d</t>
         </is>
       </c>
       <c r="M938" s="20" t="n"/>
@@ -49573,22 +49513,22 @@
     <row r="939">
       <c r="A939" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B939" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C939" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D939" s="18" t="inlineStr">
         <is>
-          <t>SFTP: O ponto de extremidade SFTP não oferece suporte a ACLs do tipo POSIX.</t>
+          <t>Decida se seu aplicativo requer afinidade de sessão. Se você tiver requisitos de alta confiabilidade, recomendamos que você desabilite a afinidade de sessão.</t>
         </is>
       </c>
       <c r="E939" s="18" t="n"/>
@@ -49612,7 +49552,7 @@
       <c r="K939" s="19" t="n"/>
       <c r="L939" s="19" t="inlineStr">
         <is>
-          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+          <t>17bf6351-3e5e-41f1-87bb-d5ad0b4e3de6</t>
         </is>
       </c>
       <c r="M939" s="20" t="n"/>
@@ -49624,7 +49564,7 @@
     <row r="940">
       <c r="A940" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B940" s="18" t="inlineStr">
@@ -49634,22 +49574,18 @@
       </c>
       <c r="C940" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D940" s="18" t="inlineStr">
         <is>
-          <t>Evite políticas CORS excessivamente amplas</t>
-        </is>
-      </c>
-      <c r="E940" s="18" t="inlineStr">
-        <is>
-          <t>O armazenamento oferece suporte a CORS (Cross-Origin Resource Sharing), ou seja, um recurso HTTP que permite que aplicativos Web de um domínio diferente afrouxem a política de mesma origem. Ao habilitar o CORS, mantenha o CorsRules com o menor privilégio.</t>
-        </is>
-      </c>
+          <t>Envie o cabeçalho do host para o back-end. Os serviços de back-end devem estar cientes do nome do host para que possam criar regras para aceitar o tráfego somente desse host.</t>
+        </is>
+      </c>
+      <c r="E940" s="18" t="n"/>
       <c r="F940" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -49667,7 +49603,7 @@
       <c r="K940" s="19" t="n"/>
       <c r="L940" s="19" t="inlineStr">
         <is>
-          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+          <t>425bfb31-94c4-4007-b9ae-46da9fe57cc7</t>
         </is>
       </c>
       <c r="M940" s="20" t="n"/>
@@ -49679,32 +49615,28 @@
     <row r="941">
       <c r="A941" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B941" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C941" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D941" s="18" t="inlineStr">
         <is>
-          <t>Determine como os dados em repouso devem ser criptografados. Entenda o modelo de thread para dados.</t>
-        </is>
-      </c>
-      <c r="E941" s="18" t="inlineStr">
-        <is>
-          <t>Os dados em repouso são sempre criptografados no lado do servidor e, além disso, também podem ser criptografados no lado do cliente. A criptografia do lado do servidor pode acontecer usando uma chave gerenciada por plataforma (padrão) ou uma chave gerenciada pelo cliente. A criptografia do lado do cliente pode acontecer fazendo com que o cliente forneça uma chave de criptografia/descriptografia por blob para o armazenamento do Azure ou manipulando completamente a criptografia no lado do cliente. portanto, não depende do Armazenamento do Azure para garantias de confidencialidade.</t>
-        </is>
-      </c>
+          <t>Use o cache para pontos de extremidade que dão suporte a ele.</t>
+        </is>
+      </c>
+      <c r="E941" s="18" t="n"/>
       <c r="F941" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -49722,7 +49654,7 @@
       <c r="K941" s="19" t="n"/>
       <c r="L941" s="19" t="inlineStr">
         <is>
-          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+          <t>81a5398a-2414-450f-9fc3-e048bc65784c</t>
         </is>
       </c>
       <c r="M941" s="20" t="n"/>
@@ -49734,28 +49666,28 @@
     <row r="942">
       <c r="A942" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B942" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C942" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D942" s="18" t="inlineStr">
         <is>
-          <t>Determine qual/se a criptografia de plataforma deve ser usada.</t>
+          <t>Desabilite as verificações de integridade em pools de back-end únicos. Se você tiver apenas uma origem configurada no grupo de origens do Azure Front Door, essas chamadas serão desnecessárias. Isso só é recomendado se você não puder ter várias origens em seu endpoint.</t>
         </is>
       </c>
       <c r="E942" s="18" t="n"/>
       <c r="F942" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
@@ -49770,10 +49702,14 @@
         </is>
       </c>
       <c r="J942" s="13" t="n"/>
-      <c r="K942" s="19" t="n"/>
+      <c r="K942" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 or (origincount == 1 and enabledhealthprobecount == 0) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L942" s="19" t="inlineStr">
         <is>
-          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+          <t>34069d73-e4de-46c5-a36f-625f87575a56</t>
         </is>
       </c>
       <c r="M942" s="20" t="n"/>
@@ -49785,22 +49721,22 @@
     <row r="943">
       <c r="A943" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B943" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C943" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D943" s="18" t="inlineStr">
         <is>
-          <t>Determine qual/se a criptografia do lado do cliente deve ser usada.</t>
+          <t>É recomendável usar a Camada Premium para aproveitar os relatórios de segurança, enquanto o Perfil Standard do Azure Front Door fornece apenas relatórios de tráfego em análises/relatórios internos.</t>
         </is>
       </c>
       <c r="E943" s="18" t="n"/>
@@ -49824,7 +49760,7 @@
       <c r="K943" s="19" t="n"/>
       <c r="L943" s="19" t="inlineStr">
         <is>
-          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+          <t>c92d6786-cdd1-444d-9cad-934a192a276a</t>
         </is>
       </c>
       <c r="M943" s="20" t="n"/>
@@ -49836,32 +49772,28 @@
     <row r="944">
       <c r="A944" s="18" t="inlineStr">
         <is>
-          <t>Azure Blob Storage Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B944" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C944" s="18" t="inlineStr">
         <is>
-          <t>Azure Storage</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D944" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere se o acesso de blob público é necessário ou se pode ser desabilitado para determinadas contas de armazenamento. </t>
-        </is>
-      </c>
-      <c r="E944" s="18" t="inlineStr">
-        <is>
-          <t>Aproveite o Resource Graph Explorer (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para localizar contas de armazenamento que permitem acesso anônimo a blobs.</t>
-        </is>
-      </c>
+          <t>Use certificados TLS curinga quando possível.</t>
+        </is>
+      </c>
+      <c r="E944" s="18" t="n"/>
       <c r="F944" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -49879,7 +49811,7 @@
       <c r="K944" s="19" t="n"/>
       <c r="L944" s="19" t="inlineStr">
         <is>
-          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+          <t>440cf7de-30a1-4550-ab50-c9f6eac140cd</t>
         </is>
       </c>
       <c r="M944" s="20" t="n"/>
@@ -49889,17 +49821,50 @@
       <c r="Q944" s="20" t="n"/>
     </row>
     <row r="945">
-      <c r="A945" s="18" t="n"/>
-      <c r="B945" s="18" t="n"/>
-      <c r="C945" s="18" t="n"/>
-      <c r="D945" s="18" t="n"/>
+      <c r="A945" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B945" s="18" t="inlineStr">
+        <is>
+          <t>Desempenho</t>
+        </is>
+      </c>
+      <c r="C945" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D945" s="18" t="inlineStr">
+        <is>
+          <t>Otimize a cadeia de caracteres de consulta do aplicativo para armazenamento em cache. Para conteúdo puramente estático, ignore as cadeias de caracteres de consulta para maximizar o uso do cache. Se o aplicativo usar cadeias de caracteres de consulta, considere incluí-las na chave de cache. Incluir as cadeias de caracteres de consulta na chave de cache permite que o Azure Front Door forneça respostas armazenadas em cache ou outras respostas, com base em sua configuração.</t>
+        </is>
+      </c>
       <c r="E945" s="18" t="n"/>
-      <c r="F945" s="18" t="n"/>
+      <c r="F945" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G945" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H945" s="18" t="n"/>
-      <c r="I945" s="13" t="n"/>
+      <c r="I945" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J945" s="13" t="n"/>
       <c r="K945" s="19" t="n"/>
-      <c r="L945" s="19" t="n"/>
+      <c r="L945" s="19" t="inlineStr">
+        <is>
+          <t>556e2733-6ca9-4edd-9cc7-26de66d46c2e</t>
+        </is>
+      </c>
       <c r="M945" s="20" t="n"/>
       <c r="N945" s="20" t="n"/>
       <c r="O945" s="20" t="n"/>
@@ -49907,17 +49872,50 @@
       <c r="Q945" s="20" t="n"/>
     </row>
     <row r="946">
-      <c r="A946" s="18" t="n"/>
-      <c r="B946" s="18" t="n"/>
-      <c r="C946" s="18" t="n"/>
-      <c r="D946" s="18" t="n"/>
+      <c r="A946" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B946" s="18" t="inlineStr">
+        <is>
+          <t>Desempenho</t>
+        </is>
+      </c>
+      <c r="C946" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D946" s="18" t="inlineStr">
+        <is>
+          <t>Use a compactação de arquivos ao acessar conteúdo para download.</t>
+        </is>
+      </c>
       <c r="E946" s="18" t="n"/>
-      <c r="F946" s="18" t="n"/>
+      <c r="F946" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G946" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H946" s="18" t="n"/>
-      <c r="I946" s="13" t="n"/>
+      <c r="I946" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J946" s="13" t="n"/>
       <c r="K946" s="19" t="n"/>
-      <c r="L946" s="19" t="n"/>
+      <c r="L946" s="19" t="inlineStr">
+        <is>
+          <t>c0b7e55e-fcab-4e66-bdae-bd0290f6aece</t>
+        </is>
+      </c>
       <c r="M946" s="20" t="n"/>
       <c r="N946" s="20" t="n"/>
       <c r="O946" s="20" t="n"/>
@@ -49925,17 +49923,54 @@
       <c r="Q946" s="20" t="n"/>
     </row>
     <row r="947">
-      <c r="A947" s="18" t="n"/>
-      <c r="B947" s="18" t="n"/>
-      <c r="C947" s="18" t="n"/>
-      <c r="D947" s="18" t="n"/>
+      <c r="A947" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B947" s="18" t="inlineStr">
+        <is>
+          <t>Operações</t>
+        </is>
+      </c>
+      <c r="C947" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D947" s="18" t="inlineStr">
+        <is>
+          <t>Considere migrar para o SKU Standard ou Premium se você estiver usando o Azure Front Door Clássico atualmente, pois o Front Door do Azure Clássico será preterido até março de 2027.</t>
+        </is>
+      </c>
       <c r="E947" s="18" t="n"/>
-      <c r="F947" s="18" t="n"/>
+      <c r="F947" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G947" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H947" s="18" t="n"/>
-      <c r="I947" s="13" t="n"/>
+      <c r="I947" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J947" s="13" t="n"/>
-      <c r="K947" s="19" t="n"/>
-      <c r="L947" s="19" t="n"/>
+      <c r="K947" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/frontdoors' and properties['resourceState'] !~ 'migrated' | extend compliant = false | project id, compliant</t>
+        </is>
+      </c>
+      <c r="L947" s="19" t="inlineStr">
+        <is>
+          <t>cb8eb8c0-aa73-4a26-a495-6eba8dc4a243</t>
+        </is>
+      </c>
       <c r="M947" s="20" t="n"/>
       <c r="N947" s="20" t="n"/>
       <c r="O947" s="20" t="n"/>
@@ -49943,17 +49978,50 @@
       <c r="Q947" s="20" t="n"/>
     </row>
     <row r="948">
-      <c r="A948" s="18" t="n"/>
-      <c r="B948" s="18" t="n"/>
-      <c r="C948" s="18" t="n"/>
-      <c r="D948" s="18" t="n"/>
+      <c r="A948" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B948" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C948" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D948" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere usar o balanceamento de carga do Gerenciador de Tráfego, o Azure Front Door e um perfil de CDN de provedor de CDN de terceiros para o cenário de alta disponibilidade crítico. </t>
+        </is>
+      </c>
       <c r="E948" s="18" t="n"/>
-      <c r="F948" s="18" t="n"/>
+      <c r="F948" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G948" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H948" s="18" t="n"/>
-      <c r="I948" s="13" t="n"/>
+      <c r="I948" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J948" s="13" t="n"/>
       <c r="K948" s="19" t="n"/>
-      <c r="L948" s="19" t="n"/>
+      <c r="L948" s="19" t="inlineStr">
+        <is>
+          <t>67c33697-15b1-4752-aeee-0b9b588defc4</t>
+        </is>
+      </c>
       <c r="M948" s="20" t="n"/>
       <c r="N948" s="20" t="n"/>
       <c r="O948" s="20" t="n"/>
@@ -49961,17 +50029,50 @@
       <c r="Q948" s="20" t="n"/>
     </row>
     <row r="949">
-      <c r="A949" s="18" t="n"/>
-      <c r="B949" s="18" t="n"/>
-      <c r="C949" s="18" t="n"/>
-      <c r="D949" s="18" t="n"/>
+      <c r="A949" s="18" t="inlineStr">
+        <is>
+          <t>Azure Application Delivery Networking</t>
+        </is>
+      </c>
+      <c r="B949" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C949" s="18" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="D949" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ao usar o Front Door com origem como serviços de aplicativos, considere bloquear o tráfego para serviços de aplicativos somente por meio do Azure Front Door usando restrições de acesso. </t>
+        </is>
+      </c>
       <c r="E949" s="18" t="n"/>
-      <c r="F949" s="18" t="n"/>
+      <c r="F949" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G949" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H949" s="18" t="n"/>
-      <c r="I949" s="13" t="n"/>
+      <c r="I949" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J949" s="13" t="n"/>
       <c r="K949" s="19" t="n"/>
-      <c r="L949" s="19" t="n"/>
+      <c r="L949" s="19" t="inlineStr">
+        <is>
+          <t>972cd4cd-25b0-4b70-96e9-eab4bfd32907</t>
+        </is>
+      </c>
       <c r="M949" s="20" t="n"/>
       <c r="N949" s="20" t="n"/>
       <c r="O949" s="20" t="n"/>
@@ -49979,17 +50080,54 @@
       <c r="Q949" s="20" t="n"/>
     </row>
     <row r="950">
-      <c r="A950" s="18" t="n"/>
-      <c r="B950" s="18" t="n"/>
-      <c r="C950" s="18" t="n"/>
-      <c r="D950" s="18" t="n"/>
-      <c r="E950" s="18" t="n"/>
-      <c r="F950" s="18" t="n"/>
+      <c r="A950" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B950" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C950" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D950" s="18" t="inlineStr">
+        <is>
+          <t>Considere a 'linha de base de segurança do Azure para armazenamento'</t>
+        </is>
+      </c>
+      <c r="E950" s="18" t="inlineStr">
+        <is>
+          <t>Aplicar as orientações do benchmark de segurança na nuvem da Microsoft relacionadas ao armazenamento</t>
+        </is>
+      </c>
+      <c r="F950" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G950" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H950" s="18" t="n"/>
-      <c r="I950" s="13" t="n"/>
+      <c r="I950" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J950" s="13" t="n"/>
       <c r="K950" s="19" t="n"/>
-      <c r="L950" s="19" t="n"/>
+      <c r="L950" s="19" t="inlineStr">
+        <is>
+          <t>d237de14-3b16-4c21-b7aa-9b64604489a8</t>
+        </is>
+      </c>
       <c r="M950" s="20" t="n"/>
       <c r="N950" s="20" t="n"/>
       <c r="O950" s="20" t="n"/>
@@ -49997,17 +50135,54 @@
       <c r="Q950" s="20" t="n"/>
     </row>
     <row r="951">
-      <c r="A951" s="18" t="n"/>
-      <c r="B951" s="18" t="n"/>
-      <c r="C951" s="18" t="n"/>
-      <c r="D951" s="18" t="n"/>
-      <c r="E951" s="18" t="n"/>
-      <c r="F951" s="18" t="n"/>
+      <c r="A951" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B951" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C951" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D951" s="18" t="inlineStr">
+        <is>
+          <t>Considere o uso de pontos de extremidade privados para o Armazenamento do Azure</t>
+        </is>
+      </c>
+      <c r="E951" s="18" t="inlineStr">
+        <is>
+          <t>O Armazenamento do Azure, por padrão, tem um endereço IP público e pode ser acessado pela Internet. Os pontos de extremidade privados permitem expor com segurança o Armazenamento do Azure apenas aos recursos de Computação do Azure que precisam de acesso, eliminando assim a exposição à Internet pública</t>
+        </is>
+      </c>
+      <c r="F951" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G951" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H951" s="18" t="n"/>
-      <c r="I951" s="13" t="n"/>
+      <c r="I951" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J951" s="13" t="n"/>
       <c r="K951" s="19" t="n"/>
-      <c r="L951" s="19" t="n"/>
+      <c r="L951" s="19" t="inlineStr">
+        <is>
+          <t>f42d78e7-9d17-4a73-a22a-5a67e7a8ed4b</t>
+        </is>
+      </c>
       <c r="M951" s="20" t="n"/>
       <c r="N951" s="20" t="n"/>
       <c r="O951" s="20" t="n"/>
@@ -50015,17 +50190,54 @@
       <c r="Q951" s="20" t="n"/>
     </row>
     <row r="952">
-      <c r="A952" s="18" t="n"/>
-      <c r="B952" s="18" t="n"/>
-      <c r="C952" s="18" t="n"/>
-      <c r="D952" s="18" t="n"/>
-      <c r="E952" s="18" t="n"/>
-      <c r="F952" s="18" t="n"/>
+      <c r="A952" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B952" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C952" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D952" s="18" t="inlineStr">
+        <is>
+          <t>Verifique se as contas de armazenamento mais antigas não estão usando o 'modelo de implantação clássico'</t>
+        </is>
+      </c>
+      <c r="E952" s="18" t="inlineStr">
+        <is>
+          <t>As contas de armazenamento recém-criadas são criadas usando o modelo de implantação ARM, para que o RBAC, a auditoria, etc., estejam todos habilitados. Verifique se não há contas de armazenamento antigas com modelo de implantação clássico em uma assinatura</t>
+        </is>
+      </c>
+      <c r="F952" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G952" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H952" s="18" t="n"/>
-      <c r="I952" s="13" t="n"/>
+      <c r="I952" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J952" s="13" t="n"/>
       <c r="K952" s="19" t="n"/>
-      <c r="L952" s="19" t="n"/>
+      <c r="L952" s="19" t="inlineStr">
+        <is>
+          <t>30e37c3e-2971-41b2-963c-eee079b598de</t>
+        </is>
+      </c>
       <c r="M952" s="20" t="n"/>
       <c r="N952" s="20" t="n"/>
       <c r="O952" s="20" t="n"/>
@@ -50033,17 +50245,54 @@
       <c r="Q952" s="20" t="n"/>
     </row>
     <row r="953">
-      <c r="A953" s="18" t="n"/>
-      <c r="B953" s="18" t="n"/>
-      <c r="C953" s="18" t="n"/>
-      <c r="D953" s="18" t="n"/>
-      <c r="E953" s="18" t="n"/>
-      <c r="F953" s="18" t="n"/>
+      <c r="A953" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B953" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C953" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D953" s="18" t="inlineStr">
+        <is>
+          <t>Habilitar o Microsoft Defender para todas as suas contas de armazenamento</t>
+        </is>
+      </c>
+      <c r="E953" s="18" t="inlineStr">
+        <is>
+          <t>Aproveite o Microsoft Defender para saber mais sobre atividades suspeitas e configurações incorretas.</t>
+        </is>
+      </c>
+      <c r="F953" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G953" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H953" s="18" t="n"/>
-      <c r="I953" s="13" t="n"/>
+      <c r="I953" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J953" s="13" t="n"/>
       <c r="K953" s="19" t="n"/>
-      <c r="L953" s="19" t="n"/>
+      <c r="L953" s="19" t="inlineStr">
+        <is>
+          <t>fc5972cd-4cd2-41b0-a803-7f5e6b4bfd3d</t>
+        </is>
+      </c>
       <c r="M953" s="20" t="n"/>
       <c r="N953" s="20" t="n"/>
       <c r="O953" s="20" t="n"/>
@@ -50051,17 +50300,54 @@
       <c r="Q953" s="20" t="n"/>
     </row>
     <row r="954">
-      <c r="A954" s="18" t="n"/>
-      <c r="B954" s="18" t="n"/>
-      <c r="C954" s="18" t="n"/>
-      <c r="D954" s="18" t="n"/>
-      <c r="E954" s="18" t="n"/>
-      <c r="F954" s="18" t="n"/>
+      <c r="A954" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B954" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C954" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D954" s="18" t="inlineStr">
+        <is>
+          <t>Ativar 'exclusão suave' para blobs</t>
+        </is>
+      </c>
+      <c r="E954" s="18" t="inlineStr">
+        <is>
+          <t>O mecanismo soft-delete permite recuperar blobs excluídos acidentalmente.</t>
+        </is>
+      </c>
+      <c r="F954" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G954" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H954" s="18" t="n"/>
-      <c r="I954" s="13" t="n"/>
+      <c r="I954" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J954" s="13" t="n"/>
       <c r="K954" s="19" t="n"/>
-      <c r="L954" s="19" t="n"/>
+      <c r="L954" s="19" t="inlineStr">
+        <is>
+          <t>503547c1-447e-4c66-828a-7100f1ce16dd</t>
+        </is>
+      </c>
       <c r="M954" s="20" t="n"/>
       <c r="N954" s="20" t="n"/>
       <c r="O954" s="20" t="n"/>
@@ -50069,17 +50355,54 @@
       <c r="Q954" s="20" t="n"/>
     </row>
     <row r="955">
-      <c r="A955" s="18" t="n"/>
-      <c r="B955" s="18" t="n"/>
-      <c r="C955" s="18" t="n"/>
-      <c r="D955" s="18" t="n"/>
-      <c r="E955" s="18" t="n"/>
-      <c r="F955" s="18" t="n"/>
+      <c r="A955" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B955" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C955" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D955" s="18" t="inlineStr">
+        <is>
+          <t>Desativar 'exclusão suave' para blobs</t>
+        </is>
+      </c>
+      <c r="E955" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere desativar seletivamente a "exclusão suave" para determinados contêineres de blob, por exemplo, se o aplicativo tiver que garantir que as informações excluídas sejam imediatamente excluídas, por exemplo, por motivos de confidencialidade, privacidade ou conformidade. </t>
+        </is>
+      </c>
+      <c r="F955" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G955" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H955" s="18" t="n"/>
-      <c r="I955" s="13" t="n"/>
+      <c r="I955" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J955" s="13" t="n"/>
       <c r="K955" s="19" t="n"/>
-      <c r="L955" s="19" t="n"/>
+      <c r="L955" s="19" t="inlineStr">
+        <is>
+          <t>3f1d5e87-2e52-4e36-81cc-58b4a4b1510e</t>
+        </is>
+      </c>
       <c r="M955" s="20" t="n"/>
       <c r="N955" s="20" t="n"/>
       <c r="O955" s="20" t="n"/>
@@ -50087,17 +50410,54 @@
       <c r="Q955" s="20" t="n"/>
     </row>
     <row r="956">
-      <c r="A956" s="18" t="n"/>
-      <c r="B956" s="18" t="n"/>
-      <c r="C956" s="18" t="n"/>
-      <c r="D956" s="18" t="n"/>
-      <c r="E956" s="18" t="n"/>
-      <c r="F956" s="18" t="n"/>
+      <c r="A956" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B956" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C956" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D956" s="18" t="inlineStr">
+        <is>
+          <t>Ativar 'exclusão suave' para contêineres</t>
+        </is>
+      </c>
+      <c r="E956" s="18" t="inlineStr">
+        <is>
+          <t>A exclusão suave para contêineres permite que você recupere um contêiner depois que ele tenha sido excluído, por exemplo, recuperar de uma operação de exclusão acidental.</t>
+        </is>
+      </c>
+      <c r="F956" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G956" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H956" s="18" t="n"/>
-      <c r="I956" s="13" t="n"/>
+      <c r="I956" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J956" s="13" t="n"/>
       <c r="K956" s="19" t="n"/>
-      <c r="L956" s="19" t="n"/>
+      <c r="L956" s="19" t="inlineStr">
+        <is>
+          <t>43a58a9c-2289-4c3d-9b57-d0c655462f2a</t>
+        </is>
+      </c>
       <c r="M956" s="20" t="n"/>
       <c r="N956" s="20" t="n"/>
       <c r="O956" s="20" t="n"/>
@@ -50105,17 +50465,54 @@
       <c r="Q956" s="20" t="n"/>
     </row>
     <row r="957">
-      <c r="A957" s="18" t="n"/>
-      <c r="B957" s="18" t="n"/>
-      <c r="C957" s="18" t="n"/>
-      <c r="D957" s="18" t="n"/>
-      <c r="E957" s="18" t="n"/>
-      <c r="F957" s="18" t="n"/>
+      <c r="A957" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B957" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C957" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D957" s="18" t="inlineStr">
+        <is>
+          <t>Desativar 'exclusão suave' para contêineres</t>
+        </is>
+      </c>
+      <c r="E957" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere desativar seletivamente a "exclusão suave" para determinados contêineres de blob, por exemplo, se o aplicativo tiver que garantir que as informações excluídas sejam imediatamente excluídas, por exemplo, por motivos de confidencialidade, privacidade ou conformidade. </t>
+        </is>
+      </c>
+      <c r="F957" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G957" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H957" s="18" t="n"/>
-      <c r="I957" s="13" t="n"/>
+      <c r="I957" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J957" s="13" t="n"/>
       <c r="K957" s="19" t="n"/>
-      <c r="L957" s="19" t="n"/>
+      <c r="L957" s="19" t="inlineStr">
+        <is>
+          <t>3e3453a3-c863-4964-ab65-2d6c15f51296</t>
+        </is>
+      </c>
       <c r="M957" s="20" t="n"/>
       <c r="N957" s="20" t="n"/>
       <c r="O957" s="20" t="n"/>
@@ -50123,17 +50520,54 @@
       <c r="Q957" s="20" t="n"/>
     </row>
     <row r="958">
-      <c r="A958" s="18" t="n"/>
-      <c r="B958" s="18" t="n"/>
-      <c r="C958" s="18" t="n"/>
-      <c r="D958" s="18" t="n"/>
-      <c r="E958" s="18" t="n"/>
-      <c r="F958" s="18" t="n"/>
+      <c r="A958" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B958" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C958" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D958" s="18" t="inlineStr">
+        <is>
+          <t>Habilitar bloqueios de recursos em contas de armazenamento</t>
+        </is>
+      </c>
+      <c r="E958" s="18" t="inlineStr">
+        <is>
+          <t>Evita a exclusão acidental de uma conta de armazenamento, forçando o usuário a remover primeiro o bloqueio de exclusão, antes da exclusão</t>
+        </is>
+      </c>
+      <c r="F958" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G958" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H958" s="18" t="n"/>
-      <c r="I958" s="13" t="n"/>
+      <c r="I958" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J958" s="13" t="n"/>
       <c r="K958" s="19" t="n"/>
-      <c r="L958" s="19" t="n"/>
+      <c r="L958" s="19" t="inlineStr">
+        <is>
+          <t>5398e6de-d227-4dd1-92b0-6c21d7999a64</t>
+        </is>
+      </c>
       <c r="M958" s="20" t="n"/>
       <c r="N958" s="20" t="n"/>
       <c r="O958" s="20" t="n"/>
@@ -50141,17 +50575,54 @@
       <c r="Q958" s="20" t="n"/>
     </row>
     <row r="959">
-      <c r="A959" s="18" t="n"/>
-      <c r="B959" s="18" t="n"/>
-      <c r="C959" s="18" t="n"/>
-      <c r="D959" s="18" t="n"/>
-      <c r="E959" s="18" t="n"/>
-      <c r="F959" s="18" t="n"/>
+      <c r="A959" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B959" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C959" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D959" s="18" t="inlineStr">
+        <is>
+          <t>Considere blobs imutáveis</t>
+        </is>
+      </c>
+      <c r="E959" s="18" t="inlineStr">
+        <is>
+          <t>Considere políticas de "retenção legal" ou "retenção baseada em tempo" para blobs, de modo que seja impossível excluir o blob, o contêiner ou a conta de armazenamento. Por favor, note que "impossível" significa na verdade "impossível"; uma vez que uma conta de armazenamento contém um blob imutável, a única maneira de 'se livrar' dessa conta de armazenamento é cancelando a assinatura do Azure.</t>
+        </is>
+      </c>
+      <c r="F959" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G959" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H959" s="18" t="n"/>
-      <c r="I959" s="13" t="n"/>
+      <c r="I959" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J959" s="13" t="n"/>
       <c r="K959" s="19" t="n"/>
-      <c r="L959" s="19" t="n"/>
+      <c r="L959" s="19" t="inlineStr">
+        <is>
+          <t>6f4389a8-f42c-478e-98c0-6a73a22a4956</t>
+        </is>
+      </c>
       <c r="M959" s="20" t="n"/>
       <c r="N959" s="20" t="n"/>
       <c r="O959" s="20" t="n"/>
@@ -50159,17 +50630,54 @@
       <c r="Q959" s="20" t="n"/>
     </row>
     <row r="960">
-      <c r="A960" s="18" t="n"/>
-      <c r="B960" s="18" t="n"/>
-      <c r="C960" s="18" t="n"/>
-      <c r="D960" s="18" t="n"/>
-      <c r="E960" s="18" t="n"/>
-      <c r="F960" s="18" t="n"/>
+      <c r="A960" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B960" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C960" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D960" s="18" t="inlineStr">
+        <is>
+          <t>Exigir HTTPS, ou seja, desativar a porta 80 na conta de armazenamento</t>
+        </is>
+      </c>
+      <c r="E960" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere desabilitar o acesso HTTP/80 desprotegido à conta de armazenamento, para que todas as transferências de dados sejam criptografadas, protegidas por integridade e o servidor seja autenticado. </t>
+        </is>
+      </c>
+      <c r="F960" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G960" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H960" s="18" t="n"/>
-      <c r="I960" s="13" t="n"/>
+      <c r="I960" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J960" s="13" t="n"/>
       <c r="K960" s="19" t="n"/>
-      <c r="L960" s="19" t="n"/>
+      <c r="L960" s="19" t="inlineStr">
+        <is>
+          <t>e7a8dc4a-20e2-47c3-b297-11b1352beee0</t>
+        </is>
+      </c>
       <c r="M960" s="20" t="n"/>
       <c r="N960" s="20" t="n"/>
       <c r="O960" s="20" t="n"/>
@@ -50177,17 +50685,54 @@
       <c r="Q960" s="20" t="n"/>
     </row>
     <row r="961">
-      <c r="A961" s="18" t="n"/>
-      <c r="B961" s="18" t="n"/>
-      <c r="C961" s="18" t="n"/>
-      <c r="D961" s="18" t="n"/>
-      <c r="E961" s="18" t="n"/>
-      <c r="F961" s="18" t="n"/>
+      <c r="A961" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B961" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C961" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D961" s="18" t="inlineStr">
+        <is>
+          <t>Ao impor HTTPS (desabilitando HTTP), verifique se você não usa domínios personalizados (CNAME) para a conta de armazenamento.</t>
+        </is>
+      </c>
+      <c r="E961" s="18" t="inlineStr">
+        <is>
+          <t>Ao configurar um domínio personalizado (nome do host) em uma conta de armazenamento, verifique se você precisa de TLS/HTTPS; em caso afirmativo, talvez seja necessário colocar a CDN do Azure na frente da sua conta de armazenamento.</t>
+        </is>
+      </c>
+      <c r="F961" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G961" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H961" s="18" t="n"/>
-      <c r="I961" s="13" t="n"/>
+      <c r="I961" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J961" s="13" t="n"/>
       <c r="K961" s="19" t="n"/>
-      <c r="L961" s="19" t="n"/>
+      <c r="L961" s="19" t="inlineStr">
+        <is>
+          <t>79b588de-fc49-472c-b3cd-21bf77036e5e</t>
+        </is>
+      </c>
       <c r="M961" s="20" t="n"/>
       <c r="N961" s="20" t="n"/>
       <c r="O961" s="20" t="n"/>
@@ -50195,17 +50740,54 @@
       <c r="Q961" s="20" t="n"/>
     </row>
     <row r="962">
-      <c r="A962" s="18" t="n"/>
-      <c r="B962" s="18" t="n"/>
-      <c r="C962" s="18" t="n"/>
-      <c r="D962" s="18" t="n"/>
-      <c r="E962" s="18" t="n"/>
-      <c r="F962" s="18" t="n"/>
+      <c r="A962" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B962" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C962" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D962" s="18" t="inlineStr">
+        <is>
+          <t>Limitar tokens de assinatura de acesso compartilhado (SAS) somente a conexões HTTPS</t>
+        </is>
+      </c>
+      <c r="E962" s="18" t="inlineStr">
+        <is>
+          <t>Exigir HTTPS quando um cliente usa um token SAS para acessar dados de blob ajuda a minimizar o risco de perda de credenciais.</t>
+        </is>
+      </c>
+      <c r="F962" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G962" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H962" s="18" t="n"/>
-      <c r="I962" s="13" t="n"/>
+      <c r="I962" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J962" s="13" t="n"/>
       <c r="K962" s="19" t="n"/>
-      <c r="L962" s="19" t="n"/>
+      <c r="L962" s="19" t="inlineStr">
+        <is>
+          <t>6b4bed3d-5035-447c-8347-dc56028a71ff</t>
+        </is>
+      </c>
       <c r="M962" s="20" t="n"/>
       <c r="N962" s="20" t="n"/>
       <c r="O962" s="20" t="n"/>
@@ -50213,17 +50795,54 @@
       <c r="Q962" s="20" t="n"/>
     </row>
     <row r="963">
-      <c r="A963" s="18" t="n"/>
-      <c r="B963" s="18" t="n"/>
-      <c r="C963" s="18" t="n"/>
-      <c r="D963" s="18" t="n"/>
-      <c r="E963" s="18" t="n"/>
-      <c r="F963" s="18" t="n"/>
+      <c r="A963" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B963" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C963" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D963" s="18" t="inlineStr">
+        <is>
+          <t>Usar tokens do Azure Active Directory (Azure AD) para acesso de blob</t>
+        </is>
+      </c>
+      <c r="E963" s="18" t="inlineStr">
+        <is>
+          <t>Os tokens AAD devem ser favorecidos em relação às assinaturas de acesso compartilhado, sempre que possível</t>
+        </is>
+      </c>
+      <c r="F963" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G963" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H963" s="18" t="n"/>
-      <c r="I963" s="13" t="n"/>
+      <c r="I963" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J963" s="13" t="n"/>
       <c r="K963" s="19" t="n"/>
-      <c r="L963" s="19" t="n"/>
+      <c r="L963" s="19" t="inlineStr">
+        <is>
+          <t>e1ce15dd-3f0d-45e7-92d4-1e3611cc57b4</t>
+        </is>
+      </c>
       <c r="M963" s="20" t="n"/>
       <c r="N963" s="20" t="n"/>
       <c r="O963" s="20" t="n"/>
@@ -50231,17 +50850,50 @@
       <c r="Q963" s="20" t="n"/>
     </row>
     <row r="964">
-      <c r="A964" s="18" t="n"/>
-      <c r="B964" s="18" t="n"/>
-      <c r="C964" s="18" t="n"/>
-      <c r="D964" s="18" t="n"/>
-      <c r="E964" s="18" t="n"/>
-      <c r="F964" s="18" t="n"/>
+      <c r="A964" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B964" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C964" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D964" s="18" t="inlineStr">
+        <is>
+          <t>Privilégio mínimo nas permissões do IaM</t>
+        </is>
+      </c>
+      <c r="E964" s="18" t="inlineStr">
+        <is>
+          <t>Ao atribuir uma função a um usuário, grupo ou aplicativo, conceda a essa entidade de segurança apenas as permissões necessárias para que eles executem suas tarefas. Limitar o acesso aos recursos ajuda a evitar o uso indevido não intencional e mal-intencionado de seus dados.</t>
+        </is>
+      </c>
+      <c r="F964" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G964" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H964" s="18" t="n"/>
       <c r="I964" s="13" t="n"/>
       <c r="J964" s="13" t="n"/>
       <c r="K964" s="19" t="n"/>
-      <c r="L964" s="19" t="n"/>
+      <c r="L964" s="19" t="inlineStr">
+        <is>
+          <t>a4b1410d-4395-48a8-a228-9b3d6b57cfc6</t>
+        </is>
+      </c>
       <c r="M964" s="20" t="n"/>
       <c r="N964" s="20" t="n"/>
       <c r="O964" s="20" t="n"/>
@@ -50249,17 +50901,54 @@
       <c r="Q964" s="20" t="n"/>
     </row>
     <row r="965">
-      <c r="A965" s="18" t="n"/>
-      <c r="B965" s="18" t="n"/>
-      <c r="C965" s="18" t="n"/>
-      <c r="D965" s="18" t="n"/>
-      <c r="E965" s="18" t="n"/>
-      <c r="F965" s="18" t="n"/>
+      <c r="A965" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B965" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C965" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D965" s="18" t="inlineStr">
+        <is>
+          <t>Ao usar o SAS, prefira o SAS de delegação de usuário ao SAS baseado em chave de conta de armazenamento.</t>
+        </is>
+      </c>
+      <c r="E965" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uma SAS de delegação de usuário é protegida com credenciais do Azure Active Directory (Azure AD) e também pelas permissões especificadas para a SAS. Uma SAS de delegação de usuário é análoga a uma SAS de serviço em termos de escopo e função, mas oferece benefícios de segurança em relação à SAS de serviço. </t>
+        </is>
+      </c>
+      <c r="F965" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G965" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H965" s="18" t="n"/>
-      <c r="I965" s="13" t="n"/>
+      <c r="I965" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J965" s="13" t="n"/>
       <c r="K965" s="19" t="n"/>
-      <c r="L965" s="19" t="n"/>
+      <c r="L965" s="19" t="inlineStr">
+        <is>
+          <t>55461e1a-3e34-453a-9c86-39648b652d6c</t>
+        </is>
+      </c>
       <c r="M965" s="20" t="n"/>
       <c r="N965" s="20" t="n"/>
       <c r="O965" s="20" t="n"/>
@@ -50267,17 +50956,54 @@
       <c r="Q965" s="20" t="n"/>
     </row>
     <row r="966">
-      <c r="A966" s="18" t="n"/>
-      <c r="B966" s="18" t="n"/>
-      <c r="C966" s="18" t="n"/>
-      <c r="D966" s="18" t="n"/>
-      <c r="E966" s="18" t="n"/>
-      <c r="F966" s="18" t="n"/>
+      <c r="A966" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B966" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C966" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D966" s="18" t="inlineStr">
+        <is>
+          <t>Considere desabilitar as chaves de conta de armazenamento, para que somente o acesso ao AAD (e a delegação de usuários SAS) seja suportado.</t>
+        </is>
+      </c>
+      <c r="E966" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As chaves de conta de armazenamento ('chaves compartilhadas') têm pouquíssimos recursos de auditoria. Embora possa ser monitorado em quem/quando foi obtida uma cópia das chaves, uma vez que as chaves estão nas mãos de várias pessoas, é impossível atribuir o uso a um usuário específico. Depender exclusivamente da autenticação do AAD facilita a vinculação do acesso ao armazenamento a um usuário. </t>
+        </is>
+      </c>
+      <c r="F966" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H966" s="18" t="n"/>
-      <c r="I966" s="13" t="n"/>
+      <c r="I966" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J966" s="13" t="n"/>
       <c r="K966" s="19" t="n"/>
-      <c r="L966" s="19" t="n"/>
+      <c r="L966" s="19" t="inlineStr">
+        <is>
+          <t>15f51296-5398-4e6d-bd22-7dd142b06c21</t>
+        </is>
+      </c>
       <c r="M966" s="20" t="n"/>
       <c r="N966" s="20" t="n"/>
       <c r="O966" s="20" t="n"/>
@@ -50285,17 +51011,54 @@
       <c r="Q966" s="20" t="n"/>
     </row>
     <row r="967">
-      <c r="A967" s="18" t="n"/>
-      <c r="B967" s="18" t="n"/>
-      <c r="C967" s="18" t="n"/>
-      <c r="D967" s="18" t="n"/>
-      <c r="E967" s="18" t="n"/>
-      <c r="F967" s="18" t="n"/>
+      <c r="A967" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B967" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C967" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D967" s="18" t="inlineStr">
+        <is>
+          <t>Considere usar o Azure Monitor para auditar as operações do plano de controle na conta de armazenamento</t>
+        </is>
+      </c>
+      <c r="E967" s="18" t="inlineStr">
+        <is>
+          <t>Use os dados do Registro de atividades para identificar "quando", "quem", "o que" e "como" a segurança da sua conta de armazenamento está sendo visualizada ou alterada (ou seja, chaves de conta de armazenamento, políticas de acesso, etc.).</t>
+        </is>
+      </c>
+      <c r="F967" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H967" s="18" t="n"/>
-      <c r="I967" s="13" t="n"/>
+      <c r="I967" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J967" s="13" t="n"/>
       <c r="K967" s="19" t="n"/>
-      <c r="L967" s="19" t="n"/>
+      <c r="L967" s="19" t="inlineStr">
+        <is>
+          <t>d7999a64-6f43-489a-af42-c78e78c06a73</t>
+        </is>
+      </c>
       <c r="M967" s="20" t="n"/>
       <c r="N967" s="20" t="n"/>
       <c r="O967" s="20" t="n"/>
@@ -50303,17 +51066,54 @@
       <c r="Q967" s="20" t="n"/>
     </row>
     <row r="968">
-      <c r="A968" s="18" t="n"/>
-      <c r="B968" s="18" t="n"/>
-      <c r="C968" s="18" t="n"/>
-      <c r="D968" s="18" t="n"/>
-      <c r="E968" s="18" t="n"/>
-      <c r="F968" s="18" t="n"/>
+      <c r="A968" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B968" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C968" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D968" s="18" t="inlineStr">
+        <is>
+          <t>Ao usar chaves de conta de armazenamento, considere habilitar uma 'política de expiração de chave'</t>
+        </is>
+      </c>
+      <c r="E968" s="18" t="inlineStr">
+        <is>
+          <t>Uma política de expiração de chave permite que você defina um lembrete para a rotação das chaves de acesso da conta. O lembrete será exibido se o intervalo especificado tiver decorrido e as teclas ainda não tiverem sido giradas.</t>
+        </is>
+      </c>
+      <c r="F968" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H968" s="18" t="n"/>
-      <c r="I968" s="13" t="n"/>
+      <c r="I968" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J968" s="13" t="n"/>
       <c r="K968" s="19" t="n"/>
-      <c r="L968" s="19" t="n"/>
+      <c r="L968" s="19" t="inlineStr">
+        <is>
+          <t>a22a4956-e7a8-4dc4-a20e-27c3e29711b1</t>
+        </is>
+      </c>
       <c r="M968" s="20" t="n"/>
       <c r="N968" s="20" t="n"/>
       <c r="O968" s="20" t="n"/>
@@ -50321,17 +51121,54 @@
       <c r="Q968" s="20" t="n"/>
     </row>
     <row r="969">
-      <c r="A969" s="18" t="n"/>
-      <c r="B969" s="18" t="n"/>
-      <c r="C969" s="18" t="n"/>
-      <c r="D969" s="18" t="n"/>
-      <c r="E969" s="18" t="n"/>
-      <c r="F969" s="18" t="n"/>
+      <c r="A969" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B969" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C969" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D969" s="18" t="inlineStr">
+        <is>
+          <t>Considere configurar uma política de expiração SAS</t>
+        </is>
+      </c>
+      <c r="E969" s="18" t="inlineStr">
+        <is>
+          <t>Uma diretiva de expiração SAS especifica um intervalo recomendado sobre o qual a SAS é válida. As políticas de expiração do SAS se aplicam a um SAS de serviço ou a um SAS de conta. Quando um usuário gera SAS de serviço ou SAS de conta com um intervalo de validade maior do que o intervalo recomendado, ele verá um aviso.</t>
+        </is>
+      </c>
+      <c r="F969" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H969" s="18" t="n"/>
-      <c r="I969" s="13" t="n"/>
+      <c r="I969" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J969" s="13" t="n"/>
       <c r="K969" s="19" t="n"/>
-      <c r="L969" s="19" t="n"/>
+      <c r="L969" s="19" t="inlineStr">
+        <is>
+          <t>352beee0-79b5-488d-bfc4-972cd3cd21bf</t>
+        </is>
+      </c>
       <c r="M969" s="20" t="n"/>
       <c r="N969" s="20" t="n"/>
       <c r="O969" s="20" t="n"/>
@@ -50339,17 +51176,54 @@
       <c r="Q969" s="20" t="n"/>
     </row>
     <row r="970">
-      <c r="A970" s="18" t="n"/>
-      <c r="B970" s="18" t="n"/>
-      <c r="C970" s="18" t="n"/>
-      <c r="D970" s="18" t="n"/>
-      <c r="E970" s="18" t="n"/>
-      <c r="F970" s="18" t="n"/>
+      <c r="A970" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B970" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C970" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D970" s="18" t="inlineStr">
+        <is>
+          <t>Considere vincular o SAS a uma política de acesso armazenado</t>
+        </is>
+      </c>
+      <c r="E970" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As políticas de acesso armazenado oferecem a opção de revogar permissões para uma SAS de serviço sem precisar gerar novamente as chaves da conta de armazenamento. </t>
+        </is>
+      </c>
+      <c r="F970" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H970" s="18" t="n"/>
-      <c r="I970" s="13" t="n"/>
+      <c r="I970" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J970" s="13" t="n"/>
       <c r="K970" s="19" t="n"/>
-      <c r="L970" s="19" t="n"/>
+      <c r="L970" s="19" t="inlineStr">
+        <is>
+          <t>77036e5e-6b4b-4ed3-b503-547c1347dc56</t>
+        </is>
+      </c>
       <c r="M970" s="20" t="n"/>
       <c r="N970" s="20" t="n"/>
       <c r="O970" s="20" t="n"/>
@@ -50357,17 +51231,50 @@
       <c r="Q970" s="20" t="n"/>
     </row>
     <row r="971">
-      <c r="A971" s="18" t="n"/>
-      <c r="B971" s="18" t="n"/>
-      <c r="C971" s="18" t="n"/>
-      <c r="D971" s="18" t="n"/>
+      <c r="A971" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B971" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C971" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D971" s="18" t="inlineStr">
+        <is>
+          <t>Considere configurar o repositório de código-fonte do aplicativo para detectar cadeias de conexão com check-in e chaves de conta de armazenamento.</t>
+        </is>
+      </c>
       <c r="E971" s="18" t="n"/>
-      <c r="F971" s="18" t="n"/>
+      <c r="F971" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H971" s="18" t="n"/>
-      <c r="I971" s="13" t="n"/>
+      <c r="I971" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J971" s="13" t="n"/>
       <c r="K971" s="19" t="n"/>
-      <c r="L971" s="19" t="n"/>
+      <c r="L971" s="19" t="inlineStr">
+        <is>
+          <t>028a71ff-e1ce-415d-b3f0-d5e772d41e36</t>
+        </is>
+      </c>
       <c r="M971" s="20" t="n"/>
       <c r="N971" s="20" t="n"/>
       <c r="O971" s="20" t="n"/>
@@ -50375,17 +51282,54 @@
       <c r="Q971" s="20" t="n"/>
     </row>
     <row r="972">
-      <c r="A972" s="18" t="n"/>
-      <c r="B972" s="18" t="n"/>
-      <c r="C972" s="18" t="n"/>
-      <c r="D972" s="18" t="n"/>
-      <c r="E972" s="18" t="n"/>
-      <c r="F972" s="18" t="n"/>
+      <c r="A972" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B972" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C972" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D972" s="18" t="inlineStr">
+        <is>
+          <t>Considere armazenar cadeias de conexão no Cofre de Chaves do Azure (em cenários em que identidades gerenciadas não são possíveis)</t>
+        </is>
+      </c>
+      <c r="E972" s="18" t="inlineStr">
+        <is>
+          <t>Idealmente, seu aplicativo deve estar usando uma identidade gerenciada para autenticar no Armazenamento do Azure. Se isso não for possível, considere ter a credencial de armazenamento (cadeia de conexão, chave de conta de armazenamento, SAS, credencial da entidade de serviço) no Azure KeyVault ou em um serviço equivalente.</t>
+        </is>
+      </c>
+      <c r="F972" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H972" s="18" t="n"/>
-      <c r="I972" s="13" t="n"/>
+      <c r="I972" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J972" s="13" t="n"/>
       <c r="K972" s="19" t="n"/>
-      <c r="L972" s="19" t="n"/>
+      <c r="L972" s="19" t="inlineStr">
+        <is>
+          <t>11cc57b4-a4b1-4410-b439-58a8c2289b3d</t>
+        </is>
+      </c>
       <c r="M972" s="20" t="n"/>
       <c r="N972" s="20" t="n"/>
       <c r="O972" s="20" t="n"/>
@@ -50393,17 +51337,54 @@
       <c r="Q972" s="20" t="n"/>
     </row>
     <row r="973">
-      <c r="A973" s="18" t="n"/>
-      <c r="B973" s="18" t="n"/>
-      <c r="C973" s="18" t="n"/>
-      <c r="D973" s="18" t="n"/>
-      <c r="E973" s="18" t="n"/>
-      <c r="F973" s="18" t="n"/>
+      <c r="A973" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B973" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C973" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D973" s="18" t="inlineStr">
+        <is>
+          <t>Esforce-se por curtos períodos de validade para SAS ad-hoc</t>
+        </is>
+      </c>
+      <c r="E973" s="18" t="inlineStr">
+        <is>
+          <t>Use tempos de expiração de curto prazo em um SAS de serviço SAS ad hoc ou SAS de conta. Dessa forma, mesmo que um SAS seja comprometido, ele é válido apenas por um curto período de tempo. Essa prática é especialmente importante se você não puder fazer referência a uma política de acesso armazenado. Os tempos de expiração de curto prazo também limitam a quantidade de dados que podem ser gravados em um blob, limitando o tempo disponível para carregar nele.</t>
+        </is>
+      </c>
+      <c r="F973" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G973" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H973" s="18" t="n"/>
-      <c r="I973" s="13" t="n"/>
+      <c r="I973" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J973" s="13" t="n"/>
       <c r="K973" s="19" t="n"/>
-      <c r="L973" s="19" t="n"/>
+      <c r="L973" s="19" t="inlineStr">
+        <is>
+          <t>27138b82-1102-4cac-9eae-01e6e842e52f</t>
+        </is>
+      </c>
       <c r="M973" s="20" t="n"/>
       <c r="N973" s="20" t="n"/>
       <c r="O973" s="20" t="n"/>
@@ -50411,17 +51392,54 @@
       <c r="Q973" s="20" t="n"/>
     </row>
     <row r="974">
-      <c r="A974" s="18" t="n"/>
-      <c r="B974" s="18" t="n"/>
-      <c r="C974" s="18" t="n"/>
-      <c r="D974" s="18" t="n"/>
-      <c r="E974" s="18" t="n"/>
-      <c r="F974" s="18" t="n"/>
+      <c r="A974" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B974" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C974" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D974" s="18" t="inlineStr">
+        <is>
+          <t>Aplicar um escopo restrito a uma SAS</t>
+        </is>
+      </c>
+      <c r="E974" s="18" t="inlineStr">
+        <is>
+          <t>Ao criar um SAS, seja o mais específico e restritivo possível. Prefira um SAS para um único recurso e operação em vez de um SAS que dá acesso muito mais amplo.</t>
+        </is>
+      </c>
+      <c r="F974" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G974" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H974" s="18" t="n"/>
-      <c r="I974" s="13" t="n"/>
+      <c r="I974" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J974" s="13" t="n"/>
       <c r="K974" s="19" t="n"/>
-      <c r="L974" s="19" t="n"/>
+      <c r="L974" s="19" t="inlineStr">
+        <is>
+          <t>4721d928-c1b1-4cd5-81e5-4a29a9de399c</t>
+        </is>
+      </c>
       <c r="M974" s="20" t="n"/>
       <c r="N974" s="20" t="n"/>
       <c r="O974" s="20" t="n"/>
@@ -50429,17 +51447,54 @@
       <c r="Q974" s="20" t="n"/>
     </row>
     <row r="975">
-      <c r="A975" s="18" t="n"/>
-      <c r="B975" s="18" t="n"/>
-      <c r="C975" s="18" t="n"/>
-      <c r="D975" s="18" t="n"/>
-      <c r="E975" s="18" t="n"/>
-      <c r="F975" s="18" t="n"/>
+      <c r="A975" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B975" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C975" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D975" s="18" t="inlineStr">
+        <is>
+          <t>Considere a definição do escopo do SAS para um endereço IP de cliente específico, sempre que possível</t>
+        </is>
+      </c>
+      <c r="E975" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uma SAS pode incluir parâmetros nos quais endereços IP de cliente ou intervalos de endereços estão autorizados a solicitar um recurso usando a SAS. </t>
+        </is>
+      </c>
+      <c r="F975" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G975" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H975" s="18" t="n"/>
-      <c r="I975" s="13" t="n"/>
+      <c r="I975" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J975" s="13" t="n"/>
       <c r="K975" s="19" t="n"/>
-      <c r="L975" s="19" t="n"/>
+      <c r="L975" s="19" t="inlineStr">
+        <is>
+          <t>fd7b28dc-9355-4562-82bf-e4564b0d834a</t>
+        </is>
+      </c>
       <c r="M975" s="20" t="n"/>
       <c r="N975" s="20" t="n"/>
       <c r="O975" s="20" t="n"/>
@@ -50447,17 +51502,50 @@
       <c r="Q975" s="20" t="n"/>
     </row>
     <row r="976">
-      <c r="A976" s="18" t="n"/>
-      <c r="B976" s="18" t="n"/>
-      <c r="C976" s="18" t="n"/>
-      <c r="D976" s="18" t="n"/>
-      <c r="E976" s="18" t="n"/>
-      <c r="F976" s="18" t="n"/>
+      <c r="A976" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B976" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C976" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D976" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere verificar os dados carregados, depois que os clientes usaram um SAS para carregar um arquivo. </t>
+        </is>
+      </c>
+      <c r="E976" s="18" t="inlineStr">
+        <is>
+          <t>Um SAS não pode restringir a quantidade de dados que um cliente carrega; Dado o modelo de precificação da quantidade de armazenamento ao longo do tempo, pode fazer sentido validar se os clientes carregaram conteúdo maliciosamente grande.</t>
+        </is>
+      </c>
+      <c r="F976" s="18" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G976" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H976" s="18" t="n"/>
       <c r="I976" s="13" t="n"/>
       <c r="J976" s="13" t="n"/>
       <c r="K976" s="19" t="n"/>
-      <c r="L976" s="19" t="n"/>
+      <c r="L976" s="19" t="inlineStr">
+        <is>
+          <t>348b263e-6dd6-4051-8a36-498f6dbad38e</t>
+        </is>
+      </c>
       <c r="M976" s="20" t="n"/>
       <c r="N976" s="20" t="n"/>
       <c r="O976" s="20" t="n"/>
@@ -50465,17 +51553,54 @@
       <c r="Q976" s="20" t="n"/>
     </row>
     <row r="977">
-      <c r="A977" s="18" t="n"/>
-      <c r="B977" s="18" t="n"/>
-      <c r="C977" s="18" t="n"/>
-      <c r="D977" s="18" t="n"/>
-      <c r="E977" s="18" t="n"/>
-      <c r="F977" s="18" t="n"/>
+      <c r="A977" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B977" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C977" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D977" s="18" t="inlineStr">
+        <is>
+          <t>SFTP: Limite a quantidade de 'usuários locais' para acesso SFTP e audite se o acesso é necessário ao longo do tempo.</t>
+        </is>
+      </c>
+      <c r="E977" s="18" t="inlineStr">
+        <is>
+          <t>Ao acessar o armazenamento de blob via SFTP usando uma 'conta de usuário local', os controles RBAC 'normais' não se aplicam. O acesso a blobs via NFS ou REST pode ser mais restritivo do que o acesso a SFTP. Infelizmente, no início de 2023, os usuários locais são a única forma de gerenciamento de identidade que atualmente é suportada para o ponto de extremidade SFTP</t>
+        </is>
+      </c>
+      <c r="F977" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G977" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H977" s="18" t="n"/>
-      <c r="I977" s="13" t="n"/>
+      <c r="I977" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J977" s="13" t="n"/>
       <c r="K977" s="19" t="n"/>
-      <c r="L977" s="19" t="n"/>
+      <c r="L977" s="19" t="inlineStr">
+        <is>
+          <t>ad53cc7c-e1d7-4aaa-a357-1449ab8053d8</t>
+        </is>
+      </c>
       <c r="M977" s="20" t="n"/>
       <c r="N977" s="20" t="n"/>
       <c r="O977" s="20" t="n"/>
@@ -50483,17 +51608,50 @@
       <c r="Q977" s="20" t="n"/>
     </row>
     <row r="978">
-      <c r="A978" s="18" t="n"/>
-      <c r="B978" s="18" t="n"/>
-      <c r="C978" s="18" t="n"/>
-      <c r="D978" s="18" t="n"/>
+      <c r="A978" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B978" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C978" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D978" s="18" t="inlineStr">
+        <is>
+          <t>SFTP: O ponto de extremidade SFTP não oferece suporte a ACLs do tipo POSIX.</t>
+        </is>
+      </c>
       <c r="E978" s="18" t="n"/>
-      <c r="F978" s="18" t="n"/>
+      <c r="F978" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H978" s="18" t="n"/>
-      <c r="I978" s="13" t="n"/>
+      <c r="I978" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J978" s="13" t="n"/>
       <c r="K978" s="19" t="n"/>
-      <c r="L978" s="19" t="n"/>
+      <c r="L978" s="19" t="inlineStr">
+        <is>
+          <t>9f89dc7b-33be-42a1-a27f-7b9e91be1f38</t>
+        </is>
+      </c>
       <c r="M978" s="20" t="n"/>
       <c r="N978" s="20" t="n"/>
       <c r="O978" s="20" t="n"/>
@@ -50501,17 +51659,54 @@
       <c r="Q978" s="20" t="n"/>
     </row>
     <row r="979">
-      <c r="A979" s="18" t="n"/>
-      <c r="B979" s="18" t="n"/>
-      <c r="C979" s="18" t="n"/>
-      <c r="D979" s="18" t="n"/>
-      <c r="E979" s="18" t="n"/>
-      <c r="F979" s="18" t="n"/>
+      <c r="A979" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B979" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C979" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D979" s="18" t="inlineStr">
+        <is>
+          <t>Evite políticas CORS excessivamente amplas</t>
+        </is>
+      </c>
+      <c r="E979" s="18" t="inlineStr">
+        <is>
+          <t>O armazenamento oferece suporte a CORS (Cross-Origin Resource Sharing), ou seja, um recurso HTTP que permite que aplicativos Web de um domínio diferente afrouxem a política de mesma origem. Ao habilitar o CORS, mantenha o CorsRules com o menor privilégio.</t>
+        </is>
+      </c>
+      <c r="F979" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H979" s="18" t="n"/>
-      <c r="I979" s="13" t="n"/>
+      <c r="I979" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J979" s="13" t="n"/>
       <c r="K979" s="19" t="n"/>
-      <c r="L979" s="19" t="n"/>
+      <c r="L979" s="19" t="inlineStr">
+        <is>
+          <t>cef39812-bd46-43cb-aac8-ac199ebb91a3</t>
+        </is>
+      </c>
       <c r="M979" s="20" t="n"/>
       <c r="N979" s="20" t="n"/>
       <c r="O979" s="20" t="n"/>
@@ -50519,17 +51714,54 @@
       <c r="Q979" s="20" t="n"/>
     </row>
     <row r="980">
-      <c r="A980" s="18" t="n"/>
-      <c r="B980" s="18" t="n"/>
-      <c r="C980" s="18" t="n"/>
-      <c r="D980" s="18" t="n"/>
-      <c r="E980" s="18" t="n"/>
-      <c r="F980" s="18" t="n"/>
+      <c r="A980" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B980" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C980" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D980" s="18" t="inlineStr">
+        <is>
+          <t>Determine como os dados em repouso devem ser criptografados. Entenda o modelo de thread para dados.</t>
+        </is>
+      </c>
+      <c r="E980" s="18" t="inlineStr">
+        <is>
+          <t>Os dados em repouso são sempre criptografados no lado do servidor e, além disso, também podem ser criptografados no lado do cliente. A criptografia do lado do servidor pode acontecer usando uma chave gerenciada por plataforma (padrão) ou uma chave gerenciada pelo cliente. A criptografia do lado do cliente pode acontecer fazendo com que o cliente forneça uma chave de criptografia/descriptografia por blob para o armazenamento do Azure ou manipulando completamente a criptografia no lado do cliente. portanto, não depende do Armazenamento do Azure para garantias de confidencialidade.</t>
+        </is>
+      </c>
+      <c r="F980" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H980" s="18" t="n"/>
-      <c r="I980" s="13" t="n"/>
+      <c r="I980" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J980" s="13" t="n"/>
       <c r="K980" s="19" t="n"/>
-      <c r="L980" s="19" t="n"/>
+      <c r="L980" s="19" t="inlineStr">
+        <is>
+          <t>3d90cae2-cc88-4137-86f7-c0cbafe61464</t>
+        </is>
+      </c>
       <c r="M980" s="20" t="n"/>
       <c r="N980" s="20" t="n"/>
       <c r="O980" s="20" t="n"/>
@@ -50537,17 +51769,50 @@
       <c r="Q980" s="20" t="n"/>
     </row>
     <row r="981">
-      <c r="A981" s="18" t="n"/>
-      <c r="B981" s="18" t="n"/>
-      <c r="C981" s="18" t="n"/>
-      <c r="D981" s="18" t="n"/>
+      <c r="A981" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B981" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C981" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D981" s="18" t="inlineStr">
+        <is>
+          <t>Determine qual/se a criptografia de plataforma deve ser usada.</t>
+        </is>
+      </c>
       <c r="E981" s="18" t="n"/>
-      <c r="F981" s="18" t="n"/>
+      <c r="F981" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H981" s="18" t="n"/>
-      <c r="I981" s="13" t="n"/>
+      <c r="I981" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J981" s="13" t="n"/>
       <c r="K981" s="19" t="n"/>
-      <c r="L981" s="19" t="n"/>
+      <c r="L981" s="19" t="inlineStr">
+        <is>
+          <t>8dd457e9-2713-48b8-8110-2cac6eae01e6</t>
+        </is>
+      </c>
       <c r="M981" s="20" t="n"/>
       <c r="N981" s="20" t="n"/>
       <c r="O981" s="20" t="n"/>
@@ -50555,17 +51820,50 @@
       <c r="Q981" s="20" t="n"/>
     </row>
     <row r="982">
-      <c r="A982" s="18" t="n"/>
-      <c r="B982" s="18" t="n"/>
-      <c r="C982" s="18" t="n"/>
-      <c r="D982" s="18" t="n"/>
+      <c r="A982" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B982" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C982" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D982" s="18" t="inlineStr">
+        <is>
+          <t>Determine qual/se a criptografia do lado do cliente deve ser usada.</t>
+        </is>
+      </c>
       <c r="E982" s="18" t="n"/>
-      <c r="F982" s="18" t="n"/>
+      <c r="F982" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H982" s="18" t="n"/>
-      <c r="I982" s="13" t="n"/>
+      <c r="I982" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J982" s="13" t="n"/>
       <c r="K982" s="19" t="n"/>
-      <c r="L982" s="19" t="n"/>
+      <c r="L982" s="19" t="inlineStr">
+        <is>
+          <t>e842e52f-4721-4d92-ac1b-1cd521e54a29</t>
+        </is>
+      </c>
       <c r="M982" s="20" t="n"/>
       <c r="N982" s="20" t="n"/>
       <c r="O982" s="20" t="n"/>
@@ -50573,17 +51871,54 @@
       <c r="Q982" s="20" t="n"/>
     </row>
     <row r="983">
-      <c r="A983" s="18" t="n"/>
-      <c r="B983" s="18" t="n"/>
-      <c r="C983" s="18" t="n"/>
-      <c r="D983" s="18" t="n"/>
-      <c r="E983" s="18" t="n"/>
-      <c r="F983" s="18" t="n"/>
+      <c r="A983" s="18" t="inlineStr">
+        <is>
+          <t>Azure Blob Storage Review</t>
+        </is>
+      </c>
+      <c r="B983" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C983" s="18" t="inlineStr">
+        <is>
+          <t>Azure Storage</t>
+        </is>
+      </c>
+      <c r="D983" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Considere se o acesso de blob público é necessário ou se pode ser desabilitado para determinadas contas de armazenamento. </t>
+        </is>
+      </c>
+      <c r="E983" s="18" t="inlineStr">
+        <is>
+          <t>Aproveite o Resource Graph Explorer (resources | where type == 'microsoft.storage/storageaccounts' | where properties['allowBlobPublicAccess'] == true) para localizar contas de armazenamento que permitem acesso anônimo a blobs.</t>
+        </is>
+      </c>
+      <c r="F983" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H983" s="18" t="n"/>
-      <c r="I983" s="13" t="n"/>
+      <c r="I983" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J983" s="13" t="n"/>
       <c r="K983" s="19" t="n"/>
-      <c r="L983" s="19" t="n"/>
+      <c r="L983" s="19" t="inlineStr">
+        <is>
+          <t>659ae558-b937-4d49-a5e1-112dbd7ba012</t>
+        </is>
+      </c>
       <c r="M983" s="20" t="n"/>
       <c r="N983" s="20" t="n"/>
       <c r="O983" s="20" t="n"/>
@@ -54731,7 +56066,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G945" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G984" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -55541,24 +56876,63 @@
     <hyperlink ref="I922" r:id="rId803"/>
     <hyperlink ref="I923" r:id="rId804"/>
     <hyperlink ref="I924" r:id="rId805"/>
-    <hyperlink ref="I926" r:id="rId806"/>
-    <hyperlink ref="I927" r:id="rId807"/>
-    <hyperlink ref="I928" r:id="rId808"/>
-    <hyperlink ref="I929" r:id="rId809"/>
-    <hyperlink ref="I930" r:id="rId810"/>
-    <hyperlink ref="I931" r:id="rId811"/>
-    <hyperlink ref="I932" r:id="rId812"/>
-    <hyperlink ref="I933" r:id="rId813"/>
-    <hyperlink ref="I934" r:id="rId814"/>
-    <hyperlink ref="I935" r:id="rId815"/>
-    <hyperlink ref="I936" r:id="rId816"/>
-    <hyperlink ref="I938" r:id="rId817"/>
-    <hyperlink ref="I939" r:id="rId818"/>
-    <hyperlink ref="I940" r:id="rId819"/>
-    <hyperlink ref="I941" r:id="rId820"/>
-    <hyperlink ref="I942" r:id="rId821"/>
-    <hyperlink ref="I943" r:id="rId822"/>
-    <hyperlink ref="I944" r:id="rId823"/>
+    <hyperlink ref="I925" r:id="rId806"/>
+    <hyperlink ref="I926" r:id="rId807"/>
+    <hyperlink ref="I927" r:id="rId808"/>
+    <hyperlink ref="I928" r:id="rId809"/>
+    <hyperlink ref="I929" r:id="rId810"/>
+    <hyperlink ref="I930" r:id="rId811"/>
+    <hyperlink ref="I931" r:id="rId812"/>
+    <hyperlink ref="I932" r:id="rId813"/>
+    <hyperlink ref="I933" r:id="rId814"/>
+    <hyperlink ref="I934" r:id="rId815"/>
+    <hyperlink ref="I935" r:id="rId816"/>
+    <hyperlink ref="I936" r:id="rId817"/>
+    <hyperlink ref="I937" r:id="rId818"/>
+    <hyperlink ref="I938" r:id="rId819"/>
+    <hyperlink ref="I939" r:id="rId820"/>
+    <hyperlink ref="I940" r:id="rId821"/>
+    <hyperlink ref="I941" r:id="rId822"/>
+    <hyperlink ref="I942" r:id="rId823"/>
+    <hyperlink ref="I943" r:id="rId824"/>
+    <hyperlink ref="I944" r:id="rId825"/>
+    <hyperlink ref="I945" r:id="rId826"/>
+    <hyperlink ref="I946" r:id="rId827"/>
+    <hyperlink ref="I947" r:id="rId828"/>
+    <hyperlink ref="I948" r:id="rId829"/>
+    <hyperlink ref="I949" r:id="rId830"/>
+    <hyperlink ref="I950" r:id="rId831"/>
+    <hyperlink ref="I951" r:id="rId832"/>
+    <hyperlink ref="I952" r:id="rId833"/>
+    <hyperlink ref="I953" r:id="rId834"/>
+    <hyperlink ref="I954" r:id="rId835"/>
+    <hyperlink ref="I955" r:id="rId836"/>
+    <hyperlink ref="I956" r:id="rId837"/>
+    <hyperlink ref="I957" r:id="rId838"/>
+    <hyperlink ref="I958" r:id="rId839"/>
+    <hyperlink ref="I959" r:id="rId840"/>
+    <hyperlink ref="I960" r:id="rId841"/>
+    <hyperlink ref="I961" r:id="rId842"/>
+    <hyperlink ref="I962" r:id="rId843"/>
+    <hyperlink ref="I963" r:id="rId844"/>
+    <hyperlink ref="I965" r:id="rId845"/>
+    <hyperlink ref="I966" r:id="rId846"/>
+    <hyperlink ref="I967" r:id="rId847"/>
+    <hyperlink ref="I968" r:id="rId848"/>
+    <hyperlink ref="I969" r:id="rId849"/>
+    <hyperlink ref="I970" r:id="rId850"/>
+    <hyperlink ref="I971" r:id="rId851"/>
+    <hyperlink ref="I972" r:id="rId852"/>
+    <hyperlink ref="I973" r:id="rId853"/>
+    <hyperlink ref="I974" r:id="rId854"/>
+    <hyperlink ref="I975" r:id="rId855"/>
+    <hyperlink ref="I977" r:id="rId856"/>
+    <hyperlink ref="I978" r:id="rId857"/>
+    <hyperlink ref="I979" r:id="rId858"/>
+    <hyperlink ref="I980" r:id="rId859"/>
+    <hyperlink ref="I981" r:id="rId860"/>
+    <hyperlink ref="I982" r:id="rId861"/>
+    <hyperlink ref="I983" r:id="rId862"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -43523,7 +43523,7 @@
     <row r="821">
       <c r="A821" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B821" s="18" t="inlineStr">
@@ -43533,18 +43533,18 @@
       </c>
       <c r="C821" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D821" s="18" t="inlineStr">
         <is>
-          <t>Aproveite o Manual de Resiliência de FTA para o Azure Data Factory</t>
+          <t>Familiarize-se com as práticas recomendadas do Key Vault, como recomendações de isolamento, controle de acesso, proteção de dados, backup e registro em log.</t>
         </is>
       </c>
       <c r="E821" s="18" t="n"/>
       <c r="F821" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G821" t="inlineStr">
@@ -43562,7 +43562,7 @@
       <c r="K821" s="19" t="n"/>
       <c r="L821" s="19" t="inlineStr">
         <is>
-          <t>ab91932c-9fc9-4d1b-a881-37f5e6c0cb9e</t>
+          <t>6d37a33b-531c-4a91-871a-b69d8044f04e</t>
         </is>
       </c>
       <c r="M821" s="20" t="n"/>
@@ -43574,7 +43574,7 @@
     <row r="822">
       <c r="A822" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B822" s="18" t="inlineStr">
@@ -43584,18 +43584,18 @@
       </c>
       <c r="C822" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D822" s="18" t="inlineStr">
         <is>
-          <t>Usar pipelines redundantes de zona em regiões que oferecem suporte a zonas de disponibilidade</t>
+          <t>O Key Vault é um serviço gerenciado e a Microsoft lidará com o failover dentro e entre regiões. Familiarize-se com a disponibilidade e a redundância do Key Vault.</t>
         </is>
       </c>
       <c r="E822" s="18" t="n"/>
       <c r="F822" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G822" t="inlineStr">
@@ -43613,7 +43613,7 @@
       <c r="K822" s="19" t="n"/>
       <c r="L822" s="19" t="inlineStr">
         <is>
-          <t>e503547c-d447-4e82-9138-a7200f1cac6d</t>
+          <t>7ba4d380-7b9e-4a8b-a0c3-2d8e49c11872</t>
         </is>
       </c>
       <c r="M822" s="20" t="n"/>
@@ -43625,7 +43625,7 @@
     <row r="823">
       <c r="A823" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B823" s="18" t="inlineStr">
@@ -43635,12 +43635,12 @@
       </c>
       <c r="C823" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D823" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Usar DevOps para fazer backup dos modelos ARM com a integração Github/Azure DevOps </t>
+          <t>O conteúdo do cofre de chaves é replicado dentro da região e para uma região secundária a pelo menos 150 milhas de distância, mas dentro da mesma geografia para manter a alta durabilidade de suas chaves e segredos. Familiarize-se com a replicação de dados do Key Vault.</t>
         </is>
       </c>
       <c r="E823" s="18" t="n"/>
@@ -43664,7 +43664,7 @@
       <c r="K823" s="19" t="n"/>
       <c r="L823" s="19" t="inlineStr">
         <is>
-          <t>9ef1d6e8-32e5-42e3-911c-818b1a0bc511</t>
+          <t>17fb86a2-eb45-42a4-9c34-52b92a2a1842</t>
         </is>
       </c>
       <c r="M823" s="20" t="n"/>
@@ -43676,7 +43676,7 @@
     <row r="824">
       <c r="A824" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B824" s="18" t="inlineStr">
@@ -43686,12 +43686,12 @@
       </c>
       <c r="C824" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D824" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Certifique-se de replicar as VMs do Self-Hosted Integration Runtime em outra região </t>
+          <t>Durante o failover, as configurações e configurações de política de acesso ou firewall não podem ser alteradas. O cofre de chaves estará no modo somente leitura durante o failover. Familiarize-se com as diretrizes de failover do Key Vault.</t>
         </is>
       </c>
       <c r="E824" s="18" t="n"/>
@@ -43715,7 +43715,7 @@
       <c r="K824" s="19" t="n"/>
       <c r="L824" s="19" t="inlineStr">
         <is>
-          <t>e43a18a9-cd29-49cf-b7b1-7db8255562f2</t>
+          <t>614682ca-6e0c-4f34-9f03-c6d3f2b99a32</t>
         </is>
       </c>
       <c r="M824" s="20" t="n"/>
@@ -43727,7 +43727,7 @@
     <row r="825">
       <c r="A825" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B825" s="18" t="inlineStr">
@@ -43737,12 +43737,12 @@
       </c>
       <c r="C825" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D825" s="18" t="inlineStr">
         <is>
-          <t>Certifique-se de replicar ou duplicar sua rede na região irmã. Você tem que fazer uma cópia do seu Vnet em outra região</t>
+          <t>Quando você faz backup de um objeto do cofre de chaves, como um segredo, uma chave ou um certificado, a operação de backup baixa o objeto como um blob criptografado. Esse blob não pode ser descriptografado fora do Azure. Para obter dados utilizáveis desse blob, você deve restaurar o blob em um cofre de chaves dentro da mesma assinatura do Azure e da mesma geografia do Azure. Familiarize-se com as diretrizes de backup e restauração do Key Vault.</t>
         </is>
       </c>
       <c r="E825" s="18" t="n"/>
@@ -43766,7 +43766,7 @@
       <c r="K825" s="19" t="n"/>
       <c r="L825" s="19" t="inlineStr">
         <is>
-          <t>aee4563a-fd83-4393-98b2-62d6dc5f512a</t>
+          <t>9ef2b0d2-3206-4c94-b47a-4f07e6a1c509</t>
         </is>
       </c>
       <c r="M825" s="20" t="n"/>
@@ -43778,7 +43778,7 @@
     <row r="826">
       <c r="A826" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory Review Checklist</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B826" s="18" t="inlineStr">
@@ -43788,22 +43788,18 @@
       </c>
       <c r="C826" s="18" t="inlineStr">
         <is>
-          <t>Azure Data Factory</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D826" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando a integração do Keyvault, use o SLA do Keyvault para entender sua disponibilidade</t>
-        </is>
-      </c>
-      <c r="E826" s="18" t="inlineStr">
-        <is>
-          <t>Se seus pipelines do ADF usarem o Cofre de Chaves, você não precisará fazer nada para replicar o Cofre de Chaves. O Cofre de Chaves é um serviço gerenciado e a Microsoft cuida dele para você</t>
-        </is>
-      </c>
+          <t>Se você quiser proteção contra exclusão acidental ou mal-intencionada de seus segredos, configure recursos de proteção de exclusão reversível e limpeza em seu cofre de chaves.</t>
+        </is>
+      </c>
+      <c r="E826" s="18" t="n"/>
       <c r="F826" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G826" t="inlineStr">
@@ -43821,7 +43817,7 @@
       <c r="K826" s="19" t="n"/>
       <c r="L826" s="19" t="inlineStr">
         <is>
-          <t>25498f6d-bad3-47da-a43b-c6ce1d7aa9b2</t>
+          <t>2df045b1-c0f6-47d3-9a9b-99cf6999684e</t>
         </is>
       </c>
       <c r="M826" s="20" t="n"/>
@@ -43833,7 +43829,7 @@
     <row r="827">
       <c r="A827" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B827" s="18" t="inlineStr">
@@ -43843,18 +43839,18 @@
       </c>
       <c r="C827" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D827" s="18" t="inlineStr">
         <is>
-          <t>Selecione o plano de hospedagem de aplicativo lógico certo com base em seus requisitos de negócios e SLO</t>
+          <t>Os recursos excluídos temporariamente do Key Vault são retidos por um período definido de 90 dias corridos. Familiarize-se com as diretrizes de exclusão reversível do Key Vault.</t>
         </is>
       </c>
       <c r="E827" s="18" t="n"/>
       <c r="F827" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G827" t="inlineStr">
@@ -43872,7 +43868,7 @@
       <c r="K827" s="19" t="n"/>
       <c r="L827" s="19" t="inlineStr">
         <is>
-          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
+          <t>cbfa96b0-5249-4e6f-947c-d0e79509708c</t>
         </is>
       </c>
       <c r="M827" s="20" t="n"/>
@@ -43884,7 +43880,7 @@
     <row r="828">
       <c r="A828" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B828" s="18" t="inlineStr">
@@ -43894,18 +43890,18 @@
       </c>
       <c r="C828" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D828" s="18" t="inlineStr">
         <is>
-          <t>Proteja aplicativos lógicos contra falhas de região com redundância de zona e zonas de disponibilidade</t>
+          <t>Entenda as limitações de backup do Key Vault. O Key Vault não dá suporte à capacidade de fazer backup de mais de 500 versões anteriores de um objeto de chave, segredo ou certificado. A tentativa de fazer backup de uma chave, segredo ou objeto de certificado pode resultar em um erro. Não é possível excluir versões anteriores de uma chave, segredo ou certificado.</t>
         </is>
       </c>
       <c r="E828" s="18" t="n"/>
       <c r="F828" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G828" t="inlineStr">
@@ -43923,7 +43919,7 @@
       <c r="K828" s="19" t="n"/>
       <c r="L828" s="19" t="inlineStr">
         <is>
-          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
+          <t>e8659d11-7e02-4db0-848c-c6541dbab68c</t>
         </is>
       </c>
       <c r="M828" s="20" t="n"/>
@@ -43935,7 +43931,7 @@
     <row r="829">
       <c r="A829" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B829" s="18" t="inlineStr">
@@ -43945,18 +43941,18 @@
       </c>
       <c r="C829" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D829" s="18" t="inlineStr">
         <is>
-          <t>Considere uma estratégia de DR entre regiões para cargas de trabalho críticas</t>
+          <t>Atualmente, o Key Vault não fornece uma maneira de fazer backup de um cofre de chaves inteiro em uma única operação e chaves, segredos e certificados devem ser copiados individualmente. Familiarize-se com as diretrizes de backup e restauração do Key Vault.</t>
         </is>
       </c>
       <c r="E829" s="18" t="n"/>
       <c r="F829" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G829" t="inlineStr">
@@ -43974,7 +43970,7 @@
       <c r="K829" s="19" t="n"/>
       <c r="L829" s="19" t="inlineStr">
         <is>
-          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
+          <t>45c25e29-d0ef-4f07-aa04-0f8c64cbcc04</t>
         </is>
       </c>
       <c r="M829" s="20" t="n"/>
@@ -43986,7 +43982,7 @@
     <row r="830">
       <c r="A830" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B830" s="18" t="inlineStr">
@@ -43996,18 +43992,18 @@
       </c>
       <c r="C830" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D830" s="18" t="inlineStr">
         <is>
-          <t>Se estiver implantando em um ambiente isolado, use ou migre para o ASE (Ambiente do Serviço de Aplicativo) v3</t>
+          <t>A proteção contra limpeza é recomendada ao usar chaves para criptografia para evitar a perda de dados. A proteção contra limpeza é um comportamento opcional do Key Vault e não está habilitada por padrão. A proteção contra limpeza só pode ser habilitada depois que a exclusão reversível estiver habilitada. Ele pode ser ativado via CLI, PowerShell ou Portal.</t>
         </is>
       </c>
       <c r="E830" s="18" t="n"/>
       <c r="F830" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G830" t="inlineStr">
@@ -44025,7 +44021,7 @@
       <c r="K830" s="19" t="n"/>
       <c r="L830" s="19" t="inlineStr">
         <is>
-          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
+          <t>0f15640b-31e5-4de6-85a7-d2c652fa09d3</t>
         </is>
       </c>
       <c r="M830" s="20" t="n"/>
@@ -44037,22 +44033,22 @@
     <row r="831">
       <c r="A831" s="18" t="inlineStr">
         <is>
-          <t>Device Provisioning Service Review</t>
+          <t>Azure Key Vault</t>
         </is>
       </c>
       <c r="B831" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C831" s="18" t="inlineStr">
         <is>
-          <t>IoT Hub DPS</t>
+          <t>Key Vault</t>
         </is>
       </c>
       <c r="D831" s="18" t="inlineStr">
         <is>
-          <t>Aproveite o Azure DevOps ou o GitHub para simplificar o CI/CD e proteger seu código de Aplicativo Lógico</t>
+          <t>O RBAC é recomendado para controlar o acesso ao cofre de chaves. Familiarize-se com as diretrizes de controle de acesso do Key Vault.</t>
         </is>
       </c>
       <c r="E831" s="18" t="n"/>
@@ -44073,10 +44069,14 @@
         </is>
       </c>
       <c r="J831" s="13" t="n"/>
-      <c r="K831" s="19" t="n"/>
+      <c r="K831" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.keyvault/vaults' | extend compliant = (properties.enableRbacAuthorization == true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L831" s="19" t="inlineStr">
         <is>
-          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
+          <t>d0642c1c-312b-4116-94ab-439e1c836819</t>
         </is>
       </c>
       <c r="M831" s="20" t="n"/>
@@ -44088,7 +44088,7 @@
     <row r="832">
       <c r="A832" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B832" s="18" t="inlineStr">
@@ -44098,18 +44098,18 @@
       </c>
       <c r="C832" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D832" s="18" t="inlineStr">
         <is>
-          <t>Se necessário para cargas de trabalho do AKS Windows, os contêineres HostProcess podem ser usados</t>
+          <t>Aproveite o Manual de Resiliência de FTA para o Azure Data Factory</t>
         </is>
       </c>
       <c r="E832" s="18" t="n"/>
       <c r="F832" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G832" t="inlineStr">
@@ -44127,7 +44127,7 @@
       <c r="K832" s="19" t="n"/>
       <c r="L832" s="19" t="inlineStr">
         <is>
-          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
+          <t>ab91932c-9fc9-4d1b-a881-37f5e6c0cb9e</t>
         </is>
       </c>
       <c r="M832" s="20" t="n"/>
@@ -44139,28 +44139,28 @@
     <row r="833">
       <c r="A833" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B833" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C833" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D833" s="18" t="inlineStr">
         <is>
-          <t>Usar o KEDA se estiver executando cargas de trabalho orientadas a eventos</t>
+          <t>Usar pipelines redundantes de zona em regiões que oferecem suporte a zonas de disponibilidade</t>
         </is>
       </c>
       <c r="E833" s="18" t="n"/>
       <c r="F833" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G833" t="inlineStr">
@@ -44178,7 +44178,7 @@
       <c r="K833" s="19" t="n"/>
       <c r="L833" s="19" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>e503547c-d447-4e82-9138-a7200f1cac6d</t>
         </is>
       </c>
       <c r="M833" s="20" t="n"/>
@@ -44190,28 +44190,28 @@
     <row r="834">
       <c r="A834" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B834" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C834" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D834" s="18" t="inlineStr">
         <is>
-          <t>Use o Dapr para facilitar o desenvolvimento de microsserviços</t>
+          <t xml:space="preserve">Usar DevOps para fazer backup dos modelos ARM com a integração Github/Azure DevOps </t>
         </is>
       </c>
       <c r="E834" s="18" t="n"/>
       <c r="F834" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G834" t="inlineStr">
@@ -44229,7 +44229,7 @@
       <c r="K834" s="19" t="n"/>
       <c r="L834" s="19" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>9ef1d6e8-32e5-42e3-911c-818b1a0bc511</t>
         </is>
       </c>
       <c r="M834" s="20" t="n"/>
@@ -44241,7 +44241,7 @@
     <row r="835">
       <c r="A835" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B835" s="18" t="inlineStr">
@@ -44251,18 +44251,18 @@
       </c>
       <c r="C835" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D835" s="18" t="inlineStr">
         <is>
-          <t>Use a oferta AKS apoiada por SLA</t>
+          <t xml:space="preserve">Certifique-se de replicar as VMs do Self-Hosted Integration Runtime em outra região </t>
         </is>
       </c>
       <c r="E835" s="18" t="n"/>
       <c r="F835" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G835" t="inlineStr">
@@ -44277,14 +44277,10 @@
         </is>
       </c>
       <c r="J835" s="13" t="n"/>
-      <c r="K835" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K835" s="19" t="n"/>
       <c r="L835" s="19" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>e43a18a9-cd29-49cf-b7b1-7db8255562f2</t>
         </is>
       </c>
       <c r="M835" s="20" t="n"/>
@@ -44296,7 +44292,7 @@
     <row r="836">
       <c r="A836" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B836" s="18" t="inlineStr">
@@ -44306,18 +44302,18 @@
       </c>
       <c r="C836" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D836" s="18" t="inlineStr">
         <is>
-          <t>Usar orçamentos de interrupção em seu pod e definições de implantação</t>
+          <t>Certifique-se de replicar ou duplicar sua rede na região irmã. Você tem que fazer uma cópia do seu Vnet em outra região</t>
         </is>
       </c>
       <c r="E836" s="18" t="n"/>
       <c r="F836" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G836" t="inlineStr">
@@ -44335,7 +44331,7 @@
       <c r="K836" s="19" t="n"/>
       <c r="L836" s="19" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>aee4563a-fd83-4393-98b2-62d6dc5f512a</t>
         </is>
       </c>
       <c r="M836" s="20" t="n"/>
@@ -44347,7 +44343,7 @@
     <row r="837">
       <c r="A837" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure Data Factory Review Checklist</t>
         </is>
       </c>
       <c r="B837" s="18" t="inlineStr">
@@ -44357,18 +44353,22 @@
       </c>
       <c r="C837" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>Azure Data Factory</t>
         </is>
       </c>
       <c r="D837" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando um registro privado, configure a replicação de região para armazenar imagens em várias regiões</t>
-        </is>
-      </c>
-      <c r="E837" s="18" t="n"/>
+          <t>Se estiver usando a integração do Keyvault, use o SLA do Keyvault para entender sua disponibilidade</t>
+        </is>
+      </c>
+      <c r="E837" s="18" t="inlineStr">
+        <is>
+          <t>Se seus pipelines do ADF usarem o Cofre de Chaves, você não precisará fazer nada para replicar o Cofre de Chaves. O Cofre de Chaves é um serviço gerenciado e a Microsoft cuida dele para você</t>
+        </is>
+      </c>
       <c r="F837" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G837" t="inlineStr">
@@ -44386,7 +44386,7 @@
       <c r="K837" s="19" t="n"/>
       <c r="L837" s="19" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>25498f6d-bad3-47da-a43b-c6ce1d7aa9b2</t>
         </is>
       </c>
       <c r="M837" s="20" t="n"/>
@@ -44398,28 +44398,28 @@
     <row r="838">
       <c r="A838" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B838" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C838" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D838" s="18" t="inlineStr">
         <is>
-          <t>Use um aplicativo externo, como kubecost, para alocar custos para diferentes usuários</t>
+          <t>Selecione o plano de hospedagem de aplicativo lógico certo com base em seus requisitos de negócios e SLO</t>
         </is>
       </c>
       <c r="E838" s="18" t="n"/>
       <c r="F838" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G838" t="inlineStr">
@@ -44437,7 +44437,7 @@
       <c r="K838" s="19" t="n"/>
       <c r="L838" s="19" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>cb26b2ba-a9db-45d1-8260-d9c6ec1447d9</t>
         </is>
       </c>
       <c r="M838" s="20" t="n"/>
@@ -44449,28 +44449,28 @@
     <row r="839">
       <c r="A839" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B839" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C839" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D839" s="18" t="inlineStr">
         <is>
-          <t>Usar o modo de redução para excluir/desalocar nós</t>
+          <t>Proteja aplicativos lógicos contra falhas de região com redundância de zona e zonas de disponibilidade</t>
         </is>
       </c>
       <c r="E839" s="18" t="n"/>
       <c r="F839" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
@@ -44488,7 +44488,7 @@
       <c r="K839" s="19" t="n"/>
       <c r="L839" s="19" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>f6dd7977-1123-4f39-b488-f91415a8430a</t>
         </is>
       </c>
       <c r="M839" s="20" t="n"/>
@@ -44500,28 +44500,28 @@
     <row r="840">
       <c r="A840" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B840" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C840" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D840" s="18" t="inlineStr">
         <is>
-          <t>Quando necessário, use a GPU de partioning de várias instâncias em clusters AKS</t>
+          <t>Considere uma estratégia de DR entre regiões para cargas de trabalho críticas</t>
         </is>
       </c>
       <c r="E840" s="18" t="n"/>
       <c r="F840" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G840" t="inlineStr">
@@ -44539,7 +44539,7 @@
       <c r="K840" s="19" t="n"/>
       <c r="L840" s="19" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>8aed4fbf-0830-4883-899d-222a154af478</t>
         </is>
       </c>
       <c r="M840" s="20" t="n"/>
@@ -44551,28 +44551,28 @@
     <row r="841">
       <c r="A841" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B841" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C841" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D841" s="18" t="inlineStr">
         <is>
-          <t>Se estiver executando um cluster de desenvolvimento/teste, use NodePool Start/Stop</t>
+          <t>Se estiver implantando em um ambiente isolado, use ou migre para o ASE (Ambiente do Serviço de Aplicativo) v3</t>
         </is>
       </c>
       <c r="E841" s="18" t="n"/>
       <c r="F841" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G841" t="inlineStr">
@@ -44590,7 +44590,7 @@
       <c r="K841" s="19" t="n"/>
       <c r="L841" s="19" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>da0f033e-d180-4f36-9aa4-c468dba14203</t>
         </is>
       </c>
       <c r="M841" s="20" t="n"/>
@@ -44602,22 +44602,22 @@
     <row r="842">
       <c r="A842" s="18" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Device Provisioning Service Review</t>
         </is>
       </c>
       <c r="B842" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C842" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>IoT Hub DPS</t>
         </is>
       </c>
       <c r="D842" s="18" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para Kubernetes para garantir a conformidade do cluster</t>
+          <t>Aproveite o Azure DevOps ou o GitHub para simplificar o CI/CD e proteger seu código de Aplicativo Lógico</t>
         </is>
       </c>
       <c r="E842" s="18" t="n"/>
@@ -44638,14 +44638,10 @@
         </is>
       </c>
       <c r="J842" s="13" t="n"/>
-      <c r="K842" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K842" s="19" t="n"/>
       <c r="L842" s="19" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>62711604-c9d1-4b0a-bdb7-5fda54a4f6c1</t>
         </is>
       </c>
       <c r="M842" s="20" t="n"/>
@@ -44662,7 +44658,7 @@
       </c>
       <c r="B843" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C843" s="18" t="inlineStr">
@@ -44672,13 +44668,13 @@
       </c>
       <c r="D843" s="18" t="inlineStr">
         <is>
-          <t>Separe os aplicativos do plano de controle com pools de nós de usuário/sistema</t>
+          <t>Se necessário para cargas de trabalho do AKS Windows, os contêineres HostProcess podem ser usados</t>
         </is>
       </c>
       <c r="E843" s="18" t="n"/>
       <c r="F843" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G843" t="inlineStr">
@@ -44693,14 +44689,10 @@
         </is>
       </c>
       <c r="J843" s="13" t="n"/>
-      <c r="K843" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
-        </is>
-      </c>
+      <c r="K843" s="19" t="n"/>
       <c r="L843" s="19" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M843" s="20" t="n"/>
@@ -44717,7 +44709,7 @@
       </c>
       <c r="B844" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C844" s="18" t="inlineStr">
@@ -44727,7 +44719,7 @@
       </c>
       <c r="D844" s="18" t="inlineStr">
         <is>
-          <t>Adicione mancha ao seu nodepool do sistema para torná-lo dedicado</t>
+          <t>Usar o KEDA se estiver executando cargas de trabalho orientadas a eventos</t>
         </is>
       </c>
       <c r="E844" s="18" t="n"/>
@@ -44751,7 +44743,7 @@
       <c r="K844" s="19" t="n"/>
       <c r="L844" s="19" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M844" s="20" t="n"/>
@@ -44768,7 +44760,7 @@
       </c>
       <c r="B845" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C845" s="18" t="inlineStr">
@@ -44778,13 +44770,13 @@
       </c>
       <c r="D845" s="18" t="inlineStr">
         <is>
-          <t>Usar um registro privado para suas imagens, como o ACR</t>
+          <t>Use o Dapr para facilitar o desenvolvimento de microsserviços</t>
         </is>
       </c>
       <c r="E845" s="18" t="n"/>
       <c r="F845" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G845" t="inlineStr">
@@ -44802,7 +44794,7 @@
       <c r="K845" s="19" t="n"/>
       <c r="L845" s="19" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M845" s="20" t="n"/>
@@ -44819,23 +44811,23 @@
       </c>
       <c r="B846" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C846" s="18" t="inlineStr">
         <is>
-          <t>ACR</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D846" s="18" t="inlineStr">
         <is>
-          <t>Analise suas imagens em busca de vulnerabilidades</t>
+          <t>Use a oferta AKS apoiada por SLA</t>
         </is>
       </c>
       <c r="E846" s="18" t="n"/>
       <c r="F846" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G846" t="inlineStr">
@@ -44850,10 +44842,14 @@
         </is>
       </c>
       <c r="J846" s="13" t="n"/>
-      <c r="K846" s="19" t="n"/>
+      <c r="K846" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (sku.tier=='Paid') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L846" s="19" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M846" s="20" t="n"/>
@@ -44870,7 +44866,7 @@
       </c>
       <c r="B847" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C847" s="18" t="inlineStr">
@@ -44880,13 +44876,13 @@
       </c>
       <c r="D847" s="18" t="inlineStr">
         <is>
-          <t>Definir requisitos de separação de aplicativos (namespace/nodepool/cluster)</t>
+          <t>Usar orçamentos de interrupção em seu pod e definições de implantação</t>
         </is>
       </c>
       <c r="E847" s="18" t="n"/>
       <c r="F847" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G847" t="inlineStr">
@@ -44904,7 +44900,7 @@
       <c r="K847" s="19" t="n"/>
       <c r="L847" s="19" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M847" s="20" t="n"/>
@@ -44921,23 +44917,23 @@
       </c>
       <c r="B848" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C848" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D848" s="18" t="inlineStr">
         <is>
-          <t>Armazene seus segredos no Cofre de Chaves do Azure com o driver do CSI Secrets Store</t>
+          <t>Se estiver usando um registro privado, configure a replicação de região para armazenar imagens em várias regiões</t>
         </is>
       </c>
       <c r="E848" s="18" t="n"/>
       <c r="F848" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G848" t="inlineStr">
@@ -44955,7 +44951,7 @@
       <c r="K848" s="19" t="n"/>
       <c r="L848" s="19" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M848" s="20" t="n"/>
@@ -44972,7 +44968,7 @@
       </c>
       <c r="B849" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C849" s="18" t="inlineStr">
@@ -44982,13 +44978,13 @@
       </c>
       <c r="D849" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando entidades de serviço para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
+          <t>Use um aplicativo externo, como kubecost, para alocar custos para diferentes usuários</t>
         </is>
       </c>
       <c r="E849" s="18" t="n"/>
       <c r="F849" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G849" t="inlineStr">
@@ -45006,7 +45002,7 @@
       <c r="K849" s="19" t="n"/>
       <c r="L849" s="19" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M849" s="20" t="n"/>
@@ -45023,7 +45019,7 @@
       </c>
       <c r="B850" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C850" s="18" t="inlineStr">
@@ -45033,13 +45029,13 @@
       </c>
       <c r="D850" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, adicione criptografia etcd do Serviço de Gerenciamento de Chaves</t>
+          <t>Usar o modo de redução para excluir/desalocar nós</t>
         </is>
       </c>
       <c r="E850" s="18" t="n"/>
       <c r="F850" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G850" t="inlineStr">
@@ -45057,7 +45053,7 @@
       <c r="K850" s="19" t="n"/>
       <c r="L850" s="19" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M850" s="20" t="n"/>
@@ -45074,7 +45070,7 @@
       </c>
       <c r="B851" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C851" s="18" t="inlineStr">
@@ -45084,13 +45080,13 @@
       </c>
       <c r="D851" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, considere o uso de computação confidencial para AKS</t>
+          <t>Quando necessário, use a GPU de partioning de várias instâncias em clusters AKS</t>
         </is>
       </c>
       <c r="E851" s="18" t="n"/>
       <c r="F851" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G851" t="inlineStr">
@@ -45108,7 +45104,7 @@
       <c r="K851" s="19" t="n"/>
       <c r="L851" s="19" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M851" s="20" t="n"/>
@@ -45125,7 +45121,7 @@
       </c>
       <c r="B852" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C852" s="18" t="inlineStr">
@@ -45135,13 +45131,13 @@
       </c>
       <c r="D852" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso do Defender for Containers</t>
+          <t>Se estiver executando um cluster de desenvolvimento/teste, use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="E852" s="18" t="n"/>
       <c r="F852" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G852" t="inlineStr">
@@ -45159,7 +45155,7 @@
       <c r="K852" s="19" t="n"/>
       <c r="L852" s="19" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M852" s="20" t="n"/>
@@ -45186,13 +45182,13 @@
       </c>
       <c r="D853" s="18" t="inlineStr">
         <is>
-          <t>Usar identidades gerenciadas em vez de entidades de serviço</t>
+          <t>Usar a Política do Azure para Kubernetes para garantir a conformidade do cluster</t>
         </is>
       </c>
       <c r="E853" s="18" t="n"/>
       <c r="F853" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G853" t="inlineStr">
@@ -45209,12 +45205,12 @@
       <c r="J853" s="13" t="n"/>
       <c r="K853" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.azurepolicy) and properties.addonProfiles.azurepolicy.enabled==true) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L853" s="19" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M853" s="20" t="n"/>
@@ -45241,7 +45237,7 @@
       </c>
       <c r="D854" s="18" t="inlineStr">
         <is>
-          <t>Integrar autenticação com AAD (usando a integração gerenciada)</t>
+          <t>Separe os aplicativos do plano de controle com pools de nós de usuário/sistema</t>
         </is>
       </c>
       <c r="E854" s="18" t="n"/>
@@ -45264,12 +45260,12 @@
       <c r="J854" s="13" t="n"/>
       <c r="K854" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | project id,name,resourceGroup,poolcount=array_length(pools) | extend compliant = (poolcount &gt; 1)</t>
         </is>
       </c>
       <c r="L854" s="19" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M854" s="20" t="n"/>
@@ -45296,13 +45292,13 @@
       </c>
       <c r="D855" s="18" t="inlineStr">
         <is>
-          <t>Limitar o acesso ao admin kubeconfig (get-credentials --admin)</t>
+          <t>Adicione mancha ao seu nodepool do sistema para torná-lo dedicado</t>
         </is>
       </c>
       <c r="E855" s="18" t="n"/>
       <c r="F855" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G855" t="inlineStr">
@@ -45320,7 +45316,7 @@
       <c r="K855" s="19" t="n"/>
       <c r="L855" s="19" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M855" s="20" t="n"/>
@@ -45347,7 +45343,7 @@
       </c>
       <c r="D856" s="18" t="inlineStr">
         <is>
-          <t>Integrar autorização com AAD RBAC</t>
+          <t>Usar um registro privado para suas imagens, como o ACR</t>
         </is>
       </c>
       <c r="E856" s="18" t="n"/>
@@ -45371,7 +45367,7 @@
       <c r="K856" s="19" t="n"/>
       <c r="L856" s="19" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M856" s="20" t="n"/>
@@ -45393,18 +45389,18 @@
       </c>
       <c r="C857" s="18" t="inlineStr">
         <is>
-          <t>AKS</t>
+          <t>ACR</t>
         </is>
       </c>
       <c r="D857" s="18" t="inlineStr">
         <is>
-          <t>Usar namespaces para restringir o privilégio RBAC no Kubernetes</t>
+          <t>Analise suas imagens em busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="E857" s="18" t="n"/>
       <c r="F857" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -45422,7 +45418,7 @@
       <c r="K857" s="19" t="n"/>
       <c r="L857" s="19" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M857" s="20" t="n"/>
@@ -45449,13 +45445,13 @@
       </c>
       <c r="D858" s="18" t="inlineStr">
         <is>
-          <t>Para o Gerenciamento de Acesso à Identidade de Pod, use a Identidade de Carga de Trabalho do Azure AD (visualização)</t>
+          <t>Definir requisitos de separação de aplicativos (namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="E858" s="18" t="n"/>
       <c r="F858" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
@@ -45473,7 +45469,7 @@
       <c r="K858" s="19" t="n"/>
       <c r="L858" s="19" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M858" s="20" t="n"/>
@@ -45500,7 +45496,7 @@
       </c>
       <c r="D859" s="18" t="inlineStr">
         <is>
-          <t>Para logins não interativos do AKS, use kubelogin (visualização)</t>
+          <t>Armazene seus segredos no Cofre de Chaves do Azure com o driver do CSI Secrets Store</t>
         </is>
       </c>
       <c r="E859" s="18" t="n"/>
@@ -45524,7 +45520,7 @@
       <c r="K859" s="19" t="n"/>
       <c r="L859" s="19" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M859" s="20" t="n"/>
@@ -45551,13 +45547,13 @@
       </c>
       <c r="D860" s="18" t="inlineStr">
         <is>
-          <t>Desativar contas locais do AKS</t>
+          <t>Se estiver usando entidades de serviço para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
         </is>
       </c>
       <c r="E860" s="18" t="n"/>
       <c r="F860" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -45572,14 +45568,10 @@
         </is>
       </c>
       <c r="J860" s="13" t="n"/>
-      <c r="K860" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K860" s="19" t="n"/>
       <c r="L860" s="19" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M860" s="20" t="n"/>
@@ -45606,13 +45598,13 @@
       </c>
       <c r="D861" s="18" t="inlineStr">
         <is>
-          <t>Configurar, se necessário, o acesso ao cluster just-in-time</t>
+          <t>Se necessário, adicione criptografia etcd do Serviço de Gerenciamento de Chaves</t>
         </is>
       </c>
       <c r="E861" s="18" t="n"/>
       <c r="F861" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
@@ -45630,7 +45622,7 @@
       <c r="K861" s="19" t="n"/>
       <c r="L861" s="19" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M861" s="20" t="n"/>
@@ -45657,7 +45649,7 @@
       </c>
       <c r="D862" s="18" t="inlineStr">
         <is>
-          <t>Configurar, se necessário, o acesso condicional do AAD para AKS</t>
+          <t>Se necessário, considere o uso de computação confidencial para AKS</t>
         </is>
       </c>
       <c r="E862" s="18" t="n"/>
@@ -45681,7 +45673,7 @@
       <c r="K862" s="19" t="n"/>
       <c r="L862" s="19" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M862" s="20" t="n"/>
@@ -45708,13 +45700,13 @@
       </c>
       <c r="D863" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se necessário para cargas de trabalho do Windows AKS, configure o gMSA </t>
+          <t>Considere o uso do Defender for Containers</t>
         </is>
       </c>
       <c r="E863" s="18" t="n"/>
       <c r="F863" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
@@ -45732,7 +45724,7 @@
       <c r="K863" s="19" t="n"/>
       <c r="L863" s="19" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M863" s="20" t="n"/>
@@ -45759,13 +45751,13 @@
       </c>
       <c r="D864" s="18" t="inlineStr">
         <is>
-          <t>Para um controle mais fino, considere usar uma Identidade Kubelet gerenciada</t>
+          <t>Usar identidades gerenciadas em vez de entidades de serviço</t>
         </is>
       </c>
       <c r="E864" s="18" t="n"/>
       <c r="F864" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -45780,10 +45772,14 @@
         </is>
       </c>
       <c r="J864" s="13" t="n"/>
-      <c r="K864" s="19" t="n"/>
+      <c r="K864" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.servicePrincipalProfile.clientId=='msi') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L864" s="19" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M864" s="20" t="n"/>
@@ -45800,7 +45796,7 @@
       </c>
       <c r="B865" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C865" s="18" t="inlineStr">
@@ -45810,7 +45806,7 @@
       </c>
       <c r="D865" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando AGIC, não compartilhe um AppGW entre clusters</t>
+          <t>Integrar autenticação com AAD (usando a integração gerenciada)</t>
         </is>
       </c>
       <c r="E865" s="18" t="n"/>
@@ -45831,10 +45827,14 @@
         </is>
       </c>
       <c r="J865" s="13" t="n"/>
-      <c r="K865" s="19" t="n"/>
+      <c r="K865" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.aadProfile) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L865" s="19" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M865" s="20" t="n"/>
@@ -45851,7 +45851,7 @@
       </c>
       <c r="B866" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C866" s="18" t="inlineStr">
@@ -45861,13 +45861,13 @@
       </c>
       <c r="D866" s="18" t="inlineStr">
         <is>
-          <t>Não use AKS HTTP Routing Add-On, use em vez disso a entrada NGINX gerenciada com o complemento de roteamento de aplicativo.</t>
+          <t>Limitar o acesso ao admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="E866" s="18" t="n"/>
       <c r="F866" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -45882,14 +45882,10 @@
         </is>
       </c>
       <c r="J866" s="13" t="n"/>
-      <c r="K866" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K866" s="19" t="n"/>
       <c r="L866" s="19" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M866" s="20" t="n"/>
@@ -45906,7 +45902,7 @@
       </c>
       <c r="B867" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C867" s="18" t="inlineStr">
@@ -45916,7 +45912,7 @@
       </c>
       <c r="D867" s="18" t="inlineStr">
         <is>
-          <t>Para cargas de trabalho do Windows, use a Rede Acelerada</t>
+          <t>Integrar autorização com AAD RBAC</t>
         </is>
       </c>
       <c r="E867" s="18" t="n"/>
@@ -45940,7 +45936,7 @@
       <c r="K867" s="19" t="n"/>
       <c r="L867" s="19" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M867" s="20" t="n"/>
@@ -45957,7 +45953,7 @@
       </c>
       <c r="B868" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C868" s="18" t="inlineStr">
@@ -45967,7 +45963,7 @@
       </c>
       <c r="D868" s="18" t="inlineStr">
         <is>
-          <t>Use o ALB padrão (em oposição ao básico)</t>
+          <t>Usar namespaces para restringir o privilégio RBAC no Kubernetes</t>
         </is>
       </c>
       <c r="E868" s="18" t="n"/>
@@ -45988,14 +45984,10 @@
         </is>
       </c>
       <c r="J868" s="13" t="n"/>
-      <c r="K868" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K868" s="19" t="n"/>
       <c r="L868" s="19" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M868" s="20" t="n"/>
@@ -46022,7 +46014,7 @@
       </c>
       <c r="D869" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o CNI do Azure, considere usar sub-redes diferentes para NodePools</t>
+          <t>Para o Gerenciamento de Acesso à Identidade de Pod, use a Identidade de Carga de Trabalho do Azure AD (visualização)</t>
         </is>
       </c>
       <c r="E869" s="18" t="n"/>
@@ -46046,7 +46038,7 @@
       <c r="K869" s="19" t="n"/>
       <c r="L869" s="19" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M869" s="20" t="n"/>
@@ -46073,7 +46065,7 @@
       </c>
       <c r="D870" s="18" t="inlineStr">
         <is>
-          <t>Usar Pontos de Extremidade Privados (preferencial) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS do cluster</t>
+          <t>Para logins não interativos do AKS, use kubelogin (visualização)</t>
         </is>
       </c>
       <c r="E870" s="18" t="n"/>
@@ -46097,7 +46089,7 @@
       <c r="K870" s="19" t="n"/>
       <c r="L870" s="19" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M870" s="20" t="n"/>
@@ -46114,7 +46106,7 @@
       </c>
       <c r="B871" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C871" s="18" t="inlineStr">
@@ -46124,13 +46116,13 @@
       </c>
       <c r="D871" s="18" t="inlineStr">
         <is>
-          <t>Escolha o melhor plug-in de rede CNI para seus requisitos (Azure CNI recomendado)</t>
+          <t>Desativar contas locais do AKS</t>
         </is>
       </c>
       <c r="E871" s="18" t="n"/>
       <c r="F871" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -46147,12 +46139,12 @@
       <c r="J871" s="13" t="n"/>
       <c r="K871" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.disableLocalAccounts==true) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L871" s="19" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M871" s="20" t="n"/>
@@ -46169,7 +46161,7 @@
       </c>
       <c r="B872" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C872" s="18" t="inlineStr">
@@ -46179,13 +46171,13 @@
       </c>
       <c r="D872" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o Azure CNI, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
+          <t>Configurar, se necessário, o acesso ao cluster just-in-time</t>
         </is>
       </c>
       <c r="E872" s="18" t="n"/>
       <c r="F872" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G872" t="inlineStr">
@@ -46203,7 +46195,7 @@
       <c r="K872" s="19" t="n"/>
       <c r="L872" s="19" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M872" s="20" t="n"/>
@@ -46220,7 +46212,7 @@
       </c>
       <c r="B873" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C873" s="18" t="inlineStr">
@@ -46230,13 +46222,13 @@
       </c>
       <c r="D873" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o Azure CNI, verifique o máximo de pods/nó (padrão 30)</t>
+          <t>Configurar, se necessário, o acesso condicional do AAD para AKS</t>
         </is>
       </c>
       <c r="E873" s="18" t="n"/>
       <c r="F873" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G873" t="inlineStr">
@@ -46254,7 +46246,7 @@
       <c r="K873" s="19" t="n"/>
       <c r="L873" s="19" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M873" s="20" t="n"/>
@@ -46281,14 +46273,10 @@
       </c>
       <c r="D874" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando serviços LoadBalancer de IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
-        </is>
-      </c>
-      <c r="E874" s="18" t="inlineStr">
-        <is>
-          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso abre o acesso de rede para os nós também e, potencialmente, para os pods também (se estiver usando o Azure CNI). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS são um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Se necessário para cargas de trabalho do Windows AKS, configure o gMSA </t>
+        </is>
+      </c>
+      <c r="E874" s="18" t="n"/>
       <c r="F874" s="18" t="inlineStr">
         <is>
           <t>Baixo</t>
@@ -46309,7 +46297,7 @@
       <c r="K874" s="19" t="n"/>
       <c r="L874" s="19" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M874" s="20" t="n"/>
@@ -46326,7 +46314,7 @@
       </c>
       <c r="B875" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C875" s="18" t="inlineStr">
@@ -46336,13 +46324,13 @@
       </c>
       <c r="D875" s="18" t="inlineStr">
         <is>
-          <t>Dimensione o intervalo de endereços IP do serviço de acordo (isso limitará a escalabilidade do cluster)</t>
+          <t>Para um controle mais fino, considere usar uma Identidade Kubelet gerenciada</t>
         </is>
       </c>
       <c r="E875" s="18" t="n"/>
       <c r="F875" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -46360,7 +46348,7 @@
       <c r="K875" s="19" t="n"/>
       <c r="L875" s="19" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M875" s="20" t="n"/>
@@ -46377,7 +46365,7 @@
       </c>
       <c r="B876" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C876" s="18" t="inlineStr">
@@ -46387,13 +46375,13 @@
       </c>
       <c r="D876" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, adicione seu próprio plugin CNI</t>
+          <t>Se estiver usando AGIC, não compartilhe um AppGW entre clusters</t>
         </is>
       </c>
       <c r="E876" s="18" t="n"/>
       <c r="F876" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G876" t="inlineStr">
@@ -46411,7 +46399,7 @@
       <c r="K876" s="19" t="n"/>
       <c r="L876" s="19" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M876" s="20" t="n"/>
@@ -46428,7 +46416,7 @@
       </c>
       <c r="B877" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C877" s="18" t="inlineStr">
@@ -46438,13 +46426,13 @@
       </c>
       <c r="D877" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, configure o IP público por nó no AKS</t>
+          <t>Não use AKS HTTP Routing Add-On, use em vez disso a entrada NGINX gerenciada com o complemento de roteamento de aplicativo.</t>
         </is>
       </c>
       <c r="E877" s="18" t="n"/>
       <c r="F877" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G877" t="inlineStr">
@@ -46459,10 +46447,14 @@
         </is>
       </c>
       <c r="J877" s="13" t="n"/>
-      <c r="K877" s="19" t="n"/>
+      <c r="K877" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnull(properties.addonProfiles.httpApplicationRouting) or properties.addonProfiles.httpApplicationRouting.enabled==false) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L877" s="19" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M877" s="20" t="n"/>
@@ -46479,7 +46471,7 @@
       </c>
       <c r="B878" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C878" s="18" t="inlineStr">
@@ -46489,7 +46481,7 @@
       </c>
       <c r="D878" s="18" t="inlineStr">
         <is>
-          <t>Usar um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
+          <t>Para cargas de trabalho do Windows, use a Rede Acelerada</t>
         </is>
       </c>
       <c r="E878" s="18" t="n"/>
@@ -46513,7 +46505,7 @@
       <c r="K878" s="19" t="n"/>
       <c r="L878" s="19" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M878" s="20" t="n"/>
@@ -46540,13 +46532,13 @@
       </c>
       <c r="D879" s="18" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure como outboundType para dimensionar o tráfego de saída</t>
+          <t>Use o ALB padrão (em oposição ao básico)</t>
         </is>
       </c>
       <c r="E879" s="18" t="n"/>
       <c r="F879" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G879" t="inlineStr">
@@ -46561,10 +46553,14 @@
         </is>
       </c>
       <c r="J879" s="13" t="n"/>
-      <c r="K879" s="19" t="n"/>
+      <c r="K879" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (tolower(properties.networkProfile.loadBalancerSku)=='standard') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L879" s="19" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M879" s="20" t="n"/>
@@ -46581,7 +46577,7 @@
       </c>
       <c r="B880" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C880" s="18" t="inlineStr">
@@ -46591,7 +46587,7 @@
       </c>
       <c r="D880" s="18" t="inlineStr">
         <is>
-          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento de IP do CNI do Azure</t>
+          <t>Se estiver usando o CNI do Azure, considere usar sub-redes diferentes para NodePools</t>
         </is>
       </c>
       <c r="E880" s="18" t="n"/>
@@ -46615,7 +46611,7 @@
       <c r="K880" s="19" t="n"/>
       <c r="L880" s="19" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M880" s="20" t="n"/>
@@ -46642,13 +46638,13 @@
       </c>
       <c r="D881" s="18" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída com AzFW/NVA se seus requisitos de segurança exigirem</t>
+          <t>Usar Pontos de Extremidade Privados (preferencial) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS do cluster</t>
         </is>
       </c>
       <c r="E881" s="18" t="n"/>
       <c r="F881" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G881" t="inlineStr">
@@ -46663,14 +46659,10 @@
         </is>
       </c>
       <c r="J881" s="13" t="n"/>
-      <c r="K881" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K881" s="19" t="n"/>
       <c r="L881" s="19" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M881" s="20" t="n"/>
@@ -46687,7 +46679,7 @@
       </c>
       <c r="B882" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C882" s="18" t="inlineStr">
@@ -46697,13 +46689,13 @@
       </c>
       <c r="D882" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando um ponto de extremidade de API público, restrinja os endereços IP que podem acessá-lo</t>
+          <t>Escolha o melhor plug-in de rede CNI para seus requisitos (Azure CNI recomendado)</t>
         </is>
       </c>
       <c r="E882" s="18" t="n"/>
       <c r="F882" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
@@ -46720,12 +46712,12 @@
       <c r="J882" s="13" t="n"/>
       <c r="K882" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.networkPlugin=='azure') | distinct id,compliant</t>
         </is>
       </c>
       <c r="L882" s="19" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M882" s="20" t="n"/>
@@ -46742,7 +46734,7 @@
       </c>
       <c r="B883" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C883" s="18" t="inlineStr">
@@ -46752,7 +46744,7 @@
       </c>
       <c r="D883" s="18" t="inlineStr">
         <is>
-          <t>Use clusters privados se seus requisitos exigirem</t>
+          <t>Se estiver usando o Azure CNI, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
         </is>
       </c>
       <c r="E883" s="18" t="n"/>
@@ -46773,14 +46765,10 @@
         </is>
       </c>
       <c r="J883" s="13" t="n"/>
-      <c r="K883" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K883" s="19" t="n"/>
       <c r="L883" s="19" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M883" s="20" t="n"/>
@@ -46797,7 +46785,7 @@
       </c>
       <c r="B884" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C884" s="18" t="inlineStr">
@@ -46807,13 +46795,13 @@
       </c>
       <c r="D884" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para os nós AKS do Windows 2019 e 2022, as Diretivas de Rede Calico podem ser usadas </t>
+          <t>Se estiver usando o Azure CNI, verifique o máximo de pods/nó (padrão 30)</t>
         </is>
       </c>
       <c r="E884" s="18" t="n"/>
       <c r="F884" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G884" t="inlineStr">
@@ -46828,14 +46816,10 @@
         </is>
       </c>
       <c r="J884" s="13" t="n"/>
-      <c r="K884" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
-        </is>
-      </c>
+      <c r="K884" s="19" t="n"/>
       <c r="L884" s="19" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M884" s="20" t="n"/>
@@ -46862,13 +46846,17 @@
       </c>
       <c r="D885" s="18" t="inlineStr">
         <is>
-          <t>Habilitar uma opção de Política de Rede do Kubernetes (Calico/Azure)</t>
-        </is>
-      </c>
-      <c r="E885" s="18" t="n"/>
+          <t>Se estiver usando serviços LoadBalancer de IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
+        </is>
+      </c>
+      <c r="E885" s="18" t="inlineStr">
+        <is>
+          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso abre o acesso de rede para os nós também e, potencialmente, para os pods também (se estiver usando o Azure CNI). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS são um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
+        </is>
+      </c>
       <c r="F885" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G885" t="inlineStr">
@@ -46883,14 +46871,10 @@
         </is>
       </c>
       <c r="J885" s="13" t="n"/>
-      <c r="K885" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K885" s="19" t="n"/>
       <c r="L885" s="19" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M885" s="20" t="n"/>
@@ -46907,7 +46891,7 @@
       </c>
       <c r="B886" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C886" s="18" t="inlineStr">
@@ -46917,7 +46901,7 @@
       </c>
       <c r="D886" s="18" t="inlineStr">
         <is>
-          <t>Usar diretivas de rede do Kubernetes para aumentar a segurança intra-cluster</t>
+          <t>Dimensione o intervalo de endereços IP do serviço de acordo (isso limitará a escalabilidade do cluster)</t>
         </is>
       </c>
       <c r="E886" s="18" t="n"/>
@@ -46941,7 +46925,7 @@
       <c r="K886" s="19" t="n"/>
       <c r="L886" s="19" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M886" s="20" t="n"/>
@@ -46968,13 +46952,13 @@
       </c>
       <c r="D887" s="18" t="inlineStr">
         <is>
-          <t>Usar um WAF para cargas de trabalho da Web (UIs ou APIs)</t>
+          <t>Se necessário, adicione seu próprio plugin CNI</t>
         </is>
       </c>
       <c r="E887" s="18" t="n"/>
       <c r="F887" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
@@ -46992,7 +46976,7 @@
       <c r="K887" s="19" t="n"/>
       <c r="L887" s="19" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M887" s="20" t="n"/>
@@ -47009,7 +46993,7 @@
       </c>
       <c r="B888" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C888" s="18" t="inlineStr">
@@ -47019,13 +47003,13 @@
       </c>
       <c r="D888" s="18" t="inlineStr">
         <is>
-          <t>Usar DDoS Standard na Rede Virtual AKS</t>
+          <t>Se necessário, configure o IP público por nó no AKS</t>
         </is>
       </c>
       <c r="E888" s="18" t="n"/>
       <c r="F888" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -47040,14 +47024,10 @@
         </is>
       </c>
       <c r="J888" s="13" t="n"/>
-      <c r="K888" s="19" t="inlineStr">
-        <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
-        </is>
-      </c>
+      <c r="K888" s="19" t="n"/>
       <c r="L888" s="19" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M888" s="20" t="n"/>
@@ -47064,7 +47044,7 @@
       </c>
       <c r="B889" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C889" s="18" t="inlineStr">
@@ -47074,13 +47054,13 @@
       </c>
       <c r="D889" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, adicione o proxy HTTP da empresa</t>
+          <t>Usar um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
         </is>
       </c>
       <c r="E889" s="18" t="n"/>
       <c r="F889" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
@@ -47095,14 +47075,10 @@
         </is>
       </c>
       <c r="J889" s="13" t="n"/>
-      <c r="K889" s="19" t="inlineStr">
-        <is>
-          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
-        </is>
-      </c>
+      <c r="K889" s="19" t="n"/>
       <c r="L889" s="19" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M889" s="20" t="n"/>
@@ -47119,7 +47095,7 @@
       </c>
       <c r="B890" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C890" s="18" t="inlineStr">
@@ -47129,13 +47105,13 @@
       </c>
       <c r="D890" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso de uma malha de serviço para gerenciamento avançado de comunicação de microsserviços</t>
+          <t>Usar o Gateway NAT do Azure como outboundType para dimensionar o tráfego de saída</t>
         </is>
       </c>
       <c r="E890" s="18" t="n"/>
       <c r="F890" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -47153,7 +47129,7 @@
       <c r="K890" s="19" t="n"/>
       <c r="L890" s="19" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M890" s="20" t="n"/>
@@ -47170,7 +47146,7 @@
       </c>
       <c r="B891" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C891" s="18" t="inlineStr">
@@ -47180,13 +47156,13 @@
       </c>
       <c r="D891" s="18" t="inlineStr">
         <is>
-          <t>Configurar alertas nas métricas mais críticas (consulte Insights de contêiner para obter recomendações)</t>
+          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento de IP do CNI do Azure</t>
         </is>
       </c>
       <c r="E891" s="18" t="n"/>
       <c r="F891" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -47204,7 +47180,7 @@
       <c r="K891" s="19" t="n"/>
       <c r="L891" s="19" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M891" s="20" t="n"/>
@@ -47221,7 +47197,7 @@
       </c>
       <c r="B892" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C892" s="18" t="inlineStr">
@@ -47231,13 +47207,13 @@
       </c>
       <c r="D892" s="18" t="inlineStr">
         <is>
-          <t>Verifique regularmente o Azure Advisor para obter recomendações sobre o seu cluster</t>
+          <t>Filtre o tráfego de saída com AzFW/NVA se seus requisitos de segurança exigirem</t>
         </is>
       </c>
       <c r="E892" s="18" t="n"/>
       <c r="F892" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -47252,10 +47228,14 @@
         </is>
       </c>
       <c r="J892" s="13" t="n"/>
-      <c r="K892" s="19" t="n"/>
+      <c r="K892" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.networkProfile.outboundType=='userDefinedRouting') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L892" s="19" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M892" s="20" t="n"/>
@@ -47272,7 +47252,7 @@
       </c>
       <c r="B893" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C893" s="18" t="inlineStr">
@@ -47282,13 +47262,13 @@
       </c>
       <c r="D893" s="18" t="inlineStr">
         <is>
-          <t>Habilitar a rotação automática do certificado AKS</t>
+          <t>Se estiver usando um ponto de extremidade de API público, restrinja os endereços IP que podem acessá-lo</t>
         </is>
       </c>
       <c r="E893" s="18" t="n"/>
       <c r="F893" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
@@ -47303,10 +47283,14 @@
         </is>
       </c>
       <c r="J893" s="13" t="n"/>
-      <c r="K893" s="19" t="n"/>
+      <c r="K893" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = ((isnull(properties.apiServerAccessProfile.enablePrivateCluster) or properties.apiServerAccessProfile.enablePrivateCluster==false) and isnotnull(properties.apiServerAccessProfile.authorizedIPRanges)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L893" s="19" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M893" s="20" t="n"/>
@@ -47323,7 +47307,7 @@
       </c>
       <c r="B894" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C894" s="18" t="inlineStr">
@@ -47333,7 +47317,7 @@
       </c>
       <c r="D894" s="18" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo), ou use o recurso de atualização automática do AKS</t>
+          <t>Use clusters privados se seus requisitos exigirem</t>
         </is>
       </c>
       <c r="E894" s="18" t="n"/>
@@ -47354,10 +47338,14 @@
         </is>
       </c>
       <c r="J894" s="13" t="n"/>
-      <c r="K894" s="19" t="n"/>
+      <c r="K894" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L894" s="19" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M894" s="20" t="n"/>
@@ -47374,7 +47362,7 @@
       </c>
       <c r="B895" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C895" s="18" t="inlineStr">
@@ -47384,13 +47372,13 @@
       </c>
       <c r="D895" s="18" t="inlineStr">
         <is>
-          <t>Use kured para atualizações de nó do Linux caso você não esteja usando a atualização de imagem de nó</t>
+          <t xml:space="preserve">Para os nós AKS do Windows 2019 e 2022, as Diretivas de Rede Calico podem ser usadas </t>
         </is>
       </c>
       <c r="E895" s="18" t="n"/>
       <c r="F895" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
@@ -47405,10 +47393,14 @@
         </is>
       </c>
       <c r="J895" s="13" t="n"/>
-      <c r="K895" s="19" t="n"/>
+      <c r="K895" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | where isnotnull(properties.apiServerAccessProfile.enablePrivateCluster) | extend compliant = (properties.apiServerAccessProfile.enablePrivateCluster==true) | distinct id, compliant</t>
+        </is>
+      </c>
       <c r="L895" s="19" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M895" s="20" t="n"/>
@@ -47425,7 +47417,7 @@
       </c>
       <c r="B896" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C896" s="18" t="inlineStr">
@@ -47435,7 +47427,7 @@
       </c>
       <c r="D896" s="18" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar as imagens do nó do cluster periodicamente (semanalmente, por exemplo)</t>
+          <t>Habilitar uma opção de Política de Rede do Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="E896" s="18" t="n"/>
@@ -47456,10 +47448,14 @@
         </is>
       </c>
       <c r="J896" s="13" t="n"/>
-      <c r="K896" s="19" t="n"/>
+      <c r="K896" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = isnotnull(properties.networkProfile.networkPolicy) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L896" s="19" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M896" s="20" t="n"/>
@@ -47476,7 +47472,7 @@
       </c>
       <c r="B897" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C897" s="18" t="inlineStr">
@@ -47486,13 +47482,13 @@
       </c>
       <c r="D897" s="18" t="inlineStr">
         <is>
-          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
+          <t>Usar diretivas de rede do Kubernetes para aumentar a segurança intra-cluster</t>
         </is>
       </c>
       <c r="E897" s="18" t="n"/>
       <c r="F897" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G897" t="inlineStr">
@@ -47510,7 +47506,7 @@
       <c r="K897" s="19" t="n"/>
       <c r="L897" s="19" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M897" s="20" t="n"/>
@@ -47527,7 +47523,7 @@
       </c>
       <c r="B898" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C898" s="18" t="inlineStr">
@@ -47537,13 +47533,13 @@
       </c>
       <c r="D898" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso do comando AKS invoke em clusters privados</t>
+          <t>Usar um WAF para cargas de trabalho da Web (UIs ou APIs)</t>
         </is>
       </c>
       <c r="E898" s="18" t="n"/>
       <c r="F898" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G898" t="inlineStr">
@@ -47561,7 +47557,7 @@
       <c r="K898" s="19" t="n"/>
       <c r="L898" s="19" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M898" s="20" t="n"/>
@@ -47578,7 +47574,7 @@
       </c>
       <c r="B899" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C899" s="18" t="inlineStr">
@@ -47588,13 +47584,13 @@
       </c>
       <c r="D899" s="18" t="inlineStr">
         <is>
-          <t>Para eventos planejados, considere o uso do Dreno Automático de Nó</t>
+          <t>Usar DDoS Standard na Rede Virtual AKS</t>
         </is>
       </c>
       <c r="E899" s="18" t="n"/>
       <c r="F899" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G899" t="inlineStr">
@@ -47609,10 +47605,14 @@
         </is>
       </c>
       <c r="J899" s="13" t="n"/>
-      <c r="K899" s="19" t="n"/>
+      <c r="K899" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L899" s="19" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M899" s="20" t="n"/>
@@ -47629,7 +47629,7 @@
       </c>
       <c r="B900" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C900" s="18" t="inlineStr">
@@ -47639,13 +47639,13 @@
       </c>
       <c r="D900" s="18" t="inlineStr">
         <is>
-          <t>Desenvolver práticas próprias de governança para garantir que nenhuma alteração seja realizada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
+          <t>Se necessário, adicione o proxy HTTP da empresa</t>
         </is>
       </c>
       <c r="E900" s="18" t="n"/>
       <c r="F900" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G900" t="inlineStr">
@@ -47660,10 +47660,14 @@
         </is>
       </c>
       <c r="J900" s="13" t="n"/>
-      <c r="K900" s="19" t="n"/>
+      <c r="K900" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type=~'microsoft.containerservice/managedclusters' | project resourceGroup,name,pools=properties.agentPoolProfiles | mv-expand pools | project subnetId=tostring(pools.vnetSubnetID) | where isnotempty(subnetId) | join (Resources | where type=='microsoft.network/virtualnetworks' | project id,resourceGroup,name,enableDdosProtection=tostring(properties.enableDdosProtection),subnets=properties.subnets | mv-expand subnets | project id,resourceGroup,name,enableDdosProtection,subnetId=tostring(subnets.id)) on subnetId | distinct id,resourceGroup,name,enableDdosProtection | extend compliant = (enableDdosProtection == 'true')</t>
+        </is>
+      </c>
       <c r="L900" s="19" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M900" s="20" t="n"/>
@@ -47680,7 +47684,7 @@
       </c>
       <c r="B901" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C901" s="18" t="inlineStr">
@@ -47690,13 +47694,13 @@
       </c>
       <c r="D901" s="18" t="inlineStr">
         <is>
-          <t>Use o nome personalizado do Node RG (também conhecido como 'Infra RG')</t>
+          <t>Considere o uso de uma malha de serviço para gerenciamento avançado de comunicação de microsserviços</t>
         </is>
       </c>
       <c r="E901" s="18" t="n"/>
       <c r="F901" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G901" t="inlineStr">
@@ -47711,14 +47715,10 @@
         </is>
       </c>
       <c r="J901" s="13" t="n"/>
-      <c r="K901" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K901" s="19" t="n"/>
       <c r="L901" s="19" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M901" s="20" t="n"/>
@@ -47745,13 +47745,13 @@
       </c>
       <c r="D902" s="18" t="inlineStr">
         <is>
-          <t>Não use APIs do Kubernetes preteridas em seus manifestos do YAML</t>
+          <t>Configurar alertas nas métricas mais críticas (consulte Insights de contêiner para obter recomendações)</t>
         </is>
       </c>
       <c r="E902" s="18" t="n"/>
       <c r="F902" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G902" t="inlineStr">
@@ -47769,7 +47769,7 @@
       <c r="K902" s="19" t="n"/>
       <c r="L902" s="19" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M902" s="20" t="n"/>
@@ -47796,7 +47796,7 @@
       </c>
       <c r="D903" s="18" t="inlineStr">
         <is>
-          <t>Manchar os nós do Windows</t>
+          <t>Verifique regularmente o Azure Advisor para obter recomendações sobre o seu cluster</t>
         </is>
       </c>
       <c r="E903" s="18" t="n"/>
@@ -47820,7 +47820,7 @@
       <c r="K903" s="19" t="n"/>
       <c r="L903" s="19" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M903" s="20" t="n"/>
@@ -47847,7 +47847,7 @@
       </c>
       <c r="D904" s="18" t="inlineStr">
         <is>
-          <t>Mantenha o nível de patch dos contêineres do Windows sincronizado com o nível do patch do host</t>
+          <t>Habilitar a rotação automática do certificado AKS</t>
         </is>
       </c>
       <c r="E904" s="18" t="n"/>
@@ -47871,7 +47871,7 @@
       <c r="K904" s="19" t="n"/>
       <c r="L904" s="19" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M904" s="20" t="n"/>
@@ -47898,17 +47898,13 @@
       </c>
       <c r="D905" s="18" t="inlineStr">
         <is>
-          <t>Envie logs mestre (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
-        </is>
-      </c>
-      <c r="E905" s="18" t="inlineStr">
-        <is>
-          <t>Por meio de Configurações de Diagnóstico no nível do cluster</t>
-        </is>
-      </c>
+          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo), ou use o recurso de atualização automática do AKS</t>
+        </is>
+      </c>
+      <c r="E905" s="18" t="n"/>
       <c r="F905" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
@@ -47926,7 +47922,7 @@
       <c r="K905" s="19" t="n"/>
       <c r="L905" s="19" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M905" s="20" t="n"/>
@@ -47943,7 +47939,7 @@
       </c>
       <c r="B906" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C906" s="18" t="inlineStr">
@@ -47953,13 +47949,13 @@
       </c>
       <c r="D906" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, use instantâneos do nodePool</t>
+          <t>Use kured para atualizações de nó do Linux caso você não esteja usando a atualização de imagem de nó</t>
         </is>
       </c>
       <c r="E906" s="18" t="n"/>
       <c r="F906" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G906" t="inlineStr">
@@ -47977,7 +47973,7 @@
       <c r="K906" s="19" t="n"/>
       <c r="L906" s="19" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M906" s="20" t="n"/>
@@ -48004,13 +48000,13 @@
       </c>
       <c r="D907" s="18" t="inlineStr">
         <is>
-          <t>Considere pools de nós spot para cargas de trabalho não sensíveis ao tempo</t>
+          <t>Tenha um processo regular para atualizar as imagens do nó do cluster periodicamente (semanalmente, por exemplo)</t>
         </is>
       </c>
       <c r="E907" s="18" t="n"/>
       <c r="F907" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
@@ -48028,7 +48024,7 @@
       <c r="K907" s="19" t="n"/>
       <c r="L907" s="19" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M907" s="20" t="n"/>
@@ -48055,7 +48051,7 @@
       </c>
       <c r="D908" s="18" t="inlineStr">
         <is>
-          <t>Considere o nó virtual AKS para intermitência rápida</t>
+          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
         </is>
       </c>
       <c r="E908" s="18" t="n"/>
@@ -48076,14 +48072,10 @@
         </is>
       </c>
       <c r="J908" s="13" t="n"/>
-      <c r="K908" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K908" s="19" t="n"/>
       <c r="L908" s="19" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M908" s="20" t="n"/>
@@ -48110,13 +48102,13 @@
       </c>
       <c r="D909" s="18" t="inlineStr">
         <is>
-          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas como o Prometheus)</t>
+          <t>Considere o uso do comando AKS invoke em clusters privados</t>
         </is>
       </c>
       <c r="E909" s="18" t="n"/>
       <c r="F909" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G909" t="inlineStr">
@@ -48134,7 +48126,7 @@
       <c r="K909" s="19" t="n"/>
       <c r="L909" s="19" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M909" s="20" t="n"/>
@@ -48161,13 +48153,13 @@
       </c>
       <c r="D910" s="18" t="inlineStr">
         <is>
-          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas como Telegraf/ElasticSearch)</t>
+          <t>Para eventos planejados, considere o uso do Dreno Automático de Nó</t>
         </is>
       </c>
       <c r="E910" s="18" t="n"/>
       <c r="F910" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G910" t="inlineStr">
@@ -48182,14 +48174,10 @@
         </is>
       </c>
       <c r="J910" s="13" t="n"/>
-      <c r="K910" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K910" s="19" t="n"/>
       <c r="L910" s="19" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M910" s="20" t="n"/>
@@ -48216,13 +48204,13 @@
       </c>
       <c r="D911" s="18" t="inlineStr">
         <is>
-          <t>Monitorar a utilização da CPU e da memória dos nós</t>
+          <t>Desenvolver práticas próprias de governança para garantir que nenhuma alteração seja realizada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
         </is>
       </c>
       <c r="E911" s="18" t="n"/>
       <c r="F911" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G911" t="inlineStr">
@@ -48240,7 +48228,7 @@
       <c r="K911" s="19" t="n"/>
       <c r="L911" s="19" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M911" s="20" t="n"/>
@@ -48267,13 +48255,13 @@
       </c>
       <c r="D912" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o Azure CNI, monitore a % de IPs de pod consumidos por nó</t>
+          <t>Use o nome personalizado do Node RG (também conhecido como 'Infra RG')</t>
         </is>
       </c>
       <c r="E912" s="18" t="n"/>
       <c r="F912" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G912" t="inlineStr">
@@ -48288,10 +48276,14 @@
         </is>
       </c>
       <c r="J912" s="13" t="n"/>
-      <c r="K912" s="19" t="n"/>
+      <c r="K912" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (properties.nodeResourceGroup !startswith 'MC_') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L912" s="19" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M912" s="20" t="n"/>
@@ -48318,14 +48310,10 @@
       </c>
       <c r="D913" s="18" t="inlineStr">
         <is>
-          <t>Monitorar a profundidade da fila de disco do sistema operacional nos nós</t>
-        </is>
-      </c>
-      <c r="E913" s="18" t="inlineStr">
-        <is>
-          <t>A E/S no disco do sistema operacional é um recurso crítico. Se o sistema operacional nos nós for limitado na E/S, isso pode levar a um comportamento imprevisível, geralmente terminando no nó sendo declarado NotReady</t>
-        </is>
-      </c>
+          <t>Não use APIs do Kubernetes preteridas em seus manifestos do YAML</t>
+        </is>
+      </c>
+      <c r="E913" s="18" t="n"/>
       <c r="F913" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -48346,7 +48334,7 @@
       <c r="K913" s="19" t="n"/>
       <c r="L913" s="19" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M913" s="20" t="n"/>
@@ -48373,13 +48361,13 @@
       </c>
       <c r="D914" s="18" t="inlineStr">
         <is>
-          <t>Se não estiver usando filtragem de saída com AzFW/NVA, monitore as portas SNAT ALB alocadas padrão</t>
+          <t>Manchar os nós do Windows</t>
         </is>
       </c>
       <c r="E914" s="18" t="n"/>
       <c r="F914" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G914" t="inlineStr">
@@ -48397,7 +48385,7 @@
       <c r="K914" s="19" t="n"/>
       <c r="L914" s="19" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M914" s="20" t="n"/>
@@ -48424,13 +48412,13 @@
       </c>
       <c r="D915" s="18" t="inlineStr">
         <is>
-          <t>Assine as notificações de integridade de recursos para seu cluster AKS</t>
+          <t>Mantenha o nível de patch dos contêineres do Windows sincronizado com o nível do patch do host</t>
         </is>
       </c>
       <c r="E915" s="18" t="n"/>
       <c r="F915" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G915" t="inlineStr">
@@ -48448,7 +48436,7 @@
       <c r="K915" s="19" t="n"/>
       <c r="L915" s="19" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M915" s="20" t="n"/>
@@ -48475,13 +48463,17 @@
       </c>
       <c r="D916" s="18" t="inlineStr">
         <is>
-          <t>Configurar solicitações e limites nas especificações do pod</t>
-        </is>
-      </c>
-      <c r="E916" s="18" t="n"/>
+          <t>Envie logs mestre (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
+        </is>
+      </c>
+      <c r="E916" s="18" t="inlineStr">
+        <is>
+          <t>Por meio de Configurações de Diagnóstico no nível do cluster</t>
+        </is>
+      </c>
       <c r="F916" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G916" t="inlineStr">
@@ -48499,7 +48491,7 @@
       <c r="K916" s="19" t="n"/>
       <c r="L916" s="19" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M916" s="20" t="n"/>
@@ -48516,7 +48508,7 @@
       </c>
       <c r="B917" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C917" s="18" t="inlineStr">
@@ -48526,13 +48518,13 @@
       </c>
       <c r="D917" s="18" t="inlineStr">
         <is>
-          <t>Impor cotas de recursos para namespaces</t>
+          <t>Se necessário, use instantâneos do nodePool</t>
         </is>
       </c>
       <c r="E917" s="18" t="n"/>
       <c r="F917" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G917" t="inlineStr">
@@ -48550,7 +48542,7 @@
       <c r="K917" s="19" t="n"/>
       <c r="L917" s="19" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M917" s="20" t="n"/>
@@ -48577,13 +48569,13 @@
       </c>
       <c r="D918" s="18" t="inlineStr">
         <is>
-          <t>Verifique se sua assinatura tem cota suficiente para expandir seus nodepools</t>
+          <t>Considere pools de nós spot para cargas de trabalho não sensíveis ao tempo</t>
         </is>
       </c>
       <c r="E918" s="18" t="n"/>
       <c r="F918" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G918" t="inlineStr">
@@ -48601,7 +48593,7 @@
       <c r="K918" s="19" t="n"/>
       <c r="L918" s="19" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M918" s="20" t="n"/>
@@ -48618,7 +48610,7 @@
       </c>
       <c r="B919" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C919" s="18" t="inlineStr">
@@ -48628,13 +48620,13 @@
       </c>
       <c r="D919" s="18" t="inlineStr">
         <is>
-          <t>Usar o Autoscaler de Cluster</t>
+          <t>Considere o nó virtual AKS para intermitência rápida</t>
         </is>
       </c>
       <c r="E919" s="18" t="n"/>
       <c r="F919" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -48651,12 +48643,12 @@
       <c r="J919" s="13" t="n"/>
       <c r="K919" s="19" t="inlineStr">
         <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.aciConnectorLinux) and properties.addonProfiles.aciConnectorLinux.enabled==true) | distinct id,compliant</t>
         </is>
       </c>
       <c r="L919" s="19" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M919" s="20" t="n"/>
@@ -48673,7 +48665,7 @@
       </c>
       <c r="B920" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C920" s="18" t="inlineStr">
@@ -48683,13 +48675,13 @@
       </c>
       <c r="D920" s="18" t="inlineStr">
         <is>
-          <t>Personalizar a configuração do nó para pools de nós AKS</t>
+          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas como o Prometheus)</t>
         </is>
       </c>
       <c r="E920" s="18" t="n"/>
       <c r="F920" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G920" t="inlineStr">
@@ -48704,14 +48696,10 @@
         </is>
       </c>
       <c r="J920" s="13" t="n"/>
-      <c r="K920" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
-        </is>
-      </c>
+      <c r="K920" s="19" t="n"/>
       <c r="L920" s="19" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M920" s="20" t="n"/>
@@ -48728,7 +48716,7 @@
       </c>
       <c r="B921" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C921" s="18" t="inlineStr">
@@ -48738,13 +48726,13 @@
       </c>
       <c r="D921" s="18" t="inlineStr">
         <is>
-          <t>Use o Autoscaler do Pod Horizontal quando necessário</t>
+          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="E921" s="18" t="n"/>
       <c r="F921" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -48759,10 +48747,14 @@
         </is>
       </c>
       <c r="J921" s="13" t="n"/>
-      <c r="K921" s="19" t="n"/>
+      <c r="K921" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.addonProfiles.omsagent) and properties.addonProfiles.omsagent.enabled==true) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L921" s="19" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M921" s="20" t="n"/>
@@ -48779,7 +48771,7 @@
       </c>
       <c r="B922" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C922" s="18" t="inlineStr">
@@ -48789,17 +48781,13 @@
       </c>
       <c r="D922" s="18" t="inlineStr">
         <is>
-          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
-        </is>
-      </c>
-      <c r="E922" s="18" t="inlineStr">
-        <is>
-          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
-        </is>
-      </c>
+          <t>Monitorar a utilização da CPU e da memória dos nós</t>
+        </is>
+      </c>
+      <c r="E922" s="18" t="n"/>
       <c r="F922" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -48817,7 +48805,7 @@
       <c r="K922" s="19" t="n"/>
       <c r="L922" s="19" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M922" s="20" t="n"/>
@@ -48834,7 +48822,7 @@
       </c>
       <c r="B923" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C923" s="18" t="inlineStr">
@@ -48844,13 +48832,13 @@
       </c>
       <c r="D923" s="18" t="inlineStr">
         <is>
-          <t>Se mais de 5000 nós forem necessários para escalabilidade, considere o uso de um cluster AKS adicional</t>
+          <t>Se estiver usando o Azure CNI, monitore a % de IPs de pod consumidos por nó</t>
         </is>
       </c>
       <c r="E923" s="18" t="n"/>
       <c r="F923" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G923" t="inlineStr">
@@ -48868,7 +48856,7 @@
       <c r="K923" s="19" t="n"/>
       <c r="L923" s="19" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M923" s="20" t="n"/>
@@ -48885,7 +48873,7 @@
       </c>
       <c r="B924" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C924" s="18" t="inlineStr">
@@ -48895,13 +48883,17 @@
       </c>
       <c r="D924" s="18" t="inlineStr">
         <is>
-          <t>Considere assinar o EventGrid Events para automação AKS</t>
-        </is>
-      </c>
-      <c r="E924" s="18" t="n"/>
+          <t>Monitorar a profundidade da fila de disco do sistema operacional nos nós</t>
+        </is>
+      </c>
+      <c r="E924" s="18" t="inlineStr">
+        <is>
+          <t>A E/S no disco do sistema operacional é um recurso crítico. Se o sistema operacional nos nós for limitado na E/S, isso pode levar a um comportamento imprevisível, geralmente terminando no nó sendo declarado NotReady</t>
+        </is>
+      </c>
       <c r="F924" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G924" t="inlineStr">
@@ -48919,7 +48911,7 @@
       <c r="K924" s="19" t="n"/>
       <c r="L924" s="19" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M924" s="20" t="n"/>
@@ -48936,7 +48928,7 @@
       </c>
       <c r="B925" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C925" s="18" t="inlineStr">
@@ -48946,13 +48938,13 @@
       </c>
       <c r="D925" s="18" t="inlineStr">
         <is>
-          <t>Para operações de longa duração em um cluster AKS, considere o encerramento do evento</t>
+          <t>Se não estiver usando filtragem de saída com AzFW/NVA, monitore as portas SNAT ALB alocadas padrão</t>
         </is>
       </c>
       <c r="E925" s="18" t="n"/>
       <c r="F925" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G925" t="inlineStr">
@@ -48970,7 +48962,7 @@
       <c r="K925" s="19" t="n"/>
       <c r="L925" s="19" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M925" s="20" t="n"/>
@@ -48987,7 +48979,7 @@
       </c>
       <c r="B926" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C926" s="18" t="inlineStr">
@@ -48997,13 +48989,13 @@
       </c>
       <c r="D926" s="18" t="inlineStr">
         <is>
-          <t>Se necessário, considere usar hosts dedicados do Azure para nós AKS</t>
+          <t>Assine as notificações de integridade de recursos para seu cluster AKS</t>
         </is>
       </c>
       <c r="E926" s="18" t="n"/>
       <c r="F926" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G926" t="inlineStr">
@@ -49021,7 +49013,7 @@
       <c r="K926" s="19" t="n"/>
       <c r="L926" s="19" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M926" s="20" t="n"/>
@@ -49038,7 +49030,7 @@
       </c>
       <c r="B927" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C927" s="18" t="inlineStr">
@@ -49048,7 +49040,7 @@
       </c>
       <c r="D927" s="18" t="inlineStr">
         <is>
-          <t>Usar discos efêmeros do sistema operacional</t>
+          <t>Configurar solicitações e limites nas especificações do pod</t>
         </is>
       </c>
       <c r="E927" s="18" t="n"/>
@@ -49069,14 +49061,10 @@
         </is>
       </c>
       <c r="J927" s="13" t="n"/>
-      <c r="K927" s="19" t="inlineStr">
-        <is>
-          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
-        </is>
-      </c>
+      <c r="K927" s="19" t="n"/>
       <c r="L927" s="19" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M927" s="20" t="n"/>
@@ -49093,7 +49081,7 @@
       </c>
       <c r="B928" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C928" s="18" t="inlineStr">
@@ -49103,13 +49091,13 @@
       </c>
       <c r="D928" s="18" t="inlineStr">
         <is>
-          <t>Para discos não efêmeros, use IOPS altos e discos maiores do sistema operacional para os nós ao executar muitos pods/nó, pois requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
+          <t>Impor cotas de recursos para namespaces</t>
         </is>
       </c>
       <c r="E928" s="18" t="n"/>
       <c r="F928" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G928" t="inlineStr">
@@ -49127,7 +49115,7 @@
       <c r="K928" s="19" t="n"/>
       <c r="L928" s="19" t="inlineStr">
         <is>
-          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M928" s="20" t="n"/>
@@ -49144,7 +49132,7 @@
       </c>
       <c r="B929" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C929" s="18" t="inlineStr">
@@ -49154,13 +49142,13 @@
       </c>
       <c r="D929" s="18" t="inlineStr">
         <is>
-          <t>Para a opção de armazenamento de hiperdesempenho, use Ultra Disks no AKS</t>
+          <t>Verifique se sua assinatura tem cota suficiente para expandir seus nodepools</t>
         </is>
       </c>
       <c r="E929" s="18" t="n"/>
       <c r="F929" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G929" t="inlineStr">
@@ -49178,7 +49166,7 @@
       <c r="K929" s="19" t="n"/>
       <c r="L929" s="19" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M929" s="20" t="n"/>
@@ -49205,7 +49193,7 @@
       </c>
       <c r="D930" s="18" t="inlineStr">
         <is>
-          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc)</t>
+          <t>Usar o Autoscaler de Cluster</t>
         </is>
       </c>
       <c r="E930" s="18" t="n"/>
@@ -49226,10 +49214,14 @@
         </is>
       </c>
       <c r="J930" s="13" t="n"/>
-      <c r="K930" s="19" t="n"/>
+      <c r="K930" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.autoScalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L930" s="19" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M930" s="20" t="n"/>
@@ -49256,13 +49248,13 @@
       </c>
       <c r="D931" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando o AzFiles Standard, considere o AzFiles Premium e/ou ANF por motivos de desempenho</t>
+          <t>Personalizar a configuração do nó para pools de nós AKS</t>
         </is>
       </c>
       <c r="E931" s="18" t="n"/>
       <c r="F931" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G931" t="inlineStr">
@@ -49277,10 +49269,14 @@
         </is>
       </c>
       <c r="J931" s="13" t="n"/>
-      <c r="K931" s="19" t="n"/>
+      <c r="K931" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | extend compliant = (isnotnull(properties.austoscalerProfile)) | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L931" s="19" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M931" s="20" t="n"/>
@@ -49307,7 +49303,7 @@
       </c>
       <c r="D932" s="18" t="inlineStr">
         <is>
-          <t>Se estiver usando Discos e AZs do Azure, considere ter nodepools dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para nodepools abrangendo várias zonas</t>
+          <t>Use o Autoscaler do Pod Horizontal quando necessário</t>
         </is>
       </c>
       <c r="E932" s="18" t="n"/>
@@ -49331,7 +49327,7 @@
       <c r="K932" s="19" t="n"/>
       <c r="L932" s="19" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M932" s="20" t="n"/>
@@ -49343,25 +49339,29 @@
     <row r="933">
       <c r="A933" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B933" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C933" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D933" s="18" t="inlineStr">
         <is>
-          <t>Permitir que 2 réplicas tenham 99,9% de disponibilidade para operações de leitura</t>
-        </is>
-      </c>
-      <c r="E933" s="18" t="n"/>
+          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
+        </is>
+      </c>
+      <c r="E933" s="18" t="inlineStr">
+        <is>
+          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
+        </is>
+      </c>
       <c r="F933" s="18" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -49382,7 +49382,7 @@
       <c r="K933" s="19" t="n"/>
       <c r="L933" s="19" t="inlineStr">
         <is>
-          <t>41faa1ed-b7f0-447d-8cba-4a4905e5bb83</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M933" s="20" t="n"/>
@@ -49394,28 +49394,28 @@
     <row r="934">
       <c r="A934" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B934" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C934" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D934" s="18" t="inlineStr">
         <is>
-          <t>Permitir que 3 réplicas tenham 99,9% de disponibilidade para operações de leitura/gravação</t>
+          <t>Se mais de 5000 nós forem necessários para escalabilidade, considere o uso de um cluster AKS adicional</t>
         </is>
       </c>
       <c r="E934" s="18" t="n"/>
       <c r="F934" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G934" t="inlineStr">
@@ -49433,7 +49433,7 @@
       <c r="K934" s="19" t="n"/>
       <c r="L934" s="19" t="inlineStr">
         <is>
-          <t>7d956fd9-788a-4845-9b9f-c0340972d810</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M934" s="20" t="n"/>
@@ -49445,28 +49445,28 @@
     <row r="935">
       <c r="A935" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B935" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C935" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D935" s="18" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade habilitando réplicas de leitura e/ou gravação</t>
+          <t>Considere assinar o EventGrid Events para automação AKS</t>
         </is>
       </c>
       <c r="E935" s="18" t="n"/>
       <c r="F935" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G935" t="inlineStr">
@@ -49484,7 +49484,7 @@
       <c r="K935" s="19" t="n"/>
       <c r="L935" s="19" t="inlineStr">
         <is>
-          <t>44dc5f2b-a032-4d03-aae8-90c3f2c0a4c3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M935" s="20" t="n"/>
@@ -49496,28 +49496,28 @@
     <row r="936">
       <c r="A936" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B936" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C936" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D936" s="18" t="inlineStr">
         <is>
-          <t>Para redução regional, crie manualmente serviços em 2 ou mais regiões para a Pesquisa, pois não fornece um método automatizado de replicação de índices de pesquisa entre regiões geográficas</t>
+          <t>Para operações de longa duração em um cluster AKS, considere o encerramento do evento</t>
         </is>
       </c>
       <c r="E936" s="18" t="n"/>
       <c r="F936" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G936" t="inlineStr">
@@ -49535,7 +49535,7 @@
       <c r="K936" s="19" t="n"/>
       <c r="L936" s="19" t="inlineStr">
         <is>
-          <t>cd0730f0-0ff1-4b77-9a2b-2a1f7dd5e291</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M936" s="20" t="n"/>
@@ -49547,28 +49547,28 @@
     <row r="937">
       <c r="A937" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B937" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C937" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D937" s="18" t="inlineStr">
         <is>
-          <t>Para sincronizar dados em vários serviços: Use indexadores para atualizar conteúdo em vários serviços ou Use APIs REST para enviar atualizações de conteúdo em vários serviços</t>
+          <t>Se necessário, considere usar hosts dedicados do Azure para nós AKS</t>
         </is>
       </c>
       <c r="E937" s="18" t="n"/>
       <c r="F937" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G937" t="inlineStr">
@@ -49586,7 +49586,7 @@
       <c r="K937" s="19" t="n"/>
       <c r="L937" s="19" t="inlineStr">
         <is>
-          <t>3c964882-aec9-4d44-9f68-4b5f2efbbdb6</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M937" s="20" t="n"/>
@@ -49598,28 +49598,28 @@
     <row r="938">
       <c r="A938" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B938" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C938" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D938" s="18" t="inlineStr">
         <is>
-          <t>Usar o Gerenciador de Tráfego do Azure para coordenar solicitações</t>
+          <t>Usar discos efêmeros do sistema operacional</t>
         </is>
       </c>
       <c r="E938" s="18" t="n"/>
       <c r="F938" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G938" t="inlineStr">
@@ -49634,10 +49634,14 @@
         </is>
       </c>
       <c r="J938" s="13" t="n"/>
-      <c r="K938" s="19" t="n"/>
+      <c r="K938" s="19" t="inlineStr">
+        <is>
+          <t>where type=='microsoft.containerservice/managedclusters' | project id,resourceGroup,name,pools=properties.agentPoolProfiles | mvexpand pools | extend compliant = (pools.osDiskType=='Ephemeral') | project id,name=strcat(name,'-',pools.name), resourceGroup, compliant</t>
+        </is>
+      </c>
       <c r="L938" s="19" t="inlineStr">
         <is>
-          <t>85ee93c9-f53c-4803-be51-e6e4aa37ff4e</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M938" s="20" t="n"/>
@@ -49649,22 +49653,22 @@
     <row r="939">
       <c r="A939" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search Review Checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B939" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C939" s="18" t="inlineStr">
         <is>
-          <t>Cognitive Search</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D939" s="18" t="inlineStr">
         <is>
-          <t>Backup e restauração de um índice de pesquisa cognitiva do Azure. Use este código de exemplo para fazer backup da definição de índice e instantâneo em uma série de arquivos Json</t>
+          <t>Para discos não efêmeros, use IOPS altos e discos maiores do sistema operacional para os nós ao executar muitos pods/nó, pois requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
         </is>
       </c>
       <c r="E939" s="18" t="n"/>
@@ -49688,7 +49692,7 @@
       <c r="K939" s="19" t="n"/>
       <c r="L939" s="19" t="inlineStr">
         <is>
-          <t>7be10278-57c1-4a61-8ee3-895aebfec5aa</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M939" s="20" t="n"/>
@@ -49700,28 +49704,28 @@
     <row r="940">
       <c r="A940" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B940" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C940" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D940" s="18" t="inlineStr">
         <is>
-          <t>Selecione o plano de hospedagem de aplicativo lógico certo com base em seus requisitos de negócios e SLO</t>
+          <t>Para a opção de armazenamento de hiperdesempenho, use Ultra Disks no AKS</t>
         </is>
       </c>
       <c r="E940" s="18" t="n"/>
       <c r="F940" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G940" t="inlineStr">
@@ -49739,7 +49743,7 @@
       <c r="K940" s="19" t="n"/>
       <c r="L940" s="19" t="inlineStr">
         <is>
-          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M940" s="20" t="n"/>
@@ -49751,28 +49755,28 @@
     <row r="941">
       <c r="A941" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B941" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C941" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D941" s="18" t="inlineStr">
         <is>
-          <t>Proteja aplicativos lógicos contra falhas de região com redundância de zona e zonas de disponibilidade</t>
+          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc)</t>
         </is>
       </c>
       <c r="E941" s="18" t="n"/>
       <c r="F941" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G941" t="inlineStr">
@@ -49790,7 +49794,7 @@
       <c r="K941" s="19" t="n"/>
       <c r="L941" s="19" t="inlineStr">
         <is>
-          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M941" s="20" t="n"/>
@@ -49802,28 +49806,28 @@
     <row r="942">
       <c r="A942" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B942" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C942" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D942" s="18" t="inlineStr">
         <is>
-          <t>Considere uma estratégia de DR entre regiões para cargas de trabalho críticas</t>
+          <t>Se estiver usando o AzFiles Standard, considere o AzFiles Premium e/ou ANF por motivos de desempenho</t>
         </is>
       </c>
       <c r="E942" s="18" t="n"/>
       <c r="F942" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G942" t="inlineStr">
@@ -49841,7 +49845,7 @@
       <c r="K942" s="19" t="n"/>
       <c r="L942" s="19" t="inlineStr">
         <is>
-          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M942" s="20" t="n"/>
@@ -49853,28 +49857,28 @@
     <row r="943">
       <c r="A943" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B943" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C943" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>AKS</t>
         </is>
       </c>
       <c r="D943" s="18" t="inlineStr">
         <is>
-          <t>Se estiver implantando em um ambiente isolado, use ou migre para o ASE (Ambiente do Serviço de Aplicativo) v3</t>
+          <t>Se estiver usando Discos e AZs do Azure, considere ter nodepools dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para nodepools abrangendo várias zonas</t>
         </is>
       </c>
       <c r="E943" s="18" t="n"/>
       <c r="F943" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G943" t="inlineStr">
@@ -49892,7 +49896,7 @@
       <c r="K943" s="19" t="n"/>
       <c r="L943" s="19" t="inlineStr">
         <is>
-          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M943" s="20" t="n"/>
@@ -49904,28 +49908,28 @@
     <row r="944">
       <c r="A944" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps checklist</t>
+          <t>Cognitive Search Review Checklist</t>
         </is>
       </c>
       <c r="B944" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C944" s="18" t="inlineStr">
         <is>
-          <t>Logic Apps</t>
+          <t>Cognitive Search</t>
         </is>
       </c>
       <c r="D944" s="18" t="inlineStr">
         <is>
-          <t>Aproveite o Azure DevOps ou o GitHub para simplificar o CI/CD e proteger seu código de Aplicativo Lógico</t>
+          <t>Permitir que 2 réplicas tenham 99,9% de disponibilidade para operações de leitura</t>
         </is>
       </c>
       <c r="E944" s="18" t="n"/>
       <c r="F944" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G944" t="inlineStr">
@@ -49943,7 +49947,7 @@
       <c r="K944" s="19" t="n"/>
       <c r="L944" s="19" t="inlineStr">
         <is>
-          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
+          <t>41faa1ed-b7f0-447d-8cba-4a4905e5bb83</t>
         </is>
       </c>
       <c r="M944" s="20" t="n"/>
@@ -49955,22 +49959,22 @@
     <row r="945">
       <c r="A945" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cognitive Search Review Checklist</t>
         </is>
       </c>
       <c r="B945" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C945" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Cognitive Search</t>
         </is>
       </c>
       <c r="D945" s="18" t="inlineStr">
         <is>
-          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão do certificado 'Mais recente'. Reduza o risco de interrupções causadas pela renovação manual do certificado.</t>
+          <t>Permitir que 3 réplicas tenham 99,9% de disponibilidade para operações de leitura/gravação</t>
         </is>
       </c>
       <c r="E945" s="18" t="n"/>
@@ -49994,7 +49998,7 @@
       <c r="K945" s="19" t="n"/>
       <c r="L945" s="19" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7d956fd9-788a-4845-9b9f-c0340972d810</t>
         </is>
       </c>
       <c r="M945" s="20" t="n"/>
@@ -50006,28 +50010,28 @@
     <row r="946">
       <c r="A946" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cognitive Search Review Checklist</t>
         </is>
       </c>
       <c r="B946" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C946" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Cognitive Search</t>
         </is>
       </c>
       <c r="D946" s="18" t="inlineStr">
         <is>
-          <t>Use o Azure Front Door com políticas do WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
+          <t>Aproveite as zonas de disponibilidade habilitando réplicas de leitura e/ou gravação</t>
         </is>
       </c>
       <c r="E946" s="18" t="n"/>
       <c r="F946" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G946" t="inlineStr">
@@ -50041,15 +50045,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J946" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J946" s="13" t="n"/>
       <c r="K946" s="19" t="n"/>
       <c r="L946" s="19" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>44dc5f2b-a032-4d03-aae8-90c3f2c0a4c3</t>
         </is>
       </c>
       <c r="M946" s="20" t="n"/>
@@ -50061,22 +50061,22 @@
     <row r="947">
       <c r="A947" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cognitive Search Review Checklist</t>
         </is>
       </c>
       <c r="B947" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C947" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Cognitive Search</t>
         </is>
       </c>
       <c r="D947" s="18" t="inlineStr">
         <is>
-          <t>Ao usar o Front Door e o Gateway de Aplicativo para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Front Door.</t>
+          <t>Para redução regional, crie manualmente serviços em 2 ou mais regiões para a Pesquisa, pois não fornece um método automatizado de replicação de índices de pesquisa entre regiões geográficas</t>
         </is>
       </c>
       <c r="E947" s="18" t="n"/>
@@ -50096,15 +50096,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J947" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="J947" s="13" t="n"/>
       <c r="K947" s="19" t="n"/>
       <c r="L947" s="19" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>cd0730f0-0ff1-4b77-9a2b-2a1f7dd5e291</t>
         </is>
       </c>
       <c r="M947" s="20" t="n"/>
@@ -50116,28 +50112,28 @@
     <row r="948">
       <c r="A948" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cognitive Search Review Checklist</t>
         </is>
       </c>
       <c r="B948" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C948" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Cognitive Search</t>
         </is>
       </c>
       <c r="D948" s="18" t="inlineStr">
         <is>
-          <t>Implante sua política de WAF para o Front Door no modo 'Prevenção' para que o Firewall de Aplicativo Web tome as medidas apropriadas para permitir ou negar o tráfego.</t>
+          <t>Para sincronizar dados em vários serviços: Use indexadores para atualizar conteúdo em vários serviços ou Use APIs REST para enviar atualizações de conteúdo em vários serviços</t>
         </is>
       </c>
       <c r="E948" s="18" t="n"/>
       <c r="F948" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G948" t="inlineStr">
@@ -50152,14 +50148,10 @@
         </is>
       </c>
       <c r="J948" s="13" t="n"/>
-      <c r="K948" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
-        </is>
-      </c>
+      <c r="K948" s="19" t="n"/>
       <c r="L948" s="19" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>3c964882-aec9-4d44-9f68-4b5f2efbbdb6</t>
         </is>
       </c>
       <c r="M948" s="20" t="n"/>
@@ -50171,28 +50163,28 @@
     <row r="949">
       <c r="A949" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cognitive Search Review Checklist</t>
         </is>
       </c>
       <c r="B949" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C949" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Cognitive Search</t>
         </is>
       </c>
       <c r="D949" s="18" t="inlineStr">
         <is>
-          <t>Evite colocar o Gerenciador de Tráfego atrás da Porta da Frente.</t>
+          <t>Usar o Gerenciador de Tráfego do Azure para coordenar solicitações</t>
         </is>
       </c>
       <c r="E949" s="18" t="n"/>
       <c r="F949" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G949" t="inlineStr">
@@ -50207,14 +50199,10 @@
         </is>
       </c>
       <c r="J949" s="13" t="n"/>
-      <c r="K949" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend compliant = properties['hostName'] !endswith '.trafficmanager.net' | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="K949" s="19" t="n"/>
       <c r="L949" s="19" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>85ee93c9-f53c-4803-be51-e6e4aa37ff4e</t>
         </is>
       </c>
       <c r="M949" s="20" t="n"/>
@@ -50226,22 +50214,22 @@
     <row r="950">
       <c r="A950" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Cognitive Search Review Checklist</t>
         </is>
       </c>
       <c r="B950" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C950" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Cognitive Search</t>
         </is>
       </c>
       <c r="D950" s="18" t="inlineStr">
         <is>
-          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
+          <t>Backup e restauração de um índice de pesquisa cognitiva do Azure. Use este código de exemplo para fazer backup da definição de índice e instantâneo em uma série de arquivos Json</t>
         </is>
       </c>
       <c r="E950" s="18" t="n"/>
@@ -50265,7 +50253,7 @@
       <c r="K950" s="19" t="n"/>
       <c r="L950" s="19" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>7be10278-57c1-4a61-8ee3-895aebfec5aa</t>
         </is>
       </c>
       <c r="M950" s="20" t="n"/>
@@ -50277,28 +50265,28 @@
     <row r="951">
       <c r="A951" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B951" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C951" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D951" s="18" t="inlineStr">
         <is>
-          <t>Desabilite as investigações de integridade quando houver apenas uma origem em um grupo de origens do Azure Front Door.</t>
+          <t>Selecione o plano de hospedagem de aplicativo lógico certo com base em seus requisitos de negócios e SLO</t>
         </is>
       </c>
       <c r="E951" s="18" t="n"/>
       <c r="F951" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G951" t="inlineStr">
@@ -50313,14 +50301,10 @@
         </is>
       </c>
       <c r="J951" s="13" t="n"/>
-      <c r="K951" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
-        </is>
-      </c>
+      <c r="K951" s="19" t="n"/>
       <c r="L951" s="19" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>3b7a56de-5020-4642-b3cb-c976e80b6d6d</t>
         </is>
       </c>
       <c r="M951" s="20" t="n"/>
@@ -50332,7 +50316,7 @@
     <row r="952">
       <c r="A952" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B952" s="18" t="inlineStr">
@@ -50342,18 +50326,18 @@
       </c>
       <c r="C952" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D952" s="18" t="inlineStr">
         <is>
-          <t>Selecione pontos de extremidade de investigação de integridade boa para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do aplicativo.</t>
+          <t>Proteja aplicativos lógicos contra falhas de região com redundância de zona e zonas de disponibilidade</t>
         </is>
       </c>
       <c r="E952" s="18" t="n"/>
       <c r="F952" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G952" t="inlineStr">
@@ -50371,7 +50355,7 @@
       <c r="K952" s="19" t="n"/>
       <c r="L952" s="19" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>3d7008bd-6bc1-4b03-8aa8-ec2a3b55786a</t>
         </is>
       </c>
       <c r="M952" s="20" t="n"/>
@@ -50383,28 +50367,28 @@
     <row r="953">
       <c r="A953" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B953" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C953" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D953" s="18" t="inlineStr">
         <is>
-          <t>Use investigações de integridade HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
+          <t>Considere uma estratégia de DR entre regiões para cargas de trabalho críticas</t>
         </is>
       </c>
       <c r="E953" s="18" t="n"/>
       <c r="F953" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G953" t="inlineStr">
@@ -50419,14 +50403,10 @@
         </is>
       </c>
       <c r="J953" s="13" t="n"/>
-      <c r="K953" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
-        </is>
-      </c>
+      <c r="K953" s="19" t="n"/>
       <c r="L953" s="19" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>1cda768f-a206-445d-8234-56f6a6e7286e</t>
         </is>
       </c>
       <c r="M953" s="20" t="n"/>
@@ -50438,22 +50418,22 @@
     <row r="954">
       <c r="A954" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B954" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C954" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D954" s="18" t="inlineStr">
         <is>
-          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
+          <t>Se estiver implantando em um ambiente isolado, use ou migre para o ASE (Ambiente do Serviço de Aplicativo) v3</t>
         </is>
       </c>
       <c r="E954" s="18" t="n"/>
@@ -50474,14 +50454,10 @@
         </is>
       </c>
       <c r="J954" s="13" t="n"/>
-      <c r="K954" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
-        </is>
-      </c>
+      <c r="K954" s="19" t="n"/>
       <c r="L954" s="19" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>82118ec5-ed6f-4c68-9471-eb0da98a1b34</t>
         </is>
       </c>
       <c r="M954" s="20" t="n"/>
@@ -50493,7 +50469,7 @@
     <row r="955">
       <c r="A955" s="18" t="inlineStr">
         <is>
-          <t>Azure Application Delivery Networking</t>
+          <t>Logic Apps checklist</t>
         </is>
       </c>
       <c r="B955" s="18" t="inlineStr">
@@ -50503,12 +50479,12 @@
       </c>
       <c r="C955" s="18" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>Logic Apps</t>
         </is>
       </c>
       <c r="D955" s="18" t="inlineStr">
         <is>
-          <t>Defina a configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
+          <t>Aproveite o Azure DevOps ou o GitHub para simplificar o CI/CD e proteger seu código de Aplicativo Lógico</t>
         </is>
       </c>
       <c r="E955" s="18" t="n"/>
@@ -50532,7 +50508,7 @@
       <c r="K955" s="19" t="n"/>
       <c r="L955" s="19" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>74275fa5-9e08-4c7e-b096-13b538fe1501</t>
         </is>
       </c>
       <c r="M955" s="20" t="n"/>
@@ -50549,7 +50525,7 @@
       </c>
       <c r="B956" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C956" s="18" t="inlineStr">
@@ -50559,13 +50535,13 @@
       </c>
       <c r="D956" s="18" t="inlineStr">
         <is>
-          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
+          <t>Se você usar certificados TLS gerenciados pelo cliente com o Azure Front Door, use a versão do certificado 'Mais recente'. Reduza o risco de interrupções causadas pela renovação manual do certificado.</t>
         </is>
       </c>
       <c r="E956" s="18" t="n"/>
       <c r="F956" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G956" t="inlineStr">
@@ -50580,14 +50556,10 @@
         </is>
       </c>
       <c r="J956" s="13" t="n"/>
-      <c r="K956" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = forwardingProtocol =~ 'httpsonly' and (supportedProtocols has 'https' or httpsRedirect =~ 'enabled') | project id = frontDoorId, compliant</t>
-        </is>
-      </c>
+      <c r="K956" s="19" t="n"/>
       <c r="L956" s="19" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M956" s="20" t="n"/>
@@ -50614,7 +50586,7 @@
       </c>
       <c r="D957" s="18" t="inlineStr">
         <is>
-          <t>Use o redirecionamento de HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
+          <t>Use o Azure Front Door com políticas do WAF para fornecer e ajudar a proteger aplicativos HTTP/S globais que abrangem várias regiões do Azure.</t>
         </is>
       </c>
       <c r="E957" s="18" t="n"/>
@@ -50634,15 +50606,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J957" s="13" t="n"/>
-      <c r="K957" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = httpsRedirect =~ 'enabled' | project id = frontDoorId, compliant</t>
-        </is>
-      </c>
+      <c r="J957" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
+      <c r="K957" s="19" t="n"/>
       <c r="L957" s="19" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M957" s="20" t="n"/>
@@ -50669,13 +50641,13 @@
       </c>
       <c r="D958" s="18" t="inlineStr">
         <is>
-          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma variedade de ataques.</t>
+          <t>Ao usar o Front Door e o Gateway de Aplicativo para ajudar a proteger aplicativos HTTP/S, use políticas WAF no Front Door. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Front Door.</t>
         </is>
       </c>
       <c r="E958" s="18" t="n"/>
       <c r="F958" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G958" t="inlineStr">
@@ -50689,11 +50661,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J958" s="13" t="n"/>
+      <c r="J958" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="K958" s="19" t="n"/>
       <c r="L958" s="19" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M958" s="20" t="n"/>
@@ -50720,7 +50696,7 @@
       </c>
       <c r="D959" s="18" t="inlineStr">
         <is>
-          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho configurando o WAF no modo de detecção para reduzir e corrigir detecções de falsos positivos.</t>
+          <t>Implante sua política de WAF para o Front Door no modo 'Prevenção' para que o Firewall de Aplicativo Web tome as medidas apropriadas para permitir ou negar o tráfego.</t>
         </is>
       </c>
       <c r="E959" s="18" t="n"/>
@@ -50741,10 +50717,14 @@
         </is>
       </c>
       <c r="J959" s="13" t="n"/>
-      <c r="K959" s="19" t="n"/>
+      <c r="K959" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | project policyName=name, policyId=id,policySku=sku.name, links=properties.securityPolicyLinks, enabledState=properties.policySettings.enabledState, mode=properties.policySettings.mode | mvexpand links | extend securityPolicy=links.id | extend securityPolicyParts=split(securityPolicy, '/') | extend profileId=strcat_array(array_slice(securityPolicyParts, 0, -3), '/') | project id=profileId, compliant=((enabledState=='Enabled') and (mode=='Prevention')), enabledState, mode</t>
+        </is>
+      </c>
       <c r="L959" s="19" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M959" s="20" t="n"/>
@@ -50771,7 +50751,7 @@
       </c>
       <c r="D960" s="18" t="inlineStr">
         <is>
-          <t>Habilite o recurso de inspeção do corpo da solicitação habilitado na política do WAF do Azure Front Door.</t>
+          <t>Evite colocar o Gerenciador de Tráfego atrás da Porta da Frente.</t>
         </is>
       </c>
       <c r="E960" s="18" t="n"/>
@@ -50792,10 +50772,14 @@
         </is>
       </c>
       <c r="J960" s="13" t="n"/>
-      <c r="K960" s="19" t="n"/>
+      <c r="K960" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend compliant = properties['hostName'] !endswith '.trafficmanager.net' | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L960" s="19" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M960" s="20" t="n"/>
@@ -50822,7 +50806,7 @@
       </c>
       <c r="D961" s="18" t="inlineStr">
         <is>
-          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
+          <t>Use o mesmo nome de domínio no Azure Front Door e sua origem. Nomes de host incompatíveis podem causar bugs sutis.</t>
         </is>
       </c>
       <c r="E961" s="18" t="n"/>
@@ -50846,7 +50830,7 @@
       <c r="K961" s="19" t="n"/>
       <c r="L961" s="19" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M961" s="20" t="n"/>
@@ -50863,7 +50847,7 @@
       </c>
       <c r="B962" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C962" s="18" t="inlineStr">
@@ -50873,13 +50857,13 @@
       </c>
       <c r="D962" s="18" t="inlineStr">
         <is>
-          <t>Habilite o conjunto de regras de proteção contra bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
+          <t>Desabilite as investigações de integridade quando houver apenas uma origem em um grupo de origens do Azure Front Door.</t>
         </is>
       </c>
       <c r="E962" s="18" t="n"/>
       <c r="F962" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -50894,10 +50878,14 @@
         </is>
       </c>
       <c r="J962" s="13" t="n"/>
-      <c r="K962" s="19" t="n"/>
+      <c r="K962" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend originGroupId = substring(id, 0, indexof(id, '/origins')) | join kind=inner (cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend originGroupName = name | extend hasHealthProbe = isnotnull(properties.healthProbeSettings)) on $left.originGroupId == $right.id | summarize numberOrigins = count() by originGroupId, subscriptionId, frontDoorId, hasHealthProbe, originGroupName | extend compliant = not(numberOrigins == 1 and hasHealthProbe) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L962" s="19" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M962" s="20" t="n"/>
@@ -50914,7 +50902,7 @@
       </c>
       <c r="B963" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C963" s="18" t="inlineStr">
@@ -50924,7 +50912,7 @@
       </c>
       <c r="D963" s="18" t="inlineStr">
         <is>
-          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário de ameaças atual.</t>
+          <t>Selecione pontos de extremidade de investigação de integridade boa para o Azure Front Door. Considere a criação de pontos de extremidade de integridade que verifiquem todas as dependências do aplicativo.</t>
         </is>
       </c>
       <c r="E963" s="18" t="n"/>
@@ -50948,7 +50936,7 @@
       <c r="K963" s="19" t="n"/>
       <c r="L963" s="19" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M963" s="20" t="n"/>
@@ -50965,7 +50953,7 @@
       </c>
       <c r="B964" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C964" s="18" t="inlineStr">
@@ -50975,13 +50963,13 @@
       </c>
       <c r="D964" s="18" t="inlineStr">
         <is>
-          <t>Adicione a limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia os clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
+          <t>Use investigações de integridade HEAD com o Azure Front Door para reduzir o tráfego que o Front Door envia para seu aplicativo.</t>
         </is>
       </c>
       <c r="E964" s="18" t="n"/>
       <c r="F964" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
@@ -50996,10 +50984,14 @@
         </is>
       </c>
       <c r="J964" s="13" t="n"/>
-      <c r="K964" s="19" t="n"/>
+      <c r="K964" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups/')) | extend compliant = (isnull(properties['healthProbeSettings']['probeRequestType']) or toupper(properties['healthProbeSettings']['probeRequestType']) == 'HEAD') | project compliant, id=frontDoorId</t>
+        </is>
+      </c>
       <c r="L964" s="19" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M964" s="20" t="n"/>
@@ -51016,7 +51008,7 @@
       </c>
       <c r="B965" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C965" s="18" t="inlineStr">
@@ -51026,13 +51018,13 @@
       </c>
       <c r="D965" s="18" t="inlineStr">
         <is>
-          <t>Use um limite alto para os limites de taxa do WAF do Azure Front Door. Os limites de limite de taxa altos evitam o bloqueio do tráfego legítimo, ao mesmo tempo em que fornecem proteção contra números extremamente altos de solicitações que podem sobrecarregar sua infraestrutura.</t>
+          <t>Use certificados TLS gerenciados com o Azure Front Door. Reduza o custo operacional e o risco de interrupções devido a renovações de certificados.</t>
         </is>
       </c>
       <c r="E965" s="18" t="n"/>
       <c r="F965" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G965" t="inlineStr">
@@ -51047,10 +51039,14 @@
         </is>
       </c>
       <c r="J965" s="13" t="n"/>
-      <c r="K965" s="19" t="n"/>
+      <c r="K965" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/customdomains' | extend frontDoorId = substring(id, 0, indexof(id, '/customdomains')) | extend compliant = (isnull(properties['tlsSettings']['certificateType']) or tolower(properties['tlsSettings']['certificateType']) =~ 'customercertificate') | project compliant, id = frontDoorId</t>
+        </is>
+      </c>
       <c r="L965" s="19" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M965" s="20" t="n"/>
@@ -51067,7 +51063,7 @@
       </c>
       <c r="B966" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C966" s="18" t="inlineStr">
@@ -51077,13 +51073,13 @@
       </c>
       <c r="D966" s="18" t="inlineStr">
         <is>
-          <t>Se você não estiver esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
+          <t>Defina a configuração do WAF do Azure Front Door como código. Usando o código, você pode adotar mais facilmente a nova versão do conjunto de regras e obter proteção adicional.</t>
         </is>
       </c>
       <c r="E966" s="18" t="n"/>
       <c r="F966" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
@@ -51101,7 +51097,7 @@
       <c r="K966" s="19" t="n"/>
       <c r="L966" s="19" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M966" s="20" t="n"/>
@@ -51128,13 +51124,13 @@
       </c>
       <c r="D967" s="18" t="inlineStr">
         <is>
-          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
+          <t>Use o TLS de ponta a ponta com o Azure Front Door. Use o TLS para conexões de seus clientes com o Front Door e do Front Door com sua origem.</t>
         </is>
       </c>
       <c r="E967" s="18" t="n"/>
       <c r="F967" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -51149,10 +51145,14 @@
         </is>
       </c>
       <c r="J967" s="13" t="n"/>
-      <c r="K967" s="19" t="n"/>
+      <c r="K967" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = forwardingProtocol =~ 'httpsonly' and (supportedProtocols has 'https' or httpsRedirect =~ 'enabled') | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L967" s="19" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M967" s="20" t="n"/>
@@ -51169,7 +51169,7 @@
       </c>
       <c r="B968" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C968" s="18" t="inlineStr">
@@ -51179,7 +51179,7 @@
       </c>
       <c r="D968" s="18" t="inlineStr">
         <is>
-          <t>Capture logs e métricas ativando as Configurações de Diagnóstico. Inclua logs de atividades de recursos, logs de acesso, logs de investigação de integridade e logs do WAF. Configure alertas.</t>
+          <t>Use o redirecionamento de HTTP para HTTPS com o Azure Front Door. Ofereça suporte a clientes mais antigos redirecionando-os para uma solicitação HTTPS automaticamente.</t>
         </is>
       </c>
       <c r="E968" s="18" t="n"/>
@@ -51200,10 +51200,14 @@
         </is>
       </c>
       <c r="J968" s="13" t="n"/>
-      <c r="K968" s="19" t="n"/>
+      <c r="K968" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type == 'microsoft.cdn/profiles/afdendpoints/routes' | extend frontDoorId = substring(id, 0, indexof(id, '/afdendpoints')) | extend forwardingProtocol=tostring(properties.forwardingProtocol),supportedProtocols=properties.supportedProtocols,httpsRedirect=properties.httpsRedirect | extend compliant = httpsRedirect =~ 'enabled' | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L968" s="19" t="inlineStr">
         <is>
-          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M968" s="20" t="n"/>
@@ -51220,7 +51224,7 @@
       </c>
       <c r="B969" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C969" s="18" t="inlineStr">
@@ -51230,13 +51234,13 @@
       </c>
       <c r="D969" s="18" t="inlineStr">
         <is>
-          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
+          <t>Habilite o WAF do Azure Front Door. Proteja seu aplicativo contra uma variedade de ataques.</t>
         </is>
       </c>
       <c r="E969" s="18" t="n"/>
       <c r="F969" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
@@ -51254,7 +51258,7 @@
       <c r="K969" s="19" t="n"/>
       <c r="L969" s="19" t="inlineStr">
         <is>
-          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M969" s="20" t="n"/>
@@ -51271,7 +51275,7 @@
       </c>
       <c r="B970" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C970" s="18" t="inlineStr">
@@ -51281,13 +51285,13 @@
       </c>
       <c r="D970" s="18" t="inlineStr">
         <is>
-          <t>Escolha um método de roteamento que dê suporte à sua estratégia de implantação. O método ponderado, que distribui o tráfego com base no coeficiente de peso configurado, oferece suporte a modelos ativos-ativos. Um valor baseado em prioridade que configura a região primária para receber todo o tráfego e enviar tráfego para a região secundária como backup oferece suporte a modelos ativo-passivo. Combine os métodos anteriores com latência para que a origem com a menor latência receba tráfego.</t>
+          <t>Ajuste o WAF do Azure Front Door para sua carga de trabalho configurando o WAF no modo de detecção para reduzir e corrigir detecções de falsos positivos.</t>
         </is>
       </c>
       <c r="E970" s="18" t="n"/>
       <c r="F970" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -51305,7 +51309,7 @@
       <c r="K970" s="19" t="n"/>
       <c r="L970" s="19" t="inlineStr">
         <is>
-          <t>3bb0a854-ea3d-4212-bd8e-3f0cb7792b02</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M970" s="20" t="n"/>
@@ -51322,7 +51326,7 @@
       </c>
       <c r="B971" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C971" s="18" t="inlineStr">
@@ -51332,7 +51336,7 @@
       </c>
       <c r="D971" s="18" t="inlineStr">
         <is>
-          <t>Dar suporte à redundância por ter várias origens em um ou mais pools de back-end. Sempre tenha instâncias redundantes do seu aplicativo e certifique-se de que cada instância exponha um ponto de extremidade ou origem. Você pode colocar essas origens em um ou mais pools de back-end.</t>
+          <t>Habilite o recurso de inspeção do corpo da solicitação habilitado na política do WAF do Azure Front Door.</t>
         </is>
       </c>
       <c r="E971" s="18" t="n"/>
@@ -51353,14 +51357,10 @@
         </is>
       </c>
       <c r="J971" s="13" t="n"/>
-      <c r="K971" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 | project id = frontDoorId, compliant</t>
-        </is>
-      </c>
+      <c r="K971" s="19" t="n"/>
       <c r="L971" s="19" t="inlineStr">
         <is>
-          <t>c3a769e4-cc78-40a9-b36a-f9bcab19ec2d</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M971" s="20" t="n"/>
@@ -51377,7 +51377,7 @@
       </c>
       <c r="B972" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C972" s="18" t="inlineStr">
@@ -51387,13 +51387,13 @@
       </c>
       <c r="D972" s="18" t="inlineStr">
         <is>
-          <t>Defina um tempo limite para encaminhar solicitações para o back-end. Ajuste a configuração de tempo limite de acordo com as necessidades de seus endpoints. Caso contrário, o Azure Front Door poderá fechar a conexão antes que a origem envie a resposta. Você também pode reduzir o tempo limite padrão do Azure Front Door se todas as suas origens tiverem um tempo limite mais curto.</t>
+          <t>Habilite os conjuntos de regras padrão do WAF do Azure Front Door. Os conjuntos de regras padrão detectam e bloqueiam ataques comuns.</t>
         </is>
       </c>
       <c r="E972" s="18" t="n"/>
       <c r="F972" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
@@ -51411,7 +51411,7 @@
       <c r="K972" s="19" t="n"/>
       <c r="L972" s="19" t="inlineStr">
         <is>
-          <t>999852be-2137-4179-8fc3-30d1df6fed1d</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M972" s="20" t="n"/>
@@ -51428,7 +51428,7 @@
       </c>
       <c r="B973" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C973" s="18" t="inlineStr">
@@ -51438,13 +51438,13 @@
       </c>
       <c r="D973" s="18" t="inlineStr">
         <is>
-          <t>Decida se seu aplicativo requer afinidade de sessão. Se você tiver requisitos de alta confiabilidade, recomendamos que você desabilite a afinidade de sessão.</t>
+          <t>Habilite o conjunto de regras de proteção contra bot do WAF do Azure Front Door. As regras de bot detectam bots bons e ruins.</t>
         </is>
       </c>
       <c r="E973" s="18" t="n"/>
       <c r="F973" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G973" t="inlineStr">
@@ -51462,7 +51462,7 @@
       <c r="K973" s="19" t="n"/>
       <c r="L973" s="19" t="inlineStr">
         <is>
-          <t>17bf6351-3e5e-41f1-87bb-d5ad0b4e3de6</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M973" s="20" t="n"/>
@@ -51489,7 +51489,7 @@
       </c>
       <c r="D974" s="18" t="inlineStr">
         <is>
-          <t>Envie o cabeçalho do host para o back-end. Os serviços de back-end devem estar cientes do nome do host para que possam criar regras para aceitar o tráfego somente desse host.</t>
+          <t>Use a versão mais recente do conjunto de regras do WAF do Azure Front Door. As atualizações do conjunto de regras são atualizadas regularmente para levar em conta o cenário de ameaças atual.</t>
         </is>
       </c>
       <c r="E974" s="18" t="n"/>
@@ -51513,7 +51513,7 @@
       <c r="K974" s="19" t="n"/>
       <c r="L974" s="19" t="inlineStr">
         <is>
-          <t>425bfb31-94c4-4007-b9ae-46da9fe57cc7</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M974" s="20" t="n"/>
@@ -51530,7 +51530,7 @@
       </c>
       <c r="B975" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C975" s="18" t="inlineStr">
@@ -51540,7 +51540,7 @@
       </c>
       <c r="D975" s="18" t="inlineStr">
         <is>
-          <t>Use o cache para pontos de extremidade que dão suporte a ele.</t>
+          <t>Adicione a limitação de taxa ao WAF do Azure Front Door. A limitação de taxa bloqueia os clientes que enviam acidentalmente ou intencionalmente grandes quantidades de tráfego em um curto período de tempo.</t>
         </is>
       </c>
       <c r="E975" s="18" t="n"/>
@@ -51564,7 +51564,7 @@
       <c r="K975" s="19" t="n"/>
       <c r="L975" s="19" t="inlineStr">
         <is>
-          <t>81a5398a-2414-450f-9fc3-e048bc65784c</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M975" s="20" t="n"/>
@@ -51581,7 +51581,7 @@
       </c>
       <c r="B976" s="18" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C976" s="18" t="inlineStr">
@@ -51591,13 +51591,13 @@
       </c>
       <c r="D976" s="18" t="inlineStr">
         <is>
-          <t>Desabilite as verificações de integridade em pools de back-end únicos. Se você tiver apenas uma origem configurada no grupo de origens do Azure Front Door, essas chamadas serão desnecessárias. Isso só é recomendado se você não puder ter várias origens em seu endpoint.</t>
+          <t>Use um limite alto para os limites de taxa do WAF do Azure Front Door. Os limites de limite de taxa altos evitam o bloqueio do tráfego legítimo, ao mesmo tempo em que fornecem proteção contra números extremamente altos de solicitações que podem sobrecarregar sua infraestrutura.</t>
         </is>
       </c>
       <c r="E976" s="18" t="n"/>
       <c r="F976" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G976" t="inlineStr">
@@ -51612,14 +51612,10 @@
         </is>
       </c>
       <c r="J976" s="13" t="n"/>
-      <c r="K976" s="19" t="inlineStr">
-        <is>
-          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 or (origincount == 1 and enabledhealthprobecount == 0) | project id = frontDoorId, compliant</t>
-        </is>
-      </c>
+      <c r="K976" s="19" t="n"/>
       <c r="L976" s="19" t="inlineStr">
         <is>
-          <t>34069d73-e4de-46c5-a36f-625f87575a56</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M976" s="20" t="n"/>
@@ -51636,7 +51632,7 @@
       </c>
       <c r="B977" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C977" s="18" t="inlineStr">
@@ -51646,13 +51642,13 @@
       </c>
       <c r="D977" s="18" t="inlineStr">
         <is>
-          <t>É recomendável usar a Camada Premium para aproveitar os relatórios de segurança, enquanto o Perfil Standard do Azure Front Door fornece apenas relatórios de tráfego em análises/relatórios internos.</t>
+          <t>Se você não estiver esperando tráfego de todas as regiões geográficas, use filtros geográficos para bloquear o tráfego de países não esperados.</t>
         </is>
       </c>
       <c r="E977" s="18" t="n"/>
       <c r="F977" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -51670,7 +51666,7 @@
       <c r="K977" s="19" t="n"/>
       <c r="L977" s="19" t="inlineStr">
         <is>
-          <t>c92d6786-cdd1-444d-9cad-934a192a276a</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M977" s="20" t="n"/>
@@ -51687,7 +51683,7 @@
       </c>
       <c r="B978" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C978" s="18" t="inlineStr">
@@ -51697,7 +51693,7 @@
       </c>
       <c r="D978" s="18" t="inlineStr">
         <is>
-          <t>Use certificados TLS curinga quando possível.</t>
+          <t>Especifique o local desconhecido (ZZ) ao filtrar geograficamente o tráfego com o WAF do Azure Front Door. Evite bloquear acidentalmente solicitações legítimas quando os endereços IP não puderem ser correspondidos geograficamente.</t>
         </is>
       </c>
       <c r="E978" s="18" t="n"/>
@@ -51721,7 +51717,7 @@
       <c r="K978" s="19" t="n"/>
       <c r="L978" s="19" t="inlineStr">
         <is>
-          <t>440cf7de-30a1-4550-ab50-c9f6eac140cd</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M978" s="20" t="n"/>
@@ -51738,7 +51734,7 @@
       </c>
       <c r="B979" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C979" s="18" t="inlineStr">
@@ -51748,7 +51744,7 @@
       </c>
       <c r="D979" s="18" t="inlineStr">
         <is>
-          <t>Otimize a cadeia de caracteres de consulta do aplicativo para armazenamento em cache. Para conteúdo puramente estático, ignore as cadeias de caracteres de consulta para maximizar o uso do cache. Se o aplicativo usar cadeias de caracteres de consulta, considere incluí-las na chave de cache. Incluir as cadeias de caracteres de consulta na chave de cache permite que o Azure Front Door forneça respostas armazenadas em cache ou outras respostas, com base em sua configuração.</t>
+          <t>Capture logs e métricas ativando as Configurações de Diagnóstico. Inclua logs de atividades de recursos, logs de acesso, logs de investigação de integridade e logs do WAF. Configure alertas.</t>
         </is>
       </c>
       <c r="E979" s="18" t="n"/>
@@ -51772,7 +51768,7 @@
       <c r="K979" s="19" t="n"/>
       <c r="L979" s="19" t="inlineStr">
         <is>
-          <t>556e2733-6ca9-4edd-9cc7-26de66d46c2e</t>
+          <t>4cea4050-7946-4a7c-89e6-b021b73c352d</t>
         </is>
       </c>
       <c r="M979" s="20" t="n"/>
@@ -51789,7 +51785,7 @@
       </c>
       <c r="B980" s="18" t="inlineStr">
         <is>
-          <t>Desempenho</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C980" s="18" t="inlineStr">
@@ -51799,7 +51795,7 @@
       </c>
       <c r="D980" s="18" t="inlineStr">
         <is>
-          <t>Use a compactação de arquivos ao acessar conteúdo para download.</t>
+          <t>Envie logs do WAF do Azure Front Door para o Microsoft Sentinel.</t>
         </is>
       </c>
       <c r="E980" s="18" t="n"/>
@@ -51823,7 +51819,7 @@
       <c r="K980" s="19" t="n"/>
       <c r="L980" s="19" t="inlineStr">
         <is>
-          <t>c0b7e55e-fcab-4e66-bdae-bd0290f6aece</t>
+          <t>845f5f91-9c21-4674-a725-5ce890850e20</t>
         </is>
       </c>
       <c r="M980" s="20" t="n"/>
@@ -51840,7 +51836,7 @@
       </c>
       <c r="B981" s="18" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C981" s="18" t="inlineStr">
@@ -51850,13 +51846,13 @@
       </c>
       <c r="D981" s="18" t="inlineStr">
         <is>
-          <t>Considere migrar para o SKU Standard ou Premium se você estiver usando o Azure Front Door Clássico atualmente, pois o Front Door do Azure Clássico será preterido até março de 2027.</t>
+          <t>Escolha um método de roteamento que dê suporte à sua estratégia de implantação. O método ponderado, que distribui o tráfego com base no coeficiente de peso configurado, oferece suporte a modelos ativos-ativos. Um valor baseado em prioridade que configura a região primária para receber todo o tráfego e enviar tráfego para a região secundária como backup oferece suporte a modelos ativo-passivo. Combine os métodos anteriores com latência para que a origem com a menor latência receba tráfego.</t>
         </is>
       </c>
       <c r="E981" s="18" t="n"/>
       <c r="F981" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
@@ -51871,14 +51867,10 @@
         </is>
       </c>
       <c r="J981" s="13" t="n"/>
-      <c r="K981" s="19" t="inlineStr">
-        <is>
-          <t>resources | where type =~ 'microsoft.network/frontdoors' and properties['resourceState'] !~ 'migrated' | extend compliant = false | project id, compliant</t>
-        </is>
-      </c>
+      <c r="K981" s="19" t="n"/>
       <c r="L981" s="19" t="inlineStr">
         <is>
-          <t>cb8eb8c0-aa73-4a26-a495-6eba8dc4a243</t>
+          <t>3bb0a854-ea3d-4212-bd8e-3f0cb7792b02</t>
         </is>
       </c>
       <c r="M981" s="20" t="n"/>
@@ -51905,13 +51897,13 @@
       </c>
       <c r="D982" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere usar o balanceamento de carga do Gerenciador de Tráfego, o Azure Front Door e um perfil de CDN de provedor de CDN de terceiros para o cenário de alta disponibilidade crítico. </t>
+          <t>Dar suporte à redundância por ter várias origens em um ou mais pools de back-end. Sempre tenha instâncias redundantes do seu aplicativo e certifique-se de que cada instância exponha um ponto de extremidade ou origem. Você pode colocar essas origens em um ou mais pools de back-end.</t>
         </is>
       </c>
       <c r="E982" s="18" t="n"/>
       <c r="F982" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -51926,10 +51918,14 @@
         </is>
       </c>
       <c r="J982" s="13" t="n"/>
-      <c r="K982" s="19" t="n"/>
+      <c r="K982" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L982" s="19" t="inlineStr">
         <is>
-          <t>67c33697-15b1-4752-aeee-0b9b588defc4</t>
+          <t>c3a769e4-cc78-40a9-b36a-f9bcab19ec2d</t>
         </is>
       </c>
       <c r="M982" s="20" t="n"/>
@@ -51946,7 +51942,7 @@
       </c>
       <c r="B983" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C983" s="18" t="inlineStr">
@@ -51956,13 +51952,13 @@
       </c>
       <c r="D983" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ao usar o Front Door com origem como serviços de aplicativos, considere bloquear o tráfego para serviços de aplicativos somente por meio do Azure Front Door usando restrições de acesso. </t>
+          <t>Defina um tempo limite para encaminhar solicitações para o back-end. Ajuste a configuração de tempo limite de acordo com as necessidades de seus endpoints. Caso contrário, o Azure Front Door poderá fechar a conexão antes que a origem envie a resposta. Você também pode reduzir o tempo limite padrão do Azure Front Door se todas as suas origens tiverem um tempo limite mais curto.</t>
         </is>
       </c>
       <c r="E983" s="18" t="n"/>
       <c r="F983" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G983" t="inlineStr">
@@ -51980,7 +51976,7 @@
       <c r="K983" s="19" t="n"/>
       <c r="L983" s="19" t="inlineStr">
         <is>
-          <t>972cd4cd-25b0-4b70-96e9-eab4bfd32907</t>
+          <t>999852be-2137-4179-8fc3-30d1df6fed1d</t>
         </is>
       </c>
       <c r="M983" s="20" t="n"/>
@@ -51992,32 +51988,28 @@
     <row r="984">
       <c r="A984" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B984" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Fiabilidade</t>
         </is>
       </c>
       <c r="C984" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D984" s="18" t="inlineStr">
         <is>
-          <t>Usar a opção de chave gerenciada pelo cliente na criptografia de dados em repouso quando necessário</t>
-        </is>
-      </c>
-      <c r="E984" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">O Hub de Eventos do Azure fornece criptografia de dados em repouso. Se você usar sua própria chave, os dados ainda serão criptografados usando a chave gerenciada pela Microsoft, mas, além disso, a chave gerenciada pela Microsoft será criptografada usando a chave gerenciada pelo cliente. </t>
-        </is>
-      </c>
+          <t>Decida se seu aplicativo requer afinidade de sessão. Se você tiver requisitos de alta confiabilidade, recomendamos que você desabilite a afinidade de sessão.</t>
+        </is>
+      </c>
+      <c r="E984" s="18" t="n"/>
       <c r="F984" s="18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G984" t="inlineStr">
@@ -52031,15 +52023,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J984" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="J984" s="13" t="n"/>
       <c r="K984" s="19" t="n"/>
       <c r="L984" s="19" t="inlineStr">
         <is>
-          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
+          <t>17bf6351-3e5e-41f1-87bb-d5ad0b4e3de6</t>
         </is>
       </c>
       <c r="M984" s="20" t="n"/>
@@ -52051,7 +52039,7 @@
     <row r="985">
       <c r="A985" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B985" s="18" t="inlineStr">
@@ -52061,19 +52049,15 @@
       </c>
       <c r="C985" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D985" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Impor uma versão mínima necessária do TLS (Transport Layer Security) para solicitações </t>
-        </is>
-      </c>
-      <c r="E985" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Os namespaces dos Hubs de Eventos do Azure permitem que os clientes enviem e recebam dados com TLS 1.0 e superior. Para impor medidas de segurança mais rígidas, você pode configurar o namespace dos Hubs de Eventos para exigir que os clientes enviem e recebam dados com uma versão mais recente do TLS. Se um namespace de Hubs de Eventos exigir uma versão mínima do TLS, todas as solicitações feitas com uma versão mais antiga falharão. </t>
-        </is>
-      </c>
+          <t>Envie o cabeçalho do host para o back-end. Os serviços de back-end devem estar cientes do nome do host para que possam criar regras para aceitar o tráfego somente desse host.</t>
+        </is>
+      </c>
+      <c r="E985" s="18" t="n"/>
       <c r="F985" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -52090,15 +52074,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J985" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="J985" s="13" t="n"/>
       <c r="K985" s="19" t="n"/>
       <c r="L985" s="19" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
+          <t>425bfb31-94c4-4007-b9ae-46da9fe57cc7</t>
         </is>
       </c>
       <c r="M985" s="20" t="n"/>
@@ -52110,29 +52090,25 @@
     <row r="986">
       <c r="A986" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B986" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C986" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D986" s="18" t="inlineStr">
         <is>
-          <t>Evite usar conta root quando não for necessário</t>
-        </is>
-      </c>
-      <c r="E986" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quando você cria um namespace de Hubs de Eventos, uma regra de política chamada RootManageSharedAccessKey é criada automaticamente para o namespace. Essa política tem permissões de gerenciamento para todo o namespace. É recomendável que você trate essa regra como uma conta raiz administrativa e não a use em seu aplicativo. Recomenda-se o uso do AAD como um provedor de autenticação com RBAC. </t>
-        </is>
-      </c>
+          <t>Use o cache para pontos de extremidade que dão suporte a ele.</t>
+        </is>
+      </c>
+      <c r="E986" s="18" t="n"/>
       <c r="F986" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -52149,15 +52125,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J986" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+      <c r="J986" s="13" t="n"/>
       <c r="K986" s="19" t="n"/>
       <c r="L986" s="19" t="inlineStr">
         <is>
-          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
+          <t>81a5398a-2414-450f-9fc3-e048bc65784c</t>
         </is>
       </c>
       <c r="M986" s="20" t="n"/>
@@ -52169,32 +52141,28 @@
     <row r="987">
       <c r="A987" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B987" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C987" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D987" s="18" t="inlineStr">
         <is>
-          <t>Quando possível, seu aplicativo deve estar usando uma identidade gerenciada para autenticar no Hub de Eventos do Azure. Caso contrário, considere ter a credencial de armazenamento (SAS, credencial da entidade de serviço) no Cofre de Chaves do Azure ou em um serviço equivalente</t>
-        </is>
-      </c>
-      <c r="E987" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">As identidades gerenciadas para recursos do Azure podem autorizar o acesso a recursos dos Hubs de Eventos usando credenciais do Azure AD de aplicativos em execução em VMs (Máquinas Virtuais) do Azure, aplicativos de Função, Conjuntos de Dimensionamento de Máquina Virtual e outros serviços. Usando identidades gerenciadas para recursos do Azure junto com a autenticação do Azure AD, você pode evitar o armazenamento de credenciais com seus aplicativos executados na nuvem. </t>
-        </is>
-      </c>
+          <t>Desabilite as verificações de integridade em pools de back-end únicos. Se você tiver apenas uma origem configurada no grupo de origens do Azure Front Door, essas chamadas serão desnecessárias. Isso só é recomendado se você não puder ter várias origens em seu endpoint.</t>
+        </is>
+      </c>
+      <c r="E987" s="18" t="n"/>
       <c r="F987" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
@@ -52208,15 +52176,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J987" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
-      <c r="K987" s="19" t="n"/>
+      <c r="J987" s="13" t="n"/>
+      <c r="K987" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups' | extend frontDoorId = substring(id, 0, indexof(id, '/origingroups')) | extend healthprobe=tostring(properties.healthProbeSettings) | project origingroupname=name, id, tags, resourceGroup, subscriptionId, healthprobe, frontDoorId | join ( cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/Origins' | extend origingroupname = tostring(properties.originGroupName) ) on origingroupname | summarize origincount=count(), enabledhealthprobecount=countif(healthprobe != '') by origingroupname, id, tostring(tags), resourceGroup, subscriptionId, frontDoorId | extend compliant = origincount &gt; 1 or (origincount == 1 and enabledhealthprobecount == 0) | project id = frontDoorId, compliant</t>
+        </is>
+      </c>
       <c r="L987" s="19" t="inlineStr">
         <is>
-          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
+          <t>34069d73-e4de-46c5-a36f-625f87575a56</t>
         </is>
       </c>
       <c r="M987" s="20" t="n"/>
@@ -52228,32 +52196,28 @@
     <row r="988">
       <c r="A988" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B988" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C988" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D988" s="18" t="inlineStr">
         <is>
-          <t>Usar RBAC do plano de dados de privilégios mínimos</t>
-        </is>
-      </c>
-      <c r="E988" s="18" t="inlineStr">
-        <is>
-          <t>Ao criar permissões, forneça controle refinado sobre o acesso de um cliente ao Hub de Eventos do Azure. As permissões no Hub de Eventos do Azure podem e devem ter o escopo definido para o nível de recurso individual, por exemplo, grupo de consumidores, entidade de hub de eventos, namespaces de hub de eventos, etc.</t>
-        </is>
-      </c>
+          <t>É recomendável usar a Camada Premium para aproveitar os relatórios de segurança, enquanto o Perfil Standard do Azure Front Door fornece apenas relatórios de tráfego em análises/relatórios internos.</t>
+        </is>
+      </c>
+      <c r="E988" s="18" t="n"/>
       <c r="F988" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G988" t="inlineStr">
@@ -52267,15 +52231,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J988" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+      <c r="J988" s="13" t="n"/>
       <c r="K988" s="19" t="n"/>
       <c r="L988" s="19" t="inlineStr">
         <is>
-          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
+          <t>c92d6786-cdd1-444d-9cad-934a192a276a</t>
         </is>
       </c>
       <c r="M988" s="20" t="n"/>
@@ -52287,29 +52247,25 @@
     <row r="989">
       <c r="A989" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B989" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C989" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D989" s="18" t="inlineStr">
         <is>
-          <t>Habilite o registro em log para investigação de segurança. Use o Azure Monitor para capturar métricas e logs como logs de recursos, logs de auditoria de tempo de execução e logs Kafka</t>
-        </is>
-      </c>
-      <c r="E989" s="18" t="inlineStr">
-        <is>
-          <t>Os logs de recursos do Hub de Eventos do Azure incluem logs operacionais, logs de rede virtual e logs de Kafka. Os logs de auditoria de tempo de execução capturam informações de diagnóstico agregadas para todas as operações de acesso ao plano de dados (como eventos de envio ou recebimento) nos Hubs de Eventos.</t>
-        </is>
-      </c>
+          <t>Use certificados TLS curinga quando possível.</t>
+        </is>
+      </c>
+      <c r="E989" s="18" t="n"/>
       <c r="F989" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -52326,15 +52282,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J989" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+      <c r="J989" s="13" t="n"/>
       <c r="K989" s="19" t="n"/>
       <c r="L989" s="19" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
+          <t>440cf7de-30a1-4550-ab50-c9f6eac140cd</t>
         </is>
       </c>
       <c r="M989" s="20" t="n"/>
@@ -52346,29 +52298,25 @@
     <row r="990">
       <c r="A990" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B990" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C990" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D990" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso de pontos de extremidade privados para acessar o Hub de Eventos do Azure e desabilitar o acesso à rede pública quando aplicável.</t>
-        </is>
-      </c>
-      <c r="E990" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Por padrão, o Hub de Eventos do Azure tem um endereço IP público e pode ser acessado pela Internet. Os pontos de extremidade privados permitem que o tráfego entre sua rede virtual e o Hub de Eventos do Azure percorra a rede de backbone da Microsoft. Além disso, você deve desabilitar os pontos de extremidade públicos se eles não forem usados. </t>
-        </is>
-      </c>
+          <t>Otimize a cadeia de caracteres de consulta do aplicativo para armazenamento em cache. Para conteúdo puramente estático, ignore as cadeias de caracteres de consulta para maximizar o uso do cache. Se o aplicativo usar cadeias de caracteres de consulta, considere incluí-las na chave de cache. Incluir as cadeias de caracteres de consulta na chave de cache permite que o Azure Front Door forneça respostas armazenadas em cache ou outras respostas, com base em sua configuração.</t>
+        </is>
+      </c>
+      <c r="E990" s="18" t="n"/>
       <c r="F990" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -52385,15 +52333,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J990" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+      <c r="J990" s="13" t="n"/>
       <c r="K990" s="19" t="n"/>
       <c r="L990" s="19" t="inlineStr">
         <is>
-          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
+          <t>556e2733-6ca9-4edd-9cc7-26de66d46c2e</t>
         </is>
       </c>
       <c r="M990" s="20" t="n"/>
@@ -52405,29 +52349,25 @@
     <row r="991">
       <c r="A991" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B991" s="18" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Desempenho</t>
         </is>
       </c>
       <c r="C991" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D991" s="18" t="inlineStr">
         <is>
-          <t>Considere permitir apenas o acesso ao namespace do Hub de Eventos do Azure a partir de endereços IP ou intervalos específicos</t>
-        </is>
-      </c>
-      <c r="E991" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Com o firewall IP, você pode restringir ainda mais o ponto de extremidade público a apenas um conjunto de endereços IPv4 ou intervalos de endereços IPv4 na notação CIDR (Roteamento entre Domínios Sem Classe). </t>
-        </is>
-      </c>
+          <t>Use a compactação de arquivos ao acessar conteúdo para download.</t>
+        </is>
+      </c>
+      <c r="E991" s="18" t="n"/>
       <c r="F991" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -52444,15 +52384,11 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J991" s="31" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="J991" s="13" t="n"/>
       <c r="K991" s="19" t="n"/>
       <c r="L991" s="19" t="inlineStr">
         <is>
-          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
+          <t>c0b7e55e-fcab-4e66-bdae-bd0290f6aece</t>
         </is>
       </c>
       <c r="M991" s="20" t="n"/>
@@ -52464,28 +52400,28 @@
     <row r="992">
       <c r="A992" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B992" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C992" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D992" s="18" t="inlineStr">
         <is>
-          <t>Aproveite o Manual de Resilência do FTA</t>
+          <t>Considere migrar para o SKU Standard ou Premium se você estiver usando o Azure Front Door Clássico atualmente, pois o Front Door do Azure Clássico será preterido até março de 2027.</t>
         </is>
       </c>
       <c r="E992" s="18" t="n"/>
       <c r="F992" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G992" t="inlineStr">
@@ -52500,10 +52436,14 @@
         </is>
       </c>
       <c r="J992" s="13" t="n"/>
-      <c r="K992" s="19" t="n"/>
+      <c r="K992" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/frontdoors' and properties['resourceState'] !~ 'migrated' | extend compliant = false | project id, compliant</t>
+        </is>
+      </c>
       <c r="L992" s="19" t="inlineStr">
         <is>
-          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
+          <t>cb8eb8c0-aa73-4a26-a495-6eba8dc4a243</t>
         </is>
       </c>
       <c r="M992" s="20" t="n"/>
@@ -52515,7 +52455,7 @@
     <row r="993">
       <c r="A993" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B993" s="18" t="inlineStr">
@@ -52525,22 +52465,18 @@
       </c>
       <c r="C993" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D993" s="18" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade, se aplicável regionalmente</t>
-        </is>
-      </c>
-      <c r="E993" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Isso será ativado automaticamente para um novo namespace de EH criado a partir do portal com SKUs Premium, Dedicado ou Standard em uma região habilitada para região. Os metadados do EH e os próprios dados do evento são replicados entre zonas</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Considere usar o balanceamento de carga do Gerenciador de Tráfego, o Azure Front Door e um perfil de CDN de provedor de CDN de terceiros para o cenário de alta disponibilidade crítico. </t>
+        </is>
+      </c>
+      <c r="E993" s="18" t="n"/>
       <c r="F993" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="G993" t="inlineStr">
@@ -52558,7 +52494,7 @@
       <c r="K993" s="19" t="n"/>
       <c r="L993" s="19" t="inlineStr">
         <is>
-          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
+          <t>67c33697-15b1-4752-aeee-0b9b588defc4</t>
         </is>
       </c>
       <c r="M993" s="20" t="n"/>
@@ -52570,28 +52506,28 @@
     <row r="994">
       <c r="A994" s="18" t="inlineStr">
         <is>
-          <t>Azure Event Hub Review</t>
+          <t>Azure Application Delivery Networking</t>
         </is>
       </c>
       <c r="B994" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C994" s="18" t="inlineStr">
         <is>
-          <t>Event Hubs</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="D994" s="18" t="inlineStr">
         <is>
-          <t>Use os SKUs Premium ou Dedicado para desempenho previsível</t>
+          <t xml:space="preserve">Ao usar o Front Door com origem como serviços de aplicativos, considere bloquear o tráfego para serviços de aplicativos somente por meio do Azure Front Door usando restrições de acesso. </t>
         </is>
       </c>
       <c r="E994" s="18" t="n"/>
       <c r="F994" s="18" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="G994" t="inlineStr">
@@ -52609,7 +52545,7 @@
       <c r="K994" s="19" t="n"/>
       <c r="L994" s="19" t="inlineStr">
         <is>
-          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
+          <t>972cd4cd-25b0-4b70-96e9-eab4bfd32907</t>
         </is>
       </c>
       <c r="M994" s="20" t="n"/>
@@ -52626,7 +52562,7 @@
       </c>
       <c r="B995" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C995" s="18" t="inlineStr">
@@ -52636,17 +52572,17 @@
       </c>
       <c r="D995" s="18" t="inlineStr">
         <is>
-          <t>Planejar a recuperação de desastres geográficos usando a configuração passiva ativa</t>
+          <t>Usar a opção de chave gerenciada pelo cliente na criptografia de dados em repouso quando necessário</t>
         </is>
       </c>
       <c r="E995" s="18" t="inlineStr">
         <is>
-          <t>O recurso interno de recuperação de desastres geográficos, quando habilitado, garante que toda a configuração de um namespace (Hubs de Eventos, Grupos de Consumidores e configurações) seja replicada continuamente de um namespace primário para um namespace secundário e permite uma movimentação de failover única do primário para o secundário a qualquer momento. O recurso Ativo/Passivo foi projetado para facilitar a recuperação e o abandono de uma região do Azure com falha sem precisar alterar as configurações do aplicativo</t>
+          <t xml:space="preserve">O Hub de Eventos do Azure fornece criptografia de dados em repouso. Se você usar sua própria chave, os dados ainda serão criptografados usando a chave gerenciada pela Microsoft, mas, além disso, a chave gerenciada pela Microsoft será criptografada usando a chave gerenciada pelo cliente. </t>
         </is>
       </c>
       <c r="F995" s="18" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G995" t="inlineStr">
@@ -52660,11 +52596,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J995" s="13" t="n"/>
+      <c r="J995" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="K995" s="19" t="n"/>
       <c r="L995" s="19" t="inlineStr">
         <is>
-          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
+          <t>7aaf12e7-b94e-4f6e-847d-2d92981b1cd6</t>
         </is>
       </c>
       <c r="M995" s="20" t="n"/>
@@ -52681,7 +52621,7 @@
       </c>
       <c r="B996" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C996" s="18" t="inlineStr">
@@ -52691,12 +52631,12 @@
       </c>
       <c r="D996" s="18" t="inlineStr">
         <is>
-          <t>Para aplicativos críticos para os negócios, use a configuração ativa</t>
+          <t xml:space="preserve">Impor uma versão mínima necessária do TLS (Transport Layer Security) para solicitações </t>
         </is>
       </c>
       <c r="E996" s="18" t="inlineStr">
         <is>
-          <t>Deve ser usado para configurações de DR em que uma interrupção ou perda de dados de eventos na região derrubada não pode ser tolerada. Para esses casos, siga as diretrizes de replicação e não use o recurso interno de recuperação de desastres geográficos (ativo/passivo). Com Ativo/Ativo, mantenha vários Hubs de Eventos em diferentes regiões e namespaces, e os eventos serão replicados entre os hubs</t>
+          <t xml:space="preserve">Os namespaces dos Hubs de Eventos do Azure permitem que os clientes enviem e recebam dados com TLS 1.0 e superior. Para impor medidas de segurança mais rígidas, você pode configurar o namespace dos Hubs de Eventos para exigir que os clientes enviem e recebam dados com uma versão mais recente do TLS. Se um namespace de Hubs de Eventos exigir uma versão mínima do TLS, todas as solicitações feitas com uma versão mais antiga falharão. </t>
         </is>
       </c>
       <c r="F996" s="18" t="inlineStr">
@@ -52715,11 +52655,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J996" s="13" t="n"/>
+      <c r="J996" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="K996" s="19" t="n"/>
       <c r="L996" s="19" t="inlineStr">
         <is>
-          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
+          <t>d2f54b29-769e-43a6-a0e7-828ac936657e</t>
         </is>
       </c>
       <c r="M996" s="20" t="n"/>
@@ -52736,7 +52680,7 @@
       </c>
       <c r="B997" s="18" t="inlineStr">
         <is>
-          <t>Fiabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C997" s="18" t="inlineStr">
@@ -52746,10 +52690,14 @@
       </c>
       <c r="D997" s="18" t="inlineStr">
         <is>
-          <t>Projetar Hubs de Eventos Resilientes</t>
-        </is>
-      </c>
-      <c r="E997" s="18" t="n"/>
+          <t>Evite usar conta root quando não for necessário</t>
+        </is>
+      </c>
+      <c r="E997" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quando você cria um namespace de Hubs de Eventos, uma regra de política chamada RootManageSharedAccessKey é criada automaticamente para o namespace. Essa política tem permissões de gerenciamento para todo o namespace. É recomendável que você trate essa regra como uma conta raiz administrativa e não a use em seu aplicativo. Recomenda-se o uso do AAD como um provedor de autenticação com RBAC. </t>
+        </is>
+      </c>
       <c r="F997" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -52766,11 +52714,15 @@
           <t>More info</t>
         </is>
       </c>
-      <c r="J997" s="13" t="n"/>
+      <c r="J997" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="K997" s="19" t="n"/>
       <c r="L997" s="19" t="inlineStr">
         <is>
-          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
+          <t>13b0f566-4b1e-4944-a459-837ee79d6c6d</t>
         </is>
       </c>
       <c r="M997" s="20" t="n"/>
@@ -52780,17 +52732,58 @@
       <c r="Q997" s="20" t="n"/>
     </row>
     <row r="998">
-      <c r="A998" s="18" t="n"/>
-      <c r="B998" s="18" t="n"/>
-      <c r="C998" s="18" t="n"/>
-      <c r="D998" s="18" t="n"/>
-      <c r="E998" s="18" t="n"/>
-      <c r="F998" s="18" t="n"/>
+      <c r="A998" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B998" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C998" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D998" s="18" t="inlineStr">
+        <is>
+          <t>Quando possível, seu aplicativo deve estar usando uma identidade gerenciada para autenticar no Hub de Eventos do Azure. Caso contrário, considere ter a credencial de armazenamento (SAS, credencial da entidade de serviço) no Cofre de Chaves do Azure ou em um serviço equivalente</t>
+        </is>
+      </c>
+      <c r="E998" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">As identidades gerenciadas para recursos do Azure podem autorizar o acesso a recursos dos Hubs de Eventos usando credenciais do Azure AD de aplicativos em execução em VMs (Máquinas Virtuais) do Azure, aplicativos de Função, Conjuntos de Dimensionamento de Máquina Virtual e outros serviços. Usando identidades gerenciadas para recursos do Azure junto com a autenticação do Azure AD, você pode evitar o armazenamento de credenciais com seus aplicativos executados na nuvem. </t>
+        </is>
+      </c>
+      <c r="F998" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G998" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H998" s="18" t="n"/>
-      <c r="I998" s="13" t="n"/>
-      <c r="J998" s="13" t="n"/>
+      <c r="I998" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J998" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K998" s="19" t="n"/>
-      <c r="L998" s="19" t="n"/>
+      <c r="L998" s="19" t="inlineStr">
+        <is>
+          <t>3a365a5c-7acb-4e48-abd5-4cd79f2e8776</t>
+        </is>
+      </c>
       <c r="M998" s="20" t="n"/>
       <c r="N998" s="20" t="n"/>
       <c r="O998" s="20" t="n"/>
@@ -52798,17 +52791,58 @@
       <c r="Q998" s="20" t="n"/>
     </row>
     <row r="999">
-      <c r="A999" s="18" t="n"/>
-      <c r="B999" s="18" t="n"/>
-      <c r="C999" s="18" t="n"/>
-      <c r="D999" s="18" t="n"/>
-      <c r="E999" s="18" t="n"/>
-      <c r="F999" s="18" t="n"/>
+      <c r="A999" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B999" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C999" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D999" s="18" t="inlineStr">
+        <is>
+          <t>Usar RBAC do plano de dados de privilégios mínimos</t>
+        </is>
+      </c>
+      <c r="E999" s="18" t="inlineStr">
+        <is>
+          <t>Ao criar permissões, forneça controle refinado sobre o acesso de um cliente ao Hub de Eventos do Azure. As permissões no Hub de Eventos do Azure podem e devem ter o escopo definido para o nível de recurso individual, por exemplo, grupo de consumidores, entidade de hub de eventos, namespaces de hub de eventos, etc.</t>
+        </is>
+      </c>
+      <c r="F999" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G999" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H999" s="18" t="n"/>
-      <c r="I999" s="13" t="n"/>
-      <c r="J999" s="13" t="n"/>
+      <c r="I999" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J999" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="K999" s="19" t="n"/>
-      <c r="L999" s="19" t="n"/>
+      <c r="L999" s="19" t="inlineStr">
+        <is>
+          <t>8357c559-675c-45ee-a5b8-6ad8844ce3b2</t>
+        </is>
+      </c>
       <c r="M999" s="20" t="n"/>
       <c r="N999" s="20" t="n"/>
       <c r="O999" s="20" t="n"/>
@@ -52816,17 +52850,58 @@
       <c r="Q999" s="20" t="n"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="18" t="n"/>
-      <c r="B1000" s="18" t="n"/>
-      <c r="C1000" s="18" t="n"/>
-      <c r="D1000" s="18" t="n"/>
-      <c r="E1000" s="18" t="n"/>
-      <c r="F1000" s="18" t="n"/>
+      <c r="A1000" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B1000" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C1000" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D1000" s="18" t="inlineStr">
+        <is>
+          <t>Habilite o registro em log para investigação de segurança. Use o Azure Monitor para capturar métricas e logs como logs de recursos, logs de auditoria de tempo de execução e logs Kafka</t>
+        </is>
+      </c>
+      <c r="E1000" s="18" t="inlineStr">
+        <is>
+          <t>Os logs de recursos do Hub de Eventos do Azure incluem logs operacionais, logs de rede virtual e logs de Kafka. Os logs de auditoria de tempo de execução capturam informações de diagnóstico agregadas para todas as operações de acesso ao plano de dados (como eventos de envio ou recebimento) nos Hubs de Eventos.</t>
+        </is>
+      </c>
+      <c r="F1000" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G1000" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H1000" s="18" t="n"/>
-      <c r="I1000" s="13" t="n"/>
-      <c r="J1000" s="13" t="n"/>
+      <c r="I1000" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J1000" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="K1000" s="19" t="n"/>
-      <c r="L1000" s="19" t="n"/>
+      <c r="L1000" s="19" t="inlineStr">
+        <is>
+          <t>b38b875b-a1cf-4104-a900-3a4d3ce474db</t>
+        </is>
+      </c>
       <c r="M1000" s="20" t="n"/>
       <c r="N1000" s="20" t="n"/>
       <c r="O1000" s="20" t="n"/>
@@ -52834,17 +52909,58 @@
       <c r="Q1000" s="20" t="n"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="18" t="n"/>
-      <c r="B1001" s="18" t="n"/>
-      <c r="C1001" s="18" t="n"/>
-      <c r="D1001" s="18" t="n"/>
-      <c r="E1001" s="18" t="n"/>
-      <c r="F1001" s="18" t="n"/>
+      <c r="A1001" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B1001" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C1001" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D1001" s="18" t="inlineStr">
+        <is>
+          <t>Considere o uso de pontos de extremidade privados para acessar o Hub de Eventos do Azure e desabilitar o acesso à rede pública quando aplicável.</t>
+        </is>
+      </c>
+      <c r="E1001" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Por padrão, o Hub de Eventos do Azure tem um endereço IP público e pode ser acessado pela Internet. Os pontos de extremidade privados permitem que o tráfego entre sua rede virtual e o Hub de Eventos do Azure percorra a rede de backbone da Microsoft. Além disso, você deve desabilitar os pontos de extremidade públicos se eles não forem usados. </t>
+        </is>
+      </c>
+      <c r="F1001" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G1001" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H1001" s="18" t="n"/>
-      <c r="I1001" s="13" t="n"/>
-      <c r="J1001" s="13" t="n"/>
+      <c r="I1001" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J1001" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="K1001" s="19" t="n"/>
-      <c r="L1001" s="19" t="n"/>
+      <c r="L1001" s="19" t="inlineStr">
+        <is>
+          <t>5abca2a4-eda1-4dae-8cc9-5d48c6b791dc</t>
+        </is>
+      </c>
       <c r="M1001" s="20" t="n"/>
       <c r="N1001" s="20" t="n"/>
       <c r="O1001" s="20" t="n"/>
@@ -52852,17 +52968,58 @@
       <c r="Q1001" s="20" t="n"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="18" t="n"/>
-      <c r="B1002" s="18" t="n"/>
-      <c r="C1002" s="18" t="n"/>
-      <c r="D1002" s="18" t="n"/>
-      <c r="E1002" s="18" t="n"/>
-      <c r="F1002" s="18" t="n"/>
+      <c r="A1002" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B1002" s="18" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="C1002" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D1002" s="18" t="inlineStr">
+        <is>
+          <t>Considere permitir apenas o acesso ao namespace do Hub de Eventos do Azure a partir de endereços IP ou intervalos específicos</t>
+        </is>
+      </c>
+      <c r="E1002" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Com o firewall IP, você pode restringir ainda mais o ponto de extremidade público a apenas um conjunto de endereços IPv4 ou intervalos de endereços IPv4 na notação CIDR (Roteamento entre Domínios Sem Classe). </t>
+        </is>
+      </c>
+      <c r="F1002" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G1002" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H1002" s="18" t="n"/>
-      <c r="I1002" s="13" t="n"/>
-      <c r="J1002" s="13" t="n"/>
+      <c r="I1002" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
+      <c r="J1002" s="31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="K1002" s="19" t="n"/>
-      <c r="L1002" s="19" t="n"/>
+      <c r="L1002" s="19" t="inlineStr">
+        <is>
+          <t>a0e6c465-89e5-458b-a37d-3974d1112dbd</t>
+        </is>
+      </c>
       <c r="M1002" s="20" t="n"/>
       <c r="N1002" s="20" t="n"/>
       <c r="O1002" s="20" t="n"/>
@@ -52870,17 +53027,50 @@
       <c r="Q1002" s="20" t="n"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="18" t="n"/>
-      <c r="B1003" s="18" t="n"/>
-      <c r="C1003" s="18" t="n"/>
-      <c r="D1003" s="18" t="n"/>
+      <c r="A1003" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B1003" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C1003" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D1003" s="18" t="inlineStr">
+        <is>
+          <t>Aproveite o Manual de Resilência do FTA</t>
+        </is>
+      </c>
       <c r="E1003" s="18" t="n"/>
-      <c r="F1003" s="18" t="n"/>
+      <c r="F1003" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G1003" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H1003" s="18" t="n"/>
-      <c r="I1003" s="13" t="n"/>
+      <c r="I1003" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J1003" s="13" t="n"/>
       <c r="K1003" s="19" t="n"/>
-      <c r="L1003" s="19" t="n"/>
+      <c r="L1003" s="19" t="inlineStr">
+        <is>
+          <t>31d41e36-11c8-417b-8afb-c410d4391898</t>
+        </is>
+      </c>
       <c r="M1003" s="20" t="n"/>
       <c r="N1003" s="20" t="n"/>
       <c r="O1003" s="20" t="n"/>
@@ -52888,17 +53078,54 @@
       <c r="Q1003" s="20" t="n"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="18" t="n"/>
-      <c r="B1004" s="18" t="n"/>
-      <c r="C1004" s="18" t="n"/>
-      <c r="D1004" s="18" t="n"/>
-      <c r="E1004" s="18" t="n"/>
-      <c r="F1004" s="18" t="n"/>
+      <c r="A1004" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B1004" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C1004" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D1004" s="18" t="inlineStr">
+        <is>
+          <t>Aproveite as zonas de disponibilidade, se aplicável regionalmente</t>
+        </is>
+      </c>
+      <c r="E1004" s="18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Isso será ativado automaticamente para um novo namespace de EH criado a partir do portal com SKUs Premium, Dedicado ou Standard em uma região habilitada para região. Os metadados do EH e os próprios dados do evento são replicados entre zonas</t>
+        </is>
+      </c>
+      <c r="F1004" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G1004" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H1004" s="18" t="n"/>
-      <c r="I1004" s="13" t="n"/>
+      <c r="I1004" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J1004" s="13" t="n"/>
       <c r="K1004" s="19" t="n"/>
-      <c r="L1004" s="19" t="n"/>
+      <c r="L1004" s="19" t="inlineStr">
+        <is>
+          <t>f15bce21-9e4a-40eb-9787-9424d226786d</t>
+        </is>
+      </c>
       <c r="M1004" s="20" t="n"/>
       <c r="N1004" s="20" t="n"/>
       <c r="O1004" s="20" t="n"/>
@@ -52906,17 +53133,50 @@
       <c r="Q1004" s="20" t="n"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="18" t="n"/>
-      <c r="B1005" s="18" t="n"/>
-      <c r="C1005" s="18" t="n"/>
-      <c r="D1005" s="18" t="n"/>
+      <c r="A1005" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B1005" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C1005" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D1005" s="18" t="inlineStr">
+        <is>
+          <t>Use os SKUs Premium ou Dedicado para desempenho previsível</t>
+        </is>
+      </c>
       <c r="E1005" s="18" t="n"/>
-      <c r="F1005" s="18" t="n"/>
+      <c r="F1005" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G1005" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H1005" s="18" t="n"/>
-      <c r="I1005" s="13" t="n"/>
+      <c r="I1005" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J1005" s="13" t="n"/>
       <c r="K1005" s="19" t="n"/>
-      <c r="L1005" s="19" t="n"/>
+      <c r="L1005" s="19" t="inlineStr">
+        <is>
+          <t>20b56c56-ad58-4519-8f82-735c586bb281</t>
+        </is>
+      </c>
       <c r="M1005" s="20" t="n"/>
       <c r="N1005" s="20" t="n"/>
       <c r="O1005" s="20" t="n"/>
@@ -52924,17 +53184,54 @@
       <c r="Q1005" s="20" t="n"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="18" t="n"/>
-      <c r="B1006" s="18" t="n"/>
-      <c r="C1006" s="18" t="n"/>
-      <c r="D1006" s="18" t="n"/>
-      <c r="E1006" s="18" t="n"/>
-      <c r="F1006" s="18" t="n"/>
+      <c r="A1006" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B1006" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C1006" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D1006" s="18" t="inlineStr">
+        <is>
+          <t>Planejar a recuperação de desastres geográficos usando a configuração passiva ativa</t>
+        </is>
+      </c>
+      <c r="E1006" s="18" t="inlineStr">
+        <is>
+          <t>O recurso interno de recuperação de desastres geográficos, quando habilitado, garante que toda a configuração de um namespace (Hubs de Eventos, Grupos de Consumidores e configurações) seja replicada continuamente de um namespace primário para um namespace secundário e permite uma movimentação de failover única do primário para o secundário a qualquer momento. O recurso Ativo/Passivo foi projetado para facilitar a recuperação e o abandono de uma região do Azure com falha sem precisar alterar as configurações do aplicativo</t>
+        </is>
+      </c>
+      <c r="F1006" s="18" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="G1006" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H1006" s="18" t="n"/>
-      <c r="I1006" s="13" t="n"/>
+      <c r="I1006" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J1006" s="13" t="n"/>
       <c r="K1006" s="19" t="n"/>
-      <c r="L1006" s="19" t="n"/>
+      <c r="L1006" s="19" t="inlineStr">
+        <is>
+          <t>dc15a1c0-75ee-49f1-90ac-ccd579376bcd</t>
+        </is>
+      </c>
       <c r="M1006" s="20" t="n"/>
       <c r="N1006" s="20" t="n"/>
       <c r="O1006" s="20" t="n"/>
@@ -52942,17 +53239,54 @@
       <c r="Q1006" s="20" t="n"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="18" t="n"/>
-      <c r="B1007" s="18" t="n"/>
-      <c r="C1007" s="18" t="n"/>
-      <c r="D1007" s="18" t="n"/>
-      <c r="E1007" s="18" t="n"/>
-      <c r="F1007" s="18" t="n"/>
+      <c r="A1007" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B1007" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C1007" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D1007" s="18" t="inlineStr">
+        <is>
+          <t>Para aplicativos críticos para os negócios, use a configuração ativa</t>
+        </is>
+      </c>
+      <c r="E1007" s="18" t="inlineStr">
+        <is>
+          <t>Deve ser usado para configurações de DR em que uma interrupção ou perda de dados de eventos na região derrubada não pode ser tolerada. Para esses casos, siga as diretrizes de replicação e não use o recurso interno de recuperação de desastres geográficos (ativo/passivo). Com Ativo/Ativo, mantenha vários Hubs de Eventos em diferentes regiões e namespaces, e os eventos serão replicados entre os hubs</t>
+        </is>
+      </c>
+      <c r="F1007" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H1007" s="18" t="n"/>
-      <c r="I1007" s="13" t="n"/>
+      <c r="I1007" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J1007" s="13" t="n"/>
       <c r="K1007" s="19" t="n"/>
-      <c r="L1007" s="19" t="n"/>
+      <c r="L1007" s="19" t="inlineStr">
+        <is>
+          <t>6e31b67d-67ba-4591-89c0-9e805d597c7e</t>
+        </is>
+      </c>
       <c r="M1007" s="20" t="n"/>
       <c r="N1007" s="20" t="n"/>
       <c r="O1007" s="20" t="n"/>
@@ -52960,17 +53294,50 @@
       <c r="Q1007" s="20" t="n"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="18" t="n"/>
-      <c r="B1008" s="18" t="n"/>
-      <c r="C1008" s="18" t="n"/>
-      <c r="D1008" s="18" t="n"/>
+      <c r="A1008" s="18" t="inlineStr">
+        <is>
+          <t>Azure Event Hub Review</t>
+        </is>
+      </c>
+      <c r="B1008" s="18" t="inlineStr">
+        <is>
+          <t>Fiabilidade</t>
+        </is>
+      </c>
+      <c r="C1008" s="18" t="inlineStr">
+        <is>
+          <t>Event Hubs</t>
+        </is>
+      </c>
+      <c r="D1008" s="18" t="inlineStr">
+        <is>
+          <t>Projetar Hubs de Eventos Resilientes</t>
+        </is>
+      </c>
       <c r="E1008" s="18" t="n"/>
-      <c r="F1008" s="18" t="n"/>
+      <c r="F1008" s="18" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="G1008" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="H1008" s="18" t="n"/>
-      <c r="I1008" s="13" t="n"/>
+      <c r="I1008" s="31" t="inlineStr">
+        <is>
+          <t>More info</t>
+        </is>
+      </c>
       <c r="J1008" s="13" t="n"/>
       <c r="K1008" s="19" t="n"/>
-      <c r="L1008" s="19" t="n"/>
+      <c r="L1008" s="19" t="inlineStr">
+        <is>
+          <t>9ced16ad-d186-4f0a-a241-a999a68af77c</t>
+        </is>
+      </c>
       <c r="M1008" s="20" t="n"/>
       <c r="N1008" s="20" t="n"/>
       <c r="O1008" s="20" t="n"/>
@@ -56668,7 +57035,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="G8:G998" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G8:G1009" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -57549,6 +57916,17 @@
     <hyperlink ref="I995" r:id="rId874"/>
     <hyperlink ref="I996" r:id="rId875"/>
     <hyperlink ref="I997" r:id="rId876"/>
+    <hyperlink ref="I998" r:id="rId877"/>
+    <hyperlink ref="I999" r:id="rId878"/>
+    <hyperlink ref="I1000" r:id="rId879"/>
+    <hyperlink ref="I1001" r:id="rId880"/>
+    <hyperlink ref="I1002" r:id="rId881"/>
+    <hyperlink ref="I1003" r:id="rId882"/>
+    <hyperlink ref="I1004" r:id="rId883"/>
+    <hyperlink ref="I1005" r:id="rId884"/>
+    <hyperlink ref="I1006" r:id="rId885"/>
+    <hyperlink ref="I1007" r:id="rId886"/>
+    <hyperlink ref="I1008" r:id="rId887"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -33731,12 +33731,12 @@
       </c>
       <c r="D632" s="18" t="inlineStr">
         <is>
-          <t>Quando possível, seu aplicativo deve usar uma identidade gerenciada para se autenticar no Barramento de Serviço do Azure. Caso contrário, considere ter a credencial de armazenamento (SAS, credencial de entidade de serviço) no Azure Key Vault ou em um serviço equivalente</t>
+          <t>Quando possível, desabilite a autenticação de chave SAS (ou autenticação local) e use apenas a ID do Microsoft Entra para autenticação</t>
         </is>
       </c>
       <c r="E632" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Um aplicativo cliente do Barramento de Serviço em execução dentro de um aplicativo do Serviço de Aplicativo do Azure ou em uma máquina virtual com entidades gerenciadas habilitadas para suporte a recursos do Azure não precisa lidar com regras e chaves SAS ou quaisquer outros tokens de acesso. O aplicativo cliente só precisa do endereço do ponto de extremidade do namespace do Sistema de Mensagens do Barramento de Serviço. </t>
+          <t>O Microsoft Entra ID fornece segurança superior e facilidade de uso em relação às SAS (assinaturas de acesso compartilhado). Com o Microsoft Entra ID, não há necessidade de armazenar os tokens em seu código e arriscar possíveis vulnerabilidades de segurança. Recomendamos que você use a ID do Microsoft Entra com seus aplicativos do Barramento de Serviço do Azure quando possível.</t>
         </is>
       </c>
       <c r="F632" s="18" t="inlineStr">
@@ -33760,7 +33760,11 @@
           <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
-      <c r="K632" s="19" t="n"/>
+      <c r="K632" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.servicebus/namespaces' | extend compliant = iif(properties.disableLocalAuth == 'false', 'No', 'Yes') | project id, compliant</t>
+        </is>
+      </c>
       <c r="L632" s="19" t="inlineStr">
         <is>
           <t>786d60f9-6c96-4ad8-a55d-04c2b39c986b</t>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -49257,7 +49257,11 @@
         </is>
       </c>
       <c r="J931" s="13" t="n"/>
-      <c r="K931" s="19" t="n"/>
+      <c r="K931" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.Cdn/profiles/secrets' | extend frontDoorId = substring(id, 0, indexof(id, '/secrets')) | where properties.parameters.type =~ 'CustomerCertificate' | extend compliant = properties.parameters.useLatestVersion == true | project compliant, id=frontDoorId, certificateName = name | distinct id, certificateName, compliant</t>
+        </is>
+      </c>
       <c r="L931" s="19" t="inlineStr">
         <is>
           <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
@@ -49312,7 +49316,11 @@
           <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K932" s="19" t="n"/>
+      <c r="K932" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.cdn/profiles' and sku has 'AzureFrontDoor' | project name, cdnprofileid=tolower(id), tostring(tags), resourceGroup, subscriptionId,skuname=tostring(sku.name) | join kind= fullouter ( cdnresources | where type == 'microsoft.cdn/profiles/securitypolicies' | extend wafpolicyid=tostring(properties['parameters']['wafPolicy']['id']) | extend splitid=split(id, '/') | extend cdnprofileid=tolower(strcat_array(array_slice(splitid, 0, 8), '/')) | project secpolname=name, cdnprofileid, wafpolicyid ) on cdnprofileid | project name, cdnprofileid, secpolname, wafpolicyid,skuname | join kind = fullouter ( resources | where type == 'microsoft.network/frontdoorwebapplicationfirewallpolicies' | extend managedrulesenabled=iff(tostring(properties.managedRules.managedRuleSets) != '[]', true, false), enabledState = tostring(properties.policySettings.enabledState) | project afdwafname=name, managedrulesenabled, wafpolicyid=id, enabledState, tostring(tags) ) on wafpolicyid | where name != '' | summarize associatedsecuritypolicies=countif(secpolname != ''), wafswithmanagedrules=countif(managedrulesenabled == 1) by name, id=cdnprofileid, tags,skuname | extend compliant = (associatedsecuritypolicies &gt; 0 and wafswithmanagedrules &gt; 0) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L932" s="19" t="inlineStr">
         <is>
           <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
@@ -49528,7 +49536,11 @@
         </is>
       </c>
       <c r="J936" s="13" t="n"/>
-      <c r="K936" s="19" t="n"/>
+      <c r="K936" s="19" t="inlineStr">
+        <is>
+          <t>cdnresources | where type =~ 'microsoft.cdn/profiles/origingroups/origins' | extend frontDoorId = substring(id, 0, indexof(id, '/origins')) | extend compliant = isempty(properties.originHostHeader) or (tostring(properties.hostName) =~ tostring(properties.originHostHeader)) | project id=frontDoorId, originName = name, compliant</t>
+        </is>
+      </c>
       <c r="L936" s="19" t="inlineStr">
         <is>
           <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -1954,7 +1954,11 @@
         </is>
       </c>
       <c r="J26" s="13" t="n"/>
-      <c r="K26" s="19" t="n"/>
+      <c r="K26" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L26" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -13109,7 +13109,7 @@
       </c>
       <c r="J252" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/entra/identity/authentication/concept-mandatory-multifactor-authentication</t>
         </is>
       </c>
       <c r="K252" s="19" t="n"/>
@@ -13366,7 +13366,7 @@
       </c>
       <c r="D257" s="18" t="inlineStr">
         <is>
-          <t>Implemente um acesso de emergência ou contas de emergência para evitar o bloqueio de conta em todo o locatário.</t>
+          <t xml:space="preserve">Implemente um acesso de emergência ou contas de emergência para evitar o bloqueio de conta em todo o locatário. A MFA será ativada por padrão para todos os usuários em outubro de 2024. Recomendamos atualizar essas contas para usar a chave de acesso (FIDO2) ou configurar a autenticação baseada em certificado para MFA. </t>
         </is>
       </c>
       <c r="E257" s="18" t="n"/>
@@ -13388,7 +13388,7 @@
       </c>
       <c r="J257" s="31" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/entra/identity/role-based-access-control/security-emergency-access#exclude-at-least-one-account-from-conditional-access-policies</t>
         </is>
       </c>
       <c r="K257" s="19" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -24386,7 +24386,7 @@
       </c>
       <c r="D457" s="18" t="inlineStr">
         <is>
-          <t>O Azure Center for SAP solutions (ACSS) é uma oferta do Azure que torna o SAP uma carga de trabalho de nível superior no Azure. O ACSS é uma solução de ponta a ponta que permite criar e executar sistemas SAP como uma carga de trabalho unificada no Azure e fornece uma base mais perfeita para a inovação. Você pode aproveitar os recursos de gerenciamento para sistemas SAP novos e existentes baseados no Azure.</t>
+          <t>O ACSS (Centro de Soluções SAP) do Azure é uma oferta do Azure que torna o SAP uma carga de trabalho de nível superior no Azure. O ACSS é uma solução de ponta a ponta que permite criar e executar sistemas SAP como uma carga de trabalho unificada no Azure e fornece uma base mais perfeita para a inovação. Você pode aproveitar os recursos de gerenciamento para sistemas SAP novos e existentes baseados no Azure.</t>
         </is>
       </c>
       <c r="E457" s="18" t="n"/>
@@ -24441,7 +24441,7 @@
       </c>
       <c r="D458" s="18" t="inlineStr">
         <is>
-          <t>O Azure dá suporte à automação de implantações SAP no Linux e no Windows. O SAP Deployment Automation Framework é uma ferramenta de orquestração de código aberto que pode implantar, instalar e manter ambientes SAP.</t>
+          <t>O Azure dá suporte à automação de implantações do SAP no Linux e no Windows. O SAP Deployment Automation Framework é uma ferramenta de orquestração de software livre que pode implementar, instalar e manter ambientes SAP.</t>
         </is>
       </c>
       <c r="E458" s="18" t="n"/>
@@ -24496,7 +24496,7 @@
       </c>
       <c r="D459" s="18" t="inlineStr">
         <is>
-          <t>Executar uma recuperação point-in-time para seus bancos de dados de produção em qualquer ponto e em um período de tempo que atenda ao seu RTO; A recuperação point-in-time normalmente inclui erros do operador excluindo dados na camada DBMS ou por meio do SAP, incidentalmente</t>
+          <t>Execute uma recuperação pontual para seus bancos de dados de produção a qualquer momento e em um período de tempo que atenda ao seu RTO; a recuperação point-in-time normalmente inclui erros do operador que excluem dados na camada DBMS ou por meio do SAP, incidentalmente</t>
         </is>
       </c>
       <c r="E459" s="18" t="n"/>
@@ -24594,7 +24594,7 @@
       </c>
       <c r="D461" s="18" t="inlineStr">
         <is>
-          <t>Você pode replicar o armazenamento padrão entre regiões emparelhadas, mas não pode usar o armazenamento padrão para armazenar seus bancos de dados ou discos rígidos virtuais. Você pode replicar backups somente entre regiões emparelhadas que você usa. Para todos os outros dados, execute sua replicação usando recursos nativos de DBMS, como SQL Server Always On ou SAP HANA System Replication. Use uma combinação de Site Recovery, rsync ou robocopy e outros softwares de terceiros para a camada de aplicativos SAP.</t>
+          <t>Você pode replicar o armazenamento padrão entre regiões emparelhadas, mas não pode usar o armazenamento padrão para armazenar seus bancos de dados ou discos rígidos virtuais. Você pode replicar backups somente entre regiões emparelhadas que você usa. Para todos os outros dados, execute a replicação usando recursos nativos do DBMS, como SQL Server Always On ou Replicação do Sistema SAP HANA. Use uma combinação de Site Recovery, rsync ou robocopy e outros softwares de terceiros para a camada de aplicativo SAP.</t>
         </is>
       </c>
       <c r="E461" s="18" t="n"/>
@@ -24649,7 +24649,7 @@
       </c>
       <c r="D462" s="18" t="inlineStr">
         <is>
-          <t>Ao usar as Zonas de Disponibilidade do Azure para obter alta disponibilidade, você deve considerar a latência entre servidores de aplicativos SAP e servidores de banco de dados. Para zonas com altas latências, os procedimentos operacionais precisam estar em vigor para garantir que os servidores de aplicativos SAP e os servidores de banco de dados estejam sendo executados na mesma zona o tempo todo.</t>
+          <t>Ao usar as Zonas de Disponibilidade do Azure para obter alta disponibilidade, você deve considerar a latência entre os servidores de aplicativos SAP e os servidores de banco de dados. Para zonas com altas latências, os procedimentos operacionais precisam estar em vigor para garantir que os servidores de aplicativos SAP e os servidores de banco de dados estejam em execução na mesma zona o tempo todo.</t>
         </is>
       </c>
       <c r="E462" s="18" t="n"/>
@@ -24704,7 +24704,7 @@
       </c>
       <c r="D463" s="18" t="inlineStr">
         <is>
-          <t>Configure conexões de Rota Expressa do local para as regiões primária e secundária de recuperação de desastres do Azure. Além disso, como alternativa ao uso da Rota Expressa, considere configurar conexões VPN locais para as regiões primária e secundária de recuperação de desastres do Azure.</t>
+          <t>Configure conexões do ExpressRoute do local para as regiões de recuperação de desastre primárias e secundárias do Azure. Além disso, como alternativa ao uso do ExpressRoute, considere configurar conexões VPN do local para as regiões primárias e secundárias de recuperação de desastre do Azure.</t>
         </is>
       </c>
       <c r="E463" s="18" t="n"/>
@@ -24729,7 +24729,11 @@
           <t>https://learn.microsoft.com/azure/expressroute/use-s2s-vpn-as-backup-for-expressroute-privatepeering</t>
         </is>
       </c>
-      <c r="K463" s="19" t="n"/>
+      <c r="K463" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.network/virtualnetworkgateways'| where properties.gatewayType =~ 'vpn' or properties.gatewayType =~ 'ExpressRoute'| extend SKUName = properties.sku.name, SKUTier = properties.sku.tier, Type = properties.gatewayType| extend compliant = SKUTier contains 'AZ'| project name, id, subscriptionId, resourceGroup, Type, compliant</t>
+        </is>
+      </c>
       <c r="L463" s="19" t="inlineStr">
         <is>
           <t>ba07c007-1f90-43e9-aa4f-601346b80352</t>
@@ -24759,7 +24763,7 @@
       </c>
       <c r="D464" s="18" t="inlineStr">
         <is>
-          <t>Replique o conteúdo do cofre de chaves, como certificados, segredos ou chaves entre regiões, para que você possa descriptografar dados na região de recuperação de desastres.</t>
+          <t>Replique o conteúdo do cofre de chaves, como certificados, segredos ou chaves entre regiões, para que você possa descriptografar dados na região de recuperação de desastre.</t>
         </is>
       </c>
       <c r="E464" s="18" t="n"/>
@@ -24810,7 +24814,7 @@
       </c>
       <c r="D465" s="18" t="inlineStr">
         <is>
-          <t>Emparelhar as redes virtuais primária e de recuperação de desastres. Por exemplo, para a replicação do sistema HANA, uma rede virtual SAP HANA DB precisa ser emparelhada para a rede virtual SAP HANA DB do site de recuperação de desastres.</t>
+          <t>Emparelhe as redes virtuais primárias e de recuperação de desastre. Por exemplo, para a Replicação do Sistema HANA, uma rede virtual de banco de dados do SAP HANA precisa ser emparelhada com a rede virtual de banco de dados do SAP HANA do site de recuperação de desastres.</t>
         </is>
       </c>
       <c r="E465" s="18" t="n"/>
@@ -24916,7 +24920,7 @@
       </c>
       <c r="D467" s="18" t="inlineStr">
         <is>
-          <t>A tecnologia de replicação de banco de dados nativo deve ser usada para sincronizar o banco de dados em um par de HA.</t>
+          <t>A tecnologia de replicação de banco de dados nativa deve ser usada para sincronizar o banco de dados em um par de HA.</t>
         </is>
       </c>
       <c r="E467" s="18" t="n"/>
@@ -24971,7 +24975,7 @@
       </c>
       <c r="D468" s="18" t="inlineStr">
         <is>
-          <t>O CIDR da rede virtual primária (VNet) não deve entrar em conflito ou se sobrepor ao CIDR da VNet do site de recuperação de desastres</t>
+          <t>O CIDR da VNet (rede virtual) primária não deve entrar em conflito ou se sobrepor ao CIDR da VNet do site de recuperação de desastre</t>
         </is>
       </c>
       <c r="E468" s="18" t="n"/>
@@ -24996,7 +25000,11 @@
           <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
-      <c r="K468" s="19" t="n"/>
+      <c r="K468" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | extend addressSpace = todynamic(properties.addressSpace) | extend addressPrefix = todynamic(properties.addressSpace.addressPrefixes) | mvexpand addressSpace | mvexpand addressPrefix | project name, id, location, resourceGroup, subscriptionId, cidr = addressPrefix | extend compliant = (cidr matches regex @'^(10\.|172\.(1[6-9]|2[0-9]|3[01])\.|192\.168\.)')  | project id, compliant, cidr</t>
+        </is>
+      </c>
       <c r="L468" s="19" t="inlineStr">
         <is>
           <t>6561f847-3db5-4ff8-9200-5ad3c3b436ad</t>
@@ -25026,7 +25034,7 @@
       </c>
       <c r="D469" s="18" t="inlineStr">
         <is>
-          <t>Use a Recuperação de Site para replicar um servidor de aplicativos para um site de recuperação de desastres. A Recuperação de Site também pode ajudar na replicação de VMs de cluster de serviços centrais para o site de recuperação de desastres. Ao invocar o DR, você precisará reconfigurar o cluster do Linux Pacemaker no site de DR (por exemplo, substitua o VIP ou o SBD, execute o corosync.conf e muito mais).</t>
+          <t>Use o Site Recovery para replicar um servidor de aplicativos para um site de recuperação de desastre. O Site Recovery também pode ajudar a replicar VMs de cluster de serviços centrais para o site de recuperação de desastre. Ao invocar a DR, você precisará reconfigurar o cluster do Linux Pacemaker no site de DR (por exemplo, substituir o VIP ou SBD, executar corosync.conf e muito mais).</t>
         </is>
       </c>
       <c r="E469" s="18" t="n"/>
@@ -25077,7 +25085,7 @@
       </c>
       <c r="D470" s="18" t="inlineStr">
         <is>
-          <t>Considere a disponibilidade do software SAP em relação a pontos únicos de falha. Isso inclui pontos únicos de falha em aplicativos como SGBDs utilizados nas arquiteturas SAP NetWeaver e SAP S/4HANA, SAP ABAP e ASCS + SCS. Além disso, outras ferramentas, como o SAP Web Dispatcher.</t>
+          <t>Considere a disponibilidade do software SAP em relação a pontos únicos de falha. Isso inclui pontos únicos de falha em aplicativos, como SGBDs utilizados nas arquiteturas SAP NetWeaver e SAP S/4HANA, SAP AP e ASCS + SCS. Além disso, outras ferramentas, como o SAP Web Dispatcher.</t>
         </is>
       </c>
       <c r="E470" s="18" t="n"/>
@@ -25132,7 +25140,7 @@
       </c>
       <c r="D471" s="18" t="inlineStr">
         <is>
-          <t>Para bancos de dados SAP e SAP, considere a implementação de clusters de failover automático. No Windows, o Clustering de Failover do Windows Server oferece suporte a failover. No Linux, Linux Pacemaker ou ferramentas de terceiros como SIOS Protection Suite e Veritas InfoScale suportam failover.</t>
+          <t>Para bancos de dados SAP e SAP, considere implementar clusters de failover automáticos. No Windows, o Clustering de Failover do Windows Server dá suporte ao failover. No Linux, o Linux Pacemaker ou ferramentas de terceiros, como o SIOS Protection Suite e o Veritas InfoScale, oferecem suporte ao failover.</t>
         </is>
       </c>
       <c r="E471" s="18" t="n"/>
@@ -25187,7 +25195,7 @@
       </c>
       <c r="D472" s="18" t="inlineStr">
         <is>
-          <t>O Azure não oferece suporte a arquiteturas nas quais as VMs primária e secundária compartilham armazenamento para dados DBMS. Para a camada DBMS, o padrão de arquitetura comum é replicar bancos de dados ao mesmo tempo e com pilhas de armazenamento diferentes daquelas que as VMs primária e secundária usam.</t>
+          <t>O Azure não dá suporte a arquiteturas nas quais as VMs primárias e secundárias compartilham armazenamento para dados do DBMS. Para a camada DBMS, o padrão de arquitetura comum é replicar bancos de dados ao mesmo tempo e com pilhas de armazenamento diferentes daquelas que as VMs primárias e secundárias usam.</t>
         </is>
       </c>
       <c r="E472" s="18" t="n"/>
@@ -25242,7 +25250,7 @@
       </c>
       <c r="D473" s="18" t="inlineStr">
         <is>
-          <t>Os dados do DBMS e os arquivos de log de transação/refazer são armazenados no armazenamento em bloco com suporte do Azure ou nos Arquivos do Azure NetApp. Os Arquivos do Azure ou os Arquivos Premium do Azure não têm suporte como armazenamento para dados DBMS e/ou arquivos de log de refazer com a carga de trabalho SAP.</t>
+          <t>Os dados do DBMS e os arquivos de log de transação/redo são armazenados no armazenamento em blocos com suporte do Azure ou no Azure NetApp Files. Não há suporte para Arquivos do Azure ou Arquivos Premium do Azure como armazenamento para dados do DBMS e/ou arquivos de log de restauração com carga de trabalho do SAP.</t>
         </is>
       </c>
       <c r="E473" s="18" t="n"/>
@@ -25297,7 +25305,7 @@
       </c>
       <c r="D474" s="18" t="inlineStr">
         <is>
-          <t>Você pode usar discos compartilhados do Azure no Windows para componentes ASCS + SCS e cenários específicos de alta disponibilidade. Configure seus clusters de failover separadamente para componentes da camada de aplicativo SAP e a camada DBMS. No momento, o Azure não oferece suporte a arquiteturas de alta disponibilidade que combinam componentes da camada de aplicativo SAP e a camada DBMS em um cluster de failover.</t>
+          <t>Você pode usar discos compartilhados do Azure no Windows para componentes ASCS + SCS e cenários específicos de alta disponibilidade. Configure seus clusters de failover separadamente para os componentes da camada de aplicativo SAP e a camada DBMS. Atualmente, o Azure não dá suporte a arquiteturas de alta disponibilidade que combinam componentes da camada de aplicativo SAP e a camada DBMS em um cluster de failover.</t>
         </is>
       </c>
       <c r="E474" s="18" t="n"/>
@@ -25352,7 +25360,7 @@
       </c>
       <c r="D475" s="18" t="inlineStr">
         <is>
-          <t>A maioria dos clusters de failover para ASCS (Application Layer Components, componentes da camada de aplicativo) SAP e a camada DBMS exigem um endereço IP virtual para um cluster de failover.  O Balanceador de Carga do Azure deve manipular o endereço IP virtual para todos os outros casos. Um princípio de design é usar um balanceador de carga por configuração de cluster. Recomendamos que você use a versão padrão do balanceador de carga (SKU do Standard Load Balancer).</t>
+          <t>A maioria dos clusters de failover para componentes da camada de aplicativo SAP (ASCS) e a camada DBMS exigem um endereço IP virtual para um cluster de failover.  O Azure Load Balancer deve lidar com o endereço IP virtual para todos os outros casos. Um princípio de design é usar um balanceador de carga por configuração de cluster. Recomendamos que você use a versão padrão do balanceador de carga (SKU do Balanceador de Carga Padrão).</t>
         </is>
       </c>
       <c r="E475" s="18" t="n"/>
@@ -25377,7 +25385,11 @@
           <t>https://learn.microsoft.com/training/modules/implement-high-availability-for-sap-workloads-azure/?source=recommendations</t>
         </is>
       </c>
-      <c r="K475" s="19" t="n"/>
+      <c r="K475" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'Microsoft.Network/loadBalancers' | extend bep = properties.backendAddressPools | extend BackEndPools = array_length(bep) | where BackEndPools =~ 0 | project name, id, Param1='backendPools', Param2=toint(0), tags | union (resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name =~ 'Standard' | extend bep = properties.backendAddressPools | extend BackEndPools = toint(array_length(bep)) | mv-expand bip = properties.backendAddressPools | extend BackendAddresses = array_length(bip.properties.loadBalancerBackendAddresses) | where toint(BackendAddresses) &lt;= 1 | project name, id, tags, Param1='backendAddresses', Param2=toint(BackendAddresses)) | union ( resources | where type =~ 'Microsoft.Network/loadBalancers' | where sku.name =~ 'Basic' | mv-expand properties.backendAddressPools | extend backendPoolId = properties_backendAddressPools.id | project id, name, tags, tostring(backendPoolId), Param1='BackEndPools' | join kind = leftouter ( resources | where type =~ 'Microsoft.Network/networkInterfaces' | mv-expand properties.ipConfigurations | mv-expand properties_ipConfigurations.properties.loadBalancerBackendAddressPools | extend backendPoolId = tostring(properties_ipConfigurations_properties_loadBalancerBackendAddressPools.id) | summarize poolMembers = count() by backendPoolId | project tostring(backendPoolId), poolMembers ) on backendPoolId | where toint(poolMembers) &lt;= 1 | extend BackendAddresses = poolMembers | project id, name, tags, Param1='backendAddresses', Param2=toint(BackendAddresses))</t>
+        </is>
+      </c>
       <c r="L475" s="19" t="inlineStr">
         <is>
           <t>a78b3d31-3170-44f2-b5d7-651a29f4ccf5</t>
@@ -25407,7 +25419,7 @@
       </c>
       <c r="D476" s="18" t="inlineStr">
         <is>
-          <t>Verifique se o IP flutuante está habilitado no balanceador de carga</t>
+          <t>Certifique-se de que o IP flutuante esteja habilitado no balanceador de carga</t>
         </is>
       </c>
       <c r="E476" s="18" t="n"/>
@@ -25462,7 +25474,7 @@
       </c>
       <c r="D477" s="18" t="inlineStr">
         <is>
-          <t>Antes de implantar sua infraestrutura de alta disponibilidade, e dependendo da região escolhida, determine se deseja implantar com um conjunto de disponibilidade do Azure ou uma zona de disponibilidade.</t>
+          <t>Antes de implantar sua infraestrutura de alta disponibilidade e dependendo da região escolhida, determine se deseja implantar com um conjunto de disponibilidade do Azure ou uma zona de disponibilidade.</t>
         </is>
       </c>
       <c r="E477" s="18" t="n"/>
@@ -25517,7 +25529,7 @@
       </c>
       <c r="D478" s="18" t="inlineStr">
         <is>
-          <t>Se desejar atender aos SLAs de infraestrutura de seus aplicativos para componentes SAP (serviços centrais, servidores de aplicativos e bancos de dados), você deverá escolher as mesmas opções de alta disponibilidade (VMs, conjuntos de disponibilidade, zonas de disponibilidade) para todos os componentes.</t>
+          <t>Se você quiser atender aos SLAs de infraestrutura para seus aplicativos para componentes SAP (serviços centrais, servidores de aplicativos e bancos de dados), deverá escolher as mesmas opções de alta disponibilidade (VMs, conjuntos de disponibilidade, zonas de disponibilidade) para todos os componentes.</t>
         </is>
       </c>
       <c r="E478" s="18" t="n"/>
@@ -25568,7 +25580,7 @@
       </c>
       <c r="D479" s="18" t="inlineStr">
         <is>
-          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados, VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
+          <t>Não misture servidores de funções diferentes no mesmo conjunto de disponibilidade. Mantenha VMs de serviços centrais, VMs de banco de dados e VMs de aplicativos em seus próprios conjuntos de disponibilidade</t>
         </is>
       </c>
       <c r="E479" s="18" t="n"/>
@@ -25623,7 +25635,7 @@
       </c>
       <c r="D480" s="18" t="inlineStr">
         <is>
-          <t>Você não pode implantar conjuntos de disponibilidade do Azure em uma zona de disponibilidade do Azure, a menos que use grupos de posicionamento de proximidade.</t>
+          <t>Você não pode implantar conjuntos de disponibilidade do Azure em uma zona de disponibilidade do Azure, a menos que use grupos de posicionamento por proximidade.</t>
         </is>
       </c>
       <c r="E480" s="18" t="n"/>
@@ -25678,7 +25690,7 @@
       </c>
       <c r="D481" s="18" t="inlineStr">
         <is>
-          <t>Ao criar conjuntos de disponibilidade, use o número máximo de domínios de falha e atualize domínios disponíveis. Por exemplo, se você implantar mais de duas VMs em um conjunto de disponibilidade, use o número máximo de domínios de falha (três) e domínios de atualização suficientes para limitar o efeito de possíveis falhas de hardware físico, interrupções de rede ou interrupções de energia, além da manutenção planejada do Azure. O número padrão de domínios de falha é dois e você não pode alterá-lo online mais tarde.</t>
+          <t>Ao criar conjuntos de disponibilidade, use o número máximo de domínios de falha e atualize os domínios disponíveis. Por exemplo, se você implantar mais de duas VMs em um conjunto de disponibilidade, use o número máximo de domínios de falha (três) e domínios de atualização suficientes para limitar o efeito de possíveis falhas de hardware físico, interrupções de rede ou interrupções de energia, além da manutenção planejada do Azure. O número padrão de domínios de falha é dois e você não pode alterá-lo online posteriormente.</t>
         </is>
       </c>
       <c r="E481" s="18" t="n"/>
@@ -25733,7 +25745,7 @@
       </c>
       <c r="D482" s="18" t="inlineStr">
         <is>
-          <t>Quando você usa grupos de posicionamento de proximidade do Azure em uma implantação de conjunto de disponibilidade, todos os três componentes SAP (serviços centrais, servidor de aplicativos e banco de dados) devem estar no mesmo grupo de posicionamento de proximidade.</t>
+          <t>Quando você usa grupos de posicionamento por proximidade do Azure em uma implantação de conjunto de disponibilidade, todos os três componentes SAP (serviços centrais, servidor de aplicativos e banco de dados) devem estar no mesmo grupo de posicionamento por proximidade.</t>
         </is>
       </c>
       <c r="E482" s="18" t="n"/>
@@ -25784,7 +25796,7 @@
       </c>
       <c r="D483" s="18" t="inlineStr">
         <is>
-          <t>Use um grupo de posicionamento de proximidade por SAP SID. Os grupos não se estendem por zonas de disponibilidade ou regiões do Azure</t>
+          <t>Use um grupo de posicionamento por proximidade por SID SAP. Os grupos não se estendem por Zonas de Disponibilidade ou regiões do Azure</t>
         </is>
       </c>
       <c r="E483" s="18" t="n"/>
@@ -25835,7 +25847,7 @@
       </c>
       <c r="D484" s="18" t="inlineStr">
         <is>
-          <t>Use um dos seguintes serviços para executar clusters de serviços centrais SAP, dependendo do sistema operacional.</t>
+          <t>Use um dos serviços a seguir para executar clusters de serviços centrais do SAP, dependendo do sistema operacional.</t>
         </is>
       </c>
       <c r="E484" s="18" t="n"/>
@@ -25890,7 +25902,7 @@
       </c>
       <c r="D485" s="18" t="inlineStr">
         <is>
-          <t>No momento, o Azure não oferece suporte à combinação de ASCS e HA de banco de dados no mesmo cluster do Linux Pacemaker; Separe-os em agrupamentos individuais. No entanto, você pode combinar até cinco clusters de serviços centrais em um par de VMs.</t>
+          <t>Atualmente, o Azure não dá suporte à combinação de ASCS e DB HA no mesmo cluster do Linux Pacemaker; separe-os em clusters individuais. No entanto, você pode combinar até cinco vários clusters de serviços centrais em um par de VMs.</t>
         </is>
       </c>
       <c r="E485" s="18" t="n"/>
@@ -25966,7 +25978,11 @@
         </is>
       </c>
       <c r="J486" s="13" t="n"/>
-      <c r="K486" s="19" t="n"/>
+      <c r="K486" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Storage/storageAccounts' | where sku.name in~ ('Standard_LRS', 'Premium_LRS') | project name, id, tags, param1 = strcat('sku: ', sku.name)</t>
+        </is>
+      </c>
       <c r="L486" s="19" t="inlineStr">
         <is>
           <t>f656e745-0cfb-453e-8008-0528fa21c933</t>
@@ -25996,7 +26012,7 @@
       </c>
       <c r="D487" s="18" t="inlineStr">
         <is>
-          <t>O Azure oferece suporte à instalação e configuração de instâncias SAP HANA e ASCS/SCS e ERS no mesmo cluster de alta disponibilidade em execução no Red Hat Enterprise Linux (RHEL).</t>
+          <t>O Azure dá suporte à instalação e configuração de instâncias do SAP HANA e ASCS/SCS e ERS no mesmo cluster de alta disponibilidade em execução no RHEL (Red Hat Enterprise Linux).</t>
         </is>
       </c>
       <c r="E487" s="18" t="n"/>
@@ -26051,7 +26067,7 @@
       </c>
       <c r="D488" s="18" t="inlineStr">
         <is>
-          <t>Execute todos os sistemas de produção em SSDs gerenciados Premium e use o Azure NetApp Files ou o Ultra Disk Storage. Pelo menos o disco do sistema operacional deve estar na camada Premium para que você possa obter melhor desempenho e o melhor SLA.</t>
+          <t>Execute todos os sistemas de produção em SSDs gerenciados Premium e use o Azure NetApp Files ou o Armazenamento em Disco Ultra. Pelo menos o disco do sistema operacional deve estar na camada Premium para que você possa obter melhor desempenho e o melhor SLA.</t>
         </is>
       </c>
       <c r="E488" s="18" t="n"/>
@@ -26106,7 +26122,7 @@
       </c>
       <c r="D489" s="18" t="inlineStr">
         <is>
-          <t>Você deve executar o SAP HANA no Azure somente nos tipos de armazenamento certificados pela SAP. Observe que determinados volumes devem ser executados em determinadas configurações de disco, quando aplicável. Essas configurações incluem a habilitação do Acelerador de Gravação e o uso do armazenamento Premium. Você também precisa garantir que o sistema de arquivos executado no armazenamento seja compatível com o DBMS executado na máquina.</t>
+          <t>Você deve executar o SAP HANA no Azure somente nos tipos de armazenamento certificados pelo SAP. Observe que determinados volumes devem ser executados em determinadas configurações de disco, quando aplicável. Essas configurações incluem habilitar o Acelerador de Gravação e usar o armazenamento Premium. Você também precisa garantir que o sistema de arquivos executado no armazenamento seja compatível com o DBMS executado na máquina.</t>
         </is>
       </c>
       <c r="E489" s="18" t="n"/>
@@ -26161,7 +26177,7 @@
       </c>
       <c r="D490" s="18" t="inlineStr">
         <is>
-          <t>Considere configurar a alta disponibilidade dependendo do tipo de armazenamento usado para suas cargas de trabalho SAP. Alguns serviços de armazenamento disponíveis no Azure não têm suporte no Azure Site Recovery, portanto, sua configuração de alta disponibilidade pode ser diferente.</t>
+          <t>Considere configurar a alta disponibilidade dependendo do tipo de armazenamento que você usa para suas cargas de trabalho SAP. Alguns serviços de armazenamento disponíveis no Azure não têm suporte no Azure Site Recovery, portanto, sua configuração de alta disponibilidade pode ser diferente.</t>
         </is>
       </c>
       <c r="E490" s="18" t="n"/>
@@ -26216,7 +26232,7 @@
       </c>
       <c r="D491" s="18" t="inlineStr">
         <is>
-          <t>Diferentes serviços de armazenamento nativos do Azure (como Arquivos do Azure, Arquivos do Azure NetApp, Disco Compartilhado do Azure) podem não estar disponíveis em todas as regiões. Portanto, para ter uma configuração SAP semelhante na região de DR após o failover, certifique-se de que o respectivo serviço de armazenamento seja oferecido no local de DR.</t>
+          <t>Diferentes serviços de armazenamento nativos do Azure (como Arquivos do Azure, Azure NetApp Files, Disco Compartilhado do Azure) podem não estar disponíveis em todas as regiões. Portanto, para ter uma configuração SAP semelhante na região de recuperação de desastre após o failover, verifique se o respectivo serviço de armazenamento é oferecido no site de recuperação de desastre.</t>
         </is>
       </c>
       <c r="E491" s="18" t="n"/>
@@ -26267,7 +26283,7 @@
       </c>
       <c r="D492" s="18" t="inlineStr">
         <is>
-          <t>Automatize o Start-Stop do sistema SAP para gerenciar custos.</t>
+          <t>Automatize o sistema SAP Start-Stop para gerenciar custos.</t>
         </is>
       </c>
       <c r="E492" s="18" t="n"/>
@@ -26318,7 +26334,7 @@
       </c>
       <c r="D493" s="18" t="inlineStr">
         <is>
-          <t>No caso de usar o Armazenamento Premium do Azure com o SAP HANA, o armazenamento SSD padrão do Azure pode ser usado para selecionar uma solução de armazenamento econômica. No entanto, observe que escolher o armazenamento padrão SSD ou HDD padrão do Azure afetará o SLA das VMs individuais. Além disso, para sistemas com menor taxa de transferência de E/S e baixa latência, como ambientes que não são de produção, VMs de série mais baixa podem ser usadas.</t>
+          <t>No caso de usar o Armazenamento Premium do Azure com o SAP HANA, o armazenamento SSD Standard do Azure pode ser usado para selecionar uma solução de armazenamento econômica. No entanto, observe que escolher o armazenamento SSD Standard ou HDD Standard do Azure afetará o SLA das VMs individuais. Além disso, para sistemas com menor taxa de transferência de E/S e baixa latência, como ambientes de não produção, as VMs de série inferior podem ser usadas.</t>
         </is>
       </c>
       <c r="E493" s="18" t="n"/>
@@ -26369,7 +26385,7 @@
       </c>
       <c r="D494" s="18" t="inlineStr">
         <is>
-          <t>Como uma configuração alternativa de baixo custo (multiuso), você pode escolher uma SKU de baixo desempenho para suas VMs de servidor de banco de dados HANA que não são de produção. No entanto, é importante observar que alguns tipos de VM, como a série E, não são certificados pelo HANA (SAP HANA Hardware Directory) ou não podem atingir latência de armazenamento inferior a 1ms.</t>
+          <t>Como uma configuração alternativa de baixo custo (multiuso), você pode escolher um SKU de baixo desempenho para suas VMs de servidor de banco de dados HANA que não são de produção. No entanto, é importante observar que alguns tipos de VM, como a série E, não são certificados pelo HANA (Diretório de Hardware do SAP HANA) ou não podem atingir uma latência de armazenamento inferior a 1 ms.</t>
         </is>
       </c>
       <c r="E494" s="18" t="n"/>
@@ -26445,7 +26461,11 @@
           <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
-      <c r="K495" s="19" t="n"/>
+      <c r="K495" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.aad/domainservices' | extend replicaSets = properties.replicaSets | where array_length(replicaSets) &lt; 2 | project name=name, id=id, tags=tags, param1=strcat('replicaSetLocation:', replicaSets[0].location)</t>
+        </is>
+      </c>
       <c r="L495" s="19" t="inlineStr">
         <is>
           <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
@@ -26475,7 +26495,7 @@
       </c>
       <c r="D496" s="18" t="inlineStr">
         <is>
-          <t>Impor a propagação principal para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
+          <t>Impor a propagação da entidade de segurança para encaminhar a identidade do aplicativo de nuvem SAP para o SAP local (incluindo IaaS) por meio do conector de nuvem</t>
         </is>
       </c>
       <c r="E496" s="18" t="n"/>
@@ -26530,7 +26550,7 @@
       </c>
       <c r="D497" s="18" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com o Azure AD usando SAML.</t>
+          <t>Implemente SSO para aplicativos SAP SaaS como SAP Analytics Cloud, SAP Cloud Platform, Business by design, SAP Qualtrics e SAP C4C com Azure AD usando SAML.</t>
         </is>
       </c>
       <c r="E497" s="18" t="n"/>
@@ -26581,7 +26601,7 @@
       </c>
       <c r="D498" s="18" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Implemente o SSO para aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="E498" s="18" t="n"/>
@@ -26636,7 +26656,7 @@
       </c>
       <c r="D499" s="18" t="inlineStr">
         <is>
-          <t>Implemente SSO em aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
+          <t>Implemente o SSO para aplicativos Web baseados no SAP NetWeaver, como SAP Fiori e SAP Web GUI, usando SAML.</t>
         </is>
       </c>
       <c r="E499" s="18" t="n"/>
@@ -26742,7 +26762,7 @@
       </c>
       <c r="D501" s="18" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="E501" s="18" t="n"/>
@@ -26793,7 +26813,7 @@
       </c>
       <c r="D502" s="18" t="inlineStr">
         <is>
-          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos / SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido a sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
+          <t>Para SSO para SAP GUI e acesso ao navegador web, implemente SNC / Kerberos/SPNEGO (mecanismo de negociação GSSAPI simples e protegido) devido à sua facilidade de configuração e manutenção. Para SSO com certificados de cliente X.509, considere o SAP Secure Login Server, que é um componente da solução SAP SSO.</t>
         </is>
       </c>
       <c r="E502" s="18" t="n"/>
@@ -26844,7 +26864,7 @@
       </c>
       <c r="D503" s="18" t="inlineStr">
         <is>
-          <t>Implemente o SSO usando o OAuth for SAP NetWeaver para permitir que aplicativos de terceiros ou personalizados acessem os serviços OData do SAP NetWeaver.</t>
+          <t>Implemente o SSO usando o OAuth para SAP NetWeaver para permitir que aplicativos personalizados ou de terceiros acessem os serviços OData do SAP NetWeaver.</t>
         </is>
       </c>
       <c r="E503" s="18" t="n"/>
@@ -26997,7 +27017,7 @@
       </c>
       <c r="D506" s="18" t="inlineStr">
         <is>
-          <t>Para aplicativos que acessam o SAP, convém usar a propagação principal para estabelecer o SSO.</t>
+          <t>Para aplicativos que acessam o SAP, talvez você queira usar a propagação principal para estabelecer o SSO.</t>
         </is>
       </c>
       <c r="E506" s="18" t="n"/>
@@ -27048,7 +27068,7 @@
       </c>
       <c r="D507" s="18" t="inlineStr">
         <is>
-          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade de proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central do usuário e o provedor de identidade.</t>
+          <t>Se você estiver usando serviços SAP BTP ou soluções SaaS que exigem o SAP Identity Authentication Service (IAS), considere implementar o SSO entre o SAP Cloud Identity Authentication Services e o Azure AD para acessar esses serviços SAP. Essa integração permite que o SAP IAS atue como um provedor de identidade proxy e encaminhe solicitações de autenticação para o Azure AD como o repositório central de usuários e o provedor de identidade.</t>
         </is>
       </c>
       <c r="E507" s="18" t="n"/>
@@ -27099,7 +27119,7 @@
       </c>
       <c r="D508" s="18" t="inlineStr">
         <is>
-          <t>Implementar SSO no SAP BTP</t>
+          <t>Implementar SSO para SAP BTP</t>
         </is>
       </c>
       <c r="E508" s="18" t="n"/>
@@ -27150,7 +27170,7 @@
       </c>
       <c r="D509" s="18" t="inlineStr">
         <is>
-          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS com suporte no Azure AD. Use write-back do endereço de e-mail para SAP SuccessFactors.</t>
+          <t>Se você estiver usando o SAP SuccessFactors, considere usar o provisionamento automatizado de usuários do Azure AD. Com essa integração, à medida que você adiciona novos funcionários ao SAP SuccessFactors, você pode criar automaticamente suas contas de usuário no Azure AD. Opcionalmente, você pode criar contas de usuário no Microsoft 365 ou em outros aplicativos SaaS compatíveis com o Azure AD. Use o write-back do endereço de email para o SAP SuccessFactors.</t>
         </is>
       </c>
       <c r="E509" s="18" t="n"/>
@@ -27201,10 +27221,14 @@
       </c>
       <c r="D510" s="18" t="inlineStr">
         <is>
-          <t>impor políticas existentes do Grupo de Gerenciamento às assinaturas SAP</t>
-        </is>
-      </c>
-      <c r="E510" s="18" t="n"/>
+          <t>impor políticas existentes do Grupo de Gerenciamento às Assinaturas SAP</t>
+        </is>
+      </c>
+      <c r="E510" s="18" t="inlineStr">
+        <is>
+          <t>Mantenha a hierarquia do grupo de gerenciamento razoavelmente plana, não mais do que quatro.</t>
+        </is>
+      </c>
       <c r="F510" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -27226,7 +27250,11 @@
           <t>https://learn.microsoft.com/training/modules/enterprise-scale-organization/4-management-group-subscription-organization</t>
         </is>
       </c>
-      <c r="K510" s="19" t="n"/>
+      <c r="K510" s="19" t="inlineStr">
+        <is>
+          <t>resourcecontainers| where type =~ 'microsoft.resources/subscriptions'| extend ManagementGroup = tostring(tags),mgmtChain = properties.managementGroupAncestorsChain| extend compliant =( array_length(mgmtChain) &lt;= 4 and array_length(mgmtChain) &gt; 1)</t>
+        </is>
+      </c>
       <c r="L510" s="19" t="inlineStr">
         <is>
           <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
@@ -27281,7 +27309,11 @@
           <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-subscriptions</t>
         </is>
       </c>
-      <c r="K511" s="19" t="n"/>
+      <c r="K511" s="19" t="inlineStr">
+        <is>
+          <t>Resources | summarize count()</t>
+        </is>
+      </c>
       <c r="L511" s="19" t="inlineStr">
         <is>
           <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
@@ -27311,7 +27343,7 @@
       </c>
       <c r="D512" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Sandbox, não-prod, prod </t>
+          <t xml:space="preserve">Aproveite a assinatura como unidade de escala e dimensione nossos recursos, considere implantar a assinatura por ambiente, por exemplo. Caixa de areia, não-prod, prod </t>
         </is>
       </c>
       <c r="E512" s="18" t="n"/>
@@ -27336,7 +27368,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-subscriptions/?source=recommendations</t>
         </is>
       </c>
-      <c r="K512" s="19" t="n"/>
+      <c r="K512" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type contains 'publicIPAddresses' and isnotempty(properties.ipAddress) | summarize count () by subscriptionId</t>
+        </is>
+      </c>
       <c r="L512" s="19" t="inlineStr">
         <is>
           <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
@@ -27366,7 +27402,7 @@
       </c>
       <c r="D513" s="18" t="inlineStr">
         <is>
-          <t>Garantir o aumento da cota como parte do provisionamento de assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
+          <t>Garantir o aumento da cota como parte do provisionamento da assinatura (por exemplo, total de núcleos de VM disponíveis em uma assinatura)</t>
         </is>
       </c>
       <c r="E513" s="18" t="n"/>
@@ -27391,7 +27427,11 @@
           <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
-      <c r="K513" s="19" t="n"/>
+      <c r="K513" s="19" t="inlineStr">
+        <is>
+          <t>QuotaResources | where type =~ 'microsoft.compute/locations/usages' | where subscriptionId in~ ('&lt;Subscription1&gt;','&lt;Subscription2&gt;') | mv-expand json = properties.value limit 400 | extend usagevCPUs = json.currentValue, QuotaLimit = json['limit'], quotaName = tostring(json['name'].localizedValue) | extend usagePercent = toint(usagevCPUs)*100 / toint(QuotaLimit) |where quotaName =~ 'Total Regional vCPUs' or quotaName =~ 'Total Regional Low-priority vCPUs' |project subscriptionId,quotaName,usagevCPUs,QuotaLimit,usagePercent,location,['json'] | order by ['usagePercent'] desc</t>
+        </is>
+      </c>
       <c r="L513" s="19" t="inlineStr">
         <is>
           <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
@@ -27472,7 +27512,7 @@
       </c>
       <c r="D515" s="18" t="inlineStr">
         <is>
-          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM estará disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série VM, o número de CPUs e a zona de disponibilidade necessárias.</t>
+          <t>Se estiver implantando em uma zona de disponibilidade, verifique se a implantação da zona da VM está disponível depois que a cota for aprovada. Envie uma solicitação de suporte com a assinatura, a série de VMs, o número de CPUs e a zona de disponibilidade necessárias.</t>
         </is>
       </c>
       <c r="E515" s="18" t="n"/>
@@ -27603,7 +27643,11 @@
           <t>https://learn.microsoft.com/training/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
-      <c r="K517" s="19" t="n"/>
+      <c r="K517" s="19" t="inlineStr">
+        <is>
+          <t>resources | extend compliant = isnotnull(['tags']) | project name, id, subscriptionId, resourceGroup, tags, compliant</t>
+        </is>
+      </c>
       <c r="L517" s="19" t="inlineStr">
         <is>
           <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
@@ -27688,7 +27732,7 @@
       </c>
       <c r="D519" s="18" t="inlineStr">
         <is>
-          <t>Se você implantar os Arquivos NetApp do Azure para seu banco de dados HANA, Oracle ou DB2, use a ferramenta Azure Application Consistent Snapshot (AzAcSnap) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também suporta bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
+          <t>Se você implantar o Azure NetApp Files para seu banco de dados HANA, Oracle ou DB2, use a ferramenta AzAcSnap (Instantâneo Consistente com o Aplicativo do Azure) para tirar instantâneos consistentes com o aplicativo. O AzAcSnap também oferece suporte a bancos de dados Oracle. Considere usar o AzAcSnap em uma VM central em vez de em VMs individuais.</t>
         </is>
       </c>
       <c r="E519" s="18" t="n"/>
@@ -27739,7 +27783,7 @@
       </c>
       <c r="D520" s="18" t="inlineStr">
         <is>
-          <t>Garanta as correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
+          <t>Garanta correspondências de fuso horário entre o sistema operacional e o sistema SAP.</t>
         </is>
       </c>
       <c r="E520" s="18" t="n"/>
@@ -27790,7 +27834,7 @@
       </c>
       <c r="D521" s="18" t="inlineStr">
         <is>
-          <t>Não agrupe serviços de aplicativos diferentes no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster multi-SID).</t>
+          <t>Não agrupe diferentes serviços de aplicativo no mesmo cluster. Por exemplo, não combine clusters DRBD e de serviços centrais no mesmo cluster. No entanto, você pode usar o mesmo cluster do Pacemaker para gerenciar aproximadamente cinco serviços centrais diferentes (cluster de vários SID).</t>
         </is>
       </c>
       <c r="E521" s="18" t="n"/>
@@ -27845,7 +27889,7 @@
       </c>
       <c r="D522" s="18" t="inlineStr">
         <is>
-          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de soneca para economizar e otimizar os custos de execução do Azure.</t>
+          <t>Considere executar sistemas de desenvolvimento/teste em um modelo de adiamento para economizar e otimizar os custos de execução do Azure.</t>
         </is>
       </c>
       <c r="E522" s="18" t="n"/>
@@ -27896,7 +27940,7 @@
       </c>
       <c r="D523" s="18" t="inlineStr">
         <is>
-          <t>Se você faz parceria com clientes gerenciando suas propriedades SAP, considere o Farol do Azure. O Azure Lighthouse permite que os provedores de serviços gerenciados usem os serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, porque eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
+          <t>Se você fizer parceria com clientes gerenciando suas propriedades SAP, considere o Azure Lighthouse. O Azure Lighthouse permite que os provedores de serviços gerenciados usem serviços de identidade nativos do Azure para se autenticar no ambiente dos clientes. Ele coloca o controle nas mãos dos clientes, pois eles podem revogar o acesso a qualquer momento e auditar as ações dos prestadores de serviços.</t>
         </is>
       </c>
       <c r="E523" s="18" t="n"/>
@@ -28057,7 +28101,7 @@
       </c>
       <c r="D526" s="18" t="inlineStr">
         <is>
-          <t>Use as soluções do Azure Monitor for SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
+          <t>Use o Azure Monitor para soluções SAP para monitorar suas cargas de trabalho SAP (SAP HANA, clusters SUSE de alta disponibilidade e sistemas SQL) no Azure. Considere complementar o Azure Monitor para soluções SAP com o SAP Solution Manager.</t>
         </is>
       </c>
       <c r="E526" s="18" t="n"/>
@@ -28112,7 +28156,7 @@
       </c>
       <c r="D527" s="18" t="inlineStr">
         <is>
-          <t>Execute uma verificação de extensão de VM para SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma máquina virtual (VM) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
+          <t>Execute uma extensão de VM para verificação SAP. A Extensão de VM para SAP usa a identidade gerenciada atribuída de uma VM (máquina virtual) para acessar dados de monitoramento e configuração de VM. A verificação garante que todas as métricas de desempenho em seu aplicativo SAP venham da Extensão do Azure para SAP subjacente.</t>
         </is>
       </c>
       <c r="E527" s="18" t="n"/>
@@ -28167,7 +28211,7 @@
       </c>
       <c r="D528" s="18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use a Política do Azure para controle de acesso e relatórios de conformidade. A Política do Azure fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
+          <t xml:space="preserve">Use o Azure Policy para controle de acesso e relatórios de conformidade. O Azure Policy fornece a capacidade de impor configurações em toda a organização para garantir a adesão consistente à política e a detecção rápida de violações. </t>
         </is>
       </c>
       <c r="E528" s="18" t="n"/>
@@ -28222,7 +28266,7 @@
       </c>
       <c r="D529" s="18" t="inlineStr">
         <is>
-          <t>Use o Monitor de Conexão no Inspetor de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medições de latência de rede usando o Azure Monitor.</t>
+          <t>Use o Monitor da Conexão no Observador de Rede do Azure para monitorar métricas de latência para bancos de dados SAP e servidores de aplicativos. Ou colete e exiba medidas de latência de rede usando o Azure Monitor.</t>
         </is>
       </c>
       <c r="E529" s="18" t="n"/>
@@ -28383,7 +28427,7 @@
       </c>
       <c r="D532" s="18" t="inlineStr">
         <is>
-          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Recuperação de Site) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework para Azure.</t>
+          <t>Execute o Relatório de Resiliência para garantir que a configuração de toda a infraestrutura provisionada do Azure (Computação, Banco de Dados, Rede, Armazenamento, Site Recovery) esteja em conformidade com a configuração definida pelo Cloud Adaption Framework for Azure.</t>
         </is>
       </c>
       <c r="E532" s="18" t="n"/>
@@ -28438,7 +28482,7 @@
       </c>
       <c r="D533" s="18" t="inlineStr">
         <is>
-          <t>Implemente a proteção contra ameaças usando a solução Microsoft Sentinel para SAP. Use esta solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e camadas de aplicativos.</t>
+          <t>Implemente a proteção contra ameaças usando a solução do Microsoft Sentinel para SAP. Use essa solução para monitorar seus sistemas SAP e detectar ameaças sofisticadas em toda a lógica de negócios e nas camadas de aplicativos.</t>
         </is>
       </c>
       <c r="E533" s="18" t="n"/>
@@ -28493,7 +28537,7 @@
       </c>
       <c r="D534" s="18" t="inlineStr">
         <is>
-          <t>A marcação do Azure pode ser aproveitada para agrupar e controlar recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
+          <t>A marcação do Azure pode ser aproveitada para agrupar e rastrear recursos logicamente, automatizar suas implantações e, o mais importante, fornecer visibilidade sobre os custos incorridos.</t>
         </is>
       </c>
       <c r="E534" s="18" t="n"/>
@@ -28518,7 +28562,11 @@
           <t>https://learn.microsoft.com/training/modules/analyze-costs-create-budgets-azure-cost-management/?source=recommendations</t>
         </is>
       </c>
-      <c r="K534" s="19" t="n"/>
+      <c r="K534" s="19" t="inlineStr">
+        <is>
+          <t>resources | extend compliant = isnotnull(['tags']) | project name, id, subscriptionId, resourceGroup, tags, compliant</t>
+        </is>
+      </c>
       <c r="L534" s="19" t="inlineStr">
         <is>
           <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
@@ -28599,7 +28647,7 @@
       </c>
       <c r="D536" s="18" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastre para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="E536" s="18" t="n"/>
@@ -28654,7 +28702,7 @@
       </c>
       <c r="D537" s="18" t="inlineStr">
         <is>
-          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores do banco de dados para obter detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
+          <t>Exclua todos os sistemas de arquivos de banco de dados e programas executáveis das verificações antivírus. Incluí-los pode levar a problemas de desempenho. Verifique com os fornecedores de banco de dados os detalhes prescritivos na lista de exclusão. Por exemplo, a Oracle recomenda excluir /oracle/&lt;sid&gt;/sapdata das verificações antivírus.</t>
         </is>
       </c>
       <c r="E537" s="18" t="n"/>
@@ -28705,7 +28753,7 @@
       </c>
       <c r="D538" s="18" t="inlineStr">
         <is>
-          <t>Considere a coleta de estatísticas completas de banco de dados para bancos de dados não-HANA após a migração. Por exemplo, implemente a nota SAP 1020260 - Entrega de estatísticas Oracle.</t>
+          <t>Considere coletar estatísticas completas do banco de dados para bancos de dados não HANA após a migração. Por exemplo, implemente a nota 1020260 do SAP - Entrega de estatísticas do Oracle.</t>
         </is>
       </c>
       <c r="E538" s="18" t="n"/>
@@ -28756,7 +28804,7 @@
       </c>
       <c r="D539" s="18" t="inlineStr">
         <is>
-          <t>Considere o uso do Oracle Automatic Storage Management (ASM) para todas as implantações Oracle que usam SAP no Azure.</t>
+          <t>Considere usar o ASM (Gerenciamento Automático de Armazenamento) do Oracle para todas as implantações do Oracle que usam o SAP no Azure.</t>
         </is>
       </c>
       <c r="E539" s="18" t="n"/>
@@ -28866,7 +28914,7 @@
       </c>
       <c r="D541" s="18" t="inlineStr">
         <is>
-          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastres para servidores de aplicativos SAP.</t>
+          <t>Use o monitoramento do Azure Site Recovery para manter a integridade do serviço de recuperação de desastre para servidores de aplicativos SAP.</t>
         </is>
       </c>
       <c r="E541" s="18" t="n"/>
@@ -28921,7 +28969,7 @@
       </c>
       <c r="D542" s="18" t="inlineStr">
         <is>
-          <t>Para a entrega segura de aplicativos HTTP/S, use o Application Gateway v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
+          <t>Para entrega segura de aplicativos HTTP/S, use o Gateway de Aplicativo v2 e verifique se a proteção e as políticas do WAF estão habilitadas.</t>
         </is>
       </c>
       <c r="E542" s="18" t="n"/>
@@ -28976,7 +29024,7 @@
       </c>
       <c r="D543" s="18" t="inlineStr">
         <is>
-          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectam muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS mudam após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
+          <t>Se o DNS ou o nome virtual da máquina virtual não for alterado durante a migração para o Azure, o DNS em segundo plano e os nomes virtuais conectarão muitas interfaces do sistema no cenário SAP, e os clientes só às vezes estarão cientes das interfaces que os desenvolvedores definem ao longo do tempo. Surgem desafios de conexão entre vários sistemas quando os nomes virtuais ou DNS são alterados após as migrações, e é recomendável manter os aliases DNS para evitar esses tipos de dificuldades.</t>
         </is>
       </c>
       <c r="E543" s="18" t="n"/>
@@ -29031,7 +29079,7 @@
       </c>
       <c r="D544" s="18" t="inlineStr">
         <is>
-          <t>Use zonas DNS diferentes para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) um do outro. A exceção é para implantações SAP com sua própria VNet; aqui, zonas DNS privadas podem não ser necessárias.</t>
+          <t>Use diferentes zonas DNS para distinguir cada ambiente (sandbox, desenvolvimento, pré-produção e produção) uns dos outros. A exceção é para implantações SAP com sua própria VNet; aqui, as zonas DNS privadas podem não ser necessárias.</t>
         </is>
       </c>
       <c r="E544" s="18" t="n"/>
@@ -29086,10 +29134,14 @@
       </c>
       <c r="D545" s="18" t="inlineStr">
         <is>
-          <t>Emparelhamento de rede virtual local e global fornecem conectividade e são as abordagens preferidas para garantir a conectividade entre zonas de aterrissagem para implantações SAP em várias regiões do Azure</t>
-        </is>
-      </c>
-      <c r="E545" s="18" t="n"/>
+          <t>O emparelhamento VNet local e global fornece conectividade e é a abordagem preferencial para garantir a conectividade entre zonas de destino para implantações SAP em várias regiões do Azure</t>
+        </is>
+      </c>
+      <c r="E545" s="18" t="inlineStr">
+        <is>
+          <t>Ao configurar o emparelhamento VNet, use a configuração Permitir tráfego para redes virtuais remotas.</t>
+        </is>
+      </c>
       <c r="F545" s="18" t="inlineStr">
         <is>
           <t>Média</t>
@@ -29111,7 +29163,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-vnet-peering/?source=recommendations</t>
         </is>
       </c>
-      <c r="K545" s="19" t="n"/>
+      <c r="K545" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/virtualnetworks' | mvexpand properties.virtualNetworkPeerings | project id, peeringName=properties_virtualNetworkPeerings.name, compliant = (properties_virtualNetworkPeerings.properties.allowVirtualNetworkAccess =~ True)</t>
+        </is>
+      </c>
       <c r="L545" s="19" t="inlineStr">
         <is>
           <t>a3592829-e6e2-4061-9368-6af46791f893</t>
@@ -29196,7 +29252,7 @@
       </c>
       <c r="D547" s="18" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais em que você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="E547" s="18" t="n"/>
@@ -29221,7 +29277,11 @@
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="K547" s="19" t="n"/>
+      <c r="K547" s="19" t="inlineStr">
+        <is>
+          <t>resources| where type =~ 'microsoft.network/virtualwans' | extend compliant= (properties.allowBranchToBranchTraffic =~ 'true') | distinct id,compliant</t>
+        </is>
+      </c>
       <c r="L547" s="19" t="inlineStr">
         <is>
           <t>7d4bc7d2-c34a-452e-8f1d-6ae3c8eafcc3</t>
@@ -29251,7 +29311,7 @@
       </c>
       <c r="D548" s="18" t="inlineStr">
         <is>
-          <t>Considere a implantação de dispositivos virtuais de rede (NVAs) entre regiões somente se NVAs de parceiros forem usados. NVAs entre regiões ou VNets não são necessários se NVAs nativos estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as orientações do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
+          <t>Considere implantar NVAs (soluções de virtualização de rede) entre regiões somente se NVAs de parceiros forem usadas. NVAs entre regiões ou VNets não serão necessárias se NVAs nativas estiverem presentes. Ao implantar tecnologias de rede de parceiros e NVAs, siga as diretrizes do fornecedor para verificar configurações conflitantes com a rede do Azure.</t>
         </is>
       </c>
       <c r="E548" s="18" t="n"/>
@@ -29306,7 +29366,7 @@
       </c>
       <c r="D549" s="18" t="inlineStr">
         <is>
-          <t>A WAN virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não há necessidade de configurar o roteamento definido pelo usuário [UDR] ou NVAs), e a taxa de transferência máxima de rede para o tráfego de VNet-to-VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de aterrissagem SAP podem usar o emparelhamento de VNet para se conectar a outras zonas de aterrissagem e superar essa limitação de largura de banda.</t>
+          <t>A WAN Virtual gerencia a conectividade entre VNets spoke para topologias baseadas em WAN virtual (não é necessário configurar UDR [roteamento definido pelo usuário] ou NVAs) e a taxa de transferência máxima de rede para tráfego de VNet para VNet no mesmo hub virtual é de 50 gigabits por segundo. Se necessário, as zonas de destino do SAP podem usar o emparelhamento VNet para se conectar a outras zonas de destino e superar essa limitação de largura de banda.</t>
         </is>
       </c>
       <c r="E549" s="18" t="n"/>
@@ -29361,7 +29421,7 @@
       </c>
       <c r="D550" s="18" t="inlineStr">
         <is>
-          <t>A atribuição de IP público à VM que executa o SAP Workload não é recomendada.</t>
+          <t>A atribuição de IP público à VM que executa a carga de trabalho SAP não é recomendada.</t>
         </is>
       </c>
       <c r="E550" s="18" t="n"/>
@@ -29386,7 +29446,11 @@
           <t>https://learn.microsoft.com/training/modules/design-ip-addressing-for-azure/?source=recommendations</t>
         </is>
       </c>
-      <c r="K550" s="19" t="n"/>
+      <c r="K550" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Network/publicIPAddresses' and sku.tier =~ 'Regional' | where isempty(zones) or array_length(zones) &lt;= 1 | extend az = case(isempty(zones), 'Non-zonal', array_length(zones) &lt;= 1, strcat('Zonal (', strcat_array(zones, ','), ')'), zones) | project name, id, tags, param1 = strcat('sku: ', sku.name), param2 = strcat('availabilityZone: ', az)</t>
+        </is>
+      </c>
       <c r="L550" s="19" t="inlineStr">
         <is>
           <t>82734c88-6ba2-4802-8459-11475e39e530</t>
@@ -29416,7 +29480,7 @@
       </c>
       <c r="D551" s="18" t="inlineStr">
         <is>
-          <t>Considere reservar o endereço IP no lado do DR ao configurar o ASR</t>
+          <t>Considere reservar o endereço IP no lado da recuperação de desastre ao configurar o ASR</t>
         </is>
       </c>
       <c r="E551" s="18" t="n"/>
@@ -29441,7 +29505,11 @@
           <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
-      <c r="K551" s="19" t="n"/>
+      <c r="K551" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type contains 'publicIPAddresses' and isnotempty(properties.ipAddress) | summarize count () by subscriptionId</t>
+        </is>
+      </c>
       <c r="L551" s="19" t="inlineStr">
         <is>
           <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
@@ -29526,7 +29594,7 @@
       </c>
       <c r="D553" s="18" t="inlineStr">
         <is>
-          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma rede virtual, apenas uma sub-rede delegada pode existir em uma rede virtual para arquivos do Azure NetApp. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para Arquivos do Azure NetApp.</t>
+          <t>Embora o Azure ajude você a criar várias sub-redes delegadas em uma VNet, apenas uma sub-rede delegada pode existir em uma VNet para Azure NetApp Files. As tentativas de criar um novo volume falharão se você usar mais de uma sub-rede delegada para o Azure NetApp Files.</t>
         </is>
       </c>
       <c r="E553" s="18" t="n"/>
@@ -29606,7 +29674,11 @@
           <t>https://learn.microsoft.com/training/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
-      <c r="K554" s="19" t="n"/>
+      <c r="K554" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type=~'microsoft.network/virtualhubs' | extend compliant = isnotnull(properties.azureFirewall.id) | project id, compliant</t>
+        </is>
+      </c>
       <c r="L554" s="19" t="inlineStr">
         <is>
           <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
@@ -29636,7 +29708,7 @@
       </c>
       <c r="D555" s="18" t="inlineStr">
         <is>
-          <t>O Application Gateway e o Web Application Firewall têm limitações quando o Application Gateway serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Application Gateway, o SAP Web Dispatcher e outros serviços de terceiros.</t>
+          <t>O Gateway de Aplicativo e o Firewall de Aplicativo Web têm limitações quando o Gateway de Aplicativo serve como um proxy reverso para aplicativos Web SAP, conforme mostrado na comparação entre o Gateway de Aplicativo, o SAP Web Dispatcher e outros serviços de terceiros.</t>
         </is>
       </c>
       <c r="E555" s="18" t="n"/>
@@ -29691,7 +29763,7 @@
       </c>
       <c r="D556" s="18" t="inlineStr">
         <is>
-          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre as regiões do Azure para conexões HTTP/S de entrada para uma zona de aterrissagem.</t>
+          <t>Use as políticas do Azure Front Door e do WAF para fornecer proteção global entre regiões do Azure para conexões HTTP/S de entrada para uma zona de destino.</t>
         </is>
       </c>
       <c r="E556" s="18" t="n"/>
@@ -29746,7 +29818,7 @@
       </c>
       <c r="D557" s="18" t="inlineStr">
         <is>
-          <t>Aproveite as políticas do Web Application Firewall no Azure Front Door quando estiver usando o Azure Front Door e o Application Gateway para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
+          <t>Aproveite as políticas de Firewall de Aplicativo Web no Azure Front Door quando estiver usando o Azure Front Door e o Gateway de Aplicativo para proteger aplicativos HTTP/S. Bloqueie o Gateway de Aplicativo para receber tráfego somente do Azure Front Door.</t>
         </is>
       </c>
       <c r="E557" s="18" t="n"/>
@@ -29801,7 +29873,7 @@
       </c>
       <c r="D558" s="18" t="inlineStr">
         <is>
-          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele estiver exposto à Internet. Outra opção é usá-lo com seu balanceador de carga ou com recursos que tenham recursos internos de firewall, como o Application Gateway ou soluções de terceiros.</t>
+          <t>Use um firewall de aplicativo Web para verificar seu tráfego quando ele for exposto à Internet. Outra opção é usá-lo com o balanceador de carga ou com recursos que tenham recursos de firewall internos, como Gateway de Aplicativo ou soluções de terceiros.</t>
         </is>
       </c>
       <c r="E558" s="18" t="n"/>
@@ -29856,7 +29928,7 @@
       </c>
       <c r="D559" s="18" t="inlineStr">
         <is>
-          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais onde você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
+          <t>Use a WAN Virtual para implantações do Azure em redes novas, grandes ou globais em que você precisa de conectividade de trânsito global entre regiões do Azure e locais locais. Com essa abordagem, você não precisará configurar manualmente o roteamento transitivo para a rede do Azure e poderá seguir um padrão para implantações do SAP no Azure.</t>
         </is>
       </c>
       <c r="E559" s="18" t="n"/>
@@ -29911,7 +29983,7 @@
       </c>
       <c r="D560" s="18" t="inlineStr">
         <is>
-          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança recursos de plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como o Armazenamento do Azure, o Backup do Azure e muito mais. O tráfego entre sua rede virtual e o serviço habilitado para ponto de extremidade privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
+          <t>Para evitar o vazamento de dados, use o Link Privado do Azure para acessar com segurança os recursos da plataforma como serviço, como Armazenamento de Blobs do Azure, Arquivos do Azure, Azure Data Lake Storage Gen2, Azure Data Factory e muito mais. O Ponto de Extremidade Privado do Azure também pode ajudar a proteger o tráfego entre VNets e serviços como Armazenamento do Azure, Backup do Azure e muito mais. O tráfego entre sua VNet e o serviço habilitado para Ponto de Extremidade Privado viaja pela rede global da Microsoft, o que impede sua exposição à Internet pública.</t>
         </is>
       </c>
       <c r="E560" s="18" t="n"/>
@@ -29966,7 +30038,7 @@
       </c>
       <c r="D561" s="18" t="inlineStr">
         <is>
-          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas nas camadas de aplicativo SAP e DBMS.</t>
+          <t>Verifique se a rede acelerada do Azure está habilitada nas VMs usadas no aplicativo SAP e nas camadas do DBMS.</t>
         </is>
       </c>
       <c r="E561" s="18" t="n"/>
@@ -29991,7 +30063,11 @@
           <t>https://learn.microsoft.com/training/paths/azure-fundamentals-describe-azure-architecture-services/?source=recommendations</t>
         </is>
       </c>
-      <c r="K561" s="19" t="n"/>
+      <c r="K561" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'Microsoft.Network/NetworkInterfaces' | where properties.enableAcceleratedNetworking =~ 'false' | project name, subscriptionId, properties.enableAcceleratedNetworking</t>
+        </is>
+      </c>
       <c r="L561" s="19" t="inlineStr">
         <is>
           <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
@@ -30021,7 +30097,7 @@
       </c>
       <c r="D562" s="18" t="inlineStr">
         <is>
-          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar DSR (Direct Server Return). Essa configuração (Habilitando IP flutuante) reduzirá a latência quando as configurações internas do balanceador de carga forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
+          <t>Verifique se as implantações internas do Azure Load Balancer estão configuradas para usar o DSR (Retorno Direto do Servidor). Essa configuração (Habilitando IP Flutuante) reduzirá a latência quando as configurações do balanceador de carga interno forem usadas para configurações de alta disponibilidade na camada DBMS.</t>
         </is>
       </c>
       <c r="E562" s="18" t="n"/>
@@ -30076,7 +30152,7 @@
       </c>
       <c r="D563" s="18" t="inlineStr">
         <is>
-          <t>Você pode usar as regras ASG (grupo de segurança de aplicativo) e NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
+          <t>Você pode usar o ASG (grupo de segurança do aplicativo) e as regras do NSG para definir listas de controle de acesso de segurança de rede entre o aplicativo SAP e as camadas do DBMS. Os ASGs agrupam máquinas virtuais para ajudar a gerenciar sua segurança.</t>
         </is>
       </c>
       <c r="E563" s="18" t="n"/>
@@ -30101,7 +30177,11 @@
           <t>https://learn.microsoft.com/training/modules/configure-network-security-groups/?source=recommendations</t>
         </is>
       </c>
-      <c r="K563" s="19" t="n"/>
+      <c r="K563" s="19" t="inlineStr">
+        <is>
+          <t>Resources | where type =~ 'microsoft.network/networksecuritygroups' and isnull(properties.networkInterfaces) and isnull(properties.subnets) | project name, resourceGroup | sort by name asc</t>
+        </is>
+      </c>
       <c r="L563" s="19" t="inlineStr">
         <is>
           <t>6791f893-5ada-4433-84e1-3811523181aa</t>
@@ -30131,7 +30211,7 @@
       </c>
       <c r="D564" s="18" t="inlineStr">
         <is>
-          <t>Não há suporte para a colocação da camada de aplicativo SAP e do SGBD SAP em diferentes VNets do Azure que não são emparelhadas.</t>
+          <t>Não há suporte para a colocação da camada de aplicativo SAP e do DBMS SAP em diferentes VNets do Azure que não estão emparelhadas.</t>
         </is>
       </c>
       <c r="E564" s="18" t="n"/>
@@ -30186,7 +30266,7 @@
       </c>
       <c r="D565" s="18" t="inlineStr">
         <is>
-          <t>Para obter a latência de rede ideal com aplicativos SAP, considere o uso de grupos de posicionamento de proximidade do Azure.</t>
+          <t>Para obter a latência de rede ideal com aplicativos SAP, considere usar grupos de posicionamento por proximidade do Azure.</t>
         </is>
       </c>
       <c r="E565" s="18" t="n"/>
@@ -30241,7 +30321,7 @@
       </c>
       <c r="D566" s="18" t="inlineStr">
         <is>
-          <t>NÃO há suporte para executar uma camada do SAP Application Server e uma camada de DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
+          <t>NÃO há suporte para executar uma camada do Servidor de Aplicativos SAP e uma camada do DBMS dividida entre o local e o Azure. Ambas as camadas precisam residir completamente no local ou no Azure.</t>
         </is>
       </c>
       <c r="E566" s="18" t="n"/>
@@ -30296,7 +30376,7 @@
       </c>
       <c r="D567" s="18" t="inlineStr">
         <is>
-          <t>Não é recomendado hospedar o sistema de gerenciamento de banco de dados (DBMS) e as camadas de aplicativos dos sistemas SAP em diferentes VNets e conectá-los ao emparelhamento de VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomende o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada DBMS.</t>
+          <t>Não é recomendável hospedar o DBMS (sistema de gerenciamento de banco de dados) e as camadas de aplicativo de sistemas SAP em VNets diferentes e conectá-los ao emparelhamento VNet devido aos custos substanciais que o tráfego de rede excessivo entre as camadas pode produzir. Recomendamos o uso de sub-redes na rede virtual do Azure para separar a camada de aplicativo SAP e a camada de DBMS.</t>
         </is>
       </c>
       <c r="E567" s="18" t="n"/>
@@ -30406,7 +30486,7 @@
       </c>
       <c r="D569" s="18" t="inlineStr">
         <is>
-          <t>Para implantações SAP RISE/ECS, o emparelhamento virtual é a maneira preferida de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a vnet do SAP quanto a(s) vnet(s) do cliente são protegidas com grupos de segurança de rede (NSG), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento vnet</t>
+          <t>Para implantações do SAP RISE/ECS, o emparelhamento virtual é a maneira preferencial de estabelecer conectividade com o ambiente existente do Azure do cliente. Tanto a rede virtual SAP quanto a(s) rede virtual(is) do cliente são protegidas com NSG (grupos de segurança de rede), permitindo a comunicação nas portas SAP e de banco de dados por meio do emparelhamento de rede virtual</t>
         </is>
       </c>
       <c r="E569" s="18" t="n"/>
@@ -30457,7 +30537,7 @@
       </c>
       <c r="D570" s="18" t="inlineStr">
         <is>
-          <t>Revise os backups de banco de dados do SAP HANA para VMs do Azure.</t>
+          <t>Examine os backups de banco de dados do SAP HANA para VMs do Azure.</t>
         </is>
       </c>
       <c r="E570" s="18" t="n"/>
@@ -30508,7 +30588,7 @@
       </c>
       <c r="D571" s="18" t="inlineStr">
         <is>
-          <t>Revise o monitoramento interno do Site Recovery, quando usado para SAP.</t>
+          <t>Examine o monitoramento interno do Site Recovery, quando usado para SAP.</t>
         </is>
       </c>
       <c r="E571" s="18" t="n"/>
@@ -30559,7 +30639,7 @@
       </c>
       <c r="D572" s="18" t="inlineStr">
         <is>
-          <t>Revise as diretrizes de monitoramento do cenário do sistema SAP HANA.</t>
+          <t>Revise as diretrizes Monitorando o cenário do sistema SAP HANA.</t>
         </is>
       </c>
       <c r="E572" s="18" t="n"/>
@@ -30610,7 +30690,7 @@
       </c>
       <c r="D573" s="18" t="inlineStr">
         <is>
-          <t>Revise o Banco de Dados Oracle nas estratégias de backup de VM do Linux do Azure.</t>
+          <t>Examine o Oracle Database nas estratégias de backup de VM Linux do Azure.</t>
         </is>
       </c>
       <c r="E573" s="18" t="n"/>
@@ -30661,7 +30741,7 @@
       </c>
       <c r="D574" s="18" t="inlineStr">
         <is>
-          <t>Analise o uso do Armazenamento de Blobs do Azure com o SQL Server 2016.</t>
+          <t>Examine o uso do Armazenamento de Blobs do Azure com o SQL Server 2016.</t>
         </is>
       </c>
       <c r="E574" s="18" t="n"/>
@@ -30712,7 +30792,7 @@
       </c>
       <c r="D575" s="18" t="inlineStr">
         <is>
-          <t>Analise o uso do Backup Automatizado v2 para VMs do Azure.</t>
+          <t>Examine o uso do Backup Automatizado v2 para VMs do Azure.</t>
         </is>
       </c>
       <c r="E575" s="18" t="n"/>
@@ -30763,7 +30843,7 @@
       </c>
       <c r="D576" s="18" t="inlineStr">
         <is>
-          <t>Ativando o acelerador de gravação para a série M ao usar discos premium (V1)</t>
+          <t>Habilitando o acelerador de gravação para a série M ao usar discos premium (V1)</t>
         </is>
       </c>
       <c r="E576" s="18" t="n"/>
@@ -30810,7 +30890,7 @@
       </c>
       <c r="D577" s="18" t="inlineStr">
         <is>
-          <t>Testar a latência da zona de disponibilidade.</t>
+          <t>Teste a latência da zona de disponibilidade.</t>
         </is>
       </c>
       <c r="E577" s="18" t="n"/>
@@ -31018,7 +31098,7 @@
       </c>
       <c r="D581" s="18" t="inlineStr">
         <is>
-          <t>Teste a latência de rede entre VMs de camada de aplicativo SAP e VMs DBMS (NIPING).</t>
+          <t>Teste a latência de rede entre VMs da camada de aplicativo SAP e VMs do DBMS (NIPING).</t>
         </is>
       </c>
       <c r="E581" s="18" t="n"/>
@@ -31175,7 +31255,7 @@
       </c>
       <c r="D584" s="18" t="inlineStr">
         <is>
-          <t>Se você executar VMs do Windows e Linux no Azure, no local ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
+          <t>Se você executar VMs do Windows e do Linux no Azure, localmente ou em outros ambientes de nuvem, poderá usar o Centro de gerenciamento de atualizações na Automação do Azure para gerenciar atualizações do sistema operacional, incluindo patches de segurança.</t>
         </is>
       </c>
       <c r="E584" s="18" t="n"/>
@@ -31230,7 +31310,7 @@
       </c>
       <c r="D585" s="18" t="inlineStr">
         <is>
-          <t>Analise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
+          <t>Revise rotineiramente as notas de OSS de segurança do SAP porque o SAP lança patches de segurança altamente críticos, ou hot fixes, que exigem ação imediata para proteger seus sistemas SAP.</t>
         </is>
       </c>
       <c r="E585" s="18" t="n"/>
@@ -31285,7 +31365,7 @@
       </c>
       <c r="D586" s="18" t="inlineStr">
         <is>
-          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta de administrador do sistema original.</t>
+          <t>Para SAP no SQL Server, você pode desabilitar a conta de administrador do sistema do SQL Server porque os sistemas SAP no SQL Server não usam a conta. Certifique-se de que outro usuário com direitos de administrador do sistema possa acessar o servidor antes de desabilitar a conta original de administrador do sistema.</t>
         </is>
       </c>
       <c r="E586" s="18" t="n"/>
@@ -31336,7 +31416,7 @@
       </c>
       <c r="D587" s="18" t="inlineStr">
         <is>
-          <t>Desative xp_cmdshell. O recurso do SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
+          <t>Desative xp_cmdshell. O recurso SQL Server xp_cmdshell habilita um shell de comando do sistema operacional interno do SQL Server. É um risco potencial em auditorias de segurança.</t>
         </is>
       </c>
       <c r="E587" s="18" t="n"/>
@@ -31391,7 +31471,7 @@
       </c>
       <c r="D588" s="18" t="inlineStr">
         <is>
-          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Criptografia de Dados Transparente) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
+          <t>A criptografia de servidores de banco de dados SAP HANA no Azure usa a tecnologia de criptografia nativa do SAP HANA. Além disso, se você estiver usando o SQL Server no Azure, use a TDE (Transparent Data Encryption) para proteger seus dados e arquivos de log e garantir que seus backups também sejam criptografados.</t>
         </is>
       </c>
       <c r="E588" s="18" t="n"/>
@@ -31446,7 +31526,7 @@
       </c>
       <c r="D589" s="18" t="inlineStr">
         <is>
-          <t>A criptografia de Armazenamento do Azure está habilitada para todas as contas clássicas e do Gerenciador de Recursos do Azure e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
+          <t>A criptografia do Armazenamento do Azure está habilitada para todas as contas de armazenamento clássicas e do Azure Resource Manager e não pode ser desabilitada. Como seus dados são criptografados por padrão, você não precisa modificar seu código ou aplicativos para usar a criptografia do Armazenamento do Azure.</t>
         </is>
       </c>
       <c r="E589" s="18" t="n"/>
@@ -31501,7 +31581,7 @@
       </c>
       <c r="D590" s="18" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves do Azure para armazenar seus segredos e credenciais</t>
+          <t>Usar o Azure Key Vault para armazenar seus segredos e credenciais</t>
         </is>
       </c>
       <c r="E590" s="18" t="n"/>
@@ -31526,7 +31606,11 @@
           <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
-      <c r="K590" s="19" t="n"/>
+      <c r="K590" s="19" t="inlineStr">
+        <is>
+          <t>Resources | join kind=leftouter (ResourceContainers | where type=~'microsoft.resources/subscriptions' | project SubName=name, subscriptionId) on subscriptionId | where type =~ 'microsoft.keyvault/vaults' | project type, name, SubName</t>
+        </is>
+      </c>
       <c r="L590" s="19" t="inlineStr">
         <is>
           <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
@@ -31556,7 +31640,7 @@
       </c>
       <c r="D591" s="18" t="inlineStr">
         <is>
-          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras LOCK em sua base por assinatura usando políticas personalizadas do Azure (função Personalizada).</t>
+          <t>É recomendável BLOQUEAR os Recursos do Azure após a implantação bem-sucedida para proteger contra alterações não autorizadas. Você também pode impor restrições e regras de LOCK por assinatura usando políticas personalizadas do Azure (função personalizada).</t>
         </is>
       </c>
       <c r="E591" s="18" t="n"/>
@@ -31611,7 +31695,7 @@
       </c>
       <c r="D592" s="18" t="inlineStr">
         <is>
-          <t>Provisione o Cofre de Chaves do Azure com as políticas de exclusão e limpeza suaves habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
+          <t>Provisione o Azure Key Vault com as políticas de exclusão reversível e limpeza habilitadas para permitir a proteção de retenção para objetos excluídos.</t>
         </is>
       </c>
       <c r="E592" s="18" t="n"/>
@@ -31666,7 +31750,7 @@
       </c>
       <c r="D593" s="18" t="inlineStr">
         <is>
-          <t>Com base nos requisitos existentes, controles normativos e de conformidade (internos/externos) - Determine quais Políticas do Azure e a função RBAC do Azure são necessárias</t>
+          <t>Com base nos requisitos existentes, controles regulatórios e de conformidade (internos/externos) – determine quais políticas do Azure e a função RBAC do Azure são necessárias</t>
         </is>
       </c>
       <c r="E593" s="18" t="n"/>
@@ -31721,7 +31805,7 @@
       </c>
       <c r="D594" s="18" t="inlineStr">
         <is>
-          <t>Ao habilitar o Microsoft Defender for Endpoint no ambiente SAP, recomende excluir arquivos de dados e de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
+          <t>Ao habilitar o Microsoft Defender para Ponto de Extremidade no ambiente SAP, recomendamos excluir dados e arquivos de log em servidores DBMS em vez de direcionar todos os servidores. Siga as recomendações do fornecedor do DBMS ao excluir arquivos de destino.</t>
         </is>
       </c>
       <c r="E594" s="18" t="n"/>
@@ -31776,7 +31860,7 @@
       </c>
       <c r="D595" s="18" t="inlineStr">
         <is>
-          <t>Delegue uma função personalizada de administrador SAP com acesso just-in-time do Microsoft Defender for Cloud.</t>
+          <t>Delegue uma função personalizada de administrador do SAP com acesso just-in-time do Microsoft Defender para Nuvem.</t>
         </is>
       </c>
       <c r="E595" s="18" t="n"/>
@@ -31886,7 +31970,7 @@
       </c>
       <c r="D597" s="18" t="inlineStr">
         <is>
-          <t>O padrão é chaves gerenciadas pela Microsoft para a funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
+          <t>Padrão para chaves gerenciadas pela Microsoft para funcionalidade de criptografia principal e use chaves gerenciadas pelo cliente quando necessário.</t>
         </is>
       </c>
       <c r="E597" s="18" t="n"/>
@@ -31941,7 +32025,7 @@
       </c>
       <c r="D598" s="18" t="inlineStr">
         <is>
-          <t>Use um Cofre de Chaves do Azure por aplicativo, por ambiente, por região.</t>
+          <t>Use um Azure Key Vault por aplicativo por ambiente por região.</t>
         </is>
       </c>
       <c r="E598" s="18" t="n"/>
@@ -31966,7 +32050,11 @@
           <t>https://learn.microsoft.com/training/modules/manage-secrets-with-azure-key-vault/?source=recommendations</t>
         </is>
       </c>
-      <c r="K598" s="19" t="n"/>
+      <c r="K598" s="19" t="inlineStr">
+        <is>
+          <t>Resources | join kind=leftouter (ResourceContainers | where type=~'microsoft.resources/subscriptions' | project SubName=name, subscriptionId) on subscriptionId | where type =~ 'microsoft.keyvault/vaults' | project type, name, SubName</t>
+        </is>
+      </c>
       <c r="L598" s="19" t="inlineStr">
         <is>
           <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
@@ -31996,7 +32084,7 @@
       </c>
       <c r="D599" s="18" t="inlineStr">
         <is>
-          <t>Para controlar e gerenciar chaves de criptografia de disco e segredos para sistemas operacionais Windows e não Windows HANA, use o Cofre de Chaves do Azure. O SAP HANA não tem suporte com o Cofre de Chaves do Azure, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
+          <t>Para controlar e gerenciar chaves e segredos de criptografia de disco para sistemas operacionais Windows e Windows não HANA, use o Azure Key Vault. Não há suporte para o SAP HANA com o Azure Key Vault, portanto, você deve usar métodos alternativos, como chaves SAP ABAP ou SSH.</t>
         </is>
       </c>
       <c r="E599" s="18" t="n"/>
@@ -32051,7 +32139,7 @@
       </c>
       <c r="D600" s="18" t="inlineStr">
         <is>
-          <t>Personalizar funções RBAC (controle de acesso baseado em função) para SAP em assinaturas spoke do Azure para evitar alterações acidentais relacionadas à rede</t>
+          <t>Personalizar funções RBAC (controle de acesso baseado em função) para assinaturas SAP on Azure spoke para evitar alterações acidentais relacionadas à rede</t>
         </is>
       </c>
       <c r="E600" s="18" t="n"/>
@@ -32106,7 +32194,7 @@
       </c>
       <c r="D601" s="18" t="inlineStr">
         <is>
-          <t>Isole DMZs e NVAs do restante do estado SAP, configure o Azure Private Link e gerencie e controle com segurança os recursos do SAP no Azure</t>
+          <t>Isole DMZs e NVAs do restante da propriedade SAP, configure o Link Privado do Azure e gerencie e controle com segurança os recursos do SAP no Azure</t>
         </is>
       </c>
       <c r="E601" s="18" t="n"/>
@@ -32216,7 +32304,7 @@
       </c>
       <c r="D603" s="18" t="inlineStr">
         <is>
-          <t>Para obter uma proteção ainda mais poderosa, considere usar o Microsoft Defender for Endpoint.</t>
+          <t>Para obter uma proteção ainda mais poderosa, considere usar Microsoft Defender para Ponto de Extremidade.</t>
         </is>
       </c>
       <c r="E603" s="18" t="n"/>
@@ -32271,7 +32359,7 @@
       </c>
       <c r="D604" s="18" t="inlineStr">
         <is>
-          <t>Isole os servidores de aplicativo e banco de dados SAP da Internet ou da rede local passando todo o tráfego pela rede virtual de hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
+          <t>Isole o aplicativo SAP e os servidores de banco de dados da Internet ou da rede local passando todo o tráfego pela rede virtual do hub, que está conectada à rede spoke por emparelhamento de rede virtual. As redes virtuais emparelhadas garantem que a solução SAP no Azure seja isolada da Internet pública.</t>
         </is>
       </c>
       <c r="E604" s="18" t="n"/>
@@ -32326,7 +32414,7 @@
       </c>
       <c r="D605" s="18" t="inlineStr">
         <is>
-          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos de aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Web Application Firewall) de terceiros disponível no Azure Marketplace.</t>
+          <t>Para aplicativos voltados para a Internet, como o SAP Fiori, certifique-se de distribuir a carga por requisitos do aplicativo, mantendo os níveis de segurança. Para segurança de Camada 7, você pode usar um WAF (Firewall de Aplicativo Web) de terceiros disponível no Azure Marketplace.</t>
         </is>
       </c>
       <c r="E605" s="18" t="n"/>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -32137,7 +32137,11 @@
         </is>
       </c>
       <c r="J607" s="13" t="n"/>
-      <c r="K607" s="19" t="n"/>
+      <c r="K607" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['requestBodyCheck'] == 'true' and properties['policySettings']['state'] =~ 'Enabled') | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L607" s="19" t="inlineStr">
         <is>
           <t>8ea8e0d4-84e8-4b33-aeab-493f6391b4d6</t>
@@ -32239,7 +32243,11 @@
         </is>
       </c>
       <c r="J609" s="13" t="n"/>
-      <c r="K609" s="19" t="n"/>
+      <c r="K609" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type =~ 'microsoft.network/applicationgatewaywebapplicationfirewallpolicies' | extend compliant = (properties['policySettings']['mode'] =~ 'Prevention')| where properties['policySettings']['mode'] =~ 'Prevention' | distinct id, name, compliant</t>
+        </is>
+      </c>
       <c r="L609" s="19" t="inlineStr">
         <is>
           <t>baf8e317-2397-4d49-b3d1-0dcc16d8778d</t>
@@ -32800,7 +32808,11 @@
         </is>
       </c>
       <c r="J620" s="13" t="n"/>
-      <c r="K620" s="19" t="n"/>
+      <c r="K620" s="19" t="inlineStr">
+        <is>
+          <t>resources | where type == 'microsoft.network/applicationgateways'| extend compliant = (properties['backendHttpSettingsCollection'][0]['properties']['port'] =~ '443') |where properties['backendHttpSettingsCollection'][0]['properties']['port'] =~ '443'|distinct id,name,compliant</t>
+        </is>
+      </c>
       <c r="L620" s="19" t="inlineStr">
         <is>
           <t>a66f0fd8-2ca4-422e-8df3-235148127ca2</t>

--- a/spreadsheet/macrofree/waf_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/waf_checklist.pt.xlsx
@@ -35605,7 +35605,7 @@
       </c>
       <c r="C673" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D673" s="18" t="inlineStr">
@@ -35660,7 +35660,7 @@
       </c>
       <c r="C674" s="18" t="inlineStr">
         <is>
-          <t>Load Balancers</t>
+          <t>Load Balancer</t>
         </is>
       </c>
       <c r="D674" s="18" t="inlineStr">
